--- a/data/Osorno.xlsx
+++ b/data/Osorno.xlsx
@@ -2728,7 +2728,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN A LA DECLARACIÓN DE IMPACTO AMBIENTAL PISCICULTURA EL VENADO</t>
+          <t>Ampliación de extracción de áridos en Pozo Jauregui</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2743,11 +2743,11 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Sociedad Agrícola Covarrubias Fernández Ltda.</t>
+          <t>Juan Carlos Jauregui Hidalgo</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>2500</v>
+        <v>500</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
@@ -2756,12 +2756,12 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7555686&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7547676&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -2776,7 +2776,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Ampliación de extracción de áridos en Pozo Jauregui</t>
+          <t>MODIFICACIÓN A LA DECLARACIÓN DE IMPACTO AMBIENTAL PISCICULTURA EL VENADO</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2791,11 +2791,11 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Juan Carlos Jauregui Hidalgo</t>
+          <t>Sociedad Agrícola Covarrubias Fernández Ltda.</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>500</v>
+        <v>2500</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
@@ -2804,12 +2804,12 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7547676&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7555686&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -4792,7 +4792,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>ESTUDIO Y DISEÑO PLAN DE CIERRE VERTEDERO COMUNA DE OSORNO (e-seia)</t>
+          <t>Transporte Inter-Regional Terrestre de Residuos, PROCESAN S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -4802,16 +4802,16 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Osorno</t>
+          <t>PROCESAN S.A.</t>
         </is>
       </c>
       <c r="F93" t="n">
-        <v>3400</v>
+        <v>377</v>
       </c>
       <c r="G93" t="inlineStr">
         <is>
@@ -4820,12 +4820,12 @@
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4139027&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4134794&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
@@ -4840,7 +4840,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Transporte Inter-Regional Terrestre de Residuos, PROCESAN S.A. (e-seia)</t>
+          <t>ESTUDIO Y DISEÑO PLAN DE CIERRE VERTEDERO COMUNA DE OSORNO (e-seia)</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -4850,16 +4850,16 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>PROCESAN S.A.</t>
+          <t>Ilustre Municipalidad de Osorno</t>
         </is>
       </c>
       <c r="F94" t="n">
-        <v>377</v>
+        <v>3400</v>
       </c>
       <c r="G94" t="inlineStr">
         <is>
@@ -4868,12 +4868,12 @@
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4134794&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4139027&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
@@ -5700,7 +5700,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS DE PLOMO Y BATERÍAS USADAS POR LAS REGIONES VI, VII, VIII, IX, XIV y X (e-seia)</t>
+          <t>Proyecto Inmobiliario Portal Osorno (e-seia)</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -5710,16 +5710,16 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>Industria Proveedora de Partes Metalurgicas Ltda.</t>
+          <t>Inmobiliaria Martabid Limitada</t>
         </is>
       </c>
       <c r="F112" t="n">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G112" t="inlineStr">
         <is>
@@ -5728,12 +5728,12 @@
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3249759&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3272599&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
@@ -5748,7 +5748,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Proyecto Inmobiliario Portal Osorno (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS DE PLOMO Y BATERÍAS USADAS POR LAS REGIONES VI, VII, VIII, IX, XIV y X (e-seia)</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -5758,16 +5758,16 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>Inmobiliaria Martabid Limitada</t>
+          <t>Industria Proveedora de Partes Metalurgicas Ltda.</t>
         </is>
       </c>
       <c r="F113" t="n">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="G113" t="inlineStr">
         <is>
@@ -5776,12 +5776,12 @@
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3272599&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3249759&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
@@ -6900,7 +6900,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>CONJUNTO HABITACIONAL JARDIN DEL ALTO,OSORNO (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -6910,16 +6910,16 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>Inmobiliaria Fourcade S.A.</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F137" t="n">
-        <v>3370</v>
+        <v>10</v>
       </c>
       <c r="G137" t="inlineStr">
         <is>
@@ -6928,12 +6928,12 @@
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2359952&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
@@ -6948,7 +6948,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>CONJUNTO HABITACIONAL JARDIN DEL ALTO,OSORNO (e-seia)</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -6958,16 +6958,16 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>Inmobiliaria Fourcade S.A.</t>
         </is>
       </c>
       <c r="F138" t="n">
-        <v>10</v>
+        <v>3370</v>
       </c>
       <c r="G138" t="inlineStr">
         <is>
@@ -6976,12 +6976,12 @@
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2359952&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">

--- a/data/Osorno.xlsx
+++ b/data/Osorno.xlsx
@@ -2728,7 +2728,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Ampliación de extracción de áridos en Pozo Jauregui</t>
+          <t>MODIFICACIÓN A LA DECLARACIÓN DE IMPACTO AMBIENTAL PISCICULTURA EL VENADO</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2743,11 +2743,11 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Juan Carlos Jauregui Hidalgo</t>
+          <t>Sociedad Agrícola Covarrubias Fernández Ltda.</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>500</v>
+        <v>2500</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
@@ -2756,12 +2756,12 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7547676&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7555686&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -2776,7 +2776,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN A LA DECLARACIÓN DE IMPACTO AMBIENTAL PISCICULTURA EL VENADO</t>
+          <t>Ampliación de extracción de áridos en Pozo Jauregui</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2791,11 +2791,11 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Sociedad Agrícola Covarrubias Fernández Ltda.</t>
+          <t>Juan Carlos Jauregui Hidalgo</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>2500</v>
+        <v>500</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
@@ -2804,12 +2804,12 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7555686&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7547676&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -4792,7 +4792,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Transporte Inter-Regional Terrestre de Residuos, PROCESAN S.A. (e-seia)</t>
+          <t>ESTUDIO Y DISEÑO PLAN DE CIERRE VERTEDERO COMUNA DE OSORNO (e-seia)</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -4802,16 +4802,16 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>PROCESAN S.A.</t>
+          <t>Ilustre Municipalidad de Osorno</t>
         </is>
       </c>
       <c r="F93" t="n">
-        <v>377</v>
+        <v>3400</v>
       </c>
       <c r="G93" t="inlineStr">
         <is>
@@ -4820,12 +4820,12 @@
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4134794&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4139027&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
@@ -4840,7 +4840,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>ESTUDIO Y DISEÑO PLAN DE CIERRE VERTEDERO COMUNA DE OSORNO (e-seia)</t>
+          <t>Transporte Inter-Regional Terrestre de Residuos, PROCESAN S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -4850,16 +4850,16 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Osorno</t>
+          <t>PROCESAN S.A.</t>
         </is>
       </c>
       <c r="F94" t="n">
-        <v>3400</v>
+        <v>377</v>
       </c>
       <c r="G94" t="inlineStr">
         <is>
@@ -4868,12 +4868,12 @@
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4139027&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4134794&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
@@ -5700,7 +5700,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Proyecto Inmobiliario Portal Osorno (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS DE PLOMO Y BATERÍAS USADAS POR LAS REGIONES VI, VII, VIII, IX, XIV y X (e-seia)</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -5710,16 +5710,16 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>Inmobiliaria Martabid Limitada</t>
+          <t>Industria Proveedora de Partes Metalurgicas Ltda.</t>
         </is>
       </c>
       <c r="F112" t="n">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="G112" t="inlineStr">
         <is>
@@ -5728,12 +5728,12 @@
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3272599&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3249759&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
@@ -5748,7 +5748,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS DE PLOMO Y BATERÍAS USADAS POR LAS REGIONES VI, VII, VIII, IX, XIV y X (e-seia)</t>
+          <t>Proyecto Inmobiliario Portal Osorno (e-seia)</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -5758,16 +5758,16 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>Industria Proveedora de Partes Metalurgicas Ltda.</t>
+          <t>Inmobiliaria Martabid Limitada</t>
         </is>
       </c>
       <c r="F113" t="n">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G113" t="inlineStr">
         <is>
@@ -5776,12 +5776,12 @@
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3249759&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3272599&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
@@ -6900,7 +6900,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>CONJUNTO HABITACIONAL JARDIN DEL ALTO,OSORNO (e-seia)</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -6910,16 +6910,16 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>Inmobiliaria Fourcade S.A.</t>
         </is>
       </c>
       <c r="F137" t="n">
-        <v>10</v>
+        <v>3370</v>
       </c>
       <c r="G137" t="inlineStr">
         <is>
@@ -6928,12 +6928,12 @@
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2359952&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
@@ -6948,7 +6948,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>CONJUNTO HABITACIONAL JARDIN DEL ALTO,OSORNO (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -6958,16 +6958,16 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>Inmobiliaria Fourcade S.A.</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F138" t="n">
-        <v>3370</v>
+        <v>10</v>
       </c>
       <c r="G138" t="inlineStr">
         <is>
@@ -6976,12 +6976,12 @@
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2359952&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">

--- a/data/Osorno.xlsx
+++ b/data/Osorno.xlsx
@@ -2728,7 +2728,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Ampliación de extracción de áridos en Pozo Jauregui</t>
+          <t>MODIFICACIÓN A LA DECLARACIÓN DE IMPACTO AMBIENTAL PISCICULTURA EL VENADO</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2743,11 +2743,11 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Juan Carlos Jauregui Hidalgo</t>
+          <t>Sociedad Agrícola Covarrubias Fernández Ltda.</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>500</v>
+        <v>2500</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
@@ -2756,12 +2756,12 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7547676&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7555686&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -2776,7 +2776,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN A LA DECLARACIÓN DE IMPACTO AMBIENTAL PISCICULTURA EL VENADO</t>
+          <t>Ampliación de extracción de áridos en Pozo Jauregui</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2791,11 +2791,11 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Sociedad Agrícola Covarrubias Fernández Ltda.</t>
+          <t>Juan Carlos Jauregui Hidalgo</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>2500</v>
+        <v>500</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
@@ -2804,12 +2804,12 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7555686&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7547676&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -3463,7 +3463,7 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>SISTEMA DE TRANSMISIÓN DEL SUR S.A.</t>
+          <t>Sistema de Transmisión del Sur S.A.</t>
         </is>
       </c>
       <c r="F65" t="n">
@@ -3895,7 +3895,7 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>SISTEMA DE TRANSMISIÓN DEL SUR S.A.</t>
+          <t>Sistema de Transmisión del Sur S.A.</t>
         </is>
       </c>
       <c r="F74" t="n">
@@ -4615,7 +4615,7 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>SISTEMA DE TRANSMISIÓN DEL SUR S.A.</t>
+          <t>Sistema de Transmisión del Sur S.A.</t>
         </is>
       </c>
       <c r="F89" t="n">
@@ -4711,7 +4711,7 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>SISTEMA DE TRANSMISIÓN DEL SUR S.A.</t>
+          <t>Sistema de Transmisión del Sur S.A.</t>
         </is>
       </c>
       <c r="F91" t="n">
@@ -4792,7 +4792,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Transporte Inter-Regional Terrestre de Residuos, PROCESAN S.A. (e-seia)</t>
+          <t>ESTUDIO Y DISEÑO PLAN DE CIERRE VERTEDERO COMUNA DE OSORNO (e-seia)</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -4802,16 +4802,16 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>PROCESAN S.A.</t>
+          <t>Ilustre Municipalidad de Osorno</t>
         </is>
       </c>
       <c r="F93" t="n">
-        <v>377</v>
+        <v>3400</v>
       </c>
       <c r="G93" t="inlineStr">
         <is>
@@ -4820,12 +4820,12 @@
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4134794&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4139027&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
@@ -4840,7 +4840,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>ESTUDIO Y DISEÑO PLAN DE CIERRE VERTEDERO COMUNA DE OSORNO (e-seia)</t>
+          <t>Transporte Inter-Regional Terrestre de Residuos, PROCESAN S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -4850,16 +4850,16 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Osorno</t>
+          <t>PROCESAN S.A.</t>
         </is>
       </c>
       <c r="F94" t="n">
-        <v>3400</v>
+        <v>377</v>
       </c>
       <c r="G94" t="inlineStr">
         <is>
@@ -4868,12 +4868,12 @@
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4139027&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4134794&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
@@ -5700,7 +5700,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Proyecto Inmobiliario Portal Osorno (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS DE PLOMO Y BATERÍAS USADAS POR LAS REGIONES VI, VII, VIII, IX, XIV y X (e-seia)</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -5710,16 +5710,16 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>Inmobiliaria Martabid Limitada</t>
+          <t>Industria Proveedora de Partes Metalurgicas Ltda.</t>
         </is>
       </c>
       <c r="F112" t="n">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="G112" t="inlineStr">
         <is>
@@ -5728,12 +5728,12 @@
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3272599&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3249759&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
@@ -5748,7 +5748,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS DE PLOMO Y BATERÍAS USADAS POR LAS REGIONES VI, VII, VIII, IX, XIV y X (e-seia)</t>
+          <t>Proyecto Inmobiliario Portal Osorno (e-seia)</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -5758,16 +5758,16 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>Industria Proveedora de Partes Metalurgicas Ltda.</t>
+          <t>Inmobiliaria Martabid Limitada</t>
         </is>
       </c>
       <c r="F113" t="n">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G113" t="inlineStr">
         <is>
@@ -5776,12 +5776,12 @@
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3249759&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3272599&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
@@ -6900,7 +6900,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>CONJUNTO HABITACIONAL JARDIN DEL ALTO,OSORNO (e-seia)</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -6910,16 +6910,16 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>Inmobiliaria Fourcade S.A.</t>
         </is>
       </c>
       <c r="F137" t="n">
-        <v>10</v>
+        <v>3370</v>
       </c>
       <c r="G137" t="inlineStr">
         <is>
@@ -6928,12 +6928,12 @@
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2359952&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
@@ -6948,7 +6948,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>CONJUNTO HABITACIONAL JARDIN DEL ALTO,OSORNO (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -6958,16 +6958,16 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>Inmobiliaria Fourcade S.A.</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F138" t="n">
-        <v>3370</v>
+        <v>10</v>
       </c>
       <c r="G138" t="inlineStr">
         <is>
@@ -6976,12 +6976,12 @@
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2359952&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
@@ -9987,7 +9987,7 @@
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>SISTEMA DE TRANSMISIÓN DEL SUR S.A.</t>
+          <t>Sistema de Transmisión del Sur S.A.</t>
         </is>
       </c>
       <c r="F201" t="n">

--- a/data/Osorno.xlsx
+++ b/data/Osorno.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J230"/>
+  <dimension ref="A1:J231"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,7 +424,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>?Ampliación Superficie Planta de Disposición Final de Residuos Biológicos No Peligrosos Industriales ECOPRIAL? Región de Los Lagos</t>
+          <t>BALNEARIO FLUVIAL \"Río Damas\"</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -439,25 +439,25 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Raul Albrecht Barrientos</t>
+          <t>Inversiones y Comercial Southern World SpA</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>650</v>
+        <v>30400</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>22/12/2021</t>
+          <t>23/05/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>En Admisión</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2154450586&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155928380&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -472,7 +472,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Condominio Rahue</t>
+          <t>?Ampliación Superficie Planta de Disposición Final de Residuos Biológicos No Peligrosos Industriales ECOPRIAL? Región de Los Lagos</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -487,15 +487,15 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Constructora Pacal S.A.</t>
+          <t>Raul Albrecht Barrientos</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>8586</v>
+        <v>650</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>10/05/2021</t>
+          <t>22/12/2021</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -505,7 +505,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151757396&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2154450586&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -520,7 +520,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>BALNEARIO FLUVIAL RÍO DAMAS</t>
+          <t>Condominio Rahue</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -535,25 +535,25 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Inversiones y Comercial Southern World SpA</t>
+          <t>Constructora Pacal S.A.</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>30400</v>
+        <v>8586</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>09/03/2021</t>
+          <t>10/05/2021</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151031299&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151757396&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -568,7 +568,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>AUMENTO DE PRODUCCIÓN Y RIEGO DE EFLUENTES PLANTA MAFRISUR</t>
+          <t>BALNEARIO FLUVIAL RÍO DAMAS</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -583,25 +583,25 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>MATADERO FRIGORIFICO DEL SUR S.A.</t>
+          <t>Inversiones y Comercial Southern World SpA</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2500</v>
+        <v>30400</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>21/01/2021</t>
+          <t>09/03/2021</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2149382147&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151031299&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -616,7 +616,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ADECUACIÓN OPERATIVA Y AMPLIACIÓN DE LA PLANTA DE ASESORÍAS LOS OLIVOS?</t>
+          <t>AUMENTO DE PRODUCCIÓN Y RIEGO DE EFLUENTES PLANTA MAFRISUR</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -631,25 +631,25 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Asesoría Los Olivos S.A</t>
+          <t>MATADERO FRIGORIFICO DEL SUR S.A.</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>650</v>
+        <v>2500</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>21/10/2020</t>
+          <t>21/01/2021</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2148752277&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2149382147&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -664,7 +664,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>PRP Las Quemas</t>
+          <t>ADECUACIÓN OPERATIVA Y AMPLIACIÓN DE LA PLANTA DE ASESORÍAS LOS OLIVOS?</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -679,25 +679,25 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Francisco De Paula Luis Herrera Fernandez-figares</t>
+          <t>Asesoría Los Olivos S.A</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>3145</v>
+        <v>650</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>17/01/2020</t>
+          <t>21/10/2020</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145388872&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2148752277&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -712,7 +712,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Ampliación de la Actividad de Transporte de Sustancias Peligrosas de ENAEX Servicios S.A.</t>
+          <t>PRP Las Quemas</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -722,20 +722,20 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Enaex Servicios S.A.</t>
+          <t>Francisco De Paula Luis Herrera Fernandez-figares</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>25000</v>
+        <v>3145</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>07/01/2020</t>
+          <t>17/01/2020</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -745,7 +745,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145325740&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145388872&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -760,7 +760,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Desarrollo Inmobiliario Macro Pilauco II, Etapa 2</t>
+          <t>Ampliación de la Actividad de Transporte de Sustancias Peligrosas de ENAEX Servicios S.A.</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -770,20 +770,20 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Galilea de Ingeniería y Construcción</t>
+          <t>Enaex Servicios S.A.</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>68620</v>
+        <v>25000</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>30/12/2019</t>
+          <t>07/01/2020</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -793,7 +793,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145296018&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145325740&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -808,7 +808,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>PRP LAS QUEMAS</t>
+          <t>Desarrollo Inmobiliario Macro Pilauco II, Etapa 2</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -823,25 +823,25 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Francisco De Paula Luis Herrera Fernandez-figares</t>
+          <t>Galilea de Ingeniería y Construcción</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>3145</v>
+        <v>68620</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>19/12/2019</t>
+          <t>30/12/2019</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145236028&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145296018&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -856,7 +856,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Hacienda Las Quemas</t>
+          <t>PRP LAS QUEMAS</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -871,25 +871,25 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Inmobiliaria Zenteno SpA</t>
+          <t>Francisco De Paula Luis Herrera Fernandez-figares</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>47000</v>
+        <v>3145</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>25/09/2019</t>
+          <t>19/12/2019</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2144245146&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145236028&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -904,7 +904,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Proyecto Habitacional Lote 2 - Zanjones</t>
+          <t>Hacienda Las Quemas</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -919,15 +919,15 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>SERVIU Región de Los Lagos</t>
+          <t>Inmobiliaria Zenteno SpA</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>481</v>
+        <v>47000</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>28/05/2019</t>
+          <t>25/09/2019</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -937,7 +937,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143277820&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2144245146&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -952,7 +952,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Planta Pichil Alimento Bovino</t>
+          <t>Proyecto Habitacional Lote 2 - Zanjones</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -967,15 +967,15 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Alimentos Concentrados Cisternas Ltda</t>
+          <t>SERVIU Región de Los Lagos</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>8000</v>
+        <v>481</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>31/07/2018</t>
+          <t>28/05/2019</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -985,7 +985,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2140878185&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143277820&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1000,7 +1000,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>DESARROLLO INMOBILIARIO MACRO PILAUCO II, ETAPA 1 LOTE A</t>
+          <t>Planta Pichil Alimento Bovino</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1015,15 +1015,15 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Galilea de Ingeniería y Construcción</t>
+          <t>Alimentos Concentrados Cisternas Ltda</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>14500</v>
+        <v>8000</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>21/08/2017</t>
+          <t>31/07/2018</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -1033,7 +1033,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132606168&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2140878185&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1048,30 +1048,30 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Sistema de Transmisión S/E Pichirropulli - S/E Tineo</t>
+          <t>DESARROLLO INMOBILIARIO MACRO PILAUCO II, ETAPA 1 LOTE A</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>TRANSELEC CONCESIONES S.A.</t>
+          <t>Galilea de Ingeniería y Construcción</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>82000</v>
+        <v>14500</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>08/06/2017</t>
+          <t>21/08/2017</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -1081,7 +1081,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132447295&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132606168&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1096,30 +1096,30 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Proyecto La Misión</t>
+          <t>Sistema de Transmisión S/E Pichirropulli - S/E Tineo</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Sistema de Transmisión del Sur S.A.</t>
+          <t>TRANSELEC CONCESIONES S.A.</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>19299</v>
+        <v>82000</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>19/01/2017</t>
+          <t>08/06/2017</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -1129,7 +1129,7 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132100181&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132447295&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1144,7 +1144,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Optimización Productiva de la Piscicultura Santa Juana</t>
+          <t>Proyecto La Misión</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1159,15 +1159,15 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Cermaq Chile S.A.</t>
+          <t>Sistema de Transmisión del Sur S.A.</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>400</v>
+        <v>19299</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>06/12/2016</t>
+          <t>19/01/2017</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -1177,7 +1177,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131979220&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132100181&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1192,7 +1192,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Ampliación Transporte Terrestre de Sustancias Químicas</t>
+          <t>Optimización Productiva de la Piscicultura Santa Juana</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1202,20 +1202,20 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
+          <t>Cermaq Chile S.A.</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>10000</v>
+        <v>400</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>22/08/2016</t>
+          <t>06/12/2016</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -1225,7 +1225,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131697972&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131979220&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1240,7 +1240,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>DECLARACION DE IMPACTO AMBIENTAL LOTEO HABITACIONAL D.F.L.2, MACRO PILAUCO II</t>
+          <t>Ampliación Transporte Terrestre de Sustancias Químicas</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1250,30 +1250,30 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Galilea de Ingeniería y Construcción</t>
+          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>72470</v>
+        <v>10000</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>12/08/2016</t>
+          <t>22/08/2016</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131467206&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131697972&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1288,7 +1288,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Riego de riles Planta Mulpulmo</t>
+          <t>DECLARACION DE IMPACTO AMBIENTAL LOTEO HABITACIONAL D.F.L.2, MACRO PILAUCO II</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1303,25 +1303,25 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Lácteos del Sur S.A.</t>
+          <t>Galilea de Ingeniería y Construcción</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>90</v>
+        <v>72470</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>03/06/2016</t>
+          <t>12/08/2016</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131404162&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131467206&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1336,7 +1336,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Compostaje y Vermicompostaje Residuos Sólidos Orgánicos. Sector Barro Blanco. Comuna de Osorno.</t>
+          <t>Riego de riles Planta Mulpulmo</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1351,25 +1351,25 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Frigorífico de osorno S.A.</t>
+          <t>Lácteos del Sur S.A.</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>500</v>
+        <v>90</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>17/09/2015</t>
+          <t>03/06/2016</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130760880&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131404162&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1384,7 +1384,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Bodega para Almacenamiento de Sustancias Peligrosas - Sucursal Osorno</t>
+          <t>Compostaje y Vermicompostaje Residuos Sólidos Orgánicos. Sector Barro Blanco. Comuna de Osorno.</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1399,25 +1399,25 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>ANASAC CHILE S.A.</t>
+          <t>Frigorífico de osorno S.A.</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>193</v>
+        <v>500</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>05/05/2015</t>
+          <t>17/09/2015</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130426799&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130760880&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1432,7 +1432,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Proyecto Centro de Agroturismo El Mirador</t>
+          <t>Bodega para Almacenamiento de Sustancias Peligrosas - Sucursal Osorno</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1447,15 +1447,15 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Sociedad de Agroturismo El Mirador Limitada</t>
+          <t>ANASAC CHILE S.A.</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>500</v>
+        <v>193</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>19/03/2015</t>
+          <t>05/05/2015</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -1465,7 +1465,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130315339&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130426799&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1495,7 +1495,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Lucia Adriana Kyling Montecino</t>
+          <t>Sociedad de Agroturismo El Mirador Limitada</t>
         </is>
       </c>
       <c r="F24" t="n">
@@ -1503,17 +1503,17 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>09/03/2015</t>
+          <t>19/03/2015</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130308568&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130315339&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1528,7 +1528,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Tratamiento de Residuos Especiales e Industriales a Través de Incineración, Osorno.</t>
+          <t>Proyecto Centro de Agroturismo El Mirador</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1543,25 +1543,25 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Inversiones Las Higueras Limitada</t>
+          <t>Lucia Adriana Kyling Montecino</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>1500</v>
+        <v>500</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>19/02/2015</t>
+          <t>09/03/2015</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130221119&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130308568&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1576,7 +1576,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
+          <t>Tratamiento de Residuos Especiales e Industriales a Través de Incineración, Osorno.</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1586,30 +1586,30 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>Inversiones Las Higueras Limitada</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>5000</v>
+        <v>1500</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>26/01/2015</t>
+          <t>19/02/2015</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130159203&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130221119&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1624,7 +1624,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos y no Peligrosos entre las Regiones XV y X</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1647,7 +1647,7 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>26/12/2014</t>
+          <t>26/01/2015</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
@@ -1657,7 +1657,7 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076569&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130159203&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -1672,7 +1672,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
+          <t>Transporte Terrestre de Residuos Peligrosos y no Peligrosos entre las Regiones XV y X</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1695,7 +1695,7 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>20/11/2014</t>
+          <t>26/12/2014</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
@@ -1705,7 +1705,7 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129965016&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076569&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -1720,7 +1720,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>"AMPLIACION DE RUTAS PARA TRANSPORTE TERRESTRE DE RESIDUOS Y SUSTANCIAS PELIGROSAS A GRANEL DESDE LA I A LA X REGIÓN TRANSPORTES TRANSVER LTDA"</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1735,15 +1735,15 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Transportes Transver Ltda.</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>17/11/2014</t>
+          <t>20/11/2014</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
@@ -1753,7 +1753,7 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129535685&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129965016&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -1768,7 +1768,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Modificación Transporte y Logística Interregional de Cargas y/o Sustancias Peligrosas.</t>
+          <t>"AMPLIACION DE RUTAS PARA TRANSPORTE TERRESTRE DE RESIDUOS Y SUSTANCIAS PELIGROSAS A GRANEL DESDE LA I A LA X REGIÓN TRANSPORTES TRANSVER LTDA"</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1783,25 +1783,25 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
+          <t>Transportes Transver Ltda.</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>6750</v>
+        <v>0</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>13/11/2014</t>
+          <t>17/11/2014</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129725840&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129535685&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
+          <t>Modificación Transporte y Logística Interregional de Cargas y/o Sustancias Peligrosas.</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1831,25 +1831,25 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>5000</v>
+        <v>6750</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>05/11/2014</t>
+          <t>13/11/2014</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129895680&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129725840&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -1864,7 +1864,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos y No Peligrosos entre las Regiones XV y X</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1887,7 +1887,7 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>30/06/2014</t>
+          <t>05/11/2014</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
@@ -1897,7 +1897,7 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129237859&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129895680&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -1912,7 +1912,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Extracción de áridos en pozo Jauregui</t>
+          <t>Transporte Terrestre de Residuos Peligrosos y No Peligrosos entre las Regiones XV y X</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1922,20 +1922,20 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Juan Carlos Jauregui Hidalgo</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>400</v>
+        <v>5000</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>22/01/2014</t>
+          <t>30/06/2014</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
@@ -1945,7 +1945,7 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129115711&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129237859&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -1960,7 +1960,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Extracción de áridos en pozo Jauregui</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1970,30 +1970,30 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>Juan Carlos Jauregui Hidalgo</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>1200</v>
+        <v>400</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>23/12/2013</t>
+          <t>22/01/2014</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129115711&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -2008,7 +2008,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Extracción de áridos en Pozo Jauregui</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2018,30 +2018,30 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Juan Carlos Jauregui Hidalgo</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>400</v>
+        <v>1200</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>09/12/2013</t>
+          <t>23/12/2013</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128899538&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -2056,7 +2056,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos y no peligrosos entre las Regiones XV y X</t>
+          <t>Extracción de áridos en Pozo Jauregui</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2066,20 +2066,20 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>Juan Carlos Jauregui Hidalgo</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>5000</v>
+        <v>400</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>08/11/2013</t>
+          <t>09/12/2013</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
@@ -2089,7 +2089,7 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128788354&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128899538&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -2104,7 +2104,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Empréstito Los Melíes, Comuna de Osorno, Región de Los Lagos</t>
+          <t>Transporte Terrestre de Residuos Peligrosos y no peligrosos entre las Regiones XV y X</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -2114,30 +2114,30 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Dragados S.A. Agencia en Chile</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>543</v>
+        <v>5000</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>07/11/2013</t>
+          <t>08/11/2013</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128789901&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128788354&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -2152,7 +2152,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Declaración de impacto ambiental "Modificación del Manejo de la mortalidad mediante sistema de ensilaje en Piscicultura Santa Juana"</t>
+          <t>Empréstito Los Melíes, Comuna de Osorno, Región de Los Lagos</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2167,15 +2167,15 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Cermaq Chile S.A.</t>
+          <t>Dragados S.A. Agencia en Chile</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>1</v>
+        <v>543</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>15/07/2013</t>
+          <t>07/11/2013</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
@@ -2185,7 +2185,7 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8355513&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128789901&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -2200,7 +2200,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>REGULARIZACIÓN DEL TRANSPORTE DE SUSTANCIAS PELIGROSAS TREXVAL S.A.</t>
+          <t>Declaración de impacto ambiental "Modificación del Manejo de la mortalidad mediante sistema de ensilaje en Piscicultura Santa Juana"</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2210,20 +2210,20 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Trexval S.A.</t>
+          <t>Cermaq Chile S.A.</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>21/06/2013</t>
+          <t>15/07/2013</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
@@ -2233,7 +2233,7 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8280859&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8355513&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -2248,7 +2248,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Regularización Transporte de Sustancias Peligrosas TREXVAL S.A.</t>
+          <t>REGULARIZACIÓN DEL TRANSPORTE DE SUSTANCIAS PELIGROSAS TREXVAL S.A.</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2271,17 +2271,17 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>06/06/2013</t>
+          <t>21/06/2013</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8227033&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8280859&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -2296,7 +2296,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Mejoramiento Tecnológico Planta Watts Osorno</t>
+          <t>Regularización Transporte de Sustancias Peligrosas TREXVAL S.A.</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2306,30 +2306,30 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Watts S.A.</t>
+          <t>Trexval S.A.</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>7751</v>
+        <v>0</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>23/05/2013</t>
+          <t>06/06/2013</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8187978&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8227033&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -2344,7 +2344,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>"Riego en pradera con efluentes tratados de RILes lácteos".</t>
+          <t>Mejoramiento Tecnológico Planta Watts Osorno</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2359,25 +2359,25 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Industrias Valle Verde S.A.</t>
+          <t>Watts S.A.</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>7751</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>16/05/2013</t>
+          <t>23/05/2013</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8172032&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8187978&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -2392,7 +2392,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Transporte de residuos No Peligrosos, Peligrosos y Especiales entre la XV región y la X región</t>
+          <t>"Riego en pradera con efluentes tratados de RILes lácteos".</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2402,20 +2402,20 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Industrias Valle Verde S.A.</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>10/05/2013</t>
+          <t>16/05/2013</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
@@ -2425,7 +2425,7 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158912&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8172032&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -2440,7 +2440,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas TREXVAL S.A.</t>
+          <t>Transporte de residuos No Peligrosos, Peligrosos y Especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2455,15 +2455,15 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Mauricio Salím Mahmud Vergara</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>2500</v>
+        <v>250</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>06/05/2013</t>
+          <t>10/05/2013</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
@@ -2473,7 +2473,7 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8126996&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158912&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -2503,25 +2503,25 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Trexval S.A.</t>
+          <t>Mauricio Salím Mahmud Vergara</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>2475</v>
+        <v>2500</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>17/04/2013</t>
+          <t>06/05/2013</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8057600&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8126996&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -2536,7 +2536,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>Transporte de Sustancias Peligrosas TREXVAL S.A.</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2551,15 +2551,15 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Trexval S.A.</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>250</v>
+        <v>2475</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>15/04/2013</t>
+          <t>17/04/2013</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
@@ -2569,7 +2569,7 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8063600&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8057600&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -2607,7 +2607,7 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>19/03/2013</t>
+          <t>15/04/2013</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
@@ -2617,7 +2617,7 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7961483&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8063600&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -2632,7 +2632,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Ampliación de extracción de áridos en el río Rahue sector fundo el Almud - San Florentino</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2642,30 +2642,30 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>ARIDOS DOWLING &amp; SCHILLING S.A</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>7000</v>
+        <v>250</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>18/03/2013</t>
+          <t>19/03/2013</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7972056&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7961483&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -2680,7 +2680,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>"PISCICULTURA TRAFUN, COMUNA DE SAN PABLO, PROVINCIA DE OSORNO, DÉCIMA REGIÓN DE LOS LAGOS"</t>
+          <t>Ampliación de extracción de áridos en el río Rahue sector fundo el Almud - San Florentino</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2695,15 +2695,15 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Mainstream Chile S.A.</t>
+          <t>ARIDOS DOWLING &amp; SCHILLING S.A</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>31/12/2012</t>
+          <t>18/03/2013</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
@@ -2713,7 +2713,7 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7715692&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7972056&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -2728,7 +2728,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN A LA DECLARACIÓN DE IMPACTO AMBIENTAL PISCICULTURA EL VENADO</t>
+          <t>"PISCICULTURA TRAFUN, COMUNA DE SAN PABLO, PROVINCIA DE OSORNO, DÉCIMA REGIÓN DE LOS LAGOS"</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2743,15 +2743,15 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Sociedad Agrícola Covarrubias Fernández Ltda.</t>
+          <t>Mainstream Chile S.A.</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>2500</v>
+        <v>6000</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>22/11/2012</t>
+          <t>31/12/2012</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
@@ -2761,7 +2761,7 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7555686&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7715692&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -2824,7 +2824,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>MODIFICACION A LA DECLARACION DE IMPACTO AMBIENTAL PISCICULTURA EL VENADO</t>
+          <t>MODIFICACIÓN A LA DECLARACIÓN DE IMPACTO AMBIENTAL PISCICULTURA EL VENADO</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2847,17 +2847,17 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>12/11/2012</t>
+          <t>22/11/2012</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7509459&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7555686&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -2872,7 +2872,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN A LA DECLARACIÓN DE IMPACTO AMBIENTAL PISCICULTURA EL VENADO COMUNA DE OSORNO.</t>
+          <t>MODIFICACION A LA DECLARACION DE IMPACTO AMBIENTAL PISCICULTURA EL VENADO</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2895,7 +2895,7 @@
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>17/10/2012</t>
+          <t>12/11/2012</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
@@ -2905,7 +2905,7 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7352039&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7509459&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -2920,7 +2920,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Ampliación Piscicultura Cancura</t>
+          <t>MODIFICACIÓN A LA DECLARACIÓN DE IMPACTO AMBIENTAL PISCICULTURA EL VENADO COMUNA DE OSORNO.</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2935,25 +2935,25 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Cermaq Chile S.A.</t>
+          <t>Sociedad Agrícola Covarrubias Fernández Ltda.</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>4000</v>
+        <v>2500</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>27/07/2012</t>
+          <t>17/10/2012</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6858091&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7352039&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -2968,7 +2968,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
+          <t>Ampliación Piscicultura Cancura</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2978,30 +2978,30 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>KDM SERVICIOS S.A.</t>
+          <t>Cermaq Chile S.A.</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>16/05/2012</t>
+          <t>27/07/2012</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6888046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6858091&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -3016,7 +3016,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Planta de destilacion de gases del aire</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3026,30 +3026,30 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>GASES DEL SUR SOCIEDAD LIMITADA</t>
+          <t>KDM SERVICIOS S.A.</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>1000</v>
+        <v>5000</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>11/05/2012</t>
+          <t>16/05/2012</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6913953&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6888046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -3064,7 +3064,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos Interregional</t>
+          <t>Planta de destilacion de gases del aire</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -3074,30 +3074,30 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Jorge Andrés Torres Hidalgo</t>
+          <t>GASES DEL SUR SOCIEDAD LIMITADA</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>23/04/2012</t>
+          <t>11/05/2012</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6852559&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6913953&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -3112,7 +3112,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
+          <t>Transporte de Residuos Peligrosos Interregional</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -3127,25 +3127,25 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Jorge Andrés Torres Hidalgo</t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>20/02/2012</t>
+          <t>23/04/2012</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6852559&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -3160,7 +3160,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>AUTOGENERACION ELECTRICA PROLESUR</t>
+          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -3170,30 +3170,30 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Prolesur S.A.</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>13/02/2012</t>
+          <t>20/02/2012</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6601064&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -3223,7 +3223,7 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Sociedad Productores de Leche S.A.</t>
+          <t>Prolesur S.A.</t>
         </is>
       </c>
       <c r="F60" t="n">
@@ -3231,17 +3231,17 @@
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>19/01/2012</t>
+          <t>13/02/2012</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6474722&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6601064&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -3256,7 +3256,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>S/E Seccionadora Rahue 220 kV</t>
+          <t>AUTOGENERACION ELECTRICA PROLESUR</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -3271,25 +3271,25 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A.</t>
+          <t>Sociedad Productores de Leche S.A.</t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>14000</v>
+        <v>1000</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>18/01/2012</t>
+          <t>19/01/2012</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6504250&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6474722&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -3304,7 +3304,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Quimicas entre XV y X region .</t>
+          <t>S/E Seccionadora Rahue 220 kV</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3314,30 +3314,30 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>TRANSELEC S.A.</t>
         </is>
       </c>
       <c r="F62" t="n">
-        <v>1000</v>
+        <v>14000</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>11/01/2012</t>
+          <t>18/01/2012</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6435815&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6504250&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -3352,7 +3352,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>Transporte de Sustancias Quimicas entre XV y X region .</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -3367,15 +3367,15 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>10/01/2012</t>
+          <t>11/01/2012</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
@@ -3385,7 +3385,7 @@
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6435815&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -3400,7 +3400,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Plan de cierre Ex basural de Ovejería de osorno</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -3410,30 +3410,30 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Osorno</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F64" t="n">
-        <v>1700</v>
+        <v>100</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>02/01/2012</t>
+          <t>10/01/2012</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6239097&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -3448,7 +3448,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Línea de Transmisión 66 kV Pilauco-Pichil</t>
+          <t>Plan de cierre Ex basural de Ovejería de osorno</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -3463,15 +3463,15 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Sistema de Transmisión del Sur S.A.</t>
+          <t>Ilustre Municipalidad de Osorno</t>
         </is>
       </c>
       <c r="F65" t="n">
-        <v>1967</v>
+        <v>1700</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>01/12/2011</t>
+          <t>02/01/2012</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
@@ -3481,7 +3481,7 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6334231&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6239097&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -3496,7 +3496,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Transportes de Sustancias Quimicas entre la XV y la X region</t>
+          <t>Línea de Transmisión 66 kV Pilauco-Pichil</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -3506,30 +3506,30 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Sistema de Transmisión del Sur S.A.</t>
         </is>
       </c>
       <c r="F66" t="n">
-        <v>1000</v>
+        <v>1967</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>21/11/2011</t>
+          <t>01/12/2011</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6291084&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6334231&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -3544,7 +3544,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Transporte de residuos peligrosos y no peligrosos</t>
+          <t>Transportes de Sustancias Quimicas entre la XV y la X region</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -3559,15 +3559,15 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Fernando Luciano Huerta Tello</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F67" t="n">
-        <v>319</v>
+        <v>1000</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>04/10/2011</t>
+          <t>21/11/2011</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
@@ -3577,7 +3577,7 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5958795&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6291084&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
@@ -3592,7 +3592,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>TAP OFF PICHIRREHUE</t>
+          <t>Transporte de residuos peligrosos y no peligrosos</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3602,30 +3602,30 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Empresa Eléctrica Pilmaiquén S.A.</t>
+          <t>Fernando Luciano Huerta Tello</t>
         </is>
       </c>
       <c r="F68" t="n">
-        <v>19800</v>
+        <v>319</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>01/06/2011</t>
+          <t>04/10/2011</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5675930&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5958795&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -3640,7 +3640,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE EXTRACCIÓN DE ÁRIDOS RÍO RAHUE SECTOR CANCURA</t>
+          <t>TAP OFF PICHIRREHUE</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3655,15 +3655,15 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>ARIDOS DOWLING &amp; SCHILLING S.A</t>
+          <t>Empresa Eléctrica Pilmaiquén S.A.</t>
         </is>
       </c>
       <c r="F69" t="n">
-        <v>1500</v>
+        <v>19800</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>25/05/2011</t>
+          <t>01/06/2011</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
@@ -3673,7 +3673,7 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5626276&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5675930&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -3688,7 +3688,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Ampliación de rutas para el servicio de transporte, reciclaje y gestión de residuos industriales .</t>
+          <t>AMPLIACIÓN DE EXTRACCIÓN DE ÁRIDOS RÍO RAHUE SECTOR CANCURA</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -3698,20 +3698,20 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Gestión Ambiental Limitada</t>
+          <t>ARIDOS DOWLING &amp; SCHILLING S.A</t>
         </is>
       </c>
       <c r="F70" t="n">
-        <v>250</v>
+        <v>1500</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>27/04/2011</t>
+          <t>25/05/2011</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
@@ -3721,7 +3721,7 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5540550&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5626276&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -3736,7 +3736,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Piscicultura El Encanto</t>
+          <t>Ampliación de rutas para el servicio de transporte, reciclaje y gestión de residuos industriales .</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -3746,30 +3746,30 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Congelados Pacífico S.A.</t>
+          <t>Gestión Ambiental Limitada</t>
         </is>
       </c>
       <c r="F71" t="n">
-        <v>8500</v>
+        <v>250</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>19/04/2011</t>
+          <t>27/04/2011</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5435529&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5540550&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -3784,7 +3784,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Ampliacion de rutas para el transporte, reciclaje y gestión de residuos industriales. .</t>
+          <t>Piscicultura El Encanto</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -3794,30 +3794,30 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Gestión Ambiental Limitada</t>
+          <t>Congelados Pacífico S.A.</t>
         </is>
       </c>
       <c r="F72" t="n">
-        <v>250</v>
+        <v>8500</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>15/04/2011</t>
+          <t>19/04/2011</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5532880&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5435529&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -3832,7 +3832,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Mejoramiento y Ampliación de Producción Piscicultura Rupanquito</t>
+          <t>Ampliacion de rutas para el transporte, reciclaje y gestión de residuos industriales. .</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -3842,30 +3842,30 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Salmones Antártica S.A</t>
+          <t>Gestión Ambiental Limitada</t>
         </is>
       </c>
       <c r="F73" t="n">
-        <v>1500</v>
+        <v>250</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>08/03/2011</t>
+          <t>15/04/2011</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5425000&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5532880&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -3880,7 +3880,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Subestación Pilauco 220/66 kV</t>
+          <t>Mejoramiento y Ampliación de Producción Piscicultura Rupanquito</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -3895,15 +3895,15 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Sistema de Transmisión del Sur S.A.</t>
+          <t>Salmones Antártica S.A</t>
         </is>
       </c>
       <c r="F74" t="n">
-        <v>14800</v>
+        <v>1500</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>18/02/2011</t>
+          <t>08/03/2011</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
@@ -3913,7 +3913,7 @@
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5359373&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5425000&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
@@ -3928,7 +3928,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Modificación al Manejo de Mortalidad Mediante Sistema de Ensilaje. Piscicultura Las Quemas, Río Rahue, Comuna de Osorno.</t>
+          <t>Subestación Pilauco 220/66 kV</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3943,15 +3943,15 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Piscicultura Las Quemas Chile S.A.</t>
+          <t>Sistema de Transmisión del Sur S.A.</t>
         </is>
       </c>
       <c r="F75" t="n">
-        <v>4</v>
+        <v>14800</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>04/02/2011</t>
+          <t>18/02/2011</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
@@ -3961,7 +3961,7 @@
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5317523&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5359373&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -3976,7 +3976,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>MEJORAMIENTO PLANTA DE DISPOSICIÓN FINAL DE RESIDUOS INDUSTRIALES ECOPRIAL</t>
+          <t>Modificación al Manejo de Mortalidad Mediante Sistema de Ensilaje. Piscicultura Las Quemas, Río Rahue, Comuna de Osorno.</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -3991,15 +3991,15 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Asesoría Los Olivos S.A</t>
+          <t>Piscicultura Las Quemas Chile S.A.</t>
         </is>
       </c>
       <c r="F76" t="n">
-        <v>500</v>
+        <v>4</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>27/01/2011</t>
+          <t>04/02/2011</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
@@ -4009,7 +4009,7 @@
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5285248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5317523&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -4047,17 +4047,17 @@
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>17/01/2011</t>
+          <t>27/01/2011</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5248742&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5285248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -4072,7 +4072,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Piscicultura El Venado</t>
+          <t>MEJORAMIENTO PLANTA DE DISPOSICIÓN FINAL DE RESIDUOS INDUSTRIALES ECOPRIAL</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -4087,25 +4087,25 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Sociedad Agrícola Covarrubias Fernández Ltda.</t>
+          <t>Asesoría Los Olivos S.A</t>
         </is>
       </c>
       <c r="F78" t="n">
-        <v>8000</v>
+        <v>500</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>19/10/2010</t>
+          <t>17/01/2011</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5012986&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5248742&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -4120,7 +4120,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>PROYECTO AMPLIACION EXTRACCION DE ARIDOS EN RIO RAHUE SECTOR FUNDO EL ALMUD</t>
+          <t>Piscicultura El Venado</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -4135,15 +4135,15 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>ARIDOS DOWLING &amp; SCHILLING S.A</t>
+          <t>Sociedad Agrícola Covarrubias Fernández Ltda.</t>
         </is>
       </c>
       <c r="F79" t="n">
-        <v>250</v>
+        <v>8000</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>08/10/2010</t>
+          <t>19/10/2010</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
@@ -4153,7 +4153,7 @@
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4992265&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5012986&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
@@ -4168,7 +4168,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS</t>
+          <t>PROYECTO AMPLIACION EXTRACCION DE ARIDOS EN RIO RAHUE SECTOR FUNDO EL ALMUD</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -4178,30 +4178,30 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Sociedad Logística Ambiental Ltda.</t>
+          <t>ARIDOS DOWLING &amp; SCHILLING S.A</t>
         </is>
       </c>
       <c r="F80" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>24/06/2010</t>
+          <t>08/10/2010</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4702856&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4992265&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
@@ -4216,7 +4216,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>SISTEMA DE ENSILAJE DE MORTALIDAD PISCICULTURA PICHICHANLELFU</t>
+          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -4226,30 +4226,30 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Mowi Chile S.A</t>
+          <t>Sociedad Logística Ambiental Ltda.</t>
         </is>
       </c>
       <c r="F81" t="n">
-        <v>50</v>
+        <v>300</v>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>06/05/2010</t>
+          <t>24/06/2010</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4552129&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4702856&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
@@ -4264,7 +4264,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Piscicultura El Venado</t>
+          <t>SISTEMA DE ENSILAJE DE MORTALIDAD PISCICULTURA PICHICHANLELFU</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -4279,25 +4279,25 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Sociedad Agrícola Covarrubias Fernández Ltda.</t>
+          <t>Mowi Chile S.A</t>
         </is>
       </c>
       <c r="F82" t="n">
-        <v>8000</v>
+        <v>50</v>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>04/05/2010</t>
+          <t>06/05/2010</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4492153&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4552129&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
@@ -4312,7 +4312,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
+          <t>Piscicultura El Venado</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -4322,30 +4322,30 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Sociedad Agrícola Covarrubias Fernández Ltda.</t>
         </is>
       </c>
       <c r="F83" t="n">
-        <v>250</v>
+        <v>8000</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>26/04/2010</t>
+          <t>04/05/2010</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4509429&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4492153&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -4360,7 +4360,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>BODEGA PARA EL ALMACENAMIENTO TRANSITORIO DE RESIDUOS INDUSTRIALES DE TERCEROS, ECOPRIAL</t>
+          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -4370,20 +4370,20 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Asesoría Los Olivos S.A</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F84" t="n">
-        <v>286</v>
+        <v>250</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>21/04/2010</t>
+          <t>26/04/2010</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
@@ -4393,7 +4393,7 @@
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4522528&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4509429&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
@@ -4408,7 +4408,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
+          <t>BODEGA PARA EL ALMACENAMIENTO TRANSITORIO DE RESIDUOS INDUSTRIALES DE TERCEROS, ECOPRIAL</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -4418,30 +4418,30 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Asesoría Los Olivos S.A</t>
         </is>
       </c>
       <c r="F85" t="n">
-        <v>250</v>
+        <v>286</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>10/02/2010</t>
+          <t>21/04/2010</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4352324&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4522528&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
@@ -4456,7 +4456,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -4471,15 +4471,15 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F86" t="n">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>22/01/2010</t>
+          <t>10/02/2010</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
@@ -4489,7 +4489,7 @@
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4352324&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
@@ -4504,7 +4504,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -4519,7 +4519,7 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F87" t="n">
@@ -4532,12 +4532,12 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
@@ -4575,17 +4575,17 @@
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>15/01/2010</t>
+          <t>22/01/2010</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
@@ -4600,7 +4600,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Línea de Alta Tensión Antillanca - Nueva Barro Blanco (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -4610,30 +4610,30 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Sistema de Transmisión del Sur S.A.</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F89" t="n">
-        <v>8000</v>
+        <v>0</v>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>22/12/2009</t>
+          <t>15/01/2010</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4270514&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
@@ -4648,7 +4648,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS (e-seia)</t>
+          <t>Línea de Alta Tensión Antillanca - Nueva Barro Blanco (e-seia)</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -4658,30 +4658,30 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Sociedad Logística Ambiental Ltda.</t>
+          <t>Sistema de Transmisión del Sur S.A.</t>
         </is>
       </c>
       <c r="F90" t="n">
-        <v>0</v>
+        <v>8000</v>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>30/11/2009</t>
+          <t>22/12/2009</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4224783&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4270514&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -4696,7 +4696,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Subestación Nueva Barro Blanco 220/66 kV (e-seia)</t>
+          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -4706,30 +4706,30 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Sistema de Transmisión del Sur S.A.</t>
+          <t>Sociedad Logística Ambiental Ltda.</t>
         </is>
       </c>
       <c r="F91" t="n">
-        <v>14800</v>
+        <v>0</v>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>26/11/2009</t>
+          <t>30/11/2009</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4215834&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4224783&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
@@ -4744,7 +4744,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Regularización disposición final efluente Inmobiliaria Ferias Unidas de Osorno Limitada. Comuna de Osorno. Provincia de Osorno. Región de los Lagos. (e-seia)</t>
+          <t>Subestación Nueva Barro Blanco 220/66 kV (e-seia)</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -4759,15 +4759,15 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>Sociedad Inmobiliaria Ferias Unidas de Osorno Limitada</t>
+          <t>Sistema de Transmisión del Sur S.A.</t>
         </is>
       </c>
       <c r="F92" t="n">
-        <v>27</v>
+        <v>14800</v>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>12/11/2009</t>
+          <t>26/11/2009</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
@@ -4777,7 +4777,7 @@
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4185561&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4215834&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
@@ -4792,7 +4792,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>ESTUDIO Y DISEÑO PLAN DE CIERRE VERTEDERO COMUNA DE OSORNO (e-seia)</t>
+          <t>Regularización disposición final efluente Inmobiliaria Ferias Unidas de Osorno Limitada. Comuna de Osorno. Provincia de Osorno. Región de los Lagos. (e-seia)</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -4807,15 +4807,15 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Osorno</t>
+          <t>Sociedad Inmobiliaria Ferias Unidas de Osorno Limitada</t>
         </is>
       </c>
       <c r="F93" t="n">
-        <v>3400</v>
+        <v>27</v>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>23/10/2009</t>
+          <t>12/11/2009</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
@@ -4825,7 +4825,7 @@
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4139027&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4185561&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
@@ -4888,7 +4888,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Incorporación de etapa fisicoquímica al sistema de tratamiento de RILes de MAFRISUR S.A. (e-seia)</t>
+          <t>ESTUDIO Y DISEÑO PLAN DE CIERRE VERTEDERO COMUNA DE OSORNO (e-seia)</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -4903,15 +4903,15 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>MAFRISUR S.A.</t>
+          <t>Ilustre Municipalidad de Osorno</t>
         </is>
       </c>
       <c r="F95" t="n">
-        <v>10</v>
+        <v>3400</v>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>29/09/2009</t>
+          <t>23/10/2009</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
@@ -4921,7 +4921,7 @@
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4085084&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4139027&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
@@ -4936,7 +4936,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos CMR Norte. (e-seia)</t>
+          <t>Incorporación de etapa fisicoquímica al sistema de tratamiento de RILes de MAFRISUR S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -4946,30 +4946,30 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>MAFRISUR S.A.</t>
         </is>
       </c>
       <c r="F96" t="n">
-        <v>250</v>
+        <v>10</v>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>18/08/2009</t>
+          <t>29/09/2009</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3960661&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4085084&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
@@ -4984,7 +4984,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Transporte de Combustibles y Residuos Industriales, Peligrosos y No Peligrosos entre Arica y Puerto Montt (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos CMR Norte. (e-seia)</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -4999,15 +4999,15 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>Transportes Centro Sur Norte S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F97" t="n">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>27/07/2009</t>
+          <t>18/08/2009</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
@@ -5017,7 +5017,7 @@
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3893261&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3960661&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
@@ -5032,7 +5032,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Proyecto Interregional de Transporte de Combustibles y Residuos Industriales, Peligrosos y No Peligrosos entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -5047,15 +5047,15 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>Sotrans Limitada</t>
+          <t>Transportes Centro Sur Norte S.A.</t>
         </is>
       </c>
       <c r="F98" t="n">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>02/06/2009</t>
+          <t>27/07/2009</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
@@ -5065,7 +5065,7 @@
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3893261&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
@@ -5080,7 +5080,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Planta Unidad Sur (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -5090,30 +5090,30 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>Envases Impresos SpA</t>
+          <t>Sotrans Limitada</t>
         </is>
       </c>
       <c r="F99" t="n">
-        <v>30000</v>
+        <v>22</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>20/04/2009</t>
+          <t>02/06/2009</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3715069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
@@ -5143,7 +5143,7 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>Envases Roble Alto S.A.</t>
+          <t>Envases Impresos SpA</t>
         </is>
       </c>
       <c r="F100" t="n">
@@ -5151,17 +5151,17 @@
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>08/04/2009</t>
+          <t>20/04/2009</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3685558&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3715069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
@@ -5176,7 +5176,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>LÍNEA DE TRANSMISIÓN ELÉCTRICA 2x220 kV OSORNOBARRO BLANCO (e-seia)</t>
+          <t>Planta Unidad Sur (e-seia)</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -5191,25 +5191,25 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>Empresa Eléctrica Pilmaiquén S.A.</t>
+          <t>Envases Roble Alto S.A.</t>
         </is>
       </c>
       <c r="F101" t="n">
-        <v>4560</v>
+        <v>30000</v>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>06/04/2009</t>
+          <t>08/04/2009</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3677275&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3685558&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
@@ -5224,10 +5224,14 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>EIA Relleno Sanitario Provincial de Osorno</t>
-        </is>
-      </c>
-      <c r="C102" t="inlineStr"/>
+          <t>LÍNEA DE TRANSMISIÓN ELÉCTRICA 2x220 kV OSORNOBARRO BLANCO (e-seia)</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D102" t="inlineStr">
         <is>
           <t>Décima</t>
@@ -5235,15 +5239,15 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Osorno</t>
+          <t>Empresa Eléctrica Pilmaiquén S.A.</t>
         </is>
       </c>
       <c r="F102" t="n">
-        <v>18000</v>
+        <v>4560</v>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>03/04/2009</t>
+          <t>06/04/2009</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
@@ -5253,7 +5257,7 @@
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3675668&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3677275&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
@@ -5268,14 +5272,10 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Ampliación Planta Osorno (e-seia)</t>
-        </is>
-      </c>
-      <c r="C103" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>EIA Relleno Sanitario Provincial de Osorno</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr"/>
       <c r="D103" t="inlineStr">
         <is>
           <t>Décima</t>
@@ -5283,15 +5283,15 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>Watts S.A.</t>
+          <t>Ilustre Municipalidad de Osorno</t>
         </is>
       </c>
       <c r="F103" t="n">
-        <v>22000</v>
+        <v>18000</v>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>24/03/2009</t>
+          <t>03/04/2009</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
@@ -5301,7 +5301,7 @@
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3639837&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3675668&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
@@ -5316,7 +5316,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Línea de Transmisión Los Negros-Barro Blanco (e-seia)</t>
+          <t>Ampliación Planta Osorno (e-seia)</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -5331,15 +5331,15 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>Sistema de Transmisión de Los Lagos S.A.</t>
+          <t>Watts S.A.</t>
         </is>
       </c>
       <c r="F104" t="n">
-        <v>0</v>
+        <v>22000</v>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>13/03/2009</t>
+          <t>24/03/2009</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
@@ -5349,7 +5349,7 @@
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3631384&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3639837&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
@@ -5364,7 +5364,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Transporte de Residuos de Plomo y Baterías en Desuso, por las Regiones VI, VII, VIII, IX, XIV y X (e-seia)</t>
+          <t>Línea de Transmisión Los Negros-Barro Blanco (e-seia)</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -5374,12 +5374,12 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>Transportes Reciclar Limitada</t>
+          <t>Sistema de Transmisión de Los Lagos S.A.</t>
         </is>
       </c>
       <c r="F105" t="n">
@@ -5387,7 +5387,7 @@
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>10/02/2009</t>
+          <t>13/03/2009</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
@@ -5397,7 +5397,7 @@
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3551870&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3631384&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
@@ -5412,7 +5412,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Residuos de Plomo y Baterías en Desuso, por las Regiones VI, VII, VIII, IX, XIV y X (e-seia)</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -5427,7 +5427,7 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>Transportes Reciclar Limitada</t>
         </is>
       </c>
       <c r="F106" t="n">
@@ -5435,17 +5435,17 @@
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>23/01/2009</t>
+          <t>10/02/2009</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503806&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3551870&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
@@ -5483,17 +5483,17 @@
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>27/11/2008</t>
+          <t>23/01/2009</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3337768&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503806&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
@@ -5508,7 +5508,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Transporte de Residuos de Plomo y Baterías en Desuso, por las Regiones VI, VII, VIII, IX, XIV y X (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -5523,7 +5523,7 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>Industria Proveedora de Partes Metalurgicas Ltda.</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F108" t="n">
@@ -5531,17 +5531,17 @@
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>07/11/2008</t>
+          <t>27/11/2008</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3321441&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3337768&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
@@ -5556,7 +5556,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Transporte de Residuos de Plomo y Baterías en Desuso, por las Regiones VI, VII, VIII, IX, XIV y X (e-seia)</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -5571,25 +5571,25 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Industria Proveedora de Partes Metalurgicas Ltda.</t>
         </is>
       </c>
       <c r="F109" t="n">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>30/10/2008</t>
+          <t>07/11/2008</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3313847&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3321441&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
@@ -5627,17 +5627,17 @@
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>15/10/2008</t>
+          <t>30/10/2008</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3313847&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
@@ -5652,7 +5652,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -5667,11 +5667,11 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F111" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G111" t="inlineStr">
         <is>
@@ -5680,12 +5680,12 @@
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
@@ -5700,7 +5700,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS DE PLOMO Y BATERÍAS USADAS POR LAS REGIONES VI, VII, VIII, IX, XIV y X (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -5715,25 +5715,25 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>Industria Proveedora de Partes Metalurgicas Ltda.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F112" t="n">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>10/10/2008</t>
+          <t>15/10/2008</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3249759&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
@@ -5796,7 +5796,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS DE PLOMO Y BATERÍAS USADAS POR LAS REGIONES VI, VII, VIII, IX, XIV y X (e-seia)</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -5811,25 +5811,25 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Industria Proveedora de Partes Metalurgicas Ltda.</t>
         </is>
       </c>
       <c r="F114" t="n">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>01/10/2008</t>
+          <t>10/10/2008</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3232866&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3249759&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
@@ -5844,7 +5844,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>PLANTA ELABORADORA DE LECHE EN POLVO, COMUNA DE OSORNO, REGIÓN DE LOS LAGOS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -5854,30 +5854,30 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>Nestlé Chile S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F115" t="n">
-        <v>84000</v>
+        <v>250</v>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>29/09/2008</t>
+          <t>01/10/2008</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223561&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3232866&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
@@ -5892,7 +5892,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>PLANTA ELABORADORA DE LECHE EN POLVO, COMUNA DE OSORNO, REGIÓN DE LOS LAGOS (e-seia)</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -5902,30 +5902,30 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Nestlé Chile S.A.</t>
         </is>
       </c>
       <c r="F116" t="n">
-        <v>20</v>
+        <v>84000</v>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>16/09/2008</t>
+          <t>29/09/2008</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3192496&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223561&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
@@ -5940,7 +5940,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Regularización de Ampliación y Adición de Equipos al Sistema de Tratamiento de riles de la Planta Frigorífico de Osorno S.A. Comuna de Osorno. Región de los Lagos (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -5950,30 +5950,30 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>Frigorífico de osorno S.A.</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F117" t="n">
-        <v>160</v>
+        <v>20</v>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>28/08/2008</t>
+          <t>16/09/2008</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3143976&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3192496&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
@@ -5988,7 +5988,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>Regularización de Ampliación y Adición de Equipos al Sistema de Tratamiento de riles de la Planta Frigorífico de Osorno S.A. Comuna de Osorno. Región de los Lagos (e-seia)</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -5998,30 +5998,30 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Frigorífico de osorno S.A.</t>
         </is>
       </c>
       <c r="F118" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>20/08/2008</t>
+          <t>28/08/2008</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3143976&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
@@ -6036,7 +6036,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -6051,25 +6051,25 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F119" t="n">
-        <v>1650</v>
+        <v>250</v>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>06/08/2008</t>
+          <t>20/08/2008</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3079271&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
@@ -6084,7 +6084,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -6099,15 +6099,15 @@
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F120" t="n">
-        <v>20</v>
+        <v>1650</v>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>05/08/2008</t>
+          <t>06/08/2008</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
@@ -6117,7 +6117,7 @@
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3079271&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
@@ -6132,7 +6132,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Segunda Modificación Piscicultura Santa Juana (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -6142,30 +6142,30 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>Cermaq Chile S.A.</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F121" t="n">
-        <v>7000</v>
+        <v>20</v>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>11/07/2008</t>
+          <t>05/08/2008</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3031825&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
@@ -6180,7 +6180,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>transporte de residuos peligrosos (e-seia)</t>
+          <t>Segunda Modificación Piscicultura Santa Juana (e-seia)</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -6190,30 +6190,30 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Cermaq Chile S.A.</t>
         </is>
       </c>
       <c r="F122" t="n">
-        <v>20</v>
+        <v>7000</v>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>09/07/2008</t>
+          <t>11/07/2008</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3023770&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3031825&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
@@ -6228,7 +6228,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
+          <t>transporte de residuos peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -6243,15 +6243,15 @@
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F123" t="n">
-        <v>1650</v>
+        <v>20</v>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>07/07/2008</t>
+          <t>09/07/2008</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
@@ -6261,7 +6261,7 @@
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3008477&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3023770&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
@@ -6276,7 +6276,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>transporte de residuos peligrosos (e-seia)</t>
+          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -6291,15 +6291,15 @@
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F124" t="n">
-        <v>20</v>
+        <v>1650</v>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>30/05/2008</t>
+          <t>07/07/2008</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
@@ -6309,7 +6309,7 @@
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2910651&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3008477&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
@@ -6324,7 +6324,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Ampliacion Central Chuyaca (e-seia)</t>
+          <t>transporte de residuos peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -6334,30 +6334,30 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>SAGESA S.A.</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F125" t="n">
-        <v>4800</v>
+        <v>20</v>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>17/04/2008</t>
+          <t>30/05/2008</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2845928&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2910651&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
@@ -6372,7 +6372,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Modificación Piscicultura Las Quemas. Río Rahue. Comuna de Osorno (e-seia)</t>
+          <t>Ampliacion Central Chuyaca (e-seia)</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -6387,15 +6387,15 @@
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>PISCICULTURA LAS QUEMAS CHILE S.A.</t>
+          <t>SAGESA S.A.</t>
         </is>
       </c>
       <c r="F126" t="n">
-        <v>4000</v>
+        <v>4800</v>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>19/03/2008</t>
+          <t>17/04/2008</t>
         </is>
       </c>
       <c r="H126" t="inlineStr">
@@ -6405,7 +6405,7 @@
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2767784&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2845928&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
@@ -6420,7 +6420,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Aguas Residuales mediante Lombrifiltro para Lácteos Paraguay, Comuna de Osorno, X Región. (e-seia)</t>
+          <t>Modificación Piscicultura Las Quemas. Río Rahue. Comuna de Osorno (e-seia)</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -6435,15 +6435,15 @@
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>Gonzalo Andrés Schwalm Urzúa</t>
+          <t>PISCICULTURA LAS QUEMAS CHILE S.A.</t>
         </is>
       </c>
       <c r="F127" t="n">
-        <v>250</v>
+        <v>4000</v>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>28/02/2008</t>
+          <t>19/03/2008</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
@@ -6453,7 +6453,7 @@
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2737933&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2767784&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
@@ -6468,7 +6468,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Aguas Residuales mediante Lombrifiltro para "Lácteos Paraguay", Comuna de Osorno, X Región. (e-seia)</t>
+          <t>Planta de Tratamiento de Aguas Residuales mediante Lombrifiltro para Lácteos Paraguay, Comuna de Osorno, X Región. (e-seia)</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -6491,17 +6491,17 @@
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>06/02/2008</t>
+          <t>28/02/2008</t>
         </is>
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2690534&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2737933&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
@@ -6516,7 +6516,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Planta de Disposición Final de Residuos Industriales ECOPRIAL (e-seia)</t>
+          <t>Planta de Tratamiento de Aguas Residuales mediante Lombrifiltro para "Lácteos Paraguay", Comuna de Osorno, X Región. (e-seia)</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -6531,25 +6531,25 @@
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>Asesorías Los Olivos S.A.</t>
+          <t>Gonzalo Andrés Schwalm Urzúa</t>
         </is>
       </c>
       <c r="F129" t="n">
-        <v>1045</v>
+        <v>250</v>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>30/01/2008</t>
+          <t>06/02/2008</t>
         </is>
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2667394&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2690534&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
@@ -6564,7 +6564,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE SUSTANCIAS PELIGROSAS EN Y ENTRE LAS REGIONES XV Y X (e-seia)</t>
+          <t>Planta de Disposición Final de Residuos Industriales ECOPRIAL (e-seia)</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -6574,20 +6574,20 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>INVERSIONES AUTOMOTRICES K Y L LIMITADA</t>
+          <t>Asesorías Los Olivos S.A.</t>
         </is>
       </c>
       <c r="F130" t="n">
-        <v>0</v>
+        <v>1045</v>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>29/01/2008</t>
+          <t>30/01/2008</t>
         </is>
       </c>
       <c r="H130" t="inlineStr">
@@ -6597,7 +6597,7 @@
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2671596&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2667394&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
@@ -6612,7 +6612,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Piscicultura Pilmaiquén (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE SUSTANCIAS PELIGROSAS EN Y ENTRE LAS REGIONES XV Y X (e-seia)</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -6622,30 +6622,30 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>Inversiones Aubel Limitada</t>
+          <t>INVERSIONES AUTOMOTRICES K Y L LIMITADA</t>
         </is>
       </c>
       <c r="F131" t="n">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>23/11/2007</t>
+          <t>29/01/2008</t>
         </is>
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2507396&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2671596&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
@@ -6660,7 +6660,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Transporte Trans Regional Terrestre de Residuos Industriales (e-seia)</t>
+          <t>Piscicultura Pilmaiquén (e-seia)</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -6670,30 +6670,30 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
+          <t>Inversiones Aubel Limitada</t>
         </is>
       </c>
       <c r="F132" t="n">
-        <v>429</v>
+        <v>1500</v>
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>02/11/2007</t>
+          <t>23/11/2007</t>
         </is>
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2474976&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2507396&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
@@ -6708,7 +6708,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte Trans Regional Terrestre de Residuos Industriales (e-seia)</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -6723,25 +6723,25 @@
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F133" t="n">
-        <v>30</v>
+        <v>429</v>
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>25/10/2007</t>
+          <t>02/11/2007</t>
         </is>
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2454259&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2474976&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
@@ -6756,7 +6756,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -6771,25 +6771,25 @@
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>Servicio de Aseo Integral Monterredondo S.A</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F134" t="n">
-        <v>234</v>
+        <v>30</v>
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>08/10/2007</t>
+          <t>25/10/2007</t>
         </is>
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2454259&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
@@ -6804,7 +6804,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -6819,25 +6819,25 @@
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>Transportes Máximo Enrique Sciarresi González EIRL</t>
+          <t>Servicio de Aseo Integral Monterredondo S.A</t>
         </is>
       </c>
       <c r="F135" t="n">
-        <v>250</v>
+        <v>234</v>
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>20/09/2007</t>
+          <t>08/10/2007</t>
         </is>
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2392309&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
@@ -6852,7 +6852,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Matadero Ovino MAFRISUR S.A., comuna de Osorno, Región deLos Lagos (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -6862,20 +6862,20 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>MAFRISUR S.A.</t>
+          <t>Transportes Máximo Enrique Sciarresi González EIRL</t>
         </is>
       </c>
       <c r="F136" t="n">
-        <v>6000</v>
+        <v>250</v>
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>03/09/2007</t>
+          <t>20/09/2007</t>
         </is>
       </c>
       <c r="H136" t="inlineStr">
@@ -6885,7 +6885,7 @@
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2374309&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2392309&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
@@ -6900,7 +6900,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>CONJUNTO HABITACIONAL JARDIN DEL ALTO,OSORNO (e-seia)</t>
+          <t>Matadero Ovino MAFRISUR S.A., comuna de Osorno, Región deLos Lagos (e-seia)</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -6915,15 +6915,15 @@
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>Inmobiliaria Fourcade S.A.</t>
+          <t>MAFRISUR S.A.</t>
         </is>
       </c>
       <c r="F137" t="n">
-        <v>3370</v>
+        <v>6000</v>
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>31/08/2007</t>
+          <t>03/09/2007</t>
         </is>
       </c>
       <c r="H137" t="inlineStr">
@@ -6933,7 +6933,7 @@
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2359952&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2374309&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
@@ -6996,7 +6996,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales (e-seia)</t>
+          <t>CONJUNTO HABITACIONAL JARDIN DEL ALTO,OSORNO (e-seia)</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -7006,30 +7006,30 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>Castañeda Hermanos Ltda.</t>
+          <t>Inmobiliaria Fourcade S.A.</t>
         </is>
       </c>
       <c r="F139" t="n">
-        <v>300</v>
+        <v>3370</v>
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>23/08/2007</t>
+          <t>31/08/2007</t>
         </is>
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2329508&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2359952&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
@@ -7044,7 +7044,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Transportes de Residuos Industrales (e-seia)</t>
+          <t>Transporte de Residuos Industriales (e-seia)</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -7067,17 +7067,17 @@
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>04/07/2007</t>
+          <t>23/08/2007</t>
         </is>
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2329508&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
@@ -7092,7 +7092,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>Transportes de Residuos Industrales (e-seia)</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -7107,25 +7107,25 @@
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>Global Index Chile Servicios Integrales Limitada</t>
+          <t>Castañeda Hermanos Ltda.</t>
         </is>
       </c>
       <c r="F141" t="n">
-        <v>80</v>
+        <v>300</v>
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>13/06/2007</t>
+          <t>04/07/2007</t>
         </is>
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2199692&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
@@ -7140,7 +7140,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Drenaje Superficial Fundo Los Notros (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -7150,30 +7150,30 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>Marìa Magdalena Erratchou Lara</t>
+          <t>Global Index Chile Servicios Integrales Limitada</t>
         </is>
       </c>
       <c r="F142" t="n">
-        <v>132</v>
+        <v>80</v>
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>25/04/2007</t>
+          <t>13/06/2007</t>
         </is>
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2124152&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2199692&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
@@ -7188,7 +7188,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Modificacion Piscicultura Santa Juana (e-seia)</t>
+          <t>Drenaje Superficial Fundo Los Notros (e-seia)</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -7203,15 +7203,15 @@
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>Cermaq Chile S.A.</t>
+          <t>Marìa Magdalena Erratchou Lara</t>
         </is>
       </c>
       <c r="F143" t="n">
-        <v>3000</v>
+        <v>132</v>
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>12/04/2007</t>
+          <t>25/04/2007</t>
         </is>
       </c>
       <c r="H143" t="inlineStr">
@@ -7221,7 +7221,7 @@
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2094113&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2124152&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
@@ -7236,7 +7236,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>SISTEMA DE TRATAMIENTO DE RESIDUOS INDUSTRIALES LIQUIDOS AGROLACTEOS CUINCO SA (e-seia)</t>
+          <t>Modificacion Piscicultura Santa Juana (e-seia)</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -7251,15 +7251,15 @@
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>Distribuidora J.A Ltda.</t>
+          <t>Cermaq Chile S.A.</t>
         </is>
       </c>
       <c r="F144" t="n">
-        <v>100</v>
+        <v>3000</v>
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>09/04/2007</t>
+          <t>12/04/2007</t>
         </is>
       </c>
       <c r="H144" t="inlineStr">
@@ -7269,7 +7269,7 @@
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2092314&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2094113&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
@@ -7284,7 +7284,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Drenaje Predio Polloico (e-seia)</t>
+          <t>SISTEMA DE TRATAMIENTO DE RESIDUOS INDUSTRIALES LIQUIDOS AGROLACTEOS CUINCO SA (e-seia)</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -7299,25 +7299,25 @@
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>Alfonso Guillermo Besser Hayler</t>
+          <t>Distribuidora J.A Ltda.</t>
         </is>
       </c>
       <c r="F145" t="n">
-        <v>44</v>
+        <v>100</v>
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>21/03/2007</t>
+          <t>09/04/2007</t>
         </is>
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2057529&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2092314&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J145" t="inlineStr">
@@ -7332,7 +7332,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región, incluyendo la Región Metropolitana (e-seia)</t>
+          <t>Drenaje Predio Polloico (e-seia)</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -7342,30 +7342,30 @@
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>Empresa de Residuos RESITER S.A.</t>
+          <t>Alfonso Guillermo Besser Hayler</t>
         </is>
       </c>
       <c r="F146" t="n">
-        <v>1</v>
+        <v>44</v>
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>16/03/2007</t>
+          <t>21/03/2007</t>
         </is>
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049917&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2057529&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J146" t="inlineStr">
@@ -7380,7 +7380,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Transporte Ferroviario y Almacenamiento de Combustible (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región, incluyendo la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -7395,25 +7395,25 @@
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>Ferrocarril del Pacífico S.A.</t>
+          <t>Empresa de Residuos RESITER S.A.</t>
         </is>
       </c>
       <c r="F147" t="n">
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>26/02/2007</t>
+          <t>16/03/2007</t>
         </is>
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2016722&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049917&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
@@ -7428,7 +7428,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>TRANSPORTE FERROVIARIO Y ALMACENAMIENTO DE COMBUSTIBLES (e-seia)</t>
+          <t>Transporte Ferroviario y Almacenamiento de Combustible (e-seia)</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -7451,17 +7451,17 @@
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>14/02/2007</t>
+          <t>26/02/2007</t>
         </is>
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1990390&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2016722&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">
@@ -7476,7 +7476,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región incluyendo la Región Metropolitana (e-seia)</t>
+          <t>TRANSPORTE FERROVIARIO Y ALMACENAMIENTO DE COMBUSTIBLES (e-seia)</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -7491,15 +7491,15 @@
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>Empresa de Residuos RESITER S.A.</t>
+          <t>Ferrocarril del Pacífico S.A.</t>
         </is>
       </c>
       <c r="F149" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>13/02/2007</t>
+          <t>14/02/2007</t>
         </is>
       </c>
       <c r="H149" t="inlineStr">
@@ -7509,7 +7509,7 @@
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1984174&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1990390&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
@@ -7524,7 +7524,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región incluyendo la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -7539,25 +7539,25 @@
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Empresa de Residuos RESITER S.A.</t>
         </is>
       </c>
       <c r="F150" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>12/01/2007</t>
+          <t>13/02/2007</t>
         </is>
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1984174&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
@@ -7572,7 +7572,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -7595,17 +7595,17 @@
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>29/12/2006</t>
+          <t>12/01/2007</t>
         </is>
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J151" t="inlineStr">
@@ -7620,7 +7620,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en Camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -7635,25 +7635,25 @@
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F152" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>12/12/2006</t>
+          <t>29/12/2006</t>
         </is>
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1852126&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J152" t="inlineStr">
@@ -7668,7 +7668,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>TRANSPORTES DE ACEITES USADOS (e-seia)</t>
+          <t>Transporte Terrestre en Camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X (e-seia)</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -7683,25 +7683,25 @@
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>TRANSPORTES INOSTROZA LTDA</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F153" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>07/12/2006</t>
+          <t>12/12/2006</t>
         </is>
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1843978&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1852126&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J153" t="inlineStr">
@@ -7716,7 +7716,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>TRANSPORTES DE ACEITES USADOS (e-seia)</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -7731,25 +7731,25 @@
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES INOSTROZA LTDA</t>
         </is>
       </c>
       <c r="F154" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>10/11/2006</t>
+          <t>07/12/2006</t>
         </is>
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1843978&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
@@ -7764,7 +7764,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -7779,25 +7779,25 @@
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>Prodelin Ltda.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F155" t="n">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>06/11/2006</t>
+          <t>10/11/2006</t>
         </is>
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1785275&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
@@ -7812,7 +7812,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Transporte terrestre en camiones de Sustancias y Residuos Peligrosos entre la regiones V y X 193 (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -7827,25 +7827,25 @@
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>Prodelin Ltda.</t>
         </is>
       </c>
       <c r="F156" t="n">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>25/10/2006</t>
+          <t>06/11/2006</t>
         </is>
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1767215&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1785275&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
@@ -7860,7 +7860,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Transporte de Residuos industrial por las rutas indicadas (e-seia)</t>
+          <t>Transporte terrestre en camiones de Sustancias y Residuos Peligrosos entre la regiones V y X 193 (e-seia)</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -7875,15 +7875,15 @@
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>Empresa de Transportes Trans-residuos</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F157" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>28/09/2006</t>
+          <t>25/10/2006</t>
         </is>
       </c>
       <c r="H157" t="inlineStr">
@@ -7893,7 +7893,7 @@
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1726867&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1767215&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
@@ -7908,7 +7908,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Proyecto Pradera, Aumento de capacidad Planta Prolesur Osorno (e-seia)</t>
+          <t>Transporte de Residuos industrial por las rutas indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -7918,30 +7918,30 @@
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>Prolesur S.A.</t>
+          <t>Empresa de Transportes Trans-residuos</t>
         </is>
       </c>
       <c r="F158" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>01/09/2006</t>
+          <t>28/09/2006</t>
         </is>
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1643306&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1726867&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
@@ -7956,7 +7956,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES PELIGROSOS Y NO PELIGROSOS POR RUTAS INDICADAS ENTRE I y X REGION (e-seia)</t>
+          <t>Proyecto Pradera, Aumento de capacidad Planta Prolesur Osorno (e-seia)</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -7966,20 +7966,20 @@
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>GESTION INTEGRAL DE RESIDUOS GEOBARRA EXINS LTDA.</t>
+          <t>Prolesur S.A.</t>
         </is>
       </c>
       <c r="F159" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>09/08/2006</t>
+          <t>01/09/2006</t>
         </is>
       </c>
       <c r="H159" t="inlineStr">
@@ -7989,7 +7989,7 @@
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1616105&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1643306&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
@@ -8004,7 +8004,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Drenaje Superficial Predio Los Nogales (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES PELIGROSOS Y NO PELIGROSOS POR RUTAS INDICADAS ENTRE I y X REGION (e-seia)</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -8014,20 +8014,20 @@
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>Edmundo Kram Toledo</t>
+          <t>GESTION INTEGRAL DE RESIDUOS GEOBARRA EXINS LTDA.</t>
         </is>
       </c>
       <c r="F160" t="n">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>31/07/2006</t>
+          <t>09/08/2006</t>
         </is>
       </c>
       <c r="H160" t="inlineStr">
@@ -8037,7 +8037,7 @@
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1601455&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1616105&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J160" t="inlineStr">
@@ -8052,7 +8052,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Sistema de Tratamiento de Residuos Industriales Líquidos de Soc. Col. y Com. Jorge y Mario Meyer Buschmann (Lácteos Mulpulmo) X Región (e-seia)</t>
+          <t>Drenaje Superficial Predio Los Nogales (e-seia)</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -8067,15 +8067,15 @@
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>Lácteos del Sur S.A.</t>
+          <t>Edmundo Kram Toledo</t>
         </is>
       </c>
       <c r="F161" t="n">
-        <v>850</v>
+        <v>87</v>
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>20/07/2006</t>
+          <t>31/07/2006</t>
         </is>
       </c>
       <c r="H161" t="inlineStr">
@@ -8085,7 +8085,7 @@
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1594850&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1601455&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J161" t="inlineStr">
@@ -8100,7 +8100,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Piscicultura Las Quemas, Río Rahue, Comuna de Osorno (e-seia)</t>
+          <t>Sistema de Tratamiento de Residuos Industriales Líquidos de Soc. Col. y Com. Jorge y Mario Meyer Buschmann (Lácteos Mulpulmo) X Región (e-seia)</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -8115,15 +8115,15 @@
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>PISCICULTURA LAS QUEMAS CHILE S.A.</t>
+          <t>Lácteos del Sur S.A.</t>
         </is>
       </c>
       <c r="F162" t="n">
-        <v>2000</v>
+        <v>850</v>
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>18/07/2006</t>
+          <t>20/07/2006</t>
         </is>
       </c>
       <c r="H162" t="inlineStr">
@@ -8133,7 +8133,7 @@
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1574723&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1594850&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J162" t="inlineStr">
@@ -8148,7 +8148,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>TransporteTerrestre de Residuos Industriales Peligrosos y No Peligrosos por Rutas Indicadas entre la I y X Región (e-seia)</t>
+          <t>Piscicultura Las Quemas, Río Rahue, Comuna de Osorno (e-seia)</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -8158,30 +8158,30 @@
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>mario enrique barra diaz</t>
+          <t>PISCICULTURA LAS QUEMAS CHILE S.A.</t>
         </is>
       </c>
       <c r="F163" t="n">
-        <v>80</v>
+        <v>2000</v>
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>22/06/2006</t>
+          <t>18/07/2006</t>
         </is>
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1508957&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1574723&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J163" t="inlineStr">
@@ -8196,7 +8196,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Transporte de Combustible (e-seia)</t>
+          <t>TransporteTerrestre de Residuos Industriales Peligrosos y No Peligrosos por Rutas Indicadas entre la I y X Región (e-seia)</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -8211,25 +8211,25 @@
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
+          <t>mario enrique barra diaz</t>
         </is>
       </c>
       <c r="F164" t="n">
-        <v>500</v>
+        <v>80</v>
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>21/04/2006</t>
+          <t>22/06/2006</t>
         </is>
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1408985&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1508957&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J164" t="inlineStr">
@@ -8244,7 +8244,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Transporte de Combustibles (e-seia)</t>
+          <t>Transporte de Combustible (e-seia)</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -8267,17 +8267,17 @@
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>31/03/2006</t>
+          <t>21/04/2006</t>
         </is>
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1408985&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J165" t="inlineStr">
@@ -8292,7 +8292,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
+          <t>Transporte de Combustibles (e-seia)</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -8307,25 +8307,25 @@
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>Francisco Javier Acuña Carter</t>
+          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
         </is>
       </c>
       <c r="F166" t="n">
-        <v>4000</v>
+        <v>500</v>
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>27/03/2006</t>
+          <t>31/03/2006</t>
         </is>
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J166" t="inlineStr">
@@ -8340,7 +8340,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -8363,17 +8363,17 @@
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>06/03/2006</t>
+          <t>27/03/2006</t>
         </is>
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J167" t="inlineStr">
@@ -8388,7 +8388,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Transporte de sustancias y residuos peligrosos (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -8403,25 +8403,25 @@
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>Iris Leiva ALbornoz Ltda.</t>
+          <t>Francisco Javier Acuña Carter</t>
         </is>
       </c>
       <c r="F168" t="n">
-        <v>0</v>
+        <v>4000</v>
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>02/03/2006</t>
+          <t>06/03/2006</t>
         </is>
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1281009&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J168" t="inlineStr">
@@ -8436,7 +8436,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>"PLANTA ELABORADORA DE PRODUCTOS LÁCTEOS, OSORNO, X REGIÓN" 0 (e-seia)</t>
+          <t>Transporte de sustancias y residuos peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -8446,30 +8446,30 @@
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>Manuel Ellies Fuenzalida</t>
+          <t>Iris Leiva ALbornoz Ltda.</t>
         </is>
       </c>
       <c r="F169" t="n">
-        <v>17950</v>
+        <v>0</v>
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>29/11/2005</t>
+          <t>02/03/2006</t>
         </is>
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1137908&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1281009&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J169" t="inlineStr">
@@ -8484,7 +8484,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE PLOMO, RESIDUOS PLOMADOS Y OTROS RESIDUOS PELIGROSOS 053562 (e-seia)</t>
+          <t>"PLANTA ELABORADORA DE PRODUCTOS LÁCTEOS, OSORNO, X REGIÓN" 0 (e-seia)</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -8494,20 +8494,20 @@
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>BATERIAS COSMOS LTDA</t>
+          <t>Manuel Ellies Fuenzalida</t>
         </is>
       </c>
       <c r="F170" t="n">
-        <v>160</v>
+        <v>17950</v>
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>11/11/2005</t>
+          <t>29/11/2005</t>
         </is>
       </c>
       <c r="H170" t="inlineStr">
@@ -8517,7 +8517,7 @@
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1102933&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1137908&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J170" t="inlineStr">
@@ -8532,7 +8532,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>TRANSPORTE DE PLOMO, RESIDUOS PLOMADOS Y OTROS RESIDUOS PELIGROSOS 053562 (e-seia)</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -8547,15 +8547,15 @@
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>Renzo Luis Pereira Sandoval</t>
+          <t>BATERIAS COSMOS LTDA</t>
         </is>
       </c>
       <c r="F171" t="n">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="G171" t="inlineStr">
         <is>
-          <t>08/09/2005</t>
+          <t>11/11/2005</t>
         </is>
       </c>
       <c r="H171" t="inlineStr">
@@ -8565,7 +8565,7 @@
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1102933&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J171" t="inlineStr">
@@ -8595,11 +8595,11 @@
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>Jorge Díaz Contreras</t>
+          <t>Renzo Luis Pereira Sandoval</t>
         </is>
       </c>
       <c r="F172" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="G172" t="inlineStr">
         <is>
@@ -8613,7 +8613,7 @@
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J172" t="inlineStr">
@@ -8628,7 +8628,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -8643,11 +8643,11 @@
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>Transportes Santa María S.A.</t>
+          <t>Jorge Díaz Contreras</t>
         </is>
       </c>
       <c r="F173" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="G173" t="inlineStr">
         <is>
@@ -8661,7 +8661,7 @@
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">
@@ -8676,7 +8676,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Conjunto Habitacional Sector Lololhue, Comuna de osorno (e-seia)</t>
+          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -8686,20 +8686,20 @@
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>SERVICIO DE VIVIENDA Y URBANISMO X REGION</t>
+          <t>Transportes Santa María S.A.</t>
         </is>
       </c>
       <c r="F174" t="n">
-        <v>20000</v>
+        <v>200</v>
       </c>
       <c r="G174" t="inlineStr">
         <is>
-          <t>19/07/2005</t>
+          <t>08/09/2005</t>
         </is>
       </c>
       <c r="H174" t="inlineStr">
@@ -8709,7 +8709,7 @@
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=951284&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J174" t="inlineStr">
@@ -8724,7 +8724,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Ampliación Pozo de Aridos Hadida Ampliación Pozo de Arido Hadida (e-seia)</t>
+          <t>Conjunto Habitacional Sector Lololhue, Comuna de osorno (e-seia)</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -8739,15 +8739,15 @@
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>Edgar Walter Hadida Schmid</t>
+          <t>SERVICIO DE VIVIENDA Y URBANISMO X REGION</t>
         </is>
       </c>
       <c r="F175" t="n">
-        <v>1</v>
+        <v>20000</v>
       </c>
       <c r="G175" t="inlineStr">
         <is>
-          <t>08/06/2005</t>
+          <t>19/07/2005</t>
         </is>
       </c>
       <c r="H175" t="inlineStr">
@@ -8757,7 +8757,7 @@
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=879261&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=951284&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
@@ -8772,7 +8772,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Modificación Sistema de Tratamiento de Residuos MAtadero frigorífico del Sur S.A. Sistema de Tratamiento Matadero Frigorifico Osorno (e-seia)</t>
+          <t>Ampliación Pozo de Aridos Hadida Ampliación Pozo de Arido Hadida (e-seia)</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -8787,11 +8787,11 @@
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>Matadero Frigorífico del Sur S.A.</t>
+          <t>Edgar Walter Hadida Schmid</t>
         </is>
       </c>
       <c r="F176" t="n">
-        <v>862</v>
+        <v>1</v>
       </c>
       <c r="G176" t="inlineStr">
         <is>
@@ -8805,7 +8805,7 @@
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=883177&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=879261&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J176" t="inlineStr">
@@ -8820,7 +8820,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Transporte terrestre de sustancias químicas (e-seia)</t>
+          <t>Modificación Sistema de Tratamiento de Residuos MAtadero frigorífico del Sur S.A. Sistema de Tratamiento Matadero Frigorifico Osorno (e-seia)</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -8830,20 +8830,20 @@
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>Inmobiliaria e inversiones Polykarpo S.A.</t>
+          <t>Matadero Frigorífico del Sur S.A.</t>
         </is>
       </c>
       <c r="F177" t="n">
-        <v>200</v>
+        <v>862</v>
       </c>
       <c r="G177" t="inlineStr">
         <is>
-          <t>05/05/2005</t>
+          <t>08/06/2005</t>
         </is>
       </c>
       <c r="H177" t="inlineStr">
@@ -8853,7 +8853,7 @@
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=664436&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=883177&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J177" t="inlineStr">
@@ -8891,17 +8891,17 @@
       </c>
       <c r="G178" t="inlineStr">
         <is>
-          <t>09/03/2005</t>
+          <t>05/05/2005</t>
         </is>
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=614117&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=664436&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J178" t="inlineStr">
@@ -8916,7 +8916,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Modificación Plan Regulador de Osorno. (e-seia)</t>
+          <t>Transporte terrestre de sustancias químicas (e-seia)</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -8926,30 +8926,30 @@
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Osorno</t>
+          <t>Inmobiliaria e inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F179" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G179" t="inlineStr">
         <is>
-          <t>06/01/2005</t>
+          <t>09/03/2005</t>
         </is>
       </c>
       <c r="H179" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=561189&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=614117&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J179" t="inlineStr">
@@ -8964,7 +8964,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Transporte terrestre de residuos industriales y productos asimilables por caminos que se indican de la I a la X Región (e-seia)</t>
+          <t>Modificación Plan Regulador de Osorno. (e-seia)</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -8974,20 +8974,20 @@
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>Empresa de Transportes Los Ríos S.A.</t>
+          <t>Ilustre Municipalidad de Osorno</t>
         </is>
       </c>
       <c r="F180" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G180" t="inlineStr">
         <is>
-          <t>08/11/2004</t>
+          <t>06/01/2005</t>
         </is>
       </c>
       <c r="H180" t="inlineStr">
@@ -8997,7 +8997,7 @@
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=502823&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=561189&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J180" t="inlineStr">
@@ -9012,7 +9012,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Drenaje Predio Polloico (e-seia)</t>
+          <t>Transporte terrestre de residuos industriales y productos asimilables por caminos que se indican de la I a la X Región (e-seia)</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -9022,30 +9022,30 @@
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>Alfonso Guillermo Besser Hayler</t>
+          <t>Empresa de Transportes Los Ríos S.A.</t>
         </is>
       </c>
       <c r="F181" t="n">
-        <v>44</v>
+        <v>1</v>
       </c>
       <c r="G181" t="inlineStr">
         <is>
-          <t>20/10/2004</t>
+          <t>08/11/2004</t>
         </is>
       </c>
       <c r="H181" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=487555&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=502823&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J181" t="inlineStr">
@@ -9060,7 +9060,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>DRENAJE COMUNITARIO PREDIOS SANTA CARMEN (e-seia)</t>
+          <t>Drenaje Predio Polloico (e-seia)</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -9075,25 +9075,25 @@
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>comunidad obras de drenaje santa carmen</t>
+          <t>Alfonso Guillermo Besser Hayler</t>
         </is>
       </c>
       <c r="F182" t="n">
-        <v>162</v>
+        <v>44</v>
       </c>
       <c r="G182" t="inlineStr">
         <is>
-          <t>04/10/2004</t>
+          <t>20/10/2004</t>
         </is>
       </c>
       <c r="H182" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=472491&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=487555&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J182" t="inlineStr">
@@ -9108,7 +9108,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Drenaje Predio Polloico (e-seia)</t>
+          <t>DRENAJE COMUNITARIO PREDIOS SANTA CARMEN (e-seia)</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -9123,11 +9123,11 @@
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>Alfonso Guillermo Besser Hayler</t>
+          <t>comunidad obras de drenaje santa carmen</t>
         </is>
       </c>
       <c r="F183" t="n">
-        <v>44</v>
+        <v>162</v>
       </c>
       <c r="G183" t="inlineStr">
         <is>
@@ -9136,12 +9136,12 @@
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=472796&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=472491&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J183" t="inlineStr">
@@ -9156,7 +9156,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Transporte Rodoviario de Cloro en y entre las Regiones II y X (e-seia)</t>
+          <t>Drenaje Predio Polloico (e-seia)</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -9166,30 +9166,30 @@
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>Occidental Chemical Chile Limitada</t>
+          <t>Alfonso Guillermo Besser Hayler</t>
         </is>
       </c>
       <c r="F184" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="G184" t="inlineStr">
         <is>
-          <t>09/08/2004</t>
+          <t>04/10/2004</t>
         </is>
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=415850&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=472796&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J184" t="inlineStr">
@@ -9204,7 +9204,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>SISTEMA DE DEPURACIÓN Y NEUTRALIZACIÓN DE RESIDUOS INDUSTRIALES LÍQUIDOS, DECLARACIÓN DE IMPACTO AMBIENTAL (e-seia)</t>
+          <t>Transporte Rodoviario de Cloro en y entre las Regiones II y X (e-seia)</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -9214,20 +9214,20 @@
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>Prolesur S.A.</t>
+          <t>Occidental Chemical Chile Limitada</t>
         </is>
       </c>
       <c r="F185" t="n">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="G185" t="inlineStr">
         <is>
-          <t>02/08/2004</t>
+          <t>09/08/2004</t>
         </is>
       </c>
       <c r="H185" t="inlineStr">
@@ -9237,7 +9237,7 @@
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=408507&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=415850&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J185" t="inlineStr">
@@ -9252,7 +9252,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>PLAN REGIONAL DE DESARROLLO URBANO (e-seia)</t>
+          <t>SISTEMA DE DEPURACIÓN Y NEUTRALIZACIÓN DE RESIDUOS INDUSTRIALES LÍQUIDOS, DECLARACIÓN DE IMPACTO AMBIENTAL (e-seia)</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -9262,20 +9262,20 @@
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>Decimocuarta</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>SEREMI DE VIVIENDA Y URBANISMO X REGIÓN DE LOS LAGOS</t>
+          <t>Prolesur S.A.</t>
         </is>
       </c>
       <c r="F186" t="n">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="G186" t="inlineStr">
         <is>
-          <t>01/07/2004</t>
+          <t>02/08/2004</t>
         </is>
       </c>
       <c r="H186" t="inlineStr">
@@ -9285,7 +9285,7 @@
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=389944&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=408507&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J186" t="inlineStr">
@@ -9300,7 +9300,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Transporte de Plaguicidas y Artefactos Contaminados o que Contienen Bifenilospoliclorados (PCB) (e-seia)</t>
+          <t>PLAN REGIONAL DE DESARROLLO URBANO (e-seia)</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -9310,20 +9310,20 @@
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Decimocuarta</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>Bravo Energy Chile S.A.</t>
+          <t>SEREMI DE VIVIENDA Y URBANISMO X REGIÓN DE LOS LAGOS</t>
         </is>
       </c>
       <c r="F187" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G187" t="inlineStr">
         <is>
-          <t>21/06/2004</t>
+          <t>01/07/2004</t>
         </is>
       </c>
       <c r="H187" t="inlineStr">
@@ -9333,7 +9333,7 @@
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=377075&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=389944&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J187" t="inlineStr">
@@ -9348,7 +9348,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>"PROYECTO MATADERO FRIGORÍFICO DEL SUR S.A., (e-seia)</t>
+          <t>Transporte de Plaguicidas y Artefactos Contaminados o que Contienen Bifenilospoliclorados (PCB) (e-seia)</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
@@ -9358,20 +9358,20 @@
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>Eduardo Arturo Epple Held</t>
+          <t>Bravo Energy Chile S.A.</t>
         </is>
       </c>
       <c r="F188" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G188" t="inlineStr">
         <is>
-          <t>04/06/2004</t>
+          <t>21/06/2004</t>
         </is>
       </c>
       <c r="H188" t="inlineStr">
@@ -9381,7 +9381,7 @@
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=372111&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=377075&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J188" t="inlineStr">
@@ -9396,7 +9396,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Relocalización del Colegio Francés de Osorno (e-seia)</t>
+          <t>"PROYECTO MATADERO FRIGORÍFICO DEL SUR S.A., (e-seia)</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
@@ -9411,15 +9411,15 @@
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>Sociedad Educacional Francesa de Osorno S.A.</t>
+          <t>Eduardo Arturo Epple Held</t>
         </is>
       </c>
       <c r="F189" t="n">
-        <v>2329</v>
+        <v>0</v>
       </c>
       <c r="G189" t="inlineStr">
         <is>
-          <t>03/06/2004</t>
+          <t>04/06/2004</t>
         </is>
       </c>
       <c r="H189" t="inlineStr">
@@ -9429,7 +9429,7 @@
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=371821&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=372111&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J189" t="inlineStr">
@@ -9444,7 +9444,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Piscicultura Santa Juana (pert 202101089) (e-seia)</t>
+          <t>Relocalización del Colegio Francés de Osorno (e-seia)</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -9459,15 +9459,15 @@
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>Cermaq Chile S.A.</t>
+          <t>Sociedad Educacional Francesa de Osorno S.A.</t>
         </is>
       </c>
       <c r="F190" t="n">
-        <v>1500</v>
+        <v>2329</v>
       </c>
       <c r="G190" t="inlineStr">
         <is>
-          <t>30/04/2004</t>
+          <t>03/06/2004</t>
         </is>
       </c>
       <c r="H190" t="inlineStr">
@@ -9477,7 +9477,7 @@
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=325576&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=371821&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J190" t="inlineStr">
@@ -9492,7 +9492,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Transporte de Plaguicidas y Artefactos Contaminados o que Contienen Bifenilospoliclorados (PCB) (e-seia)</t>
+          <t>Piscicultura Santa Juana (pert 202101089) (e-seia)</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
@@ -9502,16 +9502,16 @@
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>Bravo Energy Chile S.A.</t>
+          <t>Cermaq Chile S.A.</t>
         </is>
       </c>
       <c r="F191" t="n">
-        <v>200</v>
+        <v>1500</v>
       </c>
       <c r="G191" t="inlineStr">
         <is>
@@ -9520,12 +9520,12 @@
       </c>
       <c r="H191" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=339300&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=325576&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J191" t="inlineStr">
@@ -9540,7 +9540,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>Sistema de Tratamiento de Residuos Industriales Líquidos para la Planta Loncoleche Osorno. (e-seia)</t>
+          <t>Transporte de Plaguicidas y Artefactos Contaminados o que Contienen Bifenilospoliclorados (PCB) (e-seia)</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
@@ -9550,30 +9550,30 @@
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>Watt`s Alimentos S.A.</t>
+          <t>Bravo Energy Chile S.A.</t>
         </is>
       </c>
       <c r="F192" t="n">
-        <v>430</v>
+        <v>200</v>
       </c>
       <c r="G192" t="inlineStr">
         <is>
-          <t>12/02/2004</t>
+          <t>30/04/2004</t>
         </is>
       </c>
       <c r="H192" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=265302&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=339300&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J192" t="inlineStr">
@@ -9588,7 +9588,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>Modificación Nº 01/2003 Plan Regulador Osorno (e-seia)</t>
+          <t>Sistema de Tratamiento de Residuos Industriales Líquidos para la Planta Loncoleche Osorno. (e-seia)</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
@@ -9603,15 +9603,15 @@
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Osorno</t>
+          <t>Watt`s Alimentos S.A.</t>
         </is>
       </c>
       <c r="F193" t="n">
-        <v>0</v>
+        <v>430</v>
       </c>
       <c r="G193" t="inlineStr">
         <is>
-          <t>19/12/2003</t>
+          <t>12/02/2004</t>
         </is>
       </c>
       <c r="H193" t="inlineStr">
@@ -9621,7 +9621,7 @@
       </c>
       <c r="I193" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=228596&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=265302&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J193" t="inlineStr">
@@ -9636,7 +9636,7 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>Proyecto Canopy Aguas Calientes (e-seia)</t>
+          <t>Modificación Nº 01/2003 Plan Regulador Osorno (e-seia)</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
@@ -9651,15 +9651,15 @@
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>Turismo y Cabañas Aguas Calientes Ltda.</t>
+          <t>Ilustre Municipalidad de Osorno</t>
         </is>
       </c>
       <c r="F194" t="n">
-        <v>97</v>
+        <v>0</v>
       </c>
       <c r="G194" t="inlineStr">
         <is>
-          <t>10/12/2003</t>
+          <t>19/12/2003</t>
         </is>
       </c>
       <c r="H194" t="inlineStr">
@@ -9669,7 +9669,7 @@
       </c>
       <c r="I194" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=220766&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=228596&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J194" t="inlineStr">
@@ -9684,7 +9684,7 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>Proyecto Matadero Frigorífico del Sur S.A. (e-seia)</t>
+          <t>Proyecto Canopy Aguas Calientes (e-seia)</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
@@ -9699,25 +9699,25 @@
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>Matadero Frigorífico del Sur S.A.</t>
+          <t>Turismo y Cabañas Aguas Calientes Ltda.</t>
         </is>
       </c>
       <c r="F195" t="n">
-        <v>1000</v>
+        <v>97</v>
       </c>
       <c r="G195" t="inlineStr">
         <is>
-          <t>20/11/2003</t>
+          <t>10/12/2003</t>
         </is>
       </c>
       <c r="H195" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I195" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=203759&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=220766&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J195" t="inlineStr">
@@ -9732,7 +9732,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>SISTEMA DE TRATAMIENTO DE RILES, PROLESUR S.A., OSORNO (e-seia)</t>
+          <t>Proyecto Matadero Frigorífico del Sur S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
@@ -9747,15 +9747,15 @@
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>PROLESUR S.A.</t>
+          <t>Matadero Frigorífico del Sur S.A.</t>
         </is>
       </c>
       <c r="F196" t="n">
-        <v>142</v>
+        <v>1000</v>
       </c>
       <c r="G196" t="inlineStr">
         <is>
-          <t>14/10/2003</t>
+          <t>20/11/2003</t>
         </is>
       </c>
       <c r="H196" t="inlineStr">
@@ -9765,7 +9765,7 @@
       </c>
       <c r="I196" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=159306&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=203759&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J196" t="inlineStr">
@@ -9780,7 +9780,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales por las Rutas indicadas (e-seia)</t>
+          <t>SISTEMA DE TRATAMIENTO DE RILES, PROLESUR S.A., OSORNO (e-seia)</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
@@ -9790,30 +9790,30 @@
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>ECOSUR S.A.</t>
+          <t>PROLESUR S.A.</t>
         </is>
       </c>
       <c r="F197" t="n">
-        <v>200</v>
+        <v>142</v>
       </c>
       <c r="G197" t="inlineStr">
         <is>
-          <t>09/09/2003</t>
+          <t>14/10/2003</t>
         </is>
       </c>
       <c r="H197" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=135650&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=159306&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J197" t="inlineStr">
@@ -9828,7 +9828,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>Conjunto Habitacional Sector Jardín del Alto, Osorno (e-seia)</t>
+          <t>Transporte de Residuos Industriales por las Rutas indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
@@ -9838,30 +9838,30 @@
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>Inmobiliaria Fourcade S.A.</t>
+          <t>ECOSUR S.A.</t>
         </is>
       </c>
       <c r="F198" t="n">
-        <v>40000</v>
+        <v>200</v>
       </c>
       <c r="G198" t="inlineStr">
         <is>
-          <t>27/08/2003</t>
+          <t>09/09/2003</t>
         </is>
       </c>
       <c r="H198" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=135673&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=135650&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J198" t="inlineStr">
@@ -9876,7 +9876,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>Sistema de Tratamiento de Riles Planta Productora de Cecinas (e-seia)</t>
+          <t>Conjunto Habitacional Sector Jardín del Alto, Osorno (e-seia)</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
@@ -9891,25 +9891,25 @@
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>Sociedad Cecinera del Sur Ltda.</t>
+          <t>Inmobiliaria Fourcade S.A.</t>
         </is>
       </c>
       <c r="F199" t="n">
-        <v>170</v>
+        <v>40000</v>
       </c>
       <c r="G199" t="inlineStr">
         <is>
-          <t>14/07/2003</t>
+          <t>27/08/2003</t>
         </is>
       </c>
       <c r="H199" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I199" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=111634&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=135673&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J199" t="inlineStr">
@@ -9924,7 +9924,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>Conjunto Habitacional Sector Jardín del Alto, Comuna de Osorno (e-seia)</t>
+          <t>Sistema de Tratamiento de Riles Planta Productora de Cecinas (e-seia)</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
@@ -9939,25 +9939,25 @@
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>Inmobiliaria Fourcade S.A.</t>
+          <t>Sociedad Cecinera del Sur Ltda.</t>
         </is>
       </c>
       <c r="F200" t="n">
-        <v>40000</v>
+        <v>170</v>
       </c>
       <c r="G200" t="inlineStr">
         <is>
-          <t>18/06/2003</t>
+          <t>14/07/2003</t>
         </is>
       </c>
       <c r="H200" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I200" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=100119&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=111634&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J200" t="inlineStr">
@@ -9972,7 +9972,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>Construcción y Operación Subestación Eléctrica Aihuapi (e-seia)</t>
+          <t>Conjunto Habitacional Sector Jardín del Alto, Comuna de Osorno (e-seia)</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
@@ -9987,25 +9987,25 @@
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>Sistema de Transmisión del Sur S.A.</t>
+          <t>Inmobiliaria Fourcade S.A.</t>
         </is>
       </c>
       <c r="F201" t="n">
-        <v>350</v>
+        <v>40000</v>
       </c>
       <c r="G201" t="inlineStr">
         <is>
-          <t>24/01/2003</t>
+          <t>18/06/2003</t>
         </is>
       </c>
       <c r="H201" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I201" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=45978&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=100119&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J201" t="inlineStr">
@@ -10020,7 +10020,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>Ampliacion Segunda Etapa Construccion de 300 Viviendas Sociales, Sector La misión Comuna de Osorno (e-seia)</t>
+          <t>Construcción y Operación Subestación Eléctrica Aihuapi (e-seia)</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
@@ -10035,15 +10035,15 @@
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>SERVICIO DE VIVIENDA Y URBANIZACION X REGION</t>
+          <t>Sistema de Transmisión del Sur S.A.</t>
         </is>
       </c>
       <c r="F202" t="n">
-        <v>914</v>
+        <v>350</v>
       </c>
       <c r="G202" t="inlineStr">
         <is>
-          <t>13/09/2002</t>
+          <t>24/01/2003</t>
         </is>
       </c>
       <c r="H202" t="inlineStr">
@@ -10053,7 +10053,7 @@
       </c>
       <c r="I202" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=29920&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=45978&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J202" t="inlineStr">
@@ -10068,7 +10068,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>Sistema de Tratamiento de Residuos Industriales Líquidos para la Planta de Empresa Frigorifico de Osorno S.A.</t>
+          <t>Ampliacion Segunda Etapa Construccion de 300 Viviendas Sociales, Sector La misión Comuna de Osorno (e-seia)</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
@@ -10083,15 +10083,15 @@
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>Frigorífico de Osorno S.A.</t>
+          <t>SERVICIO DE VIVIENDA Y URBANIZACION X REGION</t>
         </is>
       </c>
       <c r="F203" t="n">
-        <v>199</v>
+        <v>914</v>
       </c>
       <c r="G203" t="inlineStr">
         <is>
-          <t>16/08/2002</t>
+          <t>13/09/2002</t>
         </is>
       </c>
       <c r="H203" t="inlineStr">
@@ -10101,7 +10101,7 @@
       </c>
       <c r="I203" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5762&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=29920&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J203" t="inlineStr">
@@ -10116,7 +10116,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>Estudio y Diseño de Servicio Público de Alcantarillado y Planta de Tratamiento de Aguas Servidas sin Generación de Lodos para la Localidad de Cancura</t>
+          <t>Sistema de Tratamiento de Residuos Industriales Líquidos para la Planta de Empresa Frigorifico de Osorno S.A.</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
@@ -10131,15 +10131,15 @@
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Osorno</t>
+          <t>Frigorífico de Osorno S.A.</t>
         </is>
       </c>
       <c r="F204" t="n">
-        <v>0</v>
+        <v>199</v>
       </c>
       <c r="G204" t="inlineStr">
         <is>
-          <t>24/05/2002</t>
+          <t>16/08/2002</t>
         </is>
       </c>
       <c r="H204" t="inlineStr">
@@ -10149,7 +10149,7 @@
       </c>
       <c r="I204" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5471&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5762&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J204" t="inlineStr">
@@ -10164,7 +10164,7 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Salmonídeos Piscicultura Puchaura Río Rahue ( Solicitud N° 201101106)</t>
+          <t>Estudio y Diseño de Servicio Público de Alcantarillado y Planta de Tratamiento de Aguas Servidas sin Generación de Lodos para la Localidad de Cancura</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
@@ -10179,15 +10179,15 @@
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>Luis Alberto Ellwanger Willer</t>
+          <t>Ilustre Municipalidad de Osorno</t>
         </is>
       </c>
       <c r="F205" t="n">
-        <v>2500</v>
+        <v>0</v>
       </c>
       <c r="G205" t="inlineStr">
         <is>
-          <t>15/03/2002</t>
+          <t>24/05/2002</t>
         </is>
       </c>
       <c r="H205" t="inlineStr">
@@ -10197,7 +10197,7 @@
       </c>
       <c r="I205" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5273&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5471&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J205" t="inlineStr">
@@ -10212,7 +10212,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>Construcción del Liceo Technos Osorno</t>
+          <t>Centro de Cultivo de Salmonídeos Piscicultura Puchaura Río Rahue ( Solicitud N° 201101106)</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
@@ -10227,25 +10227,25 @@
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>Sociedad Educacional Technos Ltda.</t>
+          <t>Luis Alberto Ellwanger Willer</t>
         </is>
       </c>
       <c r="F206" t="n">
-        <v>1490</v>
+        <v>2500</v>
       </c>
       <c r="G206" t="inlineStr">
         <is>
-          <t>04/03/2002</t>
+          <t>15/03/2002</t>
         </is>
       </c>
       <c r="H206" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I206" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5196&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5273&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J206" t="inlineStr">
@@ -10260,7 +10260,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>Transporte de Gas Propano desde Argentina a Temuco - Chile IX - X Región</t>
+          <t>Construcción del Liceo Technos Osorno</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
@@ -10270,30 +10270,30 @@
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>Ecogas S.A.</t>
+          <t>Sociedad Educacional Technos Ltda.</t>
         </is>
       </c>
       <c r="F207" t="n">
-        <v>10000</v>
+        <v>1490</v>
       </c>
       <c r="G207" t="inlineStr">
         <is>
-          <t>12/10/2001</t>
+          <t>04/03/2002</t>
         </is>
       </c>
       <c r="H207" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I207" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4598&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5196&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J207" t="inlineStr">
@@ -10308,7 +10308,7 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales</t>
+          <t>Transporte de Gas Propano desde Argentina a Temuco - Chile IX - X Región</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
@@ -10323,25 +10323,25 @@
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>ECOSUR S.A.</t>
+          <t>Ecogas S.A.</t>
         </is>
       </c>
       <c r="F208" t="n">
-        <v>200</v>
+        <v>10000</v>
       </c>
       <c r="G208" t="inlineStr">
         <is>
-          <t>25/09/2001</t>
+          <t>12/10/2001</t>
         </is>
       </c>
       <c r="H208" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I208" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4591&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4598&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J208" t="inlineStr">
@@ -10356,7 +10356,7 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>Complejo de Cabañas Turisticas Sector Las Quemas Comuna de Osorno</t>
+          <t>Transporte de Residuos Industriales</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
@@ -10366,30 +10366,30 @@
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>Gunther Juan Weis Kusch</t>
+          <t>ECOSUR S.A.</t>
         </is>
       </c>
       <c r="F209" t="n">
-        <v>20</v>
+        <v>200</v>
       </c>
       <c r="G209" t="inlineStr">
         <is>
-          <t>12/09/2001</t>
+          <t>25/09/2001</t>
         </is>
       </c>
       <c r="H209" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I209" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4412&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4591&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J209" t="inlineStr">
@@ -10404,7 +10404,7 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>Construcción de 406 Viviendas Sociales Sector La Misión Comuna de Osorno</t>
+          <t>Complejo de Cabañas Turisticas Sector Las Quemas Comuna de Osorno</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
@@ -10419,25 +10419,25 @@
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>SERVICIO DE VIVIENDA Y URBANIZACION X REGION</t>
+          <t>Gunther Juan Weis Kusch</t>
         </is>
       </c>
       <c r="F210" t="n">
-        <v>2130</v>
+        <v>20</v>
       </c>
       <c r="G210" t="inlineStr">
         <is>
-          <t>14/08/2001</t>
+          <t>12/09/2001</t>
         </is>
       </c>
       <c r="H210" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I210" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4277&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4412&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J210" t="inlineStr">
@@ -10452,7 +10452,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>Modificación Plan Regulador Comunal de Osorno Sector Instituto Profesional Agrario Adolfo Matthei</t>
+          <t>Construcción de 406 Viviendas Sociales Sector La Misión Comuna de Osorno</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
@@ -10467,15 +10467,15 @@
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Osorno</t>
+          <t>SERVICIO DE VIVIENDA Y URBANIZACION X REGION</t>
         </is>
       </c>
       <c r="F211" t="n">
-        <v>0</v>
+        <v>2130</v>
       </c>
       <c r="G211" t="inlineStr">
         <is>
-          <t>14/05/2001</t>
+          <t>14/08/2001</t>
         </is>
       </c>
       <c r="H211" t="inlineStr">
@@ -10485,7 +10485,7 @@
       </c>
       <c r="I211" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3898&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4277&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J211" t="inlineStr">
@@ -10500,7 +10500,7 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento y Red de Aguas Servidas para Loteo Polloico</t>
+          <t>Modificación Plan Regulador Comunal de Osorno Sector Instituto Profesional Agrario Adolfo Matthei</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
@@ -10515,25 +10515,25 @@
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>Comité Habitacional Polloico</t>
+          <t>Ilustre Municipalidad de Osorno</t>
         </is>
       </c>
       <c r="F212" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="G212" t="inlineStr">
         <is>
-          <t>07/05/2001</t>
+          <t>14/05/2001</t>
         </is>
       </c>
       <c r="H212" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I212" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3891&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3898&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J212" t="inlineStr">
@@ -10548,7 +10548,7 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>Tratamiento y Disposición Final de Las Aguas Servidas de Osorno (Segunda Presentación)</t>
+          <t>Planta de Tratamiento y Red de Aguas Servidas para Loteo Polloico</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
@@ -10563,25 +10563,25 @@
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>Empresa de Servicios Sanitarios de los Lagos ESSAL</t>
+          <t>Comité Habitacional Polloico</t>
         </is>
       </c>
       <c r="F213" t="n">
-        <v>11360</v>
+        <v>30</v>
       </c>
       <c r="G213" t="inlineStr">
         <is>
-          <t>24/01/2001</t>
+          <t>07/05/2001</t>
         </is>
       </c>
       <c r="H213" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I213" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3582&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3891&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J213" t="inlineStr">
@@ -10596,7 +10596,7 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>Restaurant Los Hornitos</t>
+          <t>Tratamiento y Disposición Final de Las Aguas Servidas de Osorno (Segunda Presentación)</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
@@ -10611,15 +10611,15 @@
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>Juana del Carmen Llanos Mora</t>
+          <t>Empresa de Servicios Sanitarios de los Lagos ESSAL</t>
         </is>
       </c>
       <c r="F214" t="n">
-        <v>10</v>
+        <v>11360</v>
       </c>
       <c r="G214" t="inlineStr">
         <is>
-          <t>08/11/2000</t>
+          <t>24/01/2001</t>
         </is>
       </c>
       <c r="H214" t="inlineStr">
@@ -10629,7 +10629,7 @@
       </c>
       <c r="I214" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3348&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3582&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J214" t="inlineStr">
@@ -10644,7 +10644,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>Ampliación Pozo de Aridos Hadida</t>
+          <t>Restaurant Los Hornitos</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
@@ -10659,15 +10659,15 @@
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>Hedgard Hadida</t>
+          <t>Juana del Carmen Llanos Mora</t>
         </is>
       </c>
       <c r="F215" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="G215" t="inlineStr">
         <is>
-          <t>03/11/2000</t>
+          <t>08/11/2000</t>
         </is>
       </c>
       <c r="H215" t="inlineStr">
@@ -10677,7 +10677,7 @@
       </c>
       <c r="I215" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3349&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3348&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J215" t="inlineStr">
@@ -10692,7 +10692,7 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>Estación de Servicio ESSO Km 915 Ruta 5 Sur Pilauco Osorno</t>
+          <t>Ampliación Pozo de Aridos Hadida</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
@@ -10707,15 +10707,15 @@
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>Esmax Distribución SpA</t>
+          <t>Hedgard Hadida</t>
         </is>
       </c>
       <c r="F216" t="n">
-        <v>1100</v>
+        <v>100</v>
       </c>
       <c r="G216" t="inlineStr">
         <is>
-          <t>05/07/2000</t>
+          <t>03/11/2000</t>
         </is>
       </c>
       <c r="H216" t="inlineStr">
@@ -10725,7 +10725,7 @@
       </c>
       <c r="I216" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3005&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3349&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J216" t="inlineStr">
@@ -10740,7 +10740,7 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>Transporte de Artefactos y/o Materiales Contaminados o que contienen Bifenilospoliclorados (BPC) o Terfenilospoliclorados</t>
+          <t>Estación de Servicio ESSO Km 915 Ruta 5 Sur Pilauco Osorno</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
@@ -10750,20 +10750,20 @@
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>Compañía de Desarrollo Minero Industrial CHIHOL Ltda.</t>
+          <t>Esmax Distribución SpA</t>
         </is>
       </c>
       <c r="F217" t="n">
-        <v>110</v>
+        <v>1100</v>
       </c>
       <c r="G217" t="inlineStr">
         <is>
-          <t>14/02/2000</t>
+          <t>05/07/2000</t>
         </is>
       </c>
       <c r="H217" t="inlineStr">
@@ -10773,7 +10773,7 @@
       </c>
       <c r="I217" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2686&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3005&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J217" t="inlineStr">
@@ -10788,40 +10788,40 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>Almacenamiento y Vaporación de Gas Propano Líquido e Implementación de un Sistema de Distribución por Red de Gas Propano Vaporizado en la Ciudad de Osorno</t>
+          <t>Transporte de Artefactos y/o Materiales Contaminados o que contienen Bifenilospoliclorados (BPC) o Terfenilospoliclorados</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>Temucgas S.A.</t>
+          <t>Compañía de Desarrollo Minero Industrial CHIHOL Ltda.</t>
         </is>
       </c>
       <c r="F218" t="n">
-        <v>2070</v>
+        <v>110</v>
       </c>
       <c r="G218" t="inlineStr">
         <is>
-          <t>28/12/1999</t>
+          <t>14/02/2000</t>
         </is>
       </c>
       <c r="H218" t="inlineStr">
         <is>
-          <t>Abandonado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I218" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2560&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2686&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J218" t="inlineStr">
@@ -10836,12 +10836,12 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>Sistema de Depuración y Neutralización de Residuos Industriales Líquidos (Frigosor S.A.)</t>
+          <t>Almacenamiento y Vaporación de Gas Propano Líquido e Implementación de un Sistema de Distribución por Red de Gas Propano Vaporizado en la Ciudad de Osorno</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D219" t="inlineStr">
@@ -10851,25 +10851,25 @@
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>Frigorífico de Osorno S.A.</t>
+          <t>Temucgas S.A.</t>
         </is>
       </c>
       <c r="F219" t="n">
-        <v>200</v>
+        <v>2070</v>
       </c>
       <c r="G219" t="inlineStr">
         <is>
-          <t>26/11/1999</t>
+          <t>28/12/1999</t>
         </is>
       </c>
       <c r="H219" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Abandonado</t>
         </is>
       </c>
       <c r="I219" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2466&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2560&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J219" t="inlineStr">
@@ -10884,7 +10884,7 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>Hotel Cabañas El Faro ( Segunda Presentación )</t>
+          <t>Sistema de Depuración y Neutralización de Residuos Industriales Líquidos (Frigosor S.A.)</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
@@ -10899,15 +10899,15 @@
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>Inmobiliaria Paradice Ltda.</t>
+          <t>Frigorífico de Osorno S.A.</t>
         </is>
       </c>
       <c r="F220" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="G220" t="inlineStr">
         <is>
-          <t>30/07/1999</t>
+          <t>26/11/1999</t>
         </is>
       </c>
       <c r="H220" t="inlineStr">
@@ -10917,7 +10917,7 @@
       </c>
       <c r="I220" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2136&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2466&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J220" t="inlineStr">
@@ -10932,7 +10932,7 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>Proyecto Servicio Público de Alcantarillado de Aguas Servidas de la Localidad de Cancura</t>
+          <t>Hotel Cabañas El Faro ( Segunda Presentación )</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
@@ -10947,25 +10947,25 @@
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Osorno</t>
+          <t>Inmobiliaria Paradice Ltda.</t>
         </is>
       </c>
       <c r="F221" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G221" t="inlineStr">
         <is>
-          <t>19/05/1999</t>
+          <t>30/07/1999</t>
         </is>
       </c>
       <c r="H221" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I221" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1973&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2136&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J221" t="inlineStr">
@@ -10980,7 +10980,7 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>Tratamiento y Disposición Final de Aguas Servidas de Osorno</t>
+          <t>Proyecto Servicio Público de Alcantarillado de Aguas Servidas de la Localidad de Cancura</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
@@ -10995,15 +10995,15 @@
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>Empresa de Servicios Sanitarios de los Lagos ESSAL</t>
+          <t>Ilustre Municipalidad de Osorno</t>
         </is>
       </c>
       <c r="F222" t="n">
-        <v>11400</v>
+        <v>250</v>
       </c>
       <c r="G222" t="inlineStr">
         <is>
-          <t>05/04/1999</t>
+          <t>19/05/1999</t>
         </is>
       </c>
       <c r="H222" t="inlineStr">
@@ -11013,7 +11013,7 @@
       </c>
       <c r="I222" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1841&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1973&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J222" t="inlineStr">
@@ -11028,7 +11028,7 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>Hotel Cabañas El Faro</t>
+          <t>Tratamiento y Disposición Final de Aguas Servidas de Osorno</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
@@ -11043,25 +11043,25 @@
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>Inmobiliaria Paradice Ltda.</t>
+          <t>Empresa de Servicios Sanitarios de los Lagos ESSAL</t>
         </is>
       </c>
       <c r="F223" t="n">
-        <v>150</v>
+        <v>11400</v>
       </c>
       <c r="G223" t="inlineStr">
         <is>
-          <t>05/03/1999</t>
+          <t>05/04/1999</t>
         </is>
       </c>
       <c r="H223" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I223" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1759&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1841&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J223" t="inlineStr">
@@ -11076,7 +11076,7 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>Ampliación Planta Osorno Abastecedora de Combustible S.A.</t>
+          <t>Hotel Cabañas El Faro</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
@@ -11091,15 +11091,15 @@
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>Abastecedora de Combustibles S.A.</t>
+          <t>Inmobiliaria Paradice Ltda.</t>
         </is>
       </c>
       <c r="F224" t="n">
-        <v>220</v>
+        <v>150</v>
       </c>
       <c r="G224" t="inlineStr">
         <is>
-          <t>24/11/1998</t>
+          <t>05/03/1999</t>
         </is>
       </c>
       <c r="H224" t="inlineStr">
@@ -11109,7 +11109,7 @@
       </c>
       <c r="I224" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1809&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1759&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J224" t="inlineStr">
@@ -11124,7 +11124,7 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>Empréstito Cañal Bajo</t>
+          <t>Ampliación Planta Osorno Abastecedora de Combustible S.A.</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
@@ -11139,25 +11139,25 @@
       </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t>Concesión de Los Lagos S. A.</t>
+          <t>Abastecedora de Combustibles S.A.</t>
         </is>
       </c>
       <c r="F225" t="n">
-        <v>560</v>
+        <v>220</v>
       </c>
       <c r="G225" t="inlineStr">
         <is>
-          <t>17/08/1998</t>
+          <t>24/11/1998</t>
         </is>
       </c>
       <c r="H225" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I225" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1191&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1809&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J225" t="inlineStr">
@@ -11172,7 +11172,7 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Efluentes Líquidos Cecinas Salamero Ltda.</t>
+          <t>Empréstito Cañal Bajo</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
@@ -11187,25 +11187,25 @@
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>Cecinas Salamero Ltda.</t>
+          <t>Concesión de Los Lagos S. A.</t>
         </is>
       </c>
       <c r="F226" t="n">
-        <v>10</v>
+        <v>560</v>
       </c>
       <c r="G226" t="inlineStr">
         <is>
-          <t>13/08/1998</t>
+          <t>17/08/1998</t>
         </is>
       </c>
       <c r="H226" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I226" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1194&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1191&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J226" t="inlineStr">
@@ -11220,7 +11220,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>Discoteque Factory</t>
+          <t>Planta de Tratamiento de Efluentes Líquidos Cecinas Salamero Ltda.</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
@@ -11235,25 +11235,25 @@
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>Bélgica Olave Figueroa</t>
+          <t>Cecinas Salamero Ltda.</t>
         </is>
       </c>
       <c r="F227" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="G227" t="inlineStr">
         <is>
-          <t>29/07/1998</t>
+          <t>13/08/1998</t>
         </is>
       </c>
       <c r="H227" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I227" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1347&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1194&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J227" t="inlineStr">
@@ -11268,7 +11268,7 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>Estación de Servicios YPF de Arturo Prat Esq.Manuel Rodríguez</t>
+          <t>Discoteque Factory</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
@@ -11283,15 +11283,15 @@
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>Empresa Nacional de Energia ENEX S.A...</t>
+          <t>Bélgica Olave Figueroa</t>
         </is>
       </c>
       <c r="F228" t="n">
-        <v>400</v>
+        <v>30</v>
       </c>
       <c r="G228" t="inlineStr">
         <is>
-          <t>18/03/1998</t>
+          <t>29/07/1998</t>
         </is>
       </c>
       <c r="H228" t="inlineStr">
@@ -11301,7 +11301,7 @@
       </c>
       <c r="I228" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=794&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1347&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J228" t="inlineStr">
@@ -11316,7 +11316,7 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>Restaurant y Minimarket</t>
+          <t>Estación de Servicios YPF de Arturo Prat Esq.Manuel Rodríguez</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
@@ -11331,15 +11331,15 @@
       </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t>Andres Bonati Brintrup</t>
+          <t>Empresa Nacional de Energia ENEX S.A...</t>
         </is>
       </c>
       <c r="F229" t="n">
-        <v>150</v>
+        <v>400</v>
       </c>
       <c r="G229" t="inlineStr">
         <is>
-          <t>24/02/1998</t>
+          <t>18/03/1998</t>
         </is>
       </c>
       <c r="H229" t="inlineStr">
@@ -11349,7 +11349,7 @@
       </c>
       <c r="I229" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=277&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=794&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J229" t="inlineStr">
@@ -11364,43 +11364,91 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
+          <t>Restaurant y Minimarket</t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D230" t="inlineStr">
+        <is>
+          <t>Décima</t>
+        </is>
+      </c>
+      <c r="E230" t="inlineStr">
+        <is>
+          <t>Andres Bonati Brintrup</t>
+        </is>
+      </c>
+      <c r="F230" t="n">
+        <v>150</v>
+      </c>
+      <c r="G230" t="inlineStr">
+        <is>
+          <t>24/02/1998</t>
+        </is>
+      </c>
+      <c r="H230" t="inlineStr">
+        <is>
+          <t>Aprobado</t>
+        </is>
+      </c>
+      <c r="I230" t="inlineStr">
+        <is>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=277&amp;modo=ficha</t>
+        </is>
+      </c>
+      <c r="J230" t="inlineStr">
+        <is>
+          <t>Osorno</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="n">
+        <v>230</v>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
           <t>Terminal de Locomoción Colectiva Urbana</t>
         </is>
       </c>
-      <c r="C230" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
-      <c r="D230" t="inlineStr">
-        <is>
-          <t>Décima</t>
-        </is>
-      </c>
-      <c r="E230" t="inlineStr">
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D231" t="inlineStr">
+        <is>
+          <t>Décima</t>
+        </is>
+      </c>
+      <c r="E231" t="inlineStr">
         <is>
           <t>Conrado Erwin Fontealba Vargas</t>
         </is>
       </c>
-      <c r="F230" t="n">
+      <c r="F231" t="n">
         <v>70</v>
       </c>
-      <c r="G230" t="inlineStr">
+      <c r="G231" t="inlineStr">
         <is>
           <t>09/01/1998</t>
         </is>
       </c>
-      <c r="H230" t="inlineStr">
-        <is>
-          <t>Aprobado</t>
-        </is>
-      </c>
-      <c r="I230" t="inlineStr">
+      <c r="H231" t="inlineStr">
+        <is>
+          <t>Aprobado</t>
+        </is>
+      </c>
+      <c r="I231" t="inlineStr">
         <is>
           <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=279&amp;modo=ficha</t>
         </is>
       </c>
-      <c r="J230" t="inlineStr">
+      <c r="J231" t="inlineStr">
         <is>
           <t>Osorno</t>
         </is>

--- a/data/Osorno.xlsx
+++ b/data/Osorno.xlsx
@@ -2776,7 +2776,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Ampliación de extracción de áridos en Pozo Jauregui</t>
+          <t>MODIFICACIÓN A LA DECLARACIÓN DE IMPACTO AMBIENTAL PISCICULTURA EL VENADO</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2791,11 +2791,11 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Juan Carlos Jauregui Hidalgo</t>
+          <t>Sociedad Agrícola Covarrubias Fernández Ltda.</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>500</v>
+        <v>2500</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
@@ -2804,12 +2804,12 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7547676&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7555686&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -2824,7 +2824,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN A LA DECLARACIÓN DE IMPACTO AMBIENTAL PISCICULTURA EL VENADO</t>
+          <t>Ampliación de extracción de áridos en Pozo Jauregui</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2839,11 +2839,11 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Sociedad Agrícola Covarrubias Fernández Ltda.</t>
+          <t>Juan Carlos Jauregui Hidalgo</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>2500</v>
+        <v>500</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
@@ -2852,12 +2852,12 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7555686&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7547676&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -4840,7 +4840,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Transporte Inter-Regional Terrestre de Residuos, PROCESAN S.A. (e-seia)</t>
+          <t>ESTUDIO Y DISEÑO PLAN DE CIERRE VERTEDERO COMUNA DE OSORNO (e-seia)</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -4850,16 +4850,16 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>PROCESAN S.A.</t>
+          <t>Ilustre Municipalidad de Osorno</t>
         </is>
       </c>
       <c r="F94" t="n">
-        <v>377</v>
+        <v>3400</v>
       </c>
       <c r="G94" t="inlineStr">
         <is>
@@ -4868,12 +4868,12 @@
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4134794&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4139027&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
@@ -4888,7 +4888,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>ESTUDIO Y DISEÑO PLAN DE CIERRE VERTEDERO COMUNA DE OSORNO (e-seia)</t>
+          <t>Transporte Inter-Regional Terrestre de Residuos, PROCESAN S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -4898,16 +4898,16 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Osorno</t>
+          <t>PROCESAN S.A.</t>
         </is>
       </c>
       <c r="F95" t="n">
-        <v>3400</v>
+        <v>377</v>
       </c>
       <c r="G95" t="inlineStr">
         <is>
@@ -4916,12 +4916,12 @@
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4139027&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4134794&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
@@ -5748,7 +5748,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Proyecto Inmobiliario Portal Osorno (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS DE PLOMO Y BATERÍAS USADAS POR LAS REGIONES VI, VII, VIII, IX, XIV y X (e-seia)</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -5758,16 +5758,16 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>Inmobiliaria Martabid Limitada</t>
+          <t>Industria Proveedora de Partes Metalurgicas Ltda.</t>
         </is>
       </c>
       <c r="F113" t="n">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="G113" t="inlineStr">
         <is>
@@ -5776,12 +5776,12 @@
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3272599&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3249759&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
@@ -5796,7 +5796,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS DE PLOMO Y BATERÍAS USADAS POR LAS REGIONES VI, VII, VIII, IX, XIV y X (e-seia)</t>
+          <t>Proyecto Inmobiliario Portal Osorno (e-seia)</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -5806,16 +5806,16 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>Industria Proveedora de Partes Metalurgicas Ltda.</t>
+          <t>Inmobiliaria Martabid Limitada</t>
         </is>
       </c>
       <c r="F114" t="n">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G114" t="inlineStr">
         <is>
@@ -5824,12 +5824,12 @@
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3249759&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3272599&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
@@ -6948,7 +6948,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>CONJUNTO HABITACIONAL JARDIN DEL ALTO,OSORNO (e-seia)</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -6958,16 +6958,16 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>Inmobiliaria Fourcade S.A.</t>
         </is>
       </c>
       <c r="F138" t="n">
-        <v>10</v>
+        <v>3370</v>
       </c>
       <c r="G138" t="inlineStr">
         <is>
@@ -6976,12 +6976,12 @@
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2359952&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
@@ -6996,7 +6996,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>CONJUNTO HABITACIONAL JARDIN DEL ALTO,OSORNO (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -7006,16 +7006,16 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>Inmobiliaria Fourcade S.A.</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F139" t="n">
-        <v>3370</v>
+        <v>10</v>
       </c>
       <c r="G139" t="inlineStr">
         <is>
@@ -7024,12 +7024,12 @@
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2359952&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">

--- a/data/Osorno.xlsx
+++ b/data/Osorno.xlsx
@@ -2776,7 +2776,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN A LA DECLARACIÓN DE IMPACTO AMBIENTAL PISCICULTURA EL VENADO</t>
+          <t>Ampliación de extracción de áridos en Pozo Jauregui</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2791,11 +2791,11 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Sociedad Agrícola Covarrubias Fernández Ltda.</t>
+          <t>Juan Carlos Jauregui Hidalgo</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>2500</v>
+        <v>500</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
@@ -2804,12 +2804,12 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7555686&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7547676&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -2824,7 +2824,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Ampliación de extracción de áridos en Pozo Jauregui</t>
+          <t>MODIFICACIÓN A LA DECLARACIÓN DE IMPACTO AMBIENTAL PISCICULTURA EL VENADO</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2839,11 +2839,11 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Juan Carlos Jauregui Hidalgo</t>
+          <t>Sociedad Agrícola Covarrubias Fernández Ltda.</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>500</v>
+        <v>2500</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
@@ -2852,12 +2852,12 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7547676&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7555686&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -4840,7 +4840,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>ESTUDIO Y DISEÑO PLAN DE CIERRE VERTEDERO COMUNA DE OSORNO (e-seia)</t>
+          <t>Transporte Inter-Regional Terrestre de Residuos, PROCESAN S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -4850,16 +4850,16 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Osorno</t>
+          <t>PROCESAN S.A.</t>
         </is>
       </c>
       <c r="F94" t="n">
-        <v>3400</v>
+        <v>377</v>
       </c>
       <c r="G94" t="inlineStr">
         <is>
@@ -4868,12 +4868,12 @@
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4139027&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4134794&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
@@ -4888,7 +4888,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Transporte Inter-Regional Terrestre de Residuos, PROCESAN S.A. (e-seia)</t>
+          <t>ESTUDIO Y DISEÑO PLAN DE CIERRE VERTEDERO COMUNA DE OSORNO (e-seia)</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -4898,16 +4898,16 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>PROCESAN S.A.</t>
+          <t>Ilustre Municipalidad de Osorno</t>
         </is>
       </c>
       <c r="F95" t="n">
-        <v>377</v>
+        <v>3400</v>
       </c>
       <c r="G95" t="inlineStr">
         <is>
@@ -4916,12 +4916,12 @@
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4134794&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4139027&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
@@ -5748,7 +5748,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS DE PLOMO Y BATERÍAS USADAS POR LAS REGIONES VI, VII, VIII, IX, XIV y X (e-seia)</t>
+          <t>Proyecto Inmobiliario Portal Osorno (e-seia)</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -5758,16 +5758,16 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>Industria Proveedora de Partes Metalurgicas Ltda.</t>
+          <t>Inmobiliaria Martabid Limitada</t>
         </is>
       </c>
       <c r="F113" t="n">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G113" t="inlineStr">
         <is>
@@ -5776,12 +5776,12 @@
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3249759&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3272599&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
@@ -5796,7 +5796,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Proyecto Inmobiliario Portal Osorno (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS DE PLOMO Y BATERÍAS USADAS POR LAS REGIONES VI, VII, VIII, IX, XIV y X (e-seia)</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -5806,16 +5806,16 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>Inmobiliaria Martabid Limitada</t>
+          <t>Industria Proveedora de Partes Metalurgicas Ltda.</t>
         </is>
       </c>
       <c r="F114" t="n">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="G114" t="inlineStr">
         <is>
@@ -5824,12 +5824,12 @@
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3272599&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3249759&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
@@ -6948,7 +6948,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>CONJUNTO HABITACIONAL JARDIN DEL ALTO,OSORNO (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -6958,16 +6958,16 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>Inmobiliaria Fourcade S.A.</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F138" t="n">
-        <v>3370</v>
+        <v>10</v>
       </c>
       <c r="G138" t="inlineStr">
         <is>
@@ -6976,12 +6976,12 @@
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2359952&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
@@ -6996,7 +6996,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>CONJUNTO HABITACIONAL JARDIN DEL ALTO,OSORNO (e-seia)</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -7006,16 +7006,16 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>Inmobiliaria Fourcade S.A.</t>
         </is>
       </c>
       <c r="F139" t="n">
-        <v>10</v>
+        <v>3370</v>
       </c>
       <c r="G139" t="inlineStr">
         <is>
@@ -7024,12 +7024,12 @@
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2359952&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">

--- a/data/Osorno.xlsx
+++ b/data/Osorno.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>23/05/2022</t>
+          <t>30/05/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Osorno.xlsx
+++ b/data/Osorno.xlsx
@@ -644,7 +644,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -2776,7 +2776,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN A LA DECLARACIÓN DE IMPACTO AMBIENTAL PISCICULTURA EL VENADO</t>
+          <t>Ampliación de extracción de áridos en Pozo Jauregui</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2791,11 +2791,11 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Sociedad Agrícola Covarrubias Fernández Ltda.</t>
+          <t>Juan Carlos Jauregui Hidalgo</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>2500</v>
+        <v>500</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
@@ -2804,12 +2804,12 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7555686&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7547676&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -2824,7 +2824,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Ampliación de extracción de áridos en Pozo Jauregui</t>
+          <t>MODIFICACIÓN A LA DECLARACIÓN DE IMPACTO AMBIENTAL PISCICULTURA EL VENADO</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2839,11 +2839,11 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Juan Carlos Jauregui Hidalgo</t>
+          <t>Sociedad Agrícola Covarrubias Fernández Ltda.</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>500</v>
+        <v>2500</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
@@ -2852,12 +2852,12 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7547676&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7555686&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -4840,7 +4840,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>ESTUDIO Y DISEÑO PLAN DE CIERRE VERTEDERO COMUNA DE OSORNO (e-seia)</t>
+          <t>Transporte Inter-Regional Terrestre de Residuos, PROCESAN S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -4850,16 +4850,16 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Osorno</t>
+          <t>PROCESAN S.A.</t>
         </is>
       </c>
       <c r="F94" t="n">
-        <v>3400</v>
+        <v>377</v>
       </c>
       <c r="G94" t="inlineStr">
         <is>
@@ -4868,12 +4868,12 @@
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4139027&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4134794&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
@@ -4888,7 +4888,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Transporte Inter-Regional Terrestre de Residuos, PROCESAN S.A. (e-seia)</t>
+          <t>ESTUDIO Y DISEÑO PLAN DE CIERRE VERTEDERO COMUNA DE OSORNO (e-seia)</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -4898,16 +4898,16 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>PROCESAN S.A.</t>
+          <t>Ilustre Municipalidad de Osorno</t>
         </is>
       </c>
       <c r="F95" t="n">
-        <v>377</v>
+        <v>3400</v>
       </c>
       <c r="G95" t="inlineStr">
         <is>
@@ -4916,12 +4916,12 @@
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4134794&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4139027&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
@@ -5748,7 +5748,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS DE PLOMO Y BATERÍAS USADAS POR LAS REGIONES VI, VII, VIII, IX, XIV y X (e-seia)</t>
+          <t>Proyecto Inmobiliario Portal Osorno (e-seia)</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -5758,16 +5758,16 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>Industria Proveedora de Partes Metalurgicas Ltda.</t>
+          <t>Inmobiliaria Martabid Limitada</t>
         </is>
       </c>
       <c r="F113" t="n">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G113" t="inlineStr">
         <is>
@@ -5776,12 +5776,12 @@
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3249759&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3272599&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
@@ -5796,7 +5796,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Proyecto Inmobiliario Portal Osorno (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS DE PLOMO Y BATERÍAS USADAS POR LAS REGIONES VI, VII, VIII, IX, XIV y X (e-seia)</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -5806,16 +5806,16 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>Inmobiliaria Martabid Limitada</t>
+          <t>Industria Proveedora de Partes Metalurgicas Ltda.</t>
         </is>
       </c>
       <c r="F114" t="n">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="G114" t="inlineStr">
         <is>
@@ -5824,12 +5824,12 @@
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3272599&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3249759&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
@@ -6948,7 +6948,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>CONJUNTO HABITACIONAL JARDIN DEL ALTO,OSORNO (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -6958,16 +6958,16 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>Inmobiliaria Fourcade S.A.</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F138" t="n">
-        <v>3370</v>
+        <v>10</v>
       </c>
       <c r="G138" t="inlineStr">
         <is>
@@ -6976,12 +6976,12 @@
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2359952&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
@@ -6996,7 +6996,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>CONJUNTO HABITACIONAL JARDIN DEL ALTO,OSORNO (e-seia)</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -7006,16 +7006,16 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>Inmobiliaria Fourcade S.A.</t>
         </is>
       </c>
       <c r="F139" t="n">
-        <v>10</v>
+        <v>3370</v>
       </c>
       <c r="G139" t="inlineStr">
         <is>
@@ -7024,12 +7024,12 @@
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2359952&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">

--- a/data/Osorno.xlsx
+++ b/data/Osorno.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J231"/>
+  <dimension ref="A1:J232"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,7 +424,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>BALNEARIO FLUVIAL \"Río Damas\"</t>
+          <t>MODIFICACIÓN DE INSTALACIONES EN PLANTA OSORNO</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -439,25 +439,25 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Inversiones y Comercial Southern World SpA</t>
+          <t>Envases Impresos SpA</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>30400</v>
+        <v>1</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>30/05/2022</t>
+          <t>17/06/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>En Admisión</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155928380&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156289752&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -472,7 +472,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>?Ampliación Superficie Planta de Disposición Final de Residuos Biológicos No Peligrosos Industriales ECOPRIAL? Región de Los Lagos</t>
+          <t>BALNEARIO FLUVIAL \"Río Damas\"</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -487,15 +487,15 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Raul Albrecht Barrientos</t>
+          <t>Inversiones y Comercial Southern World SpA</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>650</v>
+        <v>30400</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>22/12/2021</t>
+          <t>30/05/2022</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -505,7 +505,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2154450586&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155928380&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -520,7 +520,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Condominio Rahue</t>
+          <t>?Ampliación Superficie Planta de Disposición Final de Residuos Biológicos No Peligrosos Industriales ECOPRIAL? Región de Los Lagos</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -535,15 +535,15 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Constructora Pacal S.A.</t>
+          <t>Raul Albrecht Barrientos</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>8586</v>
+        <v>650</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>10/05/2021</t>
+          <t>22/12/2021</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -553,7 +553,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151757396&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2154450586&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -568,7 +568,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>BALNEARIO FLUVIAL RÍO DAMAS</t>
+          <t>Condominio Rahue</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -583,25 +583,25 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Inversiones y Comercial Southern World SpA</t>
+          <t>Constructora Pacal S.A.</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>30400</v>
+        <v>8586</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>09/03/2021</t>
+          <t>10/05/2021</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151031299&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151757396&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -616,7 +616,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>AUMENTO DE PRODUCCIÓN Y RIEGO DE EFLUENTES PLANTA MAFRISUR</t>
+          <t>BALNEARIO FLUVIAL RÍO DAMAS</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -631,25 +631,25 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>MATADERO FRIGORIFICO DEL SUR S.A.</t>
+          <t>Inversiones y Comercial Southern World SpA</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2500</v>
+        <v>30400</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>21/01/2021</t>
+          <t>09/03/2021</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2149382147&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151031299&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -664,7 +664,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ADECUACIÓN OPERATIVA Y AMPLIACIÓN DE LA PLANTA DE ASESORÍAS LOS OLIVOS?</t>
+          <t>AUMENTO DE PRODUCCIÓN Y RIEGO DE EFLUENTES PLANTA MAFRISUR</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -679,25 +679,25 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Asesoría Los Olivos S.A</t>
+          <t>MATADERO FRIGORIFICO DEL SUR S.A.</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>650</v>
+        <v>2500</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>21/10/2020</t>
+          <t>21/01/2021</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2148752277&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2149382147&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -712,7 +712,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>PRP Las Quemas</t>
+          <t>ADECUACIÓN OPERATIVA Y AMPLIACIÓN DE LA PLANTA DE ASESORÍAS LOS OLIVOS?</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -727,25 +727,25 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Francisco De Paula Luis Herrera Fernandez-figares</t>
+          <t>Asesoría Los Olivos S.A</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>3145</v>
+        <v>650</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>17/01/2020</t>
+          <t>21/10/2020</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145388872&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2148752277&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -760,7 +760,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Ampliación de la Actividad de Transporte de Sustancias Peligrosas de ENAEX Servicios S.A.</t>
+          <t>PRP Las Quemas</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -770,20 +770,20 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Enaex Servicios S.A.</t>
+          <t>Francisco De Paula Luis Herrera Fernandez-figares</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>25000</v>
+        <v>3145</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>07/01/2020</t>
+          <t>17/01/2020</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -793,7 +793,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145325740&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145388872&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -808,7 +808,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Desarrollo Inmobiliario Macro Pilauco II, Etapa 2</t>
+          <t>Ampliación de la Actividad de Transporte de Sustancias Peligrosas de ENAEX Servicios S.A.</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -818,20 +818,20 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Galilea de Ingeniería y Construcción</t>
+          <t>Enaex Servicios S.A.</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>68620</v>
+        <v>25000</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>30/12/2019</t>
+          <t>07/01/2020</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -841,7 +841,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145296018&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145325740&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -856,7 +856,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>PRP LAS QUEMAS</t>
+          <t>Desarrollo Inmobiliario Macro Pilauco II, Etapa 2</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -871,25 +871,25 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Francisco De Paula Luis Herrera Fernandez-figares</t>
+          <t>Galilea de Ingeniería y Construcción</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>3145</v>
+        <v>68620</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>19/12/2019</t>
+          <t>30/12/2019</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145236028&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145296018&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -904,7 +904,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Hacienda Las Quemas</t>
+          <t>PRP LAS QUEMAS</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -919,25 +919,25 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Inmobiliaria Zenteno SpA</t>
+          <t>Francisco De Paula Luis Herrera Fernandez-figares</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>47000</v>
+        <v>3145</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>25/09/2019</t>
+          <t>19/12/2019</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2144245146&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145236028&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -952,7 +952,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Proyecto Habitacional Lote 2 - Zanjones</t>
+          <t>Hacienda Las Quemas</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -967,15 +967,15 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>SERVIU Región de Los Lagos</t>
+          <t>Inmobiliaria Zenteno SpA</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>481</v>
+        <v>47000</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>28/05/2019</t>
+          <t>25/09/2019</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -985,7 +985,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143277820&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2144245146&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1000,7 +1000,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Planta Pichil Alimento Bovino</t>
+          <t>Proyecto Habitacional Lote 2 - Zanjones</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1015,15 +1015,15 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Alimentos Concentrados Cisternas Ltda</t>
+          <t>SERVIU Región de Los Lagos</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>8000</v>
+        <v>481</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>31/07/2018</t>
+          <t>28/05/2019</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -1033,7 +1033,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2140878185&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143277820&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1048,7 +1048,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>DESARROLLO INMOBILIARIO MACRO PILAUCO II, ETAPA 1 LOTE A</t>
+          <t>Planta Pichil Alimento Bovino</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1063,15 +1063,15 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Galilea de Ingeniería y Construcción</t>
+          <t>Alimentos Concentrados Cisternas Ltda</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>14500</v>
+        <v>8000</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>21/08/2017</t>
+          <t>31/07/2018</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -1081,7 +1081,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132606168&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2140878185&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1096,30 +1096,30 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Sistema de Transmisión S/E Pichirropulli - S/E Tineo</t>
+          <t>DESARROLLO INMOBILIARIO MACRO PILAUCO II, ETAPA 1 LOTE A</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>TRANSELEC CONCESIONES S.A.</t>
+          <t>Galilea de Ingeniería y Construcción</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>82000</v>
+        <v>14500</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>08/06/2017</t>
+          <t>21/08/2017</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -1129,7 +1129,7 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132447295&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132606168&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1144,30 +1144,30 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Proyecto La Misión</t>
+          <t>Sistema de Transmisión S/E Pichirropulli - S/E Tineo</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Sistema de Transmisión del Sur S.A.</t>
+          <t>TRANSELEC CONCESIONES S.A.</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>19299</v>
+        <v>82000</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>19/01/2017</t>
+          <t>08/06/2017</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -1177,7 +1177,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132100181&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132447295&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1192,7 +1192,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Optimización Productiva de la Piscicultura Santa Juana</t>
+          <t>Proyecto La Misión</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1207,15 +1207,15 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Cermaq Chile S.A.</t>
+          <t>Sistema de Transmisión del Sur S.A.</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>400</v>
+        <v>19299</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>06/12/2016</t>
+          <t>19/01/2017</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -1225,7 +1225,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131979220&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132100181&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1240,7 +1240,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Ampliación Transporte Terrestre de Sustancias Químicas</t>
+          <t>Optimización Productiva de la Piscicultura Santa Juana</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1250,20 +1250,20 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
+          <t>Cermaq Chile S.A.</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>10000</v>
+        <v>400</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>22/08/2016</t>
+          <t>06/12/2016</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -1273,7 +1273,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131697972&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131979220&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1288,7 +1288,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>DECLARACION DE IMPACTO AMBIENTAL LOTEO HABITACIONAL D.F.L.2, MACRO PILAUCO II</t>
+          <t>Ampliación Transporte Terrestre de Sustancias Químicas</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1298,30 +1298,30 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Galilea de Ingeniería y Construcción</t>
+          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>72470</v>
+        <v>10000</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>12/08/2016</t>
+          <t>22/08/2016</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131467206&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131697972&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1336,7 +1336,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Riego de riles Planta Mulpulmo</t>
+          <t>DECLARACION DE IMPACTO AMBIENTAL LOTEO HABITACIONAL D.F.L.2, MACRO PILAUCO II</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1351,25 +1351,25 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Lácteos del Sur S.A.</t>
+          <t>Galilea de Ingeniería y Construcción</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>90</v>
+        <v>72470</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>03/06/2016</t>
+          <t>12/08/2016</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131404162&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131467206&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1384,7 +1384,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Compostaje y Vermicompostaje Residuos Sólidos Orgánicos. Sector Barro Blanco. Comuna de Osorno.</t>
+          <t>Riego de riles Planta Mulpulmo</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1399,25 +1399,25 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Frigorífico de osorno S.A.</t>
+          <t>Lácteos del Sur S.A.</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>500</v>
+        <v>90</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>17/09/2015</t>
+          <t>03/06/2016</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130760880&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131404162&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1432,7 +1432,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Bodega para Almacenamiento de Sustancias Peligrosas - Sucursal Osorno</t>
+          <t>Compostaje y Vermicompostaje Residuos Sólidos Orgánicos. Sector Barro Blanco. Comuna de Osorno.</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1447,25 +1447,25 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>ANASAC CHILE S.A.</t>
+          <t>Frigorífico de osorno S.A.</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>193</v>
+        <v>500</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>05/05/2015</t>
+          <t>17/09/2015</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130426799&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130760880&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1480,7 +1480,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Proyecto Centro de Agroturismo El Mirador</t>
+          <t>Bodega para Almacenamiento de Sustancias Peligrosas - Sucursal Osorno</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1495,15 +1495,15 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Sociedad de Agroturismo El Mirador Limitada</t>
+          <t>ANASAC CHILE S.A.</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>500</v>
+        <v>193</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>19/03/2015</t>
+          <t>05/05/2015</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -1513,7 +1513,7 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130315339&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130426799&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1543,7 +1543,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Lucia Adriana Kyling Montecino</t>
+          <t>Sociedad de Agroturismo El Mirador Limitada</t>
         </is>
       </c>
       <c r="F25" t="n">
@@ -1551,17 +1551,17 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>09/03/2015</t>
+          <t>19/03/2015</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130308568&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130315339&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1576,7 +1576,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Tratamiento de Residuos Especiales e Industriales a Través de Incineración, Osorno.</t>
+          <t>Proyecto Centro de Agroturismo El Mirador</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1591,25 +1591,25 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Inversiones Las Higueras Limitada</t>
+          <t>Lucia Adriana Kyling Montecino</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>1500</v>
+        <v>500</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>19/02/2015</t>
+          <t>09/03/2015</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130221119&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130308568&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1624,7 +1624,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
+          <t>Tratamiento de Residuos Especiales e Industriales a Través de Incineración, Osorno.</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1634,30 +1634,30 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>Inversiones Las Higueras Limitada</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>5000</v>
+        <v>1500</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>26/01/2015</t>
+          <t>19/02/2015</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130159203&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130221119&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -1672,7 +1672,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos y no Peligrosos entre las Regiones XV y X</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1695,7 +1695,7 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>26/12/2014</t>
+          <t>26/01/2015</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
@@ -1705,7 +1705,7 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076569&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130159203&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -1720,7 +1720,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
+          <t>Transporte Terrestre de Residuos Peligrosos y no Peligrosos entre las Regiones XV y X</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1743,7 +1743,7 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>20/11/2014</t>
+          <t>26/12/2014</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
@@ -1753,7 +1753,7 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129965016&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076569&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -1768,7 +1768,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>"AMPLIACION DE RUTAS PARA TRANSPORTE TERRESTRE DE RESIDUOS Y SUSTANCIAS PELIGROSAS A GRANEL DESDE LA I A LA X REGIÓN TRANSPORTES TRANSVER LTDA"</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1783,15 +1783,15 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Transportes Transver Ltda.</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>17/11/2014</t>
+          <t>20/11/2014</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
@@ -1801,7 +1801,7 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129535685&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129965016&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Modificación Transporte y Logística Interregional de Cargas y/o Sustancias Peligrosas.</t>
+          <t>"AMPLIACION DE RUTAS PARA TRANSPORTE TERRESTRE DE RESIDUOS Y SUSTANCIAS PELIGROSAS A GRANEL DESDE LA I A LA X REGIÓN TRANSPORTES TRANSVER LTDA"</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1831,25 +1831,25 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
+          <t>Transportes Transver Ltda.</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>6750</v>
+        <v>0</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>13/11/2014</t>
+          <t>17/11/2014</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129725840&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129535685&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -1864,7 +1864,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
+          <t>Modificación Transporte y Logística Interregional de Cargas y/o Sustancias Peligrosas.</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1879,25 +1879,25 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>5000</v>
+        <v>6750</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>05/11/2014</t>
+          <t>13/11/2014</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129895680&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129725840&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -1912,7 +1912,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos y No Peligrosos entre las Regiones XV y X</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1935,7 +1935,7 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>30/06/2014</t>
+          <t>05/11/2014</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
@@ -1945,7 +1945,7 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129237859&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129895680&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -1960,7 +1960,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Extracción de áridos en pozo Jauregui</t>
+          <t>Transporte Terrestre de Residuos Peligrosos y No Peligrosos entre las Regiones XV y X</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1970,20 +1970,20 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Juan Carlos Jauregui Hidalgo</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>400</v>
+        <v>5000</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>22/01/2014</t>
+          <t>30/06/2014</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
@@ -1993,7 +1993,7 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129115711&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129237859&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -2008,7 +2008,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Extracción de áridos en pozo Jauregui</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2018,30 +2018,30 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>Juan Carlos Jauregui Hidalgo</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>1200</v>
+        <v>400</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>23/12/2013</t>
+          <t>22/01/2014</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129115711&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -2056,7 +2056,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Extracción de áridos en Pozo Jauregui</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2066,30 +2066,30 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Juan Carlos Jauregui Hidalgo</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>400</v>
+        <v>1200</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>09/12/2013</t>
+          <t>23/12/2013</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128899538&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -2104,7 +2104,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos y no peligrosos entre las Regiones XV y X</t>
+          <t>Extracción de áridos en Pozo Jauregui</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -2114,20 +2114,20 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>Juan Carlos Jauregui Hidalgo</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>5000</v>
+        <v>400</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>08/11/2013</t>
+          <t>09/12/2013</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
@@ -2137,7 +2137,7 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128788354&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128899538&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -2152,7 +2152,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Empréstito Los Melíes, Comuna de Osorno, Región de Los Lagos</t>
+          <t>Transporte Terrestre de Residuos Peligrosos y no peligrosos entre las Regiones XV y X</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2162,30 +2162,30 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Dragados S.A. Agencia en Chile</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>543</v>
+        <v>5000</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>07/11/2013</t>
+          <t>08/11/2013</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128789901&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128788354&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -2200,7 +2200,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Declaración de impacto ambiental "Modificación del Manejo de la mortalidad mediante sistema de ensilaje en Piscicultura Santa Juana"</t>
+          <t>Empréstito Los Melíes, Comuna de Osorno, Región de Los Lagos</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2215,15 +2215,15 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Cermaq Chile S.A.</t>
+          <t>Dragados S.A. Agencia en Chile</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>1</v>
+        <v>543</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>15/07/2013</t>
+          <t>07/11/2013</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
@@ -2233,7 +2233,7 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8355513&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128789901&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -2248,7 +2248,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>REGULARIZACIÓN DEL TRANSPORTE DE SUSTANCIAS PELIGROSAS TREXVAL S.A.</t>
+          <t>Declaración de impacto ambiental "Modificación del Manejo de la mortalidad mediante sistema de ensilaje en Piscicultura Santa Juana"</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2258,20 +2258,20 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Trexval S.A.</t>
+          <t>Cermaq Chile S.A.</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>21/06/2013</t>
+          <t>15/07/2013</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
@@ -2281,7 +2281,7 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8280859&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8355513&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -2296,7 +2296,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Regularización Transporte de Sustancias Peligrosas TREXVAL S.A.</t>
+          <t>REGULARIZACIÓN DEL TRANSPORTE DE SUSTANCIAS PELIGROSAS TREXVAL S.A.</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2319,17 +2319,17 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>06/06/2013</t>
+          <t>21/06/2013</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8227033&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8280859&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -2344,7 +2344,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Mejoramiento Tecnológico Planta Watts Osorno</t>
+          <t>Regularización Transporte de Sustancias Peligrosas TREXVAL S.A.</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2354,30 +2354,30 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Watts S.A.</t>
+          <t>Trexval S.A.</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>7751</v>
+        <v>0</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>23/05/2013</t>
+          <t>06/06/2013</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8187978&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8227033&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -2392,7 +2392,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>"Riego en pradera con efluentes tratados de RILes lácteos".</t>
+          <t>Mejoramiento Tecnológico Planta Watts Osorno</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2407,25 +2407,25 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Industrias Valle Verde S.A.</t>
+          <t>Watts S.A.</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>7751</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>16/05/2013</t>
+          <t>23/05/2013</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8172032&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8187978&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -2440,7 +2440,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Transporte de residuos No Peligrosos, Peligrosos y Especiales entre la XV región y la X región</t>
+          <t>"Riego en pradera con efluentes tratados de RILes lácteos".</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2450,20 +2450,20 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Industrias Valle Verde S.A.</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>10/05/2013</t>
+          <t>16/05/2013</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
@@ -2473,7 +2473,7 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158912&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8172032&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -2488,7 +2488,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas TREXVAL S.A.</t>
+          <t>Transporte de residuos No Peligrosos, Peligrosos y Especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2503,15 +2503,15 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Mauricio Salím Mahmud Vergara</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>2500</v>
+        <v>250</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>06/05/2013</t>
+          <t>10/05/2013</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
@@ -2521,7 +2521,7 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8126996&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158912&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -2551,25 +2551,25 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Trexval S.A.</t>
+          <t>Mauricio Salím Mahmud Vergara</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>2475</v>
+        <v>2500</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>17/04/2013</t>
+          <t>06/05/2013</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8057600&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8126996&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -2584,7 +2584,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>Transporte de Sustancias Peligrosas TREXVAL S.A.</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2599,15 +2599,15 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Trexval S.A.</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>250</v>
+        <v>2475</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>15/04/2013</t>
+          <t>17/04/2013</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
@@ -2617,7 +2617,7 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8063600&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8057600&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -2655,7 +2655,7 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>19/03/2013</t>
+          <t>15/04/2013</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
@@ -2665,7 +2665,7 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7961483&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8063600&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -2680,7 +2680,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Ampliación de extracción de áridos en el río Rahue sector fundo el Almud - San Florentino</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2690,30 +2690,30 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>ARIDOS DOWLING &amp; SCHILLING S.A</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>7000</v>
+        <v>250</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>18/03/2013</t>
+          <t>19/03/2013</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7972056&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7961483&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -2728,7 +2728,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>"PISCICULTURA TRAFUN, COMUNA DE SAN PABLO, PROVINCIA DE OSORNO, DÉCIMA REGIÓN DE LOS LAGOS"</t>
+          <t>Ampliación de extracción de áridos en el río Rahue sector fundo el Almud - San Florentino</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2743,15 +2743,15 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Mainstream Chile S.A.</t>
+          <t>ARIDOS DOWLING &amp; SCHILLING S.A</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>31/12/2012</t>
+          <t>18/03/2013</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
@@ -2761,7 +2761,7 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7715692&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7972056&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -2776,7 +2776,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN A LA DECLARACIÓN DE IMPACTO AMBIENTAL PISCICULTURA EL VENADO</t>
+          <t>"PISCICULTURA TRAFUN, COMUNA DE SAN PABLO, PROVINCIA DE OSORNO, DÉCIMA REGIÓN DE LOS LAGOS"</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2791,15 +2791,15 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Sociedad Agrícola Covarrubias Fernández Ltda.</t>
+          <t>Mainstream Chile S.A.</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>2500</v>
+        <v>6000</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>22/11/2012</t>
+          <t>31/12/2012</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
@@ -2809,7 +2809,7 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7555686&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7715692&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -2872,7 +2872,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>MODIFICACION A LA DECLARACION DE IMPACTO AMBIENTAL PISCICULTURA EL VENADO</t>
+          <t>MODIFICACIÓN A LA DECLARACIÓN DE IMPACTO AMBIENTAL PISCICULTURA EL VENADO</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2895,17 +2895,17 @@
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>12/11/2012</t>
+          <t>22/11/2012</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7509459&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7555686&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -2920,7 +2920,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN A LA DECLARACIÓN DE IMPACTO AMBIENTAL PISCICULTURA EL VENADO COMUNA DE OSORNO.</t>
+          <t>MODIFICACION A LA DECLARACION DE IMPACTO AMBIENTAL PISCICULTURA EL VENADO</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2943,7 +2943,7 @@
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>17/10/2012</t>
+          <t>12/11/2012</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
@@ -2953,7 +2953,7 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7352039&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7509459&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -2968,7 +2968,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Ampliación Piscicultura Cancura</t>
+          <t>MODIFICACIÓN A LA DECLARACIÓN DE IMPACTO AMBIENTAL PISCICULTURA EL VENADO COMUNA DE OSORNO.</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2983,25 +2983,25 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Cermaq Chile S.A.</t>
+          <t>Sociedad Agrícola Covarrubias Fernández Ltda.</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>4000</v>
+        <v>2500</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>27/07/2012</t>
+          <t>17/10/2012</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6858091&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7352039&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -3016,7 +3016,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
+          <t>Ampliación Piscicultura Cancura</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3026,30 +3026,30 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>KDM SERVICIOS S.A.</t>
+          <t>Cermaq Chile S.A.</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>16/05/2012</t>
+          <t>27/07/2012</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6888046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6858091&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -3064,7 +3064,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Planta de destilacion de gases del aire</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -3074,30 +3074,30 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>GASES DEL SUR SOCIEDAD LIMITADA</t>
+          <t>KDM SERVICIOS S.A.</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>1000</v>
+        <v>5000</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>11/05/2012</t>
+          <t>16/05/2012</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6913953&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6888046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -3112,7 +3112,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos Interregional</t>
+          <t>Planta de destilacion de gases del aire</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -3122,30 +3122,30 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Jorge Andrés Torres Hidalgo</t>
+          <t>GASES DEL SUR SOCIEDAD LIMITADA</t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>23/04/2012</t>
+          <t>11/05/2012</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6852559&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6913953&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -3160,7 +3160,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
+          <t>Transporte de Residuos Peligrosos Interregional</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -3175,25 +3175,25 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Jorge Andrés Torres Hidalgo</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>20/02/2012</t>
+          <t>23/04/2012</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6852559&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -3208,7 +3208,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>AUTOGENERACION ELECTRICA PROLESUR</t>
+          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -3218,30 +3218,30 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Prolesur S.A.</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>13/02/2012</t>
+          <t>20/02/2012</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6601064&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -3271,7 +3271,7 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Sociedad Productores de Leche S.A.</t>
+          <t>Prolesur S.A.</t>
         </is>
       </c>
       <c r="F61" t="n">
@@ -3279,17 +3279,17 @@
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>19/01/2012</t>
+          <t>13/02/2012</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6474722&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6601064&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -3304,7 +3304,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>S/E Seccionadora Rahue 220 kV</t>
+          <t>AUTOGENERACION ELECTRICA PROLESUR</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3319,25 +3319,25 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A.</t>
+          <t>Sociedad Productores de Leche S.A.</t>
         </is>
       </c>
       <c r="F62" t="n">
-        <v>14000</v>
+        <v>1000</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>18/01/2012</t>
+          <t>19/01/2012</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6504250&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6474722&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -3352,7 +3352,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Quimicas entre XV y X region .</t>
+          <t>S/E Seccionadora Rahue 220 kV</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -3362,30 +3362,30 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>TRANSELEC S.A.</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>1000</v>
+        <v>14000</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>11/01/2012</t>
+          <t>18/01/2012</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6435815&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6504250&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -3400,7 +3400,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>Transporte de Sustancias Quimicas entre XV y X region .</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -3415,15 +3415,15 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F64" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>10/01/2012</t>
+          <t>11/01/2012</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
@@ -3433,7 +3433,7 @@
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6435815&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -3448,7 +3448,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Plan de cierre Ex basural de Ovejería de osorno</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -3458,30 +3458,30 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Osorno</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F65" t="n">
-        <v>1700</v>
+        <v>100</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>02/01/2012</t>
+          <t>10/01/2012</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6239097&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -3496,7 +3496,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Línea de Transmisión 66 kV Pilauco-Pichil</t>
+          <t>Plan de cierre Ex basural de Ovejería de osorno</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -3511,15 +3511,15 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Sistema de Transmisión del Sur S.A.</t>
+          <t>Ilustre Municipalidad de Osorno</t>
         </is>
       </c>
       <c r="F66" t="n">
-        <v>1967</v>
+        <v>1700</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>01/12/2011</t>
+          <t>02/01/2012</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
@@ -3529,7 +3529,7 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6334231&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6239097&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -3544,7 +3544,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Transportes de Sustancias Quimicas entre la XV y la X region</t>
+          <t>Línea de Transmisión 66 kV Pilauco-Pichil</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -3554,30 +3554,30 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Sistema de Transmisión del Sur S.A.</t>
         </is>
       </c>
       <c r="F67" t="n">
-        <v>1000</v>
+        <v>1967</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>21/11/2011</t>
+          <t>01/12/2011</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6291084&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6334231&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
@@ -3592,7 +3592,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Transporte de residuos peligrosos y no peligrosos</t>
+          <t>Transportes de Sustancias Quimicas entre la XV y la X region</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3607,15 +3607,15 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Fernando Luciano Huerta Tello</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F68" t="n">
-        <v>319</v>
+        <v>1000</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>04/10/2011</t>
+          <t>21/11/2011</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
@@ -3625,7 +3625,7 @@
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5958795&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6291084&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -3640,7 +3640,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>TAP OFF PICHIRREHUE</t>
+          <t>Transporte de residuos peligrosos y no peligrosos</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3650,30 +3650,30 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Empresa Eléctrica Pilmaiquén S.A.</t>
+          <t>Fernando Luciano Huerta Tello</t>
         </is>
       </c>
       <c r="F69" t="n">
-        <v>19800</v>
+        <v>319</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>01/06/2011</t>
+          <t>04/10/2011</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5675930&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5958795&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -3688,7 +3688,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE EXTRACCIÓN DE ÁRIDOS RÍO RAHUE SECTOR CANCURA</t>
+          <t>TAP OFF PICHIRREHUE</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -3703,15 +3703,15 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>ARIDOS DOWLING &amp; SCHILLING S.A</t>
+          <t>Empresa Eléctrica Pilmaiquén S.A.</t>
         </is>
       </c>
       <c r="F70" t="n">
-        <v>1500</v>
+        <v>19800</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>25/05/2011</t>
+          <t>01/06/2011</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
@@ -3721,7 +3721,7 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5626276&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5675930&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -3736,7 +3736,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Ampliación de rutas para el servicio de transporte, reciclaje y gestión de residuos industriales .</t>
+          <t>AMPLIACIÓN DE EXTRACCIÓN DE ÁRIDOS RÍO RAHUE SECTOR CANCURA</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -3746,20 +3746,20 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Gestión Ambiental Limitada</t>
+          <t>ARIDOS DOWLING &amp; SCHILLING S.A</t>
         </is>
       </c>
       <c r="F71" t="n">
-        <v>250</v>
+        <v>1500</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>27/04/2011</t>
+          <t>25/05/2011</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
@@ -3769,7 +3769,7 @@
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5540550&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5626276&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -3784,7 +3784,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Piscicultura El Encanto</t>
+          <t>Ampliación de rutas para el servicio de transporte, reciclaje y gestión de residuos industriales .</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -3794,30 +3794,30 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Congelados Pacífico S.A.</t>
+          <t>Gestión Ambiental Limitada</t>
         </is>
       </c>
       <c r="F72" t="n">
-        <v>8500</v>
+        <v>250</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>19/04/2011</t>
+          <t>27/04/2011</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5435529&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5540550&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -3832,7 +3832,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Ampliacion de rutas para el transporte, reciclaje y gestión de residuos industriales. .</t>
+          <t>Piscicultura El Encanto</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -3842,30 +3842,30 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Gestión Ambiental Limitada</t>
+          <t>Congelados Pacífico S.A.</t>
         </is>
       </c>
       <c r="F73" t="n">
-        <v>250</v>
+        <v>8500</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>15/04/2011</t>
+          <t>19/04/2011</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5532880&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5435529&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -3880,7 +3880,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Mejoramiento y Ampliación de Producción Piscicultura Rupanquito</t>
+          <t>Ampliacion de rutas para el transporte, reciclaje y gestión de residuos industriales. .</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -3890,30 +3890,30 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Salmones Antártica S.A</t>
+          <t>Gestión Ambiental Limitada</t>
         </is>
       </c>
       <c r="F74" t="n">
-        <v>1500</v>
+        <v>250</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>08/03/2011</t>
+          <t>15/04/2011</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5425000&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5532880&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
@@ -3928,7 +3928,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Subestación Pilauco 220/66 kV</t>
+          <t>Mejoramiento y Ampliación de Producción Piscicultura Rupanquito</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3943,15 +3943,15 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Sistema de Transmisión del Sur S.A.</t>
+          <t>Salmones Antártica S.A</t>
         </is>
       </c>
       <c r="F75" t="n">
-        <v>14800</v>
+        <v>1500</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>18/02/2011</t>
+          <t>08/03/2011</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
@@ -3961,7 +3961,7 @@
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5359373&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5425000&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -3976,7 +3976,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Modificación al Manejo de Mortalidad Mediante Sistema de Ensilaje. Piscicultura Las Quemas, Río Rahue, Comuna de Osorno.</t>
+          <t>Subestación Pilauco 220/66 kV</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -3991,15 +3991,15 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Piscicultura Las Quemas Chile S.A.</t>
+          <t>Sistema de Transmisión del Sur S.A.</t>
         </is>
       </c>
       <c r="F76" t="n">
-        <v>4</v>
+        <v>14800</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>04/02/2011</t>
+          <t>18/02/2011</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
@@ -4009,7 +4009,7 @@
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5317523&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5359373&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -4024,7 +4024,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>MEJORAMIENTO PLANTA DE DISPOSICIÓN FINAL DE RESIDUOS INDUSTRIALES ECOPRIAL</t>
+          <t>Modificación al Manejo de Mortalidad Mediante Sistema de Ensilaje. Piscicultura Las Quemas, Río Rahue, Comuna de Osorno.</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -4039,15 +4039,15 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Asesoría Los Olivos S.A</t>
+          <t>Piscicultura Las Quemas Chile S.A.</t>
         </is>
       </c>
       <c r="F77" t="n">
-        <v>500</v>
+        <v>4</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>27/01/2011</t>
+          <t>04/02/2011</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
@@ -4057,7 +4057,7 @@
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5285248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5317523&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -4095,17 +4095,17 @@
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>17/01/2011</t>
+          <t>27/01/2011</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5248742&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5285248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -4120,7 +4120,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Piscicultura El Venado</t>
+          <t>MEJORAMIENTO PLANTA DE DISPOSICIÓN FINAL DE RESIDUOS INDUSTRIALES ECOPRIAL</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -4135,25 +4135,25 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Sociedad Agrícola Covarrubias Fernández Ltda.</t>
+          <t>Asesoría Los Olivos S.A</t>
         </is>
       </c>
       <c r="F79" t="n">
-        <v>8000</v>
+        <v>500</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>19/10/2010</t>
+          <t>17/01/2011</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5012986&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5248742&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
@@ -4168,7 +4168,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>PROYECTO AMPLIACION EXTRACCION DE ARIDOS EN RIO RAHUE SECTOR FUNDO EL ALMUD</t>
+          <t>Piscicultura El Venado</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -4183,15 +4183,15 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>ARIDOS DOWLING &amp; SCHILLING S.A</t>
+          <t>Sociedad Agrícola Covarrubias Fernández Ltda.</t>
         </is>
       </c>
       <c r="F80" t="n">
-        <v>250</v>
+        <v>8000</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>08/10/2010</t>
+          <t>19/10/2010</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
@@ -4201,7 +4201,7 @@
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4992265&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5012986&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
@@ -4216,7 +4216,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS</t>
+          <t>PROYECTO AMPLIACION EXTRACCION DE ARIDOS EN RIO RAHUE SECTOR FUNDO EL ALMUD</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -4226,30 +4226,30 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Sociedad Logística Ambiental Ltda.</t>
+          <t>ARIDOS DOWLING &amp; SCHILLING S.A</t>
         </is>
       </c>
       <c r="F81" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>24/06/2010</t>
+          <t>08/10/2010</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4702856&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4992265&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
@@ -4264,7 +4264,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>SISTEMA DE ENSILAJE DE MORTALIDAD PISCICULTURA PICHICHANLELFU</t>
+          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -4274,30 +4274,30 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Mowi Chile S.A</t>
+          <t>Sociedad Logística Ambiental Ltda.</t>
         </is>
       </c>
       <c r="F82" t="n">
-        <v>50</v>
+        <v>300</v>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>06/05/2010</t>
+          <t>24/06/2010</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4552129&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4702856&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
@@ -4312,7 +4312,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Piscicultura El Venado</t>
+          <t>SISTEMA DE ENSILAJE DE MORTALIDAD PISCICULTURA PICHICHANLELFU</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -4327,25 +4327,25 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Sociedad Agrícola Covarrubias Fernández Ltda.</t>
+          <t>Mowi Chile S.A</t>
         </is>
       </c>
       <c r="F83" t="n">
-        <v>8000</v>
+        <v>50</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>04/05/2010</t>
+          <t>06/05/2010</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4492153&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4552129&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -4360,7 +4360,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
+          <t>Piscicultura El Venado</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -4370,30 +4370,30 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Sociedad Agrícola Covarrubias Fernández Ltda.</t>
         </is>
       </c>
       <c r="F84" t="n">
-        <v>250</v>
+        <v>8000</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>26/04/2010</t>
+          <t>04/05/2010</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4509429&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4492153&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
@@ -4408,7 +4408,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>BODEGA PARA EL ALMACENAMIENTO TRANSITORIO DE RESIDUOS INDUSTRIALES DE TERCEROS, ECOPRIAL</t>
+          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -4418,20 +4418,20 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Asesoría Los Olivos S.A</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F85" t="n">
-        <v>286</v>
+        <v>250</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>21/04/2010</t>
+          <t>26/04/2010</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
@@ -4441,7 +4441,7 @@
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4522528&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4509429&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
@@ -4456,7 +4456,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
+          <t>BODEGA PARA EL ALMACENAMIENTO TRANSITORIO DE RESIDUOS INDUSTRIALES DE TERCEROS, ECOPRIAL</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -4466,30 +4466,30 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Asesoría Los Olivos S.A</t>
         </is>
       </c>
       <c r="F86" t="n">
-        <v>250</v>
+        <v>286</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>10/02/2010</t>
+          <t>21/04/2010</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4352324&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4522528&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
@@ -4504,7 +4504,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -4519,15 +4519,15 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F87" t="n">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>22/01/2010</t>
+          <t>10/02/2010</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
@@ -4537,7 +4537,7 @@
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4352324&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
@@ -4552,7 +4552,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -4567,7 +4567,7 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F88" t="n">
@@ -4580,12 +4580,12 @@
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
@@ -4623,17 +4623,17 @@
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>15/01/2010</t>
+          <t>22/01/2010</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
@@ -4648,7 +4648,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Línea de Alta Tensión Antillanca - Nueva Barro Blanco (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -4658,30 +4658,30 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Sistema de Transmisión del Sur S.A.</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F90" t="n">
-        <v>8000</v>
+        <v>0</v>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>22/12/2009</t>
+          <t>15/01/2010</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4270514&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -4696,7 +4696,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS (e-seia)</t>
+          <t>Línea de Alta Tensión Antillanca - Nueva Barro Blanco (e-seia)</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -4706,30 +4706,30 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Sociedad Logística Ambiental Ltda.</t>
+          <t>Sistema de Transmisión del Sur S.A.</t>
         </is>
       </c>
       <c r="F91" t="n">
-        <v>0</v>
+        <v>8000</v>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>30/11/2009</t>
+          <t>22/12/2009</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4224783&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4270514&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
@@ -4744,7 +4744,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Subestación Nueva Barro Blanco 220/66 kV (e-seia)</t>
+          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -4754,30 +4754,30 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>Sistema de Transmisión del Sur S.A.</t>
+          <t>Sociedad Logística Ambiental Ltda.</t>
         </is>
       </c>
       <c r="F92" t="n">
-        <v>14800</v>
+        <v>0</v>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>26/11/2009</t>
+          <t>30/11/2009</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4215834&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4224783&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
@@ -4792,7 +4792,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Regularización disposición final efluente Inmobiliaria Ferias Unidas de Osorno Limitada. Comuna de Osorno. Provincia de Osorno. Región de los Lagos. (e-seia)</t>
+          <t>Subestación Nueva Barro Blanco 220/66 kV (e-seia)</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -4807,15 +4807,15 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>Sociedad Inmobiliaria Ferias Unidas de Osorno Limitada</t>
+          <t>Sistema de Transmisión del Sur S.A.</t>
         </is>
       </c>
       <c r="F93" t="n">
-        <v>27</v>
+        <v>14800</v>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>12/11/2009</t>
+          <t>26/11/2009</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
@@ -4825,7 +4825,7 @@
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4185561&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4215834&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
@@ -4840,7 +4840,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>ESTUDIO Y DISEÑO PLAN DE CIERRE VERTEDERO COMUNA DE OSORNO (e-seia)</t>
+          <t>Regularización disposición final efluente Inmobiliaria Ferias Unidas de Osorno Limitada. Comuna de Osorno. Provincia de Osorno. Región de los Lagos. (e-seia)</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -4855,15 +4855,15 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Osorno</t>
+          <t>Sociedad Inmobiliaria Ferias Unidas de Osorno Limitada</t>
         </is>
       </c>
       <c r="F94" t="n">
-        <v>3400</v>
+        <v>27</v>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>23/10/2009</t>
+          <t>12/11/2009</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
@@ -4873,7 +4873,7 @@
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4139027&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4185561&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
@@ -4936,7 +4936,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Incorporación de etapa fisicoquímica al sistema de tratamiento de RILes de MAFRISUR S.A. (e-seia)</t>
+          <t>ESTUDIO Y DISEÑO PLAN DE CIERRE VERTEDERO COMUNA DE OSORNO (e-seia)</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -4951,15 +4951,15 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>MAFRISUR S.A.</t>
+          <t>Ilustre Municipalidad de Osorno</t>
         </is>
       </c>
       <c r="F96" t="n">
-        <v>10</v>
+        <v>3400</v>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>29/09/2009</t>
+          <t>23/10/2009</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
@@ -4969,7 +4969,7 @@
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4085084&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4139027&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
@@ -4984,7 +4984,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos CMR Norte. (e-seia)</t>
+          <t>Incorporación de etapa fisicoquímica al sistema de tratamiento de RILes de MAFRISUR S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -4994,30 +4994,30 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>MAFRISUR S.A.</t>
         </is>
       </c>
       <c r="F97" t="n">
-        <v>250</v>
+        <v>10</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>18/08/2009</t>
+          <t>29/09/2009</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3960661&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4085084&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
@@ -5032,7 +5032,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Transporte de Combustibles y Residuos Industriales, Peligrosos y No Peligrosos entre Arica y Puerto Montt (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos CMR Norte. (e-seia)</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -5047,15 +5047,15 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>Transportes Centro Sur Norte S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F98" t="n">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>27/07/2009</t>
+          <t>18/08/2009</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
@@ -5065,7 +5065,7 @@
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3893261&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3960661&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
@@ -5080,7 +5080,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Proyecto Interregional de Transporte de Combustibles y Residuos Industriales, Peligrosos y No Peligrosos entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -5095,15 +5095,15 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>Sotrans Limitada</t>
+          <t>Transportes Centro Sur Norte S.A.</t>
         </is>
       </c>
       <c r="F99" t="n">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>02/06/2009</t>
+          <t>27/07/2009</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
@@ -5113,7 +5113,7 @@
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3893261&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
@@ -5128,7 +5128,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Planta Unidad Sur (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -5138,30 +5138,30 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>Envases Impresos SpA</t>
+          <t>Sotrans Limitada</t>
         </is>
       </c>
       <c r="F100" t="n">
-        <v>30000</v>
+        <v>22</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>20/04/2009</t>
+          <t>02/06/2009</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3715069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
@@ -5191,7 +5191,7 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>Envases Roble Alto S.A.</t>
+          <t>Envases Impresos SpA</t>
         </is>
       </c>
       <c r="F101" t="n">
@@ -5199,17 +5199,17 @@
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>08/04/2009</t>
+          <t>20/04/2009</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3685558&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3715069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
@@ -5224,7 +5224,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>LÍNEA DE TRANSMISIÓN ELÉCTRICA 2x220 kV OSORNOBARRO BLANCO (e-seia)</t>
+          <t>Planta Unidad Sur (e-seia)</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -5239,25 +5239,25 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>Empresa Eléctrica Pilmaiquén S.A.</t>
+          <t>Envases Roble Alto S.A.</t>
         </is>
       </c>
       <c r="F102" t="n">
-        <v>4560</v>
+        <v>30000</v>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>06/04/2009</t>
+          <t>08/04/2009</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3677275&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3685558&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
@@ -5272,10 +5272,14 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>EIA Relleno Sanitario Provincial de Osorno</t>
-        </is>
-      </c>
-      <c r="C103" t="inlineStr"/>
+          <t>LÍNEA DE TRANSMISIÓN ELÉCTRICA 2x220 kV OSORNOBARRO BLANCO (e-seia)</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D103" t="inlineStr">
         <is>
           <t>Décima</t>
@@ -5283,15 +5287,15 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Osorno</t>
+          <t>Empresa Eléctrica Pilmaiquén S.A.</t>
         </is>
       </c>
       <c r="F103" t="n">
-        <v>18000</v>
+        <v>4560</v>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>03/04/2009</t>
+          <t>06/04/2009</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
@@ -5301,7 +5305,7 @@
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3675668&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3677275&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
@@ -5316,14 +5320,10 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Ampliación Planta Osorno (e-seia)</t>
-        </is>
-      </c>
-      <c r="C104" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>EIA Relleno Sanitario Provincial de Osorno</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr"/>
       <c r="D104" t="inlineStr">
         <is>
           <t>Décima</t>
@@ -5331,15 +5331,15 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>Watts S.A.</t>
+          <t>Ilustre Municipalidad de Osorno</t>
         </is>
       </c>
       <c r="F104" t="n">
-        <v>22000</v>
+        <v>18000</v>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>24/03/2009</t>
+          <t>03/04/2009</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
@@ -5349,7 +5349,7 @@
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3639837&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3675668&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
@@ -5364,7 +5364,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Línea de Transmisión Los Negros-Barro Blanco (e-seia)</t>
+          <t>Ampliación Planta Osorno (e-seia)</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -5379,15 +5379,15 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>Sistema de Transmisión de Los Lagos S.A.</t>
+          <t>Watts S.A.</t>
         </is>
       </c>
       <c r="F105" t="n">
-        <v>0</v>
+        <v>22000</v>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>13/03/2009</t>
+          <t>24/03/2009</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
@@ -5397,7 +5397,7 @@
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3631384&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3639837&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
@@ -5412,7 +5412,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Transporte de Residuos de Plomo y Baterías en Desuso, por las Regiones VI, VII, VIII, IX, XIV y X (e-seia)</t>
+          <t>Línea de Transmisión Los Negros-Barro Blanco (e-seia)</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -5422,12 +5422,12 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>Transportes Reciclar Limitada</t>
+          <t>Sistema de Transmisión de Los Lagos S.A.</t>
         </is>
       </c>
       <c r="F106" t="n">
@@ -5435,7 +5435,7 @@
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>10/02/2009</t>
+          <t>13/03/2009</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
@@ -5445,7 +5445,7 @@
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3551870&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3631384&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
@@ -5460,7 +5460,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Residuos de Plomo y Baterías en Desuso, por las Regiones VI, VII, VIII, IX, XIV y X (e-seia)</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -5475,7 +5475,7 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>Transportes Reciclar Limitada</t>
         </is>
       </c>
       <c r="F107" t="n">
@@ -5483,17 +5483,17 @@
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>23/01/2009</t>
+          <t>10/02/2009</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503806&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3551870&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
@@ -5531,17 +5531,17 @@
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>27/11/2008</t>
+          <t>23/01/2009</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3337768&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503806&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
@@ -5556,7 +5556,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Transporte de Residuos de Plomo y Baterías en Desuso, por las Regiones VI, VII, VIII, IX, XIV y X (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -5571,7 +5571,7 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>Industria Proveedora de Partes Metalurgicas Ltda.</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F109" t="n">
@@ -5579,17 +5579,17 @@
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>07/11/2008</t>
+          <t>27/11/2008</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3321441&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3337768&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
@@ -5604,7 +5604,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Transporte de Residuos de Plomo y Baterías en Desuso, por las Regiones VI, VII, VIII, IX, XIV y X (e-seia)</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -5619,25 +5619,25 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Industria Proveedora de Partes Metalurgicas Ltda.</t>
         </is>
       </c>
       <c r="F110" t="n">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>30/10/2008</t>
+          <t>07/11/2008</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3313847&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3321441&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
@@ -5675,17 +5675,17 @@
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>15/10/2008</t>
+          <t>30/10/2008</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3313847&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
@@ -5700,7 +5700,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -5715,11 +5715,11 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F112" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G112" t="inlineStr">
         <is>
@@ -5728,12 +5728,12 @@
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
@@ -5748,7 +5748,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS DE PLOMO Y BATERÍAS USADAS POR LAS REGIONES VI, VII, VIII, IX, XIV y X (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -5763,25 +5763,25 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>Industria Proveedora de Partes Metalurgicas Ltda.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F113" t="n">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>10/10/2008</t>
+          <t>15/10/2008</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3249759&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
@@ -5844,7 +5844,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS DE PLOMO Y BATERÍAS USADAS POR LAS REGIONES VI, VII, VIII, IX, XIV y X (e-seia)</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -5859,25 +5859,25 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Industria Proveedora de Partes Metalurgicas Ltda.</t>
         </is>
       </c>
       <c r="F115" t="n">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>01/10/2008</t>
+          <t>10/10/2008</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3232866&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3249759&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
@@ -5892,7 +5892,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>PLANTA ELABORADORA DE LECHE EN POLVO, COMUNA DE OSORNO, REGIÓN DE LOS LAGOS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -5902,30 +5902,30 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>Nestlé Chile S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F116" t="n">
-        <v>84000</v>
+        <v>250</v>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>29/09/2008</t>
+          <t>01/10/2008</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223561&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3232866&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
@@ -5940,7 +5940,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>PLANTA ELABORADORA DE LECHE EN POLVO, COMUNA DE OSORNO, REGIÓN DE LOS LAGOS (e-seia)</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -5950,30 +5950,30 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Nestlé Chile S.A.</t>
         </is>
       </c>
       <c r="F117" t="n">
-        <v>20</v>
+        <v>84000</v>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>16/09/2008</t>
+          <t>29/09/2008</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3192496&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223561&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
@@ -5988,7 +5988,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Regularización de Ampliación y Adición de Equipos al Sistema de Tratamiento de riles de la Planta Frigorífico de Osorno S.A. Comuna de Osorno. Región de los Lagos (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -5998,30 +5998,30 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>Frigorífico de osorno S.A.</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F118" t="n">
-        <v>160</v>
+        <v>20</v>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>28/08/2008</t>
+          <t>16/09/2008</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3143976&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3192496&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
@@ -6036,7 +6036,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>Regularización de Ampliación y Adición de Equipos al Sistema de Tratamiento de riles de la Planta Frigorífico de Osorno S.A. Comuna de Osorno. Región de los Lagos (e-seia)</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -6046,30 +6046,30 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Frigorífico de osorno S.A.</t>
         </is>
       </c>
       <c r="F119" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>20/08/2008</t>
+          <t>28/08/2008</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3143976&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
@@ -6084,7 +6084,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -6099,25 +6099,25 @@
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F120" t="n">
-        <v>1650</v>
+        <v>250</v>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>06/08/2008</t>
+          <t>20/08/2008</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3079271&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
@@ -6132,7 +6132,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -6147,15 +6147,15 @@
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F121" t="n">
-        <v>20</v>
+        <v>1650</v>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>05/08/2008</t>
+          <t>06/08/2008</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
@@ -6165,7 +6165,7 @@
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3079271&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
@@ -6180,7 +6180,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Segunda Modificación Piscicultura Santa Juana (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -6190,30 +6190,30 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>Cermaq Chile S.A.</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F122" t="n">
-        <v>7000</v>
+        <v>20</v>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>11/07/2008</t>
+          <t>05/08/2008</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3031825&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
@@ -6228,7 +6228,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>transporte de residuos peligrosos (e-seia)</t>
+          <t>Segunda Modificación Piscicultura Santa Juana (e-seia)</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -6238,30 +6238,30 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Cermaq Chile S.A.</t>
         </is>
       </c>
       <c r="F123" t="n">
-        <v>20</v>
+        <v>7000</v>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>09/07/2008</t>
+          <t>11/07/2008</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3023770&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3031825&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
@@ -6276,7 +6276,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
+          <t>transporte de residuos peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -6291,15 +6291,15 @@
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F124" t="n">
-        <v>1650</v>
+        <v>20</v>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>07/07/2008</t>
+          <t>09/07/2008</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
@@ -6309,7 +6309,7 @@
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3008477&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3023770&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
@@ -6324,7 +6324,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>transporte de residuos peligrosos (e-seia)</t>
+          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -6339,15 +6339,15 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F125" t="n">
-        <v>20</v>
+        <v>1650</v>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>30/05/2008</t>
+          <t>07/07/2008</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
@@ -6357,7 +6357,7 @@
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2910651&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3008477&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
@@ -6372,7 +6372,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Ampliacion Central Chuyaca (e-seia)</t>
+          <t>transporte de residuos peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -6382,30 +6382,30 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>SAGESA S.A.</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F126" t="n">
-        <v>4800</v>
+        <v>20</v>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>17/04/2008</t>
+          <t>30/05/2008</t>
         </is>
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2845928&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2910651&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
@@ -6420,7 +6420,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Modificación Piscicultura Las Quemas. Río Rahue. Comuna de Osorno (e-seia)</t>
+          <t>Ampliacion Central Chuyaca (e-seia)</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -6435,15 +6435,15 @@
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>PISCICULTURA LAS QUEMAS CHILE S.A.</t>
+          <t>SAGESA S.A.</t>
         </is>
       </c>
       <c r="F127" t="n">
-        <v>4000</v>
+        <v>4800</v>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>19/03/2008</t>
+          <t>17/04/2008</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
@@ -6453,7 +6453,7 @@
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2767784&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2845928&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
@@ -6468,7 +6468,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Aguas Residuales mediante Lombrifiltro para Lácteos Paraguay, Comuna de Osorno, X Región. (e-seia)</t>
+          <t>Modificación Piscicultura Las Quemas. Río Rahue. Comuna de Osorno (e-seia)</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -6483,15 +6483,15 @@
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>Gonzalo Andrés Schwalm Urzúa</t>
+          <t>PISCICULTURA LAS QUEMAS CHILE S.A.</t>
         </is>
       </c>
       <c r="F128" t="n">
-        <v>250</v>
+        <v>4000</v>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>28/02/2008</t>
+          <t>19/03/2008</t>
         </is>
       </c>
       <c r="H128" t="inlineStr">
@@ -6501,7 +6501,7 @@
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2737933&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2767784&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
@@ -6516,7 +6516,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Aguas Residuales mediante Lombrifiltro para "Lácteos Paraguay", Comuna de Osorno, X Región. (e-seia)</t>
+          <t>Planta de Tratamiento de Aguas Residuales mediante Lombrifiltro para Lácteos Paraguay, Comuna de Osorno, X Región. (e-seia)</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -6539,17 +6539,17 @@
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>06/02/2008</t>
+          <t>28/02/2008</t>
         </is>
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2690534&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2737933&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
@@ -6564,7 +6564,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Planta de Disposición Final de Residuos Industriales ECOPRIAL (e-seia)</t>
+          <t>Planta de Tratamiento de Aguas Residuales mediante Lombrifiltro para "Lácteos Paraguay", Comuna de Osorno, X Región. (e-seia)</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -6579,25 +6579,25 @@
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>Asesorías Los Olivos S.A.</t>
+          <t>Gonzalo Andrés Schwalm Urzúa</t>
         </is>
       </c>
       <c r="F130" t="n">
-        <v>1045</v>
+        <v>250</v>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>30/01/2008</t>
+          <t>06/02/2008</t>
         </is>
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2667394&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2690534&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
@@ -6612,7 +6612,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE SUSTANCIAS PELIGROSAS EN Y ENTRE LAS REGIONES XV Y X (e-seia)</t>
+          <t>Planta de Disposición Final de Residuos Industriales ECOPRIAL (e-seia)</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -6622,20 +6622,20 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>INVERSIONES AUTOMOTRICES K Y L LIMITADA</t>
+          <t>Asesorías Los Olivos S.A.</t>
         </is>
       </c>
       <c r="F131" t="n">
-        <v>0</v>
+        <v>1045</v>
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>29/01/2008</t>
+          <t>30/01/2008</t>
         </is>
       </c>
       <c r="H131" t="inlineStr">
@@ -6645,7 +6645,7 @@
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2671596&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2667394&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
@@ -6660,7 +6660,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Piscicultura Pilmaiquén (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE SUSTANCIAS PELIGROSAS EN Y ENTRE LAS REGIONES XV Y X (e-seia)</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -6670,30 +6670,30 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>Inversiones Aubel Limitada</t>
+          <t>INVERSIONES AUTOMOTRICES K Y L LIMITADA</t>
         </is>
       </c>
       <c r="F132" t="n">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>23/11/2007</t>
+          <t>29/01/2008</t>
         </is>
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2507396&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2671596&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
@@ -6708,7 +6708,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Transporte Trans Regional Terrestre de Residuos Industriales (e-seia)</t>
+          <t>Piscicultura Pilmaiquén (e-seia)</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -6718,30 +6718,30 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
+          <t>Inversiones Aubel Limitada</t>
         </is>
       </c>
       <c r="F133" t="n">
-        <v>429</v>
+        <v>1500</v>
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>02/11/2007</t>
+          <t>23/11/2007</t>
         </is>
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2474976&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2507396&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
@@ -6756,7 +6756,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte Trans Regional Terrestre de Residuos Industriales (e-seia)</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -6771,25 +6771,25 @@
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F134" t="n">
-        <v>30</v>
+        <v>429</v>
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>25/10/2007</t>
+          <t>02/11/2007</t>
         </is>
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2454259&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2474976&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
@@ -6804,7 +6804,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -6819,25 +6819,25 @@
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>Servicio de Aseo Integral Monterredondo S.A</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F135" t="n">
-        <v>234</v>
+        <v>30</v>
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>08/10/2007</t>
+          <t>25/10/2007</t>
         </is>
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2454259&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
@@ -6852,7 +6852,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -6867,25 +6867,25 @@
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>Transportes Máximo Enrique Sciarresi González EIRL</t>
+          <t>Servicio de Aseo Integral Monterredondo S.A</t>
         </is>
       </c>
       <c r="F136" t="n">
-        <v>250</v>
+        <v>234</v>
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>20/09/2007</t>
+          <t>08/10/2007</t>
         </is>
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2392309&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
@@ -6900,7 +6900,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Matadero Ovino MAFRISUR S.A., comuna de Osorno, Región deLos Lagos (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -6910,20 +6910,20 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>MAFRISUR S.A.</t>
+          <t>Transportes Máximo Enrique Sciarresi González EIRL</t>
         </is>
       </c>
       <c r="F137" t="n">
-        <v>6000</v>
+        <v>250</v>
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>03/09/2007</t>
+          <t>20/09/2007</t>
         </is>
       </c>
       <c r="H137" t="inlineStr">
@@ -6933,7 +6933,7 @@
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2374309&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2392309&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
@@ -6948,7 +6948,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>CONJUNTO HABITACIONAL JARDIN DEL ALTO,OSORNO (e-seia)</t>
+          <t>Matadero Ovino MAFRISUR S.A., comuna de Osorno, Región deLos Lagos (e-seia)</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -6963,15 +6963,15 @@
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>Inmobiliaria Fourcade S.A.</t>
+          <t>MAFRISUR S.A.</t>
         </is>
       </c>
       <c r="F138" t="n">
-        <v>3370</v>
+        <v>6000</v>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>31/08/2007</t>
+          <t>03/09/2007</t>
         </is>
       </c>
       <c r="H138" t="inlineStr">
@@ -6981,7 +6981,7 @@
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2359952&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2374309&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
@@ -7044,7 +7044,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales (e-seia)</t>
+          <t>CONJUNTO HABITACIONAL JARDIN DEL ALTO,OSORNO (e-seia)</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -7054,30 +7054,30 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>Castañeda Hermanos Ltda.</t>
+          <t>Inmobiliaria Fourcade S.A.</t>
         </is>
       </c>
       <c r="F140" t="n">
-        <v>300</v>
+        <v>3370</v>
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>23/08/2007</t>
+          <t>31/08/2007</t>
         </is>
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2329508&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2359952&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
@@ -7092,7 +7092,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Transportes de Residuos Industrales (e-seia)</t>
+          <t>Transporte de Residuos Industriales (e-seia)</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -7115,17 +7115,17 @@
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>04/07/2007</t>
+          <t>23/08/2007</t>
         </is>
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2329508&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
@@ -7140,7 +7140,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>Transportes de Residuos Industrales (e-seia)</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -7155,25 +7155,25 @@
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>Global Index Chile Servicios Integrales Limitada</t>
+          <t>Castañeda Hermanos Ltda.</t>
         </is>
       </c>
       <c r="F142" t="n">
-        <v>80</v>
+        <v>300</v>
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>13/06/2007</t>
+          <t>04/07/2007</t>
         </is>
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2199692&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
@@ -7188,7 +7188,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Drenaje Superficial Fundo Los Notros (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -7198,30 +7198,30 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>Marìa Magdalena Erratchou Lara</t>
+          <t>Global Index Chile Servicios Integrales Limitada</t>
         </is>
       </c>
       <c r="F143" t="n">
-        <v>132</v>
+        <v>80</v>
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>25/04/2007</t>
+          <t>13/06/2007</t>
         </is>
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2124152&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2199692&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
@@ -7236,7 +7236,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Modificacion Piscicultura Santa Juana (e-seia)</t>
+          <t>Drenaje Superficial Fundo Los Notros (e-seia)</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -7251,15 +7251,15 @@
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>Cermaq Chile S.A.</t>
+          <t>Marìa Magdalena Erratchou Lara</t>
         </is>
       </c>
       <c r="F144" t="n">
-        <v>3000</v>
+        <v>132</v>
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>12/04/2007</t>
+          <t>25/04/2007</t>
         </is>
       </c>
       <c r="H144" t="inlineStr">
@@ -7269,7 +7269,7 @@
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2094113&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2124152&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
@@ -7284,7 +7284,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>SISTEMA DE TRATAMIENTO DE RESIDUOS INDUSTRIALES LIQUIDOS AGROLACTEOS CUINCO SA (e-seia)</t>
+          <t>Modificacion Piscicultura Santa Juana (e-seia)</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -7299,15 +7299,15 @@
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>Distribuidora J.A Ltda.</t>
+          <t>Cermaq Chile S.A.</t>
         </is>
       </c>
       <c r="F145" t="n">
-        <v>100</v>
+        <v>3000</v>
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>09/04/2007</t>
+          <t>12/04/2007</t>
         </is>
       </c>
       <c r="H145" t="inlineStr">
@@ -7317,7 +7317,7 @@
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2092314&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2094113&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J145" t="inlineStr">
@@ -7332,7 +7332,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Drenaje Predio Polloico (e-seia)</t>
+          <t>SISTEMA DE TRATAMIENTO DE RESIDUOS INDUSTRIALES LIQUIDOS AGROLACTEOS CUINCO SA (e-seia)</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -7347,25 +7347,25 @@
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>Alfonso Guillermo Besser Hayler</t>
+          <t>Distribuidora J.A Ltda.</t>
         </is>
       </c>
       <c r="F146" t="n">
-        <v>44</v>
+        <v>100</v>
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>21/03/2007</t>
+          <t>09/04/2007</t>
         </is>
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2057529&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2092314&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J146" t="inlineStr">
@@ -7380,7 +7380,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región, incluyendo la Región Metropolitana (e-seia)</t>
+          <t>Drenaje Predio Polloico (e-seia)</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -7390,30 +7390,30 @@
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>Empresa de Residuos RESITER S.A.</t>
+          <t>Alfonso Guillermo Besser Hayler</t>
         </is>
       </c>
       <c r="F147" t="n">
-        <v>1</v>
+        <v>44</v>
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>16/03/2007</t>
+          <t>21/03/2007</t>
         </is>
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049917&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2057529&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
@@ -7428,7 +7428,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Transporte Ferroviario y Almacenamiento de Combustible (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región, incluyendo la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -7443,25 +7443,25 @@
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>Ferrocarril del Pacífico S.A.</t>
+          <t>Empresa de Residuos RESITER S.A.</t>
         </is>
       </c>
       <c r="F148" t="n">
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>26/02/2007</t>
+          <t>16/03/2007</t>
         </is>
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2016722&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049917&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">
@@ -7476,7 +7476,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>TRANSPORTE FERROVIARIO Y ALMACENAMIENTO DE COMBUSTIBLES (e-seia)</t>
+          <t>Transporte Ferroviario y Almacenamiento de Combustible (e-seia)</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -7499,17 +7499,17 @@
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>14/02/2007</t>
+          <t>26/02/2007</t>
         </is>
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1990390&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2016722&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
@@ -7524,7 +7524,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región incluyendo la Región Metropolitana (e-seia)</t>
+          <t>TRANSPORTE FERROVIARIO Y ALMACENAMIENTO DE COMBUSTIBLES (e-seia)</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -7539,15 +7539,15 @@
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>Empresa de Residuos RESITER S.A.</t>
+          <t>Ferrocarril del Pacífico S.A.</t>
         </is>
       </c>
       <c r="F150" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>13/02/2007</t>
+          <t>14/02/2007</t>
         </is>
       </c>
       <c r="H150" t="inlineStr">
@@ -7557,7 +7557,7 @@
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1984174&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1990390&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
@@ -7572,7 +7572,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región incluyendo la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -7587,25 +7587,25 @@
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Empresa de Residuos RESITER S.A.</t>
         </is>
       </c>
       <c r="F151" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>12/01/2007</t>
+          <t>13/02/2007</t>
         </is>
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1984174&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J151" t="inlineStr">
@@ -7620,7 +7620,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -7643,17 +7643,17 @@
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>29/12/2006</t>
+          <t>12/01/2007</t>
         </is>
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J152" t="inlineStr">
@@ -7668,7 +7668,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en Camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -7683,25 +7683,25 @@
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F153" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>12/12/2006</t>
+          <t>29/12/2006</t>
         </is>
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1852126&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J153" t="inlineStr">
@@ -7716,7 +7716,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>TRANSPORTES DE ACEITES USADOS (e-seia)</t>
+          <t>Transporte Terrestre en Camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X (e-seia)</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -7731,25 +7731,25 @@
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>TRANSPORTES INOSTROZA LTDA</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F154" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>07/12/2006</t>
+          <t>12/12/2006</t>
         </is>
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1843978&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1852126&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
@@ -7764,7 +7764,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>TRANSPORTES DE ACEITES USADOS (e-seia)</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -7779,25 +7779,25 @@
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES INOSTROZA LTDA</t>
         </is>
       </c>
       <c r="F155" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>10/11/2006</t>
+          <t>07/12/2006</t>
         </is>
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1843978&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
@@ -7812,7 +7812,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -7827,25 +7827,25 @@
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>Prodelin Ltda.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F156" t="n">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>06/11/2006</t>
+          <t>10/11/2006</t>
         </is>
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1785275&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
@@ -7860,7 +7860,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Transporte terrestre en camiones de Sustancias y Residuos Peligrosos entre la regiones V y X 193 (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -7875,25 +7875,25 @@
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>Prodelin Ltda.</t>
         </is>
       </c>
       <c r="F157" t="n">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>25/10/2006</t>
+          <t>06/11/2006</t>
         </is>
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1767215&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1785275&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
@@ -7908,7 +7908,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Transporte de Residuos industrial por las rutas indicadas (e-seia)</t>
+          <t>Transporte terrestre en camiones de Sustancias y Residuos Peligrosos entre la regiones V y X 193 (e-seia)</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -7923,15 +7923,15 @@
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>Empresa de Transportes Trans-residuos</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F158" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>28/09/2006</t>
+          <t>25/10/2006</t>
         </is>
       </c>
       <c r="H158" t="inlineStr">
@@ -7941,7 +7941,7 @@
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1726867&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1767215&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
@@ -7956,7 +7956,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Proyecto Pradera, Aumento de capacidad Planta Prolesur Osorno (e-seia)</t>
+          <t>Transporte de Residuos industrial por las rutas indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -7966,30 +7966,30 @@
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>Prolesur S.A.</t>
+          <t>Empresa de Transportes Trans-residuos</t>
         </is>
       </c>
       <c r="F159" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>01/09/2006</t>
+          <t>28/09/2006</t>
         </is>
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1643306&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1726867&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
@@ -8004,7 +8004,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES PELIGROSOS Y NO PELIGROSOS POR RUTAS INDICADAS ENTRE I y X REGION (e-seia)</t>
+          <t>Proyecto Pradera, Aumento de capacidad Planta Prolesur Osorno (e-seia)</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -8014,20 +8014,20 @@
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>GESTION INTEGRAL DE RESIDUOS GEOBARRA EXINS LTDA.</t>
+          <t>Prolesur S.A.</t>
         </is>
       </c>
       <c r="F160" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>09/08/2006</t>
+          <t>01/09/2006</t>
         </is>
       </c>
       <c r="H160" t="inlineStr">
@@ -8037,7 +8037,7 @@
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1616105&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1643306&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J160" t="inlineStr">
@@ -8052,7 +8052,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Drenaje Superficial Predio Los Nogales (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES PELIGROSOS Y NO PELIGROSOS POR RUTAS INDICADAS ENTRE I y X REGION (e-seia)</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -8062,20 +8062,20 @@
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>Edmundo Kram Toledo</t>
+          <t>GESTION INTEGRAL DE RESIDUOS GEOBARRA EXINS LTDA.</t>
         </is>
       </c>
       <c r="F161" t="n">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>31/07/2006</t>
+          <t>09/08/2006</t>
         </is>
       </c>
       <c r="H161" t="inlineStr">
@@ -8085,7 +8085,7 @@
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1601455&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1616105&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J161" t="inlineStr">
@@ -8100,7 +8100,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Sistema de Tratamiento de Residuos Industriales Líquidos de Soc. Col. y Com. Jorge y Mario Meyer Buschmann (Lácteos Mulpulmo) X Región (e-seia)</t>
+          <t>Drenaje Superficial Predio Los Nogales (e-seia)</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -8115,15 +8115,15 @@
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>Lácteos del Sur S.A.</t>
+          <t>Edmundo Kram Toledo</t>
         </is>
       </c>
       <c r="F162" t="n">
-        <v>850</v>
+        <v>87</v>
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>20/07/2006</t>
+          <t>31/07/2006</t>
         </is>
       </c>
       <c r="H162" t="inlineStr">
@@ -8133,7 +8133,7 @@
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1594850&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1601455&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J162" t="inlineStr">
@@ -8148,7 +8148,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Piscicultura Las Quemas, Río Rahue, Comuna de Osorno (e-seia)</t>
+          <t>Sistema de Tratamiento de Residuos Industriales Líquidos de Soc. Col. y Com. Jorge y Mario Meyer Buschmann (Lácteos Mulpulmo) X Región (e-seia)</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -8163,15 +8163,15 @@
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>PISCICULTURA LAS QUEMAS CHILE S.A.</t>
+          <t>Lácteos del Sur S.A.</t>
         </is>
       </c>
       <c r="F163" t="n">
-        <v>2000</v>
+        <v>850</v>
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>18/07/2006</t>
+          <t>20/07/2006</t>
         </is>
       </c>
       <c r="H163" t="inlineStr">
@@ -8181,7 +8181,7 @@
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1574723&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1594850&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J163" t="inlineStr">
@@ -8196,7 +8196,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>TransporteTerrestre de Residuos Industriales Peligrosos y No Peligrosos por Rutas Indicadas entre la I y X Región (e-seia)</t>
+          <t>Piscicultura Las Quemas, Río Rahue, Comuna de Osorno (e-seia)</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -8206,30 +8206,30 @@
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>mario enrique barra diaz</t>
+          <t>PISCICULTURA LAS QUEMAS CHILE S.A.</t>
         </is>
       </c>
       <c r="F164" t="n">
-        <v>80</v>
+        <v>2000</v>
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>22/06/2006</t>
+          <t>18/07/2006</t>
         </is>
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1508957&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1574723&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J164" t="inlineStr">
@@ -8244,7 +8244,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Transporte de Combustible (e-seia)</t>
+          <t>TransporteTerrestre de Residuos Industriales Peligrosos y No Peligrosos por Rutas Indicadas entre la I y X Región (e-seia)</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -8259,25 +8259,25 @@
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
+          <t>mario enrique barra diaz</t>
         </is>
       </c>
       <c r="F165" t="n">
-        <v>500</v>
+        <v>80</v>
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>21/04/2006</t>
+          <t>22/06/2006</t>
         </is>
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1408985&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1508957&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J165" t="inlineStr">
@@ -8292,7 +8292,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Transporte de Combustibles (e-seia)</t>
+          <t>Transporte de Combustible (e-seia)</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -8315,17 +8315,17 @@
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>31/03/2006</t>
+          <t>21/04/2006</t>
         </is>
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1408985&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J166" t="inlineStr">
@@ -8340,7 +8340,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
+          <t>Transporte de Combustibles (e-seia)</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -8355,25 +8355,25 @@
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>Francisco Javier Acuña Carter</t>
+          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
         </is>
       </c>
       <c r="F167" t="n">
-        <v>4000</v>
+        <v>500</v>
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>27/03/2006</t>
+          <t>31/03/2006</t>
         </is>
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J167" t="inlineStr">
@@ -8388,7 +8388,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -8411,17 +8411,17 @@
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>06/03/2006</t>
+          <t>27/03/2006</t>
         </is>
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J168" t="inlineStr">
@@ -8436,7 +8436,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Transporte de sustancias y residuos peligrosos (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -8451,25 +8451,25 @@
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>Iris Leiva ALbornoz Ltda.</t>
+          <t>Francisco Javier Acuña Carter</t>
         </is>
       </c>
       <c r="F169" t="n">
-        <v>0</v>
+        <v>4000</v>
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>02/03/2006</t>
+          <t>06/03/2006</t>
         </is>
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1281009&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J169" t="inlineStr">
@@ -8484,7 +8484,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>"PLANTA ELABORADORA DE PRODUCTOS LÁCTEOS, OSORNO, X REGIÓN" 0 (e-seia)</t>
+          <t>Transporte de sustancias y residuos peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -8494,30 +8494,30 @@
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>Manuel Ellies Fuenzalida</t>
+          <t>Iris Leiva ALbornoz Ltda.</t>
         </is>
       </c>
       <c r="F170" t="n">
-        <v>17950</v>
+        <v>0</v>
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>29/11/2005</t>
+          <t>02/03/2006</t>
         </is>
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1137908&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1281009&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J170" t="inlineStr">
@@ -8532,7 +8532,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE PLOMO, RESIDUOS PLOMADOS Y OTROS RESIDUOS PELIGROSOS 053562 (e-seia)</t>
+          <t>"PLANTA ELABORADORA DE PRODUCTOS LÁCTEOS, OSORNO, X REGIÓN" 0 (e-seia)</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -8542,20 +8542,20 @@
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>BATERIAS COSMOS LTDA</t>
+          <t>Manuel Ellies Fuenzalida</t>
         </is>
       </c>
       <c r="F171" t="n">
-        <v>160</v>
+        <v>17950</v>
       </c>
       <c r="G171" t="inlineStr">
         <is>
-          <t>11/11/2005</t>
+          <t>29/11/2005</t>
         </is>
       </c>
       <c r="H171" t="inlineStr">
@@ -8565,7 +8565,7 @@
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1102933&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1137908&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J171" t="inlineStr">
@@ -8580,7 +8580,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>TRANSPORTE DE PLOMO, RESIDUOS PLOMADOS Y OTROS RESIDUOS PELIGROSOS 053562 (e-seia)</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -8595,15 +8595,15 @@
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>Renzo Luis Pereira Sandoval</t>
+          <t>BATERIAS COSMOS LTDA</t>
         </is>
       </c>
       <c r="F172" t="n">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="G172" t="inlineStr">
         <is>
-          <t>08/09/2005</t>
+          <t>11/11/2005</t>
         </is>
       </c>
       <c r="H172" t="inlineStr">
@@ -8613,7 +8613,7 @@
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1102933&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J172" t="inlineStr">
@@ -8643,11 +8643,11 @@
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>Jorge Díaz Contreras</t>
+          <t>Renzo Luis Pereira Sandoval</t>
         </is>
       </c>
       <c r="F173" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="G173" t="inlineStr">
         <is>
@@ -8661,7 +8661,7 @@
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">
@@ -8676,7 +8676,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -8691,11 +8691,11 @@
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>Transportes Santa María S.A.</t>
+          <t>Jorge Díaz Contreras</t>
         </is>
       </c>
       <c r="F174" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="G174" t="inlineStr">
         <is>
@@ -8709,7 +8709,7 @@
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J174" t="inlineStr">
@@ -8724,7 +8724,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Conjunto Habitacional Sector Lololhue, Comuna de osorno (e-seia)</t>
+          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -8734,20 +8734,20 @@
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>SERVICIO DE VIVIENDA Y URBANISMO X REGION</t>
+          <t>Transportes Santa María S.A.</t>
         </is>
       </c>
       <c r="F175" t="n">
-        <v>20000</v>
+        <v>200</v>
       </c>
       <c r="G175" t="inlineStr">
         <is>
-          <t>19/07/2005</t>
+          <t>08/09/2005</t>
         </is>
       </c>
       <c r="H175" t="inlineStr">
@@ -8757,7 +8757,7 @@
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=951284&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
@@ -8772,7 +8772,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Ampliación Pozo de Aridos Hadida Ampliación Pozo de Arido Hadida (e-seia)</t>
+          <t>Conjunto Habitacional Sector Lololhue, Comuna de osorno (e-seia)</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -8787,15 +8787,15 @@
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>Edgar Walter Hadida Schmid</t>
+          <t>SERVICIO DE VIVIENDA Y URBANISMO X REGION</t>
         </is>
       </c>
       <c r="F176" t="n">
-        <v>1</v>
+        <v>20000</v>
       </c>
       <c r="G176" t="inlineStr">
         <is>
-          <t>08/06/2005</t>
+          <t>19/07/2005</t>
         </is>
       </c>
       <c r="H176" t="inlineStr">
@@ -8805,7 +8805,7 @@
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=879261&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=951284&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J176" t="inlineStr">
@@ -8820,7 +8820,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Modificación Sistema de Tratamiento de Residuos MAtadero frigorífico del Sur S.A. Sistema de Tratamiento Matadero Frigorifico Osorno (e-seia)</t>
+          <t>Ampliación Pozo de Aridos Hadida Ampliación Pozo de Arido Hadida (e-seia)</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -8835,11 +8835,11 @@
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>Matadero Frigorífico del Sur S.A.</t>
+          <t>Edgar Walter Hadida Schmid</t>
         </is>
       </c>
       <c r="F177" t="n">
-        <v>862</v>
+        <v>1</v>
       </c>
       <c r="G177" t="inlineStr">
         <is>
@@ -8853,7 +8853,7 @@
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=883177&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=879261&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J177" t="inlineStr">
@@ -8868,7 +8868,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Transporte terrestre de sustancias químicas (e-seia)</t>
+          <t>Modificación Sistema de Tratamiento de Residuos MAtadero frigorífico del Sur S.A. Sistema de Tratamiento Matadero Frigorifico Osorno (e-seia)</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -8878,20 +8878,20 @@
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>Inmobiliaria e inversiones Polykarpo S.A.</t>
+          <t>Matadero Frigorífico del Sur S.A.</t>
         </is>
       </c>
       <c r="F178" t="n">
-        <v>200</v>
+        <v>862</v>
       </c>
       <c r="G178" t="inlineStr">
         <is>
-          <t>05/05/2005</t>
+          <t>08/06/2005</t>
         </is>
       </c>
       <c r="H178" t="inlineStr">
@@ -8901,7 +8901,7 @@
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=664436&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=883177&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J178" t="inlineStr">
@@ -8939,17 +8939,17 @@
       </c>
       <c r="G179" t="inlineStr">
         <is>
-          <t>09/03/2005</t>
+          <t>05/05/2005</t>
         </is>
       </c>
       <c r="H179" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=614117&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=664436&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J179" t="inlineStr">
@@ -8964,7 +8964,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Modificación Plan Regulador de Osorno. (e-seia)</t>
+          <t>Transporte terrestre de sustancias químicas (e-seia)</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -8974,30 +8974,30 @@
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Osorno</t>
+          <t>Inmobiliaria e inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F180" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G180" t="inlineStr">
         <is>
-          <t>06/01/2005</t>
+          <t>09/03/2005</t>
         </is>
       </c>
       <c r="H180" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=561189&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=614117&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J180" t="inlineStr">
@@ -9012,7 +9012,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Transporte terrestre de residuos industriales y productos asimilables por caminos que se indican de la I a la X Región (e-seia)</t>
+          <t>Modificación Plan Regulador de Osorno. (e-seia)</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -9022,20 +9022,20 @@
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>Empresa de Transportes Los Ríos S.A.</t>
+          <t>Ilustre Municipalidad de Osorno</t>
         </is>
       </c>
       <c r="F181" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G181" t="inlineStr">
         <is>
-          <t>08/11/2004</t>
+          <t>06/01/2005</t>
         </is>
       </c>
       <c r="H181" t="inlineStr">
@@ -9045,7 +9045,7 @@
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=502823&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=561189&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J181" t="inlineStr">
@@ -9060,7 +9060,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Drenaje Predio Polloico (e-seia)</t>
+          <t>Transporte terrestre de residuos industriales y productos asimilables por caminos que se indican de la I a la X Región (e-seia)</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -9070,30 +9070,30 @@
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>Alfonso Guillermo Besser Hayler</t>
+          <t>Empresa de Transportes Los Ríos S.A.</t>
         </is>
       </c>
       <c r="F182" t="n">
-        <v>44</v>
+        <v>1</v>
       </c>
       <c r="G182" t="inlineStr">
         <is>
-          <t>20/10/2004</t>
+          <t>08/11/2004</t>
         </is>
       </c>
       <c r="H182" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=487555&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=502823&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J182" t="inlineStr">
@@ -9108,7 +9108,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>DRENAJE COMUNITARIO PREDIOS SANTA CARMEN (e-seia)</t>
+          <t>Drenaje Predio Polloico (e-seia)</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -9123,25 +9123,25 @@
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>comunidad obras de drenaje santa carmen</t>
+          <t>Alfonso Guillermo Besser Hayler</t>
         </is>
       </c>
       <c r="F183" t="n">
-        <v>162</v>
+        <v>44</v>
       </c>
       <c r="G183" t="inlineStr">
         <is>
-          <t>04/10/2004</t>
+          <t>20/10/2004</t>
         </is>
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=472491&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=487555&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J183" t="inlineStr">
@@ -9156,7 +9156,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Drenaje Predio Polloico (e-seia)</t>
+          <t>DRENAJE COMUNITARIO PREDIOS SANTA CARMEN (e-seia)</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -9171,11 +9171,11 @@
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>Alfonso Guillermo Besser Hayler</t>
+          <t>comunidad obras de drenaje santa carmen</t>
         </is>
       </c>
       <c r="F184" t="n">
-        <v>44</v>
+        <v>162</v>
       </c>
       <c r="G184" t="inlineStr">
         <is>
@@ -9184,12 +9184,12 @@
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=472796&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=472491&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J184" t="inlineStr">
@@ -9204,7 +9204,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Transporte Rodoviario de Cloro en y entre las Regiones II y X (e-seia)</t>
+          <t>Drenaje Predio Polloico (e-seia)</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -9214,30 +9214,30 @@
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>Occidental Chemical Chile Limitada</t>
+          <t>Alfonso Guillermo Besser Hayler</t>
         </is>
       </c>
       <c r="F185" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="G185" t="inlineStr">
         <is>
-          <t>09/08/2004</t>
+          <t>04/10/2004</t>
         </is>
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=415850&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=472796&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J185" t="inlineStr">
@@ -9252,7 +9252,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>SISTEMA DE DEPURACIÓN Y NEUTRALIZACIÓN DE RESIDUOS INDUSTRIALES LÍQUIDOS, DECLARACIÓN DE IMPACTO AMBIENTAL (e-seia)</t>
+          <t>Transporte Rodoviario de Cloro en y entre las Regiones II y X (e-seia)</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -9262,20 +9262,20 @@
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>Prolesur S.A.</t>
+          <t>Occidental Chemical Chile Limitada</t>
         </is>
       </c>
       <c r="F186" t="n">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="G186" t="inlineStr">
         <is>
-          <t>02/08/2004</t>
+          <t>09/08/2004</t>
         </is>
       </c>
       <c r="H186" t="inlineStr">
@@ -9285,7 +9285,7 @@
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=408507&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=415850&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J186" t="inlineStr">
@@ -9300,7 +9300,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>PLAN REGIONAL DE DESARROLLO URBANO (e-seia)</t>
+          <t>SISTEMA DE DEPURACIÓN Y NEUTRALIZACIÓN DE RESIDUOS INDUSTRIALES LÍQUIDOS, DECLARACIÓN DE IMPACTO AMBIENTAL (e-seia)</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -9310,20 +9310,20 @@
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>Decimocuarta</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>SEREMI DE VIVIENDA Y URBANISMO X REGIÓN DE LOS LAGOS</t>
+          <t>Prolesur S.A.</t>
         </is>
       </c>
       <c r="F187" t="n">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="G187" t="inlineStr">
         <is>
-          <t>01/07/2004</t>
+          <t>02/08/2004</t>
         </is>
       </c>
       <c r="H187" t="inlineStr">
@@ -9333,7 +9333,7 @@
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=389944&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=408507&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J187" t="inlineStr">
@@ -9348,7 +9348,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Transporte de Plaguicidas y Artefactos Contaminados o que Contienen Bifenilospoliclorados (PCB) (e-seia)</t>
+          <t>PLAN REGIONAL DE DESARROLLO URBANO (e-seia)</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
@@ -9358,20 +9358,20 @@
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Decimocuarta</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>Bravo Energy Chile S.A.</t>
+          <t>SEREMI DE VIVIENDA Y URBANISMO X REGIÓN DE LOS LAGOS</t>
         </is>
       </c>
       <c r="F188" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G188" t="inlineStr">
         <is>
-          <t>21/06/2004</t>
+          <t>01/07/2004</t>
         </is>
       </c>
       <c r="H188" t="inlineStr">
@@ -9381,7 +9381,7 @@
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=377075&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=389944&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J188" t="inlineStr">
@@ -9396,7 +9396,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>"PROYECTO MATADERO FRIGORÍFICO DEL SUR S.A., (e-seia)</t>
+          <t>Transporte de Plaguicidas y Artefactos Contaminados o que Contienen Bifenilospoliclorados (PCB) (e-seia)</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
@@ -9406,20 +9406,20 @@
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>Eduardo Arturo Epple Held</t>
+          <t>Bravo Energy Chile S.A.</t>
         </is>
       </c>
       <c r="F189" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G189" t="inlineStr">
         <is>
-          <t>04/06/2004</t>
+          <t>21/06/2004</t>
         </is>
       </c>
       <c r="H189" t="inlineStr">
@@ -9429,7 +9429,7 @@
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=372111&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=377075&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J189" t="inlineStr">
@@ -9444,7 +9444,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Relocalización del Colegio Francés de Osorno (e-seia)</t>
+          <t>"PROYECTO MATADERO FRIGORÍFICO DEL SUR S.A., (e-seia)</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -9459,15 +9459,15 @@
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>Sociedad Educacional Francesa de Osorno S.A.</t>
+          <t>Eduardo Arturo Epple Held</t>
         </is>
       </c>
       <c r="F190" t="n">
-        <v>2329</v>
+        <v>0</v>
       </c>
       <c r="G190" t="inlineStr">
         <is>
-          <t>03/06/2004</t>
+          <t>04/06/2004</t>
         </is>
       </c>
       <c r="H190" t="inlineStr">
@@ -9477,7 +9477,7 @@
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=371821&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=372111&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J190" t="inlineStr">
@@ -9492,7 +9492,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Piscicultura Santa Juana (pert 202101089) (e-seia)</t>
+          <t>Relocalización del Colegio Francés de Osorno (e-seia)</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
@@ -9507,15 +9507,15 @@
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>Cermaq Chile S.A.</t>
+          <t>Sociedad Educacional Francesa de Osorno S.A.</t>
         </is>
       </c>
       <c r="F191" t="n">
-        <v>1500</v>
+        <v>2329</v>
       </c>
       <c r="G191" t="inlineStr">
         <is>
-          <t>30/04/2004</t>
+          <t>03/06/2004</t>
         </is>
       </c>
       <c r="H191" t="inlineStr">
@@ -9525,7 +9525,7 @@
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=325576&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=371821&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J191" t="inlineStr">
@@ -9540,7 +9540,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>Transporte de Plaguicidas y Artefactos Contaminados o que Contienen Bifenilospoliclorados (PCB) (e-seia)</t>
+          <t>Piscicultura Santa Juana (pert 202101089) (e-seia)</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
@@ -9550,16 +9550,16 @@
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>Bravo Energy Chile S.A.</t>
+          <t>Cermaq Chile S.A.</t>
         </is>
       </c>
       <c r="F192" t="n">
-        <v>200</v>
+        <v>1500</v>
       </c>
       <c r="G192" t="inlineStr">
         <is>
@@ -9568,12 +9568,12 @@
       </c>
       <c r="H192" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=339300&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=325576&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J192" t="inlineStr">
@@ -9588,7 +9588,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>Sistema de Tratamiento de Residuos Industriales Líquidos para la Planta Loncoleche Osorno. (e-seia)</t>
+          <t>Transporte de Plaguicidas y Artefactos Contaminados o que Contienen Bifenilospoliclorados (PCB) (e-seia)</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
@@ -9598,30 +9598,30 @@
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>Watt`s Alimentos S.A.</t>
+          <t>Bravo Energy Chile S.A.</t>
         </is>
       </c>
       <c r="F193" t="n">
-        <v>430</v>
+        <v>200</v>
       </c>
       <c r="G193" t="inlineStr">
         <is>
-          <t>12/02/2004</t>
+          <t>30/04/2004</t>
         </is>
       </c>
       <c r="H193" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I193" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=265302&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=339300&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J193" t="inlineStr">
@@ -9636,7 +9636,7 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>Modificación Nº 01/2003 Plan Regulador Osorno (e-seia)</t>
+          <t>Sistema de Tratamiento de Residuos Industriales Líquidos para la Planta Loncoleche Osorno. (e-seia)</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
@@ -9651,15 +9651,15 @@
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Osorno</t>
+          <t>Watt`s Alimentos S.A.</t>
         </is>
       </c>
       <c r="F194" t="n">
-        <v>0</v>
+        <v>430</v>
       </c>
       <c r="G194" t="inlineStr">
         <is>
-          <t>19/12/2003</t>
+          <t>12/02/2004</t>
         </is>
       </c>
       <c r="H194" t="inlineStr">
@@ -9669,7 +9669,7 @@
       </c>
       <c r="I194" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=228596&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=265302&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J194" t="inlineStr">
@@ -9684,7 +9684,7 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>Proyecto Canopy Aguas Calientes (e-seia)</t>
+          <t>Modificación Nº 01/2003 Plan Regulador Osorno (e-seia)</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
@@ -9699,15 +9699,15 @@
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>Turismo y Cabañas Aguas Calientes Ltda.</t>
+          <t>Ilustre Municipalidad de Osorno</t>
         </is>
       </c>
       <c r="F195" t="n">
-        <v>97</v>
+        <v>0</v>
       </c>
       <c r="G195" t="inlineStr">
         <is>
-          <t>10/12/2003</t>
+          <t>19/12/2003</t>
         </is>
       </c>
       <c r="H195" t="inlineStr">
@@ -9717,7 +9717,7 @@
       </c>
       <c r="I195" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=220766&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=228596&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J195" t="inlineStr">
@@ -9732,7 +9732,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>Proyecto Matadero Frigorífico del Sur S.A. (e-seia)</t>
+          <t>Proyecto Canopy Aguas Calientes (e-seia)</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
@@ -9747,25 +9747,25 @@
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>Matadero Frigorífico del Sur S.A.</t>
+          <t>Turismo y Cabañas Aguas Calientes Ltda.</t>
         </is>
       </c>
       <c r="F196" t="n">
-        <v>1000</v>
+        <v>97</v>
       </c>
       <c r="G196" t="inlineStr">
         <is>
-          <t>20/11/2003</t>
+          <t>10/12/2003</t>
         </is>
       </c>
       <c r="H196" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I196" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=203759&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=220766&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J196" t="inlineStr">
@@ -9780,7 +9780,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>SISTEMA DE TRATAMIENTO DE RILES, PROLESUR S.A., OSORNO (e-seia)</t>
+          <t>Proyecto Matadero Frigorífico del Sur S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
@@ -9795,15 +9795,15 @@
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>PROLESUR S.A.</t>
+          <t>Matadero Frigorífico del Sur S.A.</t>
         </is>
       </c>
       <c r="F197" t="n">
-        <v>142</v>
+        <v>1000</v>
       </c>
       <c r="G197" t="inlineStr">
         <is>
-          <t>14/10/2003</t>
+          <t>20/11/2003</t>
         </is>
       </c>
       <c r="H197" t="inlineStr">
@@ -9813,7 +9813,7 @@
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=159306&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=203759&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J197" t="inlineStr">
@@ -9828,7 +9828,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales por las Rutas indicadas (e-seia)</t>
+          <t>SISTEMA DE TRATAMIENTO DE RILES, PROLESUR S.A., OSORNO (e-seia)</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
@@ -9838,30 +9838,30 @@
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>ECOSUR S.A.</t>
+          <t>PROLESUR S.A.</t>
         </is>
       </c>
       <c r="F198" t="n">
-        <v>200</v>
+        <v>142</v>
       </c>
       <c r="G198" t="inlineStr">
         <is>
-          <t>09/09/2003</t>
+          <t>14/10/2003</t>
         </is>
       </c>
       <c r="H198" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=135650&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=159306&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J198" t="inlineStr">
@@ -9876,7 +9876,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>Conjunto Habitacional Sector Jardín del Alto, Osorno (e-seia)</t>
+          <t>Transporte de Residuos Industriales por las Rutas indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
@@ -9886,30 +9886,30 @@
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>Inmobiliaria Fourcade S.A.</t>
+          <t>ECOSUR S.A.</t>
         </is>
       </c>
       <c r="F199" t="n">
-        <v>40000</v>
+        <v>200</v>
       </c>
       <c r="G199" t="inlineStr">
         <is>
-          <t>27/08/2003</t>
+          <t>09/09/2003</t>
         </is>
       </c>
       <c r="H199" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I199" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=135673&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=135650&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J199" t="inlineStr">
@@ -9924,7 +9924,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>Sistema de Tratamiento de Riles Planta Productora de Cecinas (e-seia)</t>
+          <t>Conjunto Habitacional Sector Jardín del Alto, Osorno (e-seia)</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
@@ -9939,25 +9939,25 @@
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>Sociedad Cecinera del Sur Ltda.</t>
+          <t>Inmobiliaria Fourcade S.A.</t>
         </is>
       </c>
       <c r="F200" t="n">
-        <v>170</v>
+        <v>40000</v>
       </c>
       <c r="G200" t="inlineStr">
         <is>
-          <t>14/07/2003</t>
+          <t>27/08/2003</t>
         </is>
       </c>
       <c r="H200" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I200" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=111634&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=135673&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J200" t="inlineStr">
@@ -9972,7 +9972,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>Conjunto Habitacional Sector Jardín del Alto, Comuna de Osorno (e-seia)</t>
+          <t>Sistema de Tratamiento de Riles Planta Productora de Cecinas (e-seia)</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
@@ -9987,25 +9987,25 @@
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>Inmobiliaria Fourcade S.A.</t>
+          <t>Sociedad Cecinera del Sur Ltda.</t>
         </is>
       </c>
       <c r="F201" t="n">
-        <v>40000</v>
+        <v>170</v>
       </c>
       <c r="G201" t="inlineStr">
         <is>
-          <t>18/06/2003</t>
+          <t>14/07/2003</t>
         </is>
       </c>
       <c r="H201" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I201" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=100119&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=111634&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J201" t="inlineStr">
@@ -10020,7 +10020,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>Construcción y Operación Subestación Eléctrica Aihuapi (e-seia)</t>
+          <t>Conjunto Habitacional Sector Jardín del Alto, Comuna de Osorno (e-seia)</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
@@ -10035,25 +10035,25 @@
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>Sistema de Transmisión del Sur S.A.</t>
+          <t>Inmobiliaria Fourcade S.A.</t>
         </is>
       </c>
       <c r="F202" t="n">
-        <v>350</v>
+        <v>40000</v>
       </c>
       <c r="G202" t="inlineStr">
         <is>
-          <t>24/01/2003</t>
+          <t>18/06/2003</t>
         </is>
       </c>
       <c r="H202" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I202" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=45978&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=100119&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J202" t="inlineStr">
@@ -10068,7 +10068,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>Ampliacion Segunda Etapa Construccion de 300 Viviendas Sociales, Sector La misión Comuna de Osorno (e-seia)</t>
+          <t>Construcción y Operación Subestación Eléctrica Aihuapi (e-seia)</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
@@ -10083,15 +10083,15 @@
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>SERVICIO DE VIVIENDA Y URBANIZACION X REGION</t>
+          <t>Sistema de Transmisión del Sur S.A.</t>
         </is>
       </c>
       <c r="F203" t="n">
-        <v>914</v>
+        <v>350</v>
       </c>
       <c r="G203" t="inlineStr">
         <is>
-          <t>13/09/2002</t>
+          <t>24/01/2003</t>
         </is>
       </c>
       <c r="H203" t="inlineStr">
@@ -10101,7 +10101,7 @@
       </c>
       <c r="I203" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=29920&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=45978&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J203" t="inlineStr">
@@ -10116,7 +10116,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>Sistema de Tratamiento de Residuos Industriales Líquidos para la Planta de Empresa Frigorifico de Osorno S.A.</t>
+          <t>Ampliacion Segunda Etapa Construccion de 300 Viviendas Sociales, Sector La misión Comuna de Osorno (e-seia)</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
@@ -10131,15 +10131,15 @@
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>Frigorífico de Osorno S.A.</t>
+          <t>SERVICIO DE VIVIENDA Y URBANIZACION X REGION</t>
         </is>
       </c>
       <c r="F204" t="n">
-        <v>199</v>
+        <v>914</v>
       </c>
       <c r="G204" t="inlineStr">
         <is>
-          <t>16/08/2002</t>
+          <t>13/09/2002</t>
         </is>
       </c>
       <c r="H204" t="inlineStr">
@@ -10149,7 +10149,7 @@
       </c>
       <c r="I204" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5762&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=29920&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J204" t="inlineStr">
@@ -10164,7 +10164,7 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>Estudio y Diseño de Servicio Público de Alcantarillado y Planta de Tratamiento de Aguas Servidas sin Generación de Lodos para la Localidad de Cancura</t>
+          <t>Sistema de Tratamiento de Residuos Industriales Líquidos para la Planta de Empresa Frigorifico de Osorno S.A.</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
@@ -10179,15 +10179,15 @@
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Osorno</t>
+          <t>Frigorífico de Osorno S.A.</t>
         </is>
       </c>
       <c r="F205" t="n">
-        <v>0</v>
+        <v>199</v>
       </c>
       <c r="G205" t="inlineStr">
         <is>
-          <t>24/05/2002</t>
+          <t>16/08/2002</t>
         </is>
       </c>
       <c r="H205" t="inlineStr">
@@ -10197,7 +10197,7 @@
       </c>
       <c r="I205" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5471&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5762&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J205" t="inlineStr">
@@ -10212,7 +10212,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Salmonídeos Piscicultura Puchaura Río Rahue ( Solicitud N° 201101106)</t>
+          <t>Estudio y Diseño de Servicio Público de Alcantarillado y Planta de Tratamiento de Aguas Servidas sin Generación de Lodos para la Localidad de Cancura</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
@@ -10227,15 +10227,15 @@
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>Luis Alberto Ellwanger Willer</t>
+          <t>Ilustre Municipalidad de Osorno</t>
         </is>
       </c>
       <c r="F206" t="n">
-        <v>2500</v>
+        <v>0</v>
       </c>
       <c r="G206" t="inlineStr">
         <is>
-          <t>15/03/2002</t>
+          <t>24/05/2002</t>
         </is>
       </c>
       <c r="H206" t="inlineStr">
@@ -10245,7 +10245,7 @@
       </c>
       <c r="I206" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5273&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5471&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J206" t="inlineStr">
@@ -10260,7 +10260,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>Construcción del Liceo Technos Osorno</t>
+          <t>Centro de Cultivo de Salmonídeos Piscicultura Puchaura Río Rahue ( Solicitud N° 201101106)</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
@@ -10275,25 +10275,25 @@
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>Sociedad Educacional Technos Ltda.</t>
+          <t>Luis Alberto Ellwanger Willer</t>
         </is>
       </c>
       <c r="F207" t="n">
-        <v>1490</v>
+        <v>2500</v>
       </c>
       <c r="G207" t="inlineStr">
         <is>
-          <t>04/03/2002</t>
+          <t>15/03/2002</t>
         </is>
       </c>
       <c r="H207" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I207" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5196&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5273&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J207" t="inlineStr">
@@ -10308,7 +10308,7 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>Transporte de Gas Propano desde Argentina a Temuco - Chile IX - X Región</t>
+          <t>Construcción del Liceo Technos Osorno</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
@@ -10318,30 +10318,30 @@
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>Ecogas S.A.</t>
+          <t>Sociedad Educacional Technos Ltda.</t>
         </is>
       </c>
       <c r="F208" t="n">
-        <v>10000</v>
+        <v>1490</v>
       </c>
       <c r="G208" t="inlineStr">
         <is>
-          <t>12/10/2001</t>
+          <t>04/03/2002</t>
         </is>
       </c>
       <c r="H208" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I208" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4598&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5196&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J208" t="inlineStr">
@@ -10356,7 +10356,7 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales</t>
+          <t>Transporte de Gas Propano desde Argentina a Temuco - Chile IX - X Región</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
@@ -10371,25 +10371,25 @@
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>ECOSUR S.A.</t>
+          <t>Ecogas S.A.</t>
         </is>
       </c>
       <c r="F209" t="n">
-        <v>200</v>
+        <v>10000</v>
       </c>
       <c r="G209" t="inlineStr">
         <is>
-          <t>25/09/2001</t>
+          <t>12/10/2001</t>
         </is>
       </c>
       <c r="H209" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I209" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4591&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4598&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J209" t="inlineStr">
@@ -10404,7 +10404,7 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>Complejo de Cabañas Turisticas Sector Las Quemas Comuna de Osorno</t>
+          <t>Transporte de Residuos Industriales</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
@@ -10414,30 +10414,30 @@
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>Gunther Juan Weis Kusch</t>
+          <t>ECOSUR S.A.</t>
         </is>
       </c>
       <c r="F210" t="n">
-        <v>20</v>
+        <v>200</v>
       </c>
       <c r="G210" t="inlineStr">
         <is>
-          <t>12/09/2001</t>
+          <t>25/09/2001</t>
         </is>
       </c>
       <c r="H210" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I210" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4412&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4591&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J210" t="inlineStr">
@@ -10452,7 +10452,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>Construcción de 406 Viviendas Sociales Sector La Misión Comuna de Osorno</t>
+          <t>Complejo de Cabañas Turisticas Sector Las Quemas Comuna de Osorno</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
@@ -10467,25 +10467,25 @@
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>SERVICIO DE VIVIENDA Y URBANIZACION X REGION</t>
+          <t>Gunther Juan Weis Kusch</t>
         </is>
       </c>
       <c r="F211" t="n">
-        <v>2130</v>
+        <v>20</v>
       </c>
       <c r="G211" t="inlineStr">
         <is>
-          <t>14/08/2001</t>
+          <t>12/09/2001</t>
         </is>
       </c>
       <c r="H211" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I211" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4277&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4412&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J211" t="inlineStr">
@@ -10500,7 +10500,7 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>Modificación Plan Regulador Comunal de Osorno Sector Instituto Profesional Agrario Adolfo Matthei</t>
+          <t>Construcción de 406 Viviendas Sociales Sector La Misión Comuna de Osorno</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
@@ -10515,15 +10515,15 @@
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Osorno</t>
+          <t>SERVICIO DE VIVIENDA Y URBANIZACION X REGION</t>
         </is>
       </c>
       <c r="F212" t="n">
-        <v>0</v>
+        <v>2130</v>
       </c>
       <c r="G212" t="inlineStr">
         <is>
-          <t>14/05/2001</t>
+          <t>14/08/2001</t>
         </is>
       </c>
       <c r="H212" t="inlineStr">
@@ -10533,7 +10533,7 @@
       </c>
       <c r="I212" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3898&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4277&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J212" t="inlineStr">
@@ -10548,7 +10548,7 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento y Red de Aguas Servidas para Loteo Polloico</t>
+          <t>Modificación Plan Regulador Comunal de Osorno Sector Instituto Profesional Agrario Adolfo Matthei</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
@@ -10563,25 +10563,25 @@
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>Comité Habitacional Polloico</t>
+          <t>Ilustre Municipalidad de Osorno</t>
         </is>
       </c>
       <c r="F213" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="G213" t="inlineStr">
         <is>
-          <t>07/05/2001</t>
+          <t>14/05/2001</t>
         </is>
       </c>
       <c r="H213" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I213" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3891&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3898&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J213" t="inlineStr">
@@ -10596,7 +10596,7 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>Tratamiento y Disposición Final de Las Aguas Servidas de Osorno (Segunda Presentación)</t>
+          <t>Planta de Tratamiento y Red de Aguas Servidas para Loteo Polloico</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
@@ -10611,25 +10611,25 @@
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>Empresa de Servicios Sanitarios de los Lagos ESSAL</t>
+          <t>Comité Habitacional Polloico</t>
         </is>
       </c>
       <c r="F214" t="n">
-        <v>11360</v>
+        <v>30</v>
       </c>
       <c r="G214" t="inlineStr">
         <is>
-          <t>24/01/2001</t>
+          <t>07/05/2001</t>
         </is>
       </c>
       <c r="H214" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I214" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3582&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3891&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J214" t="inlineStr">
@@ -10644,7 +10644,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>Restaurant Los Hornitos</t>
+          <t>Tratamiento y Disposición Final de Las Aguas Servidas de Osorno (Segunda Presentación)</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
@@ -10659,15 +10659,15 @@
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>Juana del Carmen Llanos Mora</t>
+          <t>Empresa de Servicios Sanitarios de los Lagos ESSAL</t>
         </is>
       </c>
       <c r="F215" t="n">
-        <v>10</v>
+        <v>11360</v>
       </c>
       <c r="G215" t="inlineStr">
         <is>
-          <t>08/11/2000</t>
+          <t>24/01/2001</t>
         </is>
       </c>
       <c r="H215" t="inlineStr">
@@ -10677,7 +10677,7 @@
       </c>
       <c r="I215" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3348&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3582&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J215" t="inlineStr">
@@ -10692,7 +10692,7 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>Ampliación Pozo de Aridos Hadida</t>
+          <t>Restaurant Los Hornitos</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
@@ -10707,15 +10707,15 @@
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>Hedgard Hadida</t>
+          <t>Juana del Carmen Llanos Mora</t>
         </is>
       </c>
       <c r="F216" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="G216" t="inlineStr">
         <is>
-          <t>03/11/2000</t>
+          <t>08/11/2000</t>
         </is>
       </c>
       <c r="H216" t="inlineStr">
@@ -10725,7 +10725,7 @@
       </c>
       <c r="I216" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3349&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3348&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J216" t="inlineStr">
@@ -10740,7 +10740,7 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>Estación de Servicio ESSO Km 915 Ruta 5 Sur Pilauco Osorno</t>
+          <t>Ampliación Pozo de Aridos Hadida</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
@@ -10755,15 +10755,15 @@
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>Esmax Distribución SpA</t>
+          <t>Hedgard Hadida</t>
         </is>
       </c>
       <c r="F217" t="n">
-        <v>1100</v>
+        <v>100</v>
       </c>
       <c r="G217" t="inlineStr">
         <is>
-          <t>05/07/2000</t>
+          <t>03/11/2000</t>
         </is>
       </c>
       <c r="H217" t="inlineStr">
@@ -10773,7 +10773,7 @@
       </c>
       <c r="I217" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3005&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3349&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J217" t="inlineStr">
@@ -10788,7 +10788,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>Transporte de Artefactos y/o Materiales Contaminados o que contienen Bifenilospoliclorados (BPC) o Terfenilospoliclorados</t>
+          <t>Estación de Servicio ESSO Km 915 Ruta 5 Sur Pilauco Osorno</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
@@ -10798,20 +10798,20 @@
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>Compañía de Desarrollo Minero Industrial CHIHOL Ltda.</t>
+          <t>Esmax Distribución SpA</t>
         </is>
       </c>
       <c r="F218" t="n">
-        <v>110</v>
+        <v>1100</v>
       </c>
       <c r="G218" t="inlineStr">
         <is>
-          <t>14/02/2000</t>
+          <t>05/07/2000</t>
         </is>
       </c>
       <c r="H218" t="inlineStr">
@@ -10821,7 +10821,7 @@
       </c>
       <c r="I218" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2686&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3005&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J218" t="inlineStr">
@@ -10836,40 +10836,40 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>Almacenamiento y Vaporación de Gas Propano Líquido e Implementación de un Sistema de Distribución por Red de Gas Propano Vaporizado en la Ciudad de Osorno</t>
+          <t>Transporte de Artefactos y/o Materiales Contaminados o que contienen Bifenilospoliclorados (BPC) o Terfenilospoliclorados</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>Temucgas S.A.</t>
+          <t>Compañía de Desarrollo Minero Industrial CHIHOL Ltda.</t>
         </is>
       </c>
       <c r="F219" t="n">
-        <v>2070</v>
+        <v>110</v>
       </c>
       <c r="G219" t="inlineStr">
         <is>
-          <t>28/12/1999</t>
+          <t>14/02/2000</t>
         </is>
       </c>
       <c r="H219" t="inlineStr">
         <is>
-          <t>Abandonado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I219" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2560&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2686&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J219" t="inlineStr">
@@ -10884,12 +10884,12 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>Sistema de Depuración y Neutralización de Residuos Industriales Líquidos (Frigosor S.A.)</t>
+          <t>Almacenamiento y Vaporación de Gas Propano Líquido e Implementación de un Sistema de Distribución por Red de Gas Propano Vaporizado en la Ciudad de Osorno</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D220" t="inlineStr">
@@ -10899,25 +10899,25 @@
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>Frigorífico de Osorno S.A.</t>
+          <t>Temucgas S.A.</t>
         </is>
       </c>
       <c r="F220" t="n">
-        <v>200</v>
+        <v>2070</v>
       </c>
       <c r="G220" t="inlineStr">
         <is>
-          <t>26/11/1999</t>
+          <t>28/12/1999</t>
         </is>
       </c>
       <c r="H220" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Abandonado</t>
         </is>
       </c>
       <c r="I220" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2466&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2560&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J220" t="inlineStr">
@@ -10932,7 +10932,7 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>Hotel Cabañas El Faro ( Segunda Presentación )</t>
+          <t>Sistema de Depuración y Neutralización de Residuos Industriales Líquidos (Frigosor S.A.)</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
@@ -10947,15 +10947,15 @@
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>Inmobiliaria Paradice Ltda.</t>
+          <t>Frigorífico de Osorno S.A.</t>
         </is>
       </c>
       <c r="F221" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="G221" t="inlineStr">
         <is>
-          <t>30/07/1999</t>
+          <t>26/11/1999</t>
         </is>
       </c>
       <c r="H221" t="inlineStr">
@@ -10965,7 +10965,7 @@
       </c>
       <c r="I221" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2136&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2466&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J221" t="inlineStr">
@@ -10980,7 +10980,7 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>Proyecto Servicio Público de Alcantarillado de Aguas Servidas de la Localidad de Cancura</t>
+          <t>Hotel Cabañas El Faro ( Segunda Presentación )</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
@@ -10995,25 +10995,25 @@
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Osorno</t>
+          <t>Inmobiliaria Paradice Ltda.</t>
         </is>
       </c>
       <c r="F222" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G222" t="inlineStr">
         <is>
-          <t>19/05/1999</t>
+          <t>30/07/1999</t>
         </is>
       </c>
       <c r="H222" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I222" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1973&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2136&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J222" t="inlineStr">
@@ -11028,7 +11028,7 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>Tratamiento y Disposición Final de Aguas Servidas de Osorno</t>
+          <t>Proyecto Servicio Público de Alcantarillado de Aguas Servidas de la Localidad de Cancura</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
@@ -11043,15 +11043,15 @@
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>Empresa de Servicios Sanitarios de los Lagos ESSAL</t>
+          <t>Ilustre Municipalidad de Osorno</t>
         </is>
       </c>
       <c r="F223" t="n">
-        <v>11400</v>
+        <v>250</v>
       </c>
       <c r="G223" t="inlineStr">
         <is>
-          <t>05/04/1999</t>
+          <t>19/05/1999</t>
         </is>
       </c>
       <c r="H223" t="inlineStr">
@@ -11061,7 +11061,7 @@
       </c>
       <c r="I223" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1841&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1973&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J223" t="inlineStr">
@@ -11076,7 +11076,7 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>Hotel Cabañas El Faro</t>
+          <t>Tratamiento y Disposición Final de Aguas Servidas de Osorno</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
@@ -11091,25 +11091,25 @@
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>Inmobiliaria Paradice Ltda.</t>
+          <t>Empresa de Servicios Sanitarios de los Lagos ESSAL</t>
         </is>
       </c>
       <c r="F224" t="n">
-        <v>150</v>
+        <v>11400</v>
       </c>
       <c r="G224" t="inlineStr">
         <is>
-          <t>05/03/1999</t>
+          <t>05/04/1999</t>
         </is>
       </c>
       <c r="H224" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I224" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1759&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1841&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J224" t="inlineStr">
@@ -11124,7 +11124,7 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>Ampliación Planta Osorno Abastecedora de Combustible S.A.</t>
+          <t>Hotel Cabañas El Faro</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
@@ -11139,15 +11139,15 @@
       </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t>Abastecedora de Combustibles S.A.</t>
+          <t>Inmobiliaria Paradice Ltda.</t>
         </is>
       </c>
       <c r="F225" t="n">
-        <v>220</v>
+        <v>150</v>
       </c>
       <c r="G225" t="inlineStr">
         <is>
-          <t>24/11/1998</t>
+          <t>05/03/1999</t>
         </is>
       </c>
       <c r="H225" t="inlineStr">
@@ -11157,7 +11157,7 @@
       </c>
       <c r="I225" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1809&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1759&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J225" t="inlineStr">
@@ -11172,7 +11172,7 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>Empréstito Cañal Bajo</t>
+          <t>Ampliación Planta Osorno Abastecedora de Combustible S.A.</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
@@ -11187,25 +11187,25 @@
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>Concesión de Los Lagos S. A.</t>
+          <t>Abastecedora de Combustibles S.A.</t>
         </is>
       </c>
       <c r="F226" t="n">
-        <v>560</v>
+        <v>220</v>
       </c>
       <c r="G226" t="inlineStr">
         <is>
-          <t>17/08/1998</t>
+          <t>24/11/1998</t>
         </is>
       </c>
       <c r="H226" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I226" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1191&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1809&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J226" t="inlineStr">
@@ -11220,7 +11220,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Efluentes Líquidos Cecinas Salamero Ltda.</t>
+          <t>Empréstito Cañal Bajo</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
@@ -11235,25 +11235,25 @@
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>Cecinas Salamero Ltda.</t>
+          <t>Concesión de Los Lagos S. A.</t>
         </is>
       </c>
       <c r="F227" t="n">
-        <v>10</v>
+        <v>560</v>
       </c>
       <c r="G227" t="inlineStr">
         <is>
-          <t>13/08/1998</t>
+          <t>17/08/1998</t>
         </is>
       </c>
       <c r="H227" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I227" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1194&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1191&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J227" t="inlineStr">
@@ -11268,7 +11268,7 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>Discoteque Factory</t>
+          <t>Planta de Tratamiento de Efluentes Líquidos Cecinas Salamero Ltda.</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
@@ -11283,25 +11283,25 @@
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>Bélgica Olave Figueroa</t>
+          <t>Cecinas Salamero Ltda.</t>
         </is>
       </c>
       <c r="F228" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="G228" t="inlineStr">
         <is>
-          <t>29/07/1998</t>
+          <t>13/08/1998</t>
         </is>
       </c>
       <c r="H228" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I228" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1347&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1194&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J228" t="inlineStr">
@@ -11316,7 +11316,7 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>Estación de Servicios YPF de Arturo Prat Esq.Manuel Rodríguez</t>
+          <t>Discoteque Factory</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
@@ -11331,15 +11331,15 @@
       </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t>Empresa Nacional de Energia ENEX S.A...</t>
+          <t>Bélgica Olave Figueroa</t>
         </is>
       </c>
       <c r="F229" t="n">
-        <v>400</v>
+        <v>30</v>
       </c>
       <c r="G229" t="inlineStr">
         <is>
-          <t>18/03/1998</t>
+          <t>29/07/1998</t>
         </is>
       </c>
       <c r="H229" t="inlineStr">
@@ -11349,7 +11349,7 @@
       </c>
       <c r="I229" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=794&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1347&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J229" t="inlineStr">
@@ -11364,7 +11364,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>Restaurant y Minimarket</t>
+          <t>Estación de Servicios YPF de Arturo Prat Esq.Manuel Rodríguez</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
@@ -11379,15 +11379,15 @@
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>Andres Bonati Brintrup</t>
+          <t>Empresa Nacional de Energia ENEX S.A...</t>
         </is>
       </c>
       <c r="F230" t="n">
-        <v>150</v>
+        <v>400</v>
       </c>
       <c r="G230" t="inlineStr">
         <is>
-          <t>24/02/1998</t>
+          <t>18/03/1998</t>
         </is>
       </c>
       <c r="H230" t="inlineStr">
@@ -11397,7 +11397,7 @@
       </c>
       <c r="I230" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=277&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=794&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J230" t="inlineStr">
@@ -11412,43 +11412,91 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
+          <t>Restaurant y Minimarket</t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D231" t="inlineStr">
+        <is>
+          <t>Décima</t>
+        </is>
+      </c>
+      <c r="E231" t="inlineStr">
+        <is>
+          <t>Andres Bonati Brintrup</t>
+        </is>
+      </c>
+      <c r="F231" t="n">
+        <v>150</v>
+      </c>
+      <c r="G231" t="inlineStr">
+        <is>
+          <t>24/02/1998</t>
+        </is>
+      </c>
+      <c r="H231" t="inlineStr">
+        <is>
+          <t>Aprobado</t>
+        </is>
+      </c>
+      <c r="I231" t="inlineStr">
+        <is>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=277&amp;modo=ficha</t>
+        </is>
+      </c>
+      <c r="J231" t="inlineStr">
+        <is>
+          <t>Osorno</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="n">
+        <v>231</v>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
           <t>Terminal de Locomoción Colectiva Urbana</t>
         </is>
       </c>
-      <c r="C231" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
-      <c r="D231" t="inlineStr">
-        <is>
-          <t>Décima</t>
-        </is>
-      </c>
-      <c r="E231" t="inlineStr">
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D232" t="inlineStr">
+        <is>
+          <t>Décima</t>
+        </is>
+      </c>
+      <c r="E232" t="inlineStr">
         <is>
           <t>Conrado Erwin Fontealba Vargas</t>
         </is>
       </c>
-      <c r="F231" t="n">
+      <c r="F232" t="n">
         <v>70</v>
       </c>
-      <c r="G231" t="inlineStr">
+      <c r="G232" t="inlineStr">
         <is>
           <t>09/01/1998</t>
         </is>
       </c>
-      <c r="H231" t="inlineStr">
-        <is>
-          <t>Aprobado</t>
-        </is>
-      </c>
-      <c r="I231" t="inlineStr">
+      <c r="H232" t="inlineStr">
+        <is>
+          <t>Aprobado</t>
+        </is>
+      </c>
+      <c r="I232" t="inlineStr">
         <is>
           <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=279&amp;modo=ficha</t>
         </is>
       </c>
-      <c r="J231" t="inlineStr">
+      <c r="J232" t="inlineStr">
         <is>
           <t>Osorno</t>
         </is>

--- a/data/Osorno.xlsx
+++ b/data/Osorno.xlsx
@@ -2824,7 +2824,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Ampliación de extracción de áridos en Pozo Jauregui</t>
+          <t>MODIFICACIÓN A LA DECLARACIÓN DE IMPACTO AMBIENTAL PISCICULTURA EL VENADO</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2839,11 +2839,11 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Juan Carlos Jauregui Hidalgo</t>
+          <t>Sociedad Agrícola Covarrubias Fernández Ltda.</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>500</v>
+        <v>2500</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
@@ -2852,12 +2852,12 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7547676&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7555686&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -2872,7 +2872,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN A LA DECLARACIÓN DE IMPACTO AMBIENTAL PISCICULTURA EL VENADO</t>
+          <t>Ampliación de extracción de áridos en Pozo Jauregui</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2887,11 +2887,11 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Sociedad Agrícola Covarrubias Fernández Ltda.</t>
+          <t>Juan Carlos Jauregui Hidalgo</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>2500</v>
+        <v>500</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
@@ -2900,12 +2900,12 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7555686&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7547676&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -4888,7 +4888,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Transporte Inter-Regional Terrestre de Residuos, PROCESAN S.A. (e-seia)</t>
+          <t>ESTUDIO Y DISEÑO PLAN DE CIERRE VERTEDERO COMUNA DE OSORNO (e-seia)</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -4898,16 +4898,16 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>PROCESAN S.A.</t>
+          <t>Ilustre Municipalidad de Osorno</t>
         </is>
       </c>
       <c r="F95" t="n">
-        <v>377</v>
+        <v>3400</v>
       </c>
       <c r="G95" t="inlineStr">
         <is>
@@ -4916,12 +4916,12 @@
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4134794&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4139027&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
@@ -4936,7 +4936,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>ESTUDIO Y DISEÑO PLAN DE CIERRE VERTEDERO COMUNA DE OSORNO (e-seia)</t>
+          <t>Transporte Inter-Regional Terrestre de Residuos, PROCESAN S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -4946,16 +4946,16 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Osorno</t>
+          <t>PROCESAN S.A.</t>
         </is>
       </c>
       <c r="F96" t="n">
-        <v>3400</v>
+        <v>377</v>
       </c>
       <c r="G96" t="inlineStr">
         <is>
@@ -4964,12 +4964,12 @@
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4139027&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4134794&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
@@ -5796,7 +5796,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Proyecto Inmobiliario Portal Osorno (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS DE PLOMO Y BATERÍAS USADAS POR LAS REGIONES VI, VII, VIII, IX, XIV y X (e-seia)</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -5806,16 +5806,16 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>Inmobiliaria Martabid Limitada</t>
+          <t>Industria Proveedora de Partes Metalurgicas Ltda.</t>
         </is>
       </c>
       <c r="F114" t="n">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="G114" t="inlineStr">
         <is>
@@ -5824,12 +5824,12 @@
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3272599&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3249759&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
@@ -5844,7 +5844,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS DE PLOMO Y BATERÍAS USADAS POR LAS REGIONES VI, VII, VIII, IX, XIV y X (e-seia)</t>
+          <t>Proyecto Inmobiliario Portal Osorno (e-seia)</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -5854,16 +5854,16 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>Industria Proveedora de Partes Metalurgicas Ltda.</t>
+          <t>Inmobiliaria Martabid Limitada</t>
         </is>
       </c>
       <c r="F115" t="n">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G115" t="inlineStr">
         <is>
@@ -5872,12 +5872,12 @@
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3249759&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3272599&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
@@ -6996,7 +6996,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>CONJUNTO HABITACIONAL JARDIN DEL ALTO,OSORNO (e-seia)</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -7006,16 +7006,16 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>Inmobiliaria Fourcade S.A.</t>
         </is>
       </c>
       <c r="F139" t="n">
-        <v>10</v>
+        <v>3370</v>
       </c>
       <c r="G139" t="inlineStr">
         <is>
@@ -7024,12 +7024,12 @@
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2359952&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
@@ -7044,7 +7044,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>CONJUNTO HABITACIONAL JARDIN DEL ALTO,OSORNO (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -7054,16 +7054,16 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>Inmobiliaria Fourcade S.A.</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F140" t="n">
-        <v>3370</v>
+        <v>10</v>
       </c>
       <c r="G140" t="inlineStr">
         <is>
@@ -7072,12 +7072,12 @@
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2359952&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">

--- a/data/Osorno.xlsx
+++ b/data/Osorno.xlsx
@@ -2824,7 +2824,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN A LA DECLARACIÓN DE IMPACTO AMBIENTAL PISCICULTURA EL VENADO</t>
+          <t>Ampliación de extracción de áridos en Pozo Jauregui</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2839,11 +2839,11 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Sociedad Agrícola Covarrubias Fernández Ltda.</t>
+          <t>Juan Carlos Jauregui Hidalgo</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>2500</v>
+        <v>500</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
@@ -2852,12 +2852,12 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7555686&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7547676&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -2872,7 +2872,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Ampliación de extracción de áridos en Pozo Jauregui</t>
+          <t>MODIFICACIÓN A LA DECLARACIÓN DE IMPACTO AMBIENTAL PISCICULTURA EL VENADO</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2887,11 +2887,11 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Juan Carlos Jauregui Hidalgo</t>
+          <t>Sociedad Agrícola Covarrubias Fernández Ltda.</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>500</v>
+        <v>2500</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
@@ -2900,12 +2900,12 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7547676&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7555686&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -4888,7 +4888,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>ESTUDIO Y DISEÑO PLAN DE CIERRE VERTEDERO COMUNA DE OSORNO (e-seia)</t>
+          <t>Transporte Inter-Regional Terrestre de Residuos, PROCESAN S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -4898,16 +4898,16 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Osorno</t>
+          <t>PROCESAN S.A.</t>
         </is>
       </c>
       <c r="F95" t="n">
-        <v>3400</v>
+        <v>377</v>
       </c>
       <c r="G95" t="inlineStr">
         <is>
@@ -4916,12 +4916,12 @@
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4139027&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4134794&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
@@ -4936,7 +4936,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Transporte Inter-Regional Terrestre de Residuos, PROCESAN S.A. (e-seia)</t>
+          <t>ESTUDIO Y DISEÑO PLAN DE CIERRE VERTEDERO COMUNA DE OSORNO (e-seia)</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -4946,16 +4946,16 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>PROCESAN S.A.</t>
+          <t>Ilustre Municipalidad de Osorno</t>
         </is>
       </c>
       <c r="F96" t="n">
-        <v>377</v>
+        <v>3400</v>
       </c>
       <c r="G96" t="inlineStr">
         <is>
@@ -4964,12 +4964,12 @@
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4134794&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4139027&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
@@ -5796,7 +5796,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS DE PLOMO Y BATERÍAS USADAS POR LAS REGIONES VI, VII, VIII, IX, XIV y X (e-seia)</t>
+          <t>Proyecto Inmobiliario Portal Osorno (e-seia)</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -5806,16 +5806,16 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>Industria Proveedora de Partes Metalurgicas Ltda.</t>
+          <t>Inmobiliaria Martabid Limitada</t>
         </is>
       </c>
       <c r="F114" t="n">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G114" t="inlineStr">
         <is>
@@ -5824,12 +5824,12 @@
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3249759&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3272599&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
@@ -5844,7 +5844,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Proyecto Inmobiliario Portal Osorno (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS DE PLOMO Y BATERÍAS USADAS POR LAS REGIONES VI, VII, VIII, IX, XIV y X (e-seia)</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -5854,16 +5854,16 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>Inmobiliaria Martabid Limitada</t>
+          <t>Industria Proveedora de Partes Metalurgicas Ltda.</t>
         </is>
       </c>
       <c r="F115" t="n">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="G115" t="inlineStr">
         <is>
@@ -5872,12 +5872,12 @@
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3272599&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3249759&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
@@ -6996,7 +6996,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>CONJUNTO HABITACIONAL JARDIN DEL ALTO,OSORNO (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -7006,16 +7006,16 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>Inmobiliaria Fourcade S.A.</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F139" t="n">
-        <v>3370</v>
+        <v>10</v>
       </c>
       <c r="G139" t="inlineStr">
         <is>
@@ -7024,12 +7024,12 @@
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2359952&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
@@ -7044,7 +7044,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>CONJUNTO HABITACIONAL JARDIN DEL ALTO,OSORNO (e-seia)</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -7054,16 +7054,16 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>Inmobiliaria Fourcade S.A.</t>
         </is>
       </c>
       <c r="F140" t="n">
-        <v>10</v>
+        <v>3370</v>
       </c>
       <c r="G140" t="inlineStr">
         <is>
@@ -7072,12 +7072,12 @@
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2359952&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">

--- a/data/Osorno.xlsx
+++ b/data/Osorno.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>17/06/2022</t>
+          <t>22/06/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -1207,7 +1207,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Sistema de Transmisión del Sur S.A.</t>
+          <t>Sistema de Transmision del Sur S.A.</t>
         </is>
       </c>
       <c r="F18" t="n">
@@ -3559,7 +3559,7 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Sistema de Transmisión del Sur S.A.</t>
+          <t>Sistema de Transmision del Sur S.A.</t>
         </is>
       </c>
       <c r="F67" t="n">
@@ -3991,7 +3991,7 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Sistema de Transmisión del Sur S.A.</t>
+          <t>Sistema de Transmision del Sur S.A.</t>
         </is>
       </c>
       <c r="F76" t="n">
@@ -4711,7 +4711,7 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Sistema de Transmisión del Sur S.A.</t>
+          <t>Sistema de Transmision del Sur S.A.</t>
         </is>
       </c>
       <c r="F91" t="n">
@@ -4807,7 +4807,7 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>Sistema de Transmisión del Sur S.A.</t>
+          <t>Sistema de Transmision del Sur S.A.</t>
         </is>
       </c>
       <c r="F93" t="n">
@@ -10083,7 +10083,7 @@
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>Sistema de Transmisión del Sur S.A.</t>
+          <t>Sistema de Transmision del Sur S.A.</t>
         </is>
       </c>
       <c r="F203" t="n">

--- a/data/Osorno.xlsx
+++ b/data/Osorno.xlsx
@@ -500,7 +500,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">

--- a/data/Osorno.xlsx
+++ b/data/Osorno.xlsx
@@ -596,7 +596,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -2824,7 +2824,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Ampliación de extracción de áridos en Pozo Jauregui</t>
+          <t>MODIFICACIÓN A LA DECLARACIÓN DE IMPACTO AMBIENTAL PISCICULTURA EL VENADO</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2839,11 +2839,11 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Juan Carlos Jauregui Hidalgo</t>
+          <t>Sociedad Agrícola Covarrubias Fernández Ltda.</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>500</v>
+        <v>2500</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
@@ -2852,12 +2852,12 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7547676&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7555686&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -2872,7 +2872,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN A LA DECLARACIÓN DE IMPACTO AMBIENTAL PISCICULTURA EL VENADO</t>
+          <t>Ampliación de extracción de áridos en Pozo Jauregui</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2887,11 +2887,11 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Sociedad Agrícola Covarrubias Fernández Ltda.</t>
+          <t>Juan Carlos Jauregui Hidalgo</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>2500</v>
+        <v>500</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
@@ -2900,12 +2900,12 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7555686&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7547676&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -4888,7 +4888,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Transporte Inter-Regional Terrestre de Residuos, PROCESAN S.A. (e-seia)</t>
+          <t>ESTUDIO Y DISEÑO PLAN DE CIERRE VERTEDERO COMUNA DE OSORNO (e-seia)</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -4898,16 +4898,16 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>PROCESAN S.A.</t>
+          <t>Ilustre Municipalidad de Osorno</t>
         </is>
       </c>
       <c r="F95" t="n">
-        <v>377</v>
+        <v>3400</v>
       </c>
       <c r="G95" t="inlineStr">
         <is>
@@ -4916,12 +4916,12 @@
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4134794&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4139027&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
@@ -4936,7 +4936,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>ESTUDIO Y DISEÑO PLAN DE CIERRE VERTEDERO COMUNA DE OSORNO (e-seia)</t>
+          <t>Transporte Inter-Regional Terrestre de Residuos, PROCESAN S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -4946,16 +4946,16 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Osorno</t>
+          <t>PROCESAN S.A.</t>
         </is>
       </c>
       <c r="F96" t="n">
-        <v>3400</v>
+        <v>377</v>
       </c>
       <c r="G96" t="inlineStr">
         <is>
@@ -4964,12 +4964,12 @@
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4139027&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4134794&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
@@ -5796,7 +5796,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Proyecto Inmobiliario Portal Osorno (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS DE PLOMO Y BATERÍAS USADAS POR LAS REGIONES VI, VII, VIII, IX, XIV y X (e-seia)</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -5806,16 +5806,16 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>Inmobiliaria Martabid Limitada</t>
+          <t>Industria Proveedora de Partes Metalurgicas Ltda.</t>
         </is>
       </c>
       <c r="F114" t="n">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="G114" t="inlineStr">
         <is>
@@ -5824,12 +5824,12 @@
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3272599&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3249759&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
@@ -5844,7 +5844,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS DE PLOMO Y BATERÍAS USADAS POR LAS REGIONES VI, VII, VIII, IX, XIV y X (e-seia)</t>
+          <t>Proyecto Inmobiliario Portal Osorno (e-seia)</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -5854,16 +5854,16 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>Industria Proveedora de Partes Metalurgicas Ltda.</t>
+          <t>Inmobiliaria Martabid Limitada</t>
         </is>
       </c>
       <c r="F115" t="n">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G115" t="inlineStr">
         <is>
@@ -5872,12 +5872,12 @@
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3249759&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3272599&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
@@ -6996,7 +6996,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>CONJUNTO HABITACIONAL JARDIN DEL ALTO,OSORNO (e-seia)</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -7006,16 +7006,16 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>Inmobiliaria Fourcade S.A.</t>
         </is>
       </c>
       <c r="F139" t="n">
-        <v>10</v>
+        <v>3370</v>
       </c>
       <c r="G139" t="inlineStr">
         <is>
@@ -7024,12 +7024,12 @@
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2359952&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
@@ -7044,7 +7044,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>CONJUNTO HABITACIONAL JARDIN DEL ALTO,OSORNO (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -7054,16 +7054,16 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>Inmobiliaria Fourcade S.A.</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F140" t="n">
-        <v>3370</v>
+        <v>10</v>
       </c>
       <c r="G140" t="inlineStr">
         <is>
@@ -7072,12 +7072,12 @@
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2359952&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">

--- a/data/Osorno.xlsx
+++ b/data/Osorno.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J232"/>
+  <dimension ref="A1:J233"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,7 +424,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DE INSTALACIONES EN PLANTA OSORNO</t>
+          <t>Planta Solar Fotovoltaica Montecinos</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -439,25 +439,25 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Envases Impresos SpA</t>
+          <t>Generadora Semilla SpA.</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1</v>
+        <v>10000</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>22/06/2022</t>
+          <t>14/09/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Ingresados Art.94 RSEIA</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156289752&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156946466&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -472,7 +472,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>BALNEARIO FLUVIAL \"Río Damas\"</t>
+          <t>MODIFICACIÓN DE INSTALACIONES EN PLANTA OSORNO</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -487,25 +487,25 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Inversiones y Comercial Southern World SpA</t>
+          <t>Envases Impresos SpA</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>30400</v>
+        <v>1</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>30/05/2022</t>
+          <t>22/06/2022</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155928380&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156289752&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -520,7 +520,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>?Ampliación Superficie Planta de Disposición Final de Residuos Biológicos No Peligrosos Industriales ECOPRIAL? Región de Los Lagos</t>
+          <t>BALNEARIO FLUVIAL \"Río Damas\"</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -535,25 +535,25 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Raul Albrecht Barrientos</t>
+          <t>Inversiones y Comercial Southern World SpA</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>650</v>
+        <v>30400</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>22/12/2021</t>
+          <t>30/05/2022</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2154450586&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155928380&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -568,7 +568,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Condominio Rahue</t>
+          <t>?Ampliación Superficie Planta de Disposición Final de Residuos Biológicos No Peligrosos Industriales ECOPRIAL? Región de Los Lagos</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -583,25 +583,25 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Constructora Pacal S.A.</t>
+          <t>Raul Albrecht Barrientos</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>8586</v>
+        <v>650</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>10/05/2021</t>
+          <t>22/12/2021</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151757396&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2154450586&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -616,7 +616,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>BALNEARIO FLUVIAL RÍO DAMAS</t>
+          <t>Condominio Rahue</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -631,25 +631,25 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Inversiones y Comercial Southern World SpA</t>
+          <t>Constructora Pacal S.A.</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>30400</v>
+        <v>8586</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>09/03/2021</t>
+          <t>10/05/2021</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151031299&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151757396&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -664,7 +664,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>AUMENTO DE PRODUCCIÓN Y RIEGO DE EFLUENTES PLANTA MAFRISUR</t>
+          <t>BALNEARIO FLUVIAL RÍO DAMAS</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -679,25 +679,25 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>MATADERO FRIGORIFICO DEL SUR S.A.</t>
+          <t>Inversiones y Comercial Southern World SpA</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2500</v>
+        <v>30400</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>21/01/2021</t>
+          <t>09/03/2021</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2149382147&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151031299&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -712,7 +712,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>ADECUACIÓN OPERATIVA Y AMPLIACIÓN DE LA PLANTA DE ASESORÍAS LOS OLIVOS?</t>
+          <t>AUMENTO DE PRODUCCIÓN Y RIEGO DE EFLUENTES PLANTA MAFRISUR</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -727,25 +727,25 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Asesoría Los Olivos S.A</t>
+          <t>MATADERO FRIGORIFICO DEL SUR S.A.</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>650</v>
+        <v>2500</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>21/10/2020</t>
+          <t>21/01/2021</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2148752277&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2149382147&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -760,7 +760,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>PRP Las Quemas</t>
+          <t>ADECUACIÓN OPERATIVA Y AMPLIACIÓN DE LA PLANTA DE ASESORÍAS LOS OLIVOS?</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -775,25 +775,25 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Francisco De Paula Luis Herrera Fernandez-figares</t>
+          <t>Asesoría Los Olivos S.A</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>3145</v>
+        <v>650</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>17/01/2020</t>
+          <t>21/10/2020</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145388872&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2148752277&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -808,7 +808,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Ampliación de la Actividad de Transporte de Sustancias Peligrosas de ENAEX Servicios S.A.</t>
+          <t>PRP Las Quemas</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -818,20 +818,20 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Enaex Servicios S.A.</t>
+          <t>Francisco De Paula Luis Herrera Fernandez-figares</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>25000</v>
+        <v>3145</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>07/01/2020</t>
+          <t>17/01/2020</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -841,7 +841,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145325740&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145388872&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -856,7 +856,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Desarrollo Inmobiliario Macro Pilauco II, Etapa 2</t>
+          <t>Ampliación de la Actividad de Transporte de Sustancias Peligrosas de ENAEX Servicios S.A.</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -866,20 +866,20 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Galilea de Ingeniería y Construcción</t>
+          <t>Enaex Servicios S.A.</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>68620</v>
+        <v>25000</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>30/12/2019</t>
+          <t>07/01/2020</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -889,7 +889,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145296018&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145325740&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -904,7 +904,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>PRP LAS QUEMAS</t>
+          <t>Desarrollo Inmobiliario Macro Pilauco II, Etapa 2</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -919,25 +919,25 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Francisco De Paula Luis Herrera Fernandez-figares</t>
+          <t>Galilea de Ingeniería y Construcción</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>3145</v>
+        <v>68620</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>19/12/2019</t>
+          <t>30/12/2019</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145236028&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145296018&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -952,7 +952,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Hacienda Las Quemas</t>
+          <t>PRP LAS QUEMAS</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -967,25 +967,25 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Inmobiliaria Zenteno SpA</t>
+          <t>Francisco De Paula Luis Herrera Fernandez-figares</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>47000</v>
+        <v>3145</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>25/09/2019</t>
+          <t>19/12/2019</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2144245146&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145236028&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1000,7 +1000,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Proyecto Habitacional Lote 2 - Zanjones</t>
+          <t>Hacienda Las Quemas</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1015,15 +1015,15 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>SERVIU Región de Los Lagos</t>
+          <t>Inmobiliaria Zenteno SpA</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>481</v>
+        <v>47000</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>28/05/2019</t>
+          <t>25/09/2019</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -1033,7 +1033,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143277820&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2144245146&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1048,7 +1048,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Planta Pichil Alimento Bovino</t>
+          <t>Proyecto Habitacional Lote 2 - Zanjones</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1063,15 +1063,15 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Alimentos Concentrados Cisternas Ltda</t>
+          <t>SERVIU Región de Los Lagos</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>8000</v>
+        <v>481</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>31/07/2018</t>
+          <t>28/05/2019</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -1081,7 +1081,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2140878185&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143277820&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1096,7 +1096,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>DESARROLLO INMOBILIARIO MACRO PILAUCO II, ETAPA 1 LOTE A</t>
+          <t>Planta Pichil Alimento Bovino</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1111,15 +1111,15 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Galilea de Ingeniería y Construcción</t>
+          <t>Alimentos Concentrados Cisternas Ltda</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>14500</v>
+        <v>8000</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>21/08/2017</t>
+          <t>31/07/2018</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -1129,7 +1129,7 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132606168&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2140878185&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1144,30 +1144,30 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Sistema de Transmisión S/E Pichirropulli - S/E Tineo</t>
+          <t>DESARROLLO INMOBILIARIO MACRO PILAUCO II, ETAPA 1 LOTE A</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>TRANSELEC CONCESIONES S.A.</t>
+          <t>Galilea de Ingeniería y Construcción</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>82000</v>
+        <v>14500</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>08/06/2017</t>
+          <t>21/08/2017</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -1177,7 +1177,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132447295&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132606168&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1192,30 +1192,30 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Proyecto La Misión</t>
+          <t>Sistema de Transmisión S/E Pichirropulli - S/E Tineo</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Sistema de Transmision del Sur S.A.</t>
+          <t>TRANSELEC CONCESIONES S.A.</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>19299</v>
+        <v>82000</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>19/01/2017</t>
+          <t>08/06/2017</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -1225,7 +1225,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132100181&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132447295&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1240,7 +1240,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Optimización Productiva de la Piscicultura Santa Juana</t>
+          <t>Proyecto La Misión</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1255,15 +1255,15 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Cermaq Chile S.A.</t>
+          <t>Sistema de Transmision del Sur S.A.</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>400</v>
+        <v>19299</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>06/12/2016</t>
+          <t>19/01/2017</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -1273,7 +1273,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131979220&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132100181&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1288,7 +1288,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Ampliación Transporte Terrestre de Sustancias Químicas</t>
+          <t>Optimización Productiva de la Piscicultura Santa Juana</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1298,20 +1298,20 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
+          <t>Cermaq Chile S.A.</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>10000</v>
+        <v>400</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>22/08/2016</t>
+          <t>06/12/2016</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -1321,7 +1321,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131697972&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131979220&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1336,7 +1336,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>DECLARACION DE IMPACTO AMBIENTAL LOTEO HABITACIONAL D.F.L.2, MACRO PILAUCO II</t>
+          <t>Ampliación Transporte Terrestre de Sustancias Químicas</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1346,30 +1346,30 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Galilea de Ingeniería y Construcción</t>
+          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>72470</v>
+        <v>10000</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>12/08/2016</t>
+          <t>22/08/2016</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131467206&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131697972&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1384,7 +1384,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Riego de riles Planta Mulpulmo</t>
+          <t>DECLARACION DE IMPACTO AMBIENTAL LOTEO HABITACIONAL D.F.L.2, MACRO PILAUCO II</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1399,25 +1399,25 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Lácteos del Sur S.A.</t>
+          <t>Galilea de Ingeniería y Construcción</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>90</v>
+        <v>72470</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>03/06/2016</t>
+          <t>12/08/2016</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131404162&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131467206&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1432,7 +1432,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Compostaje y Vermicompostaje Residuos Sólidos Orgánicos. Sector Barro Blanco. Comuna de Osorno.</t>
+          <t>Riego de riles Planta Mulpulmo</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1447,25 +1447,25 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Frigorífico de osorno S.A.</t>
+          <t>Lácteos del Sur S.A.</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>500</v>
+        <v>90</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>17/09/2015</t>
+          <t>03/06/2016</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130760880&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131404162&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1480,7 +1480,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Bodega para Almacenamiento de Sustancias Peligrosas - Sucursal Osorno</t>
+          <t>Compostaje y Vermicompostaje Residuos Sólidos Orgánicos. Sector Barro Blanco. Comuna de Osorno.</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1495,25 +1495,25 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>ANASAC CHILE S.A.</t>
+          <t>Frigorífico de osorno S.A.</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>193</v>
+        <v>500</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>05/05/2015</t>
+          <t>17/09/2015</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130426799&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130760880&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1528,7 +1528,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Proyecto Centro de Agroturismo El Mirador</t>
+          <t>Bodega para Almacenamiento de Sustancias Peligrosas - Sucursal Osorno</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1543,15 +1543,15 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Sociedad de Agroturismo El Mirador Limitada</t>
+          <t>ANASAC CHILE S.A.</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>500</v>
+        <v>193</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>19/03/2015</t>
+          <t>05/05/2015</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
@@ -1561,7 +1561,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130315339&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130426799&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1591,7 +1591,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Lucia Adriana Kyling Montecino</t>
+          <t>Sociedad de Agroturismo El Mirador Limitada</t>
         </is>
       </c>
       <c r="F26" t="n">
@@ -1599,17 +1599,17 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>09/03/2015</t>
+          <t>19/03/2015</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130308568&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130315339&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1624,7 +1624,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Tratamiento de Residuos Especiales e Industriales a Través de Incineración, Osorno.</t>
+          <t>Proyecto Centro de Agroturismo El Mirador</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1639,25 +1639,25 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Inversiones Las Higueras Limitada</t>
+          <t>Lucia Adriana Kyling Montecino</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>1500</v>
+        <v>500</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>19/02/2015</t>
+          <t>09/03/2015</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130221119&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130308568&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -1672,7 +1672,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
+          <t>Tratamiento de Residuos Especiales e Industriales a Través de Incineración, Osorno.</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1682,30 +1682,30 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>Inversiones Las Higueras Limitada</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>5000</v>
+        <v>1500</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>26/01/2015</t>
+          <t>19/02/2015</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130159203&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130221119&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -1720,7 +1720,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos y no Peligrosos entre las Regiones XV y X</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1743,7 +1743,7 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>26/12/2014</t>
+          <t>26/01/2015</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
@@ -1753,7 +1753,7 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076569&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130159203&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -1768,7 +1768,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
+          <t>Transporte Terrestre de Residuos Peligrosos y no Peligrosos entre las Regiones XV y X</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1791,7 +1791,7 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>20/11/2014</t>
+          <t>26/12/2014</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
@@ -1801,7 +1801,7 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129965016&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076569&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>"AMPLIACION DE RUTAS PARA TRANSPORTE TERRESTRE DE RESIDUOS Y SUSTANCIAS PELIGROSAS A GRANEL DESDE LA I A LA X REGIÓN TRANSPORTES TRANSVER LTDA"</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1831,15 +1831,15 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Transportes Transver Ltda.</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>17/11/2014</t>
+          <t>20/11/2014</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
@@ -1849,7 +1849,7 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129535685&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129965016&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -1864,7 +1864,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Modificación Transporte y Logística Interregional de Cargas y/o Sustancias Peligrosas.</t>
+          <t>"AMPLIACION DE RUTAS PARA TRANSPORTE TERRESTRE DE RESIDUOS Y SUSTANCIAS PELIGROSAS A GRANEL DESDE LA I A LA X REGIÓN TRANSPORTES TRANSVER LTDA"</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1879,25 +1879,25 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
+          <t>Transportes Transver Ltda.</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>6750</v>
+        <v>0</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>13/11/2014</t>
+          <t>17/11/2014</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129725840&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129535685&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -1912,7 +1912,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
+          <t>Modificación Transporte y Logística Interregional de Cargas y/o Sustancias Peligrosas.</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1927,25 +1927,25 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>5000</v>
+        <v>6750</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>05/11/2014</t>
+          <t>13/11/2014</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129895680&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129725840&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -1960,7 +1960,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos y No Peligrosos entre las Regiones XV y X</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1983,7 +1983,7 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>30/06/2014</t>
+          <t>05/11/2014</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
@@ -1993,7 +1993,7 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129237859&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129895680&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -2008,7 +2008,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Extracción de áridos en pozo Jauregui</t>
+          <t>Transporte Terrestre de Residuos Peligrosos y No Peligrosos entre las Regiones XV y X</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2018,20 +2018,20 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Juan Carlos Jauregui Hidalgo</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>400</v>
+        <v>5000</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>22/01/2014</t>
+          <t>30/06/2014</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
@@ -2041,7 +2041,7 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129115711&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129237859&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -2056,7 +2056,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Extracción de áridos en pozo Jauregui</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2066,30 +2066,30 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>Juan Carlos Jauregui Hidalgo</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>1200</v>
+        <v>400</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>23/12/2013</t>
+          <t>22/01/2014</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129115711&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -2104,7 +2104,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Extracción de áridos en Pozo Jauregui</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -2114,30 +2114,30 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Juan Carlos Jauregui Hidalgo</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>400</v>
+        <v>1200</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>09/12/2013</t>
+          <t>23/12/2013</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128899538&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -2152,7 +2152,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos y no peligrosos entre las Regiones XV y X</t>
+          <t>Extracción de áridos en Pozo Jauregui</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2162,20 +2162,20 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>Juan Carlos Jauregui Hidalgo</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>5000</v>
+        <v>400</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>08/11/2013</t>
+          <t>09/12/2013</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
@@ -2185,7 +2185,7 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128788354&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128899538&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -2200,7 +2200,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Empréstito Los Melíes, Comuna de Osorno, Región de Los Lagos</t>
+          <t>Transporte Terrestre de Residuos Peligrosos y no peligrosos entre las Regiones XV y X</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2210,30 +2210,30 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Dragados S.A. Agencia en Chile</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>543</v>
+        <v>5000</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>07/11/2013</t>
+          <t>08/11/2013</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128789901&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128788354&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -2248,7 +2248,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Declaración de impacto ambiental "Modificación del Manejo de la mortalidad mediante sistema de ensilaje en Piscicultura Santa Juana"</t>
+          <t>Empréstito Los Melíes, Comuna de Osorno, Región de Los Lagos</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2263,15 +2263,15 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Cermaq Chile S.A.</t>
+          <t>Dragados S.A. Agencia en Chile</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>1</v>
+        <v>543</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>15/07/2013</t>
+          <t>07/11/2013</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
@@ -2281,7 +2281,7 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8355513&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128789901&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -2296,7 +2296,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>REGULARIZACIÓN DEL TRANSPORTE DE SUSTANCIAS PELIGROSAS TREXVAL S.A.</t>
+          <t>Declaración de impacto ambiental "Modificación del Manejo de la mortalidad mediante sistema de ensilaje en Piscicultura Santa Juana"</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2306,20 +2306,20 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Trexval S.A.</t>
+          <t>Cermaq Chile S.A.</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>21/06/2013</t>
+          <t>15/07/2013</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
@@ -2329,7 +2329,7 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8280859&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8355513&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -2344,7 +2344,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Regularización Transporte de Sustancias Peligrosas TREXVAL S.A.</t>
+          <t>REGULARIZACIÓN DEL TRANSPORTE DE SUSTANCIAS PELIGROSAS TREXVAL S.A.</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2367,17 +2367,17 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>06/06/2013</t>
+          <t>21/06/2013</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8227033&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8280859&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -2392,7 +2392,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Mejoramiento Tecnológico Planta Watts Osorno</t>
+          <t>Regularización Transporte de Sustancias Peligrosas TREXVAL S.A.</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2402,30 +2402,30 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Watts S.A.</t>
+          <t>Trexval S.A.</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>7751</v>
+        <v>0</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>23/05/2013</t>
+          <t>06/06/2013</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8187978&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8227033&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -2440,7 +2440,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>"Riego en pradera con efluentes tratados de RILes lácteos".</t>
+          <t>Mejoramiento Tecnológico Planta Watts Osorno</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2455,25 +2455,25 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Industrias Valle Verde S.A.</t>
+          <t>Watts S.A.</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>7751</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>16/05/2013</t>
+          <t>23/05/2013</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8172032&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8187978&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -2488,7 +2488,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Transporte de residuos No Peligrosos, Peligrosos y Especiales entre la XV región y la X región</t>
+          <t>"Riego en pradera con efluentes tratados de RILes lácteos".</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2498,20 +2498,20 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Industrias Valle Verde S.A.</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>10/05/2013</t>
+          <t>16/05/2013</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
@@ -2521,7 +2521,7 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158912&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8172032&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -2536,7 +2536,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas TREXVAL S.A.</t>
+          <t>Transporte de residuos No Peligrosos, Peligrosos y Especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2551,15 +2551,15 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Mauricio Salím Mahmud Vergara</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>2500</v>
+        <v>250</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>06/05/2013</t>
+          <t>10/05/2013</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
@@ -2569,7 +2569,7 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8126996&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158912&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -2599,25 +2599,25 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Trexval S.A.</t>
+          <t>Mauricio Salím Mahmud Vergara</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>2475</v>
+        <v>2500</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>17/04/2013</t>
+          <t>06/05/2013</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8057600&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8126996&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -2632,7 +2632,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>Transporte de Sustancias Peligrosas TREXVAL S.A.</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2647,15 +2647,15 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Trexval S.A.</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>250</v>
+        <v>2475</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>15/04/2013</t>
+          <t>17/04/2013</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
@@ -2665,7 +2665,7 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8063600&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8057600&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -2703,7 +2703,7 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>19/03/2013</t>
+          <t>15/04/2013</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
@@ -2713,7 +2713,7 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7961483&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8063600&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -2728,7 +2728,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Ampliación de extracción de áridos en el río Rahue sector fundo el Almud - San Florentino</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2738,30 +2738,30 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>ARIDOS DOWLING &amp; SCHILLING S.A</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>7000</v>
+        <v>250</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>18/03/2013</t>
+          <t>19/03/2013</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7972056&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7961483&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -2776,7 +2776,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>"PISCICULTURA TRAFUN, COMUNA DE SAN PABLO, PROVINCIA DE OSORNO, DÉCIMA REGIÓN DE LOS LAGOS"</t>
+          <t>Ampliación de extracción de áridos en el río Rahue sector fundo el Almud - San Florentino</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2791,15 +2791,15 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Mainstream Chile S.A.</t>
+          <t>ARIDOS DOWLING &amp; SCHILLING S.A</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>31/12/2012</t>
+          <t>18/03/2013</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
@@ -2809,7 +2809,7 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7715692&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7972056&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -2824,7 +2824,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Ampliación de extracción de áridos en Pozo Jauregui</t>
+          <t>"PISCICULTURA TRAFUN, COMUNA DE SAN PABLO, PROVINCIA DE OSORNO, DÉCIMA REGIÓN DE LOS LAGOS"</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2839,25 +2839,25 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Juan Carlos Jauregui Hidalgo</t>
+          <t>Mainstream Chile S.A.</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>500</v>
+        <v>6000</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>22/11/2012</t>
+          <t>31/12/2012</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7547676&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7715692&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -2872,7 +2872,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN A LA DECLARACIÓN DE IMPACTO AMBIENTAL PISCICULTURA EL VENADO</t>
+          <t>Ampliación de extracción de áridos en Pozo Jauregui</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2887,11 +2887,11 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Sociedad Agrícola Covarrubias Fernández Ltda.</t>
+          <t>Juan Carlos Jauregui Hidalgo</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>2500</v>
+        <v>500</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
@@ -2900,12 +2900,12 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7555686&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7547676&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -2920,7 +2920,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>MODIFICACION A LA DECLARACION DE IMPACTO AMBIENTAL PISCICULTURA EL VENADO</t>
+          <t>MODIFICACIÓN A LA DECLARACIÓN DE IMPACTO AMBIENTAL PISCICULTURA EL VENADO</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2943,17 +2943,17 @@
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>12/11/2012</t>
+          <t>22/11/2012</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7509459&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7555686&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -2968,7 +2968,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN A LA DECLARACIÓN DE IMPACTO AMBIENTAL PISCICULTURA EL VENADO COMUNA DE OSORNO.</t>
+          <t>MODIFICACION A LA DECLARACION DE IMPACTO AMBIENTAL PISCICULTURA EL VENADO</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2991,7 +2991,7 @@
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>17/10/2012</t>
+          <t>12/11/2012</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
@@ -3001,7 +3001,7 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7352039&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7509459&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -3016,7 +3016,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Ampliación Piscicultura Cancura</t>
+          <t>MODIFICACIÓN A LA DECLARACIÓN DE IMPACTO AMBIENTAL PISCICULTURA EL VENADO COMUNA DE OSORNO.</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3031,25 +3031,25 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Cermaq Chile S.A.</t>
+          <t>Sociedad Agrícola Covarrubias Fernández Ltda.</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>4000</v>
+        <v>2500</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>27/07/2012</t>
+          <t>17/10/2012</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6858091&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7352039&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -3064,7 +3064,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
+          <t>Ampliación Piscicultura Cancura</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -3074,30 +3074,30 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>KDM SERVICIOS S.A.</t>
+          <t>Cermaq Chile S.A.</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>16/05/2012</t>
+          <t>27/07/2012</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6888046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6858091&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -3112,7 +3112,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Planta de destilacion de gases del aire</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -3122,30 +3122,30 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>GASES DEL SUR SOCIEDAD LIMITADA</t>
+          <t>KDM SERVICIOS S.A.</t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>1000</v>
+        <v>5000</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>11/05/2012</t>
+          <t>16/05/2012</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6913953&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6888046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -3160,7 +3160,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos Interregional</t>
+          <t>Planta de destilacion de gases del aire</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -3170,30 +3170,30 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Jorge Andrés Torres Hidalgo</t>
+          <t>GASES DEL SUR SOCIEDAD LIMITADA</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>23/04/2012</t>
+          <t>11/05/2012</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6852559&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6913953&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -3208,7 +3208,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
+          <t>Transporte de Residuos Peligrosos Interregional</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -3223,25 +3223,25 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Jorge Andrés Torres Hidalgo</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>20/02/2012</t>
+          <t>23/04/2012</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6852559&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -3256,7 +3256,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>AUTOGENERACION ELECTRICA PROLESUR</t>
+          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -3266,30 +3266,30 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Prolesur S.A.</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>13/02/2012</t>
+          <t>20/02/2012</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6601064&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -3319,7 +3319,7 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Sociedad Productores de Leche S.A.</t>
+          <t>Prolesur S.A.</t>
         </is>
       </c>
       <c r="F62" t="n">
@@ -3327,17 +3327,17 @@
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>19/01/2012</t>
+          <t>13/02/2012</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6474722&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6601064&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -3352,7 +3352,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>S/E Seccionadora Rahue 220 kV</t>
+          <t>AUTOGENERACION ELECTRICA PROLESUR</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -3367,25 +3367,25 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A.</t>
+          <t>Sociedad Productores de Leche S.A.</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>14000</v>
+        <v>1000</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>18/01/2012</t>
+          <t>19/01/2012</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6504250&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6474722&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -3400,7 +3400,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Quimicas entre XV y X region .</t>
+          <t>S/E Seccionadora Rahue 220 kV</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -3410,30 +3410,30 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>TRANSELEC S.A.</t>
         </is>
       </c>
       <c r="F64" t="n">
-        <v>1000</v>
+        <v>14000</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>11/01/2012</t>
+          <t>18/01/2012</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6435815&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6504250&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -3448,7 +3448,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>Transporte de Sustancias Quimicas entre XV y X region .</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -3463,15 +3463,15 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F65" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>10/01/2012</t>
+          <t>11/01/2012</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
@@ -3481,7 +3481,7 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6435815&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -3496,7 +3496,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Plan de cierre Ex basural de Ovejería de osorno</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -3506,30 +3506,30 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Osorno</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F66" t="n">
-        <v>1700</v>
+        <v>100</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>02/01/2012</t>
+          <t>10/01/2012</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6239097&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -3544,7 +3544,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Línea de Transmisión 66 kV Pilauco-Pichil</t>
+          <t>Plan de cierre Ex basural de Ovejería de osorno</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -3559,15 +3559,15 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Sistema de Transmision del Sur S.A.</t>
+          <t>Ilustre Municipalidad de Osorno</t>
         </is>
       </c>
       <c r="F67" t="n">
-        <v>1967</v>
+        <v>1700</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>01/12/2011</t>
+          <t>02/01/2012</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
@@ -3577,7 +3577,7 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6334231&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6239097&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
@@ -3592,7 +3592,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Transportes de Sustancias Quimicas entre la XV y la X region</t>
+          <t>Línea de Transmisión 66 kV Pilauco-Pichil</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3602,30 +3602,30 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Sistema de Transmision del Sur S.A.</t>
         </is>
       </c>
       <c r="F68" t="n">
-        <v>1000</v>
+        <v>1967</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>21/11/2011</t>
+          <t>01/12/2011</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6291084&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6334231&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -3640,7 +3640,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Transporte de residuos peligrosos y no peligrosos</t>
+          <t>Transportes de Sustancias Quimicas entre la XV y la X region</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3655,15 +3655,15 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Fernando Luciano Huerta Tello</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F69" t="n">
-        <v>319</v>
+        <v>1000</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>04/10/2011</t>
+          <t>21/11/2011</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
@@ -3673,7 +3673,7 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5958795&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6291084&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -3688,7 +3688,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>TAP OFF PICHIRREHUE</t>
+          <t>Transporte de residuos peligrosos y no peligrosos</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -3698,30 +3698,30 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Empresa Eléctrica Pilmaiquén S.A.</t>
+          <t>Fernando Luciano Huerta Tello</t>
         </is>
       </c>
       <c r="F70" t="n">
-        <v>19800</v>
+        <v>319</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>01/06/2011</t>
+          <t>04/10/2011</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5675930&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5958795&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -3736,7 +3736,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE EXTRACCIÓN DE ÁRIDOS RÍO RAHUE SECTOR CANCURA</t>
+          <t>TAP OFF PICHIRREHUE</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -3751,15 +3751,15 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>ARIDOS DOWLING &amp; SCHILLING S.A</t>
+          <t>Empresa Eléctrica Pilmaiquén S.A.</t>
         </is>
       </c>
       <c r="F71" t="n">
-        <v>1500</v>
+        <v>19800</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>25/05/2011</t>
+          <t>01/06/2011</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
@@ -3769,7 +3769,7 @@
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5626276&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5675930&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -3784,7 +3784,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Ampliación de rutas para el servicio de transporte, reciclaje y gestión de residuos industriales .</t>
+          <t>AMPLIACIÓN DE EXTRACCIÓN DE ÁRIDOS RÍO RAHUE SECTOR CANCURA</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -3794,20 +3794,20 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Gestión Ambiental Limitada</t>
+          <t>ARIDOS DOWLING &amp; SCHILLING S.A</t>
         </is>
       </c>
       <c r="F72" t="n">
-        <v>250</v>
+        <v>1500</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>27/04/2011</t>
+          <t>25/05/2011</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
@@ -3817,7 +3817,7 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5540550&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5626276&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -3832,7 +3832,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Piscicultura El Encanto</t>
+          <t>Ampliación de rutas para el servicio de transporte, reciclaje y gestión de residuos industriales .</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -3842,30 +3842,30 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Congelados Pacífico S.A.</t>
+          <t>Gestión Ambiental Limitada</t>
         </is>
       </c>
       <c r="F73" t="n">
-        <v>8500</v>
+        <v>250</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>19/04/2011</t>
+          <t>27/04/2011</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5435529&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5540550&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -3880,7 +3880,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Ampliacion de rutas para el transporte, reciclaje y gestión de residuos industriales. .</t>
+          <t>Piscicultura El Encanto</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -3890,30 +3890,30 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Gestión Ambiental Limitada</t>
+          <t>Congelados Pacífico S.A.</t>
         </is>
       </c>
       <c r="F74" t="n">
-        <v>250</v>
+        <v>8500</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>15/04/2011</t>
+          <t>19/04/2011</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5532880&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5435529&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
@@ -3928,7 +3928,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Mejoramiento y Ampliación de Producción Piscicultura Rupanquito</t>
+          <t>Ampliacion de rutas para el transporte, reciclaje y gestión de residuos industriales. .</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3938,30 +3938,30 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Salmones Antártica S.A</t>
+          <t>Gestión Ambiental Limitada</t>
         </is>
       </c>
       <c r="F75" t="n">
-        <v>1500</v>
+        <v>250</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>08/03/2011</t>
+          <t>15/04/2011</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5425000&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5532880&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -3976,7 +3976,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Subestación Pilauco 220/66 kV</t>
+          <t>Mejoramiento y Ampliación de Producción Piscicultura Rupanquito</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -3991,15 +3991,15 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Sistema de Transmision del Sur S.A.</t>
+          <t>Salmones Antártica S.A</t>
         </is>
       </c>
       <c r="F76" t="n">
-        <v>14800</v>
+        <v>1500</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>18/02/2011</t>
+          <t>08/03/2011</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
@@ -4009,7 +4009,7 @@
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5359373&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5425000&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -4024,7 +4024,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Modificación al Manejo de Mortalidad Mediante Sistema de Ensilaje. Piscicultura Las Quemas, Río Rahue, Comuna de Osorno.</t>
+          <t>Subestación Pilauco 220/66 kV</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -4039,15 +4039,15 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Piscicultura Las Quemas Chile S.A.</t>
+          <t>Sistema de Transmision del Sur S.A.</t>
         </is>
       </c>
       <c r="F77" t="n">
-        <v>4</v>
+        <v>14800</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>04/02/2011</t>
+          <t>18/02/2011</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
@@ -4057,7 +4057,7 @@
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5317523&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5359373&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -4072,7 +4072,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>MEJORAMIENTO PLANTA DE DISPOSICIÓN FINAL DE RESIDUOS INDUSTRIALES ECOPRIAL</t>
+          <t>Modificación al Manejo de Mortalidad Mediante Sistema de Ensilaje. Piscicultura Las Quemas, Río Rahue, Comuna de Osorno.</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -4087,15 +4087,15 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Asesoría Los Olivos S.A</t>
+          <t>Piscicultura Las Quemas Chile S.A.</t>
         </is>
       </c>
       <c r="F78" t="n">
-        <v>500</v>
+        <v>4</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>27/01/2011</t>
+          <t>04/02/2011</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
@@ -4105,7 +4105,7 @@
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5285248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5317523&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -4143,17 +4143,17 @@
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>17/01/2011</t>
+          <t>27/01/2011</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5248742&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5285248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
@@ -4168,7 +4168,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Piscicultura El Venado</t>
+          <t>MEJORAMIENTO PLANTA DE DISPOSICIÓN FINAL DE RESIDUOS INDUSTRIALES ECOPRIAL</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -4183,25 +4183,25 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Sociedad Agrícola Covarrubias Fernández Ltda.</t>
+          <t>Asesoría Los Olivos S.A</t>
         </is>
       </c>
       <c r="F80" t="n">
-        <v>8000</v>
+        <v>500</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>19/10/2010</t>
+          <t>17/01/2011</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5012986&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5248742&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
@@ -4216,7 +4216,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>PROYECTO AMPLIACION EXTRACCION DE ARIDOS EN RIO RAHUE SECTOR FUNDO EL ALMUD</t>
+          <t>Piscicultura El Venado</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -4231,15 +4231,15 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>ARIDOS DOWLING &amp; SCHILLING S.A</t>
+          <t>Sociedad Agrícola Covarrubias Fernández Ltda.</t>
         </is>
       </c>
       <c r="F81" t="n">
-        <v>250</v>
+        <v>8000</v>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>08/10/2010</t>
+          <t>19/10/2010</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
@@ -4249,7 +4249,7 @@
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4992265&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5012986&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
@@ -4264,7 +4264,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS</t>
+          <t>PROYECTO AMPLIACION EXTRACCION DE ARIDOS EN RIO RAHUE SECTOR FUNDO EL ALMUD</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -4274,30 +4274,30 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Sociedad Logística Ambiental Ltda.</t>
+          <t>ARIDOS DOWLING &amp; SCHILLING S.A</t>
         </is>
       </c>
       <c r="F82" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>24/06/2010</t>
+          <t>08/10/2010</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4702856&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4992265&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
@@ -4312,7 +4312,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>SISTEMA DE ENSILAJE DE MORTALIDAD PISCICULTURA PICHICHANLELFU</t>
+          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -4322,30 +4322,30 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Mowi Chile S.A</t>
+          <t>Sociedad Logística Ambiental Ltda.</t>
         </is>
       </c>
       <c r="F83" t="n">
-        <v>50</v>
+        <v>300</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>06/05/2010</t>
+          <t>24/06/2010</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4552129&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4702856&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -4360,7 +4360,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Piscicultura El Venado</t>
+          <t>SISTEMA DE ENSILAJE DE MORTALIDAD PISCICULTURA PICHICHANLELFU</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -4375,25 +4375,25 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Sociedad Agrícola Covarrubias Fernández Ltda.</t>
+          <t>Mowi Chile S.A</t>
         </is>
       </c>
       <c r="F84" t="n">
-        <v>8000</v>
+        <v>50</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>04/05/2010</t>
+          <t>06/05/2010</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4492153&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4552129&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
@@ -4408,7 +4408,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
+          <t>Piscicultura El Venado</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -4418,30 +4418,30 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Sociedad Agrícola Covarrubias Fernández Ltda.</t>
         </is>
       </c>
       <c r="F85" t="n">
-        <v>250</v>
+        <v>8000</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>26/04/2010</t>
+          <t>04/05/2010</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4509429&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4492153&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
@@ -4456,7 +4456,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>BODEGA PARA EL ALMACENAMIENTO TRANSITORIO DE RESIDUOS INDUSTRIALES DE TERCEROS, ECOPRIAL</t>
+          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -4466,20 +4466,20 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Asesoría Los Olivos S.A</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F86" t="n">
-        <v>286</v>
+        <v>250</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>21/04/2010</t>
+          <t>26/04/2010</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
@@ -4489,7 +4489,7 @@
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4522528&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4509429&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
@@ -4504,7 +4504,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
+          <t>BODEGA PARA EL ALMACENAMIENTO TRANSITORIO DE RESIDUOS INDUSTRIALES DE TERCEROS, ECOPRIAL</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -4514,30 +4514,30 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Asesoría Los Olivos S.A</t>
         </is>
       </c>
       <c r="F87" t="n">
-        <v>250</v>
+        <v>286</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>10/02/2010</t>
+          <t>21/04/2010</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4352324&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4522528&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
@@ -4552,7 +4552,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -4567,15 +4567,15 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F88" t="n">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>22/01/2010</t>
+          <t>10/02/2010</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
@@ -4585,7 +4585,7 @@
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4352324&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
@@ -4600,7 +4600,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -4615,7 +4615,7 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F89" t="n">
@@ -4628,12 +4628,12 @@
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
@@ -4671,17 +4671,17 @@
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>15/01/2010</t>
+          <t>22/01/2010</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -4696,7 +4696,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Línea de Alta Tensión Antillanca - Nueva Barro Blanco (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -4706,30 +4706,30 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Sistema de Transmision del Sur S.A.</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F91" t="n">
-        <v>8000</v>
+        <v>0</v>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>22/12/2009</t>
+          <t>15/01/2010</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4270514&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
@@ -4744,7 +4744,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS (e-seia)</t>
+          <t>Línea de Alta Tensión Antillanca - Nueva Barro Blanco (e-seia)</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -4754,30 +4754,30 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>Sociedad Logística Ambiental Ltda.</t>
+          <t>Sistema de Transmision del Sur S.A.</t>
         </is>
       </c>
       <c r="F92" t="n">
-        <v>0</v>
+        <v>8000</v>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>30/11/2009</t>
+          <t>22/12/2009</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4224783&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4270514&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
@@ -4792,7 +4792,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Subestación Nueva Barro Blanco 220/66 kV (e-seia)</t>
+          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -4802,30 +4802,30 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>Sistema de Transmision del Sur S.A.</t>
+          <t>Sociedad Logística Ambiental Ltda.</t>
         </is>
       </c>
       <c r="F93" t="n">
-        <v>14800</v>
+        <v>0</v>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>26/11/2009</t>
+          <t>30/11/2009</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4215834&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4224783&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
@@ -4840,7 +4840,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Regularización disposición final efluente Inmobiliaria Ferias Unidas de Osorno Limitada. Comuna de Osorno. Provincia de Osorno. Región de los Lagos. (e-seia)</t>
+          <t>Subestación Nueva Barro Blanco 220/66 kV (e-seia)</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -4855,15 +4855,15 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>Sociedad Inmobiliaria Ferias Unidas de Osorno Limitada</t>
+          <t>Sistema de Transmision del Sur S.A.</t>
         </is>
       </c>
       <c r="F94" t="n">
-        <v>27</v>
+        <v>14800</v>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>12/11/2009</t>
+          <t>26/11/2009</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
@@ -4873,7 +4873,7 @@
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4185561&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4215834&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
@@ -4888,7 +4888,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Transporte Inter-Regional Terrestre de Residuos, PROCESAN S.A. (e-seia)</t>
+          <t>Regularización disposición final efluente Inmobiliaria Ferias Unidas de Osorno Limitada. Comuna de Osorno. Provincia de Osorno. Región de los Lagos. (e-seia)</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -4898,30 +4898,30 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>PROCESAN S.A.</t>
+          <t>Sociedad Inmobiliaria Ferias Unidas de Osorno Limitada</t>
         </is>
       </c>
       <c r="F95" t="n">
-        <v>377</v>
+        <v>27</v>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>23/10/2009</t>
+          <t>12/11/2009</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4134794&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4185561&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
@@ -4936,7 +4936,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>ESTUDIO Y DISEÑO PLAN DE CIERRE VERTEDERO COMUNA DE OSORNO (e-seia)</t>
+          <t>Transporte Inter-Regional Terrestre de Residuos, PROCESAN S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -4946,16 +4946,16 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Osorno</t>
+          <t>PROCESAN S.A.</t>
         </is>
       </c>
       <c r="F96" t="n">
-        <v>3400</v>
+        <v>377</v>
       </c>
       <c r="G96" t="inlineStr">
         <is>
@@ -4964,12 +4964,12 @@
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4139027&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4134794&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
@@ -4984,7 +4984,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Incorporación de etapa fisicoquímica al sistema de tratamiento de RILes de MAFRISUR S.A. (e-seia)</t>
+          <t>ESTUDIO Y DISEÑO PLAN DE CIERRE VERTEDERO COMUNA DE OSORNO (e-seia)</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -4999,15 +4999,15 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>MAFRISUR S.A.</t>
+          <t>Ilustre Municipalidad de Osorno</t>
         </is>
       </c>
       <c r="F97" t="n">
-        <v>10</v>
+        <v>3400</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>29/09/2009</t>
+          <t>23/10/2009</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
@@ -5017,7 +5017,7 @@
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4085084&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4139027&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
@@ -5032,7 +5032,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos CMR Norte. (e-seia)</t>
+          <t>Incorporación de etapa fisicoquímica al sistema de tratamiento de RILes de MAFRISUR S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -5042,30 +5042,30 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>MAFRISUR S.A.</t>
         </is>
       </c>
       <c r="F98" t="n">
-        <v>250</v>
+        <v>10</v>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>18/08/2009</t>
+          <t>29/09/2009</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3960661&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4085084&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
@@ -5080,7 +5080,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Transporte de Combustibles y Residuos Industriales, Peligrosos y No Peligrosos entre Arica y Puerto Montt (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos CMR Norte. (e-seia)</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -5095,15 +5095,15 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>Transportes Centro Sur Norte S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F99" t="n">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>27/07/2009</t>
+          <t>18/08/2009</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
@@ -5113,7 +5113,7 @@
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3893261&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3960661&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
@@ -5128,7 +5128,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Proyecto Interregional de Transporte de Combustibles y Residuos Industriales, Peligrosos y No Peligrosos entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -5143,15 +5143,15 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>Sotrans Limitada</t>
+          <t>Transportes Centro Sur Norte S.A.</t>
         </is>
       </c>
       <c r="F100" t="n">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>02/06/2009</t>
+          <t>27/07/2009</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
@@ -5161,7 +5161,7 @@
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3893261&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
@@ -5176,7 +5176,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Planta Unidad Sur (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -5186,30 +5186,30 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>Envases Impresos SpA</t>
+          <t>Sotrans Limitada</t>
         </is>
       </c>
       <c r="F101" t="n">
-        <v>30000</v>
+        <v>22</v>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>20/04/2009</t>
+          <t>02/06/2009</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3715069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
@@ -5239,7 +5239,7 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>Envases Roble Alto S.A.</t>
+          <t>Envases Impresos SpA</t>
         </is>
       </c>
       <c r="F102" t="n">
@@ -5247,17 +5247,17 @@
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>08/04/2009</t>
+          <t>20/04/2009</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3685558&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3715069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
@@ -5272,7 +5272,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>LÍNEA DE TRANSMISIÓN ELÉCTRICA 2x220 kV OSORNOBARRO BLANCO (e-seia)</t>
+          <t>Planta Unidad Sur (e-seia)</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -5287,25 +5287,25 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>Empresa Eléctrica Pilmaiquén S.A.</t>
+          <t>Envases Roble Alto S.A.</t>
         </is>
       </c>
       <c r="F103" t="n">
-        <v>4560</v>
+        <v>30000</v>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>06/04/2009</t>
+          <t>08/04/2009</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3677275&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3685558&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
@@ -5320,10 +5320,14 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>EIA Relleno Sanitario Provincial de Osorno</t>
-        </is>
-      </c>
-      <c r="C104" t="inlineStr"/>
+          <t>LÍNEA DE TRANSMISIÓN ELÉCTRICA 2x220 kV OSORNOBARRO BLANCO (e-seia)</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D104" t="inlineStr">
         <is>
           <t>Décima</t>
@@ -5331,15 +5335,15 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Osorno</t>
+          <t>Empresa Eléctrica Pilmaiquén S.A.</t>
         </is>
       </c>
       <c r="F104" t="n">
-        <v>18000</v>
+        <v>4560</v>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>03/04/2009</t>
+          <t>06/04/2009</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
@@ -5349,7 +5353,7 @@
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3675668&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3677275&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
@@ -5364,14 +5368,10 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Ampliación Planta Osorno (e-seia)</t>
-        </is>
-      </c>
-      <c r="C105" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>EIA Relleno Sanitario Provincial de Osorno</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr"/>
       <c r="D105" t="inlineStr">
         <is>
           <t>Décima</t>
@@ -5379,15 +5379,15 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>Watts S.A.</t>
+          <t>Ilustre Municipalidad de Osorno</t>
         </is>
       </c>
       <c r="F105" t="n">
-        <v>22000</v>
+        <v>18000</v>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>24/03/2009</t>
+          <t>03/04/2009</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
@@ -5397,7 +5397,7 @@
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3639837&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3675668&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
@@ -5412,7 +5412,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Línea de Transmisión Los Negros-Barro Blanco (e-seia)</t>
+          <t>Ampliación Planta Osorno (e-seia)</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -5427,15 +5427,15 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>Sistema de Transmisión de Los Lagos S.A.</t>
+          <t>Watts S.A.</t>
         </is>
       </c>
       <c r="F106" t="n">
-        <v>0</v>
+        <v>22000</v>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>13/03/2009</t>
+          <t>24/03/2009</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
@@ -5445,7 +5445,7 @@
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3631384&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3639837&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
@@ -5460,7 +5460,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Transporte de Residuos de Plomo y Baterías en Desuso, por las Regiones VI, VII, VIII, IX, XIV y X (e-seia)</t>
+          <t>Línea de Transmisión Los Negros-Barro Blanco (e-seia)</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -5470,12 +5470,12 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>Transportes Reciclar Limitada</t>
+          <t>Sistema de Transmisión de Los Lagos S.A.</t>
         </is>
       </c>
       <c r="F107" t="n">
@@ -5483,7 +5483,7 @@
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>10/02/2009</t>
+          <t>13/03/2009</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
@@ -5493,7 +5493,7 @@
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3551870&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3631384&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
@@ -5508,7 +5508,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Residuos de Plomo y Baterías en Desuso, por las Regiones VI, VII, VIII, IX, XIV y X (e-seia)</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -5523,7 +5523,7 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>Transportes Reciclar Limitada</t>
         </is>
       </c>
       <c r="F108" t="n">
@@ -5531,17 +5531,17 @@
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>23/01/2009</t>
+          <t>10/02/2009</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503806&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3551870&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
@@ -5579,17 +5579,17 @@
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>27/11/2008</t>
+          <t>23/01/2009</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3337768&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503806&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
@@ -5604,7 +5604,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Transporte de Residuos de Plomo y Baterías en Desuso, por las Regiones VI, VII, VIII, IX, XIV y X (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -5619,7 +5619,7 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>Industria Proveedora de Partes Metalurgicas Ltda.</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F110" t="n">
@@ -5627,17 +5627,17 @@
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>07/11/2008</t>
+          <t>27/11/2008</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3321441&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3337768&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
@@ -5652,7 +5652,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Transporte de Residuos de Plomo y Baterías en Desuso, por las Regiones VI, VII, VIII, IX, XIV y X (e-seia)</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -5667,25 +5667,25 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Industria Proveedora de Partes Metalurgicas Ltda.</t>
         </is>
       </c>
       <c r="F111" t="n">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>30/10/2008</t>
+          <t>07/11/2008</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3313847&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3321441&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
@@ -5723,17 +5723,17 @@
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>15/10/2008</t>
+          <t>30/10/2008</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3313847&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
@@ -5748,7 +5748,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -5763,11 +5763,11 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F113" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G113" t="inlineStr">
         <is>
@@ -5776,12 +5776,12 @@
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
@@ -5796,7 +5796,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Proyecto Inmobiliario Portal Osorno (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -5806,30 +5806,30 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>Inmobiliaria Martabid Limitada</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F114" t="n">
-        <v>20000</v>
+        <v>250</v>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>10/10/2008</t>
+          <t>15/10/2008</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3272599&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
@@ -5844,7 +5844,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS DE PLOMO Y BATERÍAS USADAS POR LAS REGIONES VI, VII, VIII, IX, XIV y X (e-seia)</t>
+          <t>Proyecto Inmobiliario Portal Osorno (e-seia)</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -5854,16 +5854,16 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>Industria Proveedora de Partes Metalurgicas Ltda.</t>
+          <t>Inmobiliaria Martabid Limitada</t>
         </is>
       </c>
       <c r="F115" t="n">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G115" t="inlineStr">
         <is>
@@ -5872,12 +5872,12 @@
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3249759&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3272599&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
@@ -5892,7 +5892,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS DE PLOMO Y BATERÍAS USADAS POR LAS REGIONES VI, VII, VIII, IX, XIV y X (e-seia)</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -5907,25 +5907,25 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Industria Proveedora de Partes Metalurgicas Ltda.</t>
         </is>
       </c>
       <c r="F116" t="n">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>01/10/2008</t>
+          <t>10/10/2008</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3232866&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3249759&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
@@ -5940,7 +5940,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>PLANTA ELABORADORA DE LECHE EN POLVO, COMUNA DE OSORNO, REGIÓN DE LOS LAGOS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -5950,30 +5950,30 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>Nestlé Chile S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F117" t="n">
-        <v>84000</v>
+        <v>250</v>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>29/09/2008</t>
+          <t>01/10/2008</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223561&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3232866&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
@@ -5988,7 +5988,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>PLANTA ELABORADORA DE LECHE EN POLVO, COMUNA DE OSORNO, REGIÓN DE LOS LAGOS (e-seia)</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -5998,30 +5998,30 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Nestlé Chile S.A.</t>
         </is>
       </c>
       <c r="F118" t="n">
-        <v>20</v>
+        <v>84000</v>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>16/09/2008</t>
+          <t>29/09/2008</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3192496&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223561&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
@@ -6036,7 +6036,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Regularización de Ampliación y Adición de Equipos al Sistema de Tratamiento de riles de la Planta Frigorífico de Osorno S.A. Comuna de Osorno. Región de los Lagos (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -6046,30 +6046,30 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>Frigorífico de osorno S.A.</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F119" t="n">
-        <v>160</v>
+        <v>20</v>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>28/08/2008</t>
+          <t>16/09/2008</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3143976&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3192496&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
@@ -6084,7 +6084,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>Regularización de Ampliación y Adición de Equipos al Sistema de Tratamiento de riles de la Planta Frigorífico de Osorno S.A. Comuna de Osorno. Región de los Lagos (e-seia)</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -6094,30 +6094,30 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Frigorífico de osorno S.A.</t>
         </is>
       </c>
       <c r="F120" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>20/08/2008</t>
+          <t>28/08/2008</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3143976&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
@@ -6132,7 +6132,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -6147,25 +6147,25 @@
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F121" t="n">
-        <v>1650</v>
+        <v>250</v>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>06/08/2008</t>
+          <t>20/08/2008</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3079271&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
@@ -6180,7 +6180,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -6195,15 +6195,15 @@
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F122" t="n">
-        <v>20</v>
+        <v>1650</v>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>05/08/2008</t>
+          <t>06/08/2008</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
@@ -6213,7 +6213,7 @@
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3079271&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
@@ -6228,7 +6228,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Segunda Modificación Piscicultura Santa Juana (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -6238,30 +6238,30 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>Cermaq Chile S.A.</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F123" t="n">
-        <v>7000</v>
+        <v>20</v>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>11/07/2008</t>
+          <t>05/08/2008</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3031825&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
@@ -6276,7 +6276,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>transporte de residuos peligrosos (e-seia)</t>
+          <t>Segunda Modificación Piscicultura Santa Juana (e-seia)</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -6286,30 +6286,30 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Cermaq Chile S.A.</t>
         </is>
       </c>
       <c r="F124" t="n">
-        <v>20</v>
+        <v>7000</v>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>09/07/2008</t>
+          <t>11/07/2008</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3023770&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3031825&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
@@ -6324,7 +6324,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
+          <t>transporte de residuos peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -6339,15 +6339,15 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F125" t="n">
-        <v>1650</v>
+        <v>20</v>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>07/07/2008</t>
+          <t>09/07/2008</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
@@ -6357,7 +6357,7 @@
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3008477&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3023770&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
@@ -6372,7 +6372,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>transporte de residuos peligrosos (e-seia)</t>
+          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -6387,15 +6387,15 @@
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F126" t="n">
-        <v>20</v>
+        <v>1650</v>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>30/05/2008</t>
+          <t>07/07/2008</t>
         </is>
       </c>
       <c r="H126" t="inlineStr">
@@ -6405,7 +6405,7 @@
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2910651&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3008477&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
@@ -6420,7 +6420,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Ampliacion Central Chuyaca (e-seia)</t>
+          <t>transporte de residuos peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -6430,30 +6430,30 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>SAGESA S.A.</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F127" t="n">
-        <v>4800</v>
+        <v>20</v>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>17/04/2008</t>
+          <t>30/05/2008</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2845928&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2910651&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
@@ -6468,7 +6468,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Modificación Piscicultura Las Quemas. Río Rahue. Comuna de Osorno (e-seia)</t>
+          <t>Ampliacion Central Chuyaca (e-seia)</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -6483,15 +6483,15 @@
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>PISCICULTURA LAS QUEMAS CHILE S.A.</t>
+          <t>SAGESA S.A.</t>
         </is>
       </c>
       <c r="F128" t="n">
-        <v>4000</v>
+        <v>4800</v>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>19/03/2008</t>
+          <t>17/04/2008</t>
         </is>
       </c>
       <c r="H128" t="inlineStr">
@@ -6501,7 +6501,7 @@
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2767784&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2845928&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
@@ -6516,7 +6516,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Aguas Residuales mediante Lombrifiltro para Lácteos Paraguay, Comuna de Osorno, X Región. (e-seia)</t>
+          <t>Modificación Piscicultura Las Quemas. Río Rahue. Comuna de Osorno (e-seia)</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -6531,15 +6531,15 @@
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>Gonzalo Andrés Schwalm Urzúa</t>
+          <t>PISCICULTURA LAS QUEMAS CHILE S.A.</t>
         </is>
       </c>
       <c r="F129" t="n">
-        <v>250</v>
+        <v>4000</v>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>28/02/2008</t>
+          <t>19/03/2008</t>
         </is>
       </c>
       <c r="H129" t="inlineStr">
@@ -6549,7 +6549,7 @@
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2737933&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2767784&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
@@ -6564,7 +6564,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Aguas Residuales mediante Lombrifiltro para "Lácteos Paraguay", Comuna de Osorno, X Región. (e-seia)</t>
+          <t>Planta de Tratamiento de Aguas Residuales mediante Lombrifiltro para Lácteos Paraguay, Comuna de Osorno, X Región. (e-seia)</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -6587,17 +6587,17 @@
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>06/02/2008</t>
+          <t>28/02/2008</t>
         </is>
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2690534&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2737933&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
@@ -6612,7 +6612,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Planta de Disposición Final de Residuos Industriales ECOPRIAL (e-seia)</t>
+          <t>Planta de Tratamiento de Aguas Residuales mediante Lombrifiltro para "Lácteos Paraguay", Comuna de Osorno, X Región. (e-seia)</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -6627,25 +6627,25 @@
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>Asesorías Los Olivos S.A.</t>
+          <t>Gonzalo Andrés Schwalm Urzúa</t>
         </is>
       </c>
       <c r="F131" t="n">
-        <v>1045</v>
+        <v>250</v>
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>30/01/2008</t>
+          <t>06/02/2008</t>
         </is>
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2667394&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2690534&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
@@ -6660,7 +6660,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE SUSTANCIAS PELIGROSAS EN Y ENTRE LAS REGIONES XV Y X (e-seia)</t>
+          <t>Planta de Disposición Final de Residuos Industriales ECOPRIAL (e-seia)</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -6670,20 +6670,20 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>INVERSIONES AUTOMOTRICES K Y L LIMITADA</t>
+          <t>Asesorías Los Olivos S.A.</t>
         </is>
       </c>
       <c r="F132" t="n">
-        <v>0</v>
+        <v>1045</v>
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>29/01/2008</t>
+          <t>30/01/2008</t>
         </is>
       </c>
       <c r="H132" t="inlineStr">
@@ -6693,7 +6693,7 @@
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2671596&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2667394&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
@@ -6708,7 +6708,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Piscicultura Pilmaiquén (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE SUSTANCIAS PELIGROSAS EN Y ENTRE LAS REGIONES XV Y X (e-seia)</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -6718,30 +6718,30 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>Inversiones Aubel Limitada</t>
+          <t>INVERSIONES AUTOMOTRICES K Y L LIMITADA</t>
         </is>
       </c>
       <c r="F133" t="n">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>23/11/2007</t>
+          <t>29/01/2008</t>
         </is>
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2507396&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2671596&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
@@ -6756,7 +6756,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Transporte Trans Regional Terrestre de Residuos Industriales (e-seia)</t>
+          <t>Piscicultura Pilmaiquén (e-seia)</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -6766,30 +6766,30 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
+          <t>Inversiones Aubel Limitada</t>
         </is>
       </c>
       <c r="F134" t="n">
-        <v>429</v>
+        <v>1500</v>
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>02/11/2007</t>
+          <t>23/11/2007</t>
         </is>
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2474976&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2507396&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
@@ -6804,7 +6804,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte Trans Regional Terrestre de Residuos Industriales (e-seia)</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -6819,25 +6819,25 @@
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F135" t="n">
-        <v>30</v>
+        <v>429</v>
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>25/10/2007</t>
+          <t>02/11/2007</t>
         </is>
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2454259&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2474976&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
@@ -6852,7 +6852,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -6867,25 +6867,25 @@
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>Servicio de Aseo Integral Monterredondo S.A</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F136" t="n">
-        <v>234</v>
+        <v>30</v>
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>08/10/2007</t>
+          <t>25/10/2007</t>
         </is>
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2454259&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
@@ -6900,7 +6900,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -6915,25 +6915,25 @@
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>Transportes Máximo Enrique Sciarresi González EIRL</t>
+          <t>Servicio de Aseo Integral Monterredondo S.A</t>
         </is>
       </c>
       <c r="F137" t="n">
-        <v>250</v>
+        <v>234</v>
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>20/09/2007</t>
+          <t>08/10/2007</t>
         </is>
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2392309&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
@@ -6948,7 +6948,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Matadero Ovino MAFRISUR S.A., comuna de Osorno, Región deLos Lagos (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -6958,20 +6958,20 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>MAFRISUR S.A.</t>
+          <t>Transportes Máximo Enrique Sciarresi González EIRL</t>
         </is>
       </c>
       <c r="F138" t="n">
-        <v>6000</v>
+        <v>250</v>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>03/09/2007</t>
+          <t>20/09/2007</t>
         </is>
       </c>
       <c r="H138" t="inlineStr">
@@ -6981,7 +6981,7 @@
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2374309&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2392309&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
@@ -6996,7 +6996,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>Matadero Ovino MAFRISUR S.A., comuna de Osorno, Región deLos Lagos (e-seia)</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -7006,30 +7006,30 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>MAFRISUR S.A.</t>
         </is>
       </c>
       <c r="F139" t="n">
-        <v>10</v>
+        <v>6000</v>
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>31/08/2007</t>
+          <t>03/09/2007</t>
         </is>
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2374309&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
@@ -7044,7 +7044,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>CONJUNTO HABITACIONAL JARDIN DEL ALTO,OSORNO (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -7054,16 +7054,16 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>Inmobiliaria Fourcade S.A.</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F140" t="n">
-        <v>3370</v>
+        <v>10</v>
       </c>
       <c r="G140" t="inlineStr">
         <is>
@@ -7072,12 +7072,12 @@
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2359952&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
@@ -7092,7 +7092,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales (e-seia)</t>
+          <t>CONJUNTO HABITACIONAL JARDIN DEL ALTO,OSORNO (e-seia)</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -7102,30 +7102,30 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>Castañeda Hermanos Ltda.</t>
+          <t>Inmobiliaria Fourcade S.A.</t>
         </is>
       </c>
       <c r="F141" t="n">
-        <v>300</v>
+        <v>3370</v>
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>23/08/2007</t>
+          <t>31/08/2007</t>
         </is>
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2329508&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2359952&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
@@ -7140,7 +7140,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Transportes de Residuos Industrales (e-seia)</t>
+          <t>Transporte de Residuos Industriales (e-seia)</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -7163,17 +7163,17 @@
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>04/07/2007</t>
+          <t>23/08/2007</t>
         </is>
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2329508&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
@@ -7188,7 +7188,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>Transportes de Residuos Industrales (e-seia)</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -7203,25 +7203,25 @@
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>Global Index Chile Servicios Integrales Limitada</t>
+          <t>Castañeda Hermanos Ltda.</t>
         </is>
       </c>
       <c r="F143" t="n">
-        <v>80</v>
+        <v>300</v>
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>13/06/2007</t>
+          <t>04/07/2007</t>
         </is>
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2199692&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
@@ -7236,7 +7236,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Drenaje Superficial Fundo Los Notros (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -7246,30 +7246,30 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>Marìa Magdalena Erratchou Lara</t>
+          <t>Global Index Chile Servicios Integrales Limitada</t>
         </is>
       </c>
       <c r="F144" t="n">
-        <v>132</v>
+        <v>80</v>
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>25/04/2007</t>
+          <t>13/06/2007</t>
         </is>
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2124152&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2199692&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
@@ -7284,7 +7284,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Modificacion Piscicultura Santa Juana (e-seia)</t>
+          <t>Drenaje Superficial Fundo Los Notros (e-seia)</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -7299,15 +7299,15 @@
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>Cermaq Chile S.A.</t>
+          <t>Marìa Magdalena Erratchou Lara</t>
         </is>
       </c>
       <c r="F145" t="n">
-        <v>3000</v>
+        <v>132</v>
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>12/04/2007</t>
+          <t>25/04/2007</t>
         </is>
       </c>
       <c r="H145" t="inlineStr">
@@ -7317,7 +7317,7 @@
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2094113&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2124152&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J145" t="inlineStr">
@@ -7332,7 +7332,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>SISTEMA DE TRATAMIENTO DE RESIDUOS INDUSTRIALES LIQUIDOS AGROLACTEOS CUINCO SA (e-seia)</t>
+          <t>Modificacion Piscicultura Santa Juana (e-seia)</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -7347,15 +7347,15 @@
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>Distribuidora J.A Ltda.</t>
+          <t>Cermaq Chile S.A.</t>
         </is>
       </c>
       <c r="F146" t="n">
-        <v>100</v>
+        <v>3000</v>
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>09/04/2007</t>
+          <t>12/04/2007</t>
         </is>
       </c>
       <c r="H146" t="inlineStr">
@@ -7365,7 +7365,7 @@
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2092314&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2094113&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J146" t="inlineStr">
@@ -7380,7 +7380,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Drenaje Predio Polloico (e-seia)</t>
+          <t>SISTEMA DE TRATAMIENTO DE RESIDUOS INDUSTRIALES LIQUIDOS AGROLACTEOS CUINCO SA (e-seia)</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -7395,25 +7395,25 @@
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>Alfonso Guillermo Besser Hayler</t>
+          <t>Distribuidora J.A Ltda.</t>
         </is>
       </c>
       <c r="F147" t="n">
-        <v>44</v>
+        <v>100</v>
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>21/03/2007</t>
+          <t>09/04/2007</t>
         </is>
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2057529&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2092314&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
@@ -7428,7 +7428,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región, incluyendo la Región Metropolitana (e-seia)</t>
+          <t>Drenaje Predio Polloico (e-seia)</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -7438,30 +7438,30 @@
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>Empresa de Residuos RESITER S.A.</t>
+          <t>Alfonso Guillermo Besser Hayler</t>
         </is>
       </c>
       <c r="F148" t="n">
-        <v>1</v>
+        <v>44</v>
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>16/03/2007</t>
+          <t>21/03/2007</t>
         </is>
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049917&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2057529&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">
@@ -7476,7 +7476,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Transporte Ferroviario y Almacenamiento de Combustible (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región, incluyendo la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -7491,25 +7491,25 @@
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>Ferrocarril del Pacífico S.A.</t>
+          <t>Empresa de Residuos RESITER S.A.</t>
         </is>
       </c>
       <c r="F149" t="n">
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>26/02/2007</t>
+          <t>16/03/2007</t>
         </is>
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2016722&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049917&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
@@ -7524,7 +7524,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>TRANSPORTE FERROVIARIO Y ALMACENAMIENTO DE COMBUSTIBLES (e-seia)</t>
+          <t>Transporte Ferroviario y Almacenamiento de Combustible (e-seia)</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -7547,17 +7547,17 @@
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>14/02/2007</t>
+          <t>26/02/2007</t>
         </is>
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1990390&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2016722&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
@@ -7572,7 +7572,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región incluyendo la Región Metropolitana (e-seia)</t>
+          <t>TRANSPORTE FERROVIARIO Y ALMACENAMIENTO DE COMBUSTIBLES (e-seia)</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -7587,15 +7587,15 @@
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>Empresa de Residuos RESITER S.A.</t>
+          <t>Ferrocarril del Pacífico S.A.</t>
         </is>
       </c>
       <c r="F151" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>13/02/2007</t>
+          <t>14/02/2007</t>
         </is>
       </c>
       <c r="H151" t="inlineStr">
@@ -7605,7 +7605,7 @@
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1984174&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1990390&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J151" t="inlineStr">
@@ -7620,7 +7620,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región incluyendo la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -7635,25 +7635,25 @@
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Empresa de Residuos RESITER S.A.</t>
         </is>
       </c>
       <c r="F152" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>12/01/2007</t>
+          <t>13/02/2007</t>
         </is>
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1984174&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J152" t="inlineStr">
@@ -7668,7 +7668,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -7691,17 +7691,17 @@
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>29/12/2006</t>
+          <t>12/01/2007</t>
         </is>
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J153" t="inlineStr">
@@ -7716,7 +7716,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en Camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -7731,25 +7731,25 @@
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F154" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>12/12/2006</t>
+          <t>29/12/2006</t>
         </is>
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1852126&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
@@ -7764,7 +7764,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>TRANSPORTES DE ACEITES USADOS (e-seia)</t>
+          <t>Transporte Terrestre en Camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X (e-seia)</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -7779,25 +7779,25 @@
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>TRANSPORTES INOSTROZA LTDA</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F155" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>07/12/2006</t>
+          <t>12/12/2006</t>
         </is>
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1843978&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1852126&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
@@ -7812,7 +7812,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>TRANSPORTES DE ACEITES USADOS (e-seia)</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -7827,25 +7827,25 @@
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES INOSTROZA LTDA</t>
         </is>
       </c>
       <c r="F156" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>10/11/2006</t>
+          <t>07/12/2006</t>
         </is>
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1843978&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
@@ -7860,7 +7860,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -7875,25 +7875,25 @@
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>Prodelin Ltda.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F157" t="n">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>06/11/2006</t>
+          <t>10/11/2006</t>
         </is>
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1785275&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
@@ -7908,7 +7908,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Transporte terrestre en camiones de Sustancias y Residuos Peligrosos entre la regiones V y X 193 (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -7923,25 +7923,25 @@
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>Prodelin Ltda.</t>
         </is>
       </c>
       <c r="F158" t="n">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>25/10/2006</t>
+          <t>06/11/2006</t>
         </is>
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1767215&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1785275&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
@@ -7956,7 +7956,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Transporte de Residuos industrial por las rutas indicadas (e-seia)</t>
+          <t>Transporte terrestre en camiones de Sustancias y Residuos Peligrosos entre la regiones V y X 193 (e-seia)</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -7971,15 +7971,15 @@
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>Empresa de Transportes Trans-residuos</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F159" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>28/09/2006</t>
+          <t>25/10/2006</t>
         </is>
       </c>
       <c r="H159" t="inlineStr">
@@ -7989,7 +7989,7 @@
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1726867&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1767215&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
@@ -8004,7 +8004,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Proyecto Pradera, Aumento de capacidad Planta Prolesur Osorno (e-seia)</t>
+          <t>Transporte de Residuos industrial por las rutas indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -8014,30 +8014,30 @@
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>Prolesur S.A.</t>
+          <t>Empresa de Transportes Trans-residuos</t>
         </is>
       </c>
       <c r="F160" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>01/09/2006</t>
+          <t>28/09/2006</t>
         </is>
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1643306&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1726867&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J160" t="inlineStr">
@@ -8052,7 +8052,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES PELIGROSOS Y NO PELIGROSOS POR RUTAS INDICADAS ENTRE I y X REGION (e-seia)</t>
+          <t>Proyecto Pradera, Aumento de capacidad Planta Prolesur Osorno (e-seia)</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -8062,20 +8062,20 @@
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>GESTION INTEGRAL DE RESIDUOS GEOBARRA EXINS LTDA.</t>
+          <t>Prolesur S.A.</t>
         </is>
       </c>
       <c r="F161" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>09/08/2006</t>
+          <t>01/09/2006</t>
         </is>
       </c>
       <c r="H161" t="inlineStr">
@@ -8085,7 +8085,7 @@
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1616105&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1643306&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J161" t="inlineStr">
@@ -8100,7 +8100,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Drenaje Superficial Predio Los Nogales (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES PELIGROSOS Y NO PELIGROSOS POR RUTAS INDICADAS ENTRE I y X REGION (e-seia)</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -8110,20 +8110,20 @@
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>Edmundo Kram Toledo</t>
+          <t>GESTION INTEGRAL DE RESIDUOS GEOBARRA EXINS LTDA.</t>
         </is>
       </c>
       <c r="F162" t="n">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>31/07/2006</t>
+          <t>09/08/2006</t>
         </is>
       </c>
       <c r="H162" t="inlineStr">
@@ -8133,7 +8133,7 @@
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1601455&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1616105&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J162" t="inlineStr">
@@ -8148,7 +8148,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Sistema de Tratamiento de Residuos Industriales Líquidos de Soc. Col. y Com. Jorge y Mario Meyer Buschmann (Lácteos Mulpulmo) X Región (e-seia)</t>
+          <t>Drenaje Superficial Predio Los Nogales (e-seia)</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -8163,15 +8163,15 @@
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>Lácteos del Sur S.A.</t>
+          <t>Edmundo Kram Toledo</t>
         </is>
       </c>
       <c r="F163" t="n">
-        <v>850</v>
+        <v>87</v>
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>20/07/2006</t>
+          <t>31/07/2006</t>
         </is>
       </c>
       <c r="H163" t="inlineStr">
@@ -8181,7 +8181,7 @@
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1594850&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1601455&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J163" t="inlineStr">
@@ -8196,7 +8196,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Piscicultura Las Quemas, Río Rahue, Comuna de Osorno (e-seia)</t>
+          <t>Sistema de Tratamiento de Residuos Industriales Líquidos de Soc. Col. y Com. Jorge y Mario Meyer Buschmann (Lácteos Mulpulmo) X Región (e-seia)</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -8211,15 +8211,15 @@
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>PISCICULTURA LAS QUEMAS CHILE S.A.</t>
+          <t>Lácteos del Sur S.A.</t>
         </is>
       </c>
       <c r="F164" t="n">
-        <v>2000</v>
+        <v>850</v>
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>18/07/2006</t>
+          <t>20/07/2006</t>
         </is>
       </c>
       <c r="H164" t="inlineStr">
@@ -8229,7 +8229,7 @@
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1574723&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1594850&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J164" t="inlineStr">
@@ -8244,7 +8244,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>TransporteTerrestre de Residuos Industriales Peligrosos y No Peligrosos por Rutas Indicadas entre la I y X Región (e-seia)</t>
+          <t>Piscicultura Las Quemas, Río Rahue, Comuna de Osorno (e-seia)</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -8254,30 +8254,30 @@
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>mario enrique barra diaz</t>
+          <t>PISCICULTURA LAS QUEMAS CHILE S.A.</t>
         </is>
       </c>
       <c r="F165" t="n">
-        <v>80</v>
+        <v>2000</v>
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>22/06/2006</t>
+          <t>18/07/2006</t>
         </is>
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1508957&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1574723&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J165" t="inlineStr">
@@ -8292,7 +8292,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Transporte de Combustible (e-seia)</t>
+          <t>TransporteTerrestre de Residuos Industriales Peligrosos y No Peligrosos por Rutas Indicadas entre la I y X Región (e-seia)</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -8307,25 +8307,25 @@
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
+          <t>mario enrique barra diaz</t>
         </is>
       </c>
       <c r="F166" t="n">
-        <v>500</v>
+        <v>80</v>
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>21/04/2006</t>
+          <t>22/06/2006</t>
         </is>
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1408985&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1508957&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J166" t="inlineStr">
@@ -8340,7 +8340,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Transporte de Combustibles (e-seia)</t>
+          <t>Transporte de Combustible (e-seia)</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -8363,17 +8363,17 @@
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>31/03/2006</t>
+          <t>21/04/2006</t>
         </is>
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1408985&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J167" t="inlineStr">
@@ -8388,7 +8388,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
+          <t>Transporte de Combustibles (e-seia)</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -8403,25 +8403,25 @@
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>Francisco Javier Acuña Carter</t>
+          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
         </is>
       </c>
       <c r="F168" t="n">
-        <v>4000</v>
+        <v>500</v>
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>27/03/2006</t>
+          <t>31/03/2006</t>
         </is>
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J168" t="inlineStr">
@@ -8436,7 +8436,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -8459,17 +8459,17 @@
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>06/03/2006</t>
+          <t>27/03/2006</t>
         </is>
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J169" t="inlineStr">
@@ -8484,7 +8484,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Transporte de sustancias y residuos peligrosos (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -8499,25 +8499,25 @@
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>Iris Leiva ALbornoz Ltda.</t>
+          <t>Francisco Javier Acuña Carter</t>
         </is>
       </c>
       <c r="F170" t="n">
-        <v>0</v>
+        <v>4000</v>
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>02/03/2006</t>
+          <t>06/03/2006</t>
         </is>
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1281009&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J170" t="inlineStr">
@@ -8532,7 +8532,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>"PLANTA ELABORADORA DE PRODUCTOS LÁCTEOS, OSORNO, X REGIÓN" 0 (e-seia)</t>
+          <t>Transporte de sustancias y residuos peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -8542,30 +8542,30 @@
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>Manuel Ellies Fuenzalida</t>
+          <t>Iris Leiva ALbornoz Ltda.</t>
         </is>
       </c>
       <c r="F171" t="n">
-        <v>17950</v>
+        <v>0</v>
       </c>
       <c r="G171" t="inlineStr">
         <is>
-          <t>29/11/2005</t>
+          <t>02/03/2006</t>
         </is>
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1137908&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1281009&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J171" t="inlineStr">
@@ -8580,7 +8580,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE PLOMO, RESIDUOS PLOMADOS Y OTROS RESIDUOS PELIGROSOS 053562 (e-seia)</t>
+          <t>"PLANTA ELABORADORA DE PRODUCTOS LÁCTEOS, OSORNO, X REGIÓN" 0 (e-seia)</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -8590,20 +8590,20 @@
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>BATERIAS COSMOS LTDA</t>
+          <t>Manuel Ellies Fuenzalida</t>
         </is>
       </c>
       <c r="F172" t="n">
-        <v>160</v>
+        <v>17950</v>
       </c>
       <c r="G172" t="inlineStr">
         <is>
-          <t>11/11/2005</t>
+          <t>29/11/2005</t>
         </is>
       </c>
       <c r="H172" t="inlineStr">
@@ -8613,7 +8613,7 @@
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1102933&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1137908&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J172" t="inlineStr">
@@ -8628,7 +8628,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>TRANSPORTE DE PLOMO, RESIDUOS PLOMADOS Y OTROS RESIDUOS PELIGROSOS 053562 (e-seia)</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -8643,15 +8643,15 @@
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>Renzo Luis Pereira Sandoval</t>
+          <t>BATERIAS COSMOS LTDA</t>
         </is>
       </c>
       <c r="F173" t="n">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="G173" t="inlineStr">
         <is>
-          <t>08/09/2005</t>
+          <t>11/11/2005</t>
         </is>
       </c>
       <c r="H173" t="inlineStr">
@@ -8661,7 +8661,7 @@
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1102933&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">
@@ -8691,11 +8691,11 @@
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>Jorge Díaz Contreras</t>
+          <t>Renzo Luis Pereira Sandoval</t>
         </is>
       </c>
       <c r="F174" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="G174" t="inlineStr">
         <is>
@@ -8709,7 +8709,7 @@
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J174" t="inlineStr">
@@ -8724,7 +8724,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -8739,11 +8739,11 @@
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>Transportes Santa María S.A.</t>
+          <t>Jorge Díaz Contreras</t>
         </is>
       </c>
       <c r="F175" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="G175" t="inlineStr">
         <is>
@@ -8757,7 +8757,7 @@
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
@@ -8772,7 +8772,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Conjunto Habitacional Sector Lololhue, Comuna de osorno (e-seia)</t>
+          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -8782,20 +8782,20 @@
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>SERVICIO DE VIVIENDA Y URBANISMO X REGION</t>
+          <t>Transportes Santa María S.A.</t>
         </is>
       </c>
       <c r="F176" t="n">
-        <v>20000</v>
+        <v>200</v>
       </c>
       <c r="G176" t="inlineStr">
         <is>
-          <t>19/07/2005</t>
+          <t>08/09/2005</t>
         </is>
       </c>
       <c r="H176" t="inlineStr">
@@ -8805,7 +8805,7 @@
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=951284&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J176" t="inlineStr">
@@ -8820,7 +8820,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Ampliación Pozo de Aridos Hadida Ampliación Pozo de Arido Hadida (e-seia)</t>
+          <t>Conjunto Habitacional Sector Lololhue, Comuna de osorno (e-seia)</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -8835,15 +8835,15 @@
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>Edgar Walter Hadida Schmid</t>
+          <t>SERVICIO DE VIVIENDA Y URBANISMO X REGION</t>
         </is>
       </c>
       <c r="F177" t="n">
-        <v>1</v>
+        <v>20000</v>
       </c>
       <c r="G177" t="inlineStr">
         <is>
-          <t>08/06/2005</t>
+          <t>19/07/2005</t>
         </is>
       </c>
       <c r="H177" t="inlineStr">
@@ -8853,7 +8853,7 @@
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=879261&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=951284&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J177" t="inlineStr">
@@ -8868,7 +8868,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Modificación Sistema de Tratamiento de Residuos MAtadero frigorífico del Sur S.A. Sistema de Tratamiento Matadero Frigorifico Osorno (e-seia)</t>
+          <t>Ampliación Pozo de Aridos Hadida Ampliación Pozo de Arido Hadida (e-seia)</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -8883,11 +8883,11 @@
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>Matadero Frigorífico del Sur S.A.</t>
+          <t>Edgar Walter Hadida Schmid</t>
         </is>
       </c>
       <c r="F178" t="n">
-        <v>862</v>
+        <v>1</v>
       </c>
       <c r="G178" t="inlineStr">
         <is>
@@ -8901,7 +8901,7 @@
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=883177&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=879261&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J178" t="inlineStr">
@@ -8916,7 +8916,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Transporte terrestre de sustancias químicas (e-seia)</t>
+          <t>Modificación Sistema de Tratamiento de Residuos MAtadero frigorífico del Sur S.A. Sistema de Tratamiento Matadero Frigorifico Osorno (e-seia)</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -8926,20 +8926,20 @@
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>Inmobiliaria e inversiones Polykarpo S.A.</t>
+          <t>Matadero Frigorífico del Sur S.A.</t>
         </is>
       </c>
       <c r="F179" t="n">
-        <v>200</v>
+        <v>862</v>
       </c>
       <c r="G179" t="inlineStr">
         <is>
-          <t>05/05/2005</t>
+          <t>08/06/2005</t>
         </is>
       </c>
       <c r="H179" t="inlineStr">
@@ -8949,7 +8949,7 @@
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=664436&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=883177&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J179" t="inlineStr">
@@ -8987,17 +8987,17 @@
       </c>
       <c r="G180" t="inlineStr">
         <is>
-          <t>09/03/2005</t>
+          <t>05/05/2005</t>
         </is>
       </c>
       <c r="H180" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=614117&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=664436&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J180" t="inlineStr">
@@ -9012,7 +9012,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Modificación Plan Regulador de Osorno. (e-seia)</t>
+          <t>Transporte terrestre de sustancias químicas (e-seia)</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -9022,30 +9022,30 @@
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Osorno</t>
+          <t>Inmobiliaria e inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F181" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G181" t="inlineStr">
         <is>
-          <t>06/01/2005</t>
+          <t>09/03/2005</t>
         </is>
       </c>
       <c r="H181" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=561189&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=614117&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J181" t="inlineStr">
@@ -9060,7 +9060,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Transporte terrestre de residuos industriales y productos asimilables por caminos que se indican de la I a la X Región (e-seia)</t>
+          <t>Modificación Plan Regulador de Osorno. (e-seia)</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -9070,20 +9070,20 @@
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>Empresa de Transportes Los Ríos S.A.</t>
+          <t>Ilustre Municipalidad de Osorno</t>
         </is>
       </c>
       <c r="F182" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G182" t="inlineStr">
         <is>
-          <t>08/11/2004</t>
+          <t>06/01/2005</t>
         </is>
       </c>
       <c r="H182" t="inlineStr">
@@ -9093,7 +9093,7 @@
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=502823&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=561189&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J182" t="inlineStr">
@@ -9108,7 +9108,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Drenaje Predio Polloico (e-seia)</t>
+          <t>Transporte terrestre de residuos industriales y productos asimilables por caminos que se indican de la I a la X Región (e-seia)</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -9118,30 +9118,30 @@
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>Alfonso Guillermo Besser Hayler</t>
+          <t>Empresa de Transportes Los Ríos S.A.</t>
         </is>
       </c>
       <c r="F183" t="n">
-        <v>44</v>
+        <v>1</v>
       </c>
       <c r="G183" t="inlineStr">
         <is>
-          <t>20/10/2004</t>
+          <t>08/11/2004</t>
         </is>
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=487555&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=502823&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J183" t="inlineStr">
@@ -9156,7 +9156,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>DRENAJE COMUNITARIO PREDIOS SANTA CARMEN (e-seia)</t>
+          <t>Drenaje Predio Polloico (e-seia)</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -9171,25 +9171,25 @@
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>comunidad obras de drenaje santa carmen</t>
+          <t>Alfonso Guillermo Besser Hayler</t>
         </is>
       </c>
       <c r="F184" t="n">
-        <v>162</v>
+        <v>44</v>
       </c>
       <c r="G184" t="inlineStr">
         <is>
-          <t>04/10/2004</t>
+          <t>20/10/2004</t>
         </is>
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=472491&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=487555&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J184" t="inlineStr">
@@ -9204,7 +9204,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Drenaje Predio Polloico (e-seia)</t>
+          <t>DRENAJE COMUNITARIO PREDIOS SANTA CARMEN (e-seia)</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -9219,11 +9219,11 @@
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>Alfonso Guillermo Besser Hayler</t>
+          <t>comunidad obras de drenaje santa carmen</t>
         </is>
       </c>
       <c r="F185" t="n">
-        <v>44</v>
+        <v>162</v>
       </c>
       <c r="G185" t="inlineStr">
         <is>
@@ -9232,12 +9232,12 @@
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=472796&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=472491&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J185" t="inlineStr">
@@ -9252,7 +9252,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Transporte Rodoviario de Cloro en y entre las Regiones II y X (e-seia)</t>
+          <t>Drenaje Predio Polloico (e-seia)</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -9262,30 +9262,30 @@
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>Occidental Chemical Chile Limitada</t>
+          <t>Alfonso Guillermo Besser Hayler</t>
         </is>
       </c>
       <c r="F186" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="G186" t="inlineStr">
         <is>
-          <t>09/08/2004</t>
+          <t>04/10/2004</t>
         </is>
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=415850&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=472796&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J186" t="inlineStr">
@@ -9300,7 +9300,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>SISTEMA DE DEPURACIÓN Y NEUTRALIZACIÓN DE RESIDUOS INDUSTRIALES LÍQUIDOS, DECLARACIÓN DE IMPACTO AMBIENTAL (e-seia)</t>
+          <t>Transporte Rodoviario de Cloro en y entre las Regiones II y X (e-seia)</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -9310,20 +9310,20 @@
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>Prolesur S.A.</t>
+          <t>Occidental Chemical Chile Limitada</t>
         </is>
       </c>
       <c r="F187" t="n">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="G187" t="inlineStr">
         <is>
-          <t>02/08/2004</t>
+          <t>09/08/2004</t>
         </is>
       </c>
       <c r="H187" t="inlineStr">
@@ -9333,7 +9333,7 @@
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=408507&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=415850&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J187" t="inlineStr">
@@ -9348,7 +9348,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>PLAN REGIONAL DE DESARROLLO URBANO (e-seia)</t>
+          <t>SISTEMA DE DEPURACIÓN Y NEUTRALIZACIÓN DE RESIDUOS INDUSTRIALES LÍQUIDOS, DECLARACIÓN DE IMPACTO AMBIENTAL (e-seia)</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
@@ -9358,20 +9358,20 @@
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>Decimocuarta</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>SEREMI DE VIVIENDA Y URBANISMO X REGIÓN DE LOS LAGOS</t>
+          <t>Prolesur S.A.</t>
         </is>
       </c>
       <c r="F188" t="n">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="G188" t="inlineStr">
         <is>
-          <t>01/07/2004</t>
+          <t>02/08/2004</t>
         </is>
       </c>
       <c r="H188" t="inlineStr">
@@ -9381,7 +9381,7 @@
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=389944&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=408507&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J188" t="inlineStr">
@@ -9396,7 +9396,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Transporte de Plaguicidas y Artefactos Contaminados o que Contienen Bifenilospoliclorados (PCB) (e-seia)</t>
+          <t>PLAN REGIONAL DE DESARROLLO URBANO (e-seia)</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
@@ -9406,20 +9406,20 @@
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Decimocuarta</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>Bravo Energy Chile S.A.</t>
+          <t>SEREMI DE VIVIENDA Y URBANISMO X REGIÓN DE LOS LAGOS</t>
         </is>
       </c>
       <c r="F189" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G189" t="inlineStr">
         <is>
-          <t>21/06/2004</t>
+          <t>01/07/2004</t>
         </is>
       </c>
       <c r="H189" t="inlineStr">
@@ -9429,7 +9429,7 @@
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=377075&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=389944&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J189" t="inlineStr">
@@ -9444,7 +9444,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>"PROYECTO MATADERO FRIGORÍFICO DEL SUR S.A., (e-seia)</t>
+          <t>Transporte de Plaguicidas y Artefactos Contaminados o que Contienen Bifenilospoliclorados (PCB) (e-seia)</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -9454,20 +9454,20 @@
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>Eduardo Arturo Epple Held</t>
+          <t>Bravo Energy Chile S.A.</t>
         </is>
       </c>
       <c r="F190" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G190" t="inlineStr">
         <is>
-          <t>04/06/2004</t>
+          <t>21/06/2004</t>
         </is>
       </c>
       <c r="H190" t="inlineStr">
@@ -9477,7 +9477,7 @@
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=372111&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=377075&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J190" t="inlineStr">
@@ -9492,7 +9492,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Relocalización del Colegio Francés de Osorno (e-seia)</t>
+          <t>"PROYECTO MATADERO FRIGORÍFICO DEL SUR S.A., (e-seia)</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
@@ -9507,15 +9507,15 @@
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>Sociedad Educacional Francesa de Osorno S.A.</t>
+          <t>Eduardo Arturo Epple Held</t>
         </is>
       </c>
       <c r="F191" t="n">
-        <v>2329</v>
+        <v>0</v>
       </c>
       <c r="G191" t="inlineStr">
         <is>
-          <t>03/06/2004</t>
+          <t>04/06/2004</t>
         </is>
       </c>
       <c r="H191" t="inlineStr">
@@ -9525,7 +9525,7 @@
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=371821&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=372111&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J191" t="inlineStr">
@@ -9540,7 +9540,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>Piscicultura Santa Juana (pert 202101089) (e-seia)</t>
+          <t>Relocalización del Colegio Francés de Osorno (e-seia)</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
@@ -9555,15 +9555,15 @@
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>Cermaq Chile S.A.</t>
+          <t>Sociedad Educacional Francesa de Osorno S.A.</t>
         </is>
       </c>
       <c r="F192" t="n">
-        <v>1500</v>
+        <v>2329</v>
       </c>
       <c r="G192" t="inlineStr">
         <is>
-          <t>30/04/2004</t>
+          <t>03/06/2004</t>
         </is>
       </c>
       <c r="H192" t="inlineStr">
@@ -9573,7 +9573,7 @@
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=325576&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=371821&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J192" t="inlineStr">
@@ -9588,7 +9588,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>Transporte de Plaguicidas y Artefactos Contaminados o que Contienen Bifenilospoliclorados (PCB) (e-seia)</t>
+          <t>Piscicultura Santa Juana (pert 202101089) (e-seia)</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
@@ -9598,16 +9598,16 @@
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>Bravo Energy Chile S.A.</t>
+          <t>Cermaq Chile S.A.</t>
         </is>
       </c>
       <c r="F193" t="n">
-        <v>200</v>
+        <v>1500</v>
       </c>
       <c r="G193" t="inlineStr">
         <is>
@@ -9616,12 +9616,12 @@
       </c>
       <c r="H193" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I193" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=339300&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=325576&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J193" t="inlineStr">
@@ -9636,7 +9636,7 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>Sistema de Tratamiento de Residuos Industriales Líquidos para la Planta Loncoleche Osorno. (e-seia)</t>
+          <t>Transporte de Plaguicidas y Artefactos Contaminados o que Contienen Bifenilospoliclorados (PCB) (e-seia)</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
@@ -9646,30 +9646,30 @@
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>Watt`s Alimentos S.A.</t>
+          <t>Bravo Energy Chile S.A.</t>
         </is>
       </c>
       <c r="F194" t="n">
-        <v>430</v>
+        <v>200</v>
       </c>
       <c r="G194" t="inlineStr">
         <is>
-          <t>12/02/2004</t>
+          <t>30/04/2004</t>
         </is>
       </c>
       <c r="H194" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I194" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=265302&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=339300&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J194" t="inlineStr">
@@ -9684,7 +9684,7 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>Modificación Nº 01/2003 Plan Regulador Osorno (e-seia)</t>
+          <t>Sistema de Tratamiento de Residuos Industriales Líquidos para la Planta Loncoleche Osorno. (e-seia)</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
@@ -9699,15 +9699,15 @@
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Osorno</t>
+          <t>Watt`s Alimentos S.A.</t>
         </is>
       </c>
       <c r="F195" t="n">
-        <v>0</v>
+        <v>430</v>
       </c>
       <c r="G195" t="inlineStr">
         <is>
-          <t>19/12/2003</t>
+          <t>12/02/2004</t>
         </is>
       </c>
       <c r="H195" t="inlineStr">
@@ -9717,7 +9717,7 @@
       </c>
       <c r="I195" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=228596&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=265302&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J195" t="inlineStr">
@@ -9732,7 +9732,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>Proyecto Canopy Aguas Calientes (e-seia)</t>
+          <t>Modificación Nº 01/2003 Plan Regulador Osorno (e-seia)</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
@@ -9747,15 +9747,15 @@
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>Turismo y Cabañas Aguas Calientes Ltda.</t>
+          <t>Ilustre Municipalidad de Osorno</t>
         </is>
       </c>
       <c r="F196" t="n">
-        <v>97</v>
+        <v>0</v>
       </c>
       <c r="G196" t="inlineStr">
         <is>
-          <t>10/12/2003</t>
+          <t>19/12/2003</t>
         </is>
       </c>
       <c r="H196" t="inlineStr">
@@ -9765,7 +9765,7 @@
       </c>
       <c r="I196" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=220766&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=228596&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J196" t="inlineStr">
@@ -9780,7 +9780,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>Proyecto Matadero Frigorífico del Sur S.A. (e-seia)</t>
+          <t>Proyecto Canopy Aguas Calientes (e-seia)</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
@@ -9795,25 +9795,25 @@
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>Matadero Frigorífico del Sur S.A.</t>
+          <t>Turismo y Cabañas Aguas Calientes Ltda.</t>
         </is>
       </c>
       <c r="F197" t="n">
-        <v>1000</v>
+        <v>97</v>
       </c>
       <c r="G197" t="inlineStr">
         <is>
-          <t>20/11/2003</t>
+          <t>10/12/2003</t>
         </is>
       </c>
       <c r="H197" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=203759&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=220766&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J197" t="inlineStr">
@@ -9828,7 +9828,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>SISTEMA DE TRATAMIENTO DE RILES, PROLESUR S.A., OSORNO (e-seia)</t>
+          <t>Proyecto Matadero Frigorífico del Sur S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
@@ -9843,15 +9843,15 @@
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>PROLESUR S.A.</t>
+          <t>Matadero Frigorífico del Sur S.A.</t>
         </is>
       </c>
       <c r="F198" t="n">
-        <v>142</v>
+        <v>1000</v>
       </c>
       <c r="G198" t="inlineStr">
         <is>
-          <t>14/10/2003</t>
+          <t>20/11/2003</t>
         </is>
       </c>
       <c r="H198" t="inlineStr">
@@ -9861,7 +9861,7 @@
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=159306&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=203759&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J198" t="inlineStr">
@@ -9876,7 +9876,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales por las Rutas indicadas (e-seia)</t>
+          <t>SISTEMA DE TRATAMIENTO DE RILES, PROLESUR S.A., OSORNO (e-seia)</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
@@ -9886,30 +9886,30 @@
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>ECOSUR S.A.</t>
+          <t>PROLESUR S.A.</t>
         </is>
       </c>
       <c r="F199" t="n">
-        <v>200</v>
+        <v>142</v>
       </c>
       <c r="G199" t="inlineStr">
         <is>
-          <t>09/09/2003</t>
+          <t>14/10/2003</t>
         </is>
       </c>
       <c r="H199" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I199" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=135650&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=159306&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J199" t="inlineStr">
@@ -9924,7 +9924,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>Conjunto Habitacional Sector Jardín del Alto, Osorno (e-seia)</t>
+          <t>Transporte de Residuos Industriales por las Rutas indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
@@ -9934,30 +9934,30 @@
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>Inmobiliaria Fourcade S.A.</t>
+          <t>ECOSUR S.A.</t>
         </is>
       </c>
       <c r="F200" t="n">
-        <v>40000</v>
+        <v>200</v>
       </c>
       <c r="G200" t="inlineStr">
         <is>
-          <t>27/08/2003</t>
+          <t>09/09/2003</t>
         </is>
       </c>
       <c r="H200" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I200" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=135673&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=135650&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J200" t="inlineStr">
@@ -9972,7 +9972,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>Sistema de Tratamiento de Riles Planta Productora de Cecinas (e-seia)</t>
+          <t>Conjunto Habitacional Sector Jardín del Alto, Osorno (e-seia)</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
@@ -9987,25 +9987,25 @@
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>Sociedad Cecinera del Sur Ltda.</t>
+          <t>Inmobiliaria Fourcade S.A.</t>
         </is>
       </c>
       <c r="F201" t="n">
-        <v>170</v>
+        <v>40000</v>
       </c>
       <c r="G201" t="inlineStr">
         <is>
-          <t>14/07/2003</t>
+          <t>27/08/2003</t>
         </is>
       </c>
       <c r="H201" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I201" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=111634&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=135673&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J201" t="inlineStr">
@@ -10020,7 +10020,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>Conjunto Habitacional Sector Jardín del Alto, Comuna de Osorno (e-seia)</t>
+          <t>Sistema de Tratamiento de Riles Planta Productora de Cecinas (e-seia)</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
@@ -10035,25 +10035,25 @@
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>Inmobiliaria Fourcade S.A.</t>
+          <t>Sociedad Cecinera del Sur Ltda.</t>
         </is>
       </c>
       <c r="F202" t="n">
-        <v>40000</v>
+        <v>170</v>
       </c>
       <c r="G202" t="inlineStr">
         <is>
-          <t>18/06/2003</t>
+          <t>14/07/2003</t>
         </is>
       </c>
       <c r="H202" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I202" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=100119&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=111634&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J202" t="inlineStr">
@@ -10068,7 +10068,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>Construcción y Operación Subestación Eléctrica Aihuapi (e-seia)</t>
+          <t>Conjunto Habitacional Sector Jardín del Alto, Comuna de Osorno (e-seia)</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
@@ -10083,25 +10083,25 @@
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>Sistema de Transmision del Sur S.A.</t>
+          <t>Inmobiliaria Fourcade S.A.</t>
         </is>
       </c>
       <c r="F203" t="n">
-        <v>350</v>
+        <v>40000</v>
       </c>
       <c r="G203" t="inlineStr">
         <is>
-          <t>24/01/2003</t>
+          <t>18/06/2003</t>
         </is>
       </c>
       <c r="H203" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I203" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=45978&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=100119&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J203" t="inlineStr">
@@ -10116,7 +10116,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>Ampliacion Segunda Etapa Construccion de 300 Viviendas Sociales, Sector La misión Comuna de Osorno (e-seia)</t>
+          <t>Construcción y Operación Subestación Eléctrica Aihuapi (e-seia)</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
@@ -10131,15 +10131,15 @@
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>SERVICIO DE VIVIENDA Y URBANIZACION X REGION</t>
+          <t>Sistema de Transmision del Sur S.A.</t>
         </is>
       </c>
       <c r="F204" t="n">
-        <v>914</v>
+        <v>350</v>
       </c>
       <c r="G204" t="inlineStr">
         <is>
-          <t>13/09/2002</t>
+          <t>24/01/2003</t>
         </is>
       </c>
       <c r="H204" t="inlineStr">
@@ -10149,7 +10149,7 @@
       </c>
       <c r="I204" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=29920&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=45978&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J204" t="inlineStr">
@@ -10164,7 +10164,7 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>Sistema de Tratamiento de Residuos Industriales Líquidos para la Planta de Empresa Frigorifico de Osorno S.A.</t>
+          <t>Ampliacion Segunda Etapa Construccion de 300 Viviendas Sociales, Sector La misión Comuna de Osorno (e-seia)</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
@@ -10179,15 +10179,15 @@
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>Frigorífico de Osorno S.A.</t>
+          <t>SERVICIO DE VIVIENDA Y URBANIZACION X REGION</t>
         </is>
       </c>
       <c r="F205" t="n">
-        <v>199</v>
+        <v>914</v>
       </c>
       <c r="G205" t="inlineStr">
         <is>
-          <t>16/08/2002</t>
+          <t>13/09/2002</t>
         </is>
       </c>
       <c r="H205" t="inlineStr">
@@ -10197,7 +10197,7 @@
       </c>
       <c r="I205" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5762&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=29920&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J205" t="inlineStr">
@@ -10212,7 +10212,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>Estudio y Diseño de Servicio Público de Alcantarillado y Planta de Tratamiento de Aguas Servidas sin Generación de Lodos para la Localidad de Cancura</t>
+          <t>Sistema de Tratamiento de Residuos Industriales Líquidos para la Planta de Empresa Frigorifico de Osorno S.A.</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
@@ -10227,15 +10227,15 @@
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Osorno</t>
+          <t>Frigorífico de Osorno S.A.</t>
         </is>
       </c>
       <c r="F206" t="n">
-        <v>0</v>
+        <v>199</v>
       </c>
       <c r="G206" t="inlineStr">
         <is>
-          <t>24/05/2002</t>
+          <t>16/08/2002</t>
         </is>
       </c>
       <c r="H206" t="inlineStr">
@@ -10245,7 +10245,7 @@
       </c>
       <c r="I206" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5471&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5762&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J206" t="inlineStr">
@@ -10260,7 +10260,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Salmonídeos Piscicultura Puchaura Río Rahue ( Solicitud N° 201101106)</t>
+          <t>Estudio y Diseño de Servicio Público de Alcantarillado y Planta de Tratamiento de Aguas Servidas sin Generación de Lodos para la Localidad de Cancura</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
@@ -10275,15 +10275,15 @@
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>Luis Alberto Ellwanger Willer</t>
+          <t>Ilustre Municipalidad de Osorno</t>
         </is>
       </c>
       <c r="F207" t="n">
-        <v>2500</v>
+        <v>0</v>
       </c>
       <c r="G207" t="inlineStr">
         <is>
-          <t>15/03/2002</t>
+          <t>24/05/2002</t>
         </is>
       </c>
       <c r="H207" t="inlineStr">
@@ -10293,7 +10293,7 @@
       </c>
       <c r="I207" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5273&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5471&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J207" t="inlineStr">
@@ -10308,7 +10308,7 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>Construcción del Liceo Technos Osorno</t>
+          <t>Centro de Cultivo de Salmonídeos Piscicultura Puchaura Río Rahue ( Solicitud N° 201101106)</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
@@ -10323,25 +10323,25 @@
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>Sociedad Educacional Technos Ltda.</t>
+          <t>Luis Alberto Ellwanger Willer</t>
         </is>
       </c>
       <c r="F208" t="n">
-        <v>1490</v>
+        <v>2500</v>
       </c>
       <c r="G208" t="inlineStr">
         <is>
-          <t>04/03/2002</t>
+          <t>15/03/2002</t>
         </is>
       </c>
       <c r="H208" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I208" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5196&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5273&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J208" t="inlineStr">
@@ -10356,7 +10356,7 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>Transporte de Gas Propano desde Argentina a Temuco - Chile IX - X Región</t>
+          <t>Construcción del Liceo Technos Osorno</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
@@ -10366,30 +10366,30 @@
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>Ecogas S.A.</t>
+          <t>Sociedad Educacional Technos Ltda.</t>
         </is>
       </c>
       <c r="F209" t="n">
-        <v>10000</v>
+        <v>1490</v>
       </c>
       <c r="G209" t="inlineStr">
         <is>
-          <t>12/10/2001</t>
+          <t>04/03/2002</t>
         </is>
       </c>
       <c r="H209" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I209" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4598&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5196&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J209" t="inlineStr">
@@ -10404,7 +10404,7 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales</t>
+          <t>Transporte de Gas Propano desde Argentina a Temuco - Chile IX - X Región</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
@@ -10419,25 +10419,25 @@
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>ECOSUR S.A.</t>
+          <t>Ecogas S.A.</t>
         </is>
       </c>
       <c r="F210" t="n">
-        <v>200</v>
+        <v>10000</v>
       </c>
       <c r="G210" t="inlineStr">
         <is>
-          <t>25/09/2001</t>
+          <t>12/10/2001</t>
         </is>
       </c>
       <c r="H210" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I210" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4591&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4598&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J210" t="inlineStr">
@@ -10452,7 +10452,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>Complejo de Cabañas Turisticas Sector Las Quemas Comuna de Osorno</t>
+          <t>Transporte de Residuos Industriales</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
@@ -10462,30 +10462,30 @@
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>Gunther Juan Weis Kusch</t>
+          <t>ECOSUR S.A.</t>
         </is>
       </c>
       <c r="F211" t="n">
-        <v>20</v>
+        <v>200</v>
       </c>
       <c r="G211" t="inlineStr">
         <is>
-          <t>12/09/2001</t>
+          <t>25/09/2001</t>
         </is>
       </c>
       <c r="H211" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I211" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4412&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4591&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J211" t="inlineStr">
@@ -10500,7 +10500,7 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>Construcción de 406 Viviendas Sociales Sector La Misión Comuna de Osorno</t>
+          <t>Complejo de Cabañas Turisticas Sector Las Quemas Comuna de Osorno</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
@@ -10515,25 +10515,25 @@
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>SERVICIO DE VIVIENDA Y URBANIZACION X REGION</t>
+          <t>Gunther Juan Weis Kusch</t>
         </is>
       </c>
       <c r="F212" t="n">
-        <v>2130</v>
+        <v>20</v>
       </c>
       <c r="G212" t="inlineStr">
         <is>
-          <t>14/08/2001</t>
+          <t>12/09/2001</t>
         </is>
       </c>
       <c r="H212" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I212" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4277&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4412&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J212" t="inlineStr">
@@ -10548,7 +10548,7 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>Modificación Plan Regulador Comunal de Osorno Sector Instituto Profesional Agrario Adolfo Matthei</t>
+          <t>Construcción de 406 Viviendas Sociales Sector La Misión Comuna de Osorno</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
@@ -10563,15 +10563,15 @@
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Osorno</t>
+          <t>SERVICIO DE VIVIENDA Y URBANIZACION X REGION</t>
         </is>
       </c>
       <c r="F213" t="n">
-        <v>0</v>
+        <v>2130</v>
       </c>
       <c r="G213" t="inlineStr">
         <is>
-          <t>14/05/2001</t>
+          <t>14/08/2001</t>
         </is>
       </c>
       <c r="H213" t="inlineStr">
@@ -10581,7 +10581,7 @@
       </c>
       <c r="I213" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3898&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4277&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J213" t="inlineStr">
@@ -10596,7 +10596,7 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento y Red de Aguas Servidas para Loteo Polloico</t>
+          <t>Modificación Plan Regulador Comunal de Osorno Sector Instituto Profesional Agrario Adolfo Matthei</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
@@ -10611,25 +10611,25 @@
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>Comité Habitacional Polloico</t>
+          <t>Ilustre Municipalidad de Osorno</t>
         </is>
       </c>
       <c r="F214" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="G214" t="inlineStr">
         <is>
-          <t>07/05/2001</t>
+          <t>14/05/2001</t>
         </is>
       </c>
       <c r="H214" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I214" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3891&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3898&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J214" t="inlineStr">
@@ -10644,7 +10644,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>Tratamiento y Disposición Final de Las Aguas Servidas de Osorno (Segunda Presentación)</t>
+          <t>Planta de Tratamiento y Red de Aguas Servidas para Loteo Polloico</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
@@ -10659,25 +10659,25 @@
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>Empresa de Servicios Sanitarios de los Lagos ESSAL</t>
+          <t>Comité Habitacional Polloico</t>
         </is>
       </c>
       <c r="F215" t="n">
-        <v>11360</v>
+        <v>30</v>
       </c>
       <c r="G215" t="inlineStr">
         <is>
-          <t>24/01/2001</t>
+          <t>07/05/2001</t>
         </is>
       </c>
       <c r="H215" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I215" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3582&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3891&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J215" t="inlineStr">
@@ -10692,7 +10692,7 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>Restaurant Los Hornitos</t>
+          <t>Tratamiento y Disposición Final de Las Aguas Servidas de Osorno (Segunda Presentación)</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
@@ -10707,15 +10707,15 @@
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>Juana del Carmen Llanos Mora</t>
+          <t>Empresa de Servicios Sanitarios de los Lagos ESSAL</t>
         </is>
       </c>
       <c r="F216" t="n">
-        <v>10</v>
+        <v>11360</v>
       </c>
       <c r="G216" t="inlineStr">
         <is>
-          <t>08/11/2000</t>
+          <t>24/01/2001</t>
         </is>
       </c>
       <c r="H216" t="inlineStr">
@@ -10725,7 +10725,7 @@
       </c>
       <c r="I216" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3348&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3582&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J216" t="inlineStr">
@@ -10740,7 +10740,7 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>Ampliación Pozo de Aridos Hadida</t>
+          <t>Restaurant Los Hornitos</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
@@ -10755,15 +10755,15 @@
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>Hedgard Hadida</t>
+          <t>Juana del Carmen Llanos Mora</t>
         </is>
       </c>
       <c r="F217" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="G217" t="inlineStr">
         <is>
-          <t>03/11/2000</t>
+          <t>08/11/2000</t>
         </is>
       </c>
       <c r="H217" t="inlineStr">
@@ -10773,7 +10773,7 @@
       </c>
       <c r="I217" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3349&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3348&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J217" t="inlineStr">
@@ -10788,7 +10788,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>Estación de Servicio ESSO Km 915 Ruta 5 Sur Pilauco Osorno</t>
+          <t>Ampliación Pozo de Aridos Hadida</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
@@ -10803,15 +10803,15 @@
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>Esmax Distribución SpA</t>
+          <t>Hedgard Hadida</t>
         </is>
       </c>
       <c r="F218" t="n">
-        <v>1100</v>
+        <v>100</v>
       </c>
       <c r="G218" t="inlineStr">
         <is>
-          <t>05/07/2000</t>
+          <t>03/11/2000</t>
         </is>
       </c>
       <c r="H218" t="inlineStr">
@@ -10821,7 +10821,7 @@
       </c>
       <c r="I218" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3005&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3349&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J218" t="inlineStr">
@@ -10836,7 +10836,7 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>Transporte de Artefactos y/o Materiales Contaminados o que contienen Bifenilospoliclorados (BPC) o Terfenilospoliclorados</t>
+          <t>Estación de Servicio ESSO Km 915 Ruta 5 Sur Pilauco Osorno</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
@@ -10846,20 +10846,20 @@
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>Compañía de Desarrollo Minero Industrial CHIHOL Ltda.</t>
+          <t>Esmax Distribución SpA</t>
         </is>
       </c>
       <c r="F219" t="n">
-        <v>110</v>
+        <v>1100</v>
       </c>
       <c r="G219" t="inlineStr">
         <is>
-          <t>14/02/2000</t>
+          <t>05/07/2000</t>
         </is>
       </c>
       <c r="H219" t="inlineStr">
@@ -10869,7 +10869,7 @@
       </c>
       <c r="I219" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2686&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3005&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J219" t="inlineStr">
@@ -10884,40 +10884,40 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>Almacenamiento y Vaporación de Gas Propano Líquido e Implementación de un Sistema de Distribución por Red de Gas Propano Vaporizado en la Ciudad de Osorno</t>
+          <t>Transporte de Artefactos y/o Materiales Contaminados o que contienen Bifenilospoliclorados (BPC) o Terfenilospoliclorados</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>Temucgas S.A.</t>
+          <t>Compañía de Desarrollo Minero Industrial CHIHOL Ltda.</t>
         </is>
       </c>
       <c r="F220" t="n">
-        <v>2070</v>
+        <v>110</v>
       </c>
       <c r="G220" t="inlineStr">
         <is>
-          <t>28/12/1999</t>
+          <t>14/02/2000</t>
         </is>
       </c>
       <c r="H220" t="inlineStr">
         <is>
-          <t>Abandonado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I220" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2560&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2686&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J220" t="inlineStr">
@@ -10932,12 +10932,12 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>Sistema de Depuración y Neutralización de Residuos Industriales Líquidos (Frigosor S.A.)</t>
+          <t>Almacenamiento y Vaporación de Gas Propano Líquido e Implementación de un Sistema de Distribución por Red de Gas Propano Vaporizado en la Ciudad de Osorno</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D221" t="inlineStr">
@@ -10947,25 +10947,25 @@
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>Frigorífico de Osorno S.A.</t>
+          <t>Temucgas S.A.</t>
         </is>
       </c>
       <c r="F221" t="n">
-        <v>200</v>
+        <v>2070</v>
       </c>
       <c r="G221" t="inlineStr">
         <is>
-          <t>26/11/1999</t>
+          <t>28/12/1999</t>
         </is>
       </c>
       <c r="H221" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Abandonado</t>
         </is>
       </c>
       <c r="I221" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2466&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2560&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J221" t="inlineStr">
@@ -10980,7 +10980,7 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>Hotel Cabañas El Faro ( Segunda Presentación )</t>
+          <t>Sistema de Depuración y Neutralización de Residuos Industriales Líquidos (Frigosor S.A.)</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
@@ -10995,15 +10995,15 @@
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>Inmobiliaria Paradice Ltda.</t>
+          <t>Frigorífico de Osorno S.A.</t>
         </is>
       </c>
       <c r="F222" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="G222" t="inlineStr">
         <is>
-          <t>30/07/1999</t>
+          <t>26/11/1999</t>
         </is>
       </c>
       <c r="H222" t="inlineStr">
@@ -11013,7 +11013,7 @@
       </c>
       <c r="I222" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2136&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2466&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J222" t="inlineStr">
@@ -11028,7 +11028,7 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>Proyecto Servicio Público de Alcantarillado de Aguas Servidas de la Localidad de Cancura</t>
+          <t>Hotel Cabañas El Faro ( Segunda Presentación )</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
@@ -11043,25 +11043,25 @@
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Osorno</t>
+          <t>Inmobiliaria Paradice Ltda.</t>
         </is>
       </c>
       <c r="F223" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G223" t="inlineStr">
         <is>
-          <t>19/05/1999</t>
+          <t>30/07/1999</t>
         </is>
       </c>
       <c r="H223" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I223" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1973&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2136&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J223" t="inlineStr">
@@ -11076,7 +11076,7 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>Tratamiento y Disposición Final de Aguas Servidas de Osorno</t>
+          <t>Proyecto Servicio Público de Alcantarillado de Aguas Servidas de la Localidad de Cancura</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
@@ -11091,15 +11091,15 @@
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>Empresa de Servicios Sanitarios de los Lagos ESSAL</t>
+          <t>Ilustre Municipalidad de Osorno</t>
         </is>
       </c>
       <c r="F224" t="n">
-        <v>11400</v>
+        <v>250</v>
       </c>
       <c r="G224" t="inlineStr">
         <is>
-          <t>05/04/1999</t>
+          <t>19/05/1999</t>
         </is>
       </c>
       <c r="H224" t="inlineStr">
@@ -11109,7 +11109,7 @@
       </c>
       <c r="I224" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1841&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1973&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J224" t="inlineStr">
@@ -11124,7 +11124,7 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>Hotel Cabañas El Faro</t>
+          <t>Tratamiento y Disposición Final de Aguas Servidas de Osorno</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
@@ -11139,25 +11139,25 @@
       </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t>Inmobiliaria Paradice Ltda.</t>
+          <t>Empresa de Servicios Sanitarios de los Lagos ESSAL</t>
         </is>
       </c>
       <c r="F225" t="n">
-        <v>150</v>
+        <v>11400</v>
       </c>
       <c r="G225" t="inlineStr">
         <is>
-          <t>05/03/1999</t>
+          <t>05/04/1999</t>
         </is>
       </c>
       <c r="H225" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I225" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1759&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1841&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J225" t="inlineStr">
@@ -11172,7 +11172,7 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>Ampliación Planta Osorno Abastecedora de Combustible S.A.</t>
+          <t>Hotel Cabañas El Faro</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
@@ -11187,15 +11187,15 @@
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>Abastecedora de Combustibles S.A.</t>
+          <t>Inmobiliaria Paradice Ltda.</t>
         </is>
       </c>
       <c r="F226" t="n">
-        <v>220</v>
+        <v>150</v>
       </c>
       <c r="G226" t="inlineStr">
         <is>
-          <t>24/11/1998</t>
+          <t>05/03/1999</t>
         </is>
       </c>
       <c r="H226" t="inlineStr">
@@ -11205,7 +11205,7 @@
       </c>
       <c r="I226" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1809&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1759&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J226" t="inlineStr">
@@ -11220,7 +11220,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>Empréstito Cañal Bajo</t>
+          <t>Ampliación Planta Osorno Abastecedora de Combustible S.A.</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
@@ -11235,25 +11235,25 @@
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>Concesión de Los Lagos S. A.</t>
+          <t>Abastecedora de Combustibles S.A.</t>
         </is>
       </c>
       <c r="F227" t="n">
-        <v>560</v>
+        <v>220</v>
       </c>
       <c r="G227" t="inlineStr">
         <is>
-          <t>17/08/1998</t>
+          <t>24/11/1998</t>
         </is>
       </c>
       <c r="H227" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I227" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1191&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1809&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J227" t="inlineStr">
@@ -11268,7 +11268,7 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Efluentes Líquidos Cecinas Salamero Ltda.</t>
+          <t>Empréstito Cañal Bajo</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
@@ -11283,25 +11283,25 @@
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>Cecinas Salamero Ltda.</t>
+          <t>Concesión de Los Lagos S. A.</t>
         </is>
       </c>
       <c r="F228" t="n">
-        <v>10</v>
+        <v>560</v>
       </c>
       <c r="G228" t="inlineStr">
         <is>
-          <t>13/08/1998</t>
+          <t>17/08/1998</t>
         </is>
       </c>
       <c r="H228" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I228" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1194&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1191&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J228" t="inlineStr">
@@ -11316,7 +11316,7 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>Discoteque Factory</t>
+          <t>Planta de Tratamiento de Efluentes Líquidos Cecinas Salamero Ltda.</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
@@ -11331,25 +11331,25 @@
       </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t>Bélgica Olave Figueroa</t>
+          <t>Cecinas Salamero Ltda.</t>
         </is>
       </c>
       <c r="F229" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="G229" t="inlineStr">
         <is>
-          <t>29/07/1998</t>
+          <t>13/08/1998</t>
         </is>
       </c>
       <c r="H229" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I229" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1347&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1194&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J229" t="inlineStr">
@@ -11364,7 +11364,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>Estación de Servicios YPF de Arturo Prat Esq.Manuel Rodríguez</t>
+          <t>Discoteque Factory</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
@@ -11379,15 +11379,15 @@
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>Empresa Nacional de Energia ENEX S.A...</t>
+          <t>Bélgica Olave Figueroa</t>
         </is>
       </c>
       <c r="F230" t="n">
-        <v>400</v>
+        <v>30</v>
       </c>
       <c r="G230" t="inlineStr">
         <is>
-          <t>18/03/1998</t>
+          <t>29/07/1998</t>
         </is>
       </c>
       <c r="H230" t="inlineStr">
@@ -11397,7 +11397,7 @@
       </c>
       <c r="I230" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=794&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1347&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J230" t="inlineStr">
@@ -11412,7 +11412,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>Restaurant y Minimarket</t>
+          <t>Estación de Servicios YPF de Arturo Prat Esq.Manuel Rodríguez</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
@@ -11427,15 +11427,15 @@
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>Andres Bonati Brintrup</t>
+          <t>Empresa Nacional de Energia ENEX S.A...</t>
         </is>
       </c>
       <c r="F231" t="n">
-        <v>150</v>
+        <v>400</v>
       </c>
       <c r="G231" t="inlineStr">
         <is>
-          <t>24/02/1998</t>
+          <t>18/03/1998</t>
         </is>
       </c>
       <c r="H231" t="inlineStr">
@@ -11445,7 +11445,7 @@
       </c>
       <c r="I231" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=277&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=794&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J231" t="inlineStr">
@@ -11460,43 +11460,91 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
+          <t>Restaurant y Minimarket</t>
+        </is>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D232" t="inlineStr">
+        <is>
+          <t>Décima</t>
+        </is>
+      </c>
+      <c r="E232" t="inlineStr">
+        <is>
+          <t>Andres Bonati Brintrup</t>
+        </is>
+      </c>
+      <c r="F232" t="n">
+        <v>150</v>
+      </c>
+      <c r="G232" t="inlineStr">
+        <is>
+          <t>24/02/1998</t>
+        </is>
+      </c>
+      <c r="H232" t="inlineStr">
+        <is>
+          <t>Aprobado</t>
+        </is>
+      </c>
+      <c r="I232" t="inlineStr">
+        <is>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=277&amp;modo=ficha</t>
+        </is>
+      </c>
+      <c r="J232" t="inlineStr">
+        <is>
+          <t>Osorno</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="n">
+        <v>232</v>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
           <t>Terminal de Locomoción Colectiva Urbana</t>
         </is>
       </c>
-      <c r="C232" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
-      <c r="D232" t="inlineStr">
-        <is>
-          <t>Décima</t>
-        </is>
-      </c>
-      <c r="E232" t="inlineStr">
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D233" t="inlineStr">
+        <is>
+          <t>Décima</t>
+        </is>
+      </c>
+      <c r="E233" t="inlineStr">
         <is>
           <t>Conrado Erwin Fontealba Vargas</t>
         </is>
       </c>
-      <c r="F232" t="n">
+      <c r="F233" t="n">
         <v>70</v>
       </c>
-      <c r="G232" t="inlineStr">
+      <c r="G233" t="inlineStr">
         <is>
           <t>09/01/1998</t>
         </is>
       </c>
-      <c r="H232" t="inlineStr">
-        <is>
-          <t>Aprobado</t>
-        </is>
-      </c>
-      <c r="I232" t="inlineStr">
+      <c r="H233" t="inlineStr">
+        <is>
+          <t>Aprobado</t>
+        </is>
+      </c>
+      <c r="I233" t="inlineStr">
         <is>
           <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=279&amp;modo=ficha</t>
         </is>
       </c>
-      <c r="J232" t="inlineStr">
+      <c r="J233" t="inlineStr">
         <is>
           <t>Osorno</t>
         </is>

--- a/data/Osorno.xlsx
+++ b/data/Osorno.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>14/09/2022</t>
+          <t>18/10/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Ingresados Art.94 RSEIA</t>
+          <t>En Admisión</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Osorno.xlsx
+++ b/data/Osorno.xlsx
@@ -2872,7 +2872,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Ampliación de extracción de áridos en Pozo Jauregui</t>
+          <t>MODIFICACIÓN A LA DECLARACIÓN DE IMPACTO AMBIENTAL PISCICULTURA EL VENADO</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2887,11 +2887,11 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Juan Carlos Jauregui Hidalgo</t>
+          <t>Sociedad Agrícola Covarrubias Fernández Ltda.</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>500</v>
+        <v>2500</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
@@ -2900,12 +2900,12 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7547676&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7555686&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -2920,7 +2920,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN A LA DECLARACIÓN DE IMPACTO AMBIENTAL PISCICULTURA EL VENADO</t>
+          <t>Ampliación de extracción de áridos en Pozo Jauregui</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2935,11 +2935,11 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Sociedad Agrícola Covarrubias Fernández Ltda.</t>
+          <t>Juan Carlos Jauregui Hidalgo</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>2500</v>
+        <v>500</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
@@ -2948,12 +2948,12 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7555686&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7547676&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -4936,7 +4936,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Transporte Inter-Regional Terrestre de Residuos, PROCESAN S.A. (e-seia)</t>
+          <t>ESTUDIO Y DISEÑO PLAN DE CIERRE VERTEDERO COMUNA DE OSORNO (e-seia)</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -4946,16 +4946,16 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>PROCESAN S.A.</t>
+          <t>Ilustre Municipalidad de Osorno</t>
         </is>
       </c>
       <c r="F96" t="n">
-        <v>377</v>
+        <v>3400</v>
       </c>
       <c r="G96" t="inlineStr">
         <is>
@@ -4964,12 +4964,12 @@
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4134794&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4139027&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
@@ -4984,7 +4984,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>ESTUDIO Y DISEÑO PLAN DE CIERRE VERTEDERO COMUNA DE OSORNO (e-seia)</t>
+          <t>Transporte Inter-Regional Terrestre de Residuos, PROCESAN S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -4994,16 +4994,16 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Osorno</t>
+          <t>PROCESAN S.A.</t>
         </is>
       </c>
       <c r="F97" t="n">
-        <v>3400</v>
+        <v>377</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>
@@ -5012,12 +5012,12 @@
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4139027&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4134794&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
@@ -5844,7 +5844,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Proyecto Inmobiliario Portal Osorno (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS DE PLOMO Y BATERÍAS USADAS POR LAS REGIONES VI, VII, VIII, IX, XIV y X (e-seia)</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -5854,16 +5854,16 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>Inmobiliaria Martabid Limitada</t>
+          <t>Industria Proveedora de Partes Metalurgicas Ltda.</t>
         </is>
       </c>
       <c r="F115" t="n">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="G115" t="inlineStr">
         <is>
@@ -5872,12 +5872,12 @@
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3272599&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3249759&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
@@ -5892,7 +5892,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS DE PLOMO Y BATERÍAS USADAS POR LAS REGIONES VI, VII, VIII, IX, XIV y X (e-seia)</t>
+          <t>Proyecto Inmobiliario Portal Osorno (e-seia)</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -5902,16 +5902,16 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>Industria Proveedora de Partes Metalurgicas Ltda.</t>
+          <t>Inmobiliaria Martabid Limitada</t>
         </is>
       </c>
       <c r="F116" t="n">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G116" t="inlineStr">
         <is>
@@ -5920,12 +5920,12 @@
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3249759&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3272599&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
@@ -7044,7 +7044,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>CONJUNTO HABITACIONAL JARDIN DEL ALTO,OSORNO (e-seia)</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -7054,16 +7054,16 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>Inmobiliaria Fourcade S.A.</t>
         </is>
       </c>
       <c r="F140" t="n">
-        <v>10</v>
+        <v>3370</v>
       </c>
       <c r="G140" t="inlineStr">
         <is>
@@ -7072,12 +7072,12 @@
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2359952&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
@@ -7092,7 +7092,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>CONJUNTO HABITACIONAL JARDIN DEL ALTO,OSORNO (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -7102,16 +7102,16 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>Inmobiliaria Fourcade S.A.</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F141" t="n">
-        <v>3370</v>
+        <v>10</v>
       </c>
       <c r="G141" t="inlineStr">
         <is>
@@ -7120,12 +7120,12 @@
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2359952&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">

--- a/data/Osorno.xlsx
+++ b/data/Osorno.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>18/10/2022</t>
+          <t>21/09/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -2872,7 +2872,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN A LA DECLARACIÓN DE IMPACTO AMBIENTAL PISCICULTURA EL VENADO</t>
+          <t>Ampliación de extracción de áridos en Pozo Jauregui</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2887,11 +2887,11 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Sociedad Agrícola Covarrubias Fernández Ltda.</t>
+          <t>Juan Carlos Jauregui Hidalgo</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>2500</v>
+        <v>500</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
@@ -2900,12 +2900,12 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7555686&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7547676&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -2920,7 +2920,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Ampliación de extracción de áridos en Pozo Jauregui</t>
+          <t>MODIFICACIÓN A LA DECLARACIÓN DE IMPACTO AMBIENTAL PISCICULTURA EL VENADO</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2935,11 +2935,11 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Juan Carlos Jauregui Hidalgo</t>
+          <t>Sociedad Agrícola Covarrubias Fernández Ltda.</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>500</v>
+        <v>2500</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
@@ -2948,12 +2948,12 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7547676&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7555686&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -4936,7 +4936,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>ESTUDIO Y DISEÑO PLAN DE CIERRE VERTEDERO COMUNA DE OSORNO (e-seia)</t>
+          <t>Transporte Inter-Regional Terrestre de Residuos, PROCESAN S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -4946,16 +4946,16 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Osorno</t>
+          <t>PROCESAN S.A.</t>
         </is>
       </c>
       <c r="F96" t="n">
-        <v>3400</v>
+        <v>377</v>
       </c>
       <c r="G96" t="inlineStr">
         <is>
@@ -4964,12 +4964,12 @@
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4139027&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4134794&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
@@ -4984,7 +4984,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Transporte Inter-Regional Terrestre de Residuos, PROCESAN S.A. (e-seia)</t>
+          <t>ESTUDIO Y DISEÑO PLAN DE CIERRE VERTEDERO COMUNA DE OSORNO (e-seia)</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -4994,16 +4994,16 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>PROCESAN S.A.</t>
+          <t>Ilustre Municipalidad de Osorno</t>
         </is>
       </c>
       <c r="F97" t="n">
-        <v>377</v>
+        <v>3400</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>
@@ -5012,12 +5012,12 @@
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4134794&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4139027&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
@@ -5844,7 +5844,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS DE PLOMO Y BATERÍAS USADAS POR LAS REGIONES VI, VII, VIII, IX, XIV y X (e-seia)</t>
+          <t>Proyecto Inmobiliario Portal Osorno (e-seia)</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -5854,16 +5854,16 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>Industria Proveedora de Partes Metalurgicas Ltda.</t>
+          <t>Inmobiliaria Martabid Limitada</t>
         </is>
       </c>
       <c r="F115" t="n">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G115" t="inlineStr">
         <is>
@@ -5872,12 +5872,12 @@
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3249759&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3272599&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
@@ -5892,7 +5892,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Proyecto Inmobiliario Portal Osorno (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS DE PLOMO Y BATERÍAS USADAS POR LAS REGIONES VI, VII, VIII, IX, XIV y X (e-seia)</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -5902,16 +5902,16 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>Inmobiliaria Martabid Limitada</t>
+          <t>Industria Proveedora de Partes Metalurgicas Ltda.</t>
         </is>
       </c>
       <c r="F116" t="n">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="G116" t="inlineStr">
         <is>
@@ -5920,12 +5920,12 @@
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3272599&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3249759&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
@@ -7044,7 +7044,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>CONJUNTO HABITACIONAL JARDIN DEL ALTO,OSORNO (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -7054,16 +7054,16 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>Inmobiliaria Fourcade S.A.</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F140" t="n">
-        <v>3370</v>
+        <v>10</v>
       </c>
       <c r="G140" t="inlineStr">
         <is>
@@ -7072,12 +7072,12 @@
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2359952&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
@@ -7092,7 +7092,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>CONJUNTO HABITACIONAL JARDIN DEL ALTO,OSORNO (e-seia)</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -7102,16 +7102,16 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>Inmobiliaria Fourcade S.A.</t>
         </is>
       </c>
       <c r="F141" t="n">
-        <v>10</v>
+        <v>3370</v>
       </c>
       <c r="G141" t="inlineStr">
         <is>
@@ -7120,12 +7120,12 @@
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2359952&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">

--- a/data/Osorno.xlsx
+++ b/data/Osorno.xlsx
@@ -2872,7 +2872,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN A LA DECLARACIÓN DE IMPACTO AMBIENTAL PISCICULTURA EL VENADO</t>
+          <t>Ampliación de extracción de áridos en Pozo Jauregui</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2887,11 +2887,11 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Sociedad Agrícola Covarrubias Fernández Ltda.</t>
+          <t>Juan Carlos Jauregui Hidalgo</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>2500</v>
+        <v>500</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
@@ -2900,12 +2900,12 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7555686&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7547676&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -2920,7 +2920,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Ampliación de extracción de áridos en Pozo Jauregui</t>
+          <t>MODIFICACIÓN A LA DECLARACIÓN DE IMPACTO AMBIENTAL PISCICULTURA EL VENADO</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2935,11 +2935,11 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Juan Carlos Jauregui Hidalgo</t>
+          <t>Sociedad Agrícola Covarrubias Fernández Ltda.</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>500</v>
+        <v>2500</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
@@ -2948,12 +2948,12 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7547676&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7555686&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -4936,7 +4936,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>ESTUDIO Y DISEÑO PLAN DE CIERRE VERTEDERO COMUNA DE OSORNO (e-seia)</t>
+          <t>Transporte Inter-Regional Terrestre de Residuos, PROCESAN S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -4946,16 +4946,16 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Osorno</t>
+          <t>PROCESAN S.A.</t>
         </is>
       </c>
       <c r="F96" t="n">
-        <v>3400</v>
+        <v>377</v>
       </c>
       <c r="G96" t="inlineStr">
         <is>
@@ -4964,12 +4964,12 @@
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4139027&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4134794&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
@@ -4984,7 +4984,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Transporte Inter-Regional Terrestre de Residuos, PROCESAN S.A. (e-seia)</t>
+          <t>ESTUDIO Y DISEÑO PLAN DE CIERRE VERTEDERO COMUNA DE OSORNO (e-seia)</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -4994,16 +4994,16 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>PROCESAN S.A.</t>
+          <t>Ilustre Municipalidad de Osorno</t>
         </is>
       </c>
       <c r="F97" t="n">
-        <v>377</v>
+        <v>3400</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>
@@ -5012,12 +5012,12 @@
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4134794&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4139027&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
@@ -5844,7 +5844,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS DE PLOMO Y BATERÍAS USADAS POR LAS REGIONES VI, VII, VIII, IX, XIV y X (e-seia)</t>
+          <t>Proyecto Inmobiliario Portal Osorno (e-seia)</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -5854,16 +5854,16 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>Industria Proveedora de Partes Metalurgicas Ltda.</t>
+          <t>Inmobiliaria Martabid Limitada</t>
         </is>
       </c>
       <c r="F115" t="n">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G115" t="inlineStr">
         <is>
@@ -5872,12 +5872,12 @@
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3249759&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3272599&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
@@ -5892,7 +5892,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Proyecto Inmobiliario Portal Osorno (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS DE PLOMO Y BATERÍAS USADAS POR LAS REGIONES VI, VII, VIII, IX, XIV y X (e-seia)</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -5902,16 +5902,16 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>Inmobiliaria Martabid Limitada</t>
+          <t>Industria Proveedora de Partes Metalurgicas Ltda.</t>
         </is>
       </c>
       <c r="F116" t="n">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="G116" t="inlineStr">
         <is>
@@ -5920,12 +5920,12 @@
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3272599&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3249759&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
@@ -7044,7 +7044,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>CONJUNTO HABITACIONAL JARDIN DEL ALTO,OSORNO (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -7054,16 +7054,16 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>Inmobiliaria Fourcade S.A.</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F140" t="n">
-        <v>3370</v>
+        <v>10</v>
       </c>
       <c r="G140" t="inlineStr">
         <is>
@@ -7072,12 +7072,12 @@
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2359952&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
@@ -7092,7 +7092,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>CONJUNTO HABITACIONAL JARDIN DEL ALTO,OSORNO (e-seia)</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -7102,16 +7102,16 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>Inmobiliaria Fourcade S.A.</t>
         </is>
       </c>
       <c r="F141" t="n">
-        <v>10</v>
+        <v>3370</v>
       </c>
       <c r="G141" t="inlineStr">
         <is>
@@ -7120,12 +7120,12 @@
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2359952&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">

--- a/data/Osorno.xlsx
+++ b/data/Osorno.xlsx
@@ -2872,7 +2872,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN A LA DECLARACIÓN DE IMPACTO AMBIENTAL PISCICULTURA EL VENADO</t>
+          <t>Ampliación de extracción de áridos en Pozo Jauregui</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2887,11 +2887,11 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Sociedad Agrícola Covarrubias Fernández Ltda.</t>
+          <t>Juan Carlos Jauregui Hidalgo</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>2500</v>
+        <v>500</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
@@ -2900,12 +2900,12 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7555686&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7547676&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -2920,7 +2920,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Ampliación de extracción de áridos en Pozo Jauregui</t>
+          <t>MODIFICACIÓN A LA DECLARACIÓN DE IMPACTO AMBIENTAL PISCICULTURA EL VENADO</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2935,11 +2935,11 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Juan Carlos Jauregui Hidalgo</t>
+          <t>Sociedad Agrícola Covarrubias Fernández Ltda.</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>500</v>
+        <v>2500</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
@@ -2948,12 +2948,12 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7547676&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7555686&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -3415,7 +3415,7 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A.</t>
+          <t>TRANSELEC S.A...</t>
         </is>
       </c>
       <c r="F64" t="n">
@@ -4936,7 +4936,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>ESTUDIO Y DISEÑO PLAN DE CIERRE VERTEDERO COMUNA DE OSORNO (e-seia)</t>
+          <t>Transporte Inter-Regional Terrestre de Residuos, PROCESAN S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -4946,16 +4946,16 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Osorno</t>
+          <t>PROCESAN S.A.</t>
         </is>
       </c>
       <c r="F96" t="n">
-        <v>3400</v>
+        <v>377</v>
       </c>
       <c r="G96" t="inlineStr">
         <is>
@@ -4964,12 +4964,12 @@
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4139027&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4134794&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
@@ -4984,7 +4984,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Transporte Inter-Regional Terrestre de Residuos, PROCESAN S.A. (e-seia)</t>
+          <t>ESTUDIO Y DISEÑO PLAN DE CIERRE VERTEDERO COMUNA DE OSORNO (e-seia)</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -4994,16 +4994,16 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>PROCESAN S.A.</t>
+          <t>Ilustre Municipalidad de Osorno</t>
         </is>
       </c>
       <c r="F97" t="n">
-        <v>377</v>
+        <v>3400</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>
@@ -5012,12 +5012,12 @@
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4134794&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4139027&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
@@ -5844,7 +5844,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS DE PLOMO Y BATERÍAS USADAS POR LAS REGIONES VI, VII, VIII, IX, XIV y X (e-seia)</t>
+          <t>Proyecto Inmobiliario Portal Osorno (e-seia)</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -5854,16 +5854,16 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>Industria Proveedora de Partes Metalurgicas Ltda.</t>
+          <t>Inmobiliaria Martabid Limitada</t>
         </is>
       </c>
       <c r="F115" t="n">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G115" t="inlineStr">
         <is>
@@ -5872,12 +5872,12 @@
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3249759&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3272599&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
@@ -5892,7 +5892,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Proyecto Inmobiliario Portal Osorno (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS DE PLOMO Y BATERÍAS USADAS POR LAS REGIONES VI, VII, VIII, IX, XIV y X (e-seia)</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -5902,16 +5902,16 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>Inmobiliaria Martabid Limitada</t>
+          <t>Industria Proveedora de Partes Metalurgicas Ltda.</t>
         </is>
       </c>
       <c r="F116" t="n">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="G116" t="inlineStr">
         <is>
@@ -5920,12 +5920,12 @@
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3272599&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3249759&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
@@ -7044,7 +7044,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>CONJUNTO HABITACIONAL JARDIN DEL ALTO,OSORNO (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -7054,16 +7054,16 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>Inmobiliaria Fourcade S.A.</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F140" t="n">
-        <v>3370</v>
+        <v>10</v>
       </c>
       <c r="G140" t="inlineStr">
         <is>
@@ -7072,12 +7072,12 @@
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2359952&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
@@ -7092,7 +7092,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>CONJUNTO HABITACIONAL JARDIN DEL ALTO,OSORNO (e-seia)</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -7102,16 +7102,16 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>Inmobiliaria Fourcade S.A.</t>
         </is>
       </c>
       <c r="F141" t="n">
-        <v>10</v>
+        <v>3370</v>
       </c>
       <c r="G141" t="inlineStr">
         <is>
@@ -7120,12 +7120,12 @@
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2359952&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">

--- a/data/Osorno.xlsx
+++ b/data/Osorno.xlsx
@@ -500,7 +500,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -2872,7 +2872,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN A LA DECLARACIÓN DE IMPACTO AMBIENTAL PISCICULTURA EL VENADO</t>
+          <t>Ampliación de extracción de áridos en Pozo Jauregui</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2887,11 +2887,11 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Sociedad Agrícola Covarrubias Fernández Ltda.</t>
+          <t>Juan Carlos Jauregui Hidalgo</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>2500</v>
+        <v>500</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
@@ -2900,12 +2900,12 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7555686&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7547676&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -2920,7 +2920,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Ampliación de extracción de áridos en Pozo Jauregui</t>
+          <t>MODIFICACIÓN A LA DECLARACIÓN DE IMPACTO AMBIENTAL PISCICULTURA EL VENADO</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2935,11 +2935,11 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Juan Carlos Jauregui Hidalgo</t>
+          <t>Sociedad Agrícola Covarrubias Fernández Ltda.</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>500</v>
+        <v>2500</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
@@ -2948,12 +2948,12 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7547676&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7555686&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -4936,7 +4936,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>ESTUDIO Y DISEÑO PLAN DE CIERRE VERTEDERO COMUNA DE OSORNO (e-seia)</t>
+          <t>Transporte Inter-Regional Terrestre de Residuos, PROCESAN S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -4946,16 +4946,16 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Osorno</t>
+          <t>PROCESAN S.A.</t>
         </is>
       </c>
       <c r="F96" t="n">
-        <v>3400</v>
+        <v>377</v>
       </c>
       <c r="G96" t="inlineStr">
         <is>
@@ -4964,12 +4964,12 @@
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4139027&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4134794&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
@@ -4984,7 +4984,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Transporte Inter-Regional Terrestre de Residuos, PROCESAN S.A. (e-seia)</t>
+          <t>ESTUDIO Y DISEÑO PLAN DE CIERRE VERTEDERO COMUNA DE OSORNO (e-seia)</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -4994,16 +4994,16 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>PROCESAN S.A.</t>
+          <t>Ilustre Municipalidad de Osorno</t>
         </is>
       </c>
       <c r="F97" t="n">
-        <v>377</v>
+        <v>3400</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>
@@ -5012,12 +5012,12 @@
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4134794&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4139027&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
@@ -5844,7 +5844,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS DE PLOMO Y BATERÍAS USADAS POR LAS REGIONES VI, VII, VIII, IX, XIV y X (e-seia)</t>
+          <t>Proyecto Inmobiliario Portal Osorno (e-seia)</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -5854,16 +5854,16 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>Industria Proveedora de Partes Metalurgicas Ltda.</t>
+          <t>Inmobiliaria Martabid Limitada</t>
         </is>
       </c>
       <c r="F115" t="n">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G115" t="inlineStr">
         <is>
@@ -5872,12 +5872,12 @@
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3249759&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3272599&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
@@ -5892,7 +5892,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Proyecto Inmobiliario Portal Osorno (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS DE PLOMO Y BATERÍAS USADAS POR LAS REGIONES VI, VII, VIII, IX, XIV y X (e-seia)</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -5902,16 +5902,16 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>Inmobiliaria Martabid Limitada</t>
+          <t>Industria Proveedora de Partes Metalurgicas Ltda.</t>
         </is>
       </c>
       <c r="F116" t="n">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="G116" t="inlineStr">
         <is>
@@ -5920,12 +5920,12 @@
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3272599&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3249759&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
@@ -7044,7 +7044,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>CONJUNTO HABITACIONAL JARDIN DEL ALTO,OSORNO (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -7054,16 +7054,16 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>Inmobiliaria Fourcade S.A.</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F140" t="n">
-        <v>3370</v>
+        <v>10</v>
       </c>
       <c r="G140" t="inlineStr">
         <is>
@@ -7072,12 +7072,12 @@
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2359952&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
@@ -7092,7 +7092,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>CONJUNTO HABITACIONAL JARDIN DEL ALTO,OSORNO (e-seia)</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -7102,16 +7102,16 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>Inmobiliaria Fourcade S.A.</t>
         </is>
       </c>
       <c r="F141" t="n">
-        <v>10</v>
+        <v>3370</v>
       </c>
       <c r="G141" t="inlineStr">
         <is>
@@ -7120,12 +7120,12 @@
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2359952&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">

--- a/data/Osorno.xlsx
+++ b/data/Osorno.xlsx
@@ -596,7 +596,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -2872,7 +2872,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN A LA DECLARACIÓN DE IMPACTO AMBIENTAL PISCICULTURA EL VENADO</t>
+          <t>Ampliación de extracción de áridos en Pozo Jauregui</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2887,11 +2887,11 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Sociedad Agrícola Covarrubias Fernández Ltda.</t>
+          <t>Juan Carlos Jauregui Hidalgo</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>2500</v>
+        <v>500</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
@@ -2900,12 +2900,12 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7555686&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7547676&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -2920,7 +2920,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Ampliación de extracción de áridos en Pozo Jauregui</t>
+          <t>MODIFICACIÓN A LA DECLARACIÓN DE IMPACTO AMBIENTAL PISCICULTURA EL VENADO</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2935,11 +2935,11 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Juan Carlos Jauregui Hidalgo</t>
+          <t>Sociedad Agrícola Covarrubias Fernández Ltda.</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>500</v>
+        <v>2500</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
@@ -2948,12 +2948,12 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7547676&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7555686&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -4936,7 +4936,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>ESTUDIO Y DISEÑO PLAN DE CIERRE VERTEDERO COMUNA DE OSORNO (e-seia)</t>
+          <t>Transporte Inter-Regional Terrestre de Residuos, PROCESAN S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -4946,16 +4946,16 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Osorno</t>
+          <t>PROCESAN S.A.</t>
         </is>
       </c>
       <c r="F96" t="n">
-        <v>3400</v>
+        <v>377</v>
       </c>
       <c r="G96" t="inlineStr">
         <is>
@@ -4964,12 +4964,12 @@
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4139027&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4134794&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
@@ -4984,7 +4984,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Transporte Inter-Regional Terrestre de Residuos, PROCESAN S.A. (e-seia)</t>
+          <t>ESTUDIO Y DISEÑO PLAN DE CIERRE VERTEDERO COMUNA DE OSORNO (e-seia)</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -4994,16 +4994,16 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>PROCESAN S.A.</t>
+          <t>Ilustre Municipalidad de Osorno</t>
         </is>
       </c>
       <c r="F97" t="n">
-        <v>377</v>
+        <v>3400</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>
@@ -5012,12 +5012,12 @@
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4134794&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4139027&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
@@ -5844,7 +5844,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS DE PLOMO Y BATERÍAS USADAS POR LAS REGIONES VI, VII, VIII, IX, XIV y X (e-seia)</t>
+          <t>Proyecto Inmobiliario Portal Osorno (e-seia)</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -5854,16 +5854,16 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>Industria Proveedora de Partes Metalurgicas Ltda.</t>
+          <t>Inmobiliaria Martabid Limitada</t>
         </is>
       </c>
       <c r="F115" t="n">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G115" t="inlineStr">
         <is>
@@ -5872,12 +5872,12 @@
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3249759&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3272599&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
@@ -5892,7 +5892,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Proyecto Inmobiliario Portal Osorno (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS DE PLOMO Y BATERÍAS USADAS POR LAS REGIONES VI, VII, VIII, IX, XIV y X (e-seia)</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -5902,16 +5902,16 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>Inmobiliaria Martabid Limitada</t>
+          <t>Industria Proveedora de Partes Metalurgicas Ltda.</t>
         </is>
       </c>
       <c r="F116" t="n">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="G116" t="inlineStr">
         <is>
@@ -5920,12 +5920,12 @@
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3272599&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3249759&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
@@ -7044,7 +7044,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>CONJUNTO HABITACIONAL JARDIN DEL ALTO,OSORNO (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -7054,16 +7054,16 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>Inmobiliaria Fourcade S.A.</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F140" t="n">
-        <v>3370</v>
+        <v>10</v>
       </c>
       <c r="G140" t="inlineStr">
         <is>
@@ -7072,12 +7072,12 @@
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2359952&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
@@ -7092,7 +7092,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>CONJUNTO HABITACIONAL JARDIN DEL ALTO,OSORNO (e-seia)</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -7102,16 +7102,16 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>Inmobiliaria Fourcade S.A.</t>
         </is>
       </c>
       <c r="F141" t="n">
-        <v>10</v>
+        <v>3370</v>
       </c>
       <c r="G141" t="inlineStr">
         <is>
@@ -7120,12 +7120,12 @@
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2359952&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">

--- a/data/Osorno.xlsx
+++ b/data/Osorno.xlsx
@@ -491,7 +491,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1</v>
+        <v>877</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -2872,7 +2872,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN A LA DECLARACIÓN DE IMPACTO AMBIENTAL PISCICULTURA EL VENADO</t>
+          <t>Ampliación de extracción de áridos en Pozo Jauregui</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2887,11 +2887,11 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Sociedad Agrícola Covarrubias Fernández Ltda.</t>
+          <t>Juan Carlos Jauregui Hidalgo</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>2500</v>
+        <v>500</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
@@ -2900,12 +2900,12 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7555686&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7547676&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -2920,7 +2920,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Ampliación de extracción de áridos en Pozo Jauregui</t>
+          <t>MODIFICACIÓN A LA DECLARACIÓN DE IMPACTO AMBIENTAL PISCICULTURA EL VENADO</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2935,11 +2935,11 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Juan Carlos Jauregui Hidalgo</t>
+          <t>Sociedad Agrícola Covarrubias Fernández Ltda.</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>500</v>
+        <v>2500</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
@@ -2948,12 +2948,12 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7547676&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7555686&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -4936,7 +4936,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>ESTUDIO Y DISEÑO PLAN DE CIERRE VERTEDERO COMUNA DE OSORNO (e-seia)</t>
+          <t>Transporte Inter-Regional Terrestre de Residuos, PROCESAN S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -4946,16 +4946,16 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Osorno</t>
+          <t>PROCESAN S.A.</t>
         </is>
       </c>
       <c r="F96" t="n">
-        <v>3400</v>
+        <v>377</v>
       </c>
       <c r="G96" t="inlineStr">
         <is>
@@ -4964,12 +4964,12 @@
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4139027&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4134794&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
@@ -4984,7 +4984,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Transporte Inter-Regional Terrestre de Residuos, PROCESAN S.A. (e-seia)</t>
+          <t>ESTUDIO Y DISEÑO PLAN DE CIERRE VERTEDERO COMUNA DE OSORNO (e-seia)</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -4994,16 +4994,16 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>PROCESAN S.A.</t>
+          <t>Ilustre Municipalidad de Osorno</t>
         </is>
       </c>
       <c r="F97" t="n">
-        <v>377</v>
+        <v>3400</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>
@@ -5012,12 +5012,12 @@
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4134794&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4139027&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
@@ -5844,7 +5844,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS DE PLOMO Y BATERÍAS USADAS POR LAS REGIONES VI, VII, VIII, IX, XIV y X (e-seia)</t>
+          <t>Proyecto Inmobiliario Portal Osorno (e-seia)</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -5854,16 +5854,16 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>Industria Proveedora de Partes Metalurgicas Ltda.</t>
+          <t>Inmobiliaria Martabid Limitada</t>
         </is>
       </c>
       <c r="F115" t="n">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G115" t="inlineStr">
         <is>
@@ -5872,12 +5872,12 @@
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3249759&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3272599&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
@@ -5892,7 +5892,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Proyecto Inmobiliario Portal Osorno (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS DE PLOMO Y BATERÍAS USADAS POR LAS REGIONES VI, VII, VIII, IX, XIV y X (e-seia)</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -5902,16 +5902,16 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>Inmobiliaria Martabid Limitada</t>
+          <t>Industria Proveedora de Partes Metalurgicas Ltda.</t>
         </is>
       </c>
       <c r="F116" t="n">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="G116" t="inlineStr">
         <is>
@@ -5920,12 +5920,12 @@
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3272599&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3249759&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
@@ -7044,7 +7044,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>CONJUNTO HABITACIONAL JARDIN DEL ALTO,OSORNO (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -7054,16 +7054,16 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>Inmobiliaria Fourcade S.A.</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F140" t="n">
-        <v>3370</v>
+        <v>10</v>
       </c>
       <c r="G140" t="inlineStr">
         <is>
@@ -7072,12 +7072,12 @@
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2359952&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
@@ -7092,7 +7092,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>CONJUNTO HABITACIONAL JARDIN DEL ALTO,OSORNO (e-seia)</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -7102,16 +7102,16 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>Inmobiliaria Fourcade S.A.</t>
         </is>
       </c>
       <c r="F141" t="n">
-        <v>10</v>
+        <v>3370</v>
       </c>
       <c r="G141" t="inlineStr">
         <is>
@@ -7120,12 +7120,12 @@
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2359952&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">

--- a/data/Osorno.xlsx
+++ b/data/Osorno.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J233"/>
+  <dimension ref="A1:J234"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,7 +424,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Planta Solar Fotovoltaica Montecinos</t>
+          <t>BioCircular Los Laureles</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -439,25 +439,25 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Generadora Semilla SpA.</t>
+          <t>Genera4 SpA</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>21/09/2022</t>
+          <t>18/05/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>En Admisión</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156946466&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2159179224&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -472,7 +472,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DE INSTALACIONES EN PLANTA OSORNO</t>
+          <t>Planta Solar Fotovoltaica Montecinos</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -487,25 +487,25 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Envases Impresos SpA</t>
+          <t>Generadora Semilla SpA.</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>877</v>
+        <v>10000</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>22/06/2022</t>
+          <t>21/09/2022</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156289752&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156946466&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -520,7 +520,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>BALNEARIO FLUVIAL \"Río Damas\"</t>
+          <t>MODIFICACIÓN DE INSTALACIONES EN PLANTA OSORNO</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -535,25 +535,25 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Inversiones y Comercial Southern World SpA</t>
+          <t>Envases Impresos SpA</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>30400</v>
+        <v>877</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>30/05/2022</t>
+          <t>22/06/2022</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155928380&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156289752&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -568,7 +568,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>?Ampliación Superficie Planta de Disposición Final de Residuos Biológicos No Peligrosos Industriales ECOPRIAL? Región de Los Lagos</t>
+          <t>BALNEARIO FLUVIAL \"Río Damas\"</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -583,25 +583,25 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Raul Albrecht Barrientos</t>
+          <t>Inversiones y Comercial Southern World SpA</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>650</v>
+        <v>30400</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>22/12/2021</t>
+          <t>30/05/2022</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2154450586&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155928380&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -616,7 +616,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Condominio Rahue</t>
+          <t>?Ampliación Superficie Planta de Disposición Final de Residuos Biológicos No Peligrosos Industriales ECOPRIAL? Región de Los Lagos</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -631,25 +631,25 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Constructora Pacal S.A.</t>
+          <t>Raul Albrecht Barrientos</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>8586</v>
+        <v>650</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>10/05/2021</t>
+          <t>22/12/2021</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151757396&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2154450586&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -664,7 +664,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>BALNEARIO FLUVIAL RÍO DAMAS</t>
+          <t>Condominio Rahue</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -679,25 +679,25 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Inversiones y Comercial Southern World SpA</t>
+          <t>Constructora Pacal S.A.</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>30400</v>
+        <v>8586</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>09/03/2021</t>
+          <t>10/05/2021</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151031299&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151757396&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -712,7 +712,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>AUMENTO DE PRODUCCIÓN Y RIEGO DE EFLUENTES PLANTA MAFRISUR</t>
+          <t>BALNEARIO FLUVIAL RÍO DAMAS</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -727,25 +727,25 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>MATADERO FRIGORIFICO DEL SUR S.A.</t>
+          <t>Inversiones y Comercial Southern World SpA</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2500</v>
+        <v>30400</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>21/01/2021</t>
+          <t>09/03/2021</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2149382147&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151031299&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -760,7 +760,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>ADECUACIÓN OPERATIVA Y AMPLIACIÓN DE LA PLANTA DE ASESORÍAS LOS OLIVOS?</t>
+          <t>AUMENTO DE PRODUCCIÓN Y RIEGO DE EFLUENTES PLANTA MAFRISUR</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -775,25 +775,25 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Asesoría Los Olivos S.A</t>
+          <t>MATADERO FRIGORIFICO DEL SUR S.A.</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>650</v>
+        <v>2500</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>21/10/2020</t>
+          <t>21/01/2021</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2148752277&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2149382147&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -808,7 +808,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>PRP Las Quemas</t>
+          <t>ADECUACIÓN OPERATIVA Y AMPLIACIÓN DE LA PLANTA DE ASESORÍAS LOS OLIVOS?</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -823,25 +823,25 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Francisco De Paula Luis Herrera Fernandez-figares</t>
+          <t>Asesoría Los Olivos S.A</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>3145</v>
+        <v>650</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>17/01/2020</t>
+          <t>21/10/2020</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145388872&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2148752277&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -856,7 +856,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Ampliación de la Actividad de Transporte de Sustancias Peligrosas de ENAEX Servicios S.A.</t>
+          <t>PRP Las Quemas</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -866,20 +866,20 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Enaex Servicios S.A.</t>
+          <t>Francisco De Paula Luis Herrera Fernandez-figares</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>25000</v>
+        <v>3145</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>07/01/2020</t>
+          <t>17/01/2020</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -889,7 +889,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145325740&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145388872&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -904,7 +904,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Desarrollo Inmobiliario Macro Pilauco II, Etapa 2</t>
+          <t>Ampliación de la Actividad de Transporte de Sustancias Peligrosas de ENAEX Servicios S.A.</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -914,20 +914,20 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Galilea de Ingeniería y Construcción</t>
+          <t>Enaex Servicios S.A.</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>68620</v>
+        <v>25000</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>30/12/2019</t>
+          <t>07/01/2020</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -937,7 +937,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145296018&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145325740&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -952,7 +952,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>PRP LAS QUEMAS</t>
+          <t>Desarrollo Inmobiliario Macro Pilauco II, Etapa 2</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -967,25 +967,25 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Francisco De Paula Luis Herrera Fernandez-figares</t>
+          <t>Galilea de Ingeniería y Construcción</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>3145</v>
+        <v>68620</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>19/12/2019</t>
+          <t>30/12/2019</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145236028&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145296018&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1000,7 +1000,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Hacienda Las Quemas</t>
+          <t>PRP LAS QUEMAS</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1015,25 +1015,25 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Inmobiliaria Zenteno SpA</t>
+          <t>Francisco De Paula Luis Herrera Fernandez-figares</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>47000</v>
+        <v>3145</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>25/09/2019</t>
+          <t>19/12/2019</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2144245146&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145236028&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1048,7 +1048,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Proyecto Habitacional Lote 2 - Zanjones</t>
+          <t>Hacienda Las Quemas</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1063,15 +1063,15 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>SERVIU Región de Los Lagos</t>
+          <t>Inmobiliaria Zenteno SpA</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>481</v>
+        <v>47000</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>28/05/2019</t>
+          <t>25/09/2019</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -1081,7 +1081,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143277820&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2144245146&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1096,7 +1096,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Planta Pichil Alimento Bovino</t>
+          <t>Proyecto Habitacional Lote 2 - Zanjones</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1111,15 +1111,15 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Alimentos Concentrados Cisternas Ltda</t>
+          <t>SERVIU Región de Los Lagos</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>8000</v>
+        <v>481</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>31/07/2018</t>
+          <t>28/05/2019</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -1129,7 +1129,7 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2140878185&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143277820&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1144,7 +1144,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>DESARROLLO INMOBILIARIO MACRO PILAUCO II, ETAPA 1 LOTE A</t>
+          <t>Planta Pichil Alimento Bovino</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1159,15 +1159,15 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Galilea de Ingeniería y Construcción</t>
+          <t>Alimentos Concentrados Cisternas Ltda</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>14500</v>
+        <v>8000</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>21/08/2017</t>
+          <t>31/07/2018</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -1177,7 +1177,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132606168&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2140878185&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1192,30 +1192,30 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Sistema de Transmisión S/E Pichirropulli - S/E Tineo</t>
+          <t>DESARROLLO INMOBILIARIO MACRO PILAUCO II, ETAPA 1 LOTE A</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>TRANSELEC CONCESIONES S.A.</t>
+          <t>Galilea de Ingeniería y Construcción</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>82000</v>
+        <v>14500</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>08/06/2017</t>
+          <t>21/08/2017</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -1225,7 +1225,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132447295&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132606168&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1240,30 +1240,30 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Proyecto La Misión</t>
+          <t>Sistema de Transmisión S/E Pichirropulli - S/E Tineo</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Sistema de Transmision del Sur S.A.</t>
+          <t>TRANSELEC CONCESIONES S.A.</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>19299</v>
+        <v>82000</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>19/01/2017</t>
+          <t>08/06/2017</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -1273,7 +1273,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132100181&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132447295&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1288,7 +1288,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Optimización Productiva de la Piscicultura Santa Juana</t>
+          <t>Proyecto La Misión</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1303,15 +1303,15 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Cermaq Chile S.A.</t>
+          <t>Sistema de Transmision del Sur S.A.</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>400</v>
+        <v>19299</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>06/12/2016</t>
+          <t>19/01/2017</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -1321,7 +1321,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131979220&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132100181&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1336,7 +1336,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Ampliación Transporte Terrestre de Sustancias Químicas</t>
+          <t>Optimización Productiva de la Piscicultura Santa Juana</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1346,20 +1346,20 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
+          <t>Cermaq Chile S.A.</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>10000</v>
+        <v>400</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>22/08/2016</t>
+          <t>06/12/2016</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -1369,7 +1369,7 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131697972&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131979220&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1384,7 +1384,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>DECLARACION DE IMPACTO AMBIENTAL LOTEO HABITACIONAL D.F.L.2, MACRO PILAUCO II</t>
+          <t>Ampliación Transporte Terrestre de Sustancias Químicas</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1394,30 +1394,30 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Galilea de Ingeniería y Construcción</t>
+          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>72470</v>
+        <v>10000</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>12/08/2016</t>
+          <t>22/08/2016</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131467206&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131697972&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1432,7 +1432,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Riego de riles Planta Mulpulmo</t>
+          <t>DECLARACION DE IMPACTO AMBIENTAL LOTEO HABITACIONAL D.F.L.2, MACRO PILAUCO II</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1447,25 +1447,25 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Lácteos del Sur S.A.</t>
+          <t>Galilea de Ingeniería y Construcción</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>90</v>
+        <v>72470</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>03/06/2016</t>
+          <t>12/08/2016</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131404162&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131467206&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1480,7 +1480,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Compostaje y Vermicompostaje Residuos Sólidos Orgánicos. Sector Barro Blanco. Comuna de Osorno.</t>
+          <t>Riego de riles Planta Mulpulmo</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1495,25 +1495,25 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Frigorífico de osorno S.A.</t>
+          <t>Lácteos del Sur S.A.</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>500</v>
+        <v>90</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>17/09/2015</t>
+          <t>03/06/2016</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130760880&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131404162&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1528,7 +1528,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Bodega para Almacenamiento de Sustancias Peligrosas - Sucursal Osorno</t>
+          <t>Compostaje y Vermicompostaje Residuos Sólidos Orgánicos. Sector Barro Blanco. Comuna de Osorno.</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1543,25 +1543,25 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>ANASAC CHILE S.A.</t>
+          <t>Frigorífico de osorno S.A.</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>193</v>
+        <v>500</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>05/05/2015</t>
+          <t>17/09/2015</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130426799&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130760880&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1576,7 +1576,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Proyecto Centro de Agroturismo El Mirador</t>
+          <t>Bodega para Almacenamiento de Sustancias Peligrosas - Sucursal Osorno</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1591,15 +1591,15 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Sociedad de Agroturismo El Mirador Limitada</t>
+          <t>ANASAC CHILE S.A.</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>500</v>
+        <v>193</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>19/03/2015</t>
+          <t>05/05/2015</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
@@ -1609,7 +1609,7 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130315339&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130426799&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1639,7 +1639,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Lucia Adriana Kyling Montecino</t>
+          <t>Sociedad de Agroturismo El Mirador Limitada</t>
         </is>
       </c>
       <c r="F27" t="n">
@@ -1647,17 +1647,17 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>09/03/2015</t>
+          <t>19/03/2015</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130308568&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130315339&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -1672,7 +1672,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Tratamiento de Residuos Especiales e Industriales a Través de Incineración, Osorno.</t>
+          <t>Proyecto Centro de Agroturismo El Mirador</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1687,25 +1687,25 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Inversiones Las Higueras Limitada</t>
+          <t>Lucia Adriana Kyling Montecino</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>1500</v>
+        <v>500</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>19/02/2015</t>
+          <t>09/03/2015</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130221119&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130308568&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -1720,7 +1720,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
+          <t>Tratamiento de Residuos Especiales e Industriales a Través de Incineración, Osorno.</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1730,30 +1730,30 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>Inversiones Las Higueras Limitada</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>5000</v>
+        <v>1500</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>26/01/2015</t>
+          <t>19/02/2015</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130159203&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130221119&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -1768,7 +1768,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos y no Peligrosos entre las Regiones XV y X</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1791,7 +1791,7 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>26/12/2014</t>
+          <t>26/01/2015</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
@@ -1801,7 +1801,7 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076569&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130159203&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
+          <t>Transporte Terrestre de Residuos Peligrosos y no Peligrosos entre las Regiones XV y X</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1839,7 +1839,7 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>20/11/2014</t>
+          <t>26/12/2014</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
@@ -1849,7 +1849,7 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129965016&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076569&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -1864,7 +1864,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>"AMPLIACION DE RUTAS PARA TRANSPORTE TERRESTRE DE RESIDUOS Y SUSTANCIAS PELIGROSAS A GRANEL DESDE LA I A LA X REGIÓN TRANSPORTES TRANSVER LTDA"</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1879,15 +1879,15 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Transportes Transver Ltda.</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>17/11/2014</t>
+          <t>20/11/2014</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
@@ -1897,7 +1897,7 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129535685&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129965016&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -1912,7 +1912,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Modificación Transporte y Logística Interregional de Cargas y/o Sustancias Peligrosas.</t>
+          <t>"AMPLIACION DE RUTAS PARA TRANSPORTE TERRESTRE DE RESIDUOS Y SUSTANCIAS PELIGROSAS A GRANEL DESDE LA I A LA X REGIÓN TRANSPORTES TRANSVER LTDA"</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1927,25 +1927,25 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
+          <t>Transportes Transver Ltda.</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>6750</v>
+        <v>0</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>13/11/2014</t>
+          <t>17/11/2014</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129725840&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129535685&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -1960,7 +1960,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
+          <t>Modificación Transporte y Logística Interregional de Cargas y/o Sustancias Peligrosas.</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1975,25 +1975,25 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>5000</v>
+        <v>6750</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>05/11/2014</t>
+          <t>13/11/2014</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129895680&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129725840&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -2008,7 +2008,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos y No Peligrosos entre las Regiones XV y X</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2031,7 +2031,7 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>30/06/2014</t>
+          <t>05/11/2014</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
@@ -2041,7 +2041,7 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129237859&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129895680&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -2056,7 +2056,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Extracción de áridos en pozo Jauregui</t>
+          <t>Transporte Terrestre de Residuos Peligrosos y No Peligrosos entre las Regiones XV y X</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2066,20 +2066,20 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Juan Carlos Jauregui Hidalgo</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>400</v>
+        <v>5000</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>22/01/2014</t>
+          <t>30/06/2014</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
@@ -2089,7 +2089,7 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129115711&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129237859&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -2104,7 +2104,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Extracción de áridos en pozo Jauregui</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -2114,30 +2114,30 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>Juan Carlos Jauregui Hidalgo</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>1200</v>
+        <v>400</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>23/12/2013</t>
+          <t>22/01/2014</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129115711&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -2152,7 +2152,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Extracción de áridos en Pozo Jauregui</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2162,30 +2162,30 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Juan Carlos Jauregui Hidalgo</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>400</v>
+        <v>1200</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>09/12/2013</t>
+          <t>23/12/2013</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128899538&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -2200,7 +2200,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos y no peligrosos entre las Regiones XV y X</t>
+          <t>Extracción de áridos en Pozo Jauregui</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2210,20 +2210,20 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>Juan Carlos Jauregui Hidalgo</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>5000</v>
+        <v>400</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>08/11/2013</t>
+          <t>09/12/2013</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
@@ -2233,7 +2233,7 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128788354&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128899538&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -2248,7 +2248,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Empréstito Los Melíes, Comuna de Osorno, Región de Los Lagos</t>
+          <t>Transporte Terrestre de Residuos Peligrosos y no peligrosos entre las Regiones XV y X</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2258,30 +2258,30 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Dragados S.A. Agencia en Chile</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>543</v>
+        <v>5000</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>07/11/2013</t>
+          <t>08/11/2013</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128789901&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128788354&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -2296,7 +2296,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Declaración de impacto ambiental "Modificación del Manejo de la mortalidad mediante sistema de ensilaje en Piscicultura Santa Juana"</t>
+          <t>Empréstito Los Melíes, Comuna de Osorno, Región de Los Lagos</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2311,15 +2311,15 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Cermaq Chile S.A.</t>
+          <t>Dragados S.A. Agencia en Chile</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>1</v>
+        <v>543</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>15/07/2013</t>
+          <t>07/11/2013</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
@@ -2329,7 +2329,7 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8355513&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128789901&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -2344,7 +2344,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>REGULARIZACIÓN DEL TRANSPORTE DE SUSTANCIAS PELIGROSAS TREXVAL S.A.</t>
+          <t>Declaración de impacto ambiental "Modificación del Manejo de la mortalidad mediante sistema de ensilaje en Piscicultura Santa Juana"</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2354,20 +2354,20 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Trexval S.A.</t>
+          <t>Cermaq Chile S.A.</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>21/06/2013</t>
+          <t>15/07/2013</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
@@ -2377,7 +2377,7 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8280859&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8355513&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -2392,7 +2392,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Regularización Transporte de Sustancias Peligrosas TREXVAL S.A.</t>
+          <t>REGULARIZACIÓN DEL TRANSPORTE DE SUSTANCIAS PELIGROSAS TREXVAL S.A.</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2415,17 +2415,17 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>06/06/2013</t>
+          <t>21/06/2013</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8227033&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8280859&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -2440,7 +2440,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Mejoramiento Tecnológico Planta Watts Osorno</t>
+          <t>Regularización Transporte de Sustancias Peligrosas TREXVAL S.A.</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2450,30 +2450,30 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Watts S.A.</t>
+          <t>Trexval S.A.</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>7751</v>
+        <v>0</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>23/05/2013</t>
+          <t>06/06/2013</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8187978&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8227033&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -2488,7 +2488,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>"Riego en pradera con efluentes tratados de RILes lácteos".</t>
+          <t>Mejoramiento Tecnológico Planta Watts Osorno</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2503,25 +2503,25 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Industrias Valle Verde S.A.</t>
+          <t>Watts S.A.</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>7751</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>16/05/2013</t>
+          <t>23/05/2013</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8172032&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8187978&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -2536,7 +2536,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Transporte de residuos No Peligrosos, Peligrosos y Especiales entre la XV región y la X región</t>
+          <t>"Riego en pradera con efluentes tratados de RILes lácteos".</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2546,20 +2546,20 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Industrias Valle Verde S.A.</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>10/05/2013</t>
+          <t>16/05/2013</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
@@ -2569,7 +2569,7 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158912&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8172032&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -2584,7 +2584,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas TREXVAL S.A.</t>
+          <t>Transporte de residuos No Peligrosos, Peligrosos y Especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2599,15 +2599,15 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Mauricio Salím Mahmud Vergara</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>2500</v>
+        <v>250</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>06/05/2013</t>
+          <t>10/05/2013</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
@@ -2617,7 +2617,7 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8126996&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158912&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -2647,25 +2647,25 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Trexval S.A.</t>
+          <t>Mauricio Salím Mahmud Vergara</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>2475</v>
+        <v>2500</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>17/04/2013</t>
+          <t>06/05/2013</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8057600&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8126996&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -2680,7 +2680,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>Transporte de Sustancias Peligrosas TREXVAL S.A.</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2695,15 +2695,15 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Trexval S.A.</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>250</v>
+        <v>2475</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>15/04/2013</t>
+          <t>17/04/2013</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
@@ -2713,7 +2713,7 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8063600&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8057600&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -2751,7 +2751,7 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>19/03/2013</t>
+          <t>15/04/2013</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
@@ -2761,7 +2761,7 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7961483&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8063600&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -2776,7 +2776,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Ampliación de extracción de áridos en el río Rahue sector fundo el Almud - San Florentino</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2786,30 +2786,30 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>ARIDOS DOWLING &amp; SCHILLING S.A</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>7000</v>
+        <v>250</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>18/03/2013</t>
+          <t>19/03/2013</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7972056&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7961483&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -2824,7 +2824,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>"PISCICULTURA TRAFUN, COMUNA DE SAN PABLO, PROVINCIA DE OSORNO, DÉCIMA REGIÓN DE LOS LAGOS"</t>
+          <t>Ampliación de extracción de áridos en el río Rahue sector fundo el Almud - San Florentino</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2839,15 +2839,15 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Mainstream Chile S.A.</t>
+          <t>ARIDOS DOWLING &amp; SCHILLING S.A</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>31/12/2012</t>
+          <t>18/03/2013</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
@@ -2857,7 +2857,7 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7715692&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7972056&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -2872,7 +2872,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Ampliación de extracción de áridos en Pozo Jauregui</t>
+          <t>"PISCICULTURA TRAFUN, COMUNA DE SAN PABLO, PROVINCIA DE OSORNO, DÉCIMA REGIÓN DE LOS LAGOS"</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2887,25 +2887,25 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Juan Carlos Jauregui Hidalgo</t>
+          <t>Mainstream Chile S.A.</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>500</v>
+        <v>6000</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>22/11/2012</t>
+          <t>31/12/2012</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7547676&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7715692&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -2968,7 +2968,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>MODIFICACION A LA DECLARACION DE IMPACTO AMBIENTAL PISCICULTURA EL VENADO</t>
+          <t>Ampliación de extracción de áridos en Pozo Jauregui</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2983,25 +2983,25 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Sociedad Agrícola Covarrubias Fernández Ltda.</t>
+          <t>Juan Carlos Jauregui Hidalgo</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>2500</v>
+        <v>500</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>12/11/2012</t>
+          <t>22/11/2012</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7509459&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7547676&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -3016,7 +3016,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN A LA DECLARACIÓN DE IMPACTO AMBIENTAL PISCICULTURA EL VENADO COMUNA DE OSORNO.</t>
+          <t>MODIFICACION A LA DECLARACION DE IMPACTO AMBIENTAL PISCICULTURA EL VENADO</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3039,7 +3039,7 @@
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>17/10/2012</t>
+          <t>12/11/2012</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
@@ -3049,7 +3049,7 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7352039&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7509459&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -3064,7 +3064,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Ampliación Piscicultura Cancura</t>
+          <t>MODIFICACIÓN A LA DECLARACIÓN DE IMPACTO AMBIENTAL PISCICULTURA EL VENADO COMUNA DE OSORNO.</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -3079,25 +3079,25 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Cermaq Chile S.A.</t>
+          <t>Sociedad Agrícola Covarrubias Fernández Ltda.</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>4000</v>
+        <v>2500</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>27/07/2012</t>
+          <t>17/10/2012</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6858091&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7352039&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -3112,7 +3112,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
+          <t>Ampliación Piscicultura Cancura</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -3122,30 +3122,30 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>KDM SERVICIOS S.A.</t>
+          <t>Cermaq Chile S.A.</t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>16/05/2012</t>
+          <t>27/07/2012</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6888046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6858091&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -3160,7 +3160,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Planta de destilacion de gases del aire</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -3170,30 +3170,30 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>GASES DEL SUR SOCIEDAD LIMITADA</t>
+          <t>KDM SERVICIOS S.A.</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>1000</v>
+        <v>5000</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>11/05/2012</t>
+          <t>16/05/2012</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6913953&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6888046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -3208,7 +3208,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos Interregional</t>
+          <t>Planta de destilacion de gases del aire</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -3218,30 +3218,30 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Jorge Andrés Torres Hidalgo</t>
+          <t>GASES DEL SUR SOCIEDAD LIMITADA</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>23/04/2012</t>
+          <t>11/05/2012</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6852559&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6913953&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -3256,7 +3256,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
+          <t>Transporte de Residuos Peligrosos Interregional</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -3271,25 +3271,25 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Jorge Andrés Torres Hidalgo</t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>20/02/2012</t>
+          <t>23/04/2012</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6852559&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -3304,7 +3304,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>AUTOGENERACION ELECTRICA PROLESUR</t>
+          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3314,30 +3314,30 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Prolesur S.A.</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F62" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>13/02/2012</t>
+          <t>20/02/2012</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6601064&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -3367,7 +3367,7 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Sociedad Productores de Leche S.A.</t>
+          <t>Prolesur S.A.</t>
         </is>
       </c>
       <c r="F63" t="n">
@@ -3375,17 +3375,17 @@
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>19/01/2012</t>
+          <t>13/02/2012</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6474722&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6601064&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -3400,7 +3400,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>S/E Seccionadora Rahue 220 kV</t>
+          <t>AUTOGENERACION ELECTRICA PROLESUR</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -3415,25 +3415,25 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A...</t>
+          <t>Sociedad Productores de Leche S.A.</t>
         </is>
       </c>
       <c r="F64" t="n">
-        <v>14000</v>
+        <v>1000</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>18/01/2012</t>
+          <t>19/01/2012</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6504250&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6474722&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -3448,7 +3448,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Quimicas entre XV y X region .</t>
+          <t>S/E Seccionadora Rahue 220 kV</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -3458,30 +3458,30 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>TRANSELEC S.A...</t>
         </is>
       </c>
       <c r="F65" t="n">
-        <v>1000</v>
+        <v>14000</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>11/01/2012</t>
+          <t>18/01/2012</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6435815&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6504250&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -3496,7 +3496,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>Transporte de Sustancias Quimicas entre XV y X region .</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -3511,15 +3511,15 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F66" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>10/01/2012</t>
+          <t>11/01/2012</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
@@ -3529,7 +3529,7 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6435815&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -3544,7 +3544,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Plan de cierre Ex basural de Ovejería de osorno</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -3554,30 +3554,30 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Osorno</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F67" t="n">
-        <v>1700</v>
+        <v>100</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>02/01/2012</t>
+          <t>10/01/2012</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6239097&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
@@ -3592,7 +3592,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Línea de Transmisión 66 kV Pilauco-Pichil</t>
+          <t>Plan de cierre Ex basural de Ovejería de osorno</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3607,15 +3607,15 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Sistema de Transmision del Sur S.A.</t>
+          <t>Ilustre Municipalidad de Osorno</t>
         </is>
       </c>
       <c r="F68" t="n">
-        <v>1967</v>
+        <v>1700</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>01/12/2011</t>
+          <t>02/01/2012</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
@@ -3625,7 +3625,7 @@
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6334231&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6239097&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -3640,7 +3640,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Transportes de Sustancias Quimicas entre la XV y la X region</t>
+          <t>Línea de Transmisión 66 kV Pilauco-Pichil</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3650,30 +3650,30 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Sistema de Transmision del Sur S.A.</t>
         </is>
       </c>
       <c r="F69" t="n">
-        <v>1000</v>
+        <v>1967</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>21/11/2011</t>
+          <t>01/12/2011</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6291084&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6334231&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -3688,7 +3688,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Transporte de residuos peligrosos y no peligrosos</t>
+          <t>Transportes de Sustancias Quimicas entre la XV y la X region</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -3703,15 +3703,15 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Fernando Luciano Huerta Tello</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F70" t="n">
-        <v>319</v>
+        <v>1000</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>04/10/2011</t>
+          <t>21/11/2011</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
@@ -3721,7 +3721,7 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5958795&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6291084&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -3736,7 +3736,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>TAP OFF PICHIRREHUE</t>
+          <t>Transporte de residuos peligrosos y no peligrosos</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -3746,30 +3746,30 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Empresa Eléctrica Pilmaiquén S.A.</t>
+          <t>Fernando Luciano Huerta Tello</t>
         </is>
       </c>
       <c r="F71" t="n">
-        <v>19800</v>
+        <v>319</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>01/06/2011</t>
+          <t>04/10/2011</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5675930&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5958795&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -3784,7 +3784,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE EXTRACCIÓN DE ÁRIDOS RÍO RAHUE SECTOR CANCURA</t>
+          <t>TAP OFF PICHIRREHUE</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -3799,15 +3799,15 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>ARIDOS DOWLING &amp; SCHILLING S.A</t>
+          <t>Empresa Eléctrica Pilmaiquén S.A.</t>
         </is>
       </c>
       <c r="F72" t="n">
-        <v>1500</v>
+        <v>19800</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>25/05/2011</t>
+          <t>01/06/2011</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
@@ -3817,7 +3817,7 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5626276&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5675930&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -3832,7 +3832,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Ampliación de rutas para el servicio de transporte, reciclaje y gestión de residuos industriales .</t>
+          <t>AMPLIACIÓN DE EXTRACCIÓN DE ÁRIDOS RÍO RAHUE SECTOR CANCURA</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -3842,20 +3842,20 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Gestión Ambiental Limitada</t>
+          <t>ARIDOS DOWLING &amp; SCHILLING S.A</t>
         </is>
       </c>
       <c r="F73" t="n">
-        <v>250</v>
+        <v>1500</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>27/04/2011</t>
+          <t>25/05/2011</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
@@ -3865,7 +3865,7 @@
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5540550&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5626276&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -3880,7 +3880,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Piscicultura El Encanto</t>
+          <t>Ampliación de rutas para el servicio de transporte, reciclaje y gestión de residuos industriales .</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -3890,30 +3890,30 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Congelados Pacífico S.A.</t>
+          <t>Gestión Ambiental Limitada</t>
         </is>
       </c>
       <c r="F74" t="n">
-        <v>8500</v>
+        <v>250</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>19/04/2011</t>
+          <t>27/04/2011</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5435529&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5540550&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
@@ -3928,7 +3928,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Ampliacion de rutas para el transporte, reciclaje y gestión de residuos industriales. .</t>
+          <t>Piscicultura El Encanto</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3938,30 +3938,30 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Gestión Ambiental Limitada</t>
+          <t>Congelados Pacífico S.A.</t>
         </is>
       </c>
       <c r="F75" t="n">
-        <v>250</v>
+        <v>8500</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>15/04/2011</t>
+          <t>19/04/2011</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5532880&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5435529&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -3976,7 +3976,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Mejoramiento y Ampliación de Producción Piscicultura Rupanquito</t>
+          <t>Ampliacion de rutas para el transporte, reciclaje y gestión de residuos industriales. .</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -3986,30 +3986,30 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Salmones Antártica S.A</t>
+          <t>Gestión Ambiental Limitada</t>
         </is>
       </c>
       <c r="F76" t="n">
-        <v>1500</v>
+        <v>250</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>08/03/2011</t>
+          <t>15/04/2011</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5425000&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5532880&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -4024,7 +4024,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Subestación Pilauco 220/66 kV</t>
+          <t>Mejoramiento y Ampliación de Producción Piscicultura Rupanquito</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -4039,15 +4039,15 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Sistema de Transmision del Sur S.A.</t>
+          <t>Salmones Antártica S.A</t>
         </is>
       </c>
       <c r="F77" t="n">
-        <v>14800</v>
+        <v>1500</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>18/02/2011</t>
+          <t>08/03/2011</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
@@ -4057,7 +4057,7 @@
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5359373&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5425000&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -4072,7 +4072,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Modificación al Manejo de Mortalidad Mediante Sistema de Ensilaje. Piscicultura Las Quemas, Río Rahue, Comuna de Osorno.</t>
+          <t>Subestación Pilauco 220/66 kV</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -4087,15 +4087,15 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Piscicultura Las Quemas Chile S.A.</t>
+          <t>Sistema de Transmision del Sur S.A.</t>
         </is>
       </c>
       <c r="F78" t="n">
-        <v>4</v>
+        <v>14800</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>04/02/2011</t>
+          <t>18/02/2011</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
@@ -4105,7 +4105,7 @@
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5317523&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5359373&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -4120,7 +4120,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>MEJORAMIENTO PLANTA DE DISPOSICIÓN FINAL DE RESIDUOS INDUSTRIALES ECOPRIAL</t>
+          <t>Modificación al Manejo de Mortalidad Mediante Sistema de Ensilaje. Piscicultura Las Quemas, Río Rahue, Comuna de Osorno.</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -4135,15 +4135,15 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Asesoría Los Olivos S.A</t>
+          <t>Piscicultura Las Quemas Chile S.A.</t>
         </is>
       </c>
       <c r="F79" t="n">
-        <v>500</v>
+        <v>4</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>27/01/2011</t>
+          <t>04/02/2011</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
@@ -4153,7 +4153,7 @@
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5285248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5317523&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
@@ -4191,17 +4191,17 @@
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>17/01/2011</t>
+          <t>27/01/2011</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5248742&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5285248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
@@ -4216,7 +4216,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Piscicultura El Venado</t>
+          <t>MEJORAMIENTO PLANTA DE DISPOSICIÓN FINAL DE RESIDUOS INDUSTRIALES ECOPRIAL</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -4231,25 +4231,25 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Sociedad Agrícola Covarrubias Fernández Ltda.</t>
+          <t>Asesoría Los Olivos S.A</t>
         </is>
       </c>
       <c r="F81" t="n">
-        <v>8000</v>
+        <v>500</v>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>19/10/2010</t>
+          <t>17/01/2011</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5012986&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5248742&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
@@ -4264,7 +4264,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>PROYECTO AMPLIACION EXTRACCION DE ARIDOS EN RIO RAHUE SECTOR FUNDO EL ALMUD</t>
+          <t>Piscicultura El Venado</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -4279,15 +4279,15 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>ARIDOS DOWLING &amp; SCHILLING S.A</t>
+          <t>Sociedad Agrícola Covarrubias Fernández Ltda.</t>
         </is>
       </c>
       <c r="F82" t="n">
-        <v>250</v>
+        <v>8000</v>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>08/10/2010</t>
+          <t>19/10/2010</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
@@ -4297,7 +4297,7 @@
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4992265&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5012986&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
@@ -4312,7 +4312,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS</t>
+          <t>PROYECTO AMPLIACION EXTRACCION DE ARIDOS EN RIO RAHUE SECTOR FUNDO EL ALMUD</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -4322,30 +4322,30 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Sociedad Logística Ambiental Ltda.</t>
+          <t>ARIDOS DOWLING &amp; SCHILLING S.A</t>
         </is>
       </c>
       <c r="F83" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>24/06/2010</t>
+          <t>08/10/2010</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4702856&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4992265&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -4360,7 +4360,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>SISTEMA DE ENSILAJE DE MORTALIDAD PISCICULTURA PICHICHANLELFU</t>
+          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -4370,30 +4370,30 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Mowi Chile S.A</t>
+          <t>Sociedad Logística Ambiental Ltda.</t>
         </is>
       </c>
       <c r="F84" t="n">
-        <v>50</v>
+        <v>300</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>06/05/2010</t>
+          <t>24/06/2010</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4552129&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4702856&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
@@ -4408,7 +4408,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Piscicultura El Venado</t>
+          <t>SISTEMA DE ENSILAJE DE MORTALIDAD PISCICULTURA PICHICHANLELFU</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -4423,25 +4423,25 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Sociedad Agrícola Covarrubias Fernández Ltda.</t>
+          <t>Mowi Chile S.A</t>
         </is>
       </c>
       <c r="F85" t="n">
-        <v>8000</v>
+        <v>50</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>04/05/2010</t>
+          <t>06/05/2010</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4492153&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4552129&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
@@ -4456,7 +4456,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
+          <t>Piscicultura El Venado</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -4466,30 +4466,30 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Sociedad Agrícola Covarrubias Fernández Ltda.</t>
         </is>
       </c>
       <c r="F86" t="n">
-        <v>250</v>
+        <v>8000</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>26/04/2010</t>
+          <t>04/05/2010</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4509429&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4492153&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
@@ -4504,7 +4504,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>BODEGA PARA EL ALMACENAMIENTO TRANSITORIO DE RESIDUOS INDUSTRIALES DE TERCEROS, ECOPRIAL</t>
+          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -4514,20 +4514,20 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Asesoría Los Olivos S.A</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F87" t="n">
-        <v>286</v>
+        <v>250</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>21/04/2010</t>
+          <t>26/04/2010</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
@@ -4537,7 +4537,7 @@
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4522528&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4509429&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
@@ -4552,7 +4552,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
+          <t>BODEGA PARA EL ALMACENAMIENTO TRANSITORIO DE RESIDUOS INDUSTRIALES DE TERCEROS, ECOPRIAL</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -4562,30 +4562,30 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Asesoría Los Olivos S.A</t>
         </is>
       </c>
       <c r="F88" t="n">
-        <v>250</v>
+        <v>286</v>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>10/02/2010</t>
+          <t>21/04/2010</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4352324&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4522528&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
@@ -4600,7 +4600,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -4615,15 +4615,15 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F89" t="n">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>22/01/2010</t>
+          <t>10/02/2010</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
@@ -4633,7 +4633,7 @@
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4352324&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
@@ -4648,7 +4648,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -4663,7 +4663,7 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F90" t="n">
@@ -4676,12 +4676,12 @@
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -4719,17 +4719,17 @@
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>15/01/2010</t>
+          <t>22/01/2010</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
@@ -4744,7 +4744,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Línea de Alta Tensión Antillanca - Nueva Barro Blanco (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -4754,30 +4754,30 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>Sistema de Transmision del Sur S.A.</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F92" t="n">
-        <v>8000</v>
+        <v>0</v>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>22/12/2009</t>
+          <t>15/01/2010</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4270514&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
@@ -4792,7 +4792,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS (e-seia)</t>
+          <t>Línea de Alta Tensión Antillanca - Nueva Barro Blanco (e-seia)</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -4802,30 +4802,30 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>Sociedad Logística Ambiental Ltda.</t>
+          <t>Sistema de Transmision del Sur S.A.</t>
         </is>
       </c>
       <c r="F93" t="n">
-        <v>0</v>
+        <v>8000</v>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>30/11/2009</t>
+          <t>22/12/2009</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4224783&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4270514&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
@@ -4840,7 +4840,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Subestación Nueva Barro Blanco 220/66 kV (e-seia)</t>
+          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -4850,30 +4850,30 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>Sistema de Transmision del Sur S.A.</t>
+          <t>Sociedad Logística Ambiental Ltda.</t>
         </is>
       </c>
       <c r="F94" t="n">
-        <v>14800</v>
+        <v>0</v>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>26/11/2009</t>
+          <t>30/11/2009</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4215834&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4224783&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
@@ -4888,7 +4888,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Regularización disposición final efluente Inmobiliaria Ferias Unidas de Osorno Limitada. Comuna de Osorno. Provincia de Osorno. Región de los Lagos. (e-seia)</t>
+          <t>Subestación Nueva Barro Blanco 220/66 kV (e-seia)</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -4903,15 +4903,15 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>Sociedad Inmobiliaria Ferias Unidas de Osorno Limitada</t>
+          <t>Sistema de Transmision del Sur S.A.</t>
         </is>
       </c>
       <c r="F95" t="n">
-        <v>27</v>
+        <v>14800</v>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>12/11/2009</t>
+          <t>26/11/2009</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
@@ -4921,7 +4921,7 @@
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4185561&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4215834&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
@@ -4936,7 +4936,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Transporte Inter-Regional Terrestre de Residuos, PROCESAN S.A. (e-seia)</t>
+          <t>Regularización disposición final efluente Inmobiliaria Ferias Unidas de Osorno Limitada. Comuna de Osorno. Provincia de Osorno. Región de los Lagos. (e-seia)</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -4946,30 +4946,30 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>PROCESAN S.A.</t>
+          <t>Sociedad Inmobiliaria Ferias Unidas de Osorno Limitada</t>
         </is>
       </c>
       <c r="F96" t="n">
-        <v>377</v>
+        <v>27</v>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>23/10/2009</t>
+          <t>12/11/2009</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4134794&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4185561&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
@@ -5032,7 +5032,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Incorporación de etapa fisicoquímica al sistema de tratamiento de RILes de MAFRISUR S.A. (e-seia)</t>
+          <t>Transporte Inter-Regional Terrestre de Residuos, PROCESAN S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -5042,30 +5042,30 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>MAFRISUR S.A.</t>
+          <t>PROCESAN S.A.</t>
         </is>
       </c>
       <c r="F98" t="n">
-        <v>10</v>
+        <v>377</v>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>29/09/2009</t>
+          <t>23/10/2009</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4085084&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4134794&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
@@ -5080,7 +5080,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos CMR Norte. (e-seia)</t>
+          <t>Incorporación de etapa fisicoquímica al sistema de tratamiento de RILes de MAFRISUR S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -5090,30 +5090,30 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>MAFRISUR S.A.</t>
         </is>
       </c>
       <c r="F99" t="n">
-        <v>250</v>
+        <v>10</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>18/08/2009</t>
+          <t>29/09/2009</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3960661&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4085084&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
@@ -5128,7 +5128,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Transporte de Combustibles y Residuos Industriales, Peligrosos y No Peligrosos entre Arica y Puerto Montt (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos CMR Norte. (e-seia)</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -5143,15 +5143,15 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>Transportes Centro Sur Norte S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F100" t="n">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>27/07/2009</t>
+          <t>18/08/2009</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
@@ -5161,7 +5161,7 @@
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3893261&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3960661&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
@@ -5176,7 +5176,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Proyecto Interregional de Transporte de Combustibles y Residuos Industriales, Peligrosos y No Peligrosos entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -5191,15 +5191,15 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>Sotrans Limitada</t>
+          <t>Transportes Centro Sur Norte S.A.</t>
         </is>
       </c>
       <c r="F101" t="n">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>02/06/2009</t>
+          <t>27/07/2009</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
@@ -5209,7 +5209,7 @@
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3893261&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
@@ -5224,7 +5224,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Planta Unidad Sur (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -5234,30 +5234,30 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>Envases Impresos SpA</t>
+          <t>Sotrans Limitada</t>
         </is>
       </c>
       <c r="F102" t="n">
-        <v>30000</v>
+        <v>22</v>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>20/04/2009</t>
+          <t>02/06/2009</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3715069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
@@ -5287,7 +5287,7 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>Envases Roble Alto S.A.</t>
+          <t>Envases Impresos SpA</t>
         </is>
       </c>
       <c r="F103" t="n">
@@ -5295,17 +5295,17 @@
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>08/04/2009</t>
+          <t>20/04/2009</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3685558&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3715069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
@@ -5320,7 +5320,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>LÍNEA DE TRANSMISIÓN ELÉCTRICA 2x220 kV OSORNOBARRO BLANCO (e-seia)</t>
+          <t>Planta Unidad Sur (e-seia)</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -5335,25 +5335,25 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>Empresa Eléctrica Pilmaiquén S.A.</t>
+          <t>Envases Roble Alto S.A.</t>
         </is>
       </c>
       <c r="F104" t="n">
-        <v>4560</v>
+        <v>30000</v>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>06/04/2009</t>
+          <t>08/04/2009</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3677275&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3685558&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
@@ -5368,10 +5368,14 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>EIA Relleno Sanitario Provincial de Osorno</t>
-        </is>
-      </c>
-      <c r="C105" t="inlineStr"/>
+          <t>LÍNEA DE TRANSMISIÓN ELÉCTRICA 2x220 kV OSORNOBARRO BLANCO (e-seia)</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D105" t="inlineStr">
         <is>
           <t>Décima</t>
@@ -5379,15 +5383,15 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Osorno</t>
+          <t>Empresa Eléctrica Pilmaiquén S.A.</t>
         </is>
       </c>
       <c r="F105" t="n">
-        <v>18000</v>
+        <v>4560</v>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>03/04/2009</t>
+          <t>06/04/2009</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
@@ -5397,7 +5401,7 @@
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3675668&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3677275&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
@@ -5412,14 +5416,10 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Ampliación Planta Osorno (e-seia)</t>
-        </is>
-      </c>
-      <c r="C106" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>EIA Relleno Sanitario Provincial de Osorno</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr"/>
       <c r="D106" t="inlineStr">
         <is>
           <t>Décima</t>
@@ -5427,15 +5427,15 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>Watts S.A.</t>
+          <t>Ilustre Municipalidad de Osorno</t>
         </is>
       </c>
       <c r="F106" t="n">
-        <v>22000</v>
+        <v>18000</v>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>24/03/2009</t>
+          <t>03/04/2009</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
@@ -5445,7 +5445,7 @@
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3639837&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3675668&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
@@ -5460,7 +5460,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Línea de Transmisión Los Negros-Barro Blanco (e-seia)</t>
+          <t>Ampliación Planta Osorno (e-seia)</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -5475,15 +5475,15 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>Sistema de Transmisión de Los Lagos S.A.</t>
+          <t>Watts S.A.</t>
         </is>
       </c>
       <c r="F107" t="n">
-        <v>0</v>
+        <v>22000</v>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>13/03/2009</t>
+          <t>24/03/2009</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
@@ -5493,7 +5493,7 @@
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3631384&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3639837&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
@@ -5508,7 +5508,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Transporte de Residuos de Plomo y Baterías en Desuso, por las Regiones VI, VII, VIII, IX, XIV y X (e-seia)</t>
+          <t>Línea de Transmisión Los Negros-Barro Blanco (e-seia)</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -5518,12 +5518,12 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>Transportes Reciclar Limitada</t>
+          <t>Sistema de Transmisión de Los Lagos S.A.</t>
         </is>
       </c>
       <c r="F108" t="n">
@@ -5531,7 +5531,7 @@
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>10/02/2009</t>
+          <t>13/03/2009</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
@@ -5541,7 +5541,7 @@
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3551870&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3631384&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
@@ -5556,7 +5556,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Residuos de Plomo y Baterías en Desuso, por las Regiones VI, VII, VIII, IX, XIV y X (e-seia)</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -5571,7 +5571,7 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>Transportes Reciclar Limitada</t>
         </is>
       </c>
       <c r="F109" t="n">
@@ -5579,17 +5579,17 @@
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>23/01/2009</t>
+          <t>10/02/2009</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503806&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3551870&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
@@ -5627,17 +5627,17 @@
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>27/11/2008</t>
+          <t>23/01/2009</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3337768&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503806&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
@@ -5652,7 +5652,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Transporte de Residuos de Plomo y Baterías en Desuso, por las Regiones VI, VII, VIII, IX, XIV y X (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -5667,7 +5667,7 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>Industria Proveedora de Partes Metalurgicas Ltda.</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F111" t="n">
@@ -5675,17 +5675,17 @@
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>07/11/2008</t>
+          <t>27/11/2008</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3321441&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3337768&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
@@ -5700,7 +5700,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Transporte de Residuos de Plomo y Baterías en Desuso, por las Regiones VI, VII, VIII, IX, XIV y X (e-seia)</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -5715,25 +5715,25 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Industria Proveedora de Partes Metalurgicas Ltda.</t>
         </is>
       </c>
       <c r="F112" t="n">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>30/10/2008</t>
+          <t>07/11/2008</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3313847&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3321441&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
@@ -5771,17 +5771,17 @@
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>15/10/2008</t>
+          <t>30/10/2008</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3313847&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
@@ -5796,7 +5796,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -5811,11 +5811,11 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F114" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G114" t="inlineStr">
         <is>
@@ -5824,12 +5824,12 @@
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
@@ -5844,7 +5844,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Proyecto Inmobiliario Portal Osorno (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -5854,30 +5854,30 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>Inmobiliaria Martabid Limitada</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F115" t="n">
-        <v>20000</v>
+        <v>250</v>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>10/10/2008</t>
+          <t>15/10/2008</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3272599&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
@@ -5940,7 +5940,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>Proyecto Inmobiliario Portal Osorno (e-seia)</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -5950,30 +5950,30 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Inmobiliaria Martabid Limitada</t>
         </is>
       </c>
       <c r="F117" t="n">
-        <v>250</v>
+        <v>20000</v>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>01/10/2008</t>
+          <t>10/10/2008</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3232866&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3272599&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
@@ -5988,7 +5988,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>PLANTA ELABORADORA DE LECHE EN POLVO, COMUNA DE OSORNO, REGIÓN DE LOS LAGOS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -5998,30 +5998,30 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>Nestlé Chile S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F118" t="n">
-        <v>84000</v>
+        <v>250</v>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>29/09/2008</t>
+          <t>01/10/2008</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223561&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3232866&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
@@ -6036,7 +6036,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>PLANTA ELABORADORA DE LECHE EN POLVO, COMUNA DE OSORNO, REGIÓN DE LOS LAGOS (e-seia)</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -6046,30 +6046,30 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Nestlé Chile S.A.</t>
         </is>
       </c>
       <c r="F119" t="n">
-        <v>20</v>
+        <v>84000</v>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>16/09/2008</t>
+          <t>29/09/2008</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3192496&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223561&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
@@ -6084,7 +6084,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Regularización de Ampliación y Adición de Equipos al Sistema de Tratamiento de riles de la Planta Frigorífico de Osorno S.A. Comuna de Osorno. Región de los Lagos (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -6094,30 +6094,30 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>Frigorífico de osorno S.A.</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F120" t="n">
-        <v>160</v>
+        <v>20</v>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>28/08/2008</t>
+          <t>16/09/2008</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3143976&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3192496&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
@@ -6132,7 +6132,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>Regularización de Ampliación y Adición de Equipos al Sistema de Tratamiento de riles de la Planta Frigorífico de Osorno S.A. Comuna de Osorno. Región de los Lagos (e-seia)</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -6142,30 +6142,30 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Frigorífico de osorno S.A.</t>
         </is>
       </c>
       <c r="F121" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>20/08/2008</t>
+          <t>28/08/2008</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3143976&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
@@ -6180,7 +6180,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -6195,25 +6195,25 @@
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F122" t="n">
-        <v>1650</v>
+        <v>250</v>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>06/08/2008</t>
+          <t>20/08/2008</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3079271&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
@@ -6228,7 +6228,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -6243,15 +6243,15 @@
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F123" t="n">
-        <v>20</v>
+        <v>1650</v>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>05/08/2008</t>
+          <t>06/08/2008</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
@@ -6261,7 +6261,7 @@
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3079271&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
@@ -6276,7 +6276,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Segunda Modificación Piscicultura Santa Juana (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -6286,30 +6286,30 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>Cermaq Chile S.A.</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F124" t="n">
-        <v>7000</v>
+        <v>20</v>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>11/07/2008</t>
+          <t>05/08/2008</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3031825&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
@@ -6324,7 +6324,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>transporte de residuos peligrosos (e-seia)</t>
+          <t>Segunda Modificación Piscicultura Santa Juana (e-seia)</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -6334,30 +6334,30 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Cermaq Chile S.A.</t>
         </is>
       </c>
       <c r="F125" t="n">
-        <v>20</v>
+        <v>7000</v>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>09/07/2008</t>
+          <t>11/07/2008</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3023770&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3031825&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
@@ -6372,7 +6372,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
+          <t>transporte de residuos peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -6387,15 +6387,15 @@
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F126" t="n">
-        <v>1650</v>
+        <v>20</v>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>07/07/2008</t>
+          <t>09/07/2008</t>
         </is>
       </c>
       <c r="H126" t="inlineStr">
@@ -6405,7 +6405,7 @@
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3008477&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3023770&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
@@ -6420,7 +6420,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>transporte de residuos peligrosos (e-seia)</t>
+          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -6435,15 +6435,15 @@
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F127" t="n">
-        <v>20</v>
+        <v>1650</v>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>30/05/2008</t>
+          <t>07/07/2008</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
@@ -6453,7 +6453,7 @@
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2910651&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3008477&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
@@ -6468,7 +6468,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Ampliacion Central Chuyaca (e-seia)</t>
+          <t>transporte de residuos peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -6478,30 +6478,30 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>SAGESA S.A.</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F128" t="n">
-        <v>4800</v>
+        <v>20</v>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>17/04/2008</t>
+          <t>30/05/2008</t>
         </is>
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2845928&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2910651&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
@@ -6516,7 +6516,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Modificación Piscicultura Las Quemas. Río Rahue. Comuna de Osorno (e-seia)</t>
+          <t>Ampliacion Central Chuyaca (e-seia)</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -6531,15 +6531,15 @@
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>PISCICULTURA LAS QUEMAS CHILE S.A.</t>
+          <t>SAGESA S.A.</t>
         </is>
       </c>
       <c r="F129" t="n">
-        <v>4000</v>
+        <v>4800</v>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>19/03/2008</t>
+          <t>17/04/2008</t>
         </is>
       </c>
       <c r="H129" t="inlineStr">
@@ -6549,7 +6549,7 @@
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2767784&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2845928&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
@@ -6564,7 +6564,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Aguas Residuales mediante Lombrifiltro para Lácteos Paraguay, Comuna de Osorno, X Región. (e-seia)</t>
+          <t>Modificación Piscicultura Las Quemas. Río Rahue. Comuna de Osorno (e-seia)</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -6579,15 +6579,15 @@
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>Gonzalo Andrés Schwalm Urzúa</t>
+          <t>PISCICULTURA LAS QUEMAS CHILE S.A.</t>
         </is>
       </c>
       <c r="F130" t="n">
-        <v>250</v>
+        <v>4000</v>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>28/02/2008</t>
+          <t>19/03/2008</t>
         </is>
       </c>
       <c r="H130" t="inlineStr">
@@ -6597,7 +6597,7 @@
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2737933&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2767784&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
@@ -6612,7 +6612,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Aguas Residuales mediante Lombrifiltro para "Lácteos Paraguay", Comuna de Osorno, X Región. (e-seia)</t>
+          <t>Planta de Tratamiento de Aguas Residuales mediante Lombrifiltro para Lácteos Paraguay, Comuna de Osorno, X Región. (e-seia)</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -6635,17 +6635,17 @@
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>06/02/2008</t>
+          <t>28/02/2008</t>
         </is>
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2690534&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2737933&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
@@ -6660,7 +6660,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Planta de Disposición Final de Residuos Industriales ECOPRIAL (e-seia)</t>
+          <t>Planta de Tratamiento de Aguas Residuales mediante Lombrifiltro para "Lácteos Paraguay", Comuna de Osorno, X Región. (e-seia)</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -6675,25 +6675,25 @@
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>Asesorías Los Olivos S.A.</t>
+          <t>Gonzalo Andrés Schwalm Urzúa</t>
         </is>
       </c>
       <c r="F132" t="n">
-        <v>1045</v>
+        <v>250</v>
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>30/01/2008</t>
+          <t>06/02/2008</t>
         </is>
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2667394&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2690534&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
@@ -6708,7 +6708,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE SUSTANCIAS PELIGROSAS EN Y ENTRE LAS REGIONES XV Y X (e-seia)</t>
+          <t>Planta de Disposición Final de Residuos Industriales ECOPRIAL (e-seia)</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -6718,20 +6718,20 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>INVERSIONES AUTOMOTRICES K Y L LIMITADA</t>
+          <t>Asesorías Los Olivos S.A.</t>
         </is>
       </c>
       <c r="F133" t="n">
-        <v>0</v>
+        <v>1045</v>
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>29/01/2008</t>
+          <t>30/01/2008</t>
         </is>
       </c>
       <c r="H133" t="inlineStr">
@@ -6741,7 +6741,7 @@
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2671596&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2667394&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
@@ -6756,7 +6756,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Piscicultura Pilmaiquén (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE SUSTANCIAS PELIGROSAS EN Y ENTRE LAS REGIONES XV Y X (e-seia)</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -6766,30 +6766,30 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>Inversiones Aubel Limitada</t>
+          <t>INVERSIONES AUTOMOTRICES K Y L LIMITADA</t>
         </is>
       </c>
       <c r="F134" t="n">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>23/11/2007</t>
+          <t>29/01/2008</t>
         </is>
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2507396&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2671596&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
@@ -6804,7 +6804,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Transporte Trans Regional Terrestre de Residuos Industriales (e-seia)</t>
+          <t>Piscicultura Pilmaiquén (e-seia)</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -6814,30 +6814,30 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
+          <t>Inversiones Aubel Limitada</t>
         </is>
       </c>
       <c r="F135" t="n">
-        <v>429</v>
+        <v>1500</v>
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>02/11/2007</t>
+          <t>23/11/2007</t>
         </is>
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2474976&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2507396&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
@@ -6852,7 +6852,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte Trans Regional Terrestre de Residuos Industriales (e-seia)</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -6867,25 +6867,25 @@
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F136" t="n">
-        <v>30</v>
+        <v>429</v>
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>25/10/2007</t>
+          <t>02/11/2007</t>
         </is>
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2454259&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2474976&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
@@ -6900,7 +6900,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -6915,25 +6915,25 @@
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>Servicio de Aseo Integral Monterredondo S.A</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F137" t="n">
-        <v>234</v>
+        <v>30</v>
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>08/10/2007</t>
+          <t>25/10/2007</t>
         </is>
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2454259&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
@@ -6948,7 +6948,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -6963,25 +6963,25 @@
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>Transportes Máximo Enrique Sciarresi González EIRL</t>
+          <t>Servicio de Aseo Integral Monterredondo S.A</t>
         </is>
       </c>
       <c r="F138" t="n">
-        <v>250</v>
+        <v>234</v>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>20/09/2007</t>
+          <t>08/10/2007</t>
         </is>
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2392309&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
@@ -6996,7 +6996,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Matadero Ovino MAFRISUR S.A., comuna de Osorno, Región deLos Lagos (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -7006,20 +7006,20 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>MAFRISUR S.A.</t>
+          <t>Transportes Máximo Enrique Sciarresi González EIRL</t>
         </is>
       </c>
       <c r="F139" t="n">
-        <v>6000</v>
+        <v>250</v>
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>03/09/2007</t>
+          <t>20/09/2007</t>
         </is>
       </c>
       <c r="H139" t="inlineStr">
@@ -7029,7 +7029,7 @@
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2374309&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2392309&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
@@ -7044,7 +7044,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>Matadero Ovino MAFRISUR S.A., comuna de Osorno, Región deLos Lagos (e-seia)</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -7054,30 +7054,30 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>MAFRISUR S.A.</t>
         </is>
       </c>
       <c r="F140" t="n">
-        <v>10</v>
+        <v>6000</v>
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>31/08/2007</t>
+          <t>03/09/2007</t>
         </is>
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2374309&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
@@ -7140,7 +7140,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -7155,25 +7155,25 @@
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>Castañeda Hermanos Ltda.</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F142" t="n">
-        <v>300</v>
+        <v>10</v>
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>23/08/2007</t>
+          <t>31/08/2007</t>
         </is>
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2329508&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
@@ -7188,7 +7188,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Transportes de Residuos Industrales (e-seia)</t>
+          <t>Transporte de Residuos Industriales (e-seia)</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -7211,17 +7211,17 @@
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>04/07/2007</t>
+          <t>23/08/2007</t>
         </is>
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2329508&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
@@ -7236,7 +7236,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>Transportes de Residuos Industrales (e-seia)</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -7251,25 +7251,25 @@
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>Global Index Chile Servicios Integrales Limitada</t>
+          <t>Castañeda Hermanos Ltda.</t>
         </is>
       </c>
       <c r="F144" t="n">
-        <v>80</v>
+        <v>300</v>
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>13/06/2007</t>
+          <t>04/07/2007</t>
         </is>
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2199692&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
@@ -7284,7 +7284,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Drenaje Superficial Fundo Los Notros (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -7294,30 +7294,30 @@
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>Marìa Magdalena Erratchou Lara</t>
+          <t>Global Index Chile Servicios Integrales Limitada</t>
         </is>
       </c>
       <c r="F145" t="n">
-        <v>132</v>
+        <v>80</v>
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>25/04/2007</t>
+          <t>13/06/2007</t>
         </is>
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2124152&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2199692&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J145" t="inlineStr">
@@ -7332,7 +7332,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Modificacion Piscicultura Santa Juana (e-seia)</t>
+          <t>Drenaje Superficial Fundo Los Notros (e-seia)</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -7347,15 +7347,15 @@
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>Cermaq Chile S.A.</t>
+          <t>Marìa Magdalena Erratchou Lara</t>
         </is>
       </c>
       <c r="F146" t="n">
-        <v>3000</v>
+        <v>132</v>
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>12/04/2007</t>
+          <t>25/04/2007</t>
         </is>
       </c>
       <c r="H146" t="inlineStr">
@@ -7365,7 +7365,7 @@
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2094113&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2124152&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J146" t="inlineStr">
@@ -7380,7 +7380,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>SISTEMA DE TRATAMIENTO DE RESIDUOS INDUSTRIALES LIQUIDOS AGROLACTEOS CUINCO SA (e-seia)</t>
+          <t>Modificacion Piscicultura Santa Juana (e-seia)</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -7395,15 +7395,15 @@
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>Distribuidora J.A Ltda.</t>
+          <t>Cermaq Chile S.A.</t>
         </is>
       </c>
       <c r="F147" t="n">
-        <v>100</v>
+        <v>3000</v>
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>09/04/2007</t>
+          <t>12/04/2007</t>
         </is>
       </c>
       <c r="H147" t="inlineStr">
@@ -7413,7 +7413,7 @@
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2092314&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2094113&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
@@ -7428,7 +7428,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Drenaje Predio Polloico (e-seia)</t>
+          <t>SISTEMA DE TRATAMIENTO DE RESIDUOS INDUSTRIALES LIQUIDOS AGROLACTEOS CUINCO SA (e-seia)</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -7443,25 +7443,25 @@
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>Alfonso Guillermo Besser Hayler</t>
+          <t>Distribuidora J.A Ltda.</t>
         </is>
       </c>
       <c r="F148" t="n">
-        <v>44</v>
+        <v>100</v>
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>21/03/2007</t>
+          <t>09/04/2007</t>
         </is>
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2057529&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2092314&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">
@@ -7476,7 +7476,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región, incluyendo la Región Metropolitana (e-seia)</t>
+          <t>Drenaje Predio Polloico (e-seia)</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -7486,30 +7486,30 @@
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>Empresa de Residuos RESITER S.A.</t>
+          <t>Alfonso Guillermo Besser Hayler</t>
         </is>
       </c>
       <c r="F149" t="n">
-        <v>1</v>
+        <v>44</v>
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>16/03/2007</t>
+          <t>21/03/2007</t>
         </is>
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049917&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2057529&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
@@ -7524,7 +7524,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Transporte Ferroviario y Almacenamiento de Combustible (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región, incluyendo la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -7539,25 +7539,25 @@
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>Ferrocarril del Pacífico S.A.</t>
+          <t>Empresa de Residuos RESITER S.A.</t>
         </is>
       </c>
       <c r="F150" t="n">
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>26/02/2007</t>
+          <t>16/03/2007</t>
         </is>
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2016722&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049917&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
@@ -7572,7 +7572,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>TRANSPORTE FERROVIARIO Y ALMACENAMIENTO DE COMBUSTIBLES (e-seia)</t>
+          <t>Transporte Ferroviario y Almacenamiento de Combustible (e-seia)</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -7595,17 +7595,17 @@
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>14/02/2007</t>
+          <t>26/02/2007</t>
         </is>
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1990390&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2016722&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J151" t="inlineStr">
@@ -7620,7 +7620,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región incluyendo la Región Metropolitana (e-seia)</t>
+          <t>TRANSPORTE FERROVIARIO Y ALMACENAMIENTO DE COMBUSTIBLES (e-seia)</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -7635,15 +7635,15 @@
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>Empresa de Residuos RESITER S.A.</t>
+          <t>Ferrocarril del Pacífico S.A.</t>
         </is>
       </c>
       <c r="F152" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>13/02/2007</t>
+          <t>14/02/2007</t>
         </is>
       </c>
       <c r="H152" t="inlineStr">
@@ -7653,7 +7653,7 @@
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1984174&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1990390&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J152" t="inlineStr">
@@ -7668,7 +7668,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región incluyendo la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -7683,25 +7683,25 @@
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Empresa de Residuos RESITER S.A.</t>
         </is>
       </c>
       <c r="F153" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>12/01/2007</t>
+          <t>13/02/2007</t>
         </is>
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1984174&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J153" t="inlineStr">
@@ -7716,7 +7716,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -7739,17 +7739,17 @@
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>29/12/2006</t>
+          <t>12/01/2007</t>
         </is>
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
@@ -7764,7 +7764,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en Camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -7779,25 +7779,25 @@
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F155" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>12/12/2006</t>
+          <t>29/12/2006</t>
         </is>
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1852126&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
@@ -7812,7 +7812,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>TRANSPORTES DE ACEITES USADOS (e-seia)</t>
+          <t>Transporte Terrestre en Camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X (e-seia)</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -7827,25 +7827,25 @@
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>TRANSPORTES INOSTROZA LTDA</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F156" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>07/12/2006</t>
+          <t>12/12/2006</t>
         </is>
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1843978&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1852126&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
@@ -7860,7 +7860,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>TRANSPORTES DE ACEITES USADOS (e-seia)</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -7875,25 +7875,25 @@
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES INOSTROZA LTDA</t>
         </is>
       </c>
       <c r="F157" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>10/11/2006</t>
+          <t>07/12/2006</t>
         </is>
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1843978&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
@@ -7908,7 +7908,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -7923,25 +7923,25 @@
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>Prodelin Ltda.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F158" t="n">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>06/11/2006</t>
+          <t>10/11/2006</t>
         </is>
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1785275&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
@@ -7956,7 +7956,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Transporte terrestre en camiones de Sustancias y Residuos Peligrosos entre la regiones V y X 193 (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -7971,25 +7971,25 @@
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>Prodelin Ltda.</t>
         </is>
       </c>
       <c r="F159" t="n">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>25/10/2006</t>
+          <t>06/11/2006</t>
         </is>
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1767215&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1785275&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
@@ -8004,7 +8004,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Transporte de Residuos industrial por las rutas indicadas (e-seia)</t>
+          <t>Transporte terrestre en camiones de Sustancias y Residuos Peligrosos entre la regiones V y X 193 (e-seia)</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -8019,15 +8019,15 @@
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>Empresa de Transportes Trans-residuos</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F160" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>28/09/2006</t>
+          <t>25/10/2006</t>
         </is>
       </c>
       <c r="H160" t="inlineStr">
@@ -8037,7 +8037,7 @@
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1726867&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1767215&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J160" t="inlineStr">
@@ -8052,7 +8052,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Proyecto Pradera, Aumento de capacidad Planta Prolesur Osorno (e-seia)</t>
+          <t>Transporte de Residuos industrial por las rutas indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -8062,30 +8062,30 @@
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>Prolesur S.A.</t>
+          <t>Empresa de Transportes Trans-residuos</t>
         </is>
       </c>
       <c r="F161" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>01/09/2006</t>
+          <t>28/09/2006</t>
         </is>
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1643306&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1726867&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J161" t="inlineStr">
@@ -8100,7 +8100,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES PELIGROSOS Y NO PELIGROSOS POR RUTAS INDICADAS ENTRE I y X REGION (e-seia)</t>
+          <t>Proyecto Pradera, Aumento de capacidad Planta Prolesur Osorno (e-seia)</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -8110,20 +8110,20 @@
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>GESTION INTEGRAL DE RESIDUOS GEOBARRA EXINS LTDA.</t>
+          <t>Prolesur S.A.</t>
         </is>
       </c>
       <c r="F162" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>09/08/2006</t>
+          <t>01/09/2006</t>
         </is>
       </c>
       <c r="H162" t="inlineStr">
@@ -8133,7 +8133,7 @@
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1616105&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1643306&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J162" t="inlineStr">
@@ -8148,7 +8148,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Drenaje Superficial Predio Los Nogales (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES PELIGROSOS Y NO PELIGROSOS POR RUTAS INDICADAS ENTRE I y X REGION (e-seia)</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -8158,20 +8158,20 @@
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>Edmundo Kram Toledo</t>
+          <t>GESTION INTEGRAL DE RESIDUOS GEOBARRA EXINS LTDA.</t>
         </is>
       </c>
       <c r="F163" t="n">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>31/07/2006</t>
+          <t>09/08/2006</t>
         </is>
       </c>
       <c r="H163" t="inlineStr">
@@ -8181,7 +8181,7 @@
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1601455&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1616105&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J163" t="inlineStr">
@@ -8196,7 +8196,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Sistema de Tratamiento de Residuos Industriales Líquidos de Soc. Col. y Com. Jorge y Mario Meyer Buschmann (Lácteos Mulpulmo) X Región (e-seia)</t>
+          <t>Drenaje Superficial Predio Los Nogales (e-seia)</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -8211,15 +8211,15 @@
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>Lácteos del Sur S.A.</t>
+          <t>Edmundo Kram Toledo</t>
         </is>
       </c>
       <c r="F164" t="n">
-        <v>850</v>
+        <v>87</v>
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>20/07/2006</t>
+          <t>31/07/2006</t>
         </is>
       </c>
       <c r="H164" t="inlineStr">
@@ -8229,7 +8229,7 @@
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1594850&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1601455&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J164" t="inlineStr">
@@ -8244,7 +8244,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Piscicultura Las Quemas, Río Rahue, Comuna de Osorno (e-seia)</t>
+          <t>Sistema de Tratamiento de Residuos Industriales Líquidos de Soc. Col. y Com. Jorge y Mario Meyer Buschmann (Lácteos Mulpulmo) X Región (e-seia)</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -8259,15 +8259,15 @@
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>PISCICULTURA LAS QUEMAS CHILE S.A.</t>
+          <t>Lácteos del Sur S.A.</t>
         </is>
       </c>
       <c r="F165" t="n">
-        <v>2000</v>
+        <v>850</v>
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>18/07/2006</t>
+          <t>20/07/2006</t>
         </is>
       </c>
       <c r="H165" t="inlineStr">
@@ -8277,7 +8277,7 @@
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1574723&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1594850&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J165" t="inlineStr">
@@ -8292,7 +8292,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>TransporteTerrestre de Residuos Industriales Peligrosos y No Peligrosos por Rutas Indicadas entre la I y X Región (e-seia)</t>
+          <t>Piscicultura Las Quemas, Río Rahue, Comuna de Osorno (e-seia)</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -8302,30 +8302,30 @@
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>mario enrique barra diaz</t>
+          <t>PISCICULTURA LAS QUEMAS CHILE S.A.</t>
         </is>
       </c>
       <c r="F166" t="n">
-        <v>80</v>
+        <v>2000</v>
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>22/06/2006</t>
+          <t>18/07/2006</t>
         </is>
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1508957&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1574723&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J166" t="inlineStr">
@@ -8340,7 +8340,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Transporte de Combustible (e-seia)</t>
+          <t>TransporteTerrestre de Residuos Industriales Peligrosos y No Peligrosos por Rutas Indicadas entre la I y X Región (e-seia)</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -8355,25 +8355,25 @@
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
+          <t>mario enrique barra diaz</t>
         </is>
       </c>
       <c r="F167" t="n">
-        <v>500</v>
+        <v>80</v>
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>21/04/2006</t>
+          <t>22/06/2006</t>
         </is>
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1408985&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1508957&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J167" t="inlineStr">
@@ -8388,7 +8388,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Transporte de Combustibles (e-seia)</t>
+          <t>Transporte de Combustible (e-seia)</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -8411,17 +8411,17 @@
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>31/03/2006</t>
+          <t>21/04/2006</t>
         </is>
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1408985&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J168" t="inlineStr">
@@ -8436,7 +8436,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
+          <t>Transporte de Combustibles (e-seia)</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -8451,25 +8451,25 @@
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>Francisco Javier Acuña Carter</t>
+          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
         </is>
       </c>
       <c r="F169" t="n">
-        <v>4000</v>
+        <v>500</v>
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>27/03/2006</t>
+          <t>31/03/2006</t>
         </is>
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J169" t="inlineStr">
@@ -8484,7 +8484,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -8507,17 +8507,17 @@
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>06/03/2006</t>
+          <t>27/03/2006</t>
         </is>
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J170" t="inlineStr">
@@ -8532,7 +8532,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Transporte de sustancias y residuos peligrosos (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -8547,25 +8547,25 @@
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>Iris Leiva ALbornoz Ltda.</t>
+          <t>Francisco Javier Acuña Carter</t>
         </is>
       </c>
       <c r="F171" t="n">
-        <v>0</v>
+        <v>4000</v>
       </c>
       <c r="G171" t="inlineStr">
         <is>
-          <t>02/03/2006</t>
+          <t>06/03/2006</t>
         </is>
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1281009&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J171" t="inlineStr">
@@ -8580,7 +8580,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>"PLANTA ELABORADORA DE PRODUCTOS LÁCTEOS, OSORNO, X REGIÓN" 0 (e-seia)</t>
+          <t>Transporte de sustancias y residuos peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -8590,30 +8590,30 @@
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>Manuel Ellies Fuenzalida</t>
+          <t>Iris Leiva ALbornoz Ltda.</t>
         </is>
       </c>
       <c r="F172" t="n">
-        <v>17950</v>
+        <v>0</v>
       </c>
       <c r="G172" t="inlineStr">
         <is>
-          <t>29/11/2005</t>
+          <t>02/03/2006</t>
         </is>
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1137908&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1281009&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J172" t="inlineStr">
@@ -8628,7 +8628,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE PLOMO, RESIDUOS PLOMADOS Y OTROS RESIDUOS PELIGROSOS 053562 (e-seia)</t>
+          <t>"PLANTA ELABORADORA DE PRODUCTOS LÁCTEOS, OSORNO, X REGIÓN" 0 (e-seia)</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -8638,20 +8638,20 @@
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>BATERIAS COSMOS LTDA</t>
+          <t>Manuel Ellies Fuenzalida</t>
         </is>
       </c>
       <c r="F173" t="n">
-        <v>160</v>
+        <v>17950</v>
       </c>
       <c r="G173" t="inlineStr">
         <is>
-          <t>11/11/2005</t>
+          <t>29/11/2005</t>
         </is>
       </c>
       <c r="H173" t="inlineStr">
@@ -8661,7 +8661,7 @@
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1102933&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1137908&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">
@@ -8676,7 +8676,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>TRANSPORTE DE PLOMO, RESIDUOS PLOMADOS Y OTROS RESIDUOS PELIGROSOS 053562 (e-seia)</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -8691,15 +8691,15 @@
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>Renzo Luis Pereira Sandoval</t>
+          <t>BATERIAS COSMOS LTDA</t>
         </is>
       </c>
       <c r="F174" t="n">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="G174" t="inlineStr">
         <is>
-          <t>08/09/2005</t>
+          <t>11/11/2005</t>
         </is>
       </c>
       <c r="H174" t="inlineStr">
@@ -8709,7 +8709,7 @@
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1102933&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J174" t="inlineStr">
@@ -8739,11 +8739,11 @@
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>Jorge Díaz Contreras</t>
+          <t>Renzo Luis Pereira Sandoval</t>
         </is>
       </c>
       <c r="F175" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="G175" t="inlineStr">
         <is>
@@ -8757,7 +8757,7 @@
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
@@ -8772,7 +8772,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -8787,11 +8787,11 @@
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>Transportes Santa María S.A.</t>
+          <t>Jorge Díaz Contreras</t>
         </is>
       </c>
       <c r="F176" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="G176" t="inlineStr">
         <is>
@@ -8805,7 +8805,7 @@
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J176" t="inlineStr">
@@ -8820,7 +8820,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Conjunto Habitacional Sector Lololhue, Comuna de osorno (e-seia)</t>
+          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -8830,20 +8830,20 @@
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>SERVICIO DE VIVIENDA Y URBANISMO X REGION</t>
+          <t>Transportes Santa María S.A.</t>
         </is>
       </c>
       <c r="F177" t="n">
-        <v>20000</v>
+        <v>200</v>
       </c>
       <c r="G177" t="inlineStr">
         <is>
-          <t>19/07/2005</t>
+          <t>08/09/2005</t>
         </is>
       </c>
       <c r="H177" t="inlineStr">
@@ -8853,7 +8853,7 @@
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=951284&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J177" t="inlineStr">
@@ -8868,7 +8868,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Ampliación Pozo de Aridos Hadida Ampliación Pozo de Arido Hadida (e-seia)</t>
+          <t>Conjunto Habitacional Sector Lololhue, Comuna de osorno (e-seia)</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -8883,15 +8883,15 @@
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>Edgar Walter Hadida Schmid</t>
+          <t>SERVICIO DE VIVIENDA Y URBANISMO X REGION</t>
         </is>
       </c>
       <c r="F178" t="n">
-        <v>1</v>
+        <v>20000</v>
       </c>
       <c r="G178" t="inlineStr">
         <is>
-          <t>08/06/2005</t>
+          <t>19/07/2005</t>
         </is>
       </c>
       <c r="H178" t="inlineStr">
@@ -8901,7 +8901,7 @@
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=879261&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=951284&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J178" t="inlineStr">
@@ -8916,7 +8916,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Modificación Sistema de Tratamiento de Residuos MAtadero frigorífico del Sur S.A. Sistema de Tratamiento Matadero Frigorifico Osorno (e-seia)</t>
+          <t>Ampliación Pozo de Aridos Hadida Ampliación Pozo de Arido Hadida (e-seia)</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -8931,11 +8931,11 @@
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>Matadero Frigorífico del Sur S.A.</t>
+          <t>Edgar Walter Hadida Schmid</t>
         </is>
       </c>
       <c r="F179" t="n">
-        <v>862</v>
+        <v>1</v>
       </c>
       <c r="G179" t="inlineStr">
         <is>
@@ -8949,7 +8949,7 @@
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=883177&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=879261&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J179" t="inlineStr">
@@ -8964,7 +8964,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Transporte terrestre de sustancias químicas (e-seia)</t>
+          <t>Modificación Sistema de Tratamiento de Residuos MAtadero frigorífico del Sur S.A. Sistema de Tratamiento Matadero Frigorifico Osorno (e-seia)</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -8974,20 +8974,20 @@
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>Inmobiliaria e inversiones Polykarpo S.A.</t>
+          <t>Matadero Frigorífico del Sur S.A.</t>
         </is>
       </c>
       <c r="F180" t="n">
-        <v>200</v>
+        <v>862</v>
       </c>
       <c r="G180" t="inlineStr">
         <is>
-          <t>05/05/2005</t>
+          <t>08/06/2005</t>
         </is>
       </c>
       <c r="H180" t="inlineStr">
@@ -8997,7 +8997,7 @@
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=664436&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=883177&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J180" t="inlineStr">
@@ -9035,17 +9035,17 @@
       </c>
       <c r="G181" t="inlineStr">
         <is>
-          <t>09/03/2005</t>
+          <t>05/05/2005</t>
         </is>
       </c>
       <c r="H181" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=614117&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=664436&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J181" t="inlineStr">
@@ -9060,7 +9060,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Modificación Plan Regulador de Osorno. (e-seia)</t>
+          <t>Transporte terrestre de sustancias químicas (e-seia)</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -9070,30 +9070,30 @@
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Osorno</t>
+          <t>Inmobiliaria e inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F182" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G182" t="inlineStr">
         <is>
-          <t>06/01/2005</t>
+          <t>09/03/2005</t>
         </is>
       </c>
       <c r="H182" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=561189&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=614117&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J182" t="inlineStr">
@@ -9108,7 +9108,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Transporte terrestre de residuos industriales y productos asimilables por caminos que se indican de la I a la X Región (e-seia)</t>
+          <t>Modificación Plan Regulador de Osorno. (e-seia)</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -9118,20 +9118,20 @@
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>Empresa de Transportes Los Ríos S.A.</t>
+          <t>Ilustre Municipalidad de Osorno</t>
         </is>
       </c>
       <c r="F183" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G183" t="inlineStr">
         <is>
-          <t>08/11/2004</t>
+          <t>06/01/2005</t>
         </is>
       </c>
       <c r="H183" t="inlineStr">
@@ -9141,7 +9141,7 @@
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=502823&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=561189&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J183" t="inlineStr">
@@ -9156,7 +9156,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Drenaje Predio Polloico (e-seia)</t>
+          <t>Transporte terrestre de residuos industriales y productos asimilables por caminos que se indican de la I a la X Región (e-seia)</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -9166,30 +9166,30 @@
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>Alfonso Guillermo Besser Hayler</t>
+          <t>Empresa de Transportes Los Ríos S.A.</t>
         </is>
       </c>
       <c r="F184" t="n">
-        <v>44</v>
+        <v>1</v>
       </c>
       <c r="G184" t="inlineStr">
         <is>
-          <t>20/10/2004</t>
+          <t>08/11/2004</t>
         </is>
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=487555&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=502823&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J184" t="inlineStr">
@@ -9204,7 +9204,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>DRENAJE COMUNITARIO PREDIOS SANTA CARMEN (e-seia)</t>
+          <t>Drenaje Predio Polloico (e-seia)</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -9219,25 +9219,25 @@
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>comunidad obras de drenaje santa carmen</t>
+          <t>Alfonso Guillermo Besser Hayler</t>
         </is>
       </c>
       <c r="F185" t="n">
-        <v>162</v>
+        <v>44</v>
       </c>
       <c r="G185" t="inlineStr">
         <is>
-          <t>04/10/2004</t>
+          <t>20/10/2004</t>
         </is>
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=472491&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=487555&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J185" t="inlineStr">
@@ -9252,7 +9252,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Drenaje Predio Polloico (e-seia)</t>
+          <t>DRENAJE COMUNITARIO PREDIOS SANTA CARMEN (e-seia)</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -9267,11 +9267,11 @@
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>Alfonso Guillermo Besser Hayler</t>
+          <t>comunidad obras de drenaje santa carmen</t>
         </is>
       </c>
       <c r="F186" t="n">
-        <v>44</v>
+        <v>162</v>
       </c>
       <c r="G186" t="inlineStr">
         <is>
@@ -9280,12 +9280,12 @@
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=472796&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=472491&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J186" t="inlineStr">
@@ -9300,7 +9300,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Transporte Rodoviario de Cloro en y entre las Regiones II y X (e-seia)</t>
+          <t>Drenaje Predio Polloico (e-seia)</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -9310,30 +9310,30 @@
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>Occidental Chemical Chile Limitada</t>
+          <t>Alfonso Guillermo Besser Hayler</t>
         </is>
       </c>
       <c r="F187" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="G187" t="inlineStr">
         <is>
-          <t>09/08/2004</t>
+          <t>04/10/2004</t>
         </is>
       </c>
       <c r="H187" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=415850&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=472796&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J187" t="inlineStr">
@@ -9348,7 +9348,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>SISTEMA DE DEPURACIÓN Y NEUTRALIZACIÓN DE RESIDUOS INDUSTRIALES LÍQUIDOS, DECLARACIÓN DE IMPACTO AMBIENTAL (e-seia)</t>
+          <t>Transporte Rodoviario de Cloro en y entre las Regiones II y X (e-seia)</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
@@ -9358,20 +9358,20 @@
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>Prolesur S.A.</t>
+          <t>Occidental Chemical Chile Limitada</t>
         </is>
       </c>
       <c r="F188" t="n">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="G188" t="inlineStr">
         <is>
-          <t>02/08/2004</t>
+          <t>09/08/2004</t>
         </is>
       </c>
       <c r="H188" t="inlineStr">
@@ -9381,7 +9381,7 @@
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=408507&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=415850&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J188" t="inlineStr">
@@ -9396,7 +9396,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>PLAN REGIONAL DE DESARROLLO URBANO (e-seia)</t>
+          <t>SISTEMA DE DEPURACIÓN Y NEUTRALIZACIÓN DE RESIDUOS INDUSTRIALES LÍQUIDOS, DECLARACIÓN DE IMPACTO AMBIENTAL (e-seia)</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
@@ -9406,20 +9406,20 @@
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>Decimocuarta</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>SEREMI DE VIVIENDA Y URBANISMO X REGIÓN DE LOS LAGOS</t>
+          <t>Prolesur S.A.</t>
         </is>
       </c>
       <c r="F189" t="n">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="G189" t="inlineStr">
         <is>
-          <t>01/07/2004</t>
+          <t>02/08/2004</t>
         </is>
       </c>
       <c r="H189" t="inlineStr">
@@ -9429,7 +9429,7 @@
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=389944&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=408507&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J189" t="inlineStr">
@@ -9444,7 +9444,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Transporte de Plaguicidas y Artefactos Contaminados o que Contienen Bifenilospoliclorados (PCB) (e-seia)</t>
+          <t>PLAN REGIONAL DE DESARROLLO URBANO (e-seia)</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -9454,20 +9454,20 @@
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Decimocuarta</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>Bravo Energy Chile S.A.</t>
+          <t>SEREMI DE VIVIENDA Y URBANISMO X REGIÓN DE LOS LAGOS</t>
         </is>
       </c>
       <c r="F190" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G190" t="inlineStr">
         <is>
-          <t>21/06/2004</t>
+          <t>01/07/2004</t>
         </is>
       </c>
       <c r="H190" t="inlineStr">
@@ -9477,7 +9477,7 @@
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=377075&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=389944&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J190" t="inlineStr">
@@ -9492,7 +9492,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>"PROYECTO MATADERO FRIGORÍFICO DEL SUR S.A., (e-seia)</t>
+          <t>Transporte de Plaguicidas y Artefactos Contaminados o que Contienen Bifenilospoliclorados (PCB) (e-seia)</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
@@ -9502,20 +9502,20 @@
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>Eduardo Arturo Epple Held</t>
+          <t>Bravo Energy Chile S.A.</t>
         </is>
       </c>
       <c r="F191" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G191" t="inlineStr">
         <is>
-          <t>04/06/2004</t>
+          <t>21/06/2004</t>
         </is>
       </c>
       <c r="H191" t="inlineStr">
@@ -9525,7 +9525,7 @@
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=372111&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=377075&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J191" t="inlineStr">
@@ -9540,7 +9540,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>Relocalización del Colegio Francés de Osorno (e-seia)</t>
+          <t>"PROYECTO MATADERO FRIGORÍFICO DEL SUR S.A., (e-seia)</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
@@ -9555,15 +9555,15 @@
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>Sociedad Educacional Francesa de Osorno S.A.</t>
+          <t>Eduardo Arturo Epple Held</t>
         </is>
       </c>
       <c r="F192" t="n">
-        <v>2329</v>
+        <v>0</v>
       </c>
       <c r="G192" t="inlineStr">
         <is>
-          <t>03/06/2004</t>
+          <t>04/06/2004</t>
         </is>
       </c>
       <c r="H192" t="inlineStr">
@@ -9573,7 +9573,7 @@
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=371821&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=372111&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J192" t="inlineStr">
@@ -9588,7 +9588,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>Piscicultura Santa Juana (pert 202101089) (e-seia)</t>
+          <t>Relocalización del Colegio Francés de Osorno (e-seia)</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
@@ -9603,15 +9603,15 @@
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>Cermaq Chile S.A.</t>
+          <t>Sociedad Educacional Francesa de Osorno S.A.</t>
         </is>
       </c>
       <c r="F193" t="n">
-        <v>1500</v>
+        <v>2329</v>
       </c>
       <c r="G193" t="inlineStr">
         <is>
-          <t>30/04/2004</t>
+          <t>03/06/2004</t>
         </is>
       </c>
       <c r="H193" t="inlineStr">
@@ -9621,7 +9621,7 @@
       </c>
       <c r="I193" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=325576&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=371821&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J193" t="inlineStr">
@@ -9636,7 +9636,7 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>Transporte de Plaguicidas y Artefactos Contaminados o que Contienen Bifenilospoliclorados (PCB) (e-seia)</t>
+          <t>Piscicultura Santa Juana (pert 202101089) (e-seia)</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
@@ -9646,16 +9646,16 @@
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>Bravo Energy Chile S.A.</t>
+          <t>Cermaq Chile S.A.</t>
         </is>
       </c>
       <c r="F194" t="n">
-        <v>200</v>
+        <v>1500</v>
       </c>
       <c r="G194" t="inlineStr">
         <is>
@@ -9664,12 +9664,12 @@
       </c>
       <c r="H194" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I194" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=339300&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=325576&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J194" t="inlineStr">
@@ -9684,7 +9684,7 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>Sistema de Tratamiento de Residuos Industriales Líquidos para la Planta Loncoleche Osorno. (e-seia)</t>
+          <t>Transporte de Plaguicidas y Artefactos Contaminados o que Contienen Bifenilospoliclorados (PCB) (e-seia)</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
@@ -9694,30 +9694,30 @@
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>Watt`s Alimentos S.A.</t>
+          <t>Bravo Energy Chile S.A.</t>
         </is>
       </c>
       <c r="F195" t="n">
-        <v>430</v>
+        <v>200</v>
       </c>
       <c r="G195" t="inlineStr">
         <is>
-          <t>12/02/2004</t>
+          <t>30/04/2004</t>
         </is>
       </c>
       <c r="H195" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I195" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=265302&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=339300&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J195" t="inlineStr">
@@ -9732,7 +9732,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>Modificación Nº 01/2003 Plan Regulador Osorno (e-seia)</t>
+          <t>Sistema de Tratamiento de Residuos Industriales Líquidos para la Planta Loncoleche Osorno. (e-seia)</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
@@ -9747,15 +9747,15 @@
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Osorno</t>
+          <t>Watt`s Alimentos S.A.</t>
         </is>
       </c>
       <c r="F196" t="n">
-        <v>0</v>
+        <v>430</v>
       </c>
       <c r="G196" t="inlineStr">
         <is>
-          <t>19/12/2003</t>
+          <t>12/02/2004</t>
         </is>
       </c>
       <c r="H196" t="inlineStr">
@@ -9765,7 +9765,7 @@
       </c>
       <c r="I196" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=228596&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=265302&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J196" t="inlineStr">
@@ -9780,7 +9780,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>Proyecto Canopy Aguas Calientes (e-seia)</t>
+          <t>Modificación Nº 01/2003 Plan Regulador Osorno (e-seia)</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
@@ -9795,15 +9795,15 @@
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>Turismo y Cabañas Aguas Calientes Ltda.</t>
+          <t>Ilustre Municipalidad de Osorno</t>
         </is>
       </c>
       <c r="F197" t="n">
-        <v>97</v>
+        <v>0</v>
       </c>
       <c r="G197" t="inlineStr">
         <is>
-          <t>10/12/2003</t>
+          <t>19/12/2003</t>
         </is>
       </c>
       <c r="H197" t="inlineStr">
@@ -9813,7 +9813,7 @@
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=220766&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=228596&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J197" t="inlineStr">
@@ -9828,7 +9828,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>Proyecto Matadero Frigorífico del Sur S.A. (e-seia)</t>
+          <t>Proyecto Canopy Aguas Calientes (e-seia)</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
@@ -9843,25 +9843,25 @@
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>Matadero Frigorífico del Sur S.A.</t>
+          <t>Turismo y Cabañas Aguas Calientes Ltda.</t>
         </is>
       </c>
       <c r="F198" t="n">
-        <v>1000</v>
+        <v>97</v>
       </c>
       <c r="G198" t="inlineStr">
         <is>
-          <t>20/11/2003</t>
+          <t>10/12/2003</t>
         </is>
       </c>
       <c r="H198" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=203759&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=220766&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J198" t="inlineStr">
@@ -9876,7 +9876,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>SISTEMA DE TRATAMIENTO DE RILES, PROLESUR S.A., OSORNO (e-seia)</t>
+          <t>Proyecto Matadero Frigorífico del Sur S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
@@ -9891,15 +9891,15 @@
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>PROLESUR S.A.</t>
+          <t>Matadero Frigorífico del Sur S.A.</t>
         </is>
       </c>
       <c r="F199" t="n">
-        <v>142</v>
+        <v>1000</v>
       </c>
       <c r="G199" t="inlineStr">
         <is>
-          <t>14/10/2003</t>
+          <t>20/11/2003</t>
         </is>
       </c>
       <c r="H199" t="inlineStr">
@@ -9909,7 +9909,7 @@
       </c>
       <c r="I199" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=159306&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=203759&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J199" t="inlineStr">
@@ -9924,7 +9924,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales por las Rutas indicadas (e-seia)</t>
+          <t>SISTEMA DE TRATAMIENTO DE RILES, PROLESUR S.A., OSORNO (e-seia)</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
@@ -9934,30 +9934,30 @@
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>ECOSUR S.A.</t>
+          <t>PROLESUR S.A.</t>
         </is>
       </c>
       <c r="F200" t="n">
-        <v>200</v>
+        <v>142</v>
       </c>
       <c r="G200" t="inlineStr">
         <is>
-          <t>09/09/2003</t>
+          <t>14/10/2003</t>
         </is>
       </c>
       <c r="H200" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I200" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=135650&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=159306&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J200" t="inlineStr">
@@ -9972,7 +9972,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>Conjunto Habitacional Sector Jardín del Alto, Osorno (e-seia)</t>
+          <t>Transporte de Residuos Industriales por las Rutas indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
@@ -9982,30 +9982,30 @@
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>Inmobiliaria Fourcade S.A.</t>
+          <t>ECOSUR S.A.</t>
         </is>
       </c>
       <c r="F201" t="n">
-        <v>40000</v>
+        <v>200</v>
       </c>
       <c r="G201" t="inlineStr">
         <is>
-          <t>27/08/2003</t>
+          <t>09/09/2003</t>
         </is>
       </c>
       <c r="H201" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I201" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=135673&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=135650&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J201" t="inlineStr">
@@ -10020,7 +10020,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>Sistema de Tratamiento de Riles Planta Productora de Cecinas (e-seia)</t>
+          <t>Conjunto Habitacional Sector Jardín del Alto, Osorno (e-seia)</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
@@ -10035,25 +10035,25 @@
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>Sociedad Cecinera del Sur Ltda.</t>
+          <t>Inmobiliaria Fourcade S.A.</t>
         </is>
       </c>
       <c r="F202" t="n">
-        <v>170</v>
+        <v>40000</v>
       </c>
       <c r="G202" t="inlineStr">
         <is>
-          <t>14/07/2003</t>
+          <t>27/08/2003</t>
         </is>
       </c>
       <c r="H202" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I202" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=111634&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=135673&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J202" t="inlineStr">
@@ -10068,7 +10068,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>Conjunto Habitacional Sector Jardín del Alto, Comuna de Osorno (e-seia)</t>
+          <t>Sistema de Tratamiento de Riles Planta Productora de Cecinas (e-seia)</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
@@ -10083,25 +10083,25 @@
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>Inmobiliaria Fourcade S.A.</t>
+          <t>Sociedad Cecinera del Sur Ltda.</t>
         </is>
       </c>
       <c r="F203" t="n">
-        <v>40000</v>
+        <v>170</v>
       </c>
       <c r="G203" t="inlineStr">
         <is>
-          <t>18/06/2003</t>
+          <t>14/07/2003</t>
         </is>
       </c>
       <c r="H203" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I203" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=100119&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=111634&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J203" t="inlineStr">
@@ -10116,7 +10116,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>Construcción y Operación Subestación Eléctrica Aihuapi (e-seia)</t>
+          <t>Conjunto Habitacional Sector Jardín del Alto, Comuna de Osorno (e-seia)</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
@@ -10131,25 +10131,25 @@
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>Sistema de Transmision del Sur S.A.</t>
+          <t>Inmobiliaria Fourcade S.A.</t>
         </is>
       </c>
       <c r="F204" t="n">
-        <v>350</v>
+        <v>40000</v>
       </c>
       <c r="G204" t="inlineStr">
         <is>
-          <t>24/01/2003</t>
+          <t>18/06/2003</t>
         </is>
       </c>
       <c r="H204" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I204" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=45978&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=100119&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J204" t="inlineStr">
@@ -10164,7 +10164,7 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>Ampliacion Segunda Etapa Construccion de 300 Viviendas Sociales, Sector La misión Comuna de Osorno (e-seia)</t>
+          <t>Construcción y Operación Subestación Eléctrica Aihuapi (e-seia)</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
@@ -10179,15 +10179,15 @@
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>SERVICIO DE VIVIENDA Y URBANIZACION X REGION</t>
+          <t>Sistema de Transmision del Sur S.A.</t>
         </is>
       </c>
       <c r="F205" t="n">
-        <v>914</v>
+        <v>350</v>
       </c>
       <c r="G205" t="inlineStr">
         <is>
-          <t>13/09/2002</t>
+          <t>24/01/2003</t>
         </is>
       </c>
       <c r="H205" t="inlineStr">
@@ -10197,7 +10197,7 @@
       </c>
       <c r="I205" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=29920&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=45978&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J205" t="inlineStr">
@@ -10212,7 +10212,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>Sistema de Tratamiento de Residuos Industriales Líquidos para la Planta de Empresa Frigorifico de Osorno S.A.</t>
+          <t>Ampliacion Segunda Etapa Construccion de 300 Viviendas Sociales, Sector La misión Comuna de Osorno (e-seia)</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
@@ -10227,15 +10227,15 @@
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>Frigorífico de Osorno S.A.</t>
+          <t>SERVICIO DE VIVIENDA Y URBANIZACION X REGION</t>
         </is>
       </c>
       <c r="F206" t="n">
-        <v>199</v>
+        <v>914</v>
       </c>
       <c r="G206" t="inlineStr">
         <is>
-          <t>16/08/2002</t>
+          <t>13/09/2002</t>
         </is>
       </c>
       <c r="H206" t="inlineStr">
@@ -10245,7 +10245,7 @@
       </c>
       <c r="I206" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5762&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=29920&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J206" t="inlineStr">
@@ -10260,7 +10260,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>Estudio y Diseño de Servicio Público de Alcantarillado y Planta de Tratamiento de Aguas Servidas sin Generación de Lodos para la Localidad de Cancura</t>
+          <t>Sistema de Tratamiento de Residuos Industriales Líquidos para la Planta de Empresa Frigorifico de Osorno S.A.</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
@@ -10275,15 +10275,15 @@
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Osorno</t>
+          <t>Frigorífico de Osorno S.A.</t>
         </is>
       </c>
       <c r="F207" t="n">
-        <v>0</v>
+        <v>199</v>
       </c>
       <c r="G207" t="inlineStr">
         <is>
-          <t>24/05/2002</t>
+          <t>16/08/2002</t>
         </is>
       </c>
       <c r="H207" t="inlineStr">
@@ -10293,7 +10293,7 @@
       </c>
       <c r="I207" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5471&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5762&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J207" t="inlineStr">
@@ -10308,7 +10308,7 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Salmonídeos Piscicultura Puchaura Río Rahue ( Solicitud N° 201101106)</t>
+          <t>Estudio y Diseño de Servicio Público de Alcantarillado y Planta de Tratamiento de Aguas Servidas sin Generación de Lodos para la Localidad de Cancura</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
@@ -10323,15 +10323,15 @@
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>Luis Alberto Ellwanger Willer</t>
+          <t>Ilustre Municipalidad de Osorno</t>
         </is>
       </c>
       <c r="F208" t="n">
-        <v>2500</v>
+        <v>0</v>
       </c>
       <c r="G208" t="inlineStr">
         <is>
-          <t>15/03/2002</t>
+          <t>24/05/2002</t>
         </is>
       </c>
       <c r="H208" t="inlineStr">
@@ -10341,7 +10341,7 @@
       </c>
       <c r="I208" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5273&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5471&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J208" t="inlineStr">
@@ -10356,7 +10356,7 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>Construcción del Liceo Technos Osorno</t>
+          <t>Centro de Cultivo de Salmonídeos Piscicultura Puchaura Río Rahue ( Solicitud N° 201101106)</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
@@ -10371,25 +10371,25 @@
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>Sociedad Educacional Technos Ltda.</t>
+          <t>Luis Alberto Ellwanger Willer</t>
         </is>
       </c>
       <c r="F209" t="n">
-        <v>1490</v>
+        <v>2500</v>
       </c>
       <c r="G209" t="inlineStr">
         <is>
-          <t>04/03/2002</t>
+          <t>15/03/2002</t>
         </is>
       </c>
       <c r="H209" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I209" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5196&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5273&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J209" t="inlineStr">
@@ -10404,7 +10404,7 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>Transporte de Gas Propano desde Argentina a Temuco - Chile IX - X Región</t>
+          <t>Construcción del Liceo Technos Osorno</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
@@ -10414,30 +10414,30 @@
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>Ecogas S.A.</t>
+          <t>Sociedad Educacional Technos Ltda.</t>
         </is>
       </c>
       <c r="F210" t="n">
-        <v>10000</v>
+        <v>1490</v>
       </c>
       <c r="G210" t="inlineStr">
         <is>
-          <t>12/10/2001</t>
+          <t>04/03/2002</t>
         </is>
       </c>
       <c r="H210" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I210" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4598&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5196&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J210" t="inlineStr">
@@ -10452,7 +10452,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales</t>
+          <t>Transporte de Gas Propano desde Argentina a Temuco - Chile IX - X Región</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
@@ -10467,25 +10467,25 @@
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>ECOSUR S.A.</t>
+          <t>Ecogas S.A.</t>
         </is>
       </c>
       <c r="F211" t="n">
-        <v>200</v>
+        <v>10000</v>
       </c>
       <c r="G211" t="inlineStr">
         <is>
-          <t>25/09/2001</t>
+          <t>12/10/2001</t>
         </is>
       </c>
       <c r="H211" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I211" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4591&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4598&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J211" t="inlineStr">
@@ -10500,7 +10500,7 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>Complejo de Cabañas Turisticas Sector Las Quemas Comuna de Osorno</t>
+          <t>Transporte de Residuos Industriales</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
@@ -10510,30 +10510,30 @@
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>Gunther Juan Weis Kusch</t>
+          <t>ECOSUR S.A.</t>
         </is>
       </c>
       <c r="F212" t="n">
-        <v>20</v>
+        <v>200</v>
       </c>
       <c r="G212" t="inlineStr">
         <is>
-          <t>12/09/2001</t>
+          <t>25/09/2001</t>
         </is>
       </c>
       <c r="H212" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I212" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4412&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4591&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J212" t="inlineStr">
@@ -10548,7 +10548,7 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>Construcción de 406 Viviendas Sociales Sector La Misión Comuna de Osorno</t>
+          <t>Complejo de Cabañas Turisticas Sector Las Quemas Comuna de Osorno</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
@@ -10563,25 +10563,25 @@
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>SERVICIO DE VIVIENDA Y URBANIZACION X REGION</t>
+          <t>Gunther Juan Weis Kusch</t>
         </is>
       </c>
       <c r="F213" t="n">
-        <v>2130</v>
+        <v>20</v>
       </c>
       <c r="G213" t="inlineStr">
         <is>
-          <t>14/08/2001</t>
+          <t>12/09/2001</t>
         </is>
       </c>
       <c r="H213" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I213" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4277&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4412&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J213" t="inlineStr">
@@ -10596,7 +10596,7 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>Modificación Plan Regulador Comunal de Osorno Sector Instituto Profesional Agrario Adolfo Matthei</t>
+          <t>Construcción de 406 Viviendas Sociales Sector La Misión Comuna de Osorno</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
@@ -10611,15 +10611,15 @@
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Osorno</t>
+          <t>SERVICIO DE VIVIENDA Y URBANIZACION X REGION</t>
         </is>
       </c>
       <c r="F214" t="n">
-        <v>0</v>
+        <v>2130</v>
       </c>
       <c r="G214" t="inlineStr">
         <is>
-          <t>14/05/2001</t>
+          <t>14/08/2001</t>
         </is>
       </c>
       <c r="H214" t="inlineStr">
@@ -10629,7 +10629,7 @@
       </c>
       <c r="I214" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3898&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4277&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J214" t="inlineStr">
@@ -10644,7 +10644,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento y Red de Aguas Servidas para Loteo Polloico</t>
+          <t>Modificación Plan Regulador Comunal de Osorno Sector Instituto Profesional Agrario Adolfo Matthei</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
@@ -10659,25 +10659,25 @@
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>Comité Habitacional Polloico</t>
+          <t>Ilustre Municipalidad de Osorno</t>
         </is>
       </c>
       <c r="F215" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="G215" t="inlineStr">
         <is>
-          <t>07/05/2001</t>
+          <t>14/05/2001</t>
         </is>
       </c>
       <c r="H215" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I215" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3891&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3898&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J215" t="inlineStr">
@@ -10692,7 +10692,7 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>Tratamiento y Disposición Final de Las Aguas Servidas de Osorno (Segunda Presentación)</t>
+          <t>Planta de Tratamiento y Red de Aguas Servidas para Loteo Polloico</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
@@ -10707,25 +10707,25 @@
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>Empresa de Servicios Sanitarios de los Lagos ESSAL</t>
+          <t>Comité Habitacional Polloico</t>
         </is>
       </c>
       <c r="F216" t="n">
-        <v>11360</v>
+        <v>30</v>
       </c>
       <c r="G216" t="inlineStr">
         <is>
-          <t>24/01/2001</t>
+          <t>07/05/2001</t>
         </is>
       </c>
       <c r="H216" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I216" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3582&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3891&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J216" t="inlineStr">
@@ -10740,7 +10740,7 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>Restaurant Los Hornitos</t>
+          <t>Tratamiento y Disposición Final de Las Aguas Servidas de Osorno (Segunda Presentación)</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
@@ -10755,15 +10755,15 @@
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>Juana del Carmen Llanos Mora</t>
+          <t>Empresa de Servicios Sanitarios de los Lagos ESSAL</t>
         </is>
       </c>
       <c r="F217" t="n">
-        <v>10</v>
+        <v>11360</v>
       </c>
       <c r="G217" t="inlineStr">
         <is>
-          <t>08/11/2000</t>
+          <t>24/01/2001</t>
         </is>
       </c>
       <c r="H217" t="inlineStr">
@@ -10773,7 +10773,7 @@
       </c>
       <c r="I217" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3348&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3582&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J217" t="inlineStr">
@@ -10788,7 +10788,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>Ampliación Pozo de Aridos Hadida</t>
+          <t>Restaurant Los Hornitos</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
@@ -10803,15 +10803,15 @@
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>Hedgard Hadida</t>
+          <t>Juana del Carmen Llanos Mora</t>
         </is>
       </c>
       <c r="F218" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="G218" t="inlineStr">
         <is>
-          <t>03/11/2000</t>
+          <t>08/11/2000</t>
         </is>
       </c>
       <c r="H218" t="inlineStr">
@@ -10821,7 +10821,7 @@
       </c>
       <c r="I218" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3349&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3348&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J218" t="inlineStr">
@@ -10836,7 +10836,7 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>Estación de Servicio ESSO Km 915 Ruta 5 Sur Pilauco Osorno</t>
+          <t>Ampliación Pozo de Aridos Hadida</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
@@ -10851,15 +10851,15 @@
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>Esmax Distribución SpA</t>
+          <t>Hedgard Hadida</t>
         </is>
       </c>
       <c r="F219" t="n">
-        <v>1100</v>
+        <v>100</v>
       </c>
       <c r="G219" t="inlineStr">
         <is>
-          <t>05/07/2000</t>
+          <t>03/11/2000</t>
         </is>
       </c>
       <c r="H219" t="inlineStr">
@@ -10869,7 +10869,7 @@
       </c>
       <c r="I219" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3005&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3349&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J219" t="inlineStr">
@@ -10884,7 +10884,7 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>Transporte de Artefactos y/o Materiales Contaminados o que contienen Bifenilospoliclorados (BPC) o Terfenilospoliclorados</t>
+          <t>Estación de Servicio ESSO Km 915 Ruta 5 Sur Pilauco Osorno</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
@@ -10894,20 +10894,20 @@
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>Compañía de Desarrollo Minero Industrial CHIHOL Ltda.</t>
+          <t>Esmax Distribución SpA</t>
         </is>
       </c>
       <c r="F220" t="n">
-        <v>110</v>
+        <v>1100</v>
       </c>
       <c r="G220" t="inlineStr">
         <is>
-          <t>14/02/2000</t>
+          <t>05/07/2000</t>
         </is>
       </c>
       <c r="H220" t="inlineStr">
@@ -10917,7 +10917,7 @@
       </c>
       <c r="I220" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2686&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3005&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J220" t="inlineStr">
@@ -10932,40 +10932,40 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>Almacenamiento y Vaporación de Gas Propano Líquido e Implementación de un Sistema de Distribución por Red de Gas Propano Vaporizado en la Ciudad de Osorno</t>
+          <t>Transporte de Artefactos y/o Materiales Contaminados o que contienen Bifenilospoliclorados (BPC) o Terfenilospoliclorados</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>Temucgas S.A.</t>
+          <t>Compañía de Desarrollo Minero Industrial CHIHOL Ltda.</t>
         </is>
       </c>
       <c r="F221" t="n">
-        <v>2070</v>
+        <v>110</v>
       </c>
       <c r="G221" t="inlineStr">
         <is>
-          <t>28/12/1999</t>
+          <t>14/02/2000</t>
         </is>
       </c>
       <c r="H221" t="inlineStr">
         <is>
-          <t>Abandonado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I221" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2560&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2686&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J221" t="inlineStr">
@@ -10980,12 +10980,12 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>Sistema de Depuración y Neutralización de Residuos Industriales Líquidos (Frigosor S.A.)</t>
+          <t>Almacenamiento y Vaporación de Gas Propano Líquido e Implementación de un Sistema de Distribución por Red de Gas Propano Vaporizado en la Ciudad de Osorno</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D222" t="inlineStr">
@@ -10995,25 +10995,25 @@
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>Frigorífico de Osorno S.A.</t>
+          <t>Temucgas S.A.</t>
         </is>
       </c>
       <c r="F222" t="n">
-        <v>200</v>
+        <v>2070</v>
       </c>
       <c r="G222" t="inlineStr">
         <is>
-          <t>26/11/1999</t>
+          <t>28/12/1999</t>
         </is>
       </c>
       <c r="H222" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Abandonado</t>
         </is>
       </c>
       <c r="I222" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2466&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2560&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J222" t="inlineStr">
@@ -11028,7 +11028,7 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>Hotel Cabañas El Faro ( Segunda Presentación )</t>
+          <t>Sistema de Depuración y Neutralización de Residuos Industriales Líquidos (Frigosor S.A.)</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
@@ -11043,15 +11043,15 @@
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>Inmobiliaria Paradice Ltda.</t>
+          <t>Frigorífico de Osorno S.A.</t>
         </is>
       </c>
       <c r="F223" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="G223" t="inlineStr">
         <is>
-          <t>30/07/1999</t>
+          <t>26/11/1999</t>
         </is>
       </c>
       <c r="H223" t="inlineStr">
@@ -11061,7 +11061,7 @@
       </c>
       <c r="I223" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2136&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2466&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J223" t="inlineStr">
@@ -11076,7 +11076,7 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>Proyecto Servicio Público de Alcantarillado de Aguas Servidas de la Localidad de Cancura</t>
+          <t>Hotel Cabañas El Faro ( Segunda Presentación )</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
@@ -11091,25 +11091,25 @@
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Osorno</t>
+          <t>Inmobiliaria Paradice Ltda.</t>
         </is>
       </c>
       <c r="F224" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G224" t="inlineStr">
         <is>
-          <t>19/05/1999</t>
+          <t>30/07/1999</t>
         </is>
       </c>
       <c r="H224" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I224" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1973&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2136&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J224" t="inlineStr">
@@ -11124,7 +11124,7 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>Tratamiento y Disposición Final de Aguas Servidas de Osorno</t>
+          <t>Proyecto Servicio Público de Alcantarillado de Aguas Servidas de la Localidad de Cancura</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
@@ -11139,15 +11139,15 @@
       </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t>Empresa de Servicios Sanitarios de los Lagos ESSAL</t>
+          <t>Ilustre Municipalidad de Osorno</t>
         </is>
       </c>
       <c r="F225" t="n">
-        <v>11400</v>
+        <v>250</v>
       </c>
       <c r="G225" t="inlineStr">
         <is>
-          <t>05/04/1999</t>
+          <t>19/05/1999</t>
         </is>
       </c>
       <c r="H225" t="inlineStr">
@@ -11157,7 +11157,7 @@
       </c>
       <c r="I225" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1841&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1973&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J225" t="inlineStr">
@@ -11172,7 +11172,7 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>Hotel Cabañas El Faro</t>
+          <t>Tratamiento y Disposición Final de Aguas Servidas de Osorno</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
@@ -11187,25 +11187,25 @@
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>Inmobiliaria Paradice Ltda.</t>
+          <t>Empresa de Servicios Sanitarios de los Lagos ESSAL</t>
         </is>
       </c>
       <c r="F226" t="n">
-        <v>150</v>
+        <v>11400</v>
       </c>
       <c r="G226" t="inlineStr">
         <is>
-          <t>05/03/1999</t>
+          <t>05/04/1999</t>
         </is>
       </c>
       <c r="H226" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I226" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1759&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1841&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J226" t="inlineStr">
@@ -11220,7 +11220,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>Ampliación Planta Osorno Abastecedora de Combustible S.A.</t>
+          <t>Hotel Cabañas El Faro</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
@@ -11235,15 +11235,15 @@
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>Abastecedora de Combustibles S.A.</t>
+          <t>Inmobiliaria Paradice Ltda.</t>
         </is>
       </c>
       <c r="F227" t="n">
-        <v>220</v>
+        <v>150</v>
       </c>
       <c r="G227" t="inlineStr">
         <is>
-          <t>24/11/1998</t>
+          <t>05/03/1999</t>
         </is>
       </c>
       <c r="H227" t="inlineStr">
@@ -11253,7 +11253,7 @@
       </c>
       <c r="I227" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1809&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1759&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J227" t="inlineStr">
@@ -11268,7 +11268,7 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>Empréstito Cañal Bajo</t>
+          <t>Ampliación Planta Osorno Abastecedora de Combustible S.A.</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
@@ -11283,25 +11283,25 @@
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>Concesión de Los Lagos S. A.</t>
+          <t>Abastecedora de Combustibles S.A.</t>
         </is>
       </c>
       <c r="F228" t="n">
-        <v>560</v>
+        <v>220</v>
       </c>
       <c r="G228" t="inlineStr">
         <is>
-          <t>17/08/1998</t>
+          <t>24/11/1998</t>
         </is>
       </c>
       <c r="H228" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I228" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1191&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1809&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J228" t="inlineStr">
@@ -11316,7 +11316,7 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Efluentes Líquidos Cecinas Salamero Ltda.</t>
+          <t>Empréstito Cañal Bajo</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
@@ -11331,25 +11331,25 @@
       </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t>Cecinas Salamero Ltda.</t>
+          <t>Concesión de Los Lagos S. A.</t>
         </is>
       </c>
       <c r="F229" t="n">
-        <v>10</v>
+        <v>560</v>
       </c>
       <c r="G229" t="inlineStr">
         <is>
-          <t>13/08/1998</t>
+          <t>17/08/1998</t>
         </is>
       </c>
       <c r="H229" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I229" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1194&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1191&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J229" t="inlineStr">
@@ -11364,7 +11364,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>Discoteque Factory</t>
+          <t>Planta de Tratamiento de Efluentes Líquidos Cecinas Salamero Ltda.</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
@@ -11379,25 +11379,25 @@
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>Bélgica Olave Figueroa</t>
+          <t>Cecinas Salamero Ltda.</t>
         </is>
       </c>
       <c r="F230" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="G230" t="inlineStr">
         <is>
-          <t>29/07/1998</t>
+          <t>13/08/1998</t>
         </is>
       </c>
       <c r="H230" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I230" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1347&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1194&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J230" t="inlineStr">
@@ -11412,7 +11412,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>Estación de Servicios YPF de Arturo Prat Esq.Manuel Rodríguez</t>
+          <t>Discoteque Factory</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
@@ -11427,15 +11427,15 @@
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>Empresa Nacional de Energia ENEX S.A...</t>
+          <t>Bélgica Olave Figueroa</t>
         </is>
       </c>
       <c r="F231" t="n">
-        <v>400</v>
+        <v>30</v>
       </c>
       <c r="G231" t="inlineStr">
         <is>
-          <t>18/03/1998</t>
+          <t>29/07/1998</t>
         </is>
       </c>
       <c r="H231" t="inlineStr">
@@ -11445,7 +11445,7 @@
       </c>
       <c r="I231" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=794&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1347&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J231" t="inlineStr">
@@ -11460,7 +11460,7 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>Restaurant y Minimarket</t>
+          <t>Estación de Servicios YPF de Arturo Prat Esq.Manuel Rodríguez</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
@@ -11475,15 +11475,15 @@
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>Andres Bonati Brintrup</t>
+          <t>Empresa Nacional de Energia ENEX S.A...</t>
         </is>
       </c>
       <c r="F232" t="n">
-        <v>150</v>
+        <v>400</v>
       </c>
       <c r="G232" t="inlineStr">
         <is>
-          <t>24/02/1998</t>
+          <t>18/03/1998</t>
         </is>
       </c>
       <c r="H232" t="inlineStr">
@@ -11493,7 +11493,7 @@
       </c>
       <c r="I232" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=277&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=794&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J232" t="inlineStr">
@@ -11508,43 +11508,91 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
+          <t>Restaurant y Minimarket</t>
+        </is>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D233" t="inlineStr">
+        <is>
+          <t>Décima</t>
+        </is>
+      </c>
+      <c r="E233" t="inlineStr">
+        <is>
+          <t>Andres Bonati Brintrup</t>
+        </is>
+      </c>
+      <c r="F233" t="n">
+        <v>150</v>
+      </c>
+      <c r="G233" t="inlineStr">
+        <is>
+          <t>24/02/1998</t>
+        </is>
+      </c>
+      <c r="H233" t="inlineStr">
+        <is>
+          <t>Aprobado</t>
+        </is>
+      </c>
+      <c r="I233" t="inlineStr">
+        <is>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=277&amp;modo=ficha</t>
+        </is>
+      </c>
+      <c r="J233" t="inlineStr">
+        <is>
+          <t>Osorno</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="n">
+        <v>233</v>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
           <t>Terminal de Locomoción Colectiva Urbana</t>
         </is>
       </c>
-      <c r="C233" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
-      <c r="D233" t="inlineStr">
-        <is>
-          <t>Décima</t>
-        </is>
-      </c>
-      <c r="E233" t="inlineStr">
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D234" t="inlineStr">
+        <is>
+          <t>Décima</t>
+        </is>
+      </c>
+      <c r="E234" t="inlineStr">
         <is>
           <t>Conrado Erwin Fontealba Vargas</t>
         </is>
       </c>
-      <c r="F233" t="n">
+      <c r="F234" t="n">
         <v>70</v>
       </c>
-      <c r="G233" t="inlineStr">
+      <c r="G234" t="inlineStr">
         <is>
           <t>09/01/1998</t>
         </is>
       </c>
-      <c r="H233" t="inlineStr">
-        <is>
-          <t>Aprobado</t>
-        </is>
-      </c>
-      <c r="I233" t="inlineStr">
+      <c r="H234" t="inlineStr">
+        <is>
+          <t>Aprobado</t>
+        </is>
+      </c>
+      <c r="I234" t="inlineStr">
         <is>
           <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=279&amp;modo=ficha</t>
         </is>
       </c>
-      <c r="J233" t="inlineStr">
+      <c r="J234" t="inlineStr">
         <is>
           <t>Osorno</t>
         </is>

--- a/data/Osorno.xlsx
+++ b/data/Osorno.xlsx
@@ -2920,7 +2920,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN A LA DECLARACIÓN DE IMPACTO AMBIENTAL PISCICULTURA EL VENADO</t>
+          <t>Ampliación de extracción de áridos en Pozo Jauregui</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2935,11 +2935,11 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Sociedad Agrícola Covarrubias Fernández Ltda.</t>
+          <t>Juan Carlos Jauregui Hidalgo</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>2500</v>
+        <v>500</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
@@ -2948,12 +2948,12 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7555686&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7547676&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -2968,7 +2968,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Ampliación de extracción de áridos en Pozo Jauregui</t>
+          <t>MODIFICACIÓN A LA DECLARACIÓN DE IMPACTO AMBIENTAL PISCICULTURA EL VENADO</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2983,11 +2983,11 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Juan Carlos Jauregui Hidalgo</t>
+          <t>Sociedad Agrícola Covarrubias Fernández Ltda.</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>500</v>
+        <v>2500</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
@@ -2996,12 +2996,12 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7547676&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7555686&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -4984,7 +4984,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>ESTUDIO Y DISEÑO PLAN DE CIERRE VERTEDERO COMUNA DE OSORNO (e-seia)</t>
+          <t>Transporte Inter-Regional Terrestre de Residuos, PROCESAN S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -4994,16 +4994,16 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Osorno</t>
+          <t>PROCESAN S.A.</t>
         </is>
       </c>
       <c r="F97" t="n">
-        <v>3400</v>
+        <v>377</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>
@@ -5012,12 +5012,12 @@
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4139027&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4134794&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
@@ -5032,7 +5032,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Transporte Inter-Regional Terrestre de Residuos, PROCESAN S.A. (e-seia)</t>
+          <t>ESTUDIO Y DISEÑO PLAN DE CIERRE VERTEDERO COMUNA DE OSORNO (e-seia)</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -5042,16 +5042,16 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>PROCESAN S.A.</t>
+          <t>Ilustre Municipalidad de Osorno</t>
         </is>
       </c>
       <c r="F98" t="n">
-        <v>377</v>
+        <v>3400</v>
       </c>
       <c r="G98" t="inlineStr">
         <is>
@@ -5060,12 +5060,12 @@
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4134794&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4139027&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
@@ -5892,7 +5892,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS DE PLOMO Y BATERÍAS USADAS POR LAS REGIONES VI, VII, VIII, IX, XIV y X (e-seia)</t>
+          <t>Proyecto Inmobiliario Portal Osorno (e-seia)</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -5902,16 +5902,16 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>Industria Proveedora de Partes Metalurgicas Ltda.</t>
+          <t>Inmobiliaria Martabid Limitada</t>
         </is>
       </c>
       <c r="F116" t="n">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G116" t="inlineStr">
         <is>
@@ -5920,12 +5920,12 @@
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3249759&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3272599&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
@@ -5940,7 +5940,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Proyecto Inmobiliario Portal Osorno (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS DE PLOMO Y BATERÍAS USADAS POR LAS REGIONES VI, VII, VIII, IX, XIV y X (e-seia)</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -5950,16 +5950,16 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>Inmobiliaria Martabid Limitada</t>
+          <t>Industria Proveedora de Partes Metalurgicas Ltda.</t>
         </is>
       </c>
       <c r="F117" t="n">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="G117" t="inlineStr">
         <is>
@@ -5968,12 +5968,12 @@
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3272599&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3249759&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
@@ -7092,7 +7092,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>CONJUNTO HABITACIONAL JARDIN DEL ALTO,OSORNO (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -7102,16 +7102,16 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>Inmobiliaria Fourcade S.A.</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F141" t="n">
-        <v>3370</v>
+        <v>10</v>
       </c>
       <c r="G141" t="inlineStr">
         <is>
@@ -7120,12 +7120,12 @@
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2359952&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
@@ -7140,7 +7140,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>CONJUNTO HABITACIONAL JARDIN DEL ALTO,OSORNO (e-seia)</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -7150,16 +7150,16 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>Inmobiliaria Fourcade S.A.</t>
         </is>
       </c>
       <c r="F142" t="n">
-        <v>10</v>
+        <v>3370</v>
       </c>
       <c r="G142" t="inlineStr">
         <is>
@@ -7168,12 +7168,12 @@
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2359952&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">

--- a/data/Osorno.xlsx
+++ b/data/Osorno.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>18/05/2023</t>
+          <t>23/05/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Osorno.xlsx
+++ b/data/Osorno.xlsx
@@ -2920,7 +2920,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Ampliación de extracción de áridos en Pozo Jauregui</t>
+          <t>MODIFICACIÓN A LA DECLARACIÓN DE IMPACTO AMBIENTAL PISCICULTURA EL VENADO</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2935,11 +2935,11 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Juan Carlos Jauregui Hidalgo</t>
+          <t>Sociedad Agrícola Covarrubias Fernández Ltda.</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>500</v>
+        <v>2500</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
@@ -2948,12 +2948,12 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7547676&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7555686&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -2968,7 +2968,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN A LA DECLARACIÓN DE IMPACTO AMBIENTAL PISCICULTURA EL VENADO</t>
+          <t>Ampliación de extracción de áridos en Pozo Jauregui</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2983,11 +2983,11 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Sociedad Agrícola Covarrubias Fernández Ltda.</t>
+          <t>Juan Carlos Jauregui Hidalgo</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>2500</v>
+        <v>500</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
@@ -2996,12 +2996,12 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7555686&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7547676&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -4984,7 +4984,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Transporte Inter-Regional Terrestre de Residuos, PROCESAN S.A. (e-seia)</t>
+          <t>ESTUDIO Y DISEÑO PLAN DE CIERRE VERTEDERO COMUNA DE OSORNO (e-seia)</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -4994,16 +4994,16 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>PROCESAN S.A.</t>
+          <t>Ilustre Municipalidad de Osorno</t>
         </is>
       </c>
       <c r="F97" t="n">
-        <v>377</v>
+        <v>3400</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>
@@ -5012,12 +5012,12 @@
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4134794&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4139027&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
@@ -5032,7 +5032,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>ESTUDIO Y DISEÑO PLAN DE CIERRE VERTEDERO COMUNA DE OSORNO (e-seia)</t>
+          <t>Transporte Inter-Regional Terrestre de Residuos, PROCESAN S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -5042,16 +5042,16 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Osorno</t>
+          <t>PROCESAN S.A.</t>
         </is>
       </c>
       <c r="F98" t="n">
-        <v>3400</v>
+        <v>377</v>
       </c>
       <c r="G98" t="inlineStr">
         <is>
@@ -5060,12 +5060,12 @@
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4139027&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4134794&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
@@ -5892,7 +5892,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Proyecto Inmobiliario Portal Osorno (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS DE PLOMO Y BATERÍAS USADAS POR LAS REGIONES VI, VII, VIII, IX, XIV y X (e-seia)</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -5902,16 +5902,16 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>Inmobiliaria Martabid Limitada</t>
+          <t>Industria Proveedora de Partes Metalurgicas Ltda.</t>
         </is>
       </c>
       <c r="F116" t="n">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="G116" t="inlineStr">
         <is>
@@ -5920,12 +5920,12 @@
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3272599&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3249759&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
@@ -5940,7 +5940,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS DE PLOMO Y BATERÍAS USADAS POR LAS REGIONES VI, VII, VIII, IX, XIV y X (e-seia)</t>
+          <t>Proyecto Inmobiliario Portal Osorno (e-seia)</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -5950,16 +5950,16 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>Industria Proveedora de Partes Metalurgicas Ltda.</t>
+          <t>Inmobiliaria Martabid Limitada</t>
         </is>
       </c>
       <c r="F117" t="n">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G117" t="inlineStr">
         <is>
@@ -5968,12 +5968,12 @@
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3249759&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3272599&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
@@ -7092,7 +7092,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>CONJUNTO HABITACIONAL JARDIN DEL ALTO,OSORNO (e-seia)</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -7102,16 +7102,16 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>Inmobiliaria Fourcade S.A.</t>
         </is>
       </c>
       <c r="F141" t="n">
-        <v>10</v>
+        <v>3370</v>
       </c>
       <c r="G141" t="inlineStr">
         <is>
@@ -7120,12 +7120,12 @@
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2359952&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
@@ -7140,7 +7140,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>CONJUNTO HABITACIONAL JARDIN DEL ALTO,OSORNO (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -7150,16 +7150,16 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>Inmobiliaria Fourcade S.A.</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F142" t="n">
-        <v>3370</v>
+        <v>10</v>
       </c>
       <c r="G142" t="inlineStr">
         <is>
@@ -7168,12 +7168,12 @@
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2359952&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">

--- a/data/Osorno.xlsx
+++ b/data/Osorno.xlsx
@@ -1303,7 +1303,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Sistema de Transmision del Sur S.A.</t>
+          <t>Sistema de Transmisión del Sur SA</t>
         </is>
       </c>
       <c r="F20" t="n">
@@ -3655,7 +3655,7 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Sistema de Transmision del Sur S.A.</t>
+          <t>Sistema de Transmisión del Sur SA</t>
         </is>
       </c>
       <c r="F69" t="n">
@@ -4087,7 +4087,7 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Sistema de Transmision del Sur S.A.</t>
+          <t>Sistema de Transmisión del Sur SA</t>
         </is>
       </c>
       <c r="F78" t="n">
@@ -4807,7 +4807,7 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>Sistema de Transmision del Sur S.A.</t>
+          <t>Sistema de Transmisión del Sur SA</t>
         </is>
       </c>
       <c r="F93" t="n">
@@ -4903,7 +4903,7 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>Sistema de Transmision del Sur S.A.</t>
+          <t>Sistema de Transmisión del Sur SA</t>
         </is>
       </c>
       <c r="F95" t="n">
@@ -10179,7 +10179,7 @@
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>Sistema de Transmision del Sur S.A.</t>
+          <t>Sistema de Transmisión del Sur SA</t>
         </is>
       </c>
       <c r="F205" t="n">

--- a/data/Osorno.xlsx
+++ b/data/Osorno.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J234"/>
+  <dimension ref="A1:J235"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,7 +424,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>BioCircular Los Laureles</t>
+          <t>Construcción de viviendas sociales para familias vulnerables sujetas al plan de emergencia habitacional, sector francke, Osorno</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -439,25 +439,25 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Genera4 SpA</t>
+          <t>Ararat SpA.</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>15000</v>
+        <v>72000</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>23/05/2023</t>
+          <t>29/06/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>En Admisión</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2159179224&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2159533326&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -472,7 +472,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Planta Solar Fotovoltaica Montecinos</t>
+          <t>BioCircular Los Laureles</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -487,15 +487,15 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Generadora Semilla SpA.</t>
+          <t>Genera4 SpA</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>21/09/2022</t>
+          <t>23/05/2023</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -505,7 +505,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156946466&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2159179224&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -520,7 +520,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DE INSTALACIONES EN PLANTA OSORNO</t>
+          <t>Planta Solar Fotovoltaica Montecinos</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -535,25 +535,25 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Envases Impresos SpA</t>
+          <t>Generadora Semilla SpA.</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>877</v>
+        <v>10000</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>22/06/2022</t>
+          <t>21/09/2022</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156289752&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156946466&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -568,7 +568,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>BALNEARIO FLUVIAL \"Río Damas\"</t>
+          <t>MODIFICACIÓN DE INSTALACIONES EN PLANTA OSORNO</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -583,25 +583,25 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Inversiones y Comercial Southern World SpA</t>
+          <t>Envases Impresos SpA</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>30400</v>
+        <v>877</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>30/05/2022</t>
+          <t>22/06/2022</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155928380&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156289752&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -616,7 +616,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>?Ampliación Superficie Planta de Disposición Final de Residuos Biológicos No Peligrosos Industriales ECOPRIAL? Región de Los Lagos</t>
+          <t>BALNEARIO FLUVIAL \"Río Damas\"</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -631,25 +631,25 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Raul Albrecht Barrientos</t>
+          <t>Inversiones y Comercial Southern World SpA</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>650</v>
+        <v>30400</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>22/12/2021</t>
+          <t>30/05/2022</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2154450586&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155928380&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -664,7 +664,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Condominio Rahue</t>
+          <t>?Ampliación Superficie Planta de Disposición Final de Residuos Biológicos No Peligrosos Industriales ECOPRIAL? Región de Los Lagos</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -679,25 +679,25 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Constructora Pacal S.A.</t>
+          <t>Raul Albrecht Barrientos</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>8586</v>
+        <v>650</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>10/05/2021</t>
+          <t>22/12/2021</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151757396&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2154450586&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -712,7 +712,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>BALNEARIO FLUVIAL RÍO DAMAS</t>
+          <t>Condominio Rahue</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -727,25 +727,25 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Inversiones y Comercial Southern World SpA</t>
+          <t>Constructora Pacal S.A.</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>30400</v>
+        <v>8586</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>09/03/2021</t>
+          <t>10/05/2021</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151031299&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151757396&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -760,7 +760,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>AUMENTO DE PRODUCCIÓN Y RIEGO DE EFLUENTES PLANTA MAFRISUR</t>
+          <t>BALNEARIO FLUVIAL RÍO DAMAS</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -775,25 +775,25 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>MATADERO FRIGORIFICO DEL SUR S.A.</t>
+          <t>Inversiones y Comercial Southern World SpA</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2500</v>
+        <v>30400</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>21/01/2021</t>
+          <t>09/03/2021</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2149382147&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151031299&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -808,7 +808,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>ADECUACIÓN OPERATIVA Y AMPLIACIÓN DE LA PLANTA DE ASESORÍAS LOS OLIVOS?</t>
+          <t>AUMENTO DE PRODUCCIÓN Y RIEGO DE EFLUENTES PLANTA MAFRISUR</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -823,25 +823,25 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Asesoría Los Olivos S.A</t>
+          <t>MATADERO FRIGORIFICO DEL SUR S.A.</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>650</v>
+        <v>2500</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>21/10/2020</t>
+          <t>21/01/2021</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2148752277&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2149382147&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -856,7 +856,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>PRP Las Quemas</t>
+          <t>ADECUACIÓN OPERATIVA Y AMPLIACIÓN DE LA PLANTA DE ASESORÍAS LOS OLIVOS?</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -871,25 +871,25 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Francisco De Paula Luis Herrera Fernandez-figares</t>
+          <t>Asesoría Los Olivos S.A</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>3145</v>
+        <v>650</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>17/01/2020</t>
+          <t>21/10/2020</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145388872&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2148752277&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -904,7 +904,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Ampliación de la Actividad de Transporte de Sustancias Peligrosas de ENAEX Servicios S.A.</t>
+          <t>PRP Las Quemas</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -914,20 +914,20 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Enaex Servicios S.A.</t>
+          <t>Francisco De Paula Luis Herrera Fernandez-figares</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>25000</v>
+        <v>3145</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>07/01/2020</t>
+          <t>17/01/2020</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -937,7 +937,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145325740&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145388872&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -952,7 +952,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Desarrollo Inmobiliario Macro Pilauco II, Etapa 2</t>
+          <t>Ampliación de la Actividad de Transporte de Sustancias Peligrosas de ENAEX Servicios S.A.</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -962,20 +962,20 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Galilea de Ingeniería y Construcción</t>
+          <t>Enaex Servicios S.A.</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>68620</v>
+        <v>25000</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>30/12/2019</t>
+          <t>07/01/2020</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -985,7 +985,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145296018&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145325740&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1000,7 +1000,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>PRP LAS QUEMAS</t>
+          <t>Desarrollo Inmobiliario Macro Pilauco II, Etapa 2</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1015,25 +1015,25 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Francisco De Paula Luis Herrera Fernandez-figares</t>
+          <t>Galilea de Ingeniería y Construcción</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>3145</v>
+        <v>68620</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>19/12/2019</t>
+          <t>30/12/2019</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145236028&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145296018&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1048,7 +1048,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Hacienda Las Quemas</t>
+          <t>PRP LAS QUEMAS</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1063,25 +1063,25 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Inmobiliaria Zenteno SpA</t>
+          <t>Francisco De Paula Luis Herrera Fernandez-figares</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>47000</v>
+        <v>3145</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>25/09/2019</t>
+          <t>19/12/2019</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2144245146&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145236028&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1096,7 +1096,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Proyecto Habitacional Lote 2 - Zanjones</t>
+          <t>Hacienda Las Quemas</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1111,15 +1111,15 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>SERVIU Región de Los Lagos</t>
+          <t>Inmobiliaria Zenteno SpA</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>481</v>
+        <v>47000</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>28/05/2019</t>
+          <t>25/09/2019</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -1129,7 +1129,7 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143277820&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2144245146&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1144,7 +1144,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Planta Pichil Alimento Bovino</t>
+          <t>Proyecto Habitacional Lote 2 - Zanjones</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1159,15 +1159,15 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Alimentos Concentrados Cisternas Ltda</t>
+          <t>SERVIU Región de Los Lagos</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>8000</v>
+        <v>481</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>31/07/2018</t>
+          <t>28/05/2019</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -1177,7 +1177,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2140878185&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143277820&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1192,7 +1192,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>DESARROLLO INMOBILIARIO MACRO PILAUCO II, ETAPA 1 LOTE A</t>
+          <t>Planta Pichil Alimento Bovino</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1207,15 +1207,15 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Galilea de Ingeniería y Construcción</t>
+          <t>Alimentos Concentrados Cisternas Ltda</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>14500</v>
+        <v>8000</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>21/08/2017</t>
+          <t>31/07/2018</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -1225,7 +1225,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132606168&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2140878185&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1240,30 +1240,30 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Sistema de Transmisión S/E Pichirropulli - S/E Tineo</t>
+          <t>DESARROLLO INMOBILIARIO MACRO PILAUCO II, ETAPA 1 LOTE A</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>TRANSELEC CONCESIONES S.A.</t>
+          <t>Galilea de Ingeniería y Construcción</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>82000</v>
+        <v>14500</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>08/06/2017</t>
+          <t>21/08/2017</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -1273,7 +1273,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132447295&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132606168&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1288,30 +1288,30 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Proyecto La Misión</t>
+          <t>Sistema de Transmisión S/E Pichirropulli - S/E Tineo</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Sistema de Transmisión del Sur SA</t>
+          <t>TRANSELEC CONCESIONES S.A.</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>19299</v>
+        <v>82000</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>19/01/2017</t>
+          <t>08/06/2017</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -1321,7 +1321,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132100181&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132447295&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1336,7 +1336,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Optimización Productiva de la Piscicultura Santa Juana</t>
+          <t>Proyecto La Misión</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1351,15 +1351,15 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Cermaq Chile S.A.</t>
+          <t>Sistema de Transmisión del Sur SA</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>400</v>
+        <v>19299</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>06/12/2016</t>
+          <t>19/01/2017</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -1369,7 +1369,7 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131979220&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132100181&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1384,7 +1384,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Ampliación Transporte Terrestre de Sustancias Químicas</t>
+          <t>Optimización Productiva de la Piscicultura Santa Juana</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1394,20 +1394,20 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
+          <t>Cermaq Chile S.A.</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>10000</v>
+        <v>400</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>22/08/2016</t>
+          <t>06/12/2016</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -1417,7 +1417,7 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131697972&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131979220&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1432,7 +1432,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>DECLARACION DE IMPACTO AMBIENTAL LOTEO HABITACIONAL D.F.L.2, MACRO PILAUCO II</t>
+          <t>Ampliación Transporte Terrestre de Sustancias Químicas</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1442,30 +1442,30 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Galilea de Ingeniería y Construcción</t>
+          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>72470</v>
+        <v>10000</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>12/08/2016</t>
+          <t>22/08/2016</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131467206&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131697972&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1480,7 +1480,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Riego de riles Planta Mulpulmo</t>
+          <t>DECLARACION DE IMPACTO AMBIENTAL LOTEO HABITACIONAL D.F.L.2, MACRO PILAUCO II</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1495,25 +1495,25 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Lácteos del Sur S.A.</t>
+          <t>Galilea de Ingeniería y Construcción</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>90</v>
+        <v>72470</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>03/06/2016</t>
+          <t>12/08/2016</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131404162&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131467206&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1528,7 +1528,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Compostaje y Vermicompostaje Residuos Sólidos Orgánicos. Sector Barro Blanco. Comuna de Osorno.</t>
+          <t>Riego de riles Planta Mulpulmo</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1543,25 +1543,25 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Frigorífico de osorno S.A.</t>
+          <t>Lácteos del Sur S.A.</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>500</v>
+        <v>90</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>17/09/2015</t>
+          <t>03/06/2016</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130760880&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131404162&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1576,7 +1576,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Bodega para Almacenamiento de Sustancias Peligrosas - Sucursal Osorno</t>
+          <t>Compostaje y Vermicompostaje Residuos Sólidos Orgánicos. Sector Barro Blanco. Comuna de Osorno.</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1591,25 +1591,25 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>ANASAC CHILE S.A.</t>
+          <t>Frigorífico de osorno S.A.</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>193</v>
+        <v>500</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>05/05/2015</t>
+          <t>17/09/2015</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130426799&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130760880&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1624,7 +1624,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Proyecto Centro de Agroturismo El Mirador</t>
+          <t>Bodega para Almacenamiento de Sustancias Peligrosas - Sucursal Osorno</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1639,15 +1639,15 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Sociedad de Agroturismo El Mirador Limitada</t>
+          <t>ANASAC CHILE S.A.</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>500</v>
+        <v>193</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>19/03/2015</t>
+          <t>05/05/2015</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
@@ -1657,7 +1657,7 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130315339&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130426799&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -1687,7 +1687,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Lucia Adriana Kyling Montecino</t>
+          <t>Sociedad de Agroturismo El Mirador Limitada</t>
         </is>
       </c>
       <c r="F28" t="n">
@@ -1695,17 +1695,17 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>09/03/2015</t>
+          <t>19/03/2015</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130308568&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130315339&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -1720,7 +1720,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Tratamiento de Residuos Especiales e Industriales a Través de Incineración, Osorno.</t>
+          <t>Proyecto Centro de Agroturismo El Mirador</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1735,25 +1735,25 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Inversiones Las Higueras Limitada</t>
+          <t>Lucia Adriana Kyling Montecino</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>1500</v>
+        <v>500</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>19/02/2015</t>
+          <t>09/03/2015</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130221119&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130308568&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -1768,7 +1768,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
+          <t>Tratamiento de Residuos Especiales e Industriales a Través de Incineración, Osorno.</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1778,30 +1778,30 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>Inversiones Las Higueras Limitada</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>5000</v>
+        <v>1500</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>26/01/2015</t>
+          <t>19/02/2015</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130159203&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130221119&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos y no Peligrosos entre las Regiones XV y X</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1839,7 +1839,7 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>26/12/2014</t>
+          <t>26/01/2015</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
@@ -1849,7 +1849,7 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076569&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130159203&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -1864,7 +1864,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
+          <t>Transporte Terrestre de Residuos Peligrosos y no Peligrosos entre las Regiones XV y X</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1887,7 +1887,7 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>20/11/2014</t>
+          <t>26/12/2014</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
@@ -1897,7 +1897,7 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129965016&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076569&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -1912,7 +1912,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>"AMPLIACION DE RUTAS PARA TRANSPORTE TERRESTRE DE RESIDUOS Y SUSTANCIAS PELIGROSAS A GRANEL DESDE LA I A LA X REGIÓN TRANSPORTES TRANSVER LTDA"</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1927,15 +1927,15 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Transportes Transver Ltda.</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>17/11/2014</t>
+          <t>20/11/2014</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
@@ -1945,7 +1945,7 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129535685&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129965016&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -1960,7 +1960,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Modificación Transporte y Logística Interregional de Cargas y/o Sustancias Peligrosas.</t>
+          <t>"AMPLIACION DE RUTAS PARA TRANSPORTE TERRESTRE DE RESIDUOS Y SUSTANCIAS PELIGROSAS A GRANEL DESDE LA I A LA X REGIÓN TRANSPORTES TRANSVER LTDA"</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1975,25 +1975,25 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
+          <t>Transportes Transver Ltda.</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>6750</v>
+        <v>0</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>13/11/2014</t>
+          <t>17/11/2014</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129725840&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129535685&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -2008,7 +2008,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
+          <t>Modificación Transporte y Logística Interregional de Cargas y/o Sustancias Peligrosas.</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2023,25 +2023,25 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>5000</v>
+        <v>6750</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>05/11/2014</t>
+          <t>13/11/2014</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129895680&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129725840&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -2056,7 +2056,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos y No Peligrosos entre las Regiones XV y X</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2079,7 +2079,7 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>30/06/2014</t>
+          <t>05/11/2014</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
@@ -2089,7 +2089,7 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129237859&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129895680&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -2104,7 +2104,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Extracción de áridos en pozo Jauregui</t>
+          <t>Transporte Terrestre de Residuos Peligrosos y No Peligrosos entre las Regiones XV y X</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -2114,20 +2114,20 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Juan Carlos Jauregui Hidalgo</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>400</v>
+        <v>5000</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>22/01/2014</t>
+          <t>30/06/2014</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
@@ -2137,7 +2137,7 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129115711&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129237859&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -2152,7 +2152,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Extracción de áridos en pozo Jauregui</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2162,30 +2162,30 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>Juan Carlos Jauregui Hidalgo</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>1200</v>
+        <v>400</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>23/12/2013</t>
+          <t>22/01/2014</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129115711&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -2200,7 +2200,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Extracción de áridos en Pozo Jauregui</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2210,30 +2210,30 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Juan Carlos Jauregui Hidalgo</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>400</v>
+        <v>1200</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>09/12/2013</t>
+          <t>23/12/2013</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128899538&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -2248,7 +2248,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos y no peligrosos entre las Regiones XV y X</t>
+          <t>Extracción de áridos en Pozo Jauregui</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2258,20 +2258,20 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>Juan Carlos Jauregui Hidalgo</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>5000</v>
+        <v>400</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>08/11/2013</t>
+          <t>09/12/2013</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
@@ -2281,7 +2281,7 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128788354&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128899538&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -2296,7 +2296,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Empréstito Los Melíes, Comuna de Osorno, Región de Los Lagos</t>
+          <t>Transporte Terrestre de Residuos Peligrosos y no peligrosos entre las Regiones XV y X</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2306,30 +2306,30 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Dragados S.A. Agencia en Chile</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>543</v>
+        <v>5000</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>07/11/2013</t>
+          <t>08/11/2013</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128789901&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128788354&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -2344,7 +2344,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Declaración de impacto ambiental "Modificación del Manejo de la mortalidad mediante sistema de ensilaje en Piscicultura Santa Juana"</t>
+          <t>Empréstito Los Melíes, Comuna de Osorno, Región de Los Lagos</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2359,15 +2359,15 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Cermaq Chile S.A.</t>
+          <t>Dragados S.A. Agencia en Chile</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>1</v>
+        <v>543</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>15/07/2013</t>
+          <t>07/11/2013</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
@@ -2377,7 +2377,7 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8355513&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128789901&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -2392,7 +2392,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>REGULARIZACIÓN DEL TRANSPORTE DE SUSTANCIAS PELIGROSAS TREXVAL S.A.</t>
+          <t>Declaración de impacto ambiental "Modificación del Manejo de la mortalidad mediante sistema de ensilaje en Piscicultura Santa Juana"</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2402,20 +2402,20 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Trexval S.A.</t>
+          <t>Cermaq Chile S.A.</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>21/06/2013</t>
+          <t>15/07/2013</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
@@ -2425,7 +2425,7 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8280859&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8355513&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -2440,7 +2440,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Regularización Transporte de Sustancias Peligrosas TREXVAL S.A.</t>
+          <t>REGULARIZACIÓN DEL TRANSPORTE DE SUSTANCIAS PELIGROSAS TREXVAL S.A.</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2463,17 +2463,17 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>06/06/2013</t>
+          <t>21/06/2013</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8227033&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8280859&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -2488,7 +2488,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Mejoramiento Tecnológico Planta Watts Osorno</t>
+          <t>Regularización Transporte de Sustancias Peligrosas TREXVAL S.A.</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2498,30 +2498,30 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Watts S.A.</t>
+          <t>Trexval S.A.</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>7751</v>
+        <v>0</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>23/05/2013</t>
+          <t>06/06/2013</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8187978&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8227033&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -2536,7 +2536,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>"Riego en pradera con efluentes tratados de RILes lácteos".</t>
+          <t>Mejoramiento Tecnológico Planta Watts Osorno</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2551,25 +2551,25 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Industrias Valle Verde S.A.</t>
+          <t>Watts S.A.</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>7751</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>16/05/2013</t>
+          <t>23/05/2013</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8172032&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8187978&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -2584,7 +2584,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Transporte de residuos No Peligrosos, Peligrosos y Especiales entre la XV región y la X región</t>
+          <t>"Riego en pradera con efluentes tratados de RILes lácteos".</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2594,20 +2594,20 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Industrias Valle Verde S.A.</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>10/05/2013</t>
+          <t>16/05/2013</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
@@ -2617,7 +2617,7 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158912&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8172032&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -2632,7 +2632,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas TREXVAL S.A.</t>
+          <t>Transporte de residuos No Peligrosos, Peligrosos y Especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2647,15 +2647,15 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Mauricio Salím Mahmud Vergara</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>2500</v>
+        <v>250</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>06/05/2013</t>
+          <t>10/05/2013</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
@@ -2665,7 +2665,7 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8126996&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158912&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -2695,25 +2695,25 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Trexval S.A.</t>
+          <t>Mauricio Salím Mahmud Vergara</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>2475</v>
+        <v>2500</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>17/04/2013</t>
+          <t>06/05/2013</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8057600&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8126996&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -2728,7 +2728,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>Transporte de Sustancias Peligrosas TREXVAL S.A.</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2743,15 +2743,15 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Trexval S.A.</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>250</v>
+        <v>2475</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>15/04/2013</t>
+          <t>17/04/2013</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
@@ -2761,7 +2761,7 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8063600&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8057600&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -2799,7 +2799,7 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>19/03/2013</t>
+          <t>15/04/2013</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
@@ -2809,7 +2809,7 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7961483&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8063600&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -2824,7 +2824,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Ampliación de extracción de áridos en el río Rahue sector fundo el Almud - San Florentino</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2834,30 +2834,30 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>ARIDOS DOWLING &amp; SCHILLING S.A</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>7000</v>
+        <v>250</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>18/03/2013</t>
+          <t>19/03/2013</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7972056&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7961483&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -2872,7 +2872,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>"PISCICULTURA TRAFUN, COMUNA DE SAN PABLO, PROVINCIA DE OSORNO, DÉCIMA REGIÓN DE LOS LAGOS"</t>
+          <t>Ampliación de extracción de áridos en el río Rahue sector fundo el Almud - San Florentino</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2887,15 +2887,15 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Mainstream Chile S.A.</t>
+          <t>ARIDOS DOWLING &amp; SCHILLING S.A</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>31/12/2012</t>
+          <t>18/03/2013</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
@@ -2905,7 +2905,7 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7715692&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7972056&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -2920,7 +2920,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN A LA DECLARACIÓN DE IMPACTO AMBIENTAL PISCICULTURA EL VENADO</t>
+          <t>"PISCICULTURA TRAFUN, COMUNA DE SAN PABLO, PROVINCIA DE OSORNO, DÉCIMA REGIÓN DE LOS LAGOS"</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2935,15 +2935,15 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Sociedad Agrícola Covarrubias Fernández Ltda.</t>
+          <t>Mainstream Chile S.A.</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>2500</v>
+        <v>6000</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>22/11/2012</t>
+          <t>31/12/2012</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
@@ -2953,7 +2953,7 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7555686&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7715692&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -2968,7 +2968,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Ampliación de extracción de áridos en Pozo Jauregui</t>
+          <t>MODIFICACIÓN A LA DECLARACIÓN DE IMPACTO AMBIENTAL PISCICULTURA EL VENADO</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2983,11 +2983,11 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Juan Carlos Jauregui Hidalgo</t>
+          <t>Sociedad Agrícola Covarrubias Fernández Ltda.</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>500</v>
+        <v>2500</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
@@ -2996,12 +2996,12 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7547676&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7555686&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -3016,7 +3016,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>MODIFICACION A LA DECLARACION DE IMPACTO AMBIENTAL PISCICULTURA EL VENADO</t>
+          <t>Ampliación de extracción de áridos en Pozo Jauregui</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3031,25 +3031,25 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Sociedad Agrícola Covarrubias Fernández Ltda.</t>
+          <t>Juan Carlos Jauregui Hidalgo</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>2500</v>
+        <v>500</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>12/11/2012</t>
+          <t>22/11/2012</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7509459&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7547676&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -3064,7 +3064,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN A LA DECLARACIÓN DE IMPACTO AMBIENTAL PISCICULTURA EL VENADO COMUNA DE OSORNO.</t>
+          <t>MODIFICACION A LA DECLARACION DE IMPACTO AMBIENTAL PISCICULTURA EL VENADO</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -3087,7 +3087,7 @@
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>17/10/2012</t>
+          <t>12/11/2012</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
@@ -3097,7 +3097,7 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7352039&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7509459&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -3112,7 +3112,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Ampliación Piscicultura Cancura</t>
+          <t>MODIFICACIÓN A LA DECLARACIÓN DE IMPACTO AMBIENTAL PISCICULTURA EL VENADO COMUNA DE OSORNO.</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -3127,25 +3127,25 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Cermaq Chile S.A.</t>
+          <t>Sociedad Agrícola Covarrubias Fernández Ltda.</t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>4000</v>
+        <v>2500</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>27/07/2012</t>
+          <t>17/10/2012</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6858091&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7352039&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -3160,7 +3160,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
+          <t>Ampliación Piscicultura Cancura</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -3170,30 +3170,30 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>KDM SERVICIOS S.A.</t>
+          <t>Cermaq Chile S.A.</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>16/05/2012</t>
+          <t>27/07/2012</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6888046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6858091&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -3208,7 +3208,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Planta de destilacion de gases del aire</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -3218,30 +3218,30 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>GASES DEL SUR SOCIEDAD LIMITADA</t>
+          <t>KDM SERVICIOS S.A.</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>1000</v>
+        <v>5000</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>11/05/2012</t>
+          <t>16/05/2012</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6913953&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6888046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -3256,7 +3256,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos Interregional</t>
+          <t>Planta de destilacion de gases del aire</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -3266,30 +3266,30 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Jorge Andrés Torres Hidalgo</t>
+          <t>GASES DEL SUR SOCIEDAD LIMITADA</t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>23/04/2012</t>
+          <t>11/05/2012</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6852559&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6913953&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -3304,7 +3304,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
+          <t>Transporte de Residuos Peligrosos Interregional</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3319,25 +3319,25 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Jorge Andrés Torres Hidalgo</t>
         </is>
       </c>
       <c r="F62" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>20/02/2012</t>
+          <t>23/04/2012</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6852559&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -3352,7 +3352,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>AUTOGENERACION ELECTRICA PROLESUR</t>
+          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -3362,30 +3362,30 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Prolesur S.A.</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>13/02/2012</t>
+          <t>20/02/2012</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6601064&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -3415,7 +3415,7 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Sociedad Productores de Leche S.A.</t>
+          <t>Prolesur S.A.</t>
         </is>
       </c>
       <c r="F64" t="n">
@@ -3423,17 +3423,17 @@
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>19/01/2012</t>
+          <t>13/02/2012</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6474722&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6601064&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -3448,7 +3448,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>S/E Seccionadora Rahue 220 kV</t>
+          <t>AUTOGENERACION ELECTRICA PROLESUR</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -3463,25 +3463,25 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A...</t>
+          <t>Sociedad Productores de Leche S.A.</t>
         </is>
       </c>
       <c r="F65" t="n">
-        <v>14000</v>
+        <v>1000</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>18/01/2012</t>
+          <t>19/01/2012</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6504250&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6474722&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -3496,7 +3496,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Quimicas entre XV y X region .</t>
+          <t>S/E Seccionadora Rahue 220 kV</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -3506,30 +3506,30 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>TRANSELEC S.A...</t>
         </is>
       </c>
       <c r="F66" t="n">
-        <v>1000</v>
+        <v>14000</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>11/01/2012</t>
+          <t>18/01/2012</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6435815&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6504250&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -3544,7 +3544,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>Transporte de Sustancias Quimicas entre XV y X region .</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -3559,15 +3559,15 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F67" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>10/01/2012</t>
+          <t>11/01/2012</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
@@ -3577,7 +3577,7 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6435815&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
@@ -3592,7 +3592,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Plan de cierre Ex basural de Ovejería de osorno</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3602,30 +3602,30 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Osorno</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F68" t="n">
-        <v>1700</v>
+        <v>100</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>02/01/2012</t>
+          <t>10/01/2012</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6239097&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -3640,7 +3640,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Línea de Transmisión 66 kV Pilauco-Pichil</t>
+          <t>Plan de cierre Ex basural de Ovejería de osorno</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3655,15 +3655,15 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Sistema de Transmisión del Sur SA</t>
+          <t>Ilustre Municipalidad de Osorno</t>
         </is>
       </c>
       <c r="F69" t="n">
-        <v>1967</v>
+        <v>1700</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>01/12/2011</t>
+          <t>02/01/2012</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
@@ -3673,7 +3673,7 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6334231&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6239097&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -3688,7 +3688,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Transportes de Sustancias Quimicas entre la XV y la X region</t>
+          <t>Línea de Transmisión 66 kV Pilauco-Pichil</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -3698,30 +3698,30 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Sistema de Transmisión del Sur SA</t>
         </is>
       </c>
       <c r="F70" t="n">
-        <v>1000</v>
+        <v>1967</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>21/11/2011</t>
+          <t>01/12/2011</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6291084&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6334231&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -3736,7 +3736,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Transporte de residuos peligrosos y no peligrosos</t>
+          <t>Transportes de Sustancias Quimicas entre la XV y la X region</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -3751,15 +3751,15 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Fernando Luciano Huerta Tello</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F71" t="n">
-        <v>319</v>
+        <v>1000</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>04/10/2011</t>
+          <t>21/11/2011</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
@@ -3769,7 +3769,7 @@
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5958795&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6291084&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -3784,7 +3784,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>TAP OFF PICHIRREHUE</t>
+          <t>Transporte de residuos peligrosos y no peligrosos</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -3794,30 +3794,30 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Empresa Eléctrica Pilmaiquén S.A.</t>
+          <t>Fernando Luciano Huerta Tello</t>
         </is>
       </c>
       <c r="F72" t="n">
-        <v>19800</v>
+        <v>319</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>01/06/2011</t>
+          <t>04/10/2011</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5675930&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5958795&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -3832,7 +3832,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE EXTRACCIÓN DE ÁRIDOS RÍO RAHUE SECTOR CANCURA</t>
+          <t>TAP OFF PICHIRREHUE</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -3847,15 +3847,15 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>ARIDOS DOWLING &amp; SCHILLING S.A</t>
+          <t>Empresa Eléctrica Pilmaiquén S.A.</t>
         </is>
       </c>
       <c r="F73" t="n">
-        <v>1500</v>
+        <v>19800</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>25/05/2011</t>
+          <t>01/06/2011</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
@@ -3865,7 +3865,7 @@
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5626276&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5675930&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -3880,7 +3880,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Ampliación de rutas para el servicio de transporte, reciclaje y gestión de residuos industriales .</t>
+          <t>AMPLIACIÓN DE EXTRACCIÓN DE ÁRIDOS RÍO RAHUE SECTOR CANCURA</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -3890,20 +3890,20 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Gestión Ambiental Limitada</t>
+          <t>ARIDOS DOWLING &amp; SCHILLING S.A</t>
         </is>
       </c>
       <c r="F74" t="n">
-        <v>250</v>
+        <v>1500</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>27/04/2011</t>
+          <t>25/05/2011</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
@@ -3913,7 +3913,7 @@
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5540550&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5626276&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
@@ -3928,7 +3928,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Piscicultura El Encanto</t>
+          <t>Ampliación de rutas para el servicio de transporte, reciclaje y gestión de residuos industriales .</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3938,30 +3938,30 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Congelados Pacífico S.A.</t>
+          <t>Gestión Ambiental Limitada</t>
         </is>
       </c>
       <c r="F75" t="n">
-        <v>8500</v>
+        <v>250</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>19/04/2011</t>
+          <t>27/04/2011</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5435529&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5540550&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -3976,7 +3976,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Ampliacion de rutas para el transporte, reciclaje y gestión de residuos industriales. .</t>
+          <t>Piscicultura El Encanto</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -3986,30 +3986,30 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Gestión Ambiental Limitada</t>
+          <t>Congelados Pacífico S.A.</t>
         </is>
       </c>
       <c r="F76" t="n">
-        <v>250</v>
+        <v>8500</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>15/04/2011</t>
+          <t>19/04/2011</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5532880&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5435529&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -4024,7 +4024,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Mejoramiento y Ampliación de Producción Piscicultura Rupanquito</t>
+          <t>Ampliacion de rutas para el transporte, reciclaje y gestión de residuos industriales. .</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -4034,30 +4034,30 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Salmones Antártica S.A</t>
+          <t>Gestión Ambiental Limitada</t>
         </is>
       </c>
       <c r="F77" t="n">
-        <v>1500</v>
+        <v>250</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>08/03/2011</t>
+          <t>15/04/2011</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5425000&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5532880&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -4072,7 +4072,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Subestación Pilauco 220/66 kV</t>
+          <t>Mejoramiento y Ampliación de Producción Piscicultura Rupanquito</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -4087,15 +4087,15 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Sistema de Transmisión del Sur SA</t>
+          <t>Salmones Antártica S.A</t>
         </is>
       </c>
       <c r="F78" t="n">
-        <v>14800</v>
+        <v>1500</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>18/02/2011</t>
+          <t>08/03/2011</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
@@ -4105,7 +4105,7 @@
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5359373&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5425000&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -4120,7 +4120,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Modificación al Manejo de Mortalidad Mediante Sistema de Ensilaje. Piscicultura Las Quemas, Río Rahue, Comuna de Osorno.</t>
+          <t>Subestación Pilauco 220/66 kV</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -4135,15 +4135,15 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Piscicultura Las Quemas Chile S.A.</t>
+          <t>Sistema de Transmisión del Sur SA</t>
         </is>
       </c>
       <c r="F79" t="n">
-        <v>4</v>
+        <v>14800</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>04/02/2011</t>
+          <t>18/02/2011</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
@@ -4153,7 +4153,7 @@
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5317523&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5359373&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
@@ -4168,7 +4168,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>MEJORAMIENTO PLANTA DE DISPOSICIÓN FINAL DE RESIDUOS INDUSTRIALES ECOPRIAL</t>
+          <t>Modificación al Manejo de Mortalidad Mediante Sistema de Ensilaje. Piscicultura Las Quemas, Río Rahue, Comuna de Osorno.</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -4183,15 +4183,15 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Asesoría Los Olivos S.A</t>
+          <t>Piscicultura Las Quemas Chile S.A.</t>
         </is>
       </c>
       <c r="F80" t="n">
-        <v>500</v>
+        <v>4</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>27/01/2011</t>
+          <t>04/02/2011</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
@@ -4201,7 +4201,7 @@
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5285248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5317523&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
@@ -4239,17 +4239,17 @@
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>17/01/2011</t>
+          <t>27/01/2011</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5248742&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5285248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
@@ -4264,7 +4264,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Piscicultura El Venado</t>
+          <t>MEJORAMIENTO PLANTA DE DISPOSICIÓN FINAL DE RESIDUOS INDUSTRIALES ECOPRIAL</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -4279,25 +4279,25 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Sociedad Agrícola Covarrubias Fernández Ltda.</t>
+          <t>Asesoría Los Olivos S.A</t>
         </is>
       </c>
       <c r="F82" t="n">
-        <v>8000</v>
+        <v>500</v>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>19/10/2010</t>
+          <t>17/01/2011</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5012986&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5248742&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
@@ -4312,7 +4312,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>PROYECTO AMPLIACION EXTRACCION DE ARIDOS EN RIO RAHUE SECTOR FUNDO EL ALMUD</t>
+          <t>Piscicultura El Venado</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -4327,15 +4327,15 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>ARIDOS DOWLING &amp; SCHILLING S.A</t>
+          <t>Sociedad Agrícola Covarrubias Fernández Ltda.</t>
         </is>
       </c>
       <c r="F83" t="n">
-        <v>250</v>
+        <v>8000</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>08/10/2010</t>
+          <t>19/10/2010</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
@@ -4345,7 +4345,7 @@
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4992265&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5012986&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -4360,7 +4360,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS</t>
+          <t>PROYECTO AMPLIACION EXTRACCION DE ARIDOS EN RIO RAHUE SECTOR FUNDO EL ALMUD</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -4370,30 +4370,30 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Sociedad Logística Ambiental Ltda.</t>
+          <t>ARIDOS DOWLING &amp; SCHILLING S.A</t>
         </is>
       </c>
       <c r="F84" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>24/06/2010</t>
+          <t>08/10/2010</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4702856&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4992265&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
@@ -4408,7 +4408,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>SISTEMA DE ENSILAJE DE MORTALIDAD PISCICULTURA PICHICHANLELFU</t>
+          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -4418,30 +4418,30 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Mowi Chile S.A</t>
+          <t>Sociedad Logística Ambiental Ltda.</t>
         </is>
       </c>
       <c r="F85" t="n">
-        <v>50</v>
+        <v>300</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>06/05/2010</t>
+          <t>24/06/2010</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4552129&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4702856&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
@@ -4456,7 +4456,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Piscicultura El Venado</t>
+          <t>SISTEMA DE ENSILAJE DE MORTALIDAD PISCICULTURA PICHICHANLELFU</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -4471,25 +4471,25 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Sociedad Agrícola Covarrubias Fernández Ltda.</t>
+          <t>Mowi Chile S.A</t>
         </is>
       </c>
       <c r="F86" t="n">
-        <v>8000</v>
+        <v>50</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>04/05/2010</t>
+          <t>06/05/2010</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4492153&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4552129&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
@@ -4504,7 +4504,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
+          <t>Piscicultura El Venado</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -4514,30 +4514,30 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Sociedad Agrícola Covarrubias Fernández Ltda.</t>
         </is>
       </c>
       <c r="F87" t="n">
-        <v>250</v>
+        <v>8000</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>26/04/2010</t>
+          <t>04/05/2010</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4509429&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4492153&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
@@ -4552,7 +4552,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>BODEGA PARA EL ALMACENAMIENTO TRANSITORIO DE RESIDUOS INDUSTRIALES DE TERCEROS, ECOPRIAL</t>
+          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -4562,20 +4562,20 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Asesoría Los Olivos S.A</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F88" t="n">
-        <v>286</v>
+        <v>250</v>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>21/04/2010</t>
+          <t>26/04/2010</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
@@ -4585,7 +4585,7 @@
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4522528&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4509429&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
@@ -4600,7 +4600,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
+          <t>BODEGA PARA EL ALMACENAMIENTO TRANSITORIO DE RESIDUOS INDUSTRIALES DE TERCEROS, ECOPRIAL</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -4610,30 +4610,30 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Asesoría Los Olivos S.A</t>
         </is>
       </c>
       <c r="F89" t="n">
-        <v>250</v>
+        <v>286</v>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>10/02/2010</t>
+          <t>21/04/2010</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4352324&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4522528&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
@@ -4648,7 +4648,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -4663,15 +4663,15 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F90" t="n">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>22/01/2010</t>
+          <t>10/02/2010</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
@@ -4681,7 +4681,7 @@
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4352324&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -4696,7 +4696,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -4711,7 +4711,7 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F91" t="n">
@@ -4724,12 +4724,12 @@
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
@@ -4767,17 +4767,17 @@
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>15/01/2010</t>
+          <t>22/01/2010</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
@@ -4792,7 +4792,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Línea de Alta Tensión Antillanca - Nueva Barro Blanco (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -4802,30 +4802,30 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>Sistema de Transmisión del Sur SA</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F93" t="n">
-        <v>8000</v>
+        <v>0</v>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>22/12/2009</t>
+          <t>15/01/2010</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4270514&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
@@ -4840,7 +4840,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS (e-seia)</t>
+          <t>Línea de Alta Tensión Antillanca - Nueva Barro Blanco (e-seia)</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -4850,30 +4850,30 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>Sociedad Logística Ambiental Ltda.</t>
+          <t>Sistema de Transmisión del Sur SA</t>
         </is>
       </c>
       <c r="F94" t="n">
-        <v>0</v>
+        <v>8000</v>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>30/11/2009</t>
+          <t>22/12/2009</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4224783&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4270514&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
@@ -4888,7 +4888,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Subestación Nueva Barro Blanco 220/66 kV (e-seia)</t>
+          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -4898,30 +4898,30 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>Sistema de Transmisión del Sur SA</t>
+          <t>Sociedad Logística Ambiental Ltda.</t>
         </is>
       </c>
       <c r="F95" t="n">
-        <v>14800</v>
+        <v>0</v>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>26/11/2009</t>
+          <t>30/11/2009</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4215834&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4224783&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
@@ -4936,7 +4936,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Regularización disposición final efluente Inmobiliaria Ferias Unidas de Osorno Limitada. Comuna de Osorno. Provincia de Osorno. Región de los Lagos. (e-seia)</t>
+          <t>Subestación Nueva Barro Blanco 220/66 kV (e-seia)</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -4951,15 +4951,15 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Sociedad Inmobiliaria Ferias Unidas de Osorno Limitada</t>
+          <t>Sistema de Transmisión del Sur SA</t>
         </is>
       </c>
       <c r="F96" t="n">
-        <v>27</v>
+        <v>14800</v>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>12/11/2009</t>
+          <t>26/11/2009</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
@@ -4969,7 +4969,7 @@
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4185561&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4215834&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
@@ -4984,7 +4984,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>ESTUDIO Y DISEÑO PLAN DE CIERRE VERTEDERO COMUNA DE OSORNO (e-seia)</t>
+          <t>Regularización disposición final efluente Inmobiliaria Ferias Unidas de Osorno Limitada. Comuna de Osorno. Provincia de Osorno. Región de los Lagos. (e-seia)</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -4999,15 +4999,15 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Osorno</t>
+          <t>Sociedad Inmobiliaria Ferias Unidas de Osorno Limitada</t>
         </is>
       </c>
       <c r="F97" t="n">
-        <v>3400</v>
+        <v>27</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>23/10/2009</t>
+          <t>12/11/2009</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
@@ -5017,7 +5017,7 @@
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4139027&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4185561&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
@@ -5032,7 +5032,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Transporte Inter-Regional Terrestre de Residuos, PROCESAN S.A. (e-seia)</t>
+          <t>ESTUDIO Y DISEÑO PLAN DE CIERRE VERTEDERO COMUNA DE OSORNO (e-seia)</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -5042,16 +5042,16 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>PROCESAN S.A.</t>
+          <t>Ilustre Municipalidad de Osorno</t>
         </is>
       </c>
       <c r="F98" t="n">
-        <v>377</v>
+        <v>3400</v>
       </c>
       <c r="G98" t="inlineStr">
         <is>
@@ -5060,12 +5060,12 @@
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4134794&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4139027&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
@@ -5080,7 +5080,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Incorporación de etapa fisicoquímica al sistema de tratamiento de RILes de MAFRISUR S.A. (e-seia)</t>
+          <t>Transporte Inter-Regional Terrestre de Residuos, PROCESAN S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -5090,30 +5090,30 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>MAFRISUR S.A.</t>
+          <t>PROCESAN S.A.</t>
         </is>
       </c>
       <c r="F99" t="n">
-        <v>10</v>
+        <v>377</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>29/09/2009</t>
+          <t>23/10/2009</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4085084&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4134794&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
@@ -5128,7 +5128,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos CMR Norte. (e-seia)</t>
+          <t>Incorporación de etapa fisicoquímica al sistema de tratamiento de RILes de MAFRISUR S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -5138,30 +5138,30 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>MAFRISUR S.A.</t>
         </is>
       </c>
       <c r="F100" t="n">
-        <v>250</v>
+        <v>10</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>18/08/2009</t>
+          <t>29/09/2009</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3960661&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4085084&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
@@ -5176,7 +5176,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Transporte de Combustibles y Residuos Industriales, Peligrosos y No Peligrosos entre Arica y Puerto Montt (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos CMR Norte. (e-seia)</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -5191,15 +5191,15 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>Transportes Centro Sur Norte S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F101" t="n">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>27/07/2009</t>
+          <t>18/08/2009</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
@@ -5209,7 +5209,7 @@
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3893261&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3960661&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
@@ -5224,7 +5224,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Proyecto Interregional de Transporte de Combustibles y Residuos Industriales, Peligrosos y No Peligrosos entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -5239,15 +5239,15 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>Sotrans Limitada</t>
+          <t>Transportes Centro Sur Norte S.A.</t>
         </is>
       </c>
       <c r="F102" t="n">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>02/06/2009</t>
+          <t>27/07/2009</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
@@ -5257,7 +5257,7 @@
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3893261&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
@@ -5272,7 +5272,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Planta Unidad Sur (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -5282,30 +5282,30 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>Envases Impresos SpA</t>
+          <t>Sotrans Limitada</t>
         </is>
       </c>
       <c r="F103" t="n">
-        <v>30000</v>
+        <v>22</v>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>20/04/2009</t>
+          <t>02/06/2009</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3715069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
@@ -5335,7 +5335,7 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>Envases Roble Alto S.A.</t>
+          <t>Envases Impresos SpA</t>
         </is>
       </c>
       <c r="F104" t="n">
@@ -5343,17 +5343,17 @@
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>08/04/2009</t>
+          <t>20/04/2009</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3685558&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3715069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
@@ -5368,7 +5368,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>LÍNEA DE TRANSMISIÓN ELÉCTRICA 2x220 kV OSORNOBARRO BLANCO (e-seia)</t>
+          <t>Planta Unidad Sur (e-seia)</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -5383,25 +5383,25 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>Empresa Eléctrica Pilmaiquén S.A.</t>
+          <t>Envases Roble Alto S.A.</t>
         </is>
       </c>
       <c r="F105" t="n">
-        <v>4560</v>
+        <v>30000</v>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>06/04/2009</t>
+          <t>08/04/2009</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3677275&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3685558&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
@@ -5416,10 +5416,14 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>EIA Relleno Sanitario Provincial de Osorno</t>
-        </is>
-      </c>
-      <c r="C106" t="inlineStr"/>
+          <t>LÍNEA DE TRANSMISIÓN ELÉCTRICA 2x220 kV OSORNOBARRO BLANCO (e-seia)</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D106" t="inlineStr">
         <is>
           <t>Décima</t>
@@ -5427,15 +5431,15 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Osorno</t>
+          <t>Empresa Eléctrica Pilmaiquén S.A.</t>
         </is>
       </c>
       <c r="F106" t="n">
-        <v>18000</v>
+        <v>4560</v>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>03/04/2009</t>
+          <t>06/04/2009</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
@@ -5445,7 +5449,7 @@
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3675668&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3677275&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
@@ -5460,14 +5464,10 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Ampliación Planta Osorno (e-seia)</t>
-        </is>
-      </c>
-      <c r="C107" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>EIA Relleno Sanitario Provincial de Osorno</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr"/>
       <c r="D107" t="inlineStr">
         <is>
           <t>Décima</t>
@@ -5475,15 +5475,15 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>Watts S.A.</t>
+          <t>Ilustre Municipalidad de Osorno</t>
         </is>
       </c>
       <c r="F107" t="n">
-        <v>22000</v>
+        <v>18000</v>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>24/03/2009</t>
+          <t>03/04/2009</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
@@ -5493,7 +5493,7 @@
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3639837&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3675668&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
@@ -5508,7 +5508,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Línea de Transmisión Los Negros-Barro Blanco (e-seia)</t>
+          <t>Ampliación Planta Osorno (e-seia)</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -5523,15 +5523,15 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>Sistema de Transmisión de Los Lagos S.A.</t>
+          <t>Watts S.A.</t>
         </is>
       </c>
       <c r="F108" t="n">
-        <v>0</v>
+        <v>22000</v>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>13/03/2009</t>
+          <t>24/03/2009</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
@@ -5541,7 +5541,7 @@
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3631384&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3639837&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
@@ -5556,7 +5556,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Transporte de Residuos de Plomo y Baterías en Desuso, por las Regiones VI, VII, VIII, IX, XIV y X (e-seia)</t>
+          <t>Línea de Transmisión Los Negros-Barro Blanco (e-seia)</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -5566,12 +5566,12 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>Transportes Reciclar Limitada</t>
+          <t>Sistema de Transmisión de Los Lagos S.A.</t>
         </is>
       </c>
       <c r="F109" t="n">
@@ -5579,7 +5579,7 @@
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>10/02/2009</t>
+          <t>13/03/2009</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
@@ -5589,7 +5589,7 @@
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3551870&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3631384&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
@@ -5604,7 +5604,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Residuos de Plomo y Baterías en Desuso, por las Regiones VI, VII, VIII, IX, XIV y X (e-seia)</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -5619,7 +5619,7 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>Transportes Reciclar Limitada</t>
         </is>
       </c>
       <c r="F110" t="n">
@@ -5627,17 +5627,17 @@
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>23/01/2009</t>
+          <t>10/02/2009</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503806&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3551870&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
@@ -5675,17 +5675,17 @@
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>27/11/2008</t>
+          <t>23/01/2009</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3337768&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503806&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
@@ -5700,7 +5700,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Transporte de Residuos de Plomo y Baterías en Desuso, por las Regiones VI, VII, VIII, IX, XIV y X (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -5715,7 +5715,7 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>Industria Proveedora de Partes Metalurgicas Ltda.</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F112" t="n">
@@ -5723,17 +5723,17 @@
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>07/11/2008</t>
+          <t>27/11/2008</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3321441&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3337768&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
@@ -5748,7 +5748,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Transporte de Residuos de Plomo y Baterías en Desuso, por las Regiones VI, VII, VIII, IX, XIV y X (e-seia)</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -5763,25 +5763,25 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Industria Proveedora de Partes Metalurgicas Ltda.</t>
         </is>
       </c>
       <c r="F113" t="n">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>30/10/2008</t>
+          <t>07/11/2008</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3313847&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3321441&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
@@ -5819,17 +5819,17 @@
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>15/10/2008</t>
+          <t>30/10/2008</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3313847&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
@@ -5844,7 +5844,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -5859,11 +5859,11 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F115" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G115" t="inlineStr">
         <is>
@@ -5872,12 +5872,12 @@
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
@@ -5892,7 +5892,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS DE PLOMO Y BATERÍAS USADAS POR LAS REGIONES VI, VII, VIII, IX, XIV y X (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -5907,25 +5907,25 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>Industria Proveedora de Partes Metalurgicas Ltda.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F116" t="n">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>10/10/2008</t>
+          <t>15/10/2008</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3249759&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
@@ -5940,7 +5940,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Proyecto Inmobiliario Portal Osorno (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS DE PLOMO Y BATERÍAS USADAS POR LAS REGIONES VI, VII, VIII, IX, XIV y X (e-seia)</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -5950,16 +5950,16 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>Inmobiliaria Martabid Limitada</t>
+          <t>Industria Proveedora de Partes Metalurgicas Ltda.</t>
         </is>
       </c>
       <c r="F117" t="n">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="G117" t="inlineStr">
         <is>
@@ -5968,12 +5968,12 @@
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3272599&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3249759&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
@@ -5988,7 +5988,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>Proyecto Inmobiliario Portal Osorno (e-seia)</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -5998,30 +5998,30 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Inmobiliaria Martabid Limitada</t>
         </is>
       </c>
       <c r="F118" t="n">
-        <v>250</v>
+        <v>20000</v>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>01/10/2008</t>
+          <t>10/10/2008</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3232866&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3272599&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
@@ -6036,7 +6036,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>PLANTA ELABORADORA DE LECHE EN POLVO, COMUNA DE OSORNO, REGIÓN DE LOS LAGOS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -6046,30 +6046,30 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>Nestlé Chile S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F119" t="n">
-        <v>84000</v>
+        <v>250</v>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>29/09/2008</t>
+          <t>01/10/2008</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223561&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3232866&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
@@ -6084,7 +6084,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>PLANTA ELABORADORA DE LECHE EN POLVO, COMUNA DE OSORNO, REGIÓN DE LOS LAGOS (e-seia)</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -6094,30 +6094,30 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Nestlé Chile S.A.</t>
         </is>
       </c>
       <c r="F120" t="n">
-        <v>20</v>
+        <v>84000</v>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>16/09/2008</t>
+          <t>29/09/2008</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3192496&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223561&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
@@ -6132,7 +6132,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Regularización de Ampliación y Adición de Equipos al Sistema de Tratamiento de riles de la Planta Frigorífico de Osorno S.A. Comuna de Osorno. Región de los Lagos (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -6142,30 +6142,30 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>Frigorífico de osorno S.A.</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F121" t="n">
-        <v>160</v>
+        <v>20</v>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>28/08/2008</t>
+          <t>16/09/2008</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3143976&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3192496&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
@@ -6180,7 +6180,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>Regularización de Ampliación y Adición de Equipos al Sistema de Tratamiento de riles de la Planta Frigorífico de Osorno S.A. Comuna de Osorno. Región de los Lagos (e-seia)</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -6190,30 +6190,30 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Frigorífico de osorno S.A.</t>
         </is>
       </c>
       <c r="F122" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>20/08/2008</t>
+          <t>28/08/2008</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3143976&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
@@ -6228,7 +6228,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -6243,25 +6243,25 @@
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F123" t="n">
-        <v>1650</v>
+        <v>250</v>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>06/08/2008</t>
+          <t>20/08/2008</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3079271&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
@@ -6276,7 +6276,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -6291,15 +6291,15 @@
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F124" t="n">
-        <v>20</v>
+        <v>1650</v>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>05/08/2008</t>
+          <t>06/08/2008</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
@@ -6309,7 +6309,7 @@
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3079271&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
@@ -6324,7 +6324,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Segunda Modificación Piscicultura Santa Juana (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -6334,30 +6334,30 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>Cermaq Chile S.A.</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F125" t="n">
-        <v>7000</v>
+        <v>20</v>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>11/07/2008</t>
+          <t>05/08/2008</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3031825&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
@@ -6372,7 +6372,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>transporte de residuos peligrosos (e-seia)</t>
+          <t>Segunda Modificación Piscicultura Santa Juana (e-seia)</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -6382,30 +6382,30 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Cermaq Chile S.A.</t>
         </is>
       </c>
       <c r="F126" t="n">
-        <v>20</v>
+        <v>7000</v>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>09/07/2008</t>
+          <t>11/07/2008</t>
         </is>
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3023770&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3031825&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
@@ -6420,7 +6420,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
+          <t>transporte de residuos peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -6435,15 +6435,15 @@
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F127" t="n">
-        <v>1650</v>
+        <v>20</v>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>07/07/2008</t>
+          <t>09/07/2008</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
@@ -6453,7 +6453,7 @@
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3008477&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3023770&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
@@ -6468,7 +6468,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>transporte de residuos peligrosos (e-seia)</t>
+          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -6483,15 +6483,15 @@
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F128" t="n">
-        <v>20</v>
+        <v>1650</v>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>30/05/2008</t>
+          <t>07/07/2008</t>
         </is>
       </c>
       <c r="H128" t="inlineStr">
@@ -6501,7 +6501,7 @@
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2910651&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3008477&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
@@ -6516,7 +6516,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Ampliacion Central Chuyaca (e-seia)</t>
+          <t>transporte de residuos peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -6526,30 +6526,30 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>SAGESA S.A.</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F129" t="n">
-        <v>4800</v>
+        <v>20</v>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>17/04/2008</t>
+          <t>30/05/2008</t>
         </is>
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2845928&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2910651&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
@@ -6564,7 +6564,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Modificación Piscicultura Las Quemas. Río Rahue. Comuna de Osorno (e-seia)</t>
+          <t>Ampliacion Central Chuyaca (e-seia)</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -6579,15 +6579,15 @@
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>PISCICULTURA LAS QUEMAS CHILE S.A.</t>
+          <t>SAGESA S.A.</t>
         </is>
       </c>
       <c r="F130" t="n">
-        <v>4000</v>
+        <v>4800</v>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>19/03/2008</t>
+          <t>17/04/2008</t>
         </is>
       </c>
       <c r="H130" t="inlineStr">
@@ -6597,7 +6597,7 @@
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2767784&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2845928&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
@@ -6612,7 +6612,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Aguas Residuales mediante Lombrifiltro para Lácteos Paraguay, Comuna de Osorno, X Región. (e-seia)</t>
+          <t>Modificación Piscicultura Las Quemas. Río Rahue. Comuna de Osorno (e-seia)</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -6627,15 +6627,15 @@
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>Gonzalo Andrés Schwalm Urzúa</t>
+          <t>PISCICULTURA LAS QUEMAS CHILE S.A.</t>
         </is>
       </c>
       <c r="F131" t="n">
-        <v>250</v>
+        <v>4000</v>
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>28/02/2008</t>
+          <t>19/03/2008</t>
         </is>
       </c>
       <c r="H131" t="inlineStr">
@@ -6645,7 +6645,7 @@
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2737933&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2767784&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
@@ -6660,7 +6660,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Aguas Residuales mediante Lombrifiltro para "Lácteos Paraguay", Comuna de Osorno, X Región. (e-seia)</t>
+          <t>Planta de Tratamiento de Aguas Residuales mediante Lombrifiltro para Lácteos Paraguay, Comuna de Osorno, X Región. (e-seia)</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -6683,17 +6683,17 @@
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>06/02/2008</t>
+          <t>28/02/2008</t>
         </is>
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2690534&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2737933&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
@@ -6708,7 +6708,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Planta de Disposición Final de Residuos Industriales ECOPRIAL (e-seia)</t>
+          <t>Planta de Tratamiento de Aguas Residuales mediante Lombrifiltro para "Lácteos Paraguay", Comuna de Osorno, X Región. (e-seia)</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -6723,25 +6723,25 @@
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>Asesorías Los Olivos S.A.</t>
+          <t>Gonzalo Andrés Schwalm Urzúa</t>
         </is>
       </c>
       <c r="F133" t="n">
-        <v>1045</v>
+        <v>250</v>
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>30/01/2008</t>
+          <t>06/02/2008</t>
         </is>
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2667394&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2690534&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
@@ -6756,7 +6756,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE SUSTANCIAS PELIGROSAS EN Y ENTRE LAS REGIONES XV Y X (e-seia)</t>
+          <t>Planta de Disposición Final de Residuos Industriales ECOPRIAL (e-seia)</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -6766,20 +6766,20 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>INVERSIONES AUTOMOTRICES K Y L LIMITADA</t>
+          <t>Asesorías Los Olivos S.A.</t>
         </is>
       </c>
       <c r="F134" t="n">
-        <v>0</v>
+        <v>1045</v>
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>29/01/2008</t>
+          <t>30/01/2008</t>
         </is>
       </c>
       <c r="H134" t="inlineStr">
@@ -6789,7 +6789,7 @@
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2671596&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2667394&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
@@ -6804,7 +6804,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Piscicultura Pilmaiquén (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE SUSTANCIAS PELIGROSAS EN Y ENTRE LAS REGIONES XV Y X (e-seia)</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -6814,30 +6814,30 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>Inversiones Aubel Limitada</t>
+          <t>INVERSIONES AUTOMOTRICES K Y L LIMITADA</t>
         </is>
       </c>
       <c r="F135" t="n">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>23/11/2007</t>
+          <t>29/01/2008</t>
         </is>
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2507396&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2671596&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
@@ -6852,7 +6852,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Transporte Trans Regional Terrestre de Residuos Industriales (e-seia)</t>
+          <t>Piscicultura Pilmaiquén (e-seia)</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -6862,30 +6862,30 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
+          <t>Inversiones Aubel Limitada</t>
         </is>
       </c>
       <c r="F136" t="n">
-        <v>429</v>
+        <v>1500</v>
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>02/11/2007</t>
+          <t>23/11/2007</t>
         </is>
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2474976&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2507396&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
@@ -6900,7 +6900,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte Trans Regional Terrestre de Residuos Industriales (e-seia)</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -6915,25 +6915,25 @@
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F137" t="n">
-        <v>30</v>
+        <v>429</v>
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>25/10/2007</t>
+          <t>02/11/2007</t>
         </is>
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2454259&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2474976&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
@@ -6948,7 +6948,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -6963,25 +6963,25 @@
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>Servicio de Aseo Integral Monterredondo S.A</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F138" t="n">
-        <v>234</v>
+        <v>30</v>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>08/10/2007</t>
+          <t>25/10/2007</t>
         </is>
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2454259&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
@@ -6996,7 +6996,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -7011,25 +7011,25 @@
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>Transportes Máximo Enrique Sciarresi González EIRL</t>
+          <t>Servicio de Aseo Integral Monterredondo S.A</t>
         </is>
       </c>
       <c r="F139" t="n">
-        <v>250</v>
+        <v>234</v>
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>20/09/2007</t>
+          <t>08/10/2007</t>
         </is>
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2392309&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
@@ -7044,7 +7044,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Matadero Ovino MAFRISUR S.A., comuna de Osorno, Región deLos Lagos (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -7054,20 +7054,20 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>MAFRISUR S.A.</t>
+          <t>Transportes Máximo Enrique Sciarresi González EIRL</t>
         </is>
       </c>
       <c r="F140" t="n">
-        <v>6000</v>
+        <v>250</v>
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>03/09/2007</t>
+          <t>20/09/2007</t>
         </is>
       </c>
       <c r="H140" t="inlineStr">
@@ -7077,7 +7077,7 @@
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2374309&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2392309&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
@@ -7092,7 +7092,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>CONJUNTO HABITACIONAL JARDIN DEL ALTO,OSORNO (e-seia)</t>
+          <t>Matadero Ovino MAFRISUR S.A., comuna de Osorno, Región deLos Lagos (e-seia)</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -7107,15 +7107,15 @@
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>Inmobiliaria Fourcade S.A.</t>
+          <t>MAFRISUR S.A.</t>
         </is>
       </c>
       <c r="F141" t="n">
-        <v>3370</v>
+        <v>6000</v>
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>31/08/2007</t>
+          <t>03/09/2007</t>
         </is>
       </c>
       <c r="H141" t="inlineStr">
@@ -7125,7 +7125,7 @@
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2359952&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2374309&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
@@ -7140,7 +7140,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>CONJUNTO HABITACIONAL JARDIN DEL ALTO,OSORNO (e-seia)</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -7150,16 +7150,16 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>Inmobiliaria Fourcade S.A.</t>
         </is>
       </c>
       <c r="F142" t="n">
-        <v>10</v>
+        <v>3370</v>
       </c>
       <c r="G142" t="inlineStr">
         <is>
@@ -7168,12 +7168,12 @@
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2359952&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
@@ -7188,7 +7188,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -7203,25 +7203,25 @@
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>Castañeda Hermanos Ltda.</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F143" t="n">
-        <v>300</v>
+        <v>10</v>
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>23/08/2007</t>
+          <t>31/08/2007</t>
         </is>
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2329508&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
@@ -7236,7 +7236,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Transportes de Residuos Industrales (e-seia)</t>
+          <t>Transporte de Residuos Industriales (e-seia)</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -7259,17 +7259,17 @@
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>04/07/2007</t>
+          <t>23/08/2007</t>
         </is>
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2329508&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
@@ -7284,7 +7284,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>Transportes de Residuos Industrales (e-seia)</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -7299,25 +7299,25 @@
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>Global Index Chile Servicios Integrales Limitada</t>
+          <t>Castañeda Hermanos Ltda.</t>
         </is>
       </c>
       <c r="F145" t="n">
-        <v>80</v>
+        <v>300</v>
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>13/06/2007</t>
+          <t>04/07/2007</t>
         </is>
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2199692&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J145" t="inlineStr">
@@ -7332,7 +7332,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Drenaje Superficial Fundo Los Notros (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -7342,30 +7342,30 @@
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>Marìa Magdalena Erratchou Lara</t>
+          <t>Global Index Chile Servicios Integrales Limitada</t>
         </is>
       </c>
       <c r="F146" t="n">
-        <v>132</v>
+        <v>80</v>
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>25/04/2007</t>
+          <t>13/06/2007</t>
         </is>
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2124152&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2199692&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J146" t="inlineStr">
@@ -7380,7 +7380,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Modificacion Piscicultura Santa Juana (e-seia)</t>
+          <t>Drenaje Superficial Fundo Los Notros (e-seia)</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -7395,15 +7395,15 @@
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>Cermaq Chile S.A.</t>
+          <t>Marìa Magdalena Erratchou Lara</t>
         </is>
       </c>
       <c r="F147" t="n">
-        <v>3000</v>
+        <v>132</v>
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>12/04/2007</t>
+          <t>25/04/2007</t>
         </is>
       </c>
       <c r="H147" t="inlineStr">
@@ -7413,7 +7413,7 @@
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2094113&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2124152&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
@@ -7428,7 +7428,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>SISTEMA DE TRATAMIENTO DE RESIDUOS INDUSTRIALES LIQUIDOS AGROLACTEOS CUINCO SA (e-seia)</t>
+          <t>Modificacion Piscicultura Santa Juana (e-seia)</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -7443,15 +7443,15 @@
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>Distribuidora J.A Ltda.</t>
+          <t>Cermaq Chile S.A.</t>
         </is>
       </c>
       <c r="F148" t="n">
-        <v>100</v>
+        <v>3000</v>
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>09/04/2007</t>
+          <t>12/04/2007</t>
         </is>
       </c>
       <c r="H148" t="inlineStr">
@@ -7461,7 +7461,7 @@
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2092314&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2094113&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">
@@ -7476,7 +7476,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Drenaje Predio Polloico (e-seia)</t>
+          <t>SISTEMA DE TRATAMIENTO DE RESIDUOS INDUSTRIALES LIQUIDOS AGROLACTEOS CUINCO SA (e-seia)</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -7491,25 +7491,25 @@
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>Alfonso Guillermo Besser Hayler</t>
+          <t>Distribuidora J.A Ltda.</t>
         </is>
       </c>
       <c r="F149" t="n">
-        <v>44</v>
+        <v>100</v>
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>21/03/2007</t>
+          <t>09/04/2007</t>
         </is>
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2057529&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2092314&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
@@ -7524,7 +7524,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región, incluyendo la Región Metropolitana (e-seia)</t>
+          <t>Drenaje Predio Polloico (e-seia)</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -7534,30 +7534,30 @@
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>Empresa de Residuos RESITER S.A.</t>
+          <t>Alfonso Guillermo Besser Hayler</t>
         </is>
       </c>
       <c r="F150" t="n">
-        <v>1</v>
+        <v>44</v>
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>16/03/2007</t>
+          <t>21/03/2007</t>
         </is>
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049917&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2057529&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
@@ -7572,7 +7572,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Transporte Ferroviario y Almacenamiento de Combustible (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región, incluyendo la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -7587,25 +7587,25 @@
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>Ferrocarril del Pacífico S.A.</t>
+          <t>Empresa de Residuos RESITER S.A.</t>
         </is>
       </c>
       <c r="F151" t="n">
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>26/02/2007</t>
+          <t>16/03/2007</t>
         </is>
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2016722&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049917&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J151" t="inlineStr">
@@ -7620,7 +7620,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>TRANSPORTE FERROVIARIO Y ALMACENAMIENTO DE COMBUSTIBLES (e-seia)</t>
+          <t>Transporte Ferroviario y Almacenamiento de Combustible (e-seia)</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -7643,17 +7643,17 @@
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>14/02/2007</t>
+          <t>26/02/2007</t>
         </is>
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1990390&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2016722&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J152" t="inlineStr">
@@ -7668,7 +7668,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región incluyendo la Región Metropolitana (e-seia)</t>
+          <t>TRANSPORTE FERROVIARIO Y ALMACENAMIENTO DE COMBUSTIBLES (e-seia)</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -7683,15 +7683,15 @@
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>Empresa de Residuos RESITER S.A.</t>
+          <t>Ferrocarril del Pacífico S.A.</t>
         </is>
       </c>
       <c r="F153" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>13/02/2007</t>
+          <t>14/02/2007</t>
         </is>
       </c>
       <c r="H153" t="inlineStr">
@@ -7701,7 +7701,7 @@
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1984174&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1990390&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J153" t="inlineStr">
@@ -7716,7 +7716,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región incluyendo la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -7731,25 +7731,25 @@
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Empresa de Residuos RESITER S.A.</t>
         </is>
       </c>
       <c r="F154" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>12/01/2007</t>
+          <t>13/02/2007</t>
         </is>
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1984174&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
@@ -7764,7 +7764,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -7787,17 +7787,17 @@
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>29/12/2006</t>
+          <t>12/01/2007</t>
         </is>
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
@@ -7812,7 +7812,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en Camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -7827,25 +7827,25 @@
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F156" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>12/12/2006</t>
+          <t>29/12/2006</t>
         </is>
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1852126&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
@@ -7860,7 +7860,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>TRANSPORTES DE ACEITES USADOS (e-seia)</t>
+          <t>Transporte Terrestre en Camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X (e-seia)</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -7875,25 +7875,25 @@
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>TRANSPORTES INOSTROZA LTDA</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F157" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>07/12/2006</t>
+          <t>12/12/2006</t>
         </is>
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1843978&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1852126&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
@@ -7908,7 +7908,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>TRANSPORTES DE ACEITES USADOS (e-seia)</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -7923,25 +7923,25 @@
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES INOSTROZA LTDA</t>
         </is>
       </c>
       <c r="F158" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>10/11/2006</t>
+          <t>07/12/2006</t>
         </is>
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1843978&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
@@ -7956,7 +7956,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -7971,25 +7971,25 @@
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>Prodelin Ltda.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F159" t="n">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>06/11/2006</t>
+          <t>10/11/2006</t>
         </is>
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1785275&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
@@ -8004,7 +8004,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Transporte terrestre en camiones de Sustancias y Residuos Peligrosos entre la regiones V y X 193 (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -8019,25 +8019,25 @@
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>Prodelin Ltda.</t>
         </is>
       </c>
       <c r="F160" t="n">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>25/10/2006</t>
+          <t>06/11/2006</t>
         </is>
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1767215&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1785275&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J160" t="inlineStr">
@@ -8052,7 +8052,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Transporte de Residuos industrial por las rutas indicadas (e-seia)</t>
+          <t>Transporte terrestre en camiones de Sustancias y Residuos Peligrosos entre la regiones V y X 193 (e-seia)</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -8067,15 +8067,15 @@
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>Empresa de Transportes Trans-residuos</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F161" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>28/09/2006</t>
+          <t>25/10/2006</t>
         </is>
       </c>
       <c r="H161" t="inlineStr">
@@ -8085,7 +8085,7 @@
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1726867&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1767215&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J161" t="inlineStr">
@@ -8100,7 +8100,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Proyecto Pradera, Aumento de capacidad Planta Prolesur Osorno (e-seia)</t>
+          <t>Transporte de Residuos industrial por las rutas indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -8110,30 +8110,30 @@
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>Prolesur S.A.</t>
+          <t>Empresa de Transportes Trans-residuos</t>
         </is>
       </c>
       <c r="F162" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>01/09/2006</t>
+          <t>28/09/2006</t>
         </is>
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1643306&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1726867&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J162" t="inlineStr">
@@ -8148,7 +8148,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES PELIGROSOS Y NO PELIGROSOS POR RUTAS INDICADAS ENTRE I y X REGION (e-seia)</t>
+          <t>Proyecto Pradera, Aumento de capacidad Planta Prolesur Osorno (e-seia)</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -8158,20 +8158,20 @@
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>GESTION INTEGRAL DE RESIDUOS GEOBARRA EXINS LTDA.</t>
+          <t>Prolesur S.A.</t>
         </is>
       </c>
       <c r="F163" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>09/08/2006</t>
+          <t>01/09/2006</t>
         </is>
       </c>
       <c r="H163" t="inlineStr">
@@ -8181,7 +8181,7 @@
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1616105&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1643306&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J163" t="inlineStr">
@@ -8196,7 +8196,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Drenaje Superficial Predio Los Nogales (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES PELIGROSOS Y NO PELIGROSOS POR RUTAS INDICADAS ENTRE I y X REGION (e-seia)</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -8206,20 +8206,20 @@
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>Edmundo Kram Toledo</t>
+          <t>GESTION INTEGRAL DE RESIDUOS GEOBARRA EXINS LTDA.</t>
         </is>
       </c>
       <c r="F164" t="n">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>31/07/2006</t>
+          <t>09/08/2006</t>
         </is>
       </c>
       <c r="H164" t="inlineStr">
@@ -8229,7 +8229,7 @@
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1601455&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1616105&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J164" t="inlineStr">
@@ -8244,7 +8244,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Sistema de Tratamiento de Residuos Industriales Líquidos de Soc. Col. y Com. Jorge y Mario Meyer Buschmann (Lácteos Mulpulmo) X Región (e-seia)</t>
+          <t>Drenaje Superficial Predio Los Nogales (e-seia)</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -8259,15 +8259,15 @@
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>Lácteos del Sur S.A.</t>
+          <t>Edmundo Kram Toledo</t>
         </is>
       </c>
       <c r="F165" t="n">
-        <v>850</v>
+        <v>87</v>
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>20/07/2006</t>
+          <t>31/07/2006</t>
         </is>
       </c>
       <c r="H165" t="inlineStr">
@@ -8277,7 +8277,7 @@
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1594850&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1601455&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J165" t="inlineStr">
@@ -8292,7 +8292,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Piscicultura Las Quemas, Río Rahue, Comuna de Osorno (e-seia)</t>
+          <t>Sistema de Tratamiento de Residuos Industriales Líquidos de Soc. Col. y Com. Jorge y Mario Meyer Buschmann (Lácteos Mulpulmo) X Región (e-seia)</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -8307,15 +8307,15 @@
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>PISCICULTURA LAS QUEMAS CHILE S.A.</t>
+          <t>Lácteos del Sur S.A.</t>
         </is>
       </c>
       <c r="F166" t="n">
-        <v>2000</v>
+        <v>850</v>
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>18/07/2006</t>
+          <t>20/07/2006</t>
         </is>
       </c>
       <c r="H166" t="inlineStr">
@@ -8325,7 +8325,7 @@
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1574723&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1594850&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J166" t="inlineStr">
@@ -8340,7 +8340,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>TransporteTerrestre de Residuos Industriales Peligrosos y No Peligrosos por Rutas Indicadas entre la I y X Región (e-seia)</t>
+          <t>Piscicultura Las Quemas, Río Rahue, Comuna de Osorno (e-seia)</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -8350,30 +8350,30 @@
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>mario enrique barra diaz</t>
+          <t>PISCICULTURA LAS QUEMAS CHILE S.A.</t>
         </is>
       </c>
       <c r="F167" t="n">
-        <v>80</v>
+        <v>2000</v>
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>22/06/2006</t>
+          <t>18/07/2006</t>
         </is>
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1508957&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1574723&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J167" t="inlineStr">
@@ -8388,7 +8388,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Transporte de Combustible (e-seia)</t>
+          <t>TransporteTerrestre de Residuos Industriales Peligrosos y No Peligrosos por Rutas Indicadas entre la I y X Región (e-seia)</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -8403,25 +8403,25 @@
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
+          <t>mario enrique barra diaz</t>
         </is>
       </c>
       <c r="F168" t="n">
-        <v>500</v>
+        <v>80</v>
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>21/04/2006</t>
+          <t>22/06/2006</t>
         </is>
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1408985&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1508957&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J168" t="inlineStr">
@@ -8436,7 +8436,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Transporte de Combustibles (e-seia)</t>
+          <t>Transporte de Combustible (e-seia)</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -8459,17 +8459,17 @@
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>31/03/2006</t>
+          <t>21/04/2006</t>
         </is>
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1408985&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J169" t="inlineStr">
@@ -8484,7 +8484,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
+          <t>Transporte de Combustibles (e-seia)</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -8499,25 +8499,25 @@
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>Francisco Javier Acuña Carter</t>
+          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
         </is>
       </c>
       <c r="F170" t="n">
-        <v>4000</v>
+        <v>500</v>
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>27/03/2006</t>
+          <t>31/03/2006</t>
         </is>
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J170" t="inlineStr">
@@ -8532,7 +8532,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -8555,17 +8555,17 @@
       </c>
       <c r="G171" t="inlineStr">
         <is>
-          <t>06/03/2006</t>
+          <t>27/03/2006</t>
         </is>
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J171" t="inlineStr">
@@ -8580,7 +8580,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Transporte de sustancias y residuos peligrosos (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -8595,25 +8595,25 @@
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>Iris Leiva ALbornoz Ltda.</t>
+          <t>Francisco Javier Acuña Carter</t>
         </is>
       </c>
       <c r="F172" t="n">
-        <v>0</v>
+        <v>4000</v>
       </c>
       <c r="G172" t="inlineStr">
         <is>
-          <t>02/03/2006</t>
+          <t>06/03/2006</t>
         </is>
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1281009&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J172" t="inlineStr">
@@ -8628,7 +8628,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>"PLANTA ELABORADORA DE PRODUCTOS LÁCTEOS, OSORNO, X REGIÓN" 0 (e-seia)</t>
+          <t>Transporte de sustancias y residuos peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -8638,30 +8638,30 @@
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>Manuel Ellies Fuenzalida</t>
+          <t>Iris Leiva ALbornoz Ltda.</t>
         </is>
       </c>
       <c r="F173" t="n">
-        <v>17950</v>
+        <v>0</v>
       </c>
       <c r="G173" t="inlineStr">
         <is>
-          <t>29/11/2005</t>
+          <t>02/03/2006</t>
         </is>
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1137908&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1281009&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">
@@ -8676,7 +8676,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE PLOMO, RESIDUOS PLOMADOS Y OTROS RESIDUOS PELIGROSOS 053562 (e-seia)</t>
+          <t>"PLANTA ELABORADORA DE PRODUCTOS LÁCTEOS, OSORNO, X REGIÓN" 0 (e-seia)</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -8686,20 +8686,20 @@
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>BATERIAS COSMOS LTDA</t>
+          <t>Manuel Ellies Fuenzalida</t>
         </is>
       </c>
       <c r="F174" t="n">
-        <v>160</v>
+        <v>17950</v>
       </c>
       <c r="G174" t="inlineStr">
         <is>
-          <t>11/11/2005</t>
+          <t>29/11/2005</t>
         </is>
       </c>
       <c r="H174" t="inlineStr">
@@ -8709,7 +8709,7 @@
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1102933&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1137908&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J174" t="inlineStr">
@@ -8724,7 +8724,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>TRANSPORTE DE PLOMO, RESIDUOS PLOMADOS Y OTROS RESIDUOS PELIGROSOS 053562 (e-seia)</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -8739,15 +8739,15 @@
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>Renzo Luis Pereira Sandoval</t>
+          <t>BATERIAS COSMOS LTDA</t>
         </is>
       </c>
       <c r="F175" t="n">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="G175" t="inlineStr">
         <is>
-          <t>08/09/2005</t>
+          <t>11/11/2005</t>
         </is>
       </c>
       <c r="H175" t="inlineStr">
@@ -8757,7 +8757,7 @@
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1102933&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
@@ -8787,11 +8787,11 @@
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>Jorge Díaz Contreras</t>
+          <t>Renzo Luis Pereira Sandoval</t>
         </is>
       </c>
       <c r="F176" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="G176" t="inlineStr">
         <is>
@@ -8805,7 +8805,7 @@
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J176" t="inlineStr">
@@ -8820,7 +8820,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -8835,11 +8835,11 @@
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>Transportes Santa María S.A.</t>
+          <t>Jorge Díaz Contreras</t>
         </is>
       </c>
       <c r="F177" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="G177" t="inlineStr">
         <is>
@@ -8853,7 +8853,7 @@
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J177" t="inlineStr">
@@ -8868,7 +8868,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Conjunto Habitacional Sector Lololhue, Comuna de osorno (e-seia)</t>
+          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -8878,20 +8878,20 @@
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>SERVICIO DE VIVIENDA Y URBANISMO X REGION</t>
+          <t>Transportes Santa María S.A.</t>
         </is>
       </c>
       <c r="F178" t="n">
-        <v>20000</v>
+        <v>200</v>
       </c>
       <c r="G178" t="inlineStr">
         <is>
-          <t>19/07/2005</t>
+          <t>08/09/2005</t>
         </is>
       </c>
       <c r="H178" t="inlineStr">
@@ -8901,7 +8901,7 @@
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=951284&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J178" t="inlineStr">
@@ -8916,7 +8916,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Ampliación Pozo de Aridos Hadida Ampliación Pozo de Arido Hadida (e-seia)</t>
+          <t>Conjunto Habitacional Sector Lololhue, Comuna de osorno (e-seia)</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -8931,15 +8931,15 @@
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>Edgar Walter Hadida Schmid</t>
+          <t>SERVICIO DE VIVIENDA Y URBANISMO X REGION</t>
         </is>
       </c>
       <c r="F179" t="n">
-        <v>1</v>
+        <v>20000</v>
       </c>
       <c r="G179" t="inlineStr">
         <is>
-          <t>08/06/2005</t>
+          <t>19/07/2005</t>
         </is>
       </c>
       <c r="H179" t="inlineStr">
@@ -8949,7 +8949,7 @@
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=879261&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=951284&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J179" t="inlineStr">
@@ -8964,7 +8964,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Modificación Sistema de Tratamiento de Residuos MAtadero frigorífico del Sur S.A. Sistema de Tratamiento Matadero Frigorifico Osorno (e-seia)</t>
+          <t>Ampliación Pozo de Aridos Hadida Ampliación Pozo de Arido Hadida (e-seia)</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -8979,11 +8979,11 @@
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>Matadero Frigorífico del Sur S.A.</t>
+          <t>Edgar Walter Hadida Schmid</t>
         </is>
       </c>
       <c r="F180" t="n">
-        <v>862</v>
+        <v>1</v>
       </c>
       <c r="G180" t="inlineStr">
         <is>
@@ -8997,7 +8997,7 @@
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=883177&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=879261&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J180" t="inlineStr">
@@ -9012,7 +9012,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Transporte terrestre de sustancias químicas (e-seia)</t>
+          <t>Modificación Sistema de Tratamiento de Residuos MAtadero frigorífico del Sur S.A. Sistema de Tratamiento Matadero Frigorifico Osorno (e-seia)</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -9022,20 +9022,20 @@
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>Inmobiliaria e inversiones Polykarpo S.A.</t>
+          <t>Matadero Frigorífico del Sur S.A.</t>
         </is>
       </c>
       <c r="F181" t="n">
-        <v>200</v>
+        <v>862</v>
       </c>
       <c r="G181" t="inlineStr">
         <is>
-          <t>05/05/2005</t>
+          <t>08/06/2005</t>
         </is>
       </c>
       <c r="H181" t="inlineStr">
@@ -9045,7 +9045,7 @@
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=664436&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=883177&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J181" t="inlineStr">
@@ -9083,17 +9083,17 @@
       </c>
       <c r="G182" t="inlineStr">
         <is>
-          <t>09/03/2005</t>
+          <t>05/05/2005</t>
         </is>
       </c>
       <c r="H182" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=614117&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=664436&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J182" t="inlineStr">
@@ -9108,7 +9108,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Modificación Plan Regulador de Osorno. (e-seia)</t>
+          <t>Transporte terrestre de sustancias químicas (e-seia)</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -9118,30 +9118,30 @@
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Osorno</t>
+          <t>Inmobiliaria e inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F183" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G183" t="inlineStr">
         <is>
-          <t>06/01/2005</t>
+          <t>09/03/2005</t>
         </is>
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=561189&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=614117&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J183" t="inlineStr">
@@ -9156,7 +9156,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Transporte terrestre de residuos industriales y productos asimilables por caminos que se indican de la I a la X Región (e-seia)</t>
+          <t>Modificación Plan Regulador de Osorno. (e-seia)</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -9166,20 +9166,20 @@
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>Empresa de Transportes Los Ríos S.A.</t>
+          <t>Ilustre Municipalidad de Osorno</t>
         </is>
       </c>
       <c r="F184" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G184" t="inlineStr">
         <is>
-          <t>08/11/2004</t>
+          <t>06/01/2005</t>
         </is>
       </c>
       <c r="H184" t="inlineStr">
@@ -9189,7 +9189,7 @@
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=502823&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=561189&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J184" t="inlineStr">
@@ -9204,7 +9204,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Drenaje Predio Polloico (e-seia)</t>
+          <t>Transporte terrestre de residuos industriales y productos asimilables por caminos que se indican de la I a la X Región (e-seia)</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -9214,30 +9214,30 @@
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>Alfonso Guillermo Besser Hayler</t>
+          <t>Empresa de Transportes Los Ríos S.A.</t>
         </is>
       </c>
       <c r="F185" t="n">
-        <v>44</v>
+        <v>1</v>
       </c>
       <c r="G185" t="inlineStr">
         <is>
-          <t>20/10/2004</t>
+          <t>08/11/2004</t>
         </is>
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=487555&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=502823&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J185" t="inlineStr">
@@ -9252,7 +9252,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>DRENAJE COMUNITARIO PREDIOS SANTA CARMEN (e-seia)</t>
+          <t>Drenaje Predio Polloico (e-seia)</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -9267,25 +9267,25 @@
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>comunidad obras de drenaje santa carmen</t>
+          <t>Alfonso Guillermo Besser Hayler</t>
         </is>
       </c>
       <c r="F186" t="n">
-        <v>162</v>
+        <v>44</v>
       </c>
       <c r="G186" t="inlineStr">
         <is>
-          <t>04/10/2004</t>
+          <t>20/10/2004</t>
         </is>
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=472491&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=487555&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J186" t="inlineStr">
@@ -9300,7 +9300,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Drenaje Predio Polloico (e-seia)</t>
+          <t>DRENAJE COMUNITARIO PREDIOS SANTA CARMEN (e-seia)</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -9315,11 +9315,11 @@
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>Alfonso Guillermo Besser Hayler</t>
+          <t>comunidad obras de drenaje santa carmen</t>
         </is>
       </c>
       <c r="F187" t="n">
-        <v>44</v>
+        <v>162</v>
       </c>
       <c r="G187" t="inlineStr">
         <is>
@@ -9328,12 +9328,12 @@
       </c>
       <c r="H187" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=472796&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=472491&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J187" t="inlineStr">
@@ -9348,7 +9348,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Transporte Rodoviario de Cloro en y entre las Regiones II y X (e-seia)</t>
+          <t>Drenaje Predio Polloico (e-seia)</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
@@ -9358,30 +9358,30 @@
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>Occidental Chemical Chile Limitada</t>
+          <t>Alfonso Guillermo Besser Hayler</t>
         </is>
       </c>
       <c r="F188" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="G188" t="inlineStr">
         <is>
-          <t>09/08/2004</t>
+          <t>04/10/2004</t>
         </is>
       </c>
       <c r="H188" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=415850&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=472796&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J188" t="inlineStr">
@@ -9396,7 +9396,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>SISTEMA DE DEPURACIÓN Y NEUTRALIZACIÓN DE RESIDUOS INDUSTRIALES LÍQUIDOS, DECLARACIÓN DE IMPACTO AMBIENTAL (e-seia)</t>
+          <t>Transporte Rodoviario de Cloro en y entre las Regiones II y X (e-seia)</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
@@ -9406,20 +9406,20 @@
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>Prolesur S.A.</t>
+          <t>Occidental Chemical Chile Limitada</t>
         </is>
       </c>
       <c r="F189" t="n">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="G189" t="inlineStr">
         <is>
-          <t>02/08/2004</t>
+          <t>09/08/2004</t>
         </is>
       </c>
       <c r="H189" t="inlineStr">
@@ -9429,7 +9429,7 @@
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=408507&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=415850&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J189" t="inlineStr">
@@ -9444,7 +9444,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>PLAN REGIONAL DE DESARROLLO URBANO (e-seia)</t>
+          <t>SISTEMA DE DEPURACIÓN Y NEUTRALIZACIÓN DE RESIDUOS INDUSTRIALES LÍQUIDOS, DECLARACIÓN DE IMPACTO AMBIENTAL (e-seia)</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -9454,20 +9454,20 @@
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>Decimocuarta</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>SEREMI DE VIVIENDA Y URBANISMO X REGIÓN DE LOS LAGOS</t>
+          <t>Prolesur S.A.</t>
         </is>
       </c>
       <c r="F190" t="n">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="G190" t="inlineStr">
         <is>
-          <t>01/07/2004</t>
+          <t>02/08/2004</t>
         </is>
       </c>
       <c r="H190" t="inlineStr">
@@ -9477,7 +9477,7 @@
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=389944&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=408507&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J190" t="inlineStr">
@@ -9492,7 +9492,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Transporte de Plaguicidas y Artefactos Contaminados o que Contienen Bifenilospoliclorados (PCB) (e-seia)</t>
+          <t>PLAN REGIONAL DE DESARROLLO URBANO (e-seia)</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
@@ -9502,20 +9502,20 @@
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Decimocuarta</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>Bravo Energy Chile S.A.</t>
+          <t>SEREMI DE VIVIENDA Y URBANISMO X REGIÓN DE LOS LAGOS</t>
         </is>
       </c>
       <c r="F191" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G191" t="inlineStr">
         <is>
-          <t>21/06/2004</t>
+          <t>01/07/2004</t>
         </is>
       </c>
       <c r="H191" t="inlineStr">
@@ -9525,7 +9525,7 @@
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=377075&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=389944&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J191" t="inlineStr">
@@ -9540,7 +9540,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>"PROYECTO MATADERO FRIGORÍFICO DEL SUR S.A., (e-seia)</t>
+          <t>Transporte de Plaguicidas y Artefactos Contaminados o que Contienen Bifenilospoliclorados (PCB) (e-seia)</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
@@ -9550,20 +9550,20 @@
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>Eduardo Arturo Epple Held</t>
+          <t>Bravo Energy Chile S.A.</t>
         </is>
       </c>
       <c r="F192" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G192" t="inlineStr">
         <is>
-          <t>04/06/2004</t>
+          <t>21/06/2004</t>
         </is>
       </c>
       <c r="H192" t="inlineStr">
@@ -9573,7 +9573,7 @@
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=372111&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=377075&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J192" t="inlineStr">
@@ -9588,7 +9588,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>Relocalización del Colegio Francés de Osorno (e-seia)</t>
+          <t>"PROYECTO MATADERO FRIGORÍFICO DEL SUR S.A., (e-seia)</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
@@ -9603,15 +9603,15 @@
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>Sociedad Educacional Francesa de Osorno S.A.</t>
+          <t>Eduardo Arturo Epple Held</t>
         </is>
       </c>
       <c r="F193" t="n">
-        <v>2329</v>
+        <v>0</v>
       </c>
       <c r="G193" t="inlineStr">
         <is>
-          <t>03/06/2004</t>
+          <t>04/06/2004</t>
         </is>
       </c>
       <c r="H193" t="inlineStr">
@@ -9621,7 +9621,7 @@
       </c>
       <c r="I193" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=371821&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=372111&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J193" t="inlineStr">
@@ -9636,7 +9636,7 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>Piscicultura Santa Juana (pert 202101089) (e-seia)</t>
+          <t>Relocalización del Colegio Francés de Osorno (e-seia)</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
@@ -9651,15 +9651,15 @@
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>Cermaq Chile S.A.</t>
+          <t>Sociedad Educacional Francesa de Osorno S.A.</t>
         </is>
       </c>
       <c r="F194" t="n">
-        <v>1500</v>
+        <v>2329</v>
       </c>
       <c r="G194" t="inlineStr">
         <is>
-          <t>30/04/2004</t>
+          <t>03/06/2004</t>
         </is>
       </c>
       <c r="H194" t="inlineStr">
@@ -9669,7 +9669,7 @@
       </c>
       <c r="I194" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=325576&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=371821&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J194" t="inlineStr">
@@ -9684,7 +9684,7 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>Transporte de Plaguicidas y Artefactos Contaminados o que Contienen Bifenilospoliclorados (PCB) (e-seia)</t>
+          <t>Piscicultura Santa Juana (pert 202101089) (e-seia)</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
@@ -9694,16 +9694,16 @@
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>Bravo Energy Chile S.A.</t>
+          <t>Cermaq Chile S.A.</t>
         </is>
       </c>
       <c r="F195" t="n">
-        <v>200</v>
+        <v>1500</v>
       </c>
       <c r="G195" t="inlineStr">
         <is>
@@ -9712,12 +9712,12 @@
       </c>
       <c r="H195" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I195" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=339300&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=325576&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J195" t="inlineStr">
@@ -9732,7 +9732,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>Sistema de Tratamiento de Residuos Industriales Líquidos para la Planta Loncoleche Osorno. (e-seia)</t>
+          <t>Transporte de Plaguicidas y Artefactos Contaminados o que Contienen Bifenilospoliclorados (PCB) (e-seia)</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
@@ -9742,30 +9742,30 @@
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>Watt`s Alimentos S.A.</t>
+          <t>Bravo Energy Chile S.A.</t>
         </is>
       </c>
       <c r="F196" t="n">
-        <v>430</v>
+        <v>200</v>
       </c>
       <c r="G196" t="inlineStr">
         <is>
-          <t>12/02/2004</t>
+          <t>30/04/2004</t>
         </is>
       </c>
       <c r="H196" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I196" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=265302&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=339300&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J196" t="inlineStr">
@@ -9780,7 +9780,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>Modificación Nº 01/2003 Plan Regulador Osorno (e-seia)</t>
+          <t>Sistema de Tratamiento de Residuos Industriales Líquidos para la Planta Loncoleche Osorno. (e-seia)</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
@@ -9795,15 +9795,15 @@
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Osorno</t>
+          <t>Watt`s Alimentos S.A.</t>
         </is>
       </c>
       <c r="F197" t="n">
-        <v>0</v>
+        <v>430</v>
       </c>
       <c r="G197" t="inlineStr">
         <is>
-          <t>19/12/2003</t>
+          <t>12/02/2004</t>
         </is>
       </c>
       <c r="H197" t="inlineStr">
@@ -9813,7 +9813,7 @@
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=228596&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=265302&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J197" t="inlineStr">
@@ -9828,7 +9828,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>Proyecto Canopy Aguas Calientes (e-seia)</t>
+          <t>Modificación Nº 01/2003 Plan Regulador Osorno (e-seia)</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
@@ -9843,15 +9843,15 @@
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>Turismo y Cabañas Aguas Calientes Ltda.</t>
+          <t>Ilustre Municipalidad de Osorno</t>
         </is>
       </c>
       <c r="F198" t="n">
-        <v>97</v>
+        <v>0</v>
       </c>
       <c r="G198" t="inlineStr">
         <is>
-          <t>10/12/2003</t>
+          <t>19/12/2003</t>
         </is>
       </c>
       <c r="H198" t="inlineStr">
@@ -9861,7 +9861,7 @@
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=220766&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=228596&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J198" t="inlineStr">
@@ -9876,7 +9876,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>Proyecto Matadero Frigorífico del Sur S.A. (e-seia)</t>
+          <t>Proyecto Canopy Aguas Calientes (e-seia)</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
@@ -9891,25 +9891,25 @@
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>Matadero Frigorífico del Sur S.A.</t>
+          <t>Turismo y Cabañas Aguas Calientes Ltda.</t>
         </is>
       </c>
       <c r="F199" t="n">
-        <v>1000</v>
+        <v>97</v>
       </c>
       <c r="G199" t="inlineStr">
         <is>
-          <t>20/11/2003</t>
+          <t>10/12/2003</t>
         </is>
       </c>
       <c r="H199" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I199" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=203759&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=220766&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J199" t="inlineStr">
@@ -9924,7 +9924,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>SISTEMA DE TRATAMIENTO DE RILES, PROLESUR S.A., OSORNO (e-seia)</t>
+          <t>Proyecto Matadero Frigorífico del Sur S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
@@ -9939,15 +9939,15 @@
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>PROLESUR S.A.</t>
+          <t>Matadero Frigorífico del Sur S.A.</t>
         </is>
       </c>
       <c r="F200" t="n">
-        <v>142</v>
+        <v>1000</v>
       </c>
       <c r="G200" t="inlineStr">
         <is>
-          <t>14/10/2003</t>
+          <t>20/11/2003</t>
         </is>
       </c>
       <c r="H200" t="inlineStr">
@@ -9957,7 +9957,7 @@
       </c>
       <c r="I200" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=159306&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=203759&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J200" t="inlineStr">
@@ -9972,7 +9972,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales por las Rutas indicadas (e-seia)</t>
+          <t>SISTEMA DE TRATAMIENTO DE RILES, PROLESUR S.A., OSORNO (e-seia)</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
@@ -9982,30 +9982,30 @@
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>ECOSUR S.A.</t>
+          <t>PROLESUR S.A.</t>
         </is>
       </c>
       <c r="F201" t="n">
-        <v>200</v>
+        <v>142</v>
       </c>
       <c r="G201" t="inlineStr">
         <is>
-          <t>09/09/2003</t>
+          <t>14/10/2003</t>
         </is>
       </c>
       <c r="H201" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I201" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=135650&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=159306&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J201" t="inlineStr">
@@ -10020,7 +10020,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>Conjunto Habitacional Sector Jardín del Alto, Osorno (e-seia)</t>
+          <t>Transporte de Residuos Industriales por las Rutas indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
@@ -10030,30 +10030,30 @@
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>Inmobiliaria Fourcade S.A.</t>
+          <t>ECOSUR S.A.</t>
         </is>
       </c>
       <c r="F202" t="n">
-        <v>40000</v>
+        <v>200</v>
       </c>
       <c r="G202" t="inlineStr">
         <is>
-          <t>27/08/2003</t>
+          <t>09/09/2003</t>
         </is>
       </c>
       <c r="H202" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I202" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=135673&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=135650&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J202" t="inlineStr">
@@ -10068,7 +10068,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>Sistema de Tratamiento de Riles Planta Productora de Cecinas (e-seia)</t>
+          <t>Conjunto Habitacional Sector Jardín del Alto, Osorno (e-seia)</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
@@ -10083,25 +10083,25 @@
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>Sociedad Cecinera del Sur Ltda.</t>
+          <t>Inmobiliaria Fourcade S.A.</t>
         </is>
       </c>
       <c r="F203" t="n">
-        <v>170</v>
+        <v>40000</v>
       </c>
       <c r="G203" t="inlineStr">
         <is>
-          <t>14/07/2003</t>
+          <t>27/08/2003</t>
         </is>
       </c>
       <c r="H203" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I203" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=111634&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=135673&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J203" t="inlineStr">
@@ -10116,7 +10116,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>Conjunto Habitacional Sector Jardín del Alto, Comuna de Osorno (e-seia)</t>
+          <t>Sistema de Tratamiento de Riles Planta Productora de Cecinas (e-seia)</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
@@ -10131,25 +10131,25 @@
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>Inmobiliaria Fourcade S.A.</t>
+          <t>Sociedad Cecinera del Sur Ltda.</t>
         </is>
       </c>
       <c r="F204" t="n">
-        <v>40000</v>
+        <v>170</v>
       </c>
       <c r="G204" t="inlineStr">
         <is>
-          <t>18/06/2003</t>
+          <t>14/07/2003</t>
         </is>
       </c>
       <c r="H204" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I204" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=100119&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=111634&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J204" t="inlineStr">
@@ -10164,7 +10164,7 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>Construcción y Operación Subestación Eléctrica Aihuapi (e-seia)</t>
+          <t>Conjunto Habitacional Sector Jardín del Alto, Comuna de Osorno (e-seia)</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
@@ -10179,25 +10179,25 @@
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>Sistema de Transmisión del Sur SA</t>
+          <t>Inmobiliaria Fourcade S.A.</t>
         </is>
       </c>
       <c r="F205" t="n">
-        <v>350</v>
+        <v>40000</v>
       </c>
       <c r="G205" t="inlineStr">
         <is>
-          <t>24/01/2003</t>
+          <t>18/06/2003</t>
         </is>
       </c>
       <c r="H205" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I205" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=45978&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=100119&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J205" t="inlineStr">
@@ -10212,7 +10212,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>Ampliacion Segunda Etapa Construccion de 300 Viviendas Sociales, Sector La misión Comuna de Osorno (e-seia)</t>
+          <t>Construcción y Operación Subestación Eléctrica Aihuapi (e-seia)</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
@@ -10227,15 +10227,15 @@
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>SERVICIO DE VIVIENDA Y URBANIZACION X REGION</t>
+          <t>Sistema de Transmisión del Sur SA</t>
         </is>
       </c>
       <c r="F206" t="n">
-        <v>914</v>
+        <v>350</v>
       </c>
       <c r="G206" t="inlineStr">
         <is>
-          <t>13/09/2002</t>
+          <t>24/01/2003</t>
         </is>
       </c>
       <c r="H206" t="inlineStr">
@@ -10245,7 +10245,7 @@
       </c>
       <c r="I206" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=29920&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=45978&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J206" t="inlineStr">
@@ -10260,7 +10260,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>Sistema de Tratamiento de Residuos Industriales Líquidos para la Planta de Empresa Frigorifico de Osorno S.A.</t>
+          <t>Ampliacion Segunda Etapa Construccion de 300 Viviendas Sociales, Sector La misión Comuna de Osorno (e-seia)</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
@@ -10275,15 +10275,15 @@
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>Frigorífico de Osorno S.A.</t>
+          <t>SERVICIO DE VIVIENDA Y URBANIZACION X REGION</t>
         </is>
       </c>
       <c r="F207" t="n">
-        <v>199</v>
+        <v>914</v>
       </c>
       <c r="G207" t="inlineStr">
         <is>
-          <t>16/08/2002</t>
+          <t>13/09/2002</t>
         </is>
       </c>
       <c r="H207" t="inlineStr">
@@ -10293,7 +10293,7 @@
       </c>
       <c r="I207" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5762&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=29920&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J207" t="inlineStr">
@@ -10308,7 +10308,7 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>Estudio y Diseño de Servicio Público de Alcantarillado y Planta de Tratamiento de Aguas Servidas sin Generación de Lodos para la Localidad de Cancura</t>
+          <t>Sistema de Tratamiento de Residuos Industriales Líquidos para la Planta de Empresa Frigorifico de Osorno S.A.</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
@@ -10323,15 +10323,15 @@
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Osorno</t>
+          <t>Frigorífico de Osorno S.A.</t>
         </is>
       </c>
       <c r="F208" t="n">
-        <v>0</v>
+        <v>199</v>
       </c>
       <c r="G208" t="inlineStr">
         <is>
-          <t>24/05/2002</t>
+          <t>16/08/2002</t>
         </is>
       </c>
       <c r="H208" t="inlineStr">
@@ -10341,7 +10341,7 @@
       </c>
       <c r="I208" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5471&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5762&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J208" t="inlineStr">
@@ -10356,7 +10356,7 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Salmonídeos Piscicultura Puchaura Río Rahue ( Solicitud N° 201101106)</t>
+          <t>Estudio y Diseño de Servicio Público de Alcantarillado y Planta de Tratamiento de Aguas Servidas sin Generación de Lodos para la Localidad de Cancura</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
@@ -10371,15 +10371,15 @@
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>Luis Alberto Ellwanger Willer</t>
+          <t>Ilustre Municipalidad de Osorno</t>
         </is>
       </c>
       <c r="F209" t="n">
-        <v>2500</v>
+        <v>0</v>
       </c>
       <c r="G209" t="inlineStr">
         <is>
-          <t>15/03/2002</t>
+          <t>24/05/2002</t>
         </is>
       </c>
       <c r="H209" t="inlineStr">
@@ -10389,7 +10389,7 @@
       </c>
       <c r="I209" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5273&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5471&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J209" t="inlineStr">
@@ -10404,7 +10404,7 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>Construcción del Liceo Technos Osorno</t>
+          <t>Centro de Cultivo de Salmonídeos Piscicultura Puchaura Río Rahue ( Solicitud N° 201101106)</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
@@ -10419,25 +10419,25 @@
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>Sociedad Educacional Technos Ltda.</t>
+          <t>Luis Alberto Ellwanger Willer</t>
         </is>
       </c>
       <c r="F210" t="n">
-        <v>1490</v>
+        <v>2500</v>
       </c>
       <c r="G210" t="inlineStr">
         <is>
-          <t>04/03/2002</t>
+          <t>15/03/2002</t>
         </is>
       </c>
       <c r="H210" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I210" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5196&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5273&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J210" t="inlineStr">
@@ -10452,7 +10452,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>Transporte de Gas Propano desde Argentina a Temuco - Chile IX - X Región</t>
+          <t>Construcción del Liceo Technos Osorno</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
@@ -10462,30 +10462,30 @@
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>Ecogas S.A.</t>
+          <t>Sociedad Educacional Technos Ltda.</t>
         </is>
       </c>
       <c r="F211" t="n">
-        <v>10000</v>
+        <v>1490</v>
       </c>
       <c r="G211" t="inlineStr">
         <is>
-          <t>12/10/2001</t>
+          <t>04/03/2002</t>
         </is>
       </c>
       <c r="H211" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I211" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4598&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5196&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J211" t="inlineStr">
@@ -10500,7 +10500,7 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales</t>
+          <t>Transporte de Gas Propano desde Argentina a Temuco - Chile IX - X Región</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
@@ -10515,25 +10515,25 @@
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>ECOSUR S.A.</t>
+          <t>Ecogas S.A.</t>
         </is>
       </c>
       <c r="F212" t="n">
-        <v>200</v>
+        <v>10000</v>
       </c>
       <c r="G212" t="inlineStr">
         <is>
-          <t>25/09/2001</t>
+          <t>12/10/2001</t>
         </is>
       </c>
       <c r="H212" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I212" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4591&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4598&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J212" t="inlineStr">
@@ -10548,7 +10548,7 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>Complejo de Cabañas Turisticas Sector Las Quemas Comuna de Osorno</t>
+          <t>Transporte de Residuos Industriales</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
@@ -10558,30 +10558,30 @@
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>Gunther Juan Weis Kusch</t>
+          <t>ECOSUR S.A.</t>
         </is>
       </c>
       <c r="F213" t="n">
-        <v>20</v>
+        <v>200</v>
       </c>
       <c r="G213" t="inlineStr">
         <is>
-          <t>12/09/2001</t>
+          <t>25/09/2001</t>
         </is>
       </c>
       <c r="H213" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I213" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4412&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4591&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J213" t="inlineStr">
@@ -10596,7 +10596,7 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>Construcción de 406 Viviendas Sociales Sector La Misión Comuna de Osorno</t>
+          <t>Complejo de Cabañas Turisticas Sector Las Quemas Comuna de Osorno</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
@@ -10611,25 +10611,25 @@
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>SERVICIO DE VIVIENDA Y URBANIZACION X REGION</t>
+          <t>Gunther Juan Weis Kusch</t>
         </is>
       </c>
       <c r="F214" t="n">
-        <v>2130</v>
+        <v>20</v>
       </c>
       <c r="G214" t="inlineStr">
         <is>
-          <t>14/08/2001</t>
+          <t>12/09/2001</t>
         </is>
       </c>
       <c r="H214" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I214" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4277&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4412&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J214" t="inlineStr">
@@ -10644,7 +10644,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>Modificación Plan Regulador Comunal de Osorno Sector Instituto Profesional Agrario Adolfo Matthei</t>
+          <t>Construcción de 406 Viviendas Sociales Sector La Misión Comuna de Osorno</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
@@ -10659,15 +10659,15 @@
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Osorno</t>
+          <t>SERVICIO DE VIVIENDA Y URBANIZACION X REGION</t>
         </is>
       </c>
       <c r="F215" t="n">
-        <v>0</v>
+        <v>2130</v>
       </c>
       <c r="G215" t="inlineStr">
         <is>
-          <t>14/05/2001</t>
+          <t>14/08/2001</t>
         </is>
       </c>
       <c r="H215" t="inlineStr">
@@ -10677,7 +10677,7 @@
       </c>
       <c r="I215" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3898&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4277&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J215" t="inlineStr">
@@ -10692,7 +10692,7 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento y Red de Aguas Servidas para Loteo Polloico</t>
+          <t>Modificación Plan Regulador Comunal de Osorno Sector Instituto Profesional Agrario Adolfo Matthei</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
@@ -10707,25 +10707,25 @@
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>Comité Habitacional Polloico</t>
+          <t>Ilustre Municipalidad de Osorno</t>
         </is>
       </c>
       <c r="F216" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="G216" t="inlineStr">
         <is>
-          <t>07/05/2001</t>
+          <t>14/05/2001</t>
         </is>
       </c>
       <c r="H216" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I216" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3891&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3898&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J216" t="inlineStr">
@@ -10740,7 +10740,7 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>Tratamiento y Disposición Final de Las Aguas Servidas de Osorno (Segunda Presentación)</t>
+          <t>Planta de Tratamiento y Red de Aguas Servidas para Loteo Polloico</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
@@ -10755,25 +10755,25 @@
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>Empresa de Servicios Sanitarios de los Lagos ESSAL</t>
+          <t>Comité Habitacional Polloico</t>
         </is>
       </c>
       <c r="F217" t="n">
-        <v>11360</v>
+        <v>30</v>
       </c>
       <c r="G217" t="inlineStr">
         <is>
-          <t>24/01/2001</t>
+          <t>07/05/2001</t>
         </is>
       </c>
       <c r="H217" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I217" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3582&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3891&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J217" t="inlineStr">
@@ -10788,7 +10788,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>Restaurant Los Hornitos</t>
+          <t>Tratamiento y Disposición Final de Las Aguas Servidas de Osorno (Segunda Presentación)</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
@@ -10803,15 +10803,15 @@
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>Juana del Carmen Llanos Mora</t>
+          <t>Empresa de Servicios Sanitarios de los Lagos ESSAL</t>
         </is>
       </c>
       <c r="F218" t="n">
-        <v>10</v>
+        <v>11360</v>
       </c>
       <c r="G218" t="inlineStr">
         <is>
-          <t>08/11/2000</t>
+          <t>24/01/2001</t>
         </is>
       </c>
       <c r="H218" t="inlineStr">
@@ -10821,7 +10821,7 @@
       </c>
       <c r="I218" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3348&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3582&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J218" t="inlineStr">
@@ -10836,7 +10836,7 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>Ampliación Pozo de Aridos Hadida</t>
+          <t>Restaurant Los Hornitos</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
@@ -10851,15 +10851,15 @@
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>Hedgard Hadida</t>
+          <t>Juana del Carmen Llanos Mora</t>
         </is>
       </c>
       <c r="F219" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="G219" t="inlineStr">
         <is>
-          <t>03/11/2000</t>
+          <t>08/11/2000</t>
         </is>
       </c>
       <c r="H219" t="inlineStr">
@@ -10869,7 +10869,7 @@
       </c>
       <c r="I219" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3349&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3348&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J219" t="inlineStr">
@@ -10884,7 +10884,7 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>Estación de Servicio ESSO Km 915 Ruta 5 Sur Pilauco Osorno</t>
+          <t>Ampliación Pozo de Aridos Hadida</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
@@ -10899,15 +10899,15 @@
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>Esmax Distribución SpA</t>
+          <t>Hedgard Hadida</t>
         </is>
       </c>
       <c r="F220" t="n">
-        <v>1100</v>
+        <v>100</v>
       </c>
       <c r="G220" t="inlineStr">
         <is>
-          <t>05/07/2000</t>
+          <t>03/11/2000</t>
         </is>
       </c>
       <c r="H220" t="inlineStr">
@@ -10917,7 +10917,7 @@
       </c>
       <c r="I220" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3005&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3349&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J220" t="inlineStr">
@@ -10932,7 +10932,7 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>Transporte de Artefactos y/o Materiales Contaminados o que contienen Bifenilospoliclorados (BPC) o Terfenilospoliclorados</t>
+          <t>Estación de Servicio ESSO Km 915 Ruta 5 Sur Pilauco Osorno</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
@@ -10942,20 +10942,20 @@
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>Compañía de Desarrollo Minero Industrial CHIHOL Ltda.</t>
+          <t>Esmax Distribución SpA</t>
         </is>
       </c>
       <c r="F221" t="n">
-        <v>110</v>
+        <v>1100</v>
       </c>
       <c r="G221" t="inlineStr">
         <is>
-          <t>14/02/2000</t>
+          <t>05/07/2000</t>
         </is>
       </c>
       <c r="H221" t="inlineStr">
@@ -10965,7 +10965,7 @@
       </c>
       <c r="I221" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2686&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3005&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J221" t="inlineStr">
@@ -10980,40 +10980,40 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>Almacenamiento y Vaporación de Gas Propano Líquido e Implementación de un Sistema de Distribución por Red de Gas Propano Vaporizado en la Ciudad de Osorno</t>
+          <t>Transporte de Artefactos y/o Materiales Contaminados o que contienen Bifenilospoliclorados (BPC) o Terfenilospoliclorados</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>Temucgas S.A.</t>
+          <t>Compañía de Desarrollo Minero Industrial CHIHOL Ltda.</t>
         </is>
       </c>
       <c r="F222" t="n">
-        <v>2070</v>
+        <v>110</v>
       </c>
       <c r="G222" t="inlineStr">
         <is>
-          <t>28/12/1999</t>
+          <t>14/02/2000</t>
         </is>
       </c>
       <c r="H222" t="inlineStr">
         <is>
-          <t>Abandonado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I222" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2560&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2686&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J222" t="inlineStr">
@@ -11028,12 +11028,12 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>Sistema de Depuración y Neutralización de Residuos Industriales Líquidos (Frigosor S.A.)</t>
+          <t>Almacenamiento y Vaporación de Gas Propano Líquido e Implementación de un Sistema de Distribución por Red de Gas Propano Vaporizado en la Ciudad de Osorno</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D223" t="inlineStr">
@@ -11043,25 +11043,25 @@
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>Frigorífico de Osorno S.A.</t>
+          <t>Temucgas S.A.</t>
         </is>
       </c>
       <c r="F223" t="n">
-        <v>200</v>
+        <v>2070</v>
       </c>
       <c r="G223" t="inlineStr">
         <is>
-          <t>26/11/1999</t>
+          <t>28/12/1999</t>
         </is>
       </c>
       <c r="H223" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Abandonado</t>
         </is>
       </c>
       <c r="I223" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2466&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2560&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J223" t="inlineStr">
@@ -11076,7 +11076,7 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>Hotel Cabañas El Faro ( Segunda Presentación )</t>
+          <t>Sistema de Depuración y Neutralización de Residuos Industriales Líquidos (Frigosor S.A.)</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
@@ -11091,15 +11091,15 @@
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>Inmobiliaria Paradice Ltda.</t>
+          <t>Frigorífico de Osorno S.A.</t>
         </is>
       </c>
       <c r="F224" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="G224" t="inlineStr">
         <is>
-          <t>30/07/1999</t>
+          <t>26/11/1999</t>
         </is>
       </c>
       <c r="H224" t="inlineStr">
@@ -11109,7 +11109,7 @@
       </c>
       <c r="I224" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2136&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2466&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J224" t="inlineStr">
@@ -11124,7 +11124,7 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>Proyecto Servicio Público de Alcantarillado de Aguas Servidas de la Localidad de Cancura</t>
+          <t>Hotel Cabañas El Faro ( Segunda Presentación )</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
@@ -11139,25 +11139,25 @@
       </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Osorno</t>
+          <t>Inmobiliaria Paradice Ltda.</t>
         </is>
       </c>
       <c r="F225" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G225" t="inlineStr">
         <is>
-          <t>19/05/1999</t>
+          <t>30/07/1999</t>
         </is>
       </c>
       <c r="H225" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I225" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1973&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2136&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J225" t="inlineStr">
@@ -11172,7 +11172,7 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>Tratamiento y Disposición Final de Aguas Servidas de Osorno</t>
+          <t>Proyecto Servicio Público de Alcantarillado de Aguas Servidas de la Localidad de Cancura</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
@@ -11187,15 +11187,15 @@
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>Empresa de Servicios Sanitarios de los Lagos ESSAL</t>
+          <t>Ilustre Municipalidad de Osorno</t>
         </is>
       </c>
       <c r="F226" t="n">
-        <v>11400</v>
+        <v>250</v>
       </c>
       <c r="G226" t="inlineStr">
         <is>
-          <t>05/04/1999</t>
+          <t>19/05/1999</t>
         </is>
       </c>
       <c r="H226" t="inlineStr">
@@ -11205,7 +11205,7 @@
       </c>
       <c r="I226" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1841&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1973&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J226" t="inlineStr">
@@ -11220,7 +11220,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>Hotel Cabañas El Faro</t>
+          <t>Tratamiento y Disposición Final de Aguas Servidas de Osorno</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
@@ -11235,25 +11235,25 @@
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>Inmobiliaria Paradice Ltda.</t>
+          <t>Empresa de Servicios Sanitarios de los Lagos ESSAL</t>
         </is>
       </c>
       <c r="F227" t="n">
-        <v>150</v>
+        <v>11400</v>
       </c>
       <c r="G227" t="inlineStr">
         <is>
-          <t>05/03/1999</t>
+          <t>05/04/1999</t>
         </is>
       </c>
       <c r="H227" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I227" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1759&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1841&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J227" t="inlineStr">
@@ -11268,7 +11268,7 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>Ampliación Planta Osorno Abastecedora de Combustible S.A.</t>
+          <t>Hotel Cabañas El Faro</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
@@ -11283,15 +11283,15 @@
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>Abastecedora de Combustibles S.A.</t>
+          <t>Inmobiliaria Paradice Ltda.</t>
         </is>
       </c>
       <c r="F228" t="n">
-        <v>220</v>
+        <v>150</v>
       </c>
       <c r="G228" t="inlineStr">
         <is>
-          <t>24/11/1998</t>
+          <t>05/03/1999</t>
         </is>
       </c>
       <c r="H228" t="inlineStr">
@@ -11301,7 +11301,7 @@
       </c>
       <c r="I228" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1809&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1759&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J228" t="inlineStr">
@@ -11316,7 +11316,7 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>Empréstito Cañal Bajo</t>
+          <t>Ampliación Planta Osorno Abastecedora de Combustible S.A.</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
@@ -11331,25 +11331,25 @@
       </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t>Concesión de Los Lagos S. A.</t>
+          <t>Abastecedora de Combustibles S.A.</t>
         </is>
       </c>
       <c r="F229" t="n">
-        <v>560</v>
+        <v>220</v>
       </c>
       <c r="G229" t="inlineStr">
         <is>
-          <t>17/08/1998</t>
+          <t>24/11/1998</t>
         </is>
       </c>
       <c r="H229" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I229" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1191&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1809&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J229" t="inlineStr">
@@ -11364,7 +11364,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Efluentes Líquidos Cecinas Salamero Ltda.</t>
+          <t>Empréstito Cañal Bajo</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
@@ -11379,25 +11379,25 @@
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>Cecinas Salamero Ltda.</t>
+          <t>Concesión de Los Lagos S. A.</t>
         </is>
       </c>
       <c r="F230" t="n">
-        <v>10</v>
+        <v>560</v>
       </c>
       <c r="G230" t="inlineStr">
         <is>
-          <t>13/08/1998</t>
+          <t>17/08/1998</t>
         </is>
       </c>
       <c r="H230" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I230" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1194&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1191&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J230" t="inlineStr">
@@ -11412,7 +11412,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>Discoteque Factory</t>
+          <t>Planta de Tratamiento de Efluentes Líquidos Cecinas Salamero Ltda.</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
@@ -11427,25 +11427,25 @@
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>Bélgica Olave Figueroa</t>
+          <t>Cecinas Salamero Ltda.</t>
         </is>
       </c>
       <c r="F231" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="G231" t="inlineStr">
         <is>
-          <t>29/07/1998</t>
+          <t>13/08/1998</t>
         </is>
       </c>
       <c r="H231" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I231" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1347&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1194&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J231" t="inlineStr">
@@ -11460,7 +11460,7 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>Estación de Servicios YPF de Arturo Prat Esq.Manuel Rodríguez</t>
+          <t>Discoteque Factory</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
@@ -11475,15 +11475,15 @@
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>Empresa Nacional de Energia ENEX S.A...</t>
+          <t>Bélgica Olave Figueroa</t>
         </is>
       </c>
       <c r="F232" t="n">
-        <v>400</v>
+        <v>30</v>
       </c>
       <c r="G232" t="inlineStr">
         <is>
-          <t>18/03/1998</t>
+          <t>29/07/1998</t>
         </is>
       </c>
       <c r="H232" t="inlineStr">
@@ -11493,7 +11493,7 @@
       </c>
       <c r="I232" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=794&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1347&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J232" t="inlineStr">
@@ -11508,7 +11508,7 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>Restaurant y Minimarket</t>
+          <t>Estación de Servicios YPF de Arturo Prat Esq.Manuel Rodríguez</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
@@ -11523,15 +11523,15 @@
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>Andres Bonati Brintrup</t>
+          <t>Empresa Nacional de Energia ENEX S.A...</t>
         </is>
       </c>
       <c r="F233" t="n">
-        <v>150</v>
+        <v>400</v>
       </c>
       <c r="G233" t="inlineStr">
         <is>
-          <t>24/02/1998</t>
+          <t>18/03/1998</t>
         </is>
       </c>
       <c r="H233" t="inlineStr">
@@ -11541,7 +11541,7 @@
       </c>
       <c r="I233" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=277&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=794&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J233" t="inlineStr">
@@ -11556,43 +11556,91 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
+          <t>Restaurant y Minimarket</t>
+        </is>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D234" t="inlineStr">
+        <is>
+          <t>Décima</t>
+        </is>
+      </c>
+      <c r="E234" t="inlineStr">
+        <is>
+          <t>Andres Bonati Brintrup</t>
+        </is>
+      </c>
+      <c r="F234" t="n">
+        <v>150</v>
+      </c>
+      <c r="G234" t="inlineStr">
+        <is>
+          <t>24/02/1998</t>
+        </is>
+      </c>
+      <c r="H234" t="inlineStr">
+        <is>
+          <t>Aprobado</t>
+        </is>
+      </c>
+      <c r="I234" t="inlineStr">
+        <is>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=277&amp;modo=ficha</t>
+        </is>
+      </c>
+      <c r="J234" t="inlineStr">
+        <is>
+          <t>Osorno</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="n">
+        <v>234</v>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
           <t>Terminal de Locomoción Colectiva Urbana</t>
         </is>
       </c>
-      <c r="C234" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
-      <c r="D234" t="inlineStr">
-        <is>
-          <t>Décima</t>
-        </is>
-      </c>
-      <c r="E234" t="inlineStr">
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D235" t="inlineStr">
+        <is>
+          <t>Décima</t>
+        </is>
+      </c>
+      <c r="E235" t="inlineStr">
         <is>
           <t>Conrado Erwin Fontealba Vargas</t>
         </is>
       </c>
-      <c r="F234" t="n">
+      <c r="F235" t="n">
         <v>70</v>
       </c>
-      <c r="G234" t="inlineStr">
+      <c r="G235" t="inlineStr">
         <is>
           <t>09/01/1998</t>
         </is>
       </c>
-      <c r="H234" t="inlineStr">
-        <is>
-          <t>Aprobado</t>
-        </is>
-      </c>
-      <c r="I234" t="inlineStr">
+      <c r="H235" t="inlineStr">
+        <is>
+          <t>Aprobado</t>
+        </is>
+      </c>
+      <c r="I235" t="inlineStr">
         <is>
           <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=279&amp;modo=ficha</t>
         </is>
       </c>
-      <c r="J234" t="inlineStr">
+      <c r="J235" t="inlineStr">
         <is>
           <t>Osorno</t>
         </is>

--- a/data/Osorno.xlsx
+++ b/data/Osorno.xlsx
@@ -2968,7 +2968,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN A LA DECLARACIÓN DE IMPACTO AMBIENTAL PISCICULTURA EL VENADO</t>
+          <t>Ampliación de extracción de áridos en Pozo Jauregui</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2983,11 +2983,11 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Sociedad Agrícola Covarrubias Fernández Ltda.</t>
+          <t>Juan Carlos Jauregui Hidalgo</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>2500</v>
+        <v>500</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
@@ -2996,12 +2996,12 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7555686&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7547676&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -3016,7 +3016,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Ampliación de extracción de áridos en Pozo Jauregui</t>
+          <t>MODIFICACIÓN A LA DECLARACIÓN DE IMPACTO AMBIENTAL PISCICULTURA EL VENADO</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3031,11 +3031,11 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Juan Carlos Jauregui Hidalgo</t>
+          <t>Sociedad Agrícola Covarrubias Fernández Ltda.</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>500</v>
+        <v>2500</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
@@ -3044,12 +3044,12 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7547676&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7555686&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -5032,7 +5032,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>ESTUDIO Y DISEÑO PLAN DE CIERRE VERTEDERO COMUNA DE OSORNO (e-seia)</t>
+          <t>Transporte Inter-Regional Terrestre de Residuos, PROCESAN S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -5042,16 +5042,16 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Osorno</t>
+          <t>PROCESAN S.A.</t>
         </is>
       </c>
       <c r="F98" t="n">
-        <v>3400</v>
+        <v>377</v>
       </c>
       <c r="G98" t="inlineStr">
         <is>
@@ -5060,12 +5060,12 @@
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4139027&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4134794&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
@@ -5080,7 +5080,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Transporte Inter-Regional Terrestre de Residuos, PROCESAN S.A. (e-seia)</t>
+          <t>ESTUDIO Y DISEÑO PLAN DE CIERRE VERTEDERO COMUNA DE OSORNO (e-seia)</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -5090,16 +5090,16 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>PROCESAN S.A.</t>
+          <t>Ilustre Municipalidad de Osorno</t>
         </is>
       </c>
       <c r="F99" t="n">
-        <v>377</v>
+        <v>3400</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>
@@ -5108,12 +5108,12 @@
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4134794&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4139027&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
@@ -5940,7 +5940,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS DE PLOMO Y BATERÍAS USADAS POR LAS REGIONES VI, VII, VIII, IX, XIV y X (e-seia)</t>
+          <t>Proyecto Inmobiliario Portal Osorno (e-seia)</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -5950,16 +5950,16 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>Industria Proveedora de Partes Metalurgicas Ltda.</t>
+          <t>Inmobiliaria Martabid Limitada</t>
         </is>
       </c>
       <c r="F117" t="n">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G117" t="inlineStr">
         <is>
@@ -5968,12 +5968,12 @@
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3249759&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3272599&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
@@ -5988,7 +5988,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Proyecto Inmobiliario Portal Osorno (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS DE PLOMO Y BATERÍAS USADAS POR LAS REGIONES VI, VII, VIII, IX, XIV y X (e-seia)</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -5998,16 +5998,16 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>Inmobiliaria Martabid Limitada</t>
+          <t>Industria Proveedora de Partes Metalurgicas Ltda.</t>
         </is>
       </c>
       <c r="F118" t="n">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="G118" t="inlineStr">
         <is>
@@ -6016,12 +6016,12 @@
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3272599&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3249759&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
@@ -7140,7 +7140,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>CONJUNTO HABITACIONAL JARDIN DEL ALTO,OSORNO (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -7150,16 +7150,16 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>Inmobiliaria Fourcade S.A.</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F142" t="n">
-        <v>3370</v>
+        <v>10</v>
       </c>
       <c r="G142" t="inlineStr">
         <is>
@@ -7168,12 +7168,12 @@
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2359952&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
@@ -7188,7 +7188,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>CONJUNTO HABITACIONAL JARDIN DEL ALTO,OSORNO (e-seia)</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -7198,16 +7198,16 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>Inmobiliaria Fourcade S.A.</t>
         </is>
       </c>
       <c r="F143" t="n">
-        <v>10</v>
+        <v>3370</v>
       </c>
       <c r="G143" t="inlineStr">
         <is>
@@ -7216,12 +7216,12 @@
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2359952&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">

--- a/data/Osorno.xlsx
+++ b/data/Osorno.xlsx
@@ -2968,7 +2968,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Ampliación de extracción de áridos en Pozo Jauregui</t>
+          <t>MODIFICACIÓN A LA DECLARACIÓN DE IMPACTO AMBIENTAL PISCICULTURA EL VENADO</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2983,11 +2983,11 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Juan Carlos Jauregui Hidalgo</t>
+          <t>Sociedad Agrícola Covarrubias Fernández Ltda.</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>500</v>
+        <v>2500</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
@@ -2996,12 +2996,12 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7547676&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7555686&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -3016,7 +3016,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN A LA DECLARACIÓN DE IMPACTO AMBIENTAL PISCICULTURA EL VENADO</t>
+          <t>Ampliación de extracción de áridos en Pozo Jauregui</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3031,11 +3031,11 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Sociedad Agrícola Covarrubias Fernández Ltda.</t>
+          <t>Juan Carlos Jauregui Hidalgo</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>2500</v>
+        <v>500</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
@@ -3044,12 +3044,12 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7555686&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7547676&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -5032,7 +5032,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Transporte Inter-Regional Terrestre de Residuos, PROCESAN S.A. (e-seia)</t>
+          <t>ESTUDIO Y DISEÑO PLAN DE CIERRE VERTEDERO COMUNA DE OSORNO (e-seia)</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -5042,16 +5042,16 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>PROCESAN S.A.</t>
+          <t>Ilustre Municipalidad de Osorno</t>
         </is>
       </c>
       <c r="F98" t="n">
-        <v>377</v>
+        <v>3400</v>
       </c>
       <c r="G98" t="inlineStr">
         <is>
@@ -5060,12 +5060,12 @@
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4134794&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4139027&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
@@ -5080,7 +5080,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>ESTUDIO Y DISEÑO PLAN DE CIERRE VERTEDERO COMUNA DE OSORNO (e-seia)</t>
+          <t>Transporte Inter-Regional Terrestre de Residuos, PROCESAN S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -5090,16 +5090,16 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Osorno</t>
+          <t>PROCESAN S.A.</t>
         </is>
       </c>
       <c r="F99" t="n">
-        <v>3400</v>
+        <v>377</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>
@@ -5108,12 +5108,12 @@
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4139027&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4134794&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
@@ -5940,7 +5940,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Proyecto Inmobiliario Portal Osorno (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS DE PLOMO Y BATERÍAS USADAS POR LAS REGIONES VI, VII, VIII, IX, XIV y X (e-seia)</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -5950,16 +5950,16 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>Inmobiliaria Martabid Limitada</t>
+          <t>Industria Proveedora de Partes Metalurgicas Ltda.</t>
         </is>
       </c>
       <c r="F117" t="n">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="G117" t="inlineStr">
         <is>
@@ -5968,12 +5968,12 @@
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3272599&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3249759&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
@@ -5988,7 +5988,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS DE PLOMO Y BATERÍAS USADAS POR LAS REGIONES VI, VII, VIII, IX, XIV y X (e-seia)</t>
+          <t>Proyecto Inmobiliario Portal Osorno (e-seia)</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -5998,16 +5998,16 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>Industria Proveedora de Partes Metalurgicas Ltda.</t>
+          <t>Inmobiliaria Martabid Limitada</t>
         </is>
       </c>
       <c r="F118" t="n">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G118" t="inlineStr">
         <is>
@@ -6016,12 +6016,12 @@
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3249759&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3272599&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
@@ -7140,7 +7140,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>CONJUNTO HABITACIONAL JARDIN DEL ALTO,OSORNO (e-seia)</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -7150,16 +7150,16 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>Inmobiliaria Fourcade S.A.</t>
         </is>
       </c>
       <c r="F142" t="n">
-        <v>10</v>
+        <v>3370</v>
       </c>
       <c r="G142" t="inlineStr">
         <is>
@@ -7168,12 +7168,12 @@
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2359952&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
@@ -7188,7 +7188,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>CONJUNTO HABITACIONAL JARDIN DEL ALTO,OSORNO (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -7198,16 +7198,16 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>Inmobiliaria Fourcade S.A.</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F143" t="n">
-        <v>3370</v>
+        <v>10</v>
       </c>
       <c r="G143" t="inlineStr">
         <is>
@@ -7216,12 +7216,12 @@
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2359952&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">

--- a/data/Osorno.xlsx
+++ b/data/Osorno.xlsx
@@ -452,7 +452,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Osorno.xlsx
+++ b/data/Osorno.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J235"/>
+  <dimension ref="A1:J236"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -447,17 +447,17 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>29/06/2023</t>
+          <t>14/07/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>En Admisión</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2159533326&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2159533340&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -472,7 +472,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>BioCircular Los Laureles</t>
+          <t>Construcción de viviendas sociales para familias vulnerables sujetas al plan de emergencia habitacional, sector francke, Osorno</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -487,25 +487,25 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Genera4 SpA</t>
+          <t>Ararat SpA.</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>15000</v>
+        <v>72000</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>23/05/2023</t>
+          <t>29/06/2023</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2159179224&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2159533326&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -520,7 +520,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Planta Solar Fotovoltaica Montecinos</t>
+          <t>BioCircular Los Laureles</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -535,15 +535,15 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Generadora Semilla SpA.</t>
+          <t>Genera4 SpA</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>21/09/2022</t>
+          <t>23/05/2023</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -553,7 +553,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156946466&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2159179224&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -568,7 +568,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DE INSTALACIONES EN PLANTA OSORNO</t>
+          <t>Planta Solar Fotovoltaica Montecinos</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -583,25 +583,25 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Envases Impresos SpA</t>
+          <t>Generadora Semilla SpA.</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>877</v>
+        <v>10000</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>22/06/2022</t>
+          <t>21/09/2022</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156289752&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156946466&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -616,7 +616,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>BALNEARIO FLUVIAL \"Río Damas\"</t>
+          <t>MODIFICACIÓN DE INSTALACIONES EN PLANTA OSORNO</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -631,25 +631,25 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Inversiones y Comercial Southern World SpA</t>
+          <t>Envases Impresos SpA</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>30400</v>
+        <v>877</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>30/05/2022</t>
+          <t>22/06/2022</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155928380&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156289752&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -664,7 +664,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>?Ampliación Superficie Planta de Disposición Final de Residuos Biológicos No Peligrosos Industriales ECOPRIAL? Región de Los Lagos</t>
+          <t>BALNEARIO FLUVIAL \"Río Damas\"</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -679,25 +679,25 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Raul Albrecht Barrientos</t>
+          <t>Inversiones y Comercial Southern World SpA</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>650</v>
+        <v>30400</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>22/12/2021</t>
+          <t>30/05/2022</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2154450586&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155928380&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -712,7 +712,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Condominio Rahue</t>
+          <t>?Ampliación Superficie Planta de Disposición Final de Residuos Biológicos No Peligrosos Industriales ECOPRIAL? Región de Los Lagos</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -727,25 +727,25 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Constructora Pacal S.A.</t>
+          <t>Raul Albrecht Barrientos</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>8586</v>
+        <v>650</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>10/05/2021</t>
+          <t>22/12/2021</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151757396&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2154450586&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -760,7 +760,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>BALNEARIO FLUVIAL RÍO DAMAS</t>
+          <t>Condominio Rahue</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -775,25 +775,25 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Inversiones y Comercial Southern World SpA</t>
+          <t>Constructora Pacal S.A.</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>30400</v>
+        <v>8586</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>09/03/2021</t>
+          <t>10/05/2021</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151031299&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151757396&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -808,7 +808,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>AUMENTO DE PRODUCCIÓN Y RIEGO DE EFLUENTES PLANTA MAFRISUR</t>
+          <t>BALNEARIO FLUVIAL RÍO DAMAS</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -823,25 +823,25 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>MATADERO FRIGORIFICO DEL SUR S.A.</t>
+          <t>Inversiones y Comercial Southern World SpA</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2500</v>
+        <v>30400</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>21/01/2021</t>
+          <t>09/03/2021</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2149382147&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151031299&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -856,7 +856,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>ADECUACIÓN OPERATIVA Y AMPLIACIÓN DE LA PLANTA DE ASESORÍAS LOS OLIVOS?</t>
+          <t>AUMENTO DE PRODUCCIÓN Y RIEGO DE EFLUENTES PLANTA MAFRISUR</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -871,25 +871,25 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Asesoría Los Olivos S.A</t>
+          <t>MATADERO FRIGORIFICO DEL SUR S.A.</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>650</v>
+        <v>2500</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>21/10/2020</t>
+          <t>21/01/2021</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2148752277&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2149382147&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -904,7 +904,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>PRP Las Quemas</t>
+          <t>ADECUACIÓN OPERATIVA Y AMPLIACIÓN DE LA PLANTA DE ASESORÍAS LOS OLIVOS?</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -919,25 +919,25 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Francisco De Paula Luis Herrera Fernandez-figares</t>
+          <t>Asesoría Los Olivos S.A</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>3145</v>
+        <v>650</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>17/01/2020</t>
+          <t>21/10/2020</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145388872&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2148752277&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -952,7 +952,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Ampliación de la Actividad de Transporte de Sustancias Peligrosas de ENAEX Servicios S.A.</t>
+          <t>PRP Las Quemas</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -962,20 +962,20 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Enaex Servicios S.A.</t>
+          <t>Francisco De Paula Luis Herrera Fernandez-figares</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>25000</v>
+        <v>3145</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>07/01/2020</t>
+          <t>17/01/2020</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -985,7 +985,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145325740&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145388872&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1000,7 +1000,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Desarrollo Inmobiliario Macro Pilauco II, Etapa 2</t>
+          <t>Ampliación de la Actividad de Transporte de Sustancias Peligrosas de ENAEX Servicios S.A.</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1010,20 +1010,20 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Galilea de Ingeniería y Construcción</t>
+          <t>Enaex Servicios S.A.</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>68620</v>
+        <v>25000</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>30/12/2019</t>
+          <t>07/01/2020</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -1033,7 +1033,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145296018&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145325740&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1048,7 +1048,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>PRP LAS QUEMAS</t>
+          <t>Desarrollo Inmobiliario Macro Pilauco II, Etapa 2</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1063,25 +1063,25 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Francisco De Paula Luis Herrera Fernandez-figares</t>
+          <t>Galilea de Ingeniería y Construcción</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>3145</v>
+        <v>68620</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>19/12/2019</t>
+          <t>30/12/2019</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145236028&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145296018&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1096,7 +1096,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Hacienda Las Quemas</t>
+          <t>PRP LAS QUEMAS</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1111,25 +1111,25 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Inmobiliaria Zenteno SpA</t>
+          <t>Francisco De Paula Luis Herrera Fernandez-figares</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>47000</v>
+        <v>3145</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>25/09/2019</t>
+          <t>19/12/2019</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2144245146&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145236028&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1144,7 +1144,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Proyecto Habitacional Lote 2 - Zanjones</t>
+          <t>Hacienda Las Quemas</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1159,15 +1159,15 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>SERVIU Región de Los Lagos</t>
+          <t>Inmobiliaria Zenteno SpA</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>481</v>
+        <v>47000</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>28/05/2019</t>
+          <t>25/09/2019</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -1177,7 +1177,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143277820&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2144245146&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1192,7 +1192,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Planta Pichil Alimento Bovino</t>
+          <t>Proyecto Habitacional Lote 2 - Zanjones</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1207,15 +1207,15 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Alimentos Concentrados Cisternas Ltda</t>
+          <t>SERVIU Región de Los Lagos</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>8000</v>
+        <v>481</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>31/07/2018</t>
+          <t>28/05/2019</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -1225,7 +1225,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2140878185&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143277820&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1240,7 +1240,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>DESARROLLO INMOBILIARIO MACRO PILAUCO II, ETAPA 1 LOTE A</t>
+          <t>Planta Pichil Alimento Bovino</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1255,15 +1255,15 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Galilea de Ingeniería y Construcción</t>
+          <t>Alimentos Concentrados Cisternas Ltda</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>14500</v>
+        <v>8000</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>21/08/2017</t>
+          <t>31/07/2018</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -1273,7 +1273,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132606168&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2140878185&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1288,30 +1288,30 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Sistema de Transmisión S/E Pichirropulli - S/E Tineo</t>
+          <t>DESARROLLO INMOBILIARIO MACRO PILAUCO II, ETAPA 1 LOTE A</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>TRANSELEC CONCESIONES S.A.</t>
+          <t>Galilea de Ingeniería y Construcción</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>82000</v>
+        <v>14500</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>08/06/2017</t>
+          <t>21/08/2017</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -1321,7 +1321,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132447295&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132606168&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1336,30 +1336,30 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Proyecto La Misión</t>
+          <t>Sistema de Transmisión S/E Pichirropulli - S/E Tineo</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Sistema de Transmisión del Sur SA</t>
+          <t>TRANSELEC CONCESIONES S.A.</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>19299</v>
+        <v>82000</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>19/01/2017</t>
+          <t>08/06/2017</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -1369,7 +1369,7 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132100181&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132447295&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1384,7 +1384,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Optimización Productiva de la Piscicultura Santa Juana</t>
+          <t>Proyecto La Misión</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1399,15 +1399,15 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Cermaq Chile S.A.</t>
+          <t>Sistema de Transmisión del Sur SA</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>400</v>
+        <v>19299</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>06/12/2016</t>
+          <t>19/01/2017</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -1417,7 +1417,7 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131979220&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132100181&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1432,7 +1432,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Ampliación Transporte Terrestre de Sustancias Químicas</t>
+          <t>Optimización Productiva de la Piscicultura Santa Juana</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1442,20 +1442,20 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
+          <t>Cermaq Chile S.A.</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>10000</v>
+        <v>400</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>22/08/2016</t>
+          <t>06/12/2016</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -1465,7 +1465,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131697972&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131979220&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1480,7 +1480,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>DECLARACION DE IMPACTO AMBIENTAL LOTEO HABITACIONAL D.F.L.2, MACRO PILAUCO II</t>
+          <t>Ampliación Transporte Terrestre de Sustancias Químicas</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1490,30 +1490,30 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Galilea de Ingeniería y Construcción</t>
+          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>72470</v>
+        <v>10000</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>12/08/2016</t>
+          <t>22/08/2016</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131467206&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131697972&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1528,7 +1528,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Riego de riles Planta Mulpulmo</t>
+          <t>DECLARACION DE IMPACTO AMBIENTAL LOTEO HABITACIONAL D.F.L.2, MACRO PILAUCO II</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1543,25 +1543,25 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Lácteos del Sur S.A.</t>
+          <t>Galilea de Ingeniería y Construcción</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>90</v>
+        <v>72470</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>03/06/2016</t>
+          <t>12/08/2016</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131404162&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131467206&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1576,7 +1576,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Compostaje y Vermicompostaje Residuos Sólidos Orgánicos. Sector Barro Blanco. Comuna de Osorno.</t>
+          <t>Riego de riles Planta Mulpulmo</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1591,25 +1591,25 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Frigorífico de osorno S.A.</t>
+          <t>Lácteos del Sur S.A.</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>500</v>
+        <v>90</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>17/09/2015</t>
+          <t>03/06/2016</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130760880&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131404162&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1624,7 +1624,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Bodega para Almacenamiento de Sustancias Peligrosas - Sucursal Osorno</t>
+          <t>Compostaje y Vermicompostaje Residuos Sólidos Orgánicos. Sector Barro Blanco. Comuna de Osorno.</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1639,25 +1639,25 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>ANASAC CHILE S.A.</t>
+          <t>Frigorífico de osorno S.A.</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>193</v>
+        <v>500</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>05/05/2015</t>
+          <t>17/09/2015</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130426799&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130760880&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -1672,7 +1672,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Proyecto Centro de Agroturismo El Mirador</t>
+          <t>Bodega para Almacenamiento de Sustancias Peligrosas - Sucursal Osorno</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1687,15 +1687,15 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Sociedad de Agroturismo El Mirador Limitada</t>
+          <t>ANASAC CHILE S.A.</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>500</v>
+        <v>193</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>19/03/2015</t>
+          <t>05/05/2015</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
@@ -1705,7 +1705,7 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130315339&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130426799&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -1735,7 +1735,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Lucia Adriana Kyling Montecino</t>
+          <t>Sociedad de Agroturismo El Mirador Limitada</t>
         </is>
       </c>
       <c r="F29" t="n">
@@ -1743,17 +1743,17 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>09/03/2015</t>
+          <t>19/03/2015</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130308568&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130315339&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -1768,7 +1768,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Tratamiento de Residuos Especiales e Industriales a Través de Incineración, Osorno.</t>
+          <t>Proyecto Centro de Agroturismo El Mirador</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1783,25 +1783,25 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Inversiones Las Higueras Limitada</t>
+          <t>Lucia Adriana Kyling Montecino</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>1500</v>
+        <v>500</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>19/02/2015</t>
+          <t>09/03/2015</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130221119&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130308568&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
+          <t>Tratamiento de Residuos Especiales e Industriales a Través de Incineración, Osorno.</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1826,30 +1826,30 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>Inversiones Las Higueras Limitada</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>5000</v>
+        <v>1500</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>26/01/2015</t>
+          <t>19/02/2015</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130159203&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130221119&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -1864,7 +1864,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos y no Peligrosos entre las Regiones XV y X</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1887,7 +1887,7 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>26/12/2014</t>
+          <t>26/01/2015</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
@@ -1897,7 +1897,7 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076569&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130159203&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -1912,7 +1912,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
+          <t>Transporte Terrestre de Residuos Peligrosos y no Peligrosos entre las Regiones XV y X</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1935,7 +1935,7 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>20/11/2014</t>
+          <t>26/12/2014</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
@@ -1945,7 +1945,7 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129965016&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076569&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -1960,7 +1960,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>"AMPLIACION DE RUTAS PARA TRANSPORTE TERRESTRE DE RESIDUOS Y SUSTANCIAS PELIGROSAS A GRANEL DESDE LA I A LA X REGIÓN TRANSPORTES TRANSVER LTDA"</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1975,15 +1975,15 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Transportes Transver Ltda.</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>17/11/2014</t>
+          <t>20/11/2014</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
@@ -1993,7 +1993,7 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129535685&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129965016&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -2008,7 +2008,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Modificación Transporte y Logística Interregional de Cargas y/o Sustancias Peligrosas.</t>
+          <t>"AMPLIACION DE RUTAS PARA TRANSPORTE TERRESTRE DE RESIDUOS Y SUSTANCIAS PELIGROSAS A GRANEL DESDE LA I A LA X REGIÓN TRANSPORTES TRANSVER LTDA"</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2023,25 +2023,25 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
+          <t>Transportes Transver Ltda.</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>6750</v>
+        <v>0</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>13/11/2014</t>
+          <t>17/11/2014</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129725840&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129535685&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -2056,7 +2056,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
+          <t>Modificación Transporte y Logística Interregional de Cargas y/o Sustancias Peligrosas.</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2071,25 +2071,25 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>5000</v>
+        <v>6750</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>05/11/2014</t>
+          <t>13/11/2014</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129895680&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129725840&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -2104,7 +2104,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos y No Peligrosos entre las Regiones XV y X</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -2127,7 +2127,7 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>30/06/2014</t>
+          <t>05/11/2014</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
@@ -2137,7 +2137,7 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129237859&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129895680&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -2152,7 +2152,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Extracción de áridos en pozo Jauregui</t>
+          <t>Transporte Terrestre de Residuos Peligrosos y No Peligrosos entre las Regiones XV y X</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2162,20 +2162,20 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Juan Carlos Jauregui Hidalgo</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>400</v>
+        <v>5000</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>22/01/2014</t>
+          <t>30/06/2014</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
@@ -2185,7 +2185,7 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129115711&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129237859&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -2200,7 +2200,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Extracción de áridos en pozo Jauregui</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2210,30 +2210,30 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>Juan Carlos Jauregui Hidalgo</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>1200</v>
+        <v>400</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>23/12/2013</t>
+          <t>22/01/2014</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129115711&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -2248,7 +2248,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Extracción de áridos en Pozo Jauregui</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2258,30 +2258,30 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Juan Carlos Jauregui Hidalgo</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>400</v>
+        <v>1200</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>09/12/2013</t>
+          <t>23/12/2013</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128899538&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -2296,7 +2296,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos y no peligrosos entre las Regiones XV y X</t>
+          <t>Extracción de áridos en Pozo Jauregui</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2306,20 +2306,20 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>Juan Carlos Jauregui Hidalgo</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>5000</v>
+        <v>400</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>08/11/2013</t>
+          <t>09/12/2013</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
@@ -2329,7 +2329,7 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128788354&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128899538&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -2344,7 +2344,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Empréstito Los Melíes, Comuna de Osorno, Región de Los Lagos</t>
+          <t>Transporte Terrestre de Residuos Peligrosos y no peligrosos entre las Regiones XV y X</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2354,30 +2354,30 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Dragados S.A. Agencia en Chile</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>543</v>
+        <v>5000</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>07/11/2013</t>
+          <t>08/11/2013</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128789901&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128788354&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -2392,7 +2392,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Declaración de impacto ambiental "Modificación del Manejo de la mortalidad mediante sistema de ensilaje en Piscicultura Santa Juana"</t>
+          <t>Empréstito Los Melíes, Comuna de Osorno, Región de Los Lagos</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2407,15 +2407,15 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Cermaq Chile S.A.</t>
+          <t>Dragados S.A. Agencia en Chile</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>1</v>
+        <v>543</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>15/07/2013</t>
+          <t>07/11/2013</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
@@ -2425,7 +2425,7 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8355513&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128789901&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -2440,7 +2440,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>REGULARIZACIÓN DEL TRANSPORTE DE SUSTANCIAS PELIGROSAS TREXVAL S.A.</t>
+          <t>Declaración de impacto ambiental "Modificación del Manejo de la mortalidad mediante sistema de ensilaje en Piscicultura Santa Juana"</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2450,20 +2450,20 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Trexval S.A.</t>
+          <t>Cermaq Chile S.A.</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>21/06/2013</t>
+          <t>15/07/2013</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
@@ -2473,7 +2473,7 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8280859&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8355513&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -2488,7 +2488,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Regularización Transporte de Sustancias Peligrosas TREXVAL S.A.</t>
+          <t>REGULARIZACIÓN DEL TRANSPORTE DE SUSTANCIAS PELIGROSAS TREXVAL S.A.</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2511,17 +2511,17 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>06/06/2013</t>
+          <t>21/06/2013</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8227033&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8280859&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -2536,7 +2536,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Mejoramiento Tecnológico Planta Watts Osorno</t>
+          <t>Regularización Transporte de Sustancias Peligrosas TREXVAL S.A.</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2546,30 +2546,30 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Watts S.A.</t>
+          <t>Trexval S.A.</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>7751</v>
+        <v>0</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>23/05/2013</t>
+          <t>06/06/2013</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8187978&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8227033&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -2584,7 +2584,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>"Riego en pradera con efluentes tratados de RILes lácteos".</t>
+          <t>Mejoramiento Tecnológico Planta Watts Osorno</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2599,25 +2599,25 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Industrias Valle Verde S.A.</t>
+          <t>Watts S.A.</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>0</v>
+        <v>7751</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>16/05/2013</t>
+          <t>23/05/2013</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8172032&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8187978&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -2632,7 +2632,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Transporte de residuos No Peligrosos, Peligrosos y Especiales entre la XV región y la X región</t>
+          <t>"Riego en pradera con efluentes tratados de RILes lácteos".</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2642,20 +2642,20 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Industrias Valle Verde S.A.</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>10/05/2013</t>
+          <t>16/05/2013</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
@@ -2665,7 +2665,7 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158912&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8172032&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -2680,7 +2680,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas TREXVAL S.A.</t>
+          <t>Transporte de residuos No Peligrosos, Peligrosos y Especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2695,15 +2695,15 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Mauricio Salím Mahmud Vergara</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>2500</v>
+        <v>250</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>06/05/2013</t>
+          <t>10/05/2013</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
@@ -2713,7 +2713,7 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8126996&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158912&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -2743,25 +2743,25 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Trexval S.A.</t>
+          <t>Mauricio Salím Mahmud Vergara</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>2475</v>
+        <v>2500</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>17/04/2013</t>
+          <t>06/05/2013</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8057600&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8126996&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -2776,7 +2776,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>Transporte de Sustancias Peligrosas TREXVAL S.A.</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2791,15 +2791,15 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Trexval S.A.</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>250</v>
+        <v>2475</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>15/04/2013</t>
+          <t>17/04/2013</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
@@ -2809,7 +2809,7 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8063600&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8057600&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -2847,7 +2847,7 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>19/03/2013</t>
+          <t>15/04/2013</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
@@ -2857,7 +2857,7 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7961483&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8063600&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -2872,7 +2872,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Ampliación de extracción de áridos en el río Rahue sector fundo el Almud - San Florentino</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2882,30 +2882,30 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>ARIDOS DOWLING &amp; SCHILLING S.A</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>7000</v>
+        <v>250</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>18/03/2013</t>
+          <t>19/03/2013</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7972056&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7961483&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -2920,7 +2920,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>"PISCICULTURA TRAFUN, COMUNA DE SAN PABLO, PROVINCIA DE OSORNO, DÉCIMA REGIÓN DE LOS LAGOS"</t>
+          <t>Ampliación de extracción de áridos en el río Rahue sector fundo el Almud - San Florentino</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2935,15 +2935,15 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Mainstream Chile S.A.</t>
+          <t>ARIDOS DOWLING &amp; SCHILLING S.A</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>31/12/2012</t>
+          <t>18/03/2013</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
@@ -2953,7 +2953,7 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7715692&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7972056&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -2968,7 +2968,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Ampliación de extracción de áridos en Pozo Jauregui</t>
+          <t>"PISCICULTURA TRAFUN, COMUNA DE SAN PABLO, PROVINCIA DE OSORNO, DÉCIMA REGIÓN DE LOS LAGOS"</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2983,25 +2983,25 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Juan Carlos Jauregui Hidalgo</t>
+          <t>Mainstream Chile S.A.</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>500</v>
+        <v>6000</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>22/11/2012</t>
+          <t>31/12/2012</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7547676&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7715692&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -3016,7 +3016,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN A LA DECLARACIÓN DE IMPACTO AMBIENTAL PISCICULTURA EL VENADO</t>
+          <t>Ampliación de extracción de áridos en Pozo Jauregui</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3031,11 +3031,11 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Sociedad Agrícola Covarrubias Fernández Ltda.</t>
+          <t>Juan Carlos Jauregui Hidalgo</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>2500</v>
+        <v>500</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
@@ -3044,12 +3044,12 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7555686&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7547676&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -3064,7 +3064,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>MODIFICACION A LA DECLARACION DE IMPACTO AMBIENTAL PISCICULTURA EL VENADO</t>
+          <t>MODIFICACIÓN A LA DECLARACIÓN DE IMPACTO AMBIENTAL PISCICULTURA EL VENADO</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -3087,17 +3087,17 @@
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>12/11/2012</t>
+          <t>22/11/2012</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7509459&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7555686&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -3112,7 +3112,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN A LA DECLARACIÓN DE IMPACTO AMBIENTAL PISCICULTURA EL VENADO COMUNA DE OSORNO.</t>
+          <t>MODIFICACION A LA DECLARACION DE IMPACTO AMBIENTAL PISCICULTURA EL VENADO</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -3135,7 +3135,7 @@
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>17/10/2012</t>
+          <t>12/11/2012</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
@@ -3145,7 +3145,7 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7352039&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7509459&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -3160,7 +3160,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Ampliación Piscicultura Cancura</t>
+          <t>MODIFICACIÓN A LA DECLARACIÓN DE IMPACTO AMBIENTAL PISCICULTURA EL VENADO COMUNA DE OSORNO.</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -3175,25 +3175,25 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Cermaq Chile S.A.</t>
+          <t>Sociedad Agrícola Covarrubias Fernández Ltda.</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>4000</v>
+        <v>2500</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>27/07/2012</t>
+          <t>17/10/2012</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6858091&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7352039&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -3208,7 +3208,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
+          <t>Ampliación Piscicultura Cancura</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -3218,30 +3218,30 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>KDM SERVICIOS S.A.</t>
+          <t>Cermaq Chile S.A.</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>16/05/2012</t>
+          <t>27/07/2012</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6888046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6858091&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -3256,7 +3256,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Planta de destilacion de gases del aire</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -3266,30 +3266,30 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>GASES DEL SUR SOCIEDAD LIMITADA</t>
+          <t>KDM SERVICIOS S.A.</t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>1000</v>
+        <v>5000</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>11/05/2012</t>
+          <t>16/05/2012</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6913953&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6888046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -3304,7 +3304,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos Interregional</t>
+          <t>Planta de destilacion de gases del aire</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3314,30 +3314,30 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Jorge Andrés Torres Hidalgo</t>
+          <t>GASES DEL SUR SOCIEDAD LIMITADA</t>
         </is>
       </c>
       <c r="F62" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>23/04/2012</t>
+          <t>11/05/2012</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6852559&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6913953&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -3352,7 +3352,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
+          <t>Transporte de Residuos Peligrosos Interregional</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -3367,25 +3367,25 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Jorge Andrés Torres Hidalgo</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>20/02/2012</t>
+          <t>23/04/2012</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6852559&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -3400,7 +3400,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>AUTOGENERACION ELECTRICA PROLESUR</t>
+          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -3410,30 +3410,30 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Prolesur S.A.</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F64" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>13/02/2012</t>
+          <t>20/02/2012</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6601064&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -3463,7 +3463,7 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Sociedad Productores de Leche S.A.</t>
+          <t>Prolesur S.A.</t>
         </is>
       </c>
       <c r="F65" t="n">
@@ -3471,17 +3471,17 @@
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>19/01/2012</t>
+          <t>13/02/2012</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6474722&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6601064&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -3496,7 +3496,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>S/E Seccionadora Rahue 220 kV</t>
+          <t>AUTOGENERACION ELECTRICA PROLESUR</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -3511,25 +3511,25 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A...</t>
+          <t>Sociedad Productores de Leche S.A.</t>
         </is>
       </c>
       <c r="F66" t="n">
-        <v>14000</v>
+        <v>1000</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>18/01/2012</t>
+          <t>19/01/2012</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6504250&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6474722&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -3544,7 +3544,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Quimicas entre XV y X region .</t>
+          <t>S/E Seccionadora Rahue 220 kV</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -3554,30 +3554,30 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>TRANSELEC S.A...</t>
         </is>
       </c>
       <c r="F67" t="n">
-        <v>1000</v>
+        <v>14000</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>11/01/2012</t>
+          <t>18/01/2012</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6435815&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6504250&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
@@ -3592,7 +3592,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>Transporte de Sustancias Quimicas entre XV y X region .</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3607,15 +3607,15 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F68" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>10/01/2012</t>
+          <t>11/01/2012</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
@@ -3625,7 +3625,7 @@
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6435815&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -3640,7 +3640,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Plan de cierre Ex basural de Ovejería de osorno</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3650,30 +3650,30 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Osorno</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F69" t="n">
-        <v>1700</v>
+        <v>100</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>02/01/2012</t>
+          <t>10/01/2012</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6239097&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -3688,7 +3688,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Línea de Transmisión 66 kV Pilauco-Pichil</t>
+          <t>Plan de cierre Ex basural de Ovejería de osorno</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -3703,15 +3703,15 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Sistema de Transmisión del Sur SA</t>
+          <t>Ilustre Municipalidad de Osorno</t>
         </is>
       </c>
       <c r="F70" t="n">
-        <v>1967</v>
+        <v>1700</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>01/12/2011</t>
+          <t>02/01/2012</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
@@ -3721,7 +3721,7 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6334231&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6239097&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -3736,7 +3736,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Transportes de Sustancias Quimicas entre la XV y la X region</t>
+          <t>Línea de Transmisión 66 kV Pilauco-Pichil</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -3746,30 +3746,30 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Sistema de Transmisión del Sur SA</t>
         </is>
       </c>
       <c r="F71" t="n">
-        <v>1000</v>
+        <v>1967</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>21/11/2011</t>
+          <t>01/12/2011</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6291084&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6334231&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -3784,7 +3784,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Transporte de residuos peligrosos y no peligrosos</t>
+          <t>Transportes de Sustancias Quimicas entre la XV y la X region</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -3799,15 +3799,15 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Fernando Luciano Huerta Tello</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F72" t="n">
-        <v>319</v>
+        <v>1000</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>04/10/2011</t>
+          <t>21/11/2011</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
@@ -3817,7 +3817,7 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5958795&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6291084&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -3832,7 +3832,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>TAP OFF PICHIRREHUE</t>
+          <t>Transporte de residuos peligrosos y no peligrosos</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -3842,30 +3842,30 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Empresa Eléctrica Pilmaiquén S.A.</t>
+          <t>Fernando Luciano Huerta Tello</t>
         </is>
       </c>
       <c r="F73" t="n">
-        <v>19800</v>
+        <v>319</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>01/06/2011</t>
+          <t>04/10/2011</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5675930&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5958795&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -3880,7 +3880,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE EXTRACCIÓN DE ÁRIDOS RÍO RAHUE SECTOR CANCURA</t>
+          <t>TAP OFF PICHIRREHUE</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -3895,15 +3895,15 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>ARIDOS DOWLING &amp; SCHILLING S.A</t>
+          <t>Empresa Eléctrica Pilmaiquén S.A.</t>
         </is>
       </c>
       <c r="F74" t="n">
-        <v>1500</v>
+        <v>19800</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>25/05/2011</t>
+          <t>01/06/2011</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
@@ -3913,7 +3913,7 @@
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5626276&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5675930&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
@@ -3928,7 +3928,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Ampliación de rutas para el servicio de transporte, reciclaje y gestión de residuos industriales .</t>
+          <t>AMPLIACIÓN DE EXTRACCIÓN DE ÁRIDOS RÍO RAHUE SECTOR CANCURA</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3938,20 +3938,20 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Gestión Ambiental Limitada</t>
+          <t>ARIDOS DOWLING &amp; SCHILLING S.A</t>
         </is>
       </c>
       <c r="F75" t="n">
-        <v>250</v>
+        <v>1500</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>27/04/2011</t>
+          <t>25/05/2011</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
@@ -3961,7 +3961,7 @@
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5540550&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5626276&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -3976,7 +3976,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Piscicultura El Encanto</t>
+          <t>Ampliación de rutas para el servicio de transporte, reciclaje y gestión de residuos industriales .</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -3986,30 +3986,30 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Congelados Pacífico S.A.</t>
+          <t>Gestión Ambiental Limitada</t>
         </is>
       </c>
       <c r="F76" t="n">
-        <v>8500</v>
+        <v>250</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>19/04/2011</t>
+          <t>27/04/2011</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5435529&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5540550&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -4024,7 +4024,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Ampliacion de rutas para el transporte, reciclaje y gestión de residuos industriales. .</t>
+          <t>Piscicultura El Encanto</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -4034,30 +4034,30 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Gestión Ambiental Limitada</t>
+          <t>Congelados Pacífico S.A.</t>
         </is>
       </c>
       <c r="F77" t="n">
-        <v>250</v>
+        <v>8500</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>15/04/2011</t>
+          <t>19/04/2011</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5532880&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5435529&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -4072,7 +4072,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Mejoramiento y Ampliación de Producción Piscicultura Rupanquito</t>
+          <t>Ampliacion de rutas para el transporte, reciclaje y gestión de residuos industriales. .</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -4082,30 +4082,30 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Salmones Antártica S.A</t>
+          <t>Gestión Ambiental Limitada</t>
         </is>
       </c>
       <c r="F78" t="n">
-        <v>1500</v>
+        <v>250</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>08/03/2011</t>
+          <t>15/04/2011</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5425000&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5532880&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -4120,7 +4120,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Subestación Pilauco 220/66 kV</t>
+          <t>Mejoramiento y Ampliación de Producción Piscicultura Rupanquito</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -4135,15 +4135,15 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Sistema de Transmisión del Sur SA</t>
+          <t>Salmones Antártica S.A</t>
         </is>
       </c>
       <c r="F79" t="n">
-        <v>14800</v>
+        <v>1500</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>18/02/2011</t>
+          <t>08/03/2011</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
@@ -4153,7 +4153,7 @@
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5359373&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5425000&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
@@ -4168,7 +4168,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Modificación al Manejo de Mortalidad Mediante Sistema de Ensilaje. Piscicultura Las Quemas, Río Rahue, Comuna de Osorno.</t>
+          <t>Subestación Pilauco 220/66 kV</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -4183,15 +4183,15 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Piscicultura Las Quemas Chile S.A.</t>
+          <t>Sistema de Transmisión del Sur SA</t>
         </is>
       </c>
       <c r="F80" t="n">
-        <v>4</v>
+        <v>14800</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>04/02/2011</t>
+          <t>18/02/2011</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
@@ -4201,7 +4201,7 @@
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5317523&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5359373&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
@@ -4216,7 +4216,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>MEJORAMIENTO PLANTA DE DISPOSICIÓN FINAL DE RESIDUOS INDUSTRIALES ECOPRIAL</t>
+          <t>Modificación al Manejo de Mortalidad Mediante Sistema de Ensilaje. Piscicultura Las Quemas, Río Rahue, Comuna de Osorno.</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -4231,15 +4231,15 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Asesoría Los Olivos S.A</t>
+          <t>Piscicultura Las Quemas Chile S.A.</t>
         </is>
       </c>
       <c r="F81" t="n">
-        <v>500</v>
+        <v>4</v>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>27/01/2011</t>
+          <t>04/02/2011</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
@@ -4249,7 +4249,7 @@
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5285248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5317523&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
@@ -4287,17 +4287,17 @@
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>17/01/2011</t>
+          <t>27/01/2011</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5248742&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5285248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
@@ -4312,7 +4312,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Piscicultura El Venado</t>
+          <t>MEJORAMIENTO PLANTA DE DISPOSICIÓN FINAL DE RESIDUOS INDUSTRIALES ECOPRIAL</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -4327,25 +4327,25 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Sociedad Agrícola Covarrubias Fernández Ltda.</t>
+          <t>Asesoría Los Olivos S.A</t>
         </is>
       </c>
       <c r="F83" t="n">
-        <v>8000</v>
+        <v>500</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>19/10/2010</t>
+          <t>17/01/2011</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5012986&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5248742&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -4360,7 +4360,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>PROYECTO AMPLIACION EXTRACCION DE ARIDOS EN RIO RAHUE SECTOR FUNDO EL ALMUD</t>
+          <t>Piscicultura El Venado</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -4375,15 +4375,15 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>ARIDOS DOWLING &amp; SCHILLING S.A</t>
+          <t>Sociedad Agrícola Covarrubias Fernández Ltda.</t>
         </is>
       </c>
       <c r="F84" t="n">
-        <v>250</v>
+        <v>8000</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>08/10/2010</t>
+          <t>19/10/2010</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
@@ -4393,7 +4393,7 @@
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4992265&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5012986&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
@@ -4408,7 +4408,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS</t>
+          <t>PROYECTO AMPLIACION EXTRACCION DE ARIDOS EN RIO RAHUE SECTOR FUNDO EL ALMUD</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -4418,30 +4418,30 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Sociedad Logística Ambiental Ltda.</t>
+          <t>ARIDOS DOWLING &amp; SCHILLING S.A</t>
         </is>
       </c>
       <c r="F85" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>24/06/2010</t>
+          <t>08/10/2010</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4702856&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4992265&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
@@ -4456,7 +4456,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>SISTEMA DE ENSILAJE DE MORTALIDAD PISCICULTURA PICHICHANLELFU</t>
+          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -4466,30 +4466,30 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Mowi Chile S.A</t>
+          <t>Sociedad Logística Ambiental Ltda.</t>
         </is>
       </c>
       <c r="F86" t="n">
-        <v>50</v>
+        <v>300</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>06/05/2010</t>
+          <t>24/06/2010</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4552129&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4702856&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
@@ -4504,7 +4504,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Piscicultura El Venado</t>
+          <t>SISTEMA DE ENSILAJE DE MORTALIDAD PISCICULTURA PICHICHANLELFU</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -4519,25 +4519,25 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Sociedad Agrícola Covarrubias Fernández Ltda.</t>
+          <t>Mowi Chile S.A</t>
         </is>
       </c>
       <c r="F87" t="n">
-        <v>8000</v>
+        <v>50</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>04/05/2010</t>
+          <t>06/05/2010</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4492153&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4552129&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
@@ -4552,7 +4552,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
+          <t>Piscicultura El Venado</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -4562,30 +4562,30 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Sociedad Agrícola Covarrubias Fernández Ltda.</t>
         </is>
       </c>
       <c r="F88" t="n">
-        <v>250</v>
+        <v>8000</v>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>26/04/2010</t>
+          <t>04/05/2010</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4509429&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4492153&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
@@ -4600,7 +4600,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>BODEGA PARA EL ALMACENAMIENTO TRANSITORIO DE RESIDUOS INDUSTRIALES DE TERCEROS, ECOPRIAL</t>
+          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -4610,20 +4610,20 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Asesoría Los Olivos S.A</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F89" t="n">
-        <v>286</v>
+        <v>250</v>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>21/04/2010</t>
+          <t>26/04/2010</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
@@ -4633,7 +4633,7 @@
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4522528&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4509429&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
@@ -4648,7 +4648,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
+          <t>BODEGA PARA EL ALMACENAMIENTO TRANSITORIO DE RESIDUOS INDUSTRIALES DE TERCEROS, ECOPRIAL</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -4658,30 +4658,30 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Asesoría Los Olivos S.A</t>
         </is>
       </c>
       <c r="F90" t="n">
-        <v>250</v>
+        <v>286</v>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>10/02/2010</t>
+          <t>21/04/2010</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4352324&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4522528&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -4696,7 +4696,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -4711,15 +4711,15 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F91" t="n">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>22/01/2010</t>
+          <t>10/02/2010</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
@@ -4729,7 +4729,7 @@
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4352324&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
@@ -4744,7 +4744,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -4759,7 +4759,7 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F92" t="n">
@@ -4772,12 +4772,12 @@
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
@@ -4815,17 +4815,17 @@
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>15/01/2010</t>
+          <t>22/01/2010</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
@@ -4840,7 +4840,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Línea de Alta Tensión Antillanca - Nueva Barro Blanco (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -4850,30 +4850,30 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>Sistema de Transmisión del Sur SA</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F94" t="n">
-        <v>8000</v>
+        <v>0</v>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>22/12/2009</t>
+          <t>15/01/2010</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4270514&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
@@ -4888,7 +4888,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS (e-seia)</t>
+          <t>Línea de Alta Tensión Antillanca - Nueva Barro Blanco (e-seia)</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -4898,30 +4898,30 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>Sociedad Logística Ambiental Ltda.</t>
+          <t>Sistema de Transmisión del Sur SA</t>
         </is>
       </c>
       <c r="F95" t="n">
-        <v>0</v>
+        <v>8000</v>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>30/11/2009</t>
+          <t>22/12/2009</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4224783&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4270514&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
@@ -4936,7 +4936,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Subestación Nueva Barro Blanco 220/66 kV (e-seia)</t>
+          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -4946,30 +4946,30 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Sistema de Transmisión del Sur SA</t>
+          <t>Sociedad Logística Ambiental Ltda.</t>
         </is>
       </c>
       <c r="F96" t="n">
-        <v>14800</v>
+        <v>0</v>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>26/11/2009</t>
+          <t>30/11/2009</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4215834&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4224783&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
@@ -4984,7 +4984,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Regularización disposición final efluente Inmobiliaria Ferias Unidas de Osorno Limitada. Comuna de Osorno. Provincia de Osorno. Región de los Lagos. (e-seia)</t>
+          <t>Subestación Nueva Barro Blanco 220/66 kV (e-seia)</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -4999,15 +4999,15 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>Sociedad Inmobiliaria Ferias Unidas de Osorno Limitada</t>
+          <t>Sistema de Transmisión del Sur SA</t>
         </is>
       </c>
       <c r="F97" t="n">
-        <v>27</v>
+        <v>14800</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>12/11/2009</t>
+          <t>26/11/2009</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
@@ -5017,7 +5017,7 @@
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4185561&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4215834&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
@@ -5032,7 +5032,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Transporte Inter-Regional Terrestre de Residuos, PROCESAN S.A. (e-seia)</t>
+          <t>Regularización disposición final efluente Inmobiliaria Ferias Unidas de Osorno Limitada. Comuna de Osorno. Provincia de Osorno. Región de los Lagos. (e-seia)</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -5042,30 +5042,30 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>PROCESAN S.A.</t>
+          <t>Sociedad Inmobiliaria Ferias Unidas de Osorno Limitada</t>
         </is>
       </c>
       <c r="F98" t="n">
-        <v>377</v>
+        <v>27</v>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>23/10/2009</t>
+          <t>12/11/2009</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4134794&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4185561&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
@@ -5080,7 +5080,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>ESTUDIO Y DISEÑO PLAN DE CIERRE VERTEDERO COMUNA DE OSORNO (e-seia)</t>
+          <t>Transporte Inter-Regional Terrestre de Residuos, PROCESAN S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -5090,16 +5090,16 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Osorno</t>
+          <t>PROCESAN S.A.</t>
         </is>
       </c>
       <c r="F99" t="n">
-        <v>3400</v>
+        <v>377</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>
@@ -5108,12 +5108,12 @@
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4139027&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4134794&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
@@ -5128,7 +5128,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Incorporación de etapa fisicoquímica al sistema de tratamiento de RILes de MAFRISUR S.A. (e-seia)</t>
+          <t>ESTUDIO Y DISEÑO PLAN DE CIERRE VERTEDERO COMUNA DE OSORNO (e-seia)</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -5143,15 +5143,15 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>MAFRISUR S.A.</t>
+          <t>Ilustre Municipalidad de Osorno</t>
         </is>
       </c>
       <c r="F100" t="n">
-        <v>10</v>
+        <v>3400</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>29/09/2009</t>
+          <t>23/10/2009</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
@@ -5161,7 +5161,7 @@
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4085084&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4139027&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
@@ -5176,7 +5176,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos CMR Norte. (e-seia)</t>
+          <t>Incorporación de etapa fisicoquímica al sistema de tratamiento de RILes de MAFRISUR S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -5186,30 +5186,30 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>MAFRISUR S.A.</t>
         </is>
       </c>
       <c r="F101" t="n">
-        <v>250</v>
+        <v>10</v>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>18/08/2009</t>
+          <t>29/09/2009</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3960661&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4085084&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
@@ -5224,7 +5224,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Transporte de Combustibles y Residuos Industriales, Peligrosos y No Peligrosos entre Arica y Puerto Montt (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos CMR Norte. (e-seia)</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -5239,15 +5239,15 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>Transportes Centro Sur Norte S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F102" t="n">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>27/07/2009</t>
+          <t>18/08/2009</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
@@ -5257,7 +5257,7 @@
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3893261&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3960661&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
@@ -5272,7 +5272,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Proyecto Interregional de Transporte de Combustibles y Residuos Industriales, Peligrosos y No Peligrosos entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -5287,15 +5287,15 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>Sotrans Limitada</t>
+          <t>Transportes Centro Sur Norte S.A.</t>
         </is>
       </c>
       <c r="F103" t="n">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>02/06/2009</t>
+          <t>27/07/2009</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
@@ -5305,7 +5305,7 @@
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3893261&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
@@ -5320,7 +5320,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Planta Unidad Sur (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -5330,30 +5330,30 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>Envases Impresos SpA</t>
+          <t>Sotrans Limitada</t>
         </is>
       </c>
       <c r="F104" t="n">
-        <v>30000</v>
+        <v>22</v>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>20/04/2009</t>
+          <t>02/06/2009</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3715069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
@@ -5383,7 +5383,7 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>Envases Roble Alto S.A.</t>
+          <t>Envases Impresos SpA</t>
         </is>
       </c>
       <c r="F105" t="n">
@@ -5391,17 +5391,17 @@
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>08/04/2009</t>
+          <t>20/04/2009</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3685558&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3715069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
@@ -5416,7 +5416,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>LÍNEA DE TRANSMISIÓN ELÉCTRICA 2x220 kV OSORNOBARRO BLANCO (e-seia)</t>
+          <t>Planta Unidad Sur (e-seia)</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -5431,25 +5431,25 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>Empresa Eléctrica Pilmaiquén S.A.</t>
+          <t>Envases Roble Alto S.A.</t>
         </is>
       </c>
       <c r="F106" t="n">
-        <v>4560</v>
+        <v>30000</v>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>06/04/2009</t>
+          <t>08/04/2009</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3677275&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3685558&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
@@ -5464,10 +5464,14 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>EIA Relleno Sanitario Provincial de Osorno</t>
-        </is>
-      </c>
-      <c r="C107" t="inlineStr"/>
+          <t>LÍNEA DE TRANSMISIÓN ELÉCTRICA 2x220 kV OSORNOBARRO BLANCO (e-seia)</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D107" t="inlineStr">
         <is>
           <t>Décima</t>
@@ -5475,15 +5479,15 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Osorno</t>
+          <t>Empresa Eléctrica Pilmaiquén S.A.</t>
         </is>
       </c>
       <c r="F107" t="n">
-        <v>18000</v>
+        <v>4560</v>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>03/04/2009</t>
+          <t>06/04/2009</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
@@ -5493,7 +5497,7 @@
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3675668&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3677275&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
@@ -5508,14 +5512,10 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Ampliación Planta Osorno (e-seia)</t>
-        </is>
-      </c>
-      <c r="C108" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>EIA Relleno Sanitario Provincial de Osorno</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr"/>
       <c r="D108" t="inlineStr">
         <is>
           <t>Décima</t>
@@ -5523,15 +5523,15 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>Watts S.A.</t>
+          <t>Ilustre Municipalidad de Osorno</t>
         </is>
       </c>
       <c r="F108" t="n">
-        <v>22000</v>
+        <v>18000</v>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>24/03/2009</t>
+          <t>03/04/2009</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
@@ -5541,7 +5541,7 @@
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3639837&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3675668&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
@@ -5556,7 +5556,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Línea de Transmisión Los Negros-Barro Blanco (e-seia)</t>
+          <t>Ampliación Planta Osorno (e-seia)</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -5571,15 +5571,15 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>Sistema de Transmisión de Los Lagos S.A.</t>
+          <t>Watts S.A.</t>
         </is>
       </c>
       <c r="F109" t="n">
-        <v>0</v>
+        <v>22000</v>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>13/03/2009</t>
+          <t>24/03/2009</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
@@ -5589,7 +5589,7 @@
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3631384&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3639837&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
@@ -5604,7 +5604,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Transporte de Residuos de Plomo y Baterías en Desuso, por las Regiones VI, VII, VIII, IX, XIV y X (e-seia)</t>
+          <t>Línea de Transmisión Los Negros-Barro Blanco (e-seia)</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -5614,12 +5614,12 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>Transportes Reciclar Limitada</t>
+          <t>Sistema de Transmisión de Los Lagos S.A.</t>
         </is>
       </c>
       <c r="F110" t="n">
@@ -5627,7 +5627,7 @@
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>10/02/2009</t>
+          <t>13/03/2009</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
@@ -5637,7 +5637,7 @@
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3551870&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3631384&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
@@ -5652,7 +5652,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Residuos de Plomo y Baterías en Desuso, por las Regiones VI, VII, VIII, IX, XIV y X (e-seia)</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -5667,7 +5667,7 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>Transportes Reciclar Limitada</t>
         </is>
       </c>
       <c r="F111" t="n">
@@ -5675,17 +5675,17 @@
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>23/01/2009</t>
+          <t>10/02/2009</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503806&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3551870&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
@@ -5723,17 +5723,17 @@
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>27/11/2008</t>
+          <t>23/01/2009</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3337768&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503806&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
@@ -5748,7 +5748,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Transporte de Residuos de Plomo y Baterías en Desuso, por las Regiones VI, VII, VIII, IX, XIV y X (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -5763,7 +5763,7 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>Industria Proveedora de Partes Metalurgicas Ltda.</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F113" t="n">
@@ -5771,17 +5771,17 @@
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>07/11/2008</t>
+          <t>27/11/2008</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3321441&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3337768&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
@@ -5796,7 +5796,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Transporte de Residuos de Plomo y Baterías en Desuso, por las Regiones VI, VII, VIII, IX, XIV y X (e-seia)</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -5811,25 +5811,25 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Industria Proveedora de Partes Metalurgicas Ltda.</t>
         </is>
       </c>
       <c r="F114" t="n">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>30/10/2008</t>
+          <t>07/11/2008</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3313847&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3321441&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
@@ -5867,17 +5867,17 @@
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>15/10/2008</t>
+          <t>30/10/2008</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3313847&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
@@ -5892,7 +5892,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -5907,11 +5907,11 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F116" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G116" t="inlineStr">
         <is>
@@ -5920,12 +5920,12 @@
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
@@ -5940,7 +5940,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Proyecto Inmobiliario Portal Osorno (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -5950,30 +5950,30 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>Inmobiliaria Martabid Limitada</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F117" t="n">
-        <v>20000</v>
+        <v>250</v>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>10/10/2008</t>
+          <t>15/10/2008</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3272599&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
@@ -5988,7 +5988,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS DE PLOMO Y BATERÍAS USADAS POR LAS REGIONES VI, VII, VIII, IX, XIV y X (e-seia)</t>
+          <t>Proyecto Inmobiliario Portal Osorno (e-seia)</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -5998,16 +5998,16 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>Industria Proveedora de Partes Metalurgicas Ltda.</t>
+          <t>Inmobiliaria Martabid Limitada</t>
         </is>
       </c>
       <c r="F118" t="n">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G118" t="inlineStr">
         <is>
@@ -6016,12 +6016,12 @@
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3249759&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3272599&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
@@ -6036,7 +6036,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS DE PLOMO Y BATERÍAS USADAS POR LAS REGIONES VI, VII, VIII, IX, XIV y X (e-seia)</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -6051,25 +6051,25 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Industria Proveedora de Partes Metalurgicas Ltda.</t>
         </is>
       </c>
       <c r="F119" t="n">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>01/10/2008</t>
+          <t>10/10/2008</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3232866&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3249759&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
@@ -6084,7 +6084,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>PLANTA ELABORADORA DE LECHE EN POLVO, COMUNA DE OSORNO, REGIÓN DE LOS LAGOS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -6094,30 +6094,30 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>Nestlé Chile S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F120" t="n">
-        <v>84000</v>
+        <v>250</v>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>29/09/2008</t>
+          <t>01/10/2008</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223561&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3232866&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
@@ -6132,7 +6132,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>PLANTA ELABORADORA DE LECHE EN POLVO, COMUNA DE OSORNO, REGIÓN DE LOS LAGOS (e-seia)</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -6142,30 +6142,30 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Nestlé Chile S.A.</t>
         </is>
       </c>
       <c r="F121" t="n">
-        <v>20</v>
+        <v>84000</v>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>16/09/2008</t>
+          <t>29/09/2008</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3192496&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223561&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
@@ -6180,7 +6180,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Regularización de Ampliación y Adición de Equipos al Sistema de Tratamiento de riles de la Planta Frigorífico de Osorno S.A. Comuna de Osorno. Región de los Lagos (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -6190,30 +6190,30 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>Frigorífico de osorno S.A.</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F122" t="n">
-        <v>160</v>
+        <v>20</v>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>28/08/2008</t>
+          <t>16/09/2008</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3143976&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3192496&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
@@ -6228,7 +6228,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>Regularización de Ampliación y Adición de Equipos al Sistema de Tratamiento de riles de la Planta Frigorífico de Osorno S.A. Comuna de Osorno. Región de los Lagos (e-seia)</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -6238,30 +6238,30 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Frigorífico de osorno S.A.</t>
         </is>
       </c>
       <c r="F123" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>20/08/2008</t>
+          <t>28/08/2008</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3143976&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
@@ -6276,7 +6276,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -6291,25 +6291,25 @@
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F124" t="n">
-        <v>1650</v>
+        <v>250</v>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>06/08/2008</t>
+          <t>20/08/2008</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3079271&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
@@ -6324,7 +6324,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -6339,15 +6339,15 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F125" t="n">
-        <v>20</v>
+        <v>1650</v>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>05/08/2008</t>
+          <t>06/08/2008</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
@@ -6357,7 +6357,7 @@
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3079271&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
@@ -6372,7 +6372,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Segunda Modificación Piscicultura Santa Juana (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -6382,30 +6382,30 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>Cermaq Chile S.A.</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F126" t="n">
-        <v>7000</v>
+        <v>20</v>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>11/07/2008</t>
+          <t>05/08/2008</t>
         </is>
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3031825&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
@@ -6420,7 +6420,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>transporte de residuos peligrosos (e-seia)</t>
+          <t>Segunda Modificación Piscicultura Santa Juana (e-seia)</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -6430,30 +6430,30 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Cermaq Chile S.A.</t>
         </is>
       </c>
       <c r="F127" t="n">
-        <v>20</v>
+        <v>7000</v>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>09/07/2008</t>
+          <t>11/07/2008</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3023770&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3031825&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
@@ -6468,7 +6468,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
+          <t>transporte de residuos peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -6483,15 +6483,15 @@
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F128" t="n">
-        <v>1650</v>
+        <v>20</v>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>07/07/2008</t>
+          <t>09/07/2008</t>
         </is>
       </c>
       <c r="H128" t="inlineStr">
@@ -6501,7 +6501,7 @@
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3008477&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3023770&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
@@ -6516,7 +6516,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>transporte de residuos peligrosos (e-seia)</t>
+          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -6531,15 +6531,15 @@
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F129" t="n">
-        <v>20</v>
+        <v>1650</v>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>30/05/2008</t>
+          <t>07/07/2008</t>
         </is>
       </c>
       <c r="H129" t="inlineStr">
@@ -6549,7 +6549,7 @@
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2910651&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3008477&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
@@ -6564,7 +6564,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Ampliacion Central Chuyaca (e-seia)</t>
+          <t>transporte de residuos peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -6574,30 +6574,30 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>SAGESA S.A.</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F130" t="n">
-        <v>4800</v>
+        <v>20</v>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>17/04/2008</t>
+          <t>30/05/2008</t>
         </is>
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2845928&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2910651&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
@@ -6612,7 +6612,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Modificación Piscicultura Las Quemas. Río Rahue. Comuna de Osorno (e-seia)</t>
+          <t>Ampliacion Central Chuyaca (e-seia)</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -6627,15 +6627,15 @@
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>PISCICULTURA LAS QUEMAS CHILE S.A.</t>
+          <t>SAGESA S.A.</t>
         </is>
       </c>
       <c r="F131" t="n">
-        <v>4000</v>
+        <v>4800</v>
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>19/03/2008</t>
+          <t>17/04/2008</t>
         </is>
       </c>
       <c r="H131" t="inlineStr">
@@ -6645,7 +6645,7 @@
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2767784&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2845928&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
@@ -6660,7 +6660,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Aguas Residuales mediante Lombrifiltro para Lácteos Paraguay, Comuna de Osorno, X Región. (e-seia)</t>
+          <t>Modificación Piscicultura Las Quemas. Río Rahue. Comuna de Osorno (e-seia)</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -6675,15 +6675,15 @@
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>Gonzalo Andrés Schwalm Urzúa</t>
+          <t>PISCICULTURA LAS QUEMAS CHILE S.A.</t>
         </is>
       </c>
       <c r="F132" t="n">
-        <v>250</v>
+        <v>4000</v>
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>28/02/2008</t>
+          <t>19/03/2008</t>
         </is>
       </c>
       <c r="H132" t="inlineStr">
@@ -6693,7 +6693,7 @@
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2737933&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2767784&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
@@ -6708,7 +6708,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Aguas Residuales mediante Lombrifiltro para "Lácteos Paraguay", Comuna de Osorno, X Región. (e-seia)</t>
+          <t>Planta de Tratamiento de Aguas Residuales mediante Lombrifiltro para Lácteos Paraguay, Comuna de Osorno, X Región. (e-seia)</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -6731,17 +6731,17 @@
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>06/02/2008</t>
+          <t>28/02/2008</t>
         </is>
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2690534&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2737933&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
@@ -6756,7 +6756,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Planta de Disposición Final de Residuos Industriales ECOPRIAL (e-seia)</t>
+          <t>Planta de Tratamiento de Aguas Residuales mediante Lombrifiltro para "Lácteos Paraguay", Comuna de Osorno, X Región. (e-seia)</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -6771,25 +6771,25 @@
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>Asesorías Los Olivos S.A.</t>
+          <t>Gonzalo Andrés Schwalm Urzúa</t>
         </is>
       </c>
       <c r="F134" t="n">
-        <v>1045</v>
+        <v>250</v>
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>30/01/2008</t>
+          <t>06/02/2008</t>
         </is>
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2667394&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2690534&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
@@ -6804,7 +6804,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE SUSTANCIAS PELIGROSAS EN Y ENTRE LAS REGIONES XV Y X (e-seia)</t>
+          <t>Planta de Disposición Final de Residuos Industriales ECOPRIAL (e-seia)</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -6814,20 +6814,20 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>INVERSIONES AUTOMOTRICES K Y L LIMITADA</t>
+          <t>Asesorías Los Olivos S.A.</t>
         </is>
       </c>
       <c r="F135" t="n">
-        <v>0</v>
+        <v>1045</v>
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>29/01/2008</t>
+          <t>30/01/2008</t>
         </is>
       </c>
       <c r="H135" t="inlineStr">
@@ -6837,7 +6837,7 @@
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2671596&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2667394&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
@@ -6852,7 +6852,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Piscicultura Pilmaiquén (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE SUSTANCIAS PELIGROSAS EN Y ENTRE LAS REGIONES XV Y X (e-seia)</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -6862,30 +6862,30 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>Inversiones Aubel Limitada</t>
+          <t>INVERSIONES AUTOMOTRICES K Y L LIMITADA</t>
         </is>
       </c>
       <c r="F136" t="n">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>23/11/2007</t>
+          <t>29/01/2008</t>
         </is>
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2507396&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2671596&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
@@ -6900,7 +6900,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Transporte Trans Regional Terrestre de Residuos Industriales (e-seia)</t>
+          <t>Piscicultura Pilmaiquén (e-seia)</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -6910,30 +6910,30 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
+          <t>Inversiones Aubel Limitada</t>
         </is>
       </c>
       <c r="F137" t="n">
-        <v>429</v>
+        <v>1500</v>
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>02/11/2007</t>
+          <t>23/11/2007</t>
         </is>
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2474976&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2507396&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
@@ -6948,7 +6948,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte Trans Regional Terrestre de Residuos Industriales (e-seia)</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -6963,25 +6963,25 @@
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F138" t="n">
-        <v>30</v>
+        <v>429</v>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>25/10/2007</t>
+          <t>02/11/2007</t>
         </is>
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2454259&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2474976&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
@@ -6996,7 +6996,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -7011,25 +7011,25 @@
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>Servicio de Aseo Integral Monterredondo S.A</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F139" t="n">
-        <v>234</v>
+        <v>30</v>
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>08/10/2007</t>
+          <t>25/10/2007</t>
         </is>
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2454259&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
@@ -7044,7 +7044,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -7059,25 +7059,25 @@
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>Transportes Máximo Enrique Sciarresi González EIRL</t>
+          <t>Servicio de Aseo Integral Monterredondo S.A</t>
         </is>
       </c>
       <c r="F140" t="n">
-        <v>250</v>
+        <v>234</v>
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>20/09/2007</t>
+          <t>08/10/2007</t>
         </is>
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2392309&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
@@ -7092,7 +7092,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Matadero Ovino MAFRISUR S.A., comuna de Osorno, Región deLos Lagos (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -7102,20 +7102,20 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>MAFRISUR S.A.</t>
+          <t>Transportes Máximo Enrique Sciarresi González EIRL</t>
         </is>
       </c>
       <c r="F141" t="n">
-        <v>6000</v>
+        <v>250</v>
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>03/09/2007</t>
+          <t>20/09/2007</t>
         </is>
       </c>
       <c r="H141" t="inlineStr">
@@ -7125,7 +7125,7 @@
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2374309&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2392309&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
@@ -7140,7 +7140,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>Matadero Ovino MAFRISUR S.A., comuna de Osorno, Región deLos Lagos (e-seia)</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -7150,30 +7150,30 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>MAFRISUR S.A.</t>
         </is>
       </c>
       <c r="F142" t="n">
-        <v>10</v>
+        <v>6000</v>
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>31/08/2007</t>
+          <t>03/09/2007</t>
         </is>
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2374309&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
@@ -7188,7 +7188,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>CONJUNTO HABITACIONAL JARDIN DEL ALTO,OSORNO (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -7198,16 +7198,16 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>Inmobiliaria Fourcade S.A.</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F143" t="n">
-        <v>3370</v>
+        <v>10</v>
       </c>
       <c r="G143" t="inlineStr">
         <is>
@@ -7216,12 +7216,12 @@
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2359952&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
@@ -7236,7 +7236,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales (e-seia)</t>
+          <t>CONJUNTO HABITACIONAL JARDIN DEL ALTO,OSORNO (e-seia)</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -7246,30 +7246,30 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>Castañeda Hermanos Ltda.</t>
+          <t>Inmobiliaria Fourcade S.A.</t>
         </is>
       </c>
       <c r="F144" t="n">
-        <v>300</v>
+        <v>3370</v>
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>23/08/2007</t>
+          <t>31/08/2007</t>
         </is>
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2329508&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2359952&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
@@ -7284,7 +7284,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Transportes de Residuos Industrales (e-seia)</t>
+          <t>Transporte de Residuos Industriales (e-seia)</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -7307,17 +7307,17 @@
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>04/07/2007</t>
+          <t>23/08/2007</t>
         </is>
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2329508&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J145" t="inlineStr">
@@ -7332,7 +7332,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>Transportes de Residuos Industrales (e-seia)</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -7347,25 +7347,25 @@
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>Global Index Chile Servicios Integrales Limitada</t>
+          <t>Castañeda Hermanos Ltda.</t>
         </is>
       </c>
       <c r="F146" t="n">
-        <v>80</v>
+        <v>300</v>
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>13/06/2007</t>
+          <t>04/07/2007</t>
         </is>
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2199692&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J146" t="inlineStr">
@@ -7380,7 +7380,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Drenaje Superficial Fundo Los Notros (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -7390,30 +7390,30 @@
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>Marìa Magdalena Erratchou Lara</t>
+          <t>Global Index Chile Servicios Integrales Limitada</t>
         </is>
       </c>
       <c r="F147" t="n">
-        <v>132</v>
+        <v>80</v>
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>25/04/2007</t>
+          <t>13/06/2007</t>
         </is>
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2124152&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2199692&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
@@ -7428,7 +7428,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Modificacion Piscicultura Santa Juana (e-seia)</t>
+          <t>Drenaje Superficial Fundo Los Notros (e-seia)</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -7443,15 +7443,15 @@
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>Cermaq Chile S.A.</t>
+          <t>Marìa Magdalena Erratchou Lara</t>
         </is>
       </c>
       <c r="F148" t="n">
-        <v>3000</v>
+        <v>132</v>
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>12/04/2007</t>
+          <t>25/04/2007</t>
         </is>
       </c>
       <c r="H148" t="inlineStr">
@@ -7461,7 +7461,7 @@
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2094113&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2124152&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">
@@ -7476,7 +7476,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>SISTEMA DE TRATAMIENTO DE RESIDUOS INDUSTRIALES LIQUIDOS AGROLACTEOS CUINCO SA (e-seia)</t>
+          <t>Modificacion Piscicultura Santa Juana (e-seia)</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -7491,15 +7491,15 @@
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>Distribuidora J.A Ltda.</t>
+          <t>Cermaq Chile S.A.</t>
         </is>
       </c>
       <c r="F149" t="n">
-        <v>100</v>
+        <v>3000</v>
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>09/04/2007</t>
+          <t>12/04/2007</t>
         </is>
       </c>
       <c r="H149" t="inlineStr">
@@ -7509,7 +7509,7 @@
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2092314&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2094113&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
@@ -7524,7 +7524,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Drenaje Predio Polloico (e-seia)</t>
+          <t>SISTEMA DE TRATAMIENTO DE RESIDUOS INDUSTRIALES LIQUIDOS AGROLACTEOS CUINCO SA (e-seia)</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -7539,25 +7539,25 @@
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>Alfonso Guillermo Besser Hayler</t>
+          <t>Distribuidora J.A Ltda.</t>
         </is>
       </c>
       <c r="F150" t="n">
-        <v>44</v>
+        <v>100</v>
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>21/03/2007</t>
+          <t>09/04/2007</t>
         </is>
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2057529&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2092314&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
@@ -7572,7 +7572,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región, incluyendo la Región Metropolitana (e-seia)</t>
+          <t>Drenaje Predio Polloico (e-seia)</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -7582,30 +7582,30 @@
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>Empresa de Residuos RESITER S.A.</t>
+          <t>Alfonso Guillermo Besser Hayler</t>
         </is>
       </c>
       <c r="F151" t="n">
-        <v>1</v>
+        <v>44</v>
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>16/03/2007</t>
+          <t>21/03/2007</t>
         </is>
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049917&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2057529&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J151" t="inlineStr">
@@ -7620,7 +7620,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Transporte Ferroviario y Almacenamiento de Combustible (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región, incluyendo la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -7635,25 +7635,25 @@
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>Ferrocarril del Pacífico S.A.</t>
+          <t>Empresa de Residuos RESITER S.A.</t>
         </is>
       </c>
       <c r="F152" t="n">
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>26/02/2007</t>
+          <t>16/03/2007</t>
         </is>
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2016722&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049917&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J152" t="inlineStr">
@@ -7668,7 +7668,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>TRANSPORTE FERROVIARIO Y ALMACENAMIENTO DE COMBUSTIBLES (e-seia)</t>
+          <t>Transporte Ferroviario y Almacenamiento de Combustible (e-seia)</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -7691,17 +7691,17 @@
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>14/02/2007</t>
+          <t>26/02/2007</t>
         </is>
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1990390&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2016722&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J153" t="inlineStr">
@@ -7716,7 +7716,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región incluyendo la Región Metropolitana (e-seia)</t>
+          <t>TRANSPORTE FERROVIARIO Y ALMACENAMIENTO DE COMBUSTIBLES (e-seia)</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -7731,15 +7731,15 @@
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>Empresa de Residuos RESITER S.A.</t>
+          <t>Ferrocarril del Pacífico S.A.</t>
         </is>
       </c>
       <c r="F154" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>13/02/2007</t>
+          <t>14/02/2007</t>
         </is>
       </c>
       <c r="H154" t="inlineStr">
@@ -7749,7 +7749,7 @@
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1984174&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1990390&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
@@ -7764,7 +7764,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región incluyendo la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -7779,25 +7779,25 @@
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Empresa de Residuos RESITER S.A.</t>
         </is>
       </c>
       <c r="F155" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>12/01/2007</t>
+          <t>13/02/2007</t>
         </is>
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1984174&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
@@ -7812,7 +7812,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -7835,17 +7835,17 @@
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>29/12/2006</t>
+          <t>12/01/2007</t>
         </is>
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
@@ -7860,7 +7860,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en Camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -7875,25 +7875,25 @@
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F157" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>12/12/2006</t>
+          <t>29/12/2006</t>
         </is>
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1852126&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
@@ -7908,7 +7908,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>TRANSPORTES DE ACEITES USADOS (e-seia)</t>
+          <t>Transporte Terrestre en Camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X (e-seia)</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -7923,25 +7923,25 @@
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>TRANSPORTES INOSTROZA LTDA</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F158" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>07/12/2006</t>
+          <t>12/12/2006</t>
         </is>
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1843978&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1852126&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
@@ -7956,7 +7956,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>TRANSPORTES DE ACEITES USADOS (e-seia)</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -7971,25 +7971,25 @@
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES INOSTROZA LTDA</t>
         </is>
       </c>
       <c r="F159" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>10/11/2006</t>
+          <t>07/12/2006</t>
         </is>
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1843978&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
@@ -8004,7 +8004,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -8019,25 +8019,25 @@
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>Prodelin Ltda.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F160" t="n">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>06/11/2006</t>
+          <t>10/11/2006</t>
         </is>
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1785275&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J160" t="inlineStr">
@@ -8052,7 +8052,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Transporte terrestre en camiones de Sustancias y Residuos Peligrosos entre la regiones V y X 193 (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -8067,25 +8067,25 @@
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>Prodelin Ltda.</t>
         </is>
       </c>
       <c r="F161" t="n">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>25/10/2006</t>
+          <t>06/11/2006</t>
         </is>
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1767215&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1785275&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J161" t="inlineStr">
@@ -8100,7 +8100,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Transporte de Residuos industrial por las rutas indicadas (e-seia)</t>
+          <t>Transporte terrestre en camiones de Sustancias y Residuos Peligrosos entre la regiones V y X 193 (e-seia)</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -8115,15 +8115,15 @@
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>Empresa de Transportes Trans-residuos</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F162" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>28/09/2006</t>
+          <t>25/10/2006</t>
         </is>
       </c>
       <c r="H162" t="inlineStr">
@@ -8133,7 +8133,7 @@
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1726867&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1767215&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J162" t="inlineStr">
@@ -8148,7 +8148,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Proyecto Pradera, Aumento de capacidad Planta Prolesur Osorno (e-seia)</t>
+          <t>Transporte de Residuos industrial por las rutas indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -8158,30 +8158,30 @@
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>Prolesur S.A.</t>
+          <t>Empresa de Transportes Trans-residuos</t>
         </is>
       </c>
       <c r="F163" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>01/09/2006</t>
+          <t>28/09/2006</t>
         </is>
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1643306&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1726867&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J163" t="inlineStr">
@@ -8196,7 +8196,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES PELIGROSOS Y NO PELIGROSOS POR RUTAS INDICADAS ENTRE I y X REGION (e-seia)</t>
+          <t>Proyecto Pradera, Aumento de capacidad Planta Prolesur Osorno (e-seia)</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -8206,20 +8206,20 @@
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>GESTION INTEGRAL DE RESIDUOS GEOBARRA EXINS LTDA.</t>
+          <t>Prolesur S.A.</t>
         </is>
       </c>
       <c r="F164" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>09/08/2006</t>
+          <t>01/09/2006</t>
         </is>
       </c>
       <c r="H164" t="inlineStr">
@@ -8229,7 +8229,7 @@
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1616105&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1643306&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J164" t="inlineStr">
@@ -8244,7 +8244,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Drenaje Superficial Predio Los Nogales (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES PELIGROSOS Y NO PELIGROSOS POR RUTAS INDICADAS ENTRE I y X REGION (e-seia)</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -8254,20 +8254,20 @@
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>Edmundo Kram Toledo</t>
+          <t>GESTION INTEGRAL DE RESIDUOS GEOBARRA EXINS LTDA.</t>
         </is>
       </c>
       <c r="F165" t="n">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>31/07/2006</t>
+          <t>09/08/2006</t>
         </is>
       </c>
       <c r="H165" t="inlineStr">
@@ -8277,7 +8277,7 @@
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1601455&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1616105&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J165" t="inlineStr">
@@ -8292,7 +8292,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Sistema de Tratamiento de Residuos Industriales Líquidos de Soc. Col. y Com. Jorge y Mario Meyer Buschmann (Lácteos Mulpulmo) X Región (e-seia)</t>
+          <t>Drenaje Superficial Predio Los Nogales (e-seia)</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -8307,15 +8307,15 @@
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>Lácteos del Sur S.A.</t>
+          <t>Edmundo Kram Toledo</t>
         </is>
       </c>
       <c r="F166" t="n">
-        <v>850</v>
+        <v>87</v>
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>20/07/2006</t>
+          <t>31/07/2006</t>
         </is>
       </c>
       <c r="H166" t="inlineStr">
@@ -8325,7 +8325,7 @@
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1594850&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1601455&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J166" t="inlineStr">
@@ -8340,7 +8340,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Piscicultura Las Quemas, Río Rahue, Comuna de Osorno (e-seia)</t>
+          <t>Sistema de Tratamiento de Residuos Industriales Líquidos de Soc. Col. y Com. Jorge y Mario Meyer Buschmann (Lácteos Mulpulmo) X Región (e-seia)</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -8355,15 +8355,15 @@
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>PISCICULTURA LAS QUEMAS CHILE S.A.</t>
+          <t>Lácteos del Sur S.A.</t>
         </is>
       </c>
       <c r="F167" t="n">
-        <v>2000</v>
+        <v>850</v>
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>18/07/2006</t>
+          <t>20/07/2006</t>
         </is>
       </c>
       <c r="H167" t="inlineStr">
@@ -8373,7 +8373,7 @@
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1574723&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1594850&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J167" t="inlineStr">
@@ -8388,7 +8388,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>TransporteTerrestre de Residuos Industriales Peligrosos y No Peligrosos por Rutas Indicadas entre la I y X Región (e-seia)</t>
+          <t>Piscicultura Las Quemas, Río Rahue, Comuna de Osorno (e-seia)</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -8398,30 +8398,30 @@
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>mario enrique barra diaz</t>
+          <t>PISCICULTURA LAS QUEMAS CHILE S.A.</t>
         </is>
       </c>
       <c r="F168" t="n">
-        <v>80</v>
+        <v>2000</v>
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>22/06/2006</t>
+          <t>18/07/2006</t>
         </is>
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1508957&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1574723&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J168" t="inlineStr">
@@ -8436,7 +8436,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Transporte de Combustible (e-seia)</t>
+          <t>TransporteTerrestre de Residuos Industriales Peligrosos y No Peligrosos por Rutas Indicadas entre la I y X Región (e-seia)</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -8451,25 +8451,25 @@
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
+          <t>mario enrique barra diaz</t>
         </is>
       </c>
       <c r="F169" t="n">
-        <v>500</v>
+        <v>80</v>
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>21/04/2006</t>
+          <t>22/06/2006</t>
         </is>
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1408985&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1508957&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J169" t="inlineStr">
@@ -8484,7 +8484,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Transporte de Combustibles (e-seia)</t>
+          <t>Transporte de Combustible (e-seia)</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -8507,17 +8507,17 @@
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>31/03/2006</t>
+          <t>21/04/2006</t>
         </is>
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1408985&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J170" t="inlineStr">
@@ -8532,7 +8532,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
+          <t>Transporte de Combustibles (e-seia)</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -8547,25 +8547,25 @@
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>Francisco Javier Acuña Carter</t>
+          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
         </is>
       </c>
       <c r="F171" t="n">
-        <v>4000</v>
+        <v>500</v>
       </c>
       <c r="G171" t="inlineStr">
         <is>
-          <t>27/03/2006</t>
+          <t>31/03/2006</t>
         </is>
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J171" t="inlineStr">
@@ -8580,7 +8580,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -8603,17 +8603,17 @@
       </c>
       <c r="G172" t="inlineStr">
         <is>
-          <t>06/03/2006</t>
+          <t>27/03/2006</t>
         </is>
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J172" t="inlineStr">
@@ -8628,7 +8628,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Transporte de sustancias y residuos peligrosos (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -8643,25 +8643,25 @@
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>Iris Leiva ALbornoz Ltda.</t>
+          <t>Francisco Javier Acuña Carter</t>
         </is>
       </c>
       <c r="F173" t="n">
-        <v>0</v>
+        <v>4000</v>
       </c>
       <c r="G173" t="inlineStr">
         <is>
-          <t>02/03/2006</t>
+          <t>06/03/2006</t>
         </is>
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1281009&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">
@@ -8676,7 +8676,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>"PLANTA ELABORADORA DE PRODUCTOS LÁCTEOS, OSORNO, X REGIÓN" 0 (e-seia)</t>
+          <t>Transporte de sustancias y residuos peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -8686,30 +8686,30 @@
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>Manuel Ellies Fuenzalida</t>
+          <t>Iris Leiva ALbornoz Ltda.</t>
         </is>
       </c>
       <c r="F174" t="n">
-        <v>17950</v>
+        <v>0</v>
       </c>
       <c r="G174" t="inlineStr">
         <is>
-          <t>29/11/2005</t>
+          <t>02/03/2006</t>
         </is>
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1137908&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1281009&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J174" t="inlineStr">
@@ -8724,7 +8724,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE PLOMO, RESIDUOS PLOMADOS Y OTROS RESIDUOS PELIGROSOS 053562 (e-seia)</t>
+          <t>"PLANTA ELABORADORA DE PRODUCTOS LÁCTEOS, OSORNO, X REGIÓN" 0 (e-seia)</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -8734,20 +8734,20 @@
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>BATERIAS COSMOS LTDA</t>
+          <t>Manuel Ellies Fuenzalida</t>
         </is>
       </c>
       <c r="F175" t="n">
-        <v>160</v>
+        <v>17950</v>
       </c>
       <c r="G175" t="inlineStr">
         <is>
-          <t>11/11/2005</t>
+          <t>29/11/2005</t>
         </is>
       </c>
       <c r="H175" t="inlineStr">
@@ -8757,7 +8757,7 @@
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1102933&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1137908&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
@@ -8772,7 +8772,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>TRANSPORTE DE PLOMO, RESIDUOS PLOMADOS Y OTROS RESIDUOS PELIGROSOS 053562 (e-seia)</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -8787,15 +8787,15 @@
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>Renzo Luis Pereira Sandoval</t>
+          <t>BATERIAS COSMOS LTDA</t>
         </is>
       </c>
       <c r="F176" t="n">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="G176" t="inlineStr">
         <is>
-          <t>08/09/2005</t>
+          <t>11/11/2005</t>
         </is>
       </c>
       <c r="H176" t="inlineStr">
@@ -8805,7 +8805,7 @@
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1102933&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J176" t="inlineStr">
@@ -8835,11 +8835,11 @@
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>Jorge Díaz Contreras</t>
+          <t>Renzo Luis Pereira Sandoval</t>
         </is>
       </c>
       <c r="F177" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="G177" t="inlineStr">
         <is>
@@ -8853,7 +8853,7 @@
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J177" t="inlineStr">
@@ -8868,7 +8868,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -8883,11 +8883,11 @@
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>Transportes Santa María S.A.</t>
+          <t>Jorge Díaz Contreras</t>
         </is>
       </c>
       <c r="F178" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="G178" t="inlineStr">
         <is>
@@ -8901,7 +8901,7 @@
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J178" t="inlineStr">
@@ -8916,7 +8916,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Conjunto Habitacional Sector Lololhue, Comuna de osorno (e-seia)</t>
+          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -8926,20 +8926,20 @@
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>SERVICIO DE VIVIENDA Y URBANISMO X REGION</t>
+          <t>Transportes Santa María S.A.</t>
         </is>
       </c>
       <c r="F179" t="n">
-        <v>20000</v>
+        <v>200</v>
       </c>
       <c r="G179" t="inlineStr">
         <is>
-          <t>19/07/2005</t>
+          <t>08/09/2005</t>
         </is>
       </c>
       <c r="H179" t="inlineStr">
@@ -8949,7 +8949,7 @@
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=951284&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J179" t="inlineStr">
@@ -8964,7 +8964,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Ampliación Pozo de Aridos Hadida Ampliación Pozo de Arido Hadida (e-seia)</t>
+          <t>Conjunto Habitacional Sector Lololhue, Comuna de osorno (e-seia)</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -8979,15 +8979,15 @@
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>Edgar Walter Hadida Schmid</t>
+          <t>SERVICIO DE VIVIENDA Y URBANISMO X REGION</t>
         </is>
       </c>
       <c r="F180" t="n">
-        <v>1</v>
+        <v>20000</v>
       </c>
       <c r="G180" t="inlineStr">
         <is>
-          <t>08/06/2005</t>
+          <t>19/07/2005</t>
         </is>
       </c>
       <c r="H180" t="inlineStr">
@@ -8997,7 +8997,7 @@
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=879261&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=951284&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J180" t="inlineStr">
@@ -9012,7 +9012,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Modificación Sistema de Tratamiento de Residuos MAtadero frigorífico del Sur S.A. Sistema de Tratamiento Matadero Frigorifico Osorno (e-seia)</t>
+          <t>Ampliación Pozo de Aridos Hadida Ampliación Pozo de Arido Hadida (e-seia)</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -9027,11 +9027,11 @@
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>Matadero Frigorífico del Sur S.A.</t>
+          <t>Edgar Walter Hadida Schmid</t>
         </is>
       </c>
       <c r="F181" t="n">
-        <v>862</v>
+        <v>1</v>
       </c>
       <c r="G181" t="inlineStr">
         <is>
@@ -9045,7 +9045,7 @@
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=883177&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=879261&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J181" t="inlineStr">
@@ -9060,7 +9060,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Transporte terrestre de sustancias químicas (e-seia)</t>
+          <t>Modificación Sistema de Tratamiento de Residuos MAtadero frigorífico del Sur S.A. Sistema de Tratamiento Matadero Frigorifico Osorno (e-seia)</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -9070,20 +9070,20 @@
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>Inmobiliaria e inversiones Polykarpo S.A.</t>
+          <t>Matadero Frigorífico del Sur S.A.</t>
         </is>
       </c>
       <c r="F182" t="n">
-        <v>200</v>
+        <v>862</v>
       </c>
       <c r="G182" t="inlineStr">
         <is>
-          <t>05/05/2005</t>
+          <t>08/06/2005</t>
         </is>
       </c>
       <c r="H182" t="inlineStr">
@@ -9093,7 +9093,7 @@
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=664436&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=883177&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J182" t="inlineStr">
@@ -9131,17 +9131,17 @@
       </c>
       <c r="G183" t="inlineStr">
         <is>
-          <t>09/03/2005</t>
+          <t>05/05/2005</t>
         </is>
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=614117&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=664436&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J183" t="inlineStr">
@@ -9156,7 +9156,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Modificación Plan Regulador de Osorno. (e-seia)</t>
+          <t>Transporte terrestre de sustancias químicas (e-seia)</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -9166,30 +9166,30 @@
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Osorno</t>
+          <t>Inmobiliaria e inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F184" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G184" t="inlineStr">
         <is>
-          <t>06/01/2005</t>
+          <t>09/03/2005</t>
         </is>
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=561189&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=614117&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J184" t="inlineStr">
@@ -9204,7 +9204,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Transporte terrestre de residuos industriales y productos asimilables por caminos que se indican de la I a la X Región (e-seia)</t>
+          <t>Modificación Plan Regulador de Osorno. (e-seia)</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -9214,20 +9214,20 @@
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>Empresa de Transportes Los Ríos S.A.</t>
+          <t>Ilustre Municipalidad de Osorno</t>
         </is>
       </c>
       <c r="F185" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G185" t="inlineStr">
         <is>
-          <t>08/11/2004</t>
+          <t>06/01/2005</t>
         </is>
       </c>
       <c r="H185" t="inlineStr">
@@ -9237,7 +9237,7 @@
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=502823&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=561189&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J185" t="inlineStr">
@@ -9252,7 +9252,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Drenaje Predio Polloico (e-seia)</t>
+          <t>Transporte terrestre de residuos industriales y productos asimilables por caminos que se indican de la I a la X Región (e-seia)</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -9262,30 +9262,30 @@
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>Alfonso Guillermo Besser Hayler</t>
+          <t>Empresa de Transportes Los Ríos S.A.</t>
         </is>
       </c>
       <c r="F186" t="n">
-        <v>44</v>
+        <v>1</v>
       </c>
       <c r="G186" t="inlineStr">
         <is>
-          <t>20/10/2004</t>
+          <t>08/11/2004</t>
         </is>
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=487555&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=502823&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J186" t="inlineStr">
@@ -9300,7 +9300,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>DRENAJE COMUNITARIO PREDIOS SANTA CARMEN (e-seia)</t>
+          <t>Drenaje Predio Polloico (e-seia)</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -9315,25 +9315,25 @@
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>comunidad obras de drenaje santa carmen</t>
+          <t>Alfonso Guillermo Besser Hayler</t>
         </is>
       </c>
       <c r="F187" t="n">
-        <v>162</v>
+        <v>44</v>
       </c>
       <c r="G187" t="inlineStr">
         <is>
-          <t>04/10/2004</t>
+          <t>20/10/2004</t>
         </is>
       </c>
       <c r="H187" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=472491&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=487555&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J187" t="inlineStr">
@@ -9348,7 +9348,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Drenaje Predio Polloico (e-seia)</t>
+          <t>DRENAJE COMUNITARIO PREDIOS SANTA CARMEN (e-seia)</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
@@ -9363,11 +9363,11 @@
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>Alfonso Guillermo Besser Hayler</t>
+          <t>comunidad obras de drenaje santa carmen</t>
         </is>
       </c>
       <c r="F188" t="n">
-        <v>44</v>
+        <v>162</v>
       </c>
       <c r="G188" t="inlineStr">
         <is>
@@ -9376,12 +9376,12 @@
       </c>
       <c r="H188" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=472796&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=472491&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J188" t="inlineStr">
@@ -9396,7 +9396,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Transporte Rodoviario de Cloro en y entre las Regiones II y X (e-seia)</t>
+          <t>Drenaje Predio Polloico (e-seia)</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
@@ -9406,30 +9406,30 @@
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>Occidental Chemical Chile Limitada</t>
+          <t>Alfonso Guillermo Besser Hayler</t>
         </is>
       </c>
       <c r="F189" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="G189" t="inlineStr">
         <is>
-          <t>09/08/2004</t>
+          <t>04/10/2004</t>
         </is>
       </c>
       <c r="H189" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=415850&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=472796&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J189" t="inlineStr">
@@ -9444,7 +9444,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>SISTEMA DE DEPURACIÓN Y NEUTRALIZACIÓN DE RESIDUOS INDUSTRIALES LÍQUIDOS, DECLARACIÓN DE IMPACTO AMBIENTAL (e-seia)</t>
+          <t>Transporte Rodoviario de Cloro en y entre las Regiones II y X (e-seia)</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -9454,20 +9454,20 @@
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>Prolesur S.A.</t>
+          <t>Occidental Chemical Chile Limitada</t>
         </is>
       </c>
       <c r="F190" t="n">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="G190" t="inlineStr">
         <is>
-          <t>02/08/2004</t>
+          <t>09/08/2004</t>
         </is>
       </c>
       <c r="H190" t="inlineStr">
@@ -9477,7 +9477,7 @@
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=408507&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=415850&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J190" t="inlineStr">
@@ -9492,7 +9492,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>PLAN REGIONAL DE DESARROLLO URBANO (e-seia)</t>
+          <t>SISTEMA DE DEPURACIÓN Y NEUTRALIZACIÓN DE RESIDUOS INDUSTRIALES LÍQUIDOS, DECLARACIÓN DE IMPACTO AMBIENTAL (e-seia)</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
@@ -9502,20 +9502,20 @@
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>Decimocuarta</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>SEREMI DE VIVIENDA Y URBANISMO X REGIÓN DE LOS LAGOS</t>
+          <t>Prolesur S.A.</t>
         </is>
       </c>
       <c r="F191" t="n">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="G191" t="inlineStr">
         <is>
-          <t>01/07/2004</t>
+          <t>02/08/2004</t>
         </is>
       </c>
       <c r="H191" t="inlineStr">
@@ -9525,7 +9525,7 @@
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=389944&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=408507&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J191" t="inlineStr">
@@ -9540,7 +9540,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>Transporte de Plaguicidas y Artefactos Contaminados o que Contienen Bifenilospoliclorados (PCB) (e-seia)</t>
+          <t>PLAN REGIONAL DE DESARROLLO URBANO (e-seia)</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
@@ -9550,20 +9550,20 @@
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Decimocuarta</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>Bravo Energy Chile S.A.</t>
+          <t>SEREMI DE VIVIENDA Y URBANISMO X REGIÓN DE LOS LAGOS</t>
         </is>
       </c>
       <c r="F192" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G192" t="inlineStr">
         <is>
-          <t>21/06/2004</t>
+          <t>01/07/2004</t>
         </is>
       </c>
       <c r="H192" t="inlineStr">
@@ -9573,7 +9573,7 @@
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=377075&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=389944&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J192" t="inlineStr">
@@ -9588,7 +9588,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>"PROYECTO MATADERO FRIGORÍFICO DEL SUR S.A., (e-seia)</t>
+          <t>Transporte de Plaguicidas y Artefactos Contaminados o que Contienen Bifenilospoliclorados (PCB) (e-seia)</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
@@ -9598,20 +9598,20 @@
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>Eduardo Arturo Epple Held</t>
+          <t>Bravo Energy Chile S.A.</t>
         </is>
       </c>
       <c r="F193" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G193" t="inlineStr">
         <is>
-          <t>04/06/2004</t>
+          <t>21/06/2004</t>
         </is>
       </c>
       <c r="H193" t="inlineStr">
@@ -9621,7 +9621,7 @@
       </c>
       <c r="I193" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=372111&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=377075&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J193" t="inlineStr">
@@ -9636,7 +9636,7 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>Relocalización del Colegio Francés de Osorno (e-seia)</t>
+          <t>"PROYECTO MATADERO FRIGORÍFICO DEL SUR S.A., (e-seia)</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
@@ -9651,15 +9651,15 @@
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>Sociedad Educacional Francesa de Osorno S.A.</t>
+          <t>Eduardo Arturo Epple Held</t>
         </is>
       </c>
       <c r="F194" t="n">
-        <v>2329</v>
+        <v>0</v>
       </c>
       <c r="G194" t="inlineStr">
         <is>
-          <t>03/06/2004</t>
+          <t>04/06/2004</t>
         </is>
       </c>
       <c r="H194" t="inlineStr">
@@ -9669,7 +9669,7 @@
       </c>
       <c r="I194" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=371821&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=372111&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J194" t="inlineStr">
@@ -9684,7 +9684,7 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>Piscicultura Santa Juana (pert 202101089) (e-seia)</t>
+          <t>Relocalización del Colegio Francés de Osorno (e-seia)</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
@@ -9699,15 +9699,15 @@
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>Cermaq Chile S.A.</t>
+          <t>Sociedad Educacional Francesa de Osorno S.A.</t>
         </is>
       </c>
       <c r="F195" t="n">
-        <v>1500</v>
+        <v>2329</v>
       </c>
       <c r="G195" t="inlineStr">
         <is>
-          <t>30/04/2004</t>
+          <t>03/06/2004</t>
         </is>
       </c>
       <c r="H195" t="inlineStr">
@@ -9717,7 +9717,7 @@
       </c>
       <c r="I195" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=325576&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=371821&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J195" t="inlineStr">
@@ -9732,7 +9732,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>Transporte de Plaguicidas y Artefactos Contaminados o que Contienen Bifenilospoliclorados (PCB) (e-seia)</t>
+          <t>Piscicultura Santa Juana (pert 202101089) (e-seia)</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
@@ -9742,16 +9742,16 @@
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>Bravo Energy Chile S.A.</t>
+          <t>Cermaq Chile S.A.</t>
         </is>
       </c>
       <c r="F196" t="n">
-        <v>200</v>
+        <v>1500</v>
       </c>
       <c r="G196" t="inlineStr">
         <is>
@@ -9760,12 +9760,12 @@
       </c>
       <c r="H196" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I196" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=339300&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=325576&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J196" t="inlineStr">
@@ -9780,7 +9780,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>Sistema de Tratamiento de Residuos Industriales Líquidos para la Planta Loncoleche Osorno. (e-seia)</t>
+          <t>Transporte de Plaguicidas y Artefactos Contaminados o que Contienen Bifenilospoliclorados (PCB) (e-seia)</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
@@ -9790,30 +9790,30 @@
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>Watt`s Alimentos S.A.</t>
+          <t>Bravo Energy Chile S.A.</t>
         </is>
       </c>
       <c r="F197" t="n">
-        <v>430</v>
+        <v>200</v>
       </c>
       <c r="G197" t="inlineStr">
         <is>
-          <t>12/02/2004</t>
+          <t>30/04/2004</t>
         </is>
       </c>
       <c r="H197" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=265302&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=339300&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J197" t="inlineStr">
@@ -9828,7 +9828,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>Modificación Nº 01/2003 Plan Regulador Osorno (e-seia)</t>
+          <t>Sistema de Tratamiento de Residuos Industriales Líquidos para la Planta Loncoleche Osorno. (e-seia)</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
@@ -9843,15 +9843,15 @@
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Osorno</t>
+          <t>Watt`s Alimentos S.A.</t>
         </is>
       </c>
       <c r="F198" t="n">
-        <v>0</v>
+        <v>430</v>
       </c>
       <c r="G198" t="inlineStr">
         <is>
-          <t>19/12/2003</t>
+          <t>12/02/2004</t>
         </is>
       </c>
       <c r="H198" t="inlineStr">
@@ -9861,7 +9861,7 @@
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=228596&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=265302&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J198" t="inlineStr">
@@ -9876,7 +9876,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>Proyecto Canopy Aguas Calientes (e-seia)</t>
+          <t>Modificación Nº 01/2003 Plan Regulador Osorno (e-seia)</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
@@ -9891,15 +9891,15 @@
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>Turismo y Cabañas Aguas Calientes Ltda.</t>
+          <t>Ilustre Municipalidad de Osorno</t>
         </is>
       </c>
       <c r="F199" t="n">
-        <v>97</v>
+        <v>0</v>
       </c>
       <c r="G199" t="inlineStr">
         <is>
-          <t>10/12/2003</t>
+          <t>19/12/2003</t>
         </is>
       </c>
       <c r="H199" t="inlineStr">
@@ -9909,7 +9909,7 @@
       </c>
       <c r="I199" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=220766&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=228596&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J199" t="inlineStr">
@@ -9924,7 +9924,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>Proyecto Matadero Frigorífico del Sur S.A. (e-seia)</t>
+          <t>Proyecto Canopy Aguas Calientes (e-seia)</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
@@ -9939,25 +9939,25 @@
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>Matadero Frigorífico del Sur S.A.</t>
+          <t>Turismo y Cabañas Aguas Calientes Ltda.</t>
         </is>
       </c>
       <c r="F200" t="n">
-        <v>1000</v>
+        <v>97</v>
       </c>
       <c r="G200" t="inlineStr">
         <is>
-          <t>20/11/2003</t>
+          <t>10/12/2003</t>
         </is>
       </c>
       <c r="H200" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I200" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=203759&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=220766&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J200" t="inlineStr">
@@ -9972,7 +9972,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>SISTEMA DE TRATAMIENTO DE RILES, PROLESUR S.A., OSORNO (e-seia)</t>
+          <t>Proyecto Matadero Frigorífico del Sur S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
@@ -9987,15 +9987,15 @@
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>PROLESUR S.A.</t>
+          <t>Matadero Frigorífico del Sur S.A.</t>
         </is>
       </c>
       <c r="F201" t="n">
-        <v>142</v>
+        <v>1000</v>
       </c>
       <c r="G201" t="inlineStr">
         <is>
-          <t>14/10/2003</t>
+          <t>20/11/2003</t>
         </is>
       </c>
       <c r="H201" t="inlineStr">
@@ -10005,7 +10005,7 @@
       </c>
       <c r="I201" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=159306&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=203759&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J201" t="inlineStr">
@@ -10020,7 +10020,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales por las Rutas indicadas (e-seia)</t>
+          <t>SISTEMA DE TRATAMIENTO DE RILES, PROLESUR S.A., OSORNO (e-seia)</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
@@ -10030,30 +10030,30 @@
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>ECOSUR S.A.</t>
+          <t>PROLESUR S.A.</t>
         </is>
       </c>
       <c r="F202" t="n">
-        <v>200</v>
+        <v>142</v>
       </c>
       <c r="G202" t="inlineStr">
         <is>
-          <t>09/09/2003</t>
+          <t>14/10/2003</t>
         </is>
       </c>
       <c r="H202" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I202" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=135650&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=159306&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J202" t="inlineStr">
@@ -10068,7 +10068,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>Conjunto Habitacional Sector Jardín del Alto, Osorno (e-seia)</t>
+          <t>Transporte de Residuos Industriales por las Rutas indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
@@ -10078,30 +10078,30 @@
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>Inmobiliaria Fourcade S.A.</t>
+          <t>ECOSUR S.A.</t>
         </is>
       </c>
       <c r="F203" t="n">
-        <v>40000</v>
+        <v>200</v>
       </c>
       <c r="G203" t="inlineStr">
         <is>
-          <t>27/08/2003</t>
+          <t>09/09/2003</t>
         </is>
       </c>
       <c r="H203" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I203" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=135673&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=135650&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J203" t="inlineStr">
@@ -10116,7 +10116,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>Sistema de Tratamiento de Riles Planta Productora de Cecinas (e-seia)</t>
+          <t>Conjunto Habitacional Sector Jardín del Alto, Osorno (e-seia)</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
@@ -10131,25 +10131,25 @@
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>Sociedad Cecinera del Sur Ltda.</t>
+          <t>Inmobiliaria Fourcade S.A.</t>
         </is>
       </c>
       <c r="F204" t="n">
-        <v>170</v>
+        <v>40000</v>
       </c>
       <c r="G204" t="inlineStr">
         <is>
-          <t>14/07/2003</t>
+          <t>27/08/2003</t>
         </is>
       </c>
       <c r="H204" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I204" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=111634&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=135673&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J204" t="inlineStr">
@@ -10164,7 +10164,7 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>Conjunto Habitacional Sector Jardín del Alto, Comuna de Osorno (e-seia)</t>
+          <t>Sistema de Tratamiento de Riles Planta Productora de Cecinas (e-seia)</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
@@ -10179,25 +10179,25 @@
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>Inmobiliaria Fourcade S.A.</t>
+          <t>Sociedad Cecinera del Sur Ltda.</t>
         </is>
       </c>
       <c r="F205" t="n">
-        <v>40000</v>
+        <v>170</v>
       </c>
       <c r="G205" t="inlineStr">
         <is>
-          <t>18/06/2003</t>
+          <t>14/07/2003</t>
         </is>
       </c>
       <c r="H205" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I205" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=100119&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=111634&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J205" t="inlineStr">
@@ -10212,7 +10212,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>Construcción y Operación Subestación Eléctrica Aihuapi (e-seia)</t>
+          <t>Conjunto Habitacional Sector Jardín del Alto, Comuna de Osorno (e-seia)</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
@@ -10227,25 +10227,25 @@
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>Sistema de Transmisión del Sur SA</t>
+          <t>Inmobiliaria Fourcade S.A.</t>
         </is>
       </c>
       <c r="F206" t="n">
-        <v>350</v>
+        <v>40000</v>
       </c>
       <c r="G206" t="inlineStr">
         <is>
-          <t>24/01/2003</t>
+          <t>18/06/2003</t>
         </is>
       </c>
       <c r="H206" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I206" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=45978&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=100119&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J206" t="inlineStr">
@@ -10260,7 +10260,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>Ampliacion Segunda Etapa Construccion de 300 Viviendas Sociales, Sector La misión Comuna de Osorno (e-seia)</t>
+          <t>Construcción y Operación Subestación Eléctrica Aihuapi (e-seia)</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
@@ -10275,15 +10275,15 @@
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>SERVICIO DE VIVIENDA Y URBANIZACION X REGION</t>
+          <t>Sistema de Transmisión del Sur SA</t>
         </is>
       </c>
       <c r="F207" t="n">
-        <v>914</v>
+        <v>350</v>
       </c>
       <c r="G207" t="inlineStr">
         <is>
-          <t>13/09/2002</t>
+          <t>24/01/2003</t>
         </is>
       </c>
       <c r="H207" t="inlineStr">
@@ -10293,7 +10293,7 @@
       </c>
       <c r="I207" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=29920&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=45978&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J207" t="inlineStr">
@@ -10308,7 +10308,7 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>Sistema de Tratamiento de Residuos Industriales Líquidos para la Planta de Empresa Frigorifico de Osorno S.A.</t>
+          <t>Ampliacion Segunda Etapa Construccion de 300 Viviendas Sociales, Sector La misión Comuna de Osorno (e-seia)</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
@@ -10323,15 +10323,15 @@
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>Frigorífico de Osorno S.A.</t>
+          <t>SERVICIO DE VIVIENDA Y URBANIZACION X REGION</t>
         </is>
       </c>
       <c r="F208" t="n">
-        <v>199</v>
+        <v>914</v>
       </c>
       <c r="G208" t="inlineStr">
         <is>
-          <t>16/08/2002</t>
+          <t>13/09/2002</t>
         </is>
       </c>
       <c r="H208" t="inlineStr">
@@ -10341,7 +10341,7 @@
       </c>
       <c r="I208" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5762&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=29920&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J208" t="inlineStr">
@@ -10356,7 +10356,7 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>Estudio y Diseño de Servicio Público de Alcantarillado y Planta de Tratamiento de Aguas Servidas sin Generación de Lodos para la Localidad de Cancura</t>
+          <t>Sistema de Tratamiento de Residuos Industriales Líquidos para la Planta de Empresa Frigorifico de Osorno S.A.</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
@@ -10371,15 +10371,15 @@
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Osorno</t>
+          <t>Frigorífico de Osorno S.A.</t>
         </is>
       </c>
       <c r="F209" t="n">
-        <v>0</v>
+        <v>199</v>
       </c>
       <c r="G209" t="inlineStr">
         <is>
-          <t>24/05/2002</t>
+          <t>16/08/2002</t>
         </is>
       </c>
       <c r="H209" t="inlineStr">
@@ -10389,7 +10389,7 @@
       </c>
       <c r="I209" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5471&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5762&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J209" t="inlineStr">
@@ -10404,7 +10404,7 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Salmonídeos Piscicultura Puchaura Río Rahue ( Solicitud N° 201101106)</t>
+          <t>Estudio y Diseño de Servicio Público de Alcantarillado y Planta de Tratamiento de Aguas Servidas sin Generación de Lodos para la Localidad de Cancura</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
@@ -10419,15 +10419,15 @@
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>Luis Alberto Ellwanger Willer</t>
+          <t>Ilustre Municipalidad de Osorno</t>
         </is>
       </c>
       <c r="F210" t="n">
-        <v>2500</v>
+        <v>0</v>
       </c>
       <c r="G210" t="inlineStr">
         <is>
-          <t>15/03/2002</t>
+          <t>24/05/2002</t>
         </is>
       </c>
       <c r="H210" t="inlineStr">
@@ -10437,7 +10437,7 @@
       </c>
       <c r="I210" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5273&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5471&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J210" t="inlineStr">
@@ -10452,7 +10452,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>Construcción del Liceo Technos Osorno</t>
+          <t>Centro de Cultivo de Salmonídeos Piscicultura Puchaura Río Rahue ( Solicitud N° 201101106)</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
@@ -10467,25 +10467,25 @@
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>Sociedad Educacional Technos Ltda.</t>
+          <t>Luis Alberto Ellwanger Willer</t>
         </is>
       </c>
       <c r="F211" t="n">
-        <v>1490</v>
+        <v>2500</v>
       </c>
       <c r="G211" t="inlineStr">
         <is>
-          <t>04/03/2002</t>
+          <t>15/03/2002</t>
         </is>
       </c>
       <c r="H211" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I211" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5196&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5273&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J211" t="inlineStr">
@@ -10500,7 +10500,7 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>Transporte de Gas Propano desde Argentina a Temuco - Chile IX - X Región</t>
+          <t>Construcción del Liceo Technos Osorno</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
@@ -10510,30 +10510,30 @@
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>Ecogas S.A.</t>
+          <t>Sociedad Educacional Technos Ltda.</t>
         </is>
       </c>
       <c r="F212" t="n">
-        <v>10000</v>
+        <v>1490</v>
       </c>
       <c r="G212" t="inlineStr">
         <is>
-          <t>12/10/2001</t>
+          <t>04/03/2002</t>
         </is>
       </c>
       <c r="H212" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I212" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4598&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5196&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J212" t="inlineStr">
@@ -10548,7 +10548,7 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales</t>
+          <t>Transporte de Gas Propano desde Argentina a Temuco - Chile IX - X Región</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
@@ -10563,25 +10563,25 @@
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>ECOSUR S.A.</t>
+          <t>Ecogas S.A.</t>
         </is>
       </c>
       <c r="F213" t="n">
-        <v>200</v>
+        <v>10000</v>
       </c>
       <c r="G213" t="inlineStr">
         <is>
-          <t>25/09/2001</t>
+          <t>12/10/2001</t>
         </is>
       </c>
       <c r="H213" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I213" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4591&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4598&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J213" t="inlineStr">
@@ -10596,7 +10596,7 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>Complejo de Cabañas Turisticas Sector Las Quemas Comuna de Osorno</t>
+          <t>Transporte de Residuos Industriales</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
@@ -10606,30 +10606,30 @@
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>Gunther Juan Weis Kusch</t>
+          <t>ECOSUR S.A.</t>
         </is>
       </c>
       <c r="F214" t="n">
-        <v>20</v>
+        <v>200</v>
       </c>
       <c r="G214" t="inlineStr">
         <is>
-          <t>12/09/2001</t>
+          <t>25/09/2001</t>
         </is>
       </c>
       <c r="H214" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I214" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4412&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4591&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J214" t="inlineStr">
@@ -10644,7 +10644,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>Construcción de 406 Viviendas Sociales Sector La Misión Comuna de Osorno</t>
+          <t>Complejo de Cabañas Turisticas Sector Las Quemas Comuna de Osorno</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
@@ -10659,25 +10659,25 @@
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>SERVICIO DE VIVIENDA Y URBANIZACION X REGION</t>
+          <t>Gunther Juan Weis Kusch</t>
         </is>
       </c>
       <c r="F215" t="n">
-        <v>2130</v>
+        <v>20</v>
       </c>
       <c r="G215" t="inlineStr">
         <is>
-          <t>14/08/2001</t>
+          <t>12/09/2001</t>
         </is>
       </c>
       <c r="H215" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I215" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4277&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4412&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J215" t="inlineStr">
@@ -10692,7 +10692,7 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>Modificación Plan Regulador Comunal de Osorno Sector Instituto Profesional Agrario Adolfo Matthei</t>
+          <t>Construcción de 406 Viviendas Sociales Sector La Misión Comuna de Osorno</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
@@ -10707,15 +10707,15 @@
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Osorno</t>
+          <t>SERVICIO DE VIVIENDA Y URBANIZACION X REGION</t>
         </is>
       </c>
       <c r="F216" t="n">
-        <v>0</v>
+        <v>2130</v>
       </c>
       <c r="G216" t="inlineStr">
         <is>
-          <t>14/05/2001</t>
+          <t>14/08/2001</t>
         </is>
       </c>
       <c r="H216" t="inlineStr">
@@ -10725,7 +10725,7 @@
       </c>
       <c r="I216" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3898&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4277&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J216" t="inlineStr">
@@ -10740,7 +10740,7 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento y Red de Aguas Servidas para Loteo Polloico</t>
+          <t>Modificación Plan Regulador Comunal de Osorno Sector Instituto Profesional Agrario Adolfo Matthei</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
@@ -10755,25 +10755,25 @@
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>Comité Habitacional Polloico</t>
+          <t>Ilustre Municipalidad de Osorno</t>
         </is>
       </c>
       <c r="F217" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="G217" t="inlineStr">
         <is>
-          <t>07/05/2001</t>
+          <t>14/05/2001</t>
         </is>
       </c>
       <c r="H217" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I217" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3891&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3898&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J217" t="inlineStr">
@@ -10788,7 +10788,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>Tratamiento y Disposición Final de Las Aguas Servidas de Osorno (Segunda Presentación)</t>
+          <t>Planta de Tratamiento y Red de Aguas Servidas para Loteo Polloico</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
@@ -10803,25 +10803,25 @@
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>Empresa de Servicios Sanitarios de los Lagos ESSAL</t>
+          <t>Comité Habitacional Polloico</t>
         </is>
       </c>
       <c r="F218" t="n">
-        <v>11360</v>
+        <v>30</v>
       </c>
       <c r="G218" t="inlineStr">
         <is>
-          <t>24/01/2001</t>
+          <t>07/05/2001</t>
         </is>
       </c>
       <c r="H218" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I218" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3582&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3891&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J218" t="inlineStr">
@@ -10836,7 +10836,7 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>Restaurant Los Hornitos</t>
+          <t>Tratamiento y Disposición Final de Las Aguas Servidas de Osorno (Segunda Presentación)</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
@@ -10851,15 +10851,15 @@
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>Juana del Carmen Llanos Mora</t>
+          <t>Empresa de Servicios Sanitarios de los Lagos ESSAL</t>
         </is>
       </c>
       <c r="F219" t="n">
-        <v>10</v>
+        <v>11360</v>
       </c>
       <c r="G219" t="inlineStr">
         <is>
-          <t>08/11/2000</t>
+          <t>24/01/2001</t>
         </is>
       </c>
       <c r="H219" t="inlineStr">
@@ -10869,7 +10869,7 @@
       </c>
       <c r="I219" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3348&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3582&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J219" t="inlineStr">
@@ -10884,7 +10884,7 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>Ampliación Pozo de Aridos Hadida</t>
+          <t>Restaurant Los Hornitos</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
@@ -10899,15 +10899,15 @@
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>Hedgard Hadida</t>
+          <t>Juana del Carmen Llanos Mora</t>
         </is>
       </c>
       <c r="F220" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="G220" t="inlineStr">
         <is>
-          <t>03/11/2000</t>
+          <t>08/11/2000</t>
         </is>
       </c>
       <c r="H220" t="inlineStr">
@@ -10917,7 +10917,7 @@
       </c>
       <c r="I220" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3349&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3348&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J220" t="inlineStr">
@@ -10932,7 +10932,7 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>Estación de Servicio ESSO Km 915 Ruta 5 Sur Pilauco Osorno</t>
+          <t>Ampliación Pozo de Aridos Hadida</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
@@ -10947,15 +10947,15 @@
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>Esmax Distribución SpA</t>
+          <t>Hedgard Hadida</t>
         </is>
       </c>
       <c r="F221" t="n">
-        <v>1100</v>
+        <v>100</v>
       </c>
       <c r="G221" t="inlineStr">
         <is>
-          <t>05/07/2000</t>
+          <t>03/11/2000</t>
         </is>
       </c>
       <c r="H221" t="inlineStr">
@@ -10965,7 +10965,7 @@
       </c>
       <c r="I221" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3005&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3349&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J221" t="inlineStr">
@@ -10980,7 +10980,7 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>Transporte de Artefactos y/o Materiales Contaminados o que contienen Bifenilospoliclorados (BPC) o Terfenilospoliclorados</t>
+          <t>Estación de Servicio ESSO Km 915 Ruta 5 Sur Pilauco Osorno</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
@@ -10990,20 +10990,20 @@
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>Compañía de Desarrollo Minero Industrial CHIHOL Ltda.</t>
+          <t>Esmax Distribución SpA</t>
         </is>
       </c>
       <c r="F222" t="n">
-        <v>110</v>
+        <v>1100</v>
       </c>
       <c r="G222" t="inlineStr">
         <is>
-          <t>14/02/2000</t>
+          <t>05/07/2000</t>
         </is>
       </c>
       <c r="H222" t="inlineStr">
@@ -11013,7 +11013,7 @@
       </c>
       <c r="I222" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2686&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3005&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J222" t="inlineStr">
@@ -11028,40 +11028,40 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>Almacenamiento y Vaporación de Gas Propano Líquido e Implementación de un Sistema de Distribución por Red de Gas Propano Vaporizado en la Ciudad de Osorno</t>
+          <t>Transporte de Artefactos y/o Materiales Contaminados o que contienen Bifenilospoliclorados (BPC) o Terfenilospoliclorados</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>Temucgas S.A.</t>
+          <t>Compañía de Desarrollo Minero Industrial CHIHOL Ltda.</t>
         </is>
       </c>
       <c r="F223" t="n">
-        <v>2070</v>
+        <v>110</v>
       </c>
       <c r="G223" t="inlineStr">
         <is>
-          <t>28/12/1999</t>
+          <t>14/02/2000</t>
         </is>
       </c>
       <c r="H223" t="inlineStr">
         <is>
-          <t>Abandonado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I223" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2560&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2686&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J223" t="inlineStr">
@@ -11076,12 +11076,12 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>Sistema de Depuración y Neutralización de Residuos Industriales Líquidos (Frigosor S.A.)</t>
+          <t>Almacenamiento y Vaporación de Gas Propano Líquido e Implementación de un Sistema de Distribución por Red de Gas Propano Vaporizado en la Ciudad de Osorno</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D224" t="inlineStr">
@@ -11091,25 +11091,25 @@
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>Frigorífico de Osorno S.A.</t>
+          <t>Temucgas S.A.</t>
         </is>
       </c>
       <c r="F224" t="n">
-        <v>200</v>
+        <v>2070</v>
       </c>
       <c r="G224" t="inlineStr">
         <is>
-          <t>26/11/1999</t>
+          <t>28/12/1999</t>
         </is>
       </c>
       <c r="H224" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Abandonado</t>
         </is>
       </c>
       <c r="I224" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2466&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2560&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J224" t="inlineStr">
@@ -11124,7 +11124,7 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>Hotel Cabañas El Faro ( Segunda Presentación )</t>
+          <t>Sistema de Depuración y Neutralización de Residuos Industriales Líquidos (Frigosor S.A.)</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
@@ -11139,15 +11139,15 @@
       </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t>Inmobiliaria Paradice Ltda.</t>
+          <t>Frigorífico de Osorno S.A.</t>
         </is>
       </c>
       <c r="F225" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="G225" t="inlineStr">
         <is>
-          <t>30/07/1999</t>
+          <t>26/11/1999</t>
         </is>
       </c>
       <c r="H225" t="inlineStr">
@@ -11157,7 +11157,7 @@
       </c>
       <c r="I225" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2136&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2466&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J225" t="inlineStr">
@@ -11172,7 +11172,7 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>Proyecto Servicio Público de Alcantarillado de Aguas Servidas de la Localidad de Cancura</t>
+          <t>Hotel Cabañas El Faro ( Segunda Presentación )</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
@@ -11187,25 +11187,25 @@
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Osorno</t>
+          <t>Inmobiliaria Paradice Ltda.</t>
         </is>
       </c>
       <c r="F226" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G226" t="inlineStr">
         <is>
-          <t>19/05/1999</t>
+          <t>30/07/1999</t>
         </is>
       </c>
       <c r="H226" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I226" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1973&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2136&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J226" t="inlineStr">
@@ -11220,7 +11220,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>Tratamiento y Disposición Final de Aguas Servidas de Osorno</t>
+          <t>Proyecto Servicio Público de Alcantarillado de Aguas Servidas de la Localidad de Cancura</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
@@ -11235,15 +11235,15 @@
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>Empresa de Servicios Sanitarios de los Lagos ESSAL</t>
+          <t>Ilustre Municipalidad de Osorno</t>
         </is>
       </c>
       <c r="F227" t="n">
-        <v>11400</v>
+        <v>250</v>
       </c>
       <c r="G227" t="inlineStr">
         <is>
-          <t>05/04/1999</t>
+          <t>19/05/1999</t>
         </is>
       </c>
       <c r="H227" t="inlineStr">
@@ -11253,7 +11253,7 @@
       </c>
       <c r="I227" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1841&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1973&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J227" t="inlineStr">
@@ -11268,7 +11268,7 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>Hotel Cabañas El Faro</t>
+          <t>Tratamiento y Disposición Final de Aguas Servidas de Osorno</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
@@ -11283,25 +11283,25 @@
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>Inmobiliaria Paradice Ltda.</t>
+          <t>Empresa de Servicios Sanitarios de los Lagos ESSAL</t>
         </is>
       </c>
       <c r="F228" t="n">
-        <v>150</v>
+        <v>11400</v>
       </c>
       <c r="G228" t="inlineStr">
         <is>
-          <t>05/03/1999</t>
+          <t>05/04/1999</t>
         </is>
       </c>
       <c r="H228" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I228" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1759&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1841&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J228" t="inlineStr">
@@ -11316,7 +11316,7 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>Ampliación Planta Osorno Abastecedora de Combustible S.A.</t>
+          <t>Hotel Cabañas El Faro</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
@@ -11331,15 +11331,15 @@
       </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t>Abastecedora de Combustibles S.A.</t>
+          <t>Inmobiliaria Paradice Ltda.</t>
         </is>
       </c>
       <c r="F229" t="n">
-        <v>220</v>
+        <v>150</v>
       </c>
       <c r="G229" t="inlineStr">
         <is>
-          <t>24/11/1998</t>
+          <t>05/03/1999</t>
         </is>
       </c>
       <c r="H229" t="inlineStr">
@@ -11349,7 +11349,7 @@
       </c>
       <c r="I229" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1809&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1759&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J229" t="inlineStr">
@@ -11364,7 +11364,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>Empréstito Cañal Bajo</t>
+          <t>Ampliación Planta Osorno Abastecedora de Combustible S.A.</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
@@ -11379,25 +11379,25 @@
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>Concesión de Los Lagos S. A.</t>
+          <t>Abastecedora de Combustibles S.A.</t>
         </is>
       </c>
       <c r="F230" t="n">
-        <v>560</v>
+        <v>220</v>
       </c>
       <c r="G230" t="inlineStr">
         <is>
-          <t>17/08/1998</t>
+          <t>24/11/1998</t>
         </is>
       </c>
       <c r="H230" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I230" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1191&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1809&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J230" t="inlineStr">
@@ -11412,7 +11412,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Efluentes Líquidos Cecinas Salamero Ltda.</t>
+          <t>Empréstito Cañal Bajo</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
@@ -11427,25 +11427,25 @@
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>Cecinas Salamero Ltda.</t>
+          <t>Concesión de Los Lagos S. A.</t>
         </is>
       </c>
       <c r="F231" t="n">
-        <v>10</v>
+        <v>560</v>
       </c>
       <c r="G231" t="inlineStr">
         <is>
-          <t>13/08/1998</t>
+          <t>17/08/1998</t>
         </is>
       </c>
       <c r="H231" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I231" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1194&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1191&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J231" t="inlineStr">
@@ -11460,7 +11460,7 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>Discoteque Factory</t>
+          <t>Planta de Tratamiento de Efluentes Líquidos Cecinas Salamero Ltda.</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
@@ -11475,25 +11475,25 @@
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>Bélgica Olave Figueroa</t>
+          <t>Cecinas Salamero Ltda.</t>
         </is>
       </c>
       <c r="F232" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="G232" t="inlineStr">
         <is>
-          <t>29/07/1998</t>
+          <t>13/08/1998</t>
         </is>
       </c>
       <c r="H232" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I232" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1347&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1194&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J232" t="inlineStr">
@@ -11508,7 +11508,7 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>Estación de Servicios YPF de Arturo Prat Esq.Manuel Rodríguez</t>
+          <t>Discoteque Factory</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
@@ -11523,15 +11523,15 @@
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>Empresa Nacional de Energia ENEX S.A...</t>
+          <t>Bélgica Olave Figueroa</t>
         </is>
       </c>
       <c r="F233" t="n">
-        <v>400</v>
+        <v>30</v>
       </c>
       <c r="G233" t="inlineStr">
         <is>
-          <t>18/03/1998</t>
+          <t>29/07/1998</t>
         </is>
       </c>
       <c r="H233" t="inlineStr">
@@ -11541,7 +11541,7 @@
       </c>
       <c r="I233" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=794&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1347&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J233" t="inlineStr">
@@ -11556,7 +11556,7 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>Restaurant y Minimarket</t>
+          <t>Estación de Servicios YPF de Arturo Prat Esq.Manuel Rodríguez</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
@@ -11571,15 +11571,15 @@
       </c>
       <c r="E234" t="inlineStr">
         <is>
-          <t>Andres Bonati Brintrup</t>
+          <t>Empresa Nacional de Energia ENEX S.A...</t>
         </is>
       </c>
       <c r="F234" t="n">
-        <v>150</v>
+        <v>400</v>
       </c>
       <c r="G234" t="inlineStr">
         <is>
-          <t>24/02/1998</t>
+          <t>18/03/1998</t>
         </is>
       </c>
       <c r="H234" t="inlineStr">
@@ -11589,7 +11589,7 @@
       </c>
       <c r="I234" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=277&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=794&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J234" t="inlineStr">
@@ -11604,43 +11604,91 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
+          <t>Restaurant y Minimarket</t>
+        </is>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D235" t="inlineStr">
+        <is>
+          <t>Décima</t>
+        </is>
+      </c>
+      <c r="E235" t="inlineStr">
+        <is>
+          <t>Andres Bonati Brintrup</t>
+        </is>
+      </c>
+      <c r="F235" t="n">
+        <v>150</v>
+      </c>
+      <c r="G235" t="inlineStr">
+        <is>
+          <t>24/02/1998</t>
+        </is>
+      </c>
+      <c r="H235" t="inlineStr">
+        <is>
+          <t>Aprobado</t>
+        </is>
+      </c>
+      <c r="I235" t="inlineStr">
+        <is>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=277&amp;modo=ficha</t>
+        </is>
+      </c>
+      <c r="J235" t="inlineStr">
+        <is>
+          <t>Osorno</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="n">
+        <v>235</v>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
           <t>Terminal de Locomoción Colectiva Urbana</t>
         </is>
       </c>
-      <c r="C235" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
-      <c r="D235" t="inlineStr">
-        <is>
-          <t>Décima</t>
-        </is>
-      </c>
-      <c r="E235" t="inlineStr">
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D236" t="inlineStr">
+        <is>
+          <t>Décima</t>
+        </is>
+      </c>
+      <c r="E236" t="inlineStr">
         <is>
           <t>Conrado Erwin Fontealba Vargas</t>
         </is>
       </c>
-      <c r="F235" t="n">
+      <c r="F236" t="n">
         <v>70</v>
       </c>
-      <c r="G235" t="inlineStr">
+      <c r="G236" t="inlineStr">
         <is>
           <t>09/01/1998</t>
         </is>
       </c>
-      <c r="H235" t="inlineStr">
-        <is>
-          <t>Aprobado</t>
-        </is>
-      </c>
-      <c r="I235" t="inlineStr">
+      <c r="H236" t="inlineStr">
+        <is>
+          <t>Aprobado</t>
+        </is>
+      </c>
+      <c r="I236" t="inlineStr">
         <is>
           <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=279&amp;modo=ficha</t>
         </is>
       </c>
-      <c r="J235" t="inlineStr">
+      <c r="J236" t="inlineStr">
         <is>
           <t>Osorno</t>
         </is>

--- a/data/Osorno.xlsx
+++ b/data/Osorno.xlsx
@@ -3016,7 +3016,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Ampliación de extracción de áridos en Pozo Jauregui</t>
+          <t>MODIFICACIÓN A LA DECLARACIÓN DE IMPACTO AMBIENTAL PISCICULTURA EL VENADO</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3031,11 +3031,11 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Juan Carlos Jauregui Hidalgo</t>
+          <t>Sociedad Agrícola Covarrubias Fernández Ltda.</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>500</v>
+        <v>2500</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
@@ -3044,12 +3044,12 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7547676&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7555686&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -3064,7 +3064,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN A LA DECLARACIÓN DE IMPACTO AMBIENTAL PISCICULTURA EL VENADO</t>
+          <t>Ampliación de extracción de áridos en Pozo Jauregui</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -3079,11 +3079,11 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Sociedad Agrícola Covarrubias Fernández Ltda.</t>
+          <t>Juan Carlos Jauregui Hidalgo</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>2500</v>
+        <v>500</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
@@ -3092,12 +3092,12 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7555686&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7547676&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -5080,7 +5080,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Transporte Inter-Regional Terrestre de Residuos, PROCESAN S.A. (e-seia)</t>
+          <t>ESTUDIO Y DISEÑO PLAN DE CIERRE VERTEDERO COMUNA DE OSORNO (e-seia)</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -5090,16 +5090,16 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>PROCESAN S.A.</t>
+          <t>Ilustre Municipalidad de Osorno</t>
         </is>
       </c>
       <c r="F99" t="n">
-        <v>377</v>
+        <v>3400</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>
@@ -5108,12 +5108,12 @@
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4134794&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4139027&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
@@ -5128,7 +5128,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>ESTUDIO Y DISEÑO PLAN DE CIERRE VERTEDERO COMUNA DE OSORNO (e-seia)</t>
+          <t>Transporte Inter-Regional Terrestre de Residuos, PROCESAN S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -5138,16 +5138,16 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Osorno</t>
+          <t>PROCESAN S.A.</t>
         </is>
       </c>
       <c r="F100" t="n">
-        <v>3400</v>
+        <v>377</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
@@ -5156,12 +5156,12 @@
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4139027&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4134794&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
@@ -5988,7 +5988,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Proyecto Inmobiliario Portal Osorno (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS DE PLOMO Y BATERÍAS USADAS POR LAS REGIONES VI, VII, VIII, IX, XIV y X (e-seia)</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -5998,16 +5998,16 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>Inmobiliaria Martabid Limitada</t>
+          <t>Industria Proveedora de Partes Metalurgicas Ltda.</t>
         </is>
       </c>
       <c r="F118" t="n">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="G118" t="inlineStr">
         <is>
@@ -6016,12 +6016,12 @@
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3272599&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3249759&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
@@ -6036,7 +6036,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS DE PLOMO Y BATERÍAS USADAS POR LAS REGIONES VI, VII, VIII, IX, XIV y X (e-seia)</t>
+          <t>Proyecto Inmobiliario Portal Osorno (e-seia)</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -6046,16 +6046,16 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>Industria Proveedora de Partes Metalurgicas Ltda.</t>
+          <t>Inmobiliaria Martabid Limitada</t>
         </is>
       </c>
       <c r="F119" t="n">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G119" t="inlineStr">
         <is>
@@ -6064,12 +6064,12 @@
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3249759&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3272599&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
@@ -7188,7 +7188,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>CONJUNTO HABITACIONAL JARDIN DEL ALTO,OSORNO (e-seia)</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -7198,16 +7198,16 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>Inmobiliaria Fourcade S.A.</t>
         </is>
       </c>
       <c r="F143" t="n">
-        <v>10</v>
+        <v>3370</v>
       </c>
       <c r="G143" t="inlineStr">
         <is>
@@ -7216,12 +7216,12 @@
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2359952&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
@@ -7236,7 +7236,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>CONJUNTO HABITACIONAL JARDIN DEL ALTO,OSORNO (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -7246,16 +7246,16 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>Inmobiliaria Fourcade S.A.</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F144" t="n">
-        <v>3370</v>
+        <v>10</v>
       </c>
       <c r="G144" t="inlineStr">
         <is>
@@ -7264,12 +7264,12 @@
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2359952&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">

--- a/data/Osorno.xlsx
+++ b/data/Osorno.xlsx
@@ -3016,7 +3016,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN A LA DECLARACIÓN DE IMPACTO AMBIENTAL PISCICULTURA EL VENADO</t>
+          <t>Ampliación de extracción de áridos en Pozo Jauregui</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3031,11 +3031,11 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Sociedad Agrícola Covarrubias Fernández Ltda.</t>
+          <t>Juan Carlos Jauregui Hidalgo</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>2500</v>
+        <v>500</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
@@ -3044,12 +3044,12 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7555686&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7547676&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -3064,7 +3064,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Ampliación de extracción de áridos en Pozo Jauregui</t>
+          <t>MODIFICACIÓN A LA DECLARACIÓN DE IMPACTO AMBIENTAL PISCICULTURA EL VENADO</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -3079,11 +3079,11 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Juan Carlos Jauregui Hidalgo</t>
+          <t>Sociedad Agrícola Covarrubias Fernández Ltda.</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>500</v>
+        <v>2500</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
@@ -3092,12 +3092,12 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7547676&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7555686&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -5080,7 +5080,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>ESTUDIO Y DISEÑO PLAN DE CIERRE VERTEDERO COMUNA DE OSORNO (e-seia)</t>
+          <t>Transporte Inter-Regional Terrestre de Residuos, PROCESAN S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -5090,16 +5090,16 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Osorno</t>
+          <t>PROCESAN S.A.</t>
         </is>
       </c>
       <c r="F99" t="n">
-        <v>3400</v>
+        <v>377</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>
@@ -5108,12 +5108,12 @@
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4139027&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4134794&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
@@ -5128,7 +5128,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Transporte Inter-Regional Terrestre de Residuos, PROCESAN S.A. (e-seia)</t>
+          <t>ESTUDIO Y DISEÑO PLAN DE CIERRE VERTEDERO COMUNA DE OSORNO (e-seia)</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -5138,16 +5138,16 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>PROCESAN S.A.</t>
+          <t>Ilustre Municipalidad de Osorno</t>
         </is>
       </c>
       <c r="F100" t="n">
-        <v>377</v>
+        <v>3400</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
@@ -5156,12 +5156,12 @@
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4134794&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4139027&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
@@ -5988,7 +5988,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS DE PLOMO Y BATERÍAS USADAS POR LAS REGIONES VI, VII, VIII, IX, XIV y X (e-seia)</t>
+          <t>Proyecto Inmobiliario Portal Osorno (e-seia)</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -5998,16 +5998,16 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>Industria Proveedora de Partes Metalurgicas Ltda.</t>
+          <t>Inmobiliaria Martabid Limitada</t>
         </is>
       </c>
       <c r="F118" t="n">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G118" t="inlineStr">
         <is>
@@ -6016,12 +6016,12 @@
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3249759&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3272599&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
@@ -6036,7 +6036,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Proyecto Inmobiliario Portal Osorno (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS DE PLOMO Y BATERÍAS USADAS POR LAS REGIONES VI, VII, VIII, IX, XIV y X (e-seia)</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -6046,16 +6046,16 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>Inmobiliaria Martabid Limitada</t>
+          <t>Industria Proveedora de Partes Metalurgicas Ltda.</t>
         </is>
       </c>
       <c r="F119" t="n">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="G119" t="inlineStr">
         <is>
@@ -6064,12 +6064,12 @@
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3272599&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3249759&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
@@ -7188,7 +7188,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>CONJUNTO HABITACIONAL JARDIN DEL ALTO,OSORNO (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -7198,16 +7198,16 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>Inmobiliaria Fourcade S.A.</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F143" t="n">
-        <v>3370</v>
+        <v>10</v>
       </c>
       <c r="G143" t="inlineStr">
         <is>
@@ -7216,12 +7216,12 @@
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2359952&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
@@ -7236,7 +7236,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>CONJUNTO HABITACIONAL JARDIN DEL ALTO,OSORNO (e-seia)</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -7246,16 +7246,16 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>Inmobiliaria Fourcade S.A.</t>
         </is>
       </c>
       <c r="F144" t="n">
-        <v>10</v>
+        <v>3370</v>
       </c>
       <c r="G144" t="inlineStr">
         <is>
@@ -7264,12 +7264,12 @@
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2359952&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">

--- a/data/Osorno.xlsx
+++ b/data/Osorno.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>14/07/2023</t>
+          <t>20/07/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Osorno.xlsx
+++ b/data/Osorno.xlsx
@@ -10851,7 +10851,7 @@
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>Empresa de Servicios Sanitarios de los Lagos ESSAL</t>
+          <t>Suralis S.A.</t>
         </is>
       </c>
       <c r="F219" t="n">
@@ -11283,7 +11283,7 @@
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>Empresa de Servicios Sanitarios de los Lagos ESSAL</t>
+          <t>Suralis S.A.</t>
         </is>
       </c>
       <c r="F228" t="n">

--- a/data/Osorno.xlsx
+++ b/data/Osorno.xlsx
@@ -1399,7 +1399,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Sistema de Transmisión del Sur SA</t>
+          <t>Sistema de Transmisión del Sur S.A.</t>
         </is>
       </c>
       <c r="F22" t="n">
@@ -3751,7 +3751,7 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Sistema de Transmisión del Sur SA</t>
+          <t>Sistema de Transmisión del Sur S.A.</t>
         </is>
       </c>
       <c r="F71" t="n">
@@ -4183,7 +4183,7 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Sistema de Transmisión del Sur SA</t>
+          <t>Sistema de Transmisión del Sur S.A.</t>
         </is>
       </c>
       <c r="F80" t="n">
@@ -4903,7 +4903,7 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>Sistema de Transmisión del Sur SA</t>
+          <t>Sistema de Transmisión del Sur S.A.</t>
         </is>
       </c>
       <c r="F95" t="n">
@@ -4999,7 +4999,7 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>Sistema de Transmisión del Sur SA</t>
+          <t>Sistema de Transmisión del Sur S.A.</t>
         </is>
       </c>
       <c r="F97" t="n">
@@ -10275,7 +10275,7 @@
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>Sistema de Transmisión del Sur SA</t>
+          <t>Sistema de Transmisión del Sur S.A.</t>
         </is>
       </c>
       <c r="F207" t="n">

--- a/data/Osorno.xlsx
+++ b/data/Osorno.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J236"/>
+  <dimension ref="A1:J237"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,7 +424,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Construcción de viviendas sociales para familias vulnerables sujetas al plan de emergencia habitacional, sector francke, Osorno</t>
+          <t>Parque Solar Pampa Alegre</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -439,25 +439,25 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Ararat SpA.</t>
+          <t>Blue Light Energy SpA</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>72000</v>
+        <v>31000</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>20/07/2023</t>
+          <t>18/10/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>En Admisión</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2159533340&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2160286608&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -495,17 +495,17 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>29/06/2023</t>
+          <t>20/07/2023</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2159533326&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2159533340&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -520,7 +520,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>BioCircular Los Laureles</t>
+          <t>Construcción de viviendas sociales para familias vulnerables sujetas al plan de emergencia habitacional, sector francke, Osorno</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -535,25 +535,25 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Genera4 SpA</t>
+          <t>Ararat SpA.</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>15000</v>
+        <v>72000</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>23/05/2023</t>
+          <t>29/06/2023</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2159179224&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2159533326&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -568,7 +568,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Planta Solar Fotovoltaica Montecinos</t>
+          <t>BioCircular Los Laureles</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -583,15 +583,15 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Generadora Semilla SpA.</t>
+          <t>Genera4 SpA</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>21/09/2022</t>
+          <t>23/05/2023</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -601,7 +601,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156946466&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2159179224&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -616,7 +616,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DE INSTALACIONES EN PLANTA OSORNO</t>
+          <t>Planta Solar Fotovoltaica Montecinos</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -631,25 +631,25 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Envases Impresos SpA</t>
+          <t>Generadora Semilla SpA.</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>877</v>
+        <v>10000</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>22/06/2022</t>
+          <t>21/09/2022</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156289752&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156946466&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -664,7 +664,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>BALNEARIO FLUVIAL \"Río Damas\"</t>
+          <t>MODIFICACIÓN DE INSTALACIONES EN PLANTA OSORNO</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -679,25 +679,25 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Inversiones y Comercial Southern World SpA</t>
+          <t>Envases Impresos SpA</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>30400</v>
+        <v>877</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>30/05/2022</t>
+          <t>22/06/2022</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155928380&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156289752&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -712,7 +712,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>?Ampliación Superficie Planta de Disposición Final de Residuos Biológicos No Peligrosos Industriales ECOPRIAL? Región de Los Lagos</t>
+          <t>BALNEARIO FLUVIAL \"Río Damas\"</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -727,25 +727,25 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Raul Albrecht Barrientos</t>
+          <t>Inversiones y Comercial Southern World SpA</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>650</v>
+        <v>30400</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>22/12/2021</t>
+          <t>30/05/2022</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2154450586&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155928380&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -760,7 +760,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Condominio Rahue</t>
+          <t>?Ampliación Superficie Planta de Disposición Final de Residuos Biológicos No Peligrosos Industriales ECOPRIAL? Región de Los Lagos</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -775,25 +775,25 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Constructora Pacal S.A.</t>
+          <t>Raul Albrecht Barrientos</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>8586</v>
+        <v>650</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>10/05/2021</t>
+          <t>22/12/2021</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151757396&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2154450586&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -808,7 +808,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>BALNEARIO FLUVIAL RÍO DAMAS</t>
+          <t>Condominio Rahue</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -823,25 +823,25 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Inversiones y Comercial Southern World SpA</t>
+          <t>Constructora Pacal S.A.</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>30400</v>
+        <v>8586</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>09/03/2021</t>
+          <t>10/05/2021</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151031299&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151757396&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -856,7 +856,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>AUMENTO DE PRODUCCIÓN Y RIEGO DE EFLUENTES PLANTA MAFRISUR</t>
+          <t>BALNEARIO FLUVIAL RÍO DAMAS</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -871,25 +871,25 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>MATADERO FRIGORIFICO DEL SUR S.A.</t>
+          <t>Inversiones y Comercial Southern World SpA</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2500</v>
+        <v>30400</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>21/01/2021</t>
+          <t>09/03/2021</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2149382147&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151031299&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -904,7 +904,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>ADECUACIÓN OPERATIVA Y AMPLIACIÓN DE LA PLANTA DE ASESORÍAS LOS OLIVOS?</t>
+          <t>AUMENTO DE PRODUCCIÓN Y RIEGO DE EFLUENTES PLANTA MAFRISUR</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -919,25 +919,25 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Asesoría Los Olivos S.A</t>
+          <t>MATADERO FRIGORIFICO DEL SUR S.A.</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>650</v>
+        <v>2500</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>21/10/2020</t>
+          <t>21/01/2021</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2148752277&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2149382147&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -952,7 +952,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>PRP Las Quemas</t>
+          <t>ADECUACIÓN OPERATIVA Y AMPLIACIÓN DE LA PLANTA DE ASESORÍAS LOS OLIVOS?</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -967,25 +967,25 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Francisco De Paula Luis Herrera Fernandez-figares</t>
+          <t>Asesoría Los Olivos S.A</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>3145</v>
+        <v>650</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>17/01/2020</t>
+          <t>21/10/2020</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145388872&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2148752277&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1000,7 +1000,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Ampliación de la Actividad de Transporte de Sustancias Peligrosas de ENAEX Servicios S.A.</t>
+          <t>PRP Las Quemas</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1010,20 +1010,20 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Enaex Servicios S.A.</t>
+          <t>Francisco De Paula Luis Herrera Fernandez-figares</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>25000</v>
+        <v>3145</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>07/01/2020</t>
+          <t>17/01/2020</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -1033,7 +1033,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145325740&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145388872&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1048,7 +1048,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Desarrollo Inmobiliario Macro Pilauco II, Etapa 2</t>
+          <t>Ampliación de la Actividad de Transporte de Sustancias Peligrosas de ENAEX Servicios S.A.</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1058,20 +1058,20 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Galilea de Ingeniería y Construcción</t>
+          <t>Enaex Servicios S.A.</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>68620</v>
+        <v>25000</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>30/12/2019</t>
+          <t>07/01/2020</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -1081,7 +1081,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145296018&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145325740&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1096,7 +1096,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>PRP LAS QUEMAS</t>
+          <t>Desarrollo Inmobiliario Macro Pilauco II, Etapa 2</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1111,25 +1111,25 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Francisco De Paula Luis Herrera Fernandez-figares</t>
+          <t>Galilea de Ingeniería y Construcción</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>3145</v>
+        <v>68620</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>19/12/2019</t>
+          <t>30/12/2019</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145236028&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145296018&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1144,7 +1144,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Hacienda Las Quemas</t>
+          <t>PRP LAS QUEMAS</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1159,25 +1159,25 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Inmobiliaria Zenteno SpA</t>
+          <t>Francisco De Paula Luis Herrera Fernandez-figares</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>47000</v>
+        <v>3145</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>25/09/2019</t>
+          <t>19/12/2019</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2144245146&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145236028&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1192,7 +1192,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Proyecto Habitacional Lote 2 - Zanjones</t>
+          <t>Hacienda Las Quemas</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1207,15 +1207,15 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>SERVIU Región de Los Lagos</t>
+          <t>Inmobiliaria Zenteno SpA</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>481</v>
+        <v>47000</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>28/05/2019</t>
+          <t>25/09/2019</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -1225,7 +1225,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143277820&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2144245146&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1240,7 +1240,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Planta Pichil Alimento Bovino</t>
+          <t>Proyecto Habitacional Lote 2 - Zanjones</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1255,15 +1255,15 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Alimentos Concentrados Cisternas Ltda</t>
+          <t>SERVIU Región de Los Lagos</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>8000</v>
+        <v>481</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>31/07/2018</t>
+          <t>28/05/2019</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -1273,7 +1273,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2140878185&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143277820&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1288,7 +1288,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>DESARROLLO INMOBILIARIO MACRO PILAUCO II, ETAPA 1 LOTE A</t>
+          <t>Planta Pichil Alimento Bovino</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1303,15 +1303,15 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Galilea de Ingeniería y Construcción</t>
+          <t>Alimentos Concentrados Cisternas Ltda</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>14500</v>
+        <v>8000</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>21/08/2017</t>
+          <t>31/07/2018</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -1321,7 +1321,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132606168&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2140878185&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1336,30 +1336,30 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Sistema de Transmisión S/E Pichirropulli - S/E Tineo</t>
+          <t>DESARROLLO INMOBILIARIO MACRO PILAUCO II, ETAPA 1 LOTE A</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>TRANSELEC CONCESIONES S.A.</t>
+          <t>Galilea de Ingeniería y Construcción</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>82000</v>
+        <v>14500</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>08/06/2017</t>
+          <t>21/08/2017</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -1369,7 +1369,7 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132447295&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132606168&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1384,30 +1384,30 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Proyecto La Misión</t>
+          <t>Sistema de Transmisión S/E Pichirropulli - S/E Tineo</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Sistema de Transmisión del Sur S.A.</t>
+          <t>TRANSELEC CONCESIONES S.A.</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>19299</v>
+        <v>82000</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>19/01/2017</t>
+          <t>08/06/2017</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -1417,7 +1417,7 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132100181&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132447295&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1432,7 +1432,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Optimización Productiva de la Piscicultura Santa Juana</t>
+          <t>Proyecto La Misión</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1447,15 +1447,15 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Cermaq Chile S.A.</t>
+          <t>Sistema de Transmisión del Sur S.A.</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>400</v>
+        <v>19299</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>06/12/2016</t>
+          <t>19/01/2017</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -1465,7 +1465,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131979220&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132100181&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1480,7 +1480,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Ampliación Transporte Terrestre de Sustancias Químicas</t>
+          <t>Optimización Productiva de la Piscicultura Santa Juana</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1490,20 +1490,20 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
+          <t>Cermaq Chile S.A.</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>10000</v>
+        <v>400</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>22/08/2016</t>
+          <t>06/12/2016</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -1513,7 +1513,7 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131697972&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131979220&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1528,7 +1528,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>DECLARACION DE IMPACTO AMBIENTAL LOTEO HABITACIONAL D.F.L.2, MACRO PILAUCO II</t>
+          <t>Ampliación Transporte Terrestre de Sustancias Químicas</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1538,30 +1538,30 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Galilea de Ingeniería y Construcción</t>
+          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>72470</v>
+        <v>10000</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>12/08/2016</t>
+          <t>22/08/2016</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131467206&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131697972&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1576,7 +1576,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Riego de riles Planta Mulpulmo</t>
+          <t>DECLARACION DE IMPACTO AMBIENTAL LOTEO HABITACIONAL D.F.L.2, MACRO PILAUCO II</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1591,25 +1591,25 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Lácteos del Sur S.A.</t>
+          <t>Galilea de Ingeniería y Construcción</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>90</v>
+        <v>72470</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>03/06/2016</t>
+          <t>12/08/2016</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131404162&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131467206&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1624,7 +1624,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Compostaje y Vermicompostaje Residuos Sólidos Orgánicos. Sector Barro Blanco. Comuna de Osorno.</t>
+          <t>Riego de riles Planta Mulpulmo</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1639,25 +1639,25 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Frigorífico de osorno S.A.</t>
+          <t>Lácteos del Sur S.A.</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>500</v>
+        <v>90</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>17/09/2015</t>
+          <t>03/06/2016</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130760880&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131404162&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -1672,7 +1672,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Bodega para Almacenamiento de Sustancias Peligrosas - Sucursal Osorno</t>
+          <t>Compostaje y Vermicompostaje Residuos Sólidos Orgánicos. Sector Barro Blanco. Comuna de Osorno.</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1687,25 +1687,25 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>ANASAC CHILE S.A.</t>
+          <t>Frigorífico de osorno S.A.</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>193</v>
+        <v>500</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>05/05/2015</t>
+          <t>17/09/2015</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130426799&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130760880&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -1720,7 +1720,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Proyecto Centro de Agroturismo El Mirador</t>
+          <t>Bodega para Almacenamiento de Sustancias Peligrosas - Sucursal Osorno</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1735,15 +1735,15 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Sociedad de Agroturismo El Mirador Limitada</t>
+          <t>ANASAC CHILE S.A.</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>500</v>
+        <v>193</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>19/03/2015</t>
+          <t>05/05/2015</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
@@ -1753,7 +1753,7 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130315339&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130426799&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -1783,7 +1783,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Lucia Adriana Kyling Montecino</t>
+          <t>Sociedad de Agroturismo El Mirador Limitada</t>
         </is>
       </c>
       <c r="F30" t="n">
@@ -1791,17 +1791,17 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>09/03/2015</t>
+          <t>19/03/2015</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130308568&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130315339&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Tratamiento de Residuos Especiales e Industriales a Través de Incineración, Osorno.</t>
+          <t>Proyecto Centro de Agroturismo El Mirador</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1831,25 +1831,25 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Inversiones Las Higueras Limitada</t>
+          <t>Lucia Adriana Kyling Montecino</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>1500</v>
+        <v>500</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>19/02/2015</t>
+          <t>09/03/2015</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130221119&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130308568&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -1864,7 +1864,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
+          <t>Tratamiento de Residuos Especiales e Industriales a Través de Incineración, Osorno.</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1874,30 +1874,30 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>Inversiones Las Higueras Limitada</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>5000</v>
+        <v>1500</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>26/01/2015</t>
+          <t>19/02/2015</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130159203&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130221119&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -1912,7 +1912,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos y no Peligrosos entre las Regiones XV y X</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1935,7 +1935,7 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>26/12/2014</t>
+          <t>26/01/2015</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
@@ -1945,7 +1945,7 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076569&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130159203&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -1960,7 +1960,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
+          <t>Transporte Terrestre de Residuos Peligrosos y no Peligrosos entre las Regiones XV y X</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1983,7 +1983,7 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>20/11/2014</t>
+          <t>26/12/2014</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
@@ -1993,7 +1993,7 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129965016&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076569&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -2008,7 +2008,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>"AMPLIACION DE RUTAS PARA TRANSPORTE TERRESTRE DE RESIDUOS Y SUSTANCIAS PELIGROSAS A GRANEL DESDE LA I A LA X REGIÓN TRANSPORTES TRANSVER LTDA"</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2023,15 +2023,15 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Transportes Transver Ltda.</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>17/11/2014</t>
+          <t>20/11/2014</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
@@ -2041,7 +2041,7 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129535685&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129965016&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -2056,7 +2056,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Modificación Transporte y Logística Interregional de Cargas y/o Sustancias Peligrosas.</t>
+          <t>"AMPLIACION DE RUTAS PARA TRANSPORTE TERRESTRE DE RESIDUOS Y SUSTANCIAS PELIGROSAS A GRANEL DESDE LA I A LA X REGIÓN TRANSPORTES TRANSVER LTDA"</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2071,25 +2071,25 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
+          <t>Transportes Transver Ltda.</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>6750</v>
+        <v>0</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>13/11/2014</t>
+          <t>17/11/2014</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129725840&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129535685&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -2104,7 +2104,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
+          <t>Modificación Transporte y Logística Interregional de Cargas y/o Sustancias Peligrosas.</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -2119,25 +2119,25 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>5000</v>
+        <v>6750</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>05/11/2014</t>
+          <t>13/11/2014</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129895680&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129725840&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -2152,7 +2152,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos y No Peligrosos entre las Regiones XV y X</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2175,7 +2175,7 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>30/06/2014</t>
+          <t>05/11/2014</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
@@ -2185,7 +2185,7 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129237859&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129895680&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -2200,7 +2200,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Extracción de áridos en pozo Jauregui</t>
+          <t>Transporte Terrestre de Residuos Peligrosos y No Peligrosos entre las Regiones XV y X</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2210,20 +2210,20 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Juan Carlos Jauregui Hidalgo</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>400</v>
+        <v>5000</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>22/01/2014</t>
+          <t>30/06/2014</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
@@ -2233,7 +2233,7 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129115711&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129237859&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -2248,7 +2248,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Extracción de áridos en pozo Jauregui</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2258,30 +2258,30 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>Juan Carlos Jauregui Hidalgo</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>1200</v>
+        <v>400</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>23/12/2013</t>
+          <t>22/01/2014</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129115711&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -2296,7 +2296,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Extracción de áridos en Pozo Jauregui</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2306,30 +2306,30 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Juan Carlos Jauregui Hidalgo</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>400</v>
+        <v>1200</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>09/12/2013</t>
+          <t>23/12/2013</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128899538&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -2344,7 +2344,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos y no peligrosos entre las Regiones XV y X</t>
+          <t>Extracción de áridos en Pozo Jauregui</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2354,20 +2354,20 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>Juan Carlos Jauregui Hidalgo</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>5000</v>
+        <v>400</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>08/11/2013</t>
+          <t>09/12/2013</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
@@ -2377,7 +2377,7 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128788354&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128899538&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -2392,7 +2392,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Empréstito Los Melíes, Comuna de Osorno, Región de Los Lagos</t>
+          <t>Transporte Terrestre de Residuos Peligrosos y no peligrosos entre las Regiones XV y X</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2402,30 +2402,30 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Dragados S.A. Agencia en Chile</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>543</v>
+        <v>5000</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>07/11/2013</t>
+          <t>08/11/2013</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128789901&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128788354&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -2440,7 +2440,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Declaración de impacto ambiental "Modificación del Manejo de la mortalidad mediante sistema de ensilaje en Piscicultura Santa Juana"</t>
+          <t>Empréstito Los Melíes, Comuna de Osorno, Región de Los Lagos</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2455,15 +2455,15 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Cermaq Chile S.A.</t>
+          <t>Dragados S.A. Agencia en Chile</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>1</v>
+        <v>543</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>15/07/2013</t>
+          <t>07/11/2013</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
@@ -2473,7 +2473,7 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8355513&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128789901&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -2488,7 +2488,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>REGULARIZACIÓN DEL TRANSPORTE DE SUSTANCIAS PELIGROSAS TREXVAL S.A.</t>
+          <t>Declaración de impacto ambiental "Modificación del Manejo de la mortalidad mediante sistema de ensilaje en Piscicultura Santa Juana"</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2498,20 +2498,20 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Trexval S.A.</t>
+          <t>Cermaq Chile S.A.</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>21/06/2013</t>
+          <t>15/07/2013</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
@@ -2521,7 +2521,7 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8280859&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8355513&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -2536,7 +2536,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Regularización Transporte de Sustancias Peligrosas TREXVAL S.A.</t>
+          <t>REGULARIZACIÓN DEL TRANSPORTE DE SUSTANCIAS PELIGROSAS TREXVAL S.A.</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2559,17 +2559,17 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>06/06/2013</t>
+          <t>21/06/2013</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8227033&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8280859&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -2584,7 +2584,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Mejoramiento Tecnológico Planta Watts Osorno</t>
+          <t>Regularización Transporte de Sustancias Peligrosas TREXVAL S.A.</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2594,30 +2594,30 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Watts S.A.</t>
+          <t>Trexval S.A.</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>7751</v>
+        <v>0</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>23/05/2013</t>
+          <t>06/06/2013</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8187978&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8227033&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -2632,7 +2632,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>"Riego en pradera con efluentes tratados de RILes lácteos".</t>
+          <t>Mejoramiento Tecnológico Planta Watts Osorno</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2647,25 +2647,25 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Industrias Valle Verde S.A.</t>
+          <t>Watts S.A.</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>0</v>
+        <v>7751</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>16/05/2013</t>
+          <t>23/05/2013</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8172032&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8187978&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -2680,7 +2680,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Transporte de residuos No Peligrosos, Peligrosos y Especiales entre la XV región y la X región</t>
+          <t>"Riego en pradera con efluentes tratados de RILes lácteos".</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2690,20 +2690,20 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Industrias Valle Verde S.A.</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>10/05/2013</t>
+          <t>16/05/2013</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
@@ -2713,7 +2713,7 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158912&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8172032&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -2728,7 +2728,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas TREXVAL S.A.</t>
+          <t>Transporte de residuos No Peligrosos, Peligrosos y Especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2743,15 +2743,15 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Mauricio Salím Mahmud Vergara</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>2500</v>
+        <v>250</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>06/05/2013</t>
+          <t>10/05/2013</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
@@ -2761,7 +2761,7 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8126996&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158912&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -2791,25 +2791,25 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Trexval S.A.</t>
+          <t>Mauricio Salím Mahmud Vergara</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>2475</v>
+        <v>2500</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>17/04/2013</t>
+          <t>06/05/2013</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8057600&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8126996&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -2824,7 +2824,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>Transporte de Sustancias Peligrosas TREXVAL S.A.</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2839,15 +2839,15 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Trexval S.A.</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>250</v>
+        <v>2475</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>15/04/2013</t>
+          <t>17/04/2013</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
@@ -2857,7 +2857,7 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8063600&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8057600&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -2895,7 +2895,7 @@
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>19/03/2013</t>
+          <t>15/04/2013</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
@@ -2905,7 +2905,7 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7961483&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8063600&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -2920,7 +2920,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Ampliación de extracción de áridos en el río Rahue sector fundo el Almud - San Florentino</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2930,30 +2930,30 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>ARIDOS DOWLING &amp; SCHILLING S.A</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>7000</v>
+        <v>250</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>18/03/2013</t>
+          <t>19/03/2013</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7972056&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7961483&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -2968,7 +2968,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>"PISCICULTURA TRAFUN, COMUNA DE SAN PABLO, PROVINCIA DE OSORNO, DÉCIMA REGIÓN DE LOS LAGOS"</t>
+          <t>Ampliación de extracción de áridos en el río Rahue sector fundo el Almud - San Florentino</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2983,15 +2983,15 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Mainstream Chile S.A.</t>
+          <t>ARIDOS DOWLING &amp; SCHILLING S.A</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>31/12/2012</t>
+          <t>18/03/2013</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
@@ -3001,7 +3001,7 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7715692&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7972056&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -3016,7 +3016,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Ampliación de extracción de áridos en Pozo Jauregui</t>
+          <t>"PISCICULTURA TRAFUN, COMUNA DE SAN PABLO, PROVINCIA DE OSORNO, DÉCIMA REGIÓN DE LOS LAGOS"</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3031,25 +3031,25 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Juan Carlos Jauregui Hidalgo</t>
+          <t>Mainstream Chile S.A.</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>500</v>
+        <v>6000</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>22/11/2012</t>
+          <t>31/12/2012</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7547676&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7715692&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -3112,7 +3112,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>MODIFICACION A LA DECLARACION DE IMPACTO AMBIENTAL PISCICULTURA EL VENADO</t>
+          <t>Ampliación de extracción de áridos en Pozo Jauregui</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -3127,25 +3127,25 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Sociedad Agrícola Covarrubias Fernández Ltda.</t>
+          <t>Juan Carlos Jauregui Hidalgo</t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>2500</v>
+        <v>500</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>12/11/2012</t>
+          <t>22/11/2012</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7509459&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7547676&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -3160,7 +3160,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN A LA DECLARACIÓN DE IMPACTO AMBIENTAL PISCICULTURA EL VENADO COMUNA DE OSORNO.</t>
+          <t>MODIFICACION A LA DECLARACION DE IMPACTO AMBIENTAL PISCICULTURA EL VENADO</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -3183,7 +3183,7 @@
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>17/10/2012</t>
+          <t>12/11/2012</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
@@ -3193,7 +3193,7 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7352039&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7509459&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -3208,7 +3208,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Ampliación Piscicultura Cancura</t>
+          <t>MODIFICACIÓN A LA DECLARACIÓN DE IMPACTO AMBIENTAL PISCICULTURA EL VENADO COMUNA DE OSORNO.</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -3223,25 +3223,25 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Cermaq Chile S.A.</t>
+          <t>Sociedad Agrícola Covarrubias Fernández Ltda.</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>4000</v>
+        <v>2500</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>27/07/2012</t>
+          <t>17/10/2012</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6858091&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7352039&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -3256,7 +3256,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
+          <t>Ampliación Piscicultura Cancura</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -3266,30 +3266,30 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>KDM SERVICIOS S.A.</t>
+          <t>Cermaq Chile S.A.</t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>16/05/2012</t>
+          <t>27/07/2012</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6888046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6858091&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -3304,7 +3304,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Planta de destilacion de gases del aire</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3314,30 +3314,30 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>GASES DEL SUR SOCIEDAD LIMITADA</t>
+          <t>KDM SERVICIOS S.A.</t>
         </is>
       </c>
       <c r="F62" t="n">
-        <v>1000</v>
+        <v>5000</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>11/05/2012</t>
+          <t>16/05/2012</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6913953&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6888046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -3352,7 +3352,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos Interregional</t>
+          <t>Planta de destilacion de gases del aire</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -3362,30 +3362,30 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Jorge Andrés Torres Hidalgo</t>
+          <t>GASES DEL SUR SOCIEDAD LIMITADA</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>23/04/2012</t>
+          <t>11/05/2012</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6852559&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6913953&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -3400,7 +3400,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
+          <t>Transporte de Residuos Peligrosos Interregional</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -3415,25 +3415,25 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Jorge Andrés Torres Hidalgo</t>
         </is>
       </c>
       <c r="F64" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>20/02/2012</t>
+          <t>23/04/2012</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6852559&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -3448,7 +3448,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>AUTOGENERACION ELECTRICA PROLESUR</t>
+          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -3458,30 +3458,30 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Prolesur S.A.</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F65" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>13/02/2012</t>
+          <t>20/02/2012</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6601064&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -3511,7 +3511,7 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Sociedad Productores de Leche S.A.</t>
+          <t>Prolesur S.A.</t>
         </is>
       </c>
       <c r="F66" t="n">
@@ -3519,17 +3519,17 @@
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>19/01/2012</t>
+          <t>13/02/2012</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6474722&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6601064&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -3544,7 +3544,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>S/E Seccionadora Rahue 220 kV</t>
+          <t>AUTOGENERACION ELECTRICA PROLESUR</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -3559,25 +3559,25 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A...</t>
+          <t>Sociedad Productores de Leche S.A.</t>
         </is>
       </c>
       <c r="F67" t="n">
-        <v>14000</v>
+        <v>1000</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>18/01/2012</t>
+          <t>19/01/2012</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6504250&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6474722&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
@@ -3592,7 +3592,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Quimicas entre XV y X region .</t>
+          <t>S/E Seccionadora Rahue 220 kV</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3602,30 +3602,30 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>TRANSELEC S.A...</t>
         </is>
       </c>
       <c r="F68" t="n">
-        <v>1000</v>
+        <v>14000</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>11/01/2012</t>
+          <t>18/01/2012</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6435815&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6504250&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -3640,7 +3640,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>Transporte de Sustancias Quimicas entre XV y X region .</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3655,15 +3655,15 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F69" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>10/01/2012</t>
+          <t>11/01/2012</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
@@ -3673,7 +3673,7 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6435815&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -3688,7 +3688,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Plan de cierre Ex basural de Ovejería de osorno</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -3698,30 +3698,30 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Osorno</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F70" t="n">
-        <v>1700</v>
+        <v>100</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>02/01/2012</t>
+          <t>10/01/2012</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6239097&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -3736,7 +3736,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Línea de Transmisión 66 kV Pilauco-Pichil</t>
+          <t>Plan de cierre Ex basural de Ovejería de osorno</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -3751,15 +3751,15 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Sistema de Transmisión del Sur S.A.</t>
+          <t>Ilustre Municipalidad de Osorno</t>
         </is>
       </c>
       <c r="F71" t="n">
-        <v>1967</v>
+        <v>1700</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>01/12/2011</t>
+          <t>02/01/2012</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
@@ -3769,7 +3769,7 @@
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6334231&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6239097&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -3784,7 +3784,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Transportes de Sustancias Quimicas entre la XV y la X region</t>
+          <t>Línea de Transmisión 66 kV Pilauco-Pichil</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -3794,30 +3794,30 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Sistema de Transmisión del Sur S.A.</t>
         </is>
       </c>
       <c r="F72" t="n">
-        <v>1000</v>
+        <v>1967</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>21/11/2011</t>
+          <t>01/12/2011</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6291084&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6334231&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -3832,7 +3832,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Transporte de residuos peligrosos y no peligrosos</t>
+          <t>Transportes de Sustancias Quimicas entre la XV y la X region</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -3847,15 +3847,15 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Fernando Luciano Huerta Tello</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F73" t="n">
-        <v>319</v>
+        <v>1000</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>04/10/2011</t>
+          <t>21/11/2011</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
@@ -3865,7 +3865,7 @@
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5958795&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6291084&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -3880,7 +3880,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>TAP OFF PICHIRREHUE</t>
+          <t>Transporte de residuos peligrosos y no peligrosos</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -3890,30 +3890,30 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Empresa Eléctrica Pilmaiquén S.A.</t>
+          <t>Fernando Luciano Huerta Tello</t>
         </is>
       </c>
       <c r="F74" t="n">
-        <v>19800</v>
+        <v>319</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>01/06/2011</t>
+          <t>04/10/2011</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5675930&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5958795&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
@@ -3928,7 +3928,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE EXTRACCIÓN DE ÁRIDOS RÍO RAHUE SECTOR CANCURA</t>
+          <t>TAP OFF PICHIRREHUE</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3943,15 +3943,15 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>ARIDOS DOWLING &amp; SCHILLING S.A</t>
+          <t>Empresa Eléctrica Pilmaiquén S.A.</t>
         </is>
       </c>
       <c r="F75" t="n">
-        <v>1500</v>
+        <v>19800</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>25/05/2011</t>
+          <t>01/06/2011</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
@@ -3961,7 +3961,7 @@
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5626276&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5675930&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -3976,7 +3976,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Ampliación de rutas para el servicio de transporte, reciclaje y gestión de residuos industriales .</t>
+          <t>AMPLIACIÓN DE EXTRACCIÓN DE ÁRIDOS RÍO RAHUE SECTOR CANCURA</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -3986,20 +3986,20 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Gestión Ambiental Limitada</t>
+          <t>ARIDOS DOWLING &amp; SCHILLING S.A</t>
         </is>
       </c>
       <c r="F76" t="n">
-        <v>250</v>
+        <v>1500</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>27/04/2011</t>
+          <t>25/05/2011</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
@@ -4009,7 +4009,7 @@
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5540550&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5626276&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -4024,7 +4024,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Piscicultura El Encanto</t>
+          <t>Ampliación de rutas para el servicio de transporte, reciclaje y gestión de residuos industriales .</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -4034,30 +4034,30 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Congelados Pacífico S.A.</t>
+          <t>Gestión Ambiental Limitada</t>
         </is>
       </c>
       <c r="F77" t="n">
-        <v>8500</v>
+        <v>250</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>19/04/2011</t>
+          <t>27/04/2011</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5435529&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5540550&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -4072,7 +4072,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Ampliacion de rutas para el transporte, reciclaje y gestión de residuos industriales. .</t>
+          <t>Piscicultura El Encanto</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -4082,30 +4082,30 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Gestión Ambiental Limitada</t>
+          <t>Congelados Pacífico S.A.</t>
         </is>
       </c>
       <c r="F78" t="n">
-        <v>250</v>
+        <v>8500</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>15/04/2011</t>
+          <t>19/04/2011</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5532880&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5435529&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -4120,7 +4120,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Mejoramiento y Ampliación de Producción Piscicultura Rupanquito</t>
+          <t>Ampliacion de rutas para el transporte, reciclaje y gestión de residuos industriales. .</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -4130,30 +4130,30 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Salmones Antártica S.A</t>
+          <t>Gestión Ambiental Limitada</t>
         </is>
       </c>
       <c r="F79" t="n">
-        <v>1500</v>
+        <v>250</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>08/03/2011</t>
+          <t>15/04/2011</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5425000&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5532880&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
@@ -4168,7 +4168,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Subestación Pilauco 220/66 kV</t>
+          <t>Mejoramiento y Ampliación de Producción Piscicultura Rupanquito</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -4183,15 +4183,15 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Sistema de Transmisión del Sur S.A.</t>
+          <t>Salmones Antártica S.A</t>
         </is>
       </c>
       <c r="F80" t="n">
-        <v>14800</v>
+        <v>1500</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>18/02/2011</t>
+          <t>08/03/2011</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
@@ -4201,7 +4201,7 @@
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5359373&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5425000&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
@@ -4216,7 +4216,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Modificación al Manejo de Mortalidad Mediante Sistema de Ensilaje. Piscicultura Las Quemas, Río Rahue, Comuna de Osorno.</t>
+          <t>Subestación Pilauco 220/66 kV</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -4231,15 +4231,15 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Piscicultura Las Quemas Chile S.A.</t>
+          <t>Sistema de Transmisión del Sur S.A.</t>
         </is>
       </c>
       <c r="F81" t="n">
-        <v>4</v>
+        <v>14800</v>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>04/02/2011</t>
+          <t>18/02/2011</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
@@ -4249,7 +4249,7 @@
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5317523&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5359373&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
@@ -4264,7 +4264,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>MEJORAMIENTO PLANTA DE DISPOSICIÓN FINAL DE RESIDUOS INDUSTRIALES ECOPRIAL</t>
+          <t>Modificación al Manejo de Mortalidad Mediante Sistema de Ensilaje. Piscicultura Las Quemas, Río Rahue, Comuna de Osorno.</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -4279,15 +4279,15 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Asesoría Los Olivos S.A</t>
+          <t>Piscicultura Las Quemas Chile S.A.</t>
         </is>
       </c>
       <c r="F82" t="n">
-        <v>500</v>
+        <v>4</v>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>27/01/2011</t>
+          <t>04/02/2011</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
@@ -4297,7 +4297,7 @@
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5285248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5317523&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
@@ -4335,17 +4335,17 @@
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>17/01/2011</t>
+          <t>27/01/2011</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5248742&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5285248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -4360,7 +4360,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Piscicultura El Venado</t>
+          <t>MEJORAMIENTO PLANTA DE DISPOSICIÓN FINAL DE RESIDUOS INDUSTRIALES ECOPRIAL</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -4375,25 +4375,25 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Sociedad Agrícola Covarrubias Fernández Ltda.</t>
+          <t>Asesoría Los Olivos S.A</t>
         </is>
       </c>
       <c r="F84" t="n">
-        <v>8000</v>
+        <v>500</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>19/10/2010</t>
+          <t>17/01/2011</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5012986&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5248742&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
@@ -4408,7 +4408,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>PROYECTO AMPLIACION EXTRACCION DE ARIDOS EN RIO RAHUE SECTOR FUNDO EL ALMUD</t>
+          <t>Piscicultura El Venado</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -4423,15 +4423,15 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>ARIDOS DOWLING &amp; SCHILLING S.A</t>
+          <t>Sociedad Agrícola Covarrubias Fernández Ltda.</t>
         </is>
       </c>
       <c r="F85" t="n">
-        <v>250</v>
+        <v>8000</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>08/10/2010</t>
+          <t>19/10/2010</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
@@ -4441,7 +4441,7 @@
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4992265&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5012986&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
@@ -4456,7 +4456,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS</t>
+          <t>PROYECTO AMPLIACION EXTRACCION DE ARIDOS EN RIO RAHUE SECTOR FUNDO EL ALMUD</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -4466,30 +4466,30 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Sociedad Logística Ambiental Ltda.</t>
+          <t>ARIDOS DOWLING &amp; SCHILLING S.A</t>
         </is>
       </c>
       <c r="F86" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>24/06/2010</t>
+          <t>08/10/2010</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4702856&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4992265&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
@@ -4504,7 +4504,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>SISTEMA DE ENSILAJE DE MORTALIDAD PISCICULTURA PICHICHANLELFU</t>
+          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -4514,30 +4514,30 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Mowi Chile S.A</t>
+          <t>Sociedad Logística Ambiental Ltda.</t>
         </is>
       </c>
       <c r="F87" t="n">
-        <v>50</v>
+        <v>300</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>06/05/2010</t>
+          <t>24/06/2010</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4552129&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4702856&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
@@ -4552,7 +4552,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Piscicultura El Venado</t>
+          <t>SISTEMA DE ENSILAJE DE MORTALIDAD PISCICULTURA PICHICHANLELFU</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -4567,25 +4567,25 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Sociedad Agrícola Covarrubias Fernández Ltda.</t>
+          <t>Mowi Chile S.A</t>
         </is>
       </c>
       <c r="F88" t="n">
-        <v>8000</v>
+        <v>50</v>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>04/05/2010</t>
+          <t>06/05/2010</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4492153&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4552129&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
@@ -4600,7 +4600,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
+          <t>Piscicultura El Venado</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -4610,30 +4610,30 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Sociedad Agrícola Covarrubias Fernández Ltda.</t>
         </is>
       </c>
       <c r="F89" t="n">
-        <v>250</v>
+        <v>8000</v>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>26/04/2010</t>
+          <t>04/05/2010</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4509429&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4492153&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
@@ -4648,7 +4648,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>BODEGA PARA EL ALMACENAMIENTO TRANSITORIO DE RESIDUOS INDUSTRIALES DE TERCEROS, ECOPRIAL</t>
+          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -4658,20 +4658,20 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Asesoría Los Olivos S.A</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F90" t="n">
-        <v>286</v>
+        <v>250</v>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>21/04/2010</t>
+          <t>26/04/2010</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
@@ -4681,7 +4681,7 @@
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4522528&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4509429&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -4696,7 +4696,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
+          <t>BODEGA PARA EL ALMACENAMIENTO TRANSITORIO DE RESIDUOS INDUSTRIALES DE TERCEROS, ECOPRIAL</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -4706,30 +4706,30 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Asesoría Los Olivos S.A</t>
         </is>
       </c>
       <c r="F91" t="n">
-        <v>250</v>
+        <v>286</v>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>10/02/2010</t>
+          <t>21/04/2010</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4352324&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4522528&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
@@ -4744,7 +4744,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -4759,15 +4759,15 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F92" t="n">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>22/01/2010</t>
+          <t>10/02/2010</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
@@ -4777,7 +4777,7 @@
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4352324&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
@@ -4792,7 +4792,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -4807,7 +4807,7 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F93" t="n">
@@ -4820,12 +4820,12 @@
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
@@ -4863,17 +4863,17 @@
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>15/01/2010</t>
+          <t>22/01/2010</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
@@ -4888,7 +4888,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Línea de Alta Tensión Antillanca - Nueva Barro Blanco (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -4898,30 +4898,30 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>Sistema de Transmisión del Sur S.A.</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F95" t="n">
-        <v>8000</v>
+        <v>0</v>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>22/12/2009</t>
+          <t>15/01/2010</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4270514&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
@@ -4936,7 +4936,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS (e-seia)</t>
+          <t>Línea de Alta Tensión Antillanca - Nueva Barro Blanco (e-seia)</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -4946,30 +4946,30 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Sociedad Logística Ambiental Ltda.</t>
+          <t>Sistema de Transmisión del Sur S.A.</t>
         </is>
       </c>
       <c r="F96" t="n">
-        <v>0</v>
+        <v>8000</v>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>30/11/2009</t>
+          <t>22/12/2009</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4224783&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4270514&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
@@ -4984,7 +4984,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Subestación Nueva Barro Blanco 220/66 kV (e-seia)</t>
+          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -4994,30 +4994,30 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>Sistema de Transmisión del Sur S.A.</t>
+          <t>Sociedad Logística Ambiental Ltda.</t>
         </is>
       </c>
       <c r="F97" t="n">
-        <v>14800</v>
+        <v>0</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>26/11/2009</t>
+          <t>30/11/2009</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4215834&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4224783&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
@@ -5032,7 +5032,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Regularización disposición final efluente Inmobiliaria Ferias Unidas de Osorno Limitada. Comuna de Osorno. Provincia de Osorno. Región de los Lagos. (e-seia)</t>
+          <t>Subestación Nueva Barro Blanco 220/66 kV (e-seia)</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -5047,15 +5047,15 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>Sociedad Inmobiliaria Ferias Unidas de Osorno Limitada</t>
+          <t>Sistema de Transmisión del Sur S.A.</t>
         </is>
       </c>
       <c r="F98" t="n">
-        <v>27</v>
+        <v>14800</v>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>12/11/2009</t>
+          <t>26/11/2009</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
@@ -5065,7 +5065,7 @@
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4185561&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4215834&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
@@ -5080,7 +5080,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Transporte Inter-Regional Terrestre de Residuos, PROCESAN S.A. (e-seia)</t>
+          <t>Regularización disposición final efluente Inmobiliaria Ferias Unidas de Osorno Limitada. Comuna de Osorno. Provincia de Osorno. Región de los Lagos. (e-seia)</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -5090,30 +5090,30 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>PROCESAN S.A.</t>
+          <t>Sociedad Inmobiliaria Ferias Unidas de Osorno Limitada</t>
         </is>
       </c>
       <c r="F99" t="n">
-        <v>377</v>
+        <v>27</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>23/10/2009</t>
+          <t>12/11/2009</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4134794&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4185561&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
@@ -5176,7 +5176,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Incorporación de etapa fisicoquímica al sistema de tratamiento de RILes de MAFRISUR S.A. (e-seia)</t>
+          <t>Transporte Inter-Regional Terrestre de Residuos, PROCESAN S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -5186,30 +5186,30 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>MAFRISUR S.A.</t>
+          <t>PROCESAN S.A.</t>
         </is>
       </c>
       <c r="F101" t="n">
-        <v>10</v>
+        <v>377</v>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>29/09/2009</t>
+          <t>23/10/2009</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4085084&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4134794&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
@@ -5224,7 +5224,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos CMR Norte. (e-seia)</t>
+          <t>Incorporación de etapa fisicoquímica al sistema de tratamiento de RILes de MAFRISUR S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -5234,30 +5234,30 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>MAFRISUR S.A.</t>
         </is>
       </c>
       <c r="F102" t="n">
-        <v>250</v>
+        <v>10</v>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>18/08/2009</t>
+          <t>29/09/2009</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3960661&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4085084&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
@@ -5272,7 +5272,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Transporte de Combustibles y Residuos Industriales, Peligrosos y No Peligrosos entre Arica y Puerto Montt (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos CMR Norte. (e-seia)</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -5287,15 +5287,15 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>Transportes Centro Sur Norte S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F103" t="n">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>27/07/2009</t>
+          <t>18/08/2009</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
@@ -5305,7 +5305,7 @@
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3893261&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3960661&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
@@ -5320,7 +5320,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Proyecto Interregional de Transporte de Combustibles y Residuos Industriales, Peligrosos y No Peligrosos entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -5335,15 +5335,15 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>Sotrans Limitada</t>
+          <t>Transportes Centro Sur Norte S.A.</t>
         </is>
       </c>
       <c r="F104" t="n">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>02/06/2009</t>
+          <t>27/07/2009</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
@@ -5353,7 +5353,7 @@
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3893261&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
@@ -5368,7 +5368,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Planta Unidad Sur (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -5378,30 +5378,30 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>Envases Impresos SpA</t>
+          <t>Sotrans Limitada</t>
         </is>
       </c>
       <c r="F105" t="n">
-        <v>30000</v>
+        <v>22</v>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>20/04/2009</t>
+          <t>02/06/2009</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3715069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
@@ -5431,7 +5431,7 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>Envases Roble Alto S.A.</t>
+          <t>Envases Impresos SpA</t>
         </is>
       </c>
       <c r="F106" t="n">
@@ -5439,17 +5439,17 @@
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>08/04/2009</t>
+          <t>20/04/2009</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3685558&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3715069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
@@ -5464,7 +5464,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>LÍNEA DE TRANSMISIÓN ELÉCTRICA 2x220 kV OSORNOBARRO BLANCO (e-seia)</t>
+          <t>Planta Unidad Sur (e-seia)</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -5479,25 +5479,25 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>Empresa Eléctrica Pilmaiquén S.A.</t>
+          <t>Envases Roble Alto S.A.</t>
         </is>
       </c>
       <c r="F107" t="n">
-        <v>4560</v>
+        <v>30000</v>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>06/04/2009</t>
+          <t>08/04/2009</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3677275&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3685558&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
@@ -5512,10 +5512,14 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>EIA Relleno Sanitario Provincial de Osorno</t>
-        </is>
-      </c>
-      <c r="C108" t="inlineStr"/>
+          <t>LÍNEA DE TRANSMISIÓN ELÉCTRICA 2x220 kV OSORNOBARRO BLANCO (e-seia)</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D108" t="inlineStr">
         <is>
           <t>Décima</t>
@@ -5523,15 +5527,15 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Osorno</t>
+          <t>Empresa Eléctrica Pilmaiquén S.A.</t>
         </is>
       </c>
       <c r="F108" t="n">
-        <v>18000</v>
+        <v>4560</v>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>03/04/2009</t>
+          <t>06/04/2009</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
@@ -5541,7 +5545,7 @@
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3675668&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3677275&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
@@ -5556,14 +5560,10 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Ampliación Planta Osorno (e-seia)</t>
-        </is>
-      </c>
-      <c r="C109" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>EIA Relleno Sanitario Provincial de Osorno</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr"/>
       <c r="D109" t="inlineStr">
         <is>
           <t>Décima</t>
@@ -5571,15 +5571,15 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>Watts S.A.</t>
+          <t>Ilustre Municipalidad de Osorno</t>
         </is>
       </c>
       <c r="F109" t="n">
-        <v>22000</v>
+        <v>18000</v>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>24/03/2009</t>
+          <t>03/04/2009</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
@@ -5589,7 +5589,7 @@
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3639837&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3675668&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
@@ -5604,7 +5604,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Línea de Transmisión Los Negros-Barro Blanco (e-seia)</t>
+          <t>Ampliación Planta Osorno (e-seia)</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -5619,15 +5619,15 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>Sistema de Transmisión de Los Lagos S.A.</t>
+          <t>Watts S.A.</t>
         </is>
       </c>
       <c r="F110" t="n">
-        <v>0</v>
+        <v>22000</v>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>13/03/2009</t>
+          <t>24/03/2009</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
@@ -5637,7 +5637,7 @@
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3631384&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3639837&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
@@ -5652,7 +5652,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Transporte de Residuos de Plomo y Baterías en Desuso, por las Regiones VI, VII, VIII, IX, XIV y X (e-seia)</t>
+          <t>Línea de Transmisión Los Negros-Barro Blanco (e-seia)</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -5662,12 +5662,12 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>Transportes Reciclar Limitada</t>
+          <t>Sistema de Transmisión de Los Lagos S.A.</t>
         </is>
       </c>
       <c r="F111" t="n">
@@ -5675,7 +5675,7 @@
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>10/02/2009</t>
+          <t>13/03/2009</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
@@ -5685,7 +5685,7 @@
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3551870&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3631384&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
@@ -5700,7 +5700,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Residuos de Plomo y Baterías en Desuso, por las Regiones VI, VII, VIII, IX, XIV y X (e-seia)</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -5715,7 +5715,7 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>Transportes Reciclar Limitada</t>
         </is>
       </c>
       <c r="F112" t="n">
@@ -5723,17 +5723,17 @@
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>23/01/2009</t>
+          <t>10/02/2009</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503806&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3551870&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
@@ -5771,17 +5771,17 @@
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>27/11/2008</t>
+          <t>23/01/2009</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3337768&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503806&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
@@ -5796,7 +5796,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Transporte de Residuos de Plomo y Baterías en Desuso, por las Regiones VI, VII, VIII, IX, XIV y X (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -5811,7 +5811,7 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>Industria Proveedora de Partes Metalurgicas Ltda.</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F114" t="n">
@@ -5819,17 +5819,17 @@
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>07/11/2008</t>
+          <t>27/11/2008</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3321441&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3337768&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
@@ -5844,7 +5844,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Transporte de Residuos de Plomo y Baterías en Desuso, por las Regiones VI, VII, VIII, IX, XIV y X (e-seia)</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -5859,25 +5859,25 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Industria Proveedora de Partes Metalurgicas Ltda.</t>
         </is>
       </c>
       <c r="F115" t="n">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>30/10/2008</t>
+          <t>07/11/2008</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3313847&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3321441&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
@@ -5915,17 +5915,17 @@
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>15/10/2008</t>
+          <t>30/10/2008</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3313847&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
@@ -5940,7 +5940,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -5955,11 +5955,11 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F117" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G117" t="inlineStr">
         <is>
@@ -5968,12 +5968,12 @@
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
@@ -5988,7 +5988,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Proyecto Inmobiliario Portal Osorno (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -5998,30 +5998,30 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>Inmobiliaria Martabid Limitada</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F118" t="n">
-        <v>20000</v>
+        <v>250</v>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>10/10/2008</t>
+          <t>15/10/2008</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3272599&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
@@ -6084,7 +6084,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>Proyecto Inmobiliario Portal Osorno (e-seia)</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -6094,30 +6094,30 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Inmobiliaria Martabid Limitada</t>
         </is>
       </c>
       <c r="F120" t="n">
-        <v>250</v>
+        <v>20000</v>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>01/10/2008</t>
+          <t>10/10/2008</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3232866&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3272599&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
@@ -6132,7 +6132,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>PLANTA ELABORADORA DE LECHE EN POLVO, COMUNA DE OSORNO, REGIÓN DE LOS LAGOS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -6142,30 +6142,30 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>Nestlé Chile S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F121" t="n">
-        <v>84000</v>
+        <v>250</v>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>29/09/2008</t>
+          <t>01/10/2008</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223561&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3232866&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
@@ -6180,7 +6180,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>PLANTA ELABORADORA DE LECHE EN POLVO, COMUNA DE OSORNO, REGIÓN DE LOS LAGOS (e-seia)</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -6190,30 +6190,30 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Nestlé Chile S.A.</t>
         </is>
       </c>
       <c r="F122" t="n">
-        <v>20</v>
+        <v>84000</v>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>16/09/2008</t>
+          <t>29/09/2008</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3192496&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223561&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
@@ -6228,7 +6228,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Regularización de Ampliación y Adición de Equipos al Sistema de Tratamiento de riles de la Planta Frigorífico de Osorno S.A. Comuna de Osorno. Región de los Lagos (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -6238,30 +6238,30 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>Frigorífico de osorno S.A.</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F123" t="n">
-        <v>160</v>
+        <v>20</v>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>28/08/2008</t>
+          <t>16/09/2008</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3143976&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3192496&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
@@ -6276,7 +6276,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>Regularización de Ampliación y Adición de Equipos al Sistema de Tratamiento de riles de la Planta Frigorífico de Osorno S.A. Comuna de Osorno. Región de los Lagos (e-seia)</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -6286,30 +6286,30 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Frigorífico de osorno S.A.</t>
         </is>
       </c>
       <c r="F124" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>20/08/2008</t>
+          <t>28/08/2008</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3143976&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
@@ -6324,7 +6324,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -6339,25 +6339,25 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F125" t="n">
-        <v>1650</v>
+        <v>250</v>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>06/08/2008</t>
+          <t>20/08/2008</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3079271&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
@@ -6372,7 +6372,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -6387,15 +6387,15 @@
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F126" t="n">
-        <v>20</v>
+        <v>1650</v>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>05/08/2008</t>
+          <t>06/08/2008</t>
         </is>
       </c>
       <c r="H126" t="inlineStr">
@@ -6405,7 +6405,7 @@
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3079271&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
@@ -6420,7 +6420,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Segunda Modificación Piscicultura Santa Juana (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -6430,30 +6430,30 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>Cermaq Chile S.A.</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F127" t="n">
-        <v>7000</v>
+        <v>20</v>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>11/07/2008</t>
+          <t>05/08/2008</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3031825&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
@@ -6468,7 +6468,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>transporte de residuos peligrosos (e-seia)</t>
+          <t>Segunda Modificación Piscicultura Santa Juana (e-seia)</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -6478,30 +6478,30 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Cermaq Chile S.A.</t>
         </is>
       </c>
       <c r="F128" t="n">
-        <v>20</v>
+        <v>7000</v>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>09/07/2008</t>
+          <t>11/07/2008</t>
         </is>
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3023770&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3031825&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
@@ -6516,7 +6516,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
+          <t>transporte de residuos peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -6531,15 +6531,15 @@
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F129" t="n">
-        <v>1650</v>
+        <v>20</v>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>07/07/2008</t>
+          <t>09/07/2008</t>
         </is>
       </c>
       <c r="H129" t="inlineStr">
@@ -6549,7 +6549,7 @@
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3008477&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3023770&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
@@ -6564,7 +6564,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>transporte de residuos peligrosos (e-seia)</t>
+          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -6579,15 +6579,15 @@
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F130" t="n">
-        <v>20</v>
+        <v>1650</v>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>30/05/2008</t>
+          <t>07/07/2008</t>
         </is>
       </c>
       <c r="H130" t="inlineStr">
@@ -6597,7 +6597,7 @@
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2910651&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3008477&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
@@ -6612,7 +6612,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Ampliacion Central Chuyaca (e-seia)</t>
+          <t>transporte de residuos peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -6622,30 +6622,30 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>SAGESA S.A.</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F131" t="n">
-        <v>4800</v>
+        <v>20</v>
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>17/04/2008</t>
+          <t>30/05/2008</t>
         </is>
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2845928&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2910651&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
@@ -6660,7 +6660,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Modificación Piscicultura Las Quemas. Río Rahue. Comuna de Osorno (e-seia)</t>
+          <t>Ampliacion Central Chuyaca (e-seia)</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -6675,15 +6675,15 @@
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>PISCICULTURA LAS QUEMAS CHILE S.A.</t>
+          <t>S